--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\CovidActNowAPIClient\StateOfTexas\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58ED7D1-F707-4883-A677-B3211D700D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA398C12-2B56-4F8F-970F-8E70002A7370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="57480" yWindow="2205" windowWidth="24240" windowHeight="13140" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -235,6 +235,12 @@
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -547,7 +553,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="80">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -628,8 +634,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,8 +648,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="80">
+  <cellStyles count="82">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -684,6 +693,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Normal 11" xfId="79" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 11 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 12" xfId="81" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F5C747AA-F0F3-427C-9470-C9FB9C452FE3}"/>
     <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal 2 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
@@ -1033,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:BV257"/>
+  <dimension ref="A1:CD257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,9 +1074,16 @@
     <col min="71" max="71" width="10.5" style="5" customWidth="1"/>
     <col min="72" max="72" width="10.19921875" style="5" customWidth="1"/>
     <col min="73" max="73" width="10.69921875" style="5" customWidth="1"/>
+    <col min="74" max="74" width="10.59765625" customWidth="1"/>
+    <col min="75" max="75" width="11" customWidth="1"/>
+    <col min="76" max="78" width="11" style="6" customWidth="1"/>
+    <col min="79" max="79" width="10.09765625" customWidth="1"/>
+    <col min="80" max="80" width="10.296875" style="6" customWidth="1"/>
+    <col min="81" max="81" width="10.296875" customWidth="1"/>
+    <col min="82" max="82" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1288,8 +1306,32 @@
       <c r="BV1" s="3">
         <v>44159</v>
       </c>
-    </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BW1" s="3">
+        <v>44160</v>
+      </c>
+      <c r="BX1" s="3">
+        <v>44161</v>
+      </c>
+      <c r="BY1" s="3">
+        <v>44162</v>
+      </c>
+      <c r="BZ1" s="3">
+        <v>44163</v>
+      </c>
+      <c r="CA1" s="3">
+        <v>44164</v>
+      </c>
+      <c r="CB1" s="3">
+        <v>44165</v>
+      </c>
+      <c r="CC1" s="3">
+        <v>44166</v>
+      </c>
+      <c r="CD1" s="3">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1554,32 @@
       <c r="BV2" s="2">
         <v>461310</v>
       </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="BW2" s="2">
+        <v>464746</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>469728</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>475706</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>478051</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>480689</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>486111</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>489592</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>493103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1606,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1548,7 +1614,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1556,7 +1622,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1564,7 +1630,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1572,7 +1638,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1580,7 +1646,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1588,7 +1654,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1596,7 +1662,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1604,7 +1670,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1612,7 +1678,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1620,7 +1686,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1628,7 +1694,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1636,7 +1702,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA398C12-2B56-4F8F-970F-8E70002A7370}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D6C22F-2FAF-4A18-A7B1-D02D7548EF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="2205" windowWidth="24240" windowHeight="13140" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1044,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CD257"/>
+  <dimension ref="A1:CH257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,10 +1080,10 @@
     <col min="79" max="79" width="10.09765625" customWidth="1"/>
     <col min="80" max="80" width="10.296875" style="6" customWidth="1"/>
     <col min="81" max="81" width="10.296875" customWidth="1"/>
-    <col min="82" max="82" width="10.796875" style="6" customWidth="1"/>
+    <col min="82" max="83" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1330,8 +1330,20 @@
       <c r="CD1" s="3">
         <v>44167</v>
       </c>
-    </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="CE1" s="3">
+        <v>44168</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>44169</v>
+      </c>
+      <c r="CG1" s="3">
+        <v>44170</v>
+      </c>
+      <c r="CH1" s="3">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1578,8 +1590,20 @@
       <c r="CD2" s="2">
         <v>493103</v>
       </c>
-    </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.2">
+      <c r="CE2" s="2">
+        <v>497281</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>503371</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>508670</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>512789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1630,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1614,7 +1638,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1622,7 +1646,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1630,7 +1654,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1638,7 +1662,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1646,7 +1670,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1654,7 +1678,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1662,7 +1686,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1670,7 +1694,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1678,7 +1702,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1686,7 +1710,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1694,7 +1718,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1702,7 +1726,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D6C22F-2FAF-4A18-A7B1-D02D7548EF3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67ABFF9-6FDE-474A-94CE-52248488A051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1044,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CH257"/>
+  <dimension ref="A1:CJ257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,10 +1080,10 @@
     <col min="79" max="79" width="10.09765625" customWidth="1"/>
     <col min="80" max="80" width="10.296875" style="6" customWidth="1"/>
     <col min="81" max="81" width="10.296875" customWidth="1"/>
-    <col min="82" max="83" width="10.796875" style="6" customWidth="1"/>
+    <col min="82" max="88" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1342,8 +1342,14 @@
       <c r="CH1" s="3">
         <v>44171</v>
       </c>
-    </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI1" s="3">
+        <v>44172</v>
+      </c>
+      <c r="CJ1" s="3">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1602,8 +1608,14 @@
       <c r="CH2" s="2">
         <v>512789</v>
       </c>
-    </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+      <c r="CI2" s="2">
+        <v>516381</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>521375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1642,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1638,7 +1650,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1646,7 +1658,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1654,7 +1666,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1662,7 +1674,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1670,7 +1682,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1678,7 +1690,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1686,7 +1698,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1694,7 +1706,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1702,7 +1714,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1710,7 +1722,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1718,7 +1730,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1726,7 +1738,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67ABFF9-6FDE-474A-94CE-52248488A051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D071BF-6270-4DA9-B315-D3DA4E9A6171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1044,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CJ257"/>
+  <dimension ref="A1:CK257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
+      <selection activeCell="CJ2" sqref="CJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,10 +1080,10 @@
     <col min="79" max="79" width="10.09765625" customWidth="1"/>
     <col min="80" max="80" width="10.296875" style="6" customWidth="1"/>
     <col min="81" max="81" width="10.296875" customWidth="1"/>
-    <col min="82" max="88" width="10.796875" style="6" customWidth="1"/>
+    <col min="82" max="89" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1348,8 +1348,11 @@
       <c r="CJ1" s="3">
         <v>44173</v>
       </c>
-    </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="CK1" s="3">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1614,8 +1617,11 @@
       <c r="CJ2" s="2">
         <v>521375</v>
       </c>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="CK2" s="2">
+        <v>527322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1648,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1650,7 +1656,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1658,7 +1664,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1666,7 +1672,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1674,7 +1680,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1682,7 +1688,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1690,7 +1696,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1698,7 +1704,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1706,7 +1712,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1714,7 +1720,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1722,7 +1728,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1730,7 +1736,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1738,7 +1744,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D071BF-6270-4DA9-B315-D3DA4E9A6171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2673C8F-015F-45DA-8DFA-1D4DDE5FD2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="test">#REF!</definedName>
     <definedName name="vlook">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1044,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CK257"/>
+  <dimension ref="A1:CL257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" workbookViewId="0">
-      <selection activeCell="CJ2" sqref="CJ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1080,10 +1080,10 @@
     <col min="79" max="79" width="10.09765625" customWidth="1"/>
     <col min="80" max="80" width="10.296875" style="6" customWidth="1"/>
     <col min="81" max="81" width="10.296875" customWidth="1"/>
-    <col min="82" max="89" width="10.796875" style="6" customWidth="1"/>
+    <col min="82" max="90" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1351,8 +1351,11 @@
       <c r="CK1" s="3">
         <v>44174</v>
       </c>
-    </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="CL1" s="3">
+        <v>44175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1620,8 +1623,11 @@
       <c r="CK2" s="2">
         <v>527322</v>
       </c>
-    </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.2">
+      <c r="CL2" s="2">
+        <v>532665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1648,7 +1654,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1656,7 +1662,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1664,7 +1670,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1672,7 +1678,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1680,7 +1686,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1688,7 +1694,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1696,7 +1702,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1704,7 +1710,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1712,7 +1718,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1720,7 +1726,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1728,7 +1734,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1736,7 +1742,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1744,7 +1750,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2673C8F-015F-45DA-8DFA-1D4DDE5FD2B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4541CD9-4251-4B51-BC45-F4AF38481208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -63,12 +63,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -553,104 +560,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="82">
+  <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="82">
+  <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -695,11 +710,13 @@
     <cellStyle name="Normal 11" xfId="79" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Normal 11 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
     <cellStyle name="Normal 12" xfId="81" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 12 2" xfId="85" xr:uid="{AAE58CC1-DCF9-4A7B-A9DD-07DD08BFFACC}"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F5C747AA-F0F3-427C-9470-C9FB9C452FE3}"/>
     <cellStyle name="Normal 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal 2 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Normal 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Normal 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="83" xr:uid="{BC931D41-3168-40B7-BAC8-DCA90742DFE9}"/>
     <cellStyle name="Normal 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Normal 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 2 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -711,12 +728,14 @@
     <cellStyle name="Normal 3 2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Normal 3 2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Normal 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{20404EFE-BAF4-44F4-B1F6-6F3DF681A420}"/>
     <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Normal 4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Normal 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Normal 4 3" xfId="49" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="Normal 4 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Normal 4 4" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 4 5" xfId="82" xr:uid="{66249071-325C-4FBB-8223-0E937C3F32FF}"/>
     <cellStyle name="Normal 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Normal 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Normal 5 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
@@ -1044,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CL257"/>
+  <dimension ref="A1:CM257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CM2" sqref="CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1083,7 +1102,7 @@
     <col min="82" max="90" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1354,8 +1373,11 @@
       <c r="CL1" s="3">
         <v>44175</v>
       </c>
-    </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="CM1" s="7">
+        <v>44176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1626,8 +1648,11 @@
       <c r="CL2" s="2">
         <v>532665</v>
       </c>
-    </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
+      <c r="CM2" s="8">
+        <v>538338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1679,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1662,7 +1687,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1670,7 +1695,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1678,7 +1703,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1686,7 +1711,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1694,7 +1719,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1702,7 +1727,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1710,7 +1735,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1718,7 +1743,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1726,7 +1751,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1734,7 +1759,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1742,7 +1767,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1750,7 +1775,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4541CD9-4251-4B51-BC45-F4AF38481208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150239ED-9F51-440C-8BB1-E65696CAE6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -63,12 +63,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -560,112 +567,119 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="89">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -717,6 +731,7 @@
     <cellStyle name="Normal 2 2 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Normal 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Normal 2 2 4" xfId="83" xr:uid="{BC931D41-3168-40B7-BAC8-DCA90742DFE9}"/>
+    <cellStyle name="Normal 2 2 5" xfId="87" xr:uid="{D11417DD-B576-4B31-91BA-28352830F7F9}"/>
     <cellStyle name="Normal 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Normal 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 2 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -729,6 +744,7 @@
     <cellStyle name="Normal 3 2 3" xfId="72" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Normal 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{20404EFE-BAF4-44F4-B1F6-6F3DF681A420}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{6B8A83A0-18BA-411F-9182-0392FB22158B}"/>
     <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Normal 4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Normal 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -736,6 +752,7 @@
     <cellStyle name="Normal 4 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Normal 4 4" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Normal 4 5" xfId="82" xr:uid="{66249071-325C-4FBB-8223-0E937C3F32FF}"/>
+    <cellStyle name="Normal 4 6" xfId="86" xr:uid="{26ABB0C2-6E9C-4438-8B59-525C76EA70AC}"/>
     <cellStyle name="Normal 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Normal 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Normal 5 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
@@ -1063,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CM257"/>
+  <dimension ref="A1:CN257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2"/>
+      <selection activeCell="CN2" sqref="CN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1102,7 +1119,7 @@
     <col min="82" max="90" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1376,8 +1393,11 @@
       <c r="CM1" s="7">
         <v>44176</v>
       </c>
-    </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="CN1" s="9">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1651,8 +1671,11 @@
       <c r="CM2" s="8">
         <v>538338</v>
       </c>
-    </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="CN2" s="10">
+        <v>542382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1679,7 +1702,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1687,7 +1710,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1695,7 +1718,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1703,7 +1726,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1711,7 +1734,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1719,7 +1742,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1727,7 +1750,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1735,7 +1758,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1743,7 +1766,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1751,7 +1774,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1759,7 +1782,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1767,7 +1790,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1775,7 +1798,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150239ED-9F51-440C-8BB1-E65696CAE6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D0975-AF47-405C-A82E-486C5A21A008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -63,12 +63,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -567,119 +574,126 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="89">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="89">
+  <cellStyles count="92">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -732,6 +746,7 @@
     <cellStyle name="Normal 2 2 3" xfId="69" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="Normal 2 2 4" xfId="83" xr:uid="{BC931D41-3168-40B7-BAC8-DCA90742DFE9}"/>
     <cellStyle name="Normal 2 2 5" xfId="87" xr:uid="{D11417DD-B576-4B31-91BA-28352830F7F9}"/>
+    <cellStyle name="Normal 2 2 6" xfId="90" xr:uid="{61E38ABE-BD0E-4848-8B36-435EB20950D3}"/>
     <cellStyle name="Normal 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Normal 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 2 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -745,6 +760,7 @@
     <cellStyle name="Normal 3 3" xfId="59" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{20404EFE-BAF4-44F4-B1F6-6F3DF681A420}"/>
     <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{6B8A83A0-18BA-411F-9182-0392FB22158B}"/>
+    <cellStyle name="Normal 3 3 4" xfId="91" xr:uid="{271F10FE-5FBC-4877-8684-C0E67E33D2F9}"/>
     <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Normal 4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Normal 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -753,6 +769,7 @@
     <cellStyle name="Normal 4 4" xfId="70" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Normal 4 5" xfId="82" xr:uid="{66249071-325C-4FBB-8223-0E937C3F32FF}"/>
     <cellStyle name="Normal 4 6" xfId="86" xr:uid="{26ABB0C2-6E9C-4438-8B59-525C76EA70AC}"/>
+    <cellStyle name="Normal 4 7" xfId="89" xr:uid="{F28D0017-E058-460C-A718-90949197774A}"/>
     <cellStyle name="Normal 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Normal 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Normal 5 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
@@ -1080,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CN257"/>
+  <dimension ref="A1:CO257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CN2" sqref="CN2"/>
+      <selection activeCell="CO2" sqref="CO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1136,7 @@
     <col min="82" max="90" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1396,8 +1413,11 @@
       <c r="CN1" s="9">
         <v>44177</v>
       </c>
-    </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="CO1" s="11">
+        <v>44178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1674,8 +1694,11 @@
       <c r="CN2" s="10">
         <v>542382</v>
       </c>
-    </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.2">
+      <c r="CO2" s="12">
+        <v>548543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1725,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1710,7 +1733,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1718,7 +1741,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1726,7 +1749,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1734,7 +1757,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1742,7 +1765,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1750,7 +1773,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1758,7 +1781,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1766,7 +1789,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1774,7 +1797,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1782,7 +1805,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1790,7 +1813,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1798,7 +1821,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\CMartStudios\collincountycoviddashboard\Services\StateOfTexas\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413D0975-AF47-405C-A82E-486C5A21A008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96774D71-5B76-4F7B-8022-CD6BEBA4F990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -63,12 +63,19 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,93 +581,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -668,32 +678,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="95">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -747,6 +761,7 @@
     <cellStyle name="Normal 2 2 4" xfId="83" xr:uid="{BC931D41-3168-40B7-BAC8-DCA90742DFE9}"/>
     <cellStyle name="Normal 2 2 5" xfId="87" xr:uid="{D11417DD-B576-4B31-91BA-28352830F7F9}"/>
     <cellStyle name="Normal 2 2 6" xfId="90" xr:uid="{61E38ABE-BD0E-4848-8B36-435EB20950D3}"/>
+    <cellStyle name="Normal 2 2 7" xfId="93" xr:uid="{87723A51-B253-4E20-A8F4-342E8849E41C}"/>
     <cellStyle name="Normal 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Normal 2 3 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="Normal 2 3 3" xfId="62" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
@@ -761,6 +776,7 @@
     <cellStyle name="Normal 3 3 2" xfId="84" xr:uid="{20404EFE-BAF4-44F4-B1F6-6F3DF681A420}"/>
     <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{6B8A83A0-18BA-411F-9182-0392FB22158B}"/>
     <cellStyle name="Normal 3 3 4" xfId="91" xr:uid="{271F10FE-5FBC-4877-8684-C0E67E33D2F9}"/>
+    <cellStyle name="Normal 3 3 5" xfId="94" xr:uid="{80331CF0-35AF-4054-9F85-E427933B2DD2}"/>
     <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="Normal 4 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
     <cellStyle name="Normal 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
@@ -770,6 +786,7 @@
     <cellStyle name="Normal 4 5" xfId="82" xr:uid="{66249071-325C-4FBB-8223-0E937C3F32FF}"/>
     <cellStyle name="Normal 4 6" xfId="86" xr:uid="{26ABB0C2-6E9C-4438-8B59-525C76EA70AC}"/>
     <cellStyle name="Normal 4 7" xfId="89" xr:uid="{F28D0017-E058-460C-A718-90949197774A}"/>
+    <cellStyle name="Normal 4 8" xfId="92" xr:uid="{EE3295A2-4900-4B37-A776-EF20D2E8D1F4}"/>
     <cellStyle name="Normal 5" xfId="55" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="Normal 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Normal 5 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
@@ -1097,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CO257"/>
+  <dimension ref="A1:CP257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CO2" sqref="CO2"/>
+      <selection activeCell="CP2" sqref="CP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1136,7 +1153,7 @@
     <col min="82" max="90" width="10.796875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1416,8 +1433,11 @@
       <c r="CO1" s="11">
         <v>44178</v>
       </c>
-    </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="CP1" s="13">
+        <v>44179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1697,8 +1717,11 @@
       <c r="CO2" s="12">
         <v>548543</v>
       </c>
-    </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="CP2" s="14">
+        <v>554066</v>
+      </c>
+    </row>
+    <row r="3" spans="1:94" x14ac:dyDescent="0.2">
       <c r="J3" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1748,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -1733,7 +1756,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1741,7 +1764,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -1749,7 +1772,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1757,7 +1780,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1765,7 +1788,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1773,7 +1796,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1781,7 +1804,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1789,7 +1812,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1797,7 +1820,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1805,7 +1828,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1813,7 +1836,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1821,7 +1844,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="M16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A891692C-C91F-436D-A8F0-2E87EAD0F9BE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3DF3EE7-8B78-4D80-8EC9-0D9E556D34CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11898" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,9 +1834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CQ513"/>
+  <dimension ref="A1:CR513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CC224" workbookViewId="0">
+      <selection activeCell="CR258" sqref="CR258"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1869,14 +1871,15 @@
     <col min="80" max="80" width="10.27734375" style="7" customWidth="1"/>
     <col min="81" max="81" width="10.31640625" customWidth="1"/>
     <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
+    <col min="96" max="96" width="9.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2162,8 +2165,11 @@
       <c r="CQ2" s="4">
         <v>44180</v>
       </c>
+      <c r="CR2" s="4">
+        <v>44181</v>
+      </c>
     </row>
-    <row r="3" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2449,8 +2455,11 @@
       <c r="CQ3" s="2">
         <v>40542</v>
       </c>
+      <c r="CR3" s="2">
+        <v>40777</v>
+      </c>
     </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2736,8 +2745,11 @@
       <c r="CQ4" s="2">
         <v>4505</v>
       </c>
+      <c r="CR4" s="2">
+        <v>4523</v>
+      </c>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3023,8 +3035,11 @@
       <c r="CQ5" s="2">
         <v>40006</v>
       </c>
+      <c r="CR5" s="2">
+        <v>40795</v>
+      </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3310,8 +3325,11 @@
       <c r="CQ6" s="2">
         <v>7366</v>
       </c>
+      <c r="CR6" s="2">
+        <v>7504</v>
+      </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3597,8 +3615,11 @@
       <c r="CQ7" s="2">
         <v>2026</v>
       </c>
+      <c r="CR7" s="2">
+        <v>2044</v>
+      </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3884,8 +3905,11 @@
       <c r="CQ8" s="2">
         <v>562</v>
       </c>
+      <c r="CR8" s="2">
+        <v>567</v>
+      </c>
     </row>
-    <row r="9" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4171,8 +4195,11 @@
       <c r="CQ9" s="2">
         <v>21619</v>
       </c>
+      <c r="CR9" s="2">
+        <v>21840</v>
+      </c>
     </row>
-    <row r="10" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4458,8 +4485,11 @@
       <c r="CQ10" s="2">
         <v>10836</v>
       </c>
+      <c r="CR10" s="2">
+        <v>10933</v>
+      </c>
     </row>
-    <row r="11" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4745,8 +4775,11 @@
       <c r="CQ11" s="2">
         <v>1754</v>
       </c>
+      <c r="CR11" s="2">
+        <v>1759</v>
+      </c>
     </row>
-    <row r="12" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5032,8 +5065,11 @@
       <c r="CQ12" s="2">
         <v>5756</v>
       </c>
+      <c r="CR12" s="2">
+        <v>5828</v>
+      </c>
     </row>
-    <row r="13" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5319,8 +5355,11 @@
       <c r="CQ13" s="2">
         <v>32533</v>
       </c>
+      <c r="CR13" s="2">
+        <v>32837</v>
+      </c>
     </row>
-    <row r="14" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5606,8 +5645,11 @@
       <c r="CQ14" s="2">
         <v>1202</v>
       </c>
+      <c r="CR14" s="2">
+        <v>1252</v>
+      </c>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5893,8 +5935,11 @@
       <c r="CQ15" s="2">
         <v>27170</v>
       </c>
+      <c r="CR15" s="2">
+        <v>27314</v>
+      </c>
     </row>
-    <row r="16" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6180,8 +6225,11 @@
       <c r="CQ16" s="2">
         <v>153992</v>
       </c>
+      <c r="CR16" s="2">
+        <v>155326</v>
+      </c>
     </row>
-    <row r="17" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6467,8 +6515,11 @@
       <c r="CQ17" s="2">
         <v>905675</v>
       </c>
+      <c r="CR17" s="2">
+        <v>912625</v>
+      </c>
     </row>
-    <row r="18" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6754,8 +6805,11 @@
       <c r="CQ18" s="2">
         <v>3505</v>
       </c>
+      <c r="CR18" s="2">
+        <v>3546</v>
+      </c>
     </row>
-    <row r="19" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7041,8 +7095,11 @@
       <c r="CQ19" s="2">
         <v>89</v>
       </c>
+      <c r="CR19" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="20" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7328,8 +7385,11 @@
       <c r="CQ20" s="2">
         <v>9250</v>
       </c>
+      <c r="CR20" s="2">
+        <v>9303</v>
+      </c>
     </row>
-    <row r="21" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7615,8 +7675,11 @@
       <c r="CQ21" s="2">
         <v>52334</v>
       </c>
+      <c r="CR21" s="2">
+        <v>52525</v>
+      </c>
     </row>
-    <row r="22" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7902,8 +7965,11 @@
       <c r="CQ22" s="2">
         <v>201511</v>
       </c>
+      <c r="CR22" s="2">
+        <v>202555</v>
+      </c>
     </row>
-    <row r="23" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8189,8 +8255,11 @@
       <c r="CQ23" s="2">
         <v>139313</v>
       </c>
+      <c r="CR23" s="2">
+        <v>140684</v>
+      </c>
     </row>
-    <row r="24" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8476,8 +8545,11 @@
       <c r="CQ24" s="2">
         <v>7338</v>
       </c>
+      <c r="CR24" s="2">
+        <v>7354</v>
+      </c>
     </row>
-    <row r="25" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8763,8 +8835,11 @@
       <c r="CQ25" s="2">
         <v>464</v>
       </c>
+      <c r="CR25" s="2">
+        <v>465</v>
+      </c>
     </row>
-    <row r="26" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9050,8 +9125,11 @@
       <c r="CQ26" s="2">
         <v>9463</v>
       </c>
+      <c r="CR26" s="2">
+        <v>9484</v>
+      </c>
     </row>
-    <row r="27" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9337,8 +9415,11 @@
       <c r="CQ27" s="2">
         <v>18291</v>
       </c>
+      <c r="CR27" s="2">
+        <v>18521</v>
+      </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9624,8 +9705,11 @@
       <c r="CQ28" s="2">
         <v>8156</v>
       </c>
+      <c r="CR28" s="2">
+        <v>8271</v>
+      </c>
     </row>
-    <row r="29" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9911,8 +9995,11 @@
       <c r="CQ29" s="2">
         <v>20034</v>
       </c>
+      <c r="CR29" s="2">
+        <v>20308</v>
+      </c>
     </row>
-    <row r="30" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10198,8 +10285,11 @@
       <c r="CQ30" s="2">
         <v>18658</v>
       </c>
+      <c r="CR30" s="2">
+        <v>18750</v>
+      </c>
     </row>
-    <row r="31" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10485,8 +10575,11 @@
       <c r="CQ31" s="2">
         <v>9625</v>
       </c>
+      <c r="CR31" s="2">
+        <v>9778</v>
+      </c>
     </row>
-    <row r="32" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -10772,8 +10865,11 @@
       <c r="CQ32" s="2">
         <v>5401</v>
       </c>
+      <c r="CR32" s="2">
+        <v>5470</v>
+      </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11059,8 +11155,11 @@
       <c r="CQ33" s="2">
         <v>170913</v>
       </c>
+      <c r="CR33" s="2">
+        <v>172430</v>
+      </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11346,8 +11445,11 @@
       <c r="CQ34" s="2">
         <v>3848</v>
       </c>
+      <c r="CR34" s="2">
+        <v>3887</v>
+      </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -11633,8 +11735,11 @@
       <c r="CQ35" s="2">
         <v>1593</v>
       </c>
+      <c r="CR35" s="2">
+        <v>1610</v>
+      </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -11920,8 +12025,11 @@
       <c r="CQ36" s="2">
         <v>11634</v>
       </c>
+      <c r="CR36" s="2">
+        <v>11680</v>
+      </c>
     </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12207,8 +12315,11 @@
       <c r="CQ37" s="2">
         <v>3864</v>
       </c>
+      <c r="CR37" s="2">
+        <v>3963</v>
+      </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12494,8 +12605,11 @@
       <c r="CQ38" s="2">
         <v>6133</v>
       </c>
+      <c r="CR38" s="2">
+        <v>6172</v>
+      </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -12781,8 +12895,11 @@
       <c r="CQ39" s="2">
         <v>16768</v>
       </c>
+      <c r="CR39" s="2">
+        <v>17075</v>
+      </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13068,8 +13185,11 @@
       <c r="CQ40" s="2">
         <v>4277</v>
       </c>
+      <c r="CR40" s="2">
+        <v>4288</v>
+      </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13355,8 +13475,11 @@
       <c r="CQ41" s="2">
         <v>2817</v>
       </c>
+      <c r="CR41" s="2">
+        <v>2860</v>
+      </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -13642,8 +13765,11 @@
       <c r="CQ42" s="2">
         <v>736</v>
       </c>
+      <c r="CR42" s="2">
+        <v>742</v>
+      </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -13929,8 +14055,11 @@
       <c r="CQ43" s="2">
         <v>2294</v>
       </c>
+      <c r="CR43" s="2">
+        <v>2307</v>
+      </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14216,8 +14345,11 @@
       <c r="CQ44" s="2">
         <v>2825</v>
       </c>
+      <c r="CR44" s="2">
+        <v>2850</v>
+      </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14503,8 +14635,11 @@
       <c r="CQ45" s="2">
         <v>557479</v>
       </c>
+      <c r="CR45" s="2">
+        <v>562633</v>
+      </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -14790,8 +14925,11 @@
       <c r="CQ46" s="2">
         <v>1314</v>
       </c>
+      <c r="CR46" s="2">
+        <v>1318</v>
+      </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15077,8 +15215,11 @@
       <c r="CQ47" s="2">
         <v>9581</v>
       </c>
+      <c r="CR47" s="2">
+        <v>9670</v>
+      </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -15364,8 +15505,11 @@
       <c r="CQ48" s="2">
         <v>60495</v>
       </c>
+      <c r="CR48" s="2">
+        <v>61064</v>
+      </c>
     </row>
-    <row r="49" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -15651,8 +15795,11 @@
       <c r="CQ49" s="2">
         <v>6192</v>
       </c>
+      <c r="CR49" s="2">
+        <v>6218</v>
+      </c>
     </row>
-    <row r="50" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -15938,8 +16085,11 @@
       <c r="CQ50" s="2">
         <v>1738</v>
       </c>
+      <c r="CR50" s="2">
+        <v>1746</v>
+      </c>
     </row>
-    <row r="51" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16225,8 +16375,11 @@
       <c r="CQ51" s="2">
         <v>17049</v>
       </c>
+      <c r="CR51" s="2">
+        <v>17260</v>
+      </c>
     </row>
-    <row r="52" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -16512,8 +16665,11 @@
       <c r="CQ52" s="2">
         <v>59158</v>
       </c>
+      <c r="CR52" s="2">
+        <v>59765</v>
+      </c>
     </row>
-    <row r="53" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -16799,8 +16955,11 @@
       <c r="CQ53" s="2">
         <v>867</v>
       </c>
+      <c r="CR53" s="2">
+        <v>869</v>
+      </c>
     </row>
-    <row r="54" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17086,8 +17245,11 @@
       <c r="CQ54" s="2">
         <v>3241</v>
       </c>
+      <c r="CR54" s="2">
+        <v>3266</v>
+      </c>
     </row>
-    <row r="55" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17373,8 +17535,11 @@
       <c r="CQ55" s="2">
         <v>1820</v>
       </c>
+      <c r="CR55" s="2">
+        <v>1835</v>
+      </c>
     </row>
-    <row r="56" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -17660,8 +17825,11 @@
       <c r="CQ56" s="2">
         <v>2743</v>
       </c>
+      <c r="CR56" s="2">
+        <v>2764</v>
+      </c>
     </row>
-    <row r="57" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -17947,8 +18115,11 @@
       <c r="CQ57" s="2">
         <v>1511</v>
       </c>
+      <c r="CR57" s="2">
+        <v>1518</v>
+      </c>
     </row>
-    <row r="58" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -18234,8 +18405,11 @@
       <c r="CQ58" s="2">
         <v>1387</v>
       </c>
+      <c r="CR58" s="2">
+        <v>1390</v>
+      </c>
     </row>
-    <row r="59" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -18521,8 +18695,11 @@
       <c r="CQ59" s="2">
         <v>1448648</v>
       </c>
+      <c r="CR59" s="2">
+        <v>1460685</v>
+      </c>
     </row>
-    <row r="60" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -18808,8 +18985,11 @@
       <c r="CQ60" s="2">
         <v>6674</v>
       </c>
+      <c r="CR60" s="2">
+        <v>6690</v>
+      </c>
     </row>
-    <row r="61" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19095,8 +19275,11 @@
       <c r="CQ61" s="2">
         <v>6854</v>
       </c>
+      <c r="CR61" s="2">
+        <v>6890</v>
+      </c>
     </row>
-    <row r="62" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -19382,8 +19565,11 @@
       <c r="CQ62" s="2">
         <v>4615</v>
       </c>
+      <c r="CR62" s="2">
+        <v>4717</v>
+      </c>
     </row>
-    <row r="63" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -19669,8 +19855,11 @@
       <c r="CQ63" s="2">
         <v>1719</v>
       </c>
+      <c r="CR63" s="2">
+        <v>1728</v>
+      </c>
     </row>
-    <row r="64" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -19956,8 +20145,11 @@
       <c r="CQ64" s="2">
         <v>345357</v>
       </c>
+      <c r="CR64" s="2">
+        <v>349129</v>
+      </c>
     </row>
-    <row r="65" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -20243,8 +20435,11 @@
       <c r="CQ65" s="2">
         <v>530</v>
       </c>
+      <c r="CR65" s="2">
+        <v>533</v>
+      </c>
     </row>
-    <row r="66" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -20530,8 +20725,11 @@
       <c r="CQ66" s="2">
         <v>4603</v>
       </c>
+      <c r="CR66" s="2">
+        <v>4623</v>
+      </c>
     </row>
-    <row r="67" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -20817,8 +21015,11 @@
       <c r="CQ67" s="2">
         <v>1416</v>
       </c>
+      <c r="CR67" s="2">
+        <v>1426</v>
+      </c>
     </row>
-    <row r="68" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -21104,8 +21305,11 @@
       <c r="CQ68" s="2">
         <v>12077</v>
       </c>
+      <c r="CR68" s="2">
+        <v>12149</v>
+      </c>
     </row>
-    <row r="69" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -21391,8 +21595,11 @@
       <c r="CQ69" s="2">
         <v>4878</v>
       </c>
+      <c r="CR69" s="2">
+        <v>4901</v>
+      </c>
     </row>
-    <row r="70" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -21678,8 +21885,11 @@
       <c r="CQ70" s="2">
         <v>50777</v>
       </c>
+      <c r="CR70" s="2">
+        <v>51046</v>
+      </c>
     </row>
-    <row r="71" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -21965,8 +22175,11 @@
       <c r="CQ71" s="2">
         <v>1020</v>
       </c>
+      <c r="CR71" s="2">
+        <v>1028</v>
+      </c>
     </row>
-    <row r="72" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -22252,8 +22465,11 @@
       <c r="CQ72" s="2">
         <v>591082</v>
       </c>
+      <c r="CR72" s="2">
+        <v>597794</v>
+      </c>
     </row>
-    <row r="73" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -22539,8 +22755,11 @@
       <c r="CQ73" s="2">
         <v>95227</v>
       </c>
+      <c r="CR73" s="2">
+        <v>96201</v>
+      </c>
     </row>
-    <row r="74" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -22826,8 +23045,11 @@
       <c r="CQ74" s="2">
         <v>14354</v>
       </c>
+      <c r="CR74" s="2">
+        <v>14428</v>
+      </c>
     </row>
-    <row r="75" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -23113,8 +23335,11 @@
       <c r="CQ75" s="2">
         <v>9360</v>
       </c>
+      <c r="CR75" s="2">
+        <v>9449</v>
+      </c>
     </row>
-    <row r="76" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -23400,8 +23625,11 @@
       <c r="CQ76" s="2">
         <v>16435</v>
       </c>
+      <c r="CR76" s="2">
+        <v>16629</v>
+      </c>
     </row>
-    <row r="77" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -23687,8 +23915,11 @@
       <c r="CQ77" s="2">
         <v>9892</v>
       </c>
+      <c r="CR77" s="2">
+        <v>9953</v>
+      </c>
     </row>
-    <row r="78" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -23974,8 +24205,11 @@
       <c r="CQ78" s="2">
         <v>1054</v>
       </c>
+      <c r="CR78" s="2">
+        <v>1067</v>
+      </c>
     </row>
-    <row r="79" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -24261,8 +24495,11 @@
       <c r="CQ79" s="2">
         <v>1862</v>
       </c>
+      <c r="CR79" s="2">
+        <v>1871</v>
+      </c>
     </row>
-    <row r="80" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -24548,8 +24785,11 @@
       <c r="CQ80" s="2">
         <v>607</v>
       </c>
+      <c r="CR80" s="2">
+        <v>632</v>
+      </c>
     </row>
-    <row r="81" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -24835,8 +25075,11 @@
       <c r="CQ81" s="2">
         <v>371572</v>
       </c>
+      <c r="CR81" s="2">
+        <v>373808</v>
+      </c>
     </row>
-    <row r="82" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25122,8 +25365,11 @@
       <c r="CQ82" s="2">
         <v>3076</v>
       </c>
+      <c r="CR82" s="2">
+        <v>3087</v>
+      </c>
     </row>
-    <row r="83" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -25409,8 +25655,11 @@
       <c r="CQ83" s="2">
         <v>10816</v>
       </c>
+      <c r="CR83" s="2">
+        <v>10937</v>
+      </c>
     </row>
-    <row r="84" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -25696,8 +25945,11 @@
       <c r="CQ84" s="2">
         <v>9970</v>
       </c>
+      <c r="CR84" s="2">
+        <v>10111</v>
+      </c>
     </row>
-    <row r="85" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -25983,8 +26235,11 @@
       <c r="CQ85" s="2">
         <v>3174</v>
       </c>
+      <c r="CR85" s="2">
+        <v>3183</v>
+      </c>
     </row>
-    <row r="86" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -26270,8 +26525,11 @@
       <c r="CQ86" s="2">
         <v>218452</v>
       </c>
+      <c r="CR86" s="2">
+        <v>219922</v>
+      </c>
     </row>
-    <row r="87" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -26557,8 +26815,11 @@
       <c r="CQ87" s="2">
         <v>1990</v>
       </c>
+      <c r="CR87" s="2">
+        <v>2012</v>
+      </c>
     </row>
-    <row r="88" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -26844,8 +27105,11 @@
       <c r="CQ88" s="2">
         <v>11815</v>
       </c>
+      <c r="CR88" s="2">
+        <v>12086</v>
+      </c>
     </row>
-    <row r="89" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -27131,8 +27395,11 @@
       <c r="CQ89" s="2">
         <v>133</v>
       </c>
+      <c r="CR89" s="2">
+        <v>134</v>
+      </c>
     </row>
-    <row r="90" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -27418,8 +27685,11 @@
       <c r="CQ90" s="2">
         <v>2426</v>
       </c>
+      <c r="CR90" s="2">
+        <v>2458</v>
+      </c>
     </row>
-    <row r="91" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -27705,8 +27975,11 @@
       <c r="CQ91" s="2">
         <v>9095</v>
       </c>
+      <c r="CR91" s="2">
+        <v>9299</v>
+      </c>
     </row>
-    <row r="92" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -27992,8 +28265,11 @@
       <c r="CQ92" s="2">
         <v>6388</v>
       </c>
+      <c r="CR92" s="2">
+        <v>6435</v>
+      </c>
     </row>
-    <row r="93" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -28279,8 +28555,11 @@
       <c r="CQ93" s="2">
         <v>62770</v>
       </c>
+      <c r="CR93" s="2">
+        <v>63200</v>
+      </c>
     </row>
-    <row r="94" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -28566,8 +28845,11 @@
       <c r="CQ94" s="2">
         <v>40782</v>
       </c>
+      <c r="CR94" s="2">
+        <v>40983</v>
+      </c>
     </row>
-    <row r="95" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -28853,8 +29135,11 @@
       <c r="CQ95" s="2">
         <v>15170</v>
       </c>
+      <c r="CR95" s="2">
+        <v>15297</v>
+      </c>
     </row>
-    <row r="96" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -29140,8 +29425,11 @@
       <c r="CQ96" s="2">
         <v>44988</v>
       </c>
+      <c r="CR96" s="2">
+        <v>45532</v>
+      </c>
     </row>
-    <row r="97" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -29427,8 +29715,11 @@
       <c r="CQ97" s="2">
         <v>10374</v>
       </c>
+      <c r="CR97" s="2">
+        <v>10425</v>
+      </c>
     </row>
-    <row r="98" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -29714,8 +30005,11 @@
       <c r="CQ98" s="2">
         <v>1810</v>
       </c>
+      <c r="CR98" s="2">
+        <v>1815</v>
+      </c>
     </row>
-    <row r="99" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -30001,8 +30295,11 @@
       <c r="CQ99" s="2">
         <v>3601</v>
       </c>
+      <c r="CR99" s="2">
+        <v>3637</v>
+      </c>
     </row>
-    <row r="100" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -30288,8 +30585,11 @@
       <c r="CQ100" s="2">
         <v>1964</v>
       </c>
+      <c r="CR100" s="2">
+        <v>1966</v>
+      </c>
     </row>
-    <row r="101" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -30575,8 +30875,11 @@
       <c r="CQ101" s="2">
         <v>1486</v>
       </c>
+      <c r="CR101" s="2">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="102" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -30862,8 +31165,11 @@
       <c r="CQ102" s="2">
         <v>15625</v>
       </c>
+      <c r="CR102" s="2">
+        <v>15806</v>
+      </c>
     </row>
-    <row r="103" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -31149,8 +31455,11 @@
       <c r="CQ103" s="2">
         <v>2342783</v>
       </c>
+      <c r="CR103" s="2">
+        <v>2354708</v>
+      </c>
     </row>
-    <row r="104" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -31436,8 +31745,11 @@
       <c r="CQ104" s="2">
         <v>42500</v>
       </c>
+      <c r="CR104" s="2">
+        <v>42639</v>
+      </c>
     </row>
-    <row r="105" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -31723,8 +32035,11 @@
       <c r="CQ105" s="2">
         <v>131</v>
       </c>
+      <c r="CR105" s="2">
+        <v>131</v>
+      </c>
     </row>
-    <row r="106" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -32010,8 +32325,11 @@
       <c r="CQ106" s="2">
         <v>1704</v>
       </c>
+      <c r="CR106" s="2">
+        <v>1707</v>
+      </c>
     </row>
-    <row r="107" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -32297,8 +32615,11 @@
       <c r="CQ107" s="2">
         <v>127428</v>
       </c>
+      <c r="CR107" s="2">
+        <v>128047</v>
+      </c>
     </row>
-    <row r="108" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -32584,8 +32905,11 @@
       <c r="CQ108" s="2">
         <v>972</v>
       </c>
+      <c r="CR108" s="2">
+        <v>973</v>
+      </c>
     </row>
-    <row r="109" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -32871,8 +33195,11 @@
       <c r="CQ109" s="2">
         <v>19265</v>
       </c>
+      <c r="CR109" s="2">
+        <v>19497</v>
+      </c>
     </row>
-    <row r="110" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -33158,8 +33485,11 @@
       <c r="CQ110" s="2">
         <v>311533</v>
       </c>
+      <c r="CR110" s="2">
+        <v>314408</v>
+      </c>
     </row>
-    <row r="111" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -33445,8 +33775,11 @@
       <c r="CQ111" s="2">
         <v>24579</v>
       </c>
+      <c r="CR111" s="2">
+        <v>24932</v>
+      </c>
     </row>
-    <row r="112" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -33732,8 +34065,11 @@
       <c r="CQ112" s="2">
         <v>7191</v>
       </c>
+      <c r="CR112" s="2">
+        <v>7251</v>
+      </c>
     </row>
-    <row r="113" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -34019,8 +34355,11 @@
       <c r="CQ113" s="2">
         <v>30119</v>
       </c>
+      <c r="CR113" s="2">
+        <v>30524</v>
+      </c>
     </row>
-    <row r="114" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -34306,8 +34645,11 @@
       <c r="CQ114" s="2">
         <v>12395</v>
       </c>
+      <c r="CR114" s="2">
+        <v>12422</v>
+      </c>
     </row>
-    <row r="115" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -34593,8 +34935,11 @@
       <c r="CQ115" s="2">
         <v>11497</v>
       </c>
+      <c r="CR115" s="2">
+        <v>11616</v>
+      </c>
     </row>
-    <row r="116" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -34880,8 +35225,11 @@
       <c r="CQ116" s="2">
         <v>10862</v>
       </c>
+      <c r="CR116" s="2">
+        <v>11041</v>
+      </c>
     </row>
-    <row r="117" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -35167,8 +35515,11 @@
       <c r="CQ117" s="2">
         <v>1898</v>
       </c>
+      <c r="CR117" s="2">
+        <v>1942</v>
+      </c>
     </row>
-    <row r="118" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -35454,8 +35805,11 @@
       <c r="CQ118" s="2">
         <v>45463</v>
       </c>
+      <c r="CR118" s="2">
+        <v>45812</v>
+      </c>
     </row>
-    <row r="119" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -35741,8 +36095,11 @@
       <c r="CQ119" s="2">
         <v>8176</v>
       </c>
+      <c r="CR119" s="2">
+        <v>8194</v>
+      </c>
     </row>
-    <row r="120" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -36028,8 +36385,11 @@
       <c r="CQ120" s="2">
         <v>352</v>
       </c>
+      <c r="CR120" s="2">
+        <v>359</v>
+      </c>
     </row>
-    <row r="121" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -36315,8 +36675,11 @@
       <c r="CQ121" s="2">
         <v>1128</v>
       </c>
+      <c r="CR121" s="2">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="122" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -36602,8 +36965,11 @@
       <c r="CQ122" s="2">
         <v>5286</v>
       </c>
+      <c r="CR122" s="2">
+        <v>5307</v>
+      </c>
     </row>
-    <row r="123" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -36889,8 +37255,11 @@
       <c r="CQ123" s="2">
         <v>10532</v>
       </c>
+      <c r="CR123" s="2">
+        <v>10638</v>
+      </c>
     </row>
-    <row r="124" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -37176,8 +37545,11 @@
       <c r="CQ124" s="2">
         <v>1304</v>
       </c>
+      <c r="CR124" s="2">
+        <v>1305</v>
+      </c>
     </row>
-    <row r="125" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -37463,8 +37835,11 @@
       <c r="CQ125" s="2">
         <v>127165</v>
       </c>
+      <c r="CR125" s="2">
+        <v>127861</v>
+      </c>
     </row>
-    <row r="126" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -37750,8 +38125,11 @@
       <c r="CQ126" s="2">
         <v>7135</v>
       </c>
+      <c r="CR126" s="2">
+        <v>7138</v>
+      </c>
     </row>
-    <row r="127" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -38037,8 +38415,11 @@
       <c r="CQ127" s="2">
         <v>38525</v>
       </c>
+      <c r="CR127" s="2">
+        <v>38784</v>
+      </c>
     </row>
-    <row r="128" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -38324,8 +38705,11 @@
       <c r="CQ128" s="2">
         <v>74024</v>
       </c>
+      <c r="CR128" s="2">
+        <v>74466</v>
+      </c>
     </row>
-    <row r="129" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -38611,8 +38995,11 @@
       <c r="CQ129" s="2">
         <v>5168</v>
       </c>
+      <c r="CR129" s="2">
+        <v>5210</v>
+      </c>
     </row>
-    <row r="130" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -38898,8 +39285,11 @@
       <c r="CQ130" s="2">
         <v>10571</v>
       </c>
+      <c r="CR130" s="2">
+        <v>10674</v>
+      </c>
     </row>
-    <row r="131" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -39185,8 +39575,11 @@
       <c r="CQ131" s="2">
         <v>64126</v>
       </c>
+      <c r="CR131" s="2">
+        <v>64580</v>
+      </c>
     </row>
-    <row r="132" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -39472,8 +39865,11 @@
       <c r="CQ132" s="2">
         <v>14713</v>
       </c>
+      <c r="CR132" s="2">
+        <v>15062</v>
+      </c>
     </row>
-    <row r="133" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -39759,8 +40155,11 @@
       <c r="CQ133" s="2">
         <v>144</v>
       </c>
+      <c r="CR133" s="2">
+        <v>144</v>
+      </c>
     </row>
-    <row r="134" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -40046,8 +40445,11 @@
       <c r="CQ134" s="2">
         <v>383</v>
       </c>
+      <c r="CR134" s="2">
+        <v>383</v>
+      </c>
     </row>
-    <row r="135" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -40333,8 +40735,11 @@
       <c r="CQ135" s="2">
         <v>29024</v>
       </c>
+      <c r="CR135" s="2">
+        <v>29372</v>
+      </c>
     </row>
-    <row r="136" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -40620,8 +41025,11 @@
       <c r="CQ136" s="2">
         <v>1464</v>
       </c>
+      <c r="CR136" s="2">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="137" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -40907,8 +41315,11 @@
       <c r="CQ137" s="2">
         <v>36</v>
       </c>
+      <c r="CR137" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="138" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -41194,8 +41605,11 @@
       <c r="CQ138" s="2">
         <v>1016</v>
       </c>
+      <c r="CR138" s="2">
+        <v>1020</v>
+      </c>
     </row>
-    <row r="139" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -41481,8 +41895,11 @@
       <c r="CQ139" s="2">
         <v>21446</v>
       </c>
+      <c r="CR139" s="2">
+        <v>21563</v>
+      </c>
     </row>
-    <row r="140" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -41768,8 +42185,11 @@
       <c r="CQ140" s="2">
         <v>1526</v>
       </c>
+      <c r="CR140" s="2">
+        <v>1532</v>
+      </c>
     </row>
-    <row r="141" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -42055,8 +42475,11 @@
       <c r="CQ141" s="2">
         <v>4556</v>
       </c>
+      <c r="CR141" s="2">
+        <v>4611</v>
+      </c>
     </row>
-    <row r="142" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -42342,8 +42765,11 @@
       <c r="CQ142" s="2">
         <v>15068</v>
       </c>
+      <c r="CR142" s="2">
+        <v>15262</v>
+      </c>
     </row>
-    <row r="143" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -42629,8 +43055,11 @@
       <c r="CQ143" s="2">
         <v>6464</v>
       </c>
+      <c r="CR143" s="2">
+        <v>6491</v>
+      </c>
     </row>
-    <row r="144" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -42916,8 +43345,11 @@
       <c r="CQ144" s="2">
         <v>11244</v>
       </c>
+      <c r="CR144" s="2">
+        <v>11303</v>
+      </c>
     </row>
-    <row r="145" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -43203,8 +43635,11 @@
       <c r="CQ145" s="2">
         <v>9057</v>
       </c>
+      <c r="CR145" s="2">
+        <v>9102</v>
+      </c>
     </row>
-    <row r="146" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -43490,8 +43925,11 @@
       <c r="CQ146" s="2">
         <v>5401</v>
       </c>
+      <c r="CR146" s="2">
+        <v>5445</v>
+      </c>
     </row>
-    <row r="147" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -43777,8 +44215,11 @@
       <c r="CQ147" s="2">
         <v>6273</v>
       </c>
+      <c r="CR147" s="2">
+        <v>6368</v>
+      </c>
     </row>
-    <row r="148" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -44064,8 +44505,11 @@
       <c r="CQ148" s="2">
         <v>34167</v>
       </c>
+      <c r="CR148" s="2">
+        <v>34355</v>
+      </c>
     </row>
-    <row r="149" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -44351,8 +44795,11 @@
       <c r="CQ149" s="2">
         <v>17338</v>
       </c>
+      <c r="CR149" s="2">
+        <v>17691</v>
+      </c>
     </row>
-    <row r="150" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -44638,8 +45085,11 @@
       <c r="CQ150" s="2">
         <v>256</v>
       </c>
+      <c r="CR150" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="151" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -44925,8 +45375,11 @@
       <c r="CQ151" s="2">
         <v>3309</v>
       </c>
+      <c r="CR151" s="2">
+        <v>3330</v>
+      </c>
     </row>
-    <row r="152" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -45212,8 +45665,11 @@
       <c r="CQ152" s="2">
         <v>6861</v>
       </c>
+      <c r="CR152" s="2">
+        <v>6909</v>
+      </c>
     </row>
-    <row r="153" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -45499,8 +45955,11 @@
       <c r="CQ153" s="2">
         <v>23</v>
       </c>
+      <c r="CR153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -45786,8 +46245,11 @@
       <c r="CQ154" s="2">
         <v>199841</v>
       </c>
+      <c r="CR154" s="2">
+        <v>201731</v>
+      </c>
     </row>
-    <row r="155" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -46073,8 +46535,11 @@
       <c r="CQ155" s="2">
         <v>2916</v>
       </c>
+      <c r="CR155" s="2">
+        <v>2945</v>
+      </c>
     </row>
-    <row r="156" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -46360,8 +46825,11 @@
       <c r="CQ156" s="2">
         <v>9611</v>
       </c>
+      <c r="CR156" s="2">
+        <v>9641</v>
+      </c>
     </row>
-    <row r="157" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -46647,8 +47115,11 @@
       <c r="CQ157" s="2">
         <v>2202</v>
       </c>
+      <c r="CR157" s="2">
+        <v>2212</v>
+      </c>
     </row>
-    <row r="158" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -46934,8 +47405,11 @@
       <c r="CQ158" s="2">
         <v>1194</v>
       </c>
+      <c r="CR158" s="2">
+        <v>1211</v>
+      </c>
     </row>
-    <row r="159" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -47221,8 +47695,11 @@
       <c r="CQ159" s="2">
         <v>1470</v>
       </c>
+      <c r="CR159" s="2">
+        <v>1485</v>
+      </c>
     </row>
-    <row r="160" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -47508,8 +47985,11 @@
       <c r="CQ160" s="2">
         <v>15653</v>
       </c>
+      <c r="CR160" s="2">
+        <v>15712</v>
+      </c>
     </row>
-    <row r="161" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -47795,8 +48275,11 @@
       <c r="CQ161" s="2">
         <v>34294</v>
       </c>
+      <c r="CR161" s="2">
+        <v>34519</v>
+      </c>
     </row>
-    <row r="162" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -48082,8 +48565,11 @@
       <c r="CQ162" s="2">
         <v>2188</v>
       </c>
+      <c r="CR162" s="2">
+        <v>2198</v>
+      </c>
     </row>
-    <row r="163" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -48369,8 +48855,11 @@
       <c r="CQ163" s="2">
         <v>179487</v>
       </c>
+      <c r="CR163" s="2">
+        <v>181073</v>
+      </c>
     </row>
-    <row r="164" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -48656,8 +49145,11 @@
       <c r="CQ164" s="2">
         <v>256</v>
       </c>
+      <c r="CR164" s="2">
+        <v>257</v>
+      </c>
     </row>
-    <row r="165" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -48943,8 +49435,11 @@
       <c r="CQ165" s="2">
         <v>17024</v>
       </c>
+      <c r="CR165" s="2">
+        <v>17128</v>
+      </c>
     </row>
-    <row r="166" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -49230,8 +49725,11 @@
       <c r="CQ166" s="2">
         <v>1755</v>
       </c>
+      <c r="CR166" s="2">
+        <v>1756</v>
+      </c>
     </row>
-    <row r="167" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -49517,8 +50015,11 @@
       <c r="CQ167" s="2">
         <v>49132</v>
       </c>
+      <c r="CR167" s="2">
+        <v>49662</v>
+      </c>
     </row>
-    <row r="168" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -49804,8 +50305,11 @@
       <c r="CQ168" s="2">
         <v>11730</v>
       </c>
+      <c r="CR168" s="2">
+        <v>11862</v>
+      </c>
     </row>
-    <row r="169" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -50091,8 +50595,11 @@
       <c r="CQ169" s="2">
         <v>3268</v>
       </c>
+      <c r="CR169" s="2">
+        <v>3355</v>
+      </c>
     </row>
-    <row r="170" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -50378,8 +50885,11 @@
       <c r="CQ170" s="2">
         <v>4664</v>
       </c>
+      <c r="CR170" s="2">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="171" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -50665,8 +51175,11 @@
       <c r="CQ171" s="2">
         <v>7741</v>
       </c>
+      <c r="CR171" s="2">
+        <v>7792</v>
+      </c>
     </row>
-    <row r="172" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -50952,8 +51465,11 @@
       <c r="CQ172" s="2">
         <v>217139</v>
       </c>
+      <c r="CR172" s="2">
+        <v>218136</v>
+      </c>
     </row>
-    <row r="173" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -51239,8 +51755,11 @@
       <c r="CQ173" s="2">
         <v>6813</v>
       </c>
+      <c r="CR173" s="2">
+        <v>6826</v>
+      </c>
     </row>
-    <row r="174" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -51526,8 +52045,11 @@
       <c r="CQ174" s="2">
         <v>4800</v>
       </c>
+      <c r="CR174" s="2">
+        <v>4880</v>
+      </c>
     </row>
-    <row r="175" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -51813,8 +52335,11 @@
       <c r="CQ175" s="2">
         <v>456</v>
       </c>
+      <c r="CR175" s="2">
+        <v>456</v>
+      </c>
     </row>
-    <row r="176" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -52100,8 +52625,11 @@
       <c r="CQ176" s="2">
         <v>28799</v>
       </c>
+      <c r="CR176" s="2">
+        <v>29021</v>
+      </c>
     </row>
-    <row r="177" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -52387,8 +52915,11 @@
       <c r="CQ177" s="2">
         <v>20716</v>
       </c>
+      <c r="CR177" s="2">
+        <v>20941</v>
+      </c>
     </row>
-    <row r="178" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -52674,8 +53205,11 @@
       <c r="CQ178" s="2">
         <v>3169</v>
       </c>
+      <c r="CR178" s="2">
+        <v>3213</v>
+      </c>
     </row>
-    <row r="179" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -52961,8 +53495,11 @@
       <c r="CQ179" s="2">
         <v>6093</v>
       </c>
+      <c r="CR179" s="2">
+        <v>6128</v>
+      </c>
     </row>
-    <row r="180" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -53248,8 +53785,11 @@
       <c r="CQ180" s="2">
         <v>179131</v>
       </c>
+      <c r="CR180" s="2">
+        <v>180203</v>
+      </c>
     </row>
-    <row r="181" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -53535,8 +54075,11 @@
       <c r="CQ181" s="2">
         <v>502</v>
       </c>
+      <c r="CR181" s="2">
+        <v>505</v>
+      </c>
     </row>
-    <row r="182" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -53822,8 +54365,11 @@
       <c r="CQ182" s="2">
         <v>640</v>
       </c>
+      <c r="CR182" s="2">
+        <v>642</v>
+      </c>
     </row>
-    <row r="183" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -54109,8 +54655,11 @@
       <c r="CQ183" s="2">
         <v>22664</v>
       </c>
+      <c r="CR183" s="2">
+        <v>22839</v>
+      </c>
     </row>
-    <row r="184" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -54396,8 +54945,11 @@
       <c r="CQ184" s="2">
         <v>9625</v>
       </c>
+      <c r="CR184" s="2">
+        <v>9718</v>
+      </c>
     </row>
-    <row r="185" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -54683,8 +55235,11 @@
       <c r="CQ185" s="2">
         <v>6392</v>
       </c>
+      <c r="CR185" s="2">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="186" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -54970,8 +55525,11 @@
       <c r="CQ186" s="2">
         <v>44672</v>
       </c>
+      <c r="CR186" s="2">
+        <v>45155</v>
+      </c>
     </row>
-    <row r="187" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -55257,8 +55815,11 @@
       <c r="CQ187" s="2">
         <v>1928</v>
       </c>
+      <c r="CR187" s="2">
+        <v>1939</v>
+      </c>
     </row>
-    <row r="188" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -55544,8 +56105,11 @@
       <c r="CQ188" s="2">
         <v>6939</v>
       </c>
+      <c r="CR188" s="2">
+        <v>6957</v>
+      </c>
     </row>
-    <row r="189" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -55831,8 +56395,11 @@
       <c r="CQ189" s="2">
         <v>20695</v>
       </c>
+      <c r="CR189" s="2">
+        <v>20807</v>
+      </c>
     </row>
-    <row r="190" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -56118,8 +56685,11 @@
       <c r="CQ190" s="2">
         <v>57292</v>
       </c>
+      <c r="CR190" s="2">
+        <v>57791</v>
+      </c>
     </row>
-    <row r="191" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -56405,8 +56975,11 @@
       <c r="CQ191" s="2">
         <v>6138</v>
       </c>
+      <c r="CR191" s="2">
+        <v>6149</v>
+      </c>
     </row>
-    <row r="192" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -56692,8 +57265,11 @@
       <c r="CQ192" s="2">
         <v>1997</v>
       </c>
+      <c r="CR192" s="2">
+        <v>2001</v>
+      </c>
     </row>
-    <row r="193" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -56979,8 +57555,11 @@
       <c r="CQ193" s="2">
         <v>38790</v>
       </c>
+      <c r="CR193" s="2">
+        <v>39182</v>
+      </c>
     </row>
-    <row r="194" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -57266,8 +57845,11 @@
       <c r="CQ194" s="2">
         <v>990</v>
       </c>
+      <c r="CR194" s="2">
+        <v>992</v>
+      </c>
     </row>
-    <row r="195" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -57553,8 +58135,11 @@
       <c r="CQ195" s="2">
         <v>1205</v>
       </c>
+      <c r="CR195" s="2">
+        <v>1220</v>
+      </c>
     </row>
-    <row r="196" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -57840,8 +58425,11 @@
       <c r="CQ196" s="2">
         <v>4280</v>
       </c>
+      <c r="CR196" s="2">
+        <v>4334</v>
+      </c>
     </row>
-    <row r="197" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -58127,8 +58715,11 @@
       <c r="CQ197" s="2">
         <v>3601</v>
       </c>
+      <c r="CR197" s="2">
+        <v>3610</v>
+      </c>
     </row>
-    <row r="198" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -58414,8 +59005,11 @@
       <c r="CQ198" s="2">
         <v>3847</v>
       </c>
+      <c r="CR198" s="2">
+        <v>3867</v>
+      </c>
     </row>
-    <row r="199" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -58701,8 +59295,11 @@
       <c r="CQ199" s="2">
         <v>112</v>
       </c>
+      <c r="CR199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -58988,8 +59585,11 @@
       <c r="CQ200" s="2">
         <v>8778</v>
       </c>
+      <c r="CR200" s="2">
+        <v>8978</v>
+      </c>
     </row>
-    <row r="201" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -59275,8 +59875,11 @@
       <c r="CQ201" s="2">
         <v>41815</v>
       </c>
+      <c r="CR201" s="2">
+        <v>42207</v>
+      </c>
     </row>
-    <row r="202" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -59562,8 +60165,11 @@
       <c r="CQ202" s="2">
         <v>5118</v>
       </c>
+      <c r="CR202" s="2">
+        <v>5161</v>
+      </c>
     </row>
-    <row r="203" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -59849,8 +60455,11 @@
       <c r="CQ203" s="2">
         <v>13900</v>
       </c>
+      <c r="CR203" s="2">
+        <v>13981</v>
+      </c>
     </row>
-    <row r="204" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -60136,8 +60745,11 @@
       <c r="CQ204" s="2">
         <v>4340</v>
       </c>
+      <c r="CR204" s="2">
+        <v>4385</v>
+      </c>
     </row>
-    <row r="205" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -60423,8 +61035,11 @@
       <c r="CQ205" s="2">
         <v>4070</v>
       </c>
+      <c r="CR205" s="2">
+        <v>4158</v>
+      </c>
     </row>
-    <row r="206" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -60710,8 +61325,11 @@
       <c r="CQ206" s="2">
         <v>10616</v>
       </c>
+      <c r="CR206" s="2">
+        <v>10666</v>
+      </c>
     </row>
-    <row r="207" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -60997,8 +61615,11 @@
       <c r="CQ207" s="2">
         <v>27528</v>
       </c>
+      <c r="CR207" s="2">
+        <v>27710</v>
+      </c>
     </row>
-    <row r="208" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -61284,8 +61905,11 @@
       <c r="CQ208" s="2">
         <v>2402</v>
       </c>
+      <c r="CR208" s="2">
+        <v>2423</v>
+      </c>
     </row>
-    <row r="209" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -61571,8 +62195,11 @@
       <c r="CQ209" s="2">
         <v>882</v>
       </c>
+      <c r="CR209" s="2">
+        <v>886</v>
+      </c>
     </row>
-    <row r="210" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -61858,8 +62485,11 @@
       <c r="CQ210" s="2">
         <v>12478</v>
       </c>
+      <c r="CR210" s="2">
+        <v>12729</v>
+      </c>
     </row>
-    <row r="211" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -62145,8 +62775,11 @@
       <c r="CQ211" s="2">
         <v>705</v>
       </c>
+      <c r="CR211" s="2">
+        <v>713</v>
+      </c>
     </row>
-    <row r="212" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -62432,8 +63065,11 @@
       <c r="CQ212" s="2">
         <v>9153</v>
       </c>
+      <c r="CR212" s="2">
+        <v>9253</v>
+      </c>
     </row>
-    <row r="213" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -62719,8 +63355,11 @@
       <c r="CQ213" s="2">
         <v>156</v>
       </c>
+      <c r="CR213" s="2">
+        <v>156</v>
+      </c>
     </row>
-    <row r="214" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -63006,8 +63645,11 @@
       <c r="CQ214" s="2">
         <v>122282</v>
       </c>
+      <c r="CR214" s="2">
+        <v>122897</v>
+      </c>
     </row>
-    <row r="215" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -63293,8 +63935,11 @@
       <c r="CQ215" s="2">
         <v>4828</v>
       </c>
+      <c r="CR215" s="2">
+        <v>4883</v>
+      </c>
     </row>
-    <row r="216" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -63580,8 +64225,11 @@
       <c r="CQ216" s="2">
         <v>26122</v>
       </c>
+      <c r="CR216" s="2">
+        <v>26180</v>
+      </c>
     </row>
-    <row r="217" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -63867,8 +64515,11 @@
       <c r="CQ217" s="2">
         <v>2308</v>
       </c>
+      <c r="CR217" s="2">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="218" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -64154,8 +64805,11 @@
       <c r="CQ218" s="2">
         <v>666</v>
       </c>
+      <c r="CR218" s="2">
+        <v>668</v>
+      </c>
     </row>
-    <row r="219" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -64441,8 +65095,11 @@
       <c r="CQ219" s="2">
         <v>203</v>
       </c>
+      <c r="CR219" s="2">
+        <v>206</v>
+      </c>
     </row>
-    <row r="220" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -64728,8 +65385,11 @@
       <c r="CQ220" s="2">
         <v>1313</v>
       </c>
+      <c r="CR220" s="2">
+        <v>1316</v>
+      </c>
     </row>
-    <row r="221" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -65015,8 +65675,11 @@
       <c r="CQ221" s="2">
         <v>3150</v>
       </c>
+      <c r="CR221" s="2">
+        <v>3170</v>
+      </c>
     </row>
-    <row r="222" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -65302,8 +65965,11 @@
       <c r="CQ222" s="2">
         <v>951620</v>
       </c>
+      <c r="CR222" s="2">
+        <v>961284</v>
+      </c>
     </row>
-    <row r="223" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -65589,8 +66255,11 @@
       <c r="CQ223" s="2">
         <v>73110</v>
       </c>
+      <c r="CR223" s="2">
+        <v>74048</v>
+      </c>
     </row>
-    <row r="224" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -65876,8 +66545,11 @@
       <c r="CQ224" s="2">
         <v>279</v>
       </c>
+      <c r="CR224" s="2">
+        <v>280</v>
+      </c>
     </row>
-    <row r="225" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -66163,8 +66835,11 @@
       <c r="CQ225" s="2">
         <v>3055</v>
       </c>
+      <c r="CR225" s="2">
+        <v>3067</v>
+      </c>
     </row>
-    <row r="226" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -66450,8 +67125,11 @@
       <c r="CQ226" s="2">
         <v>219</v>
       </c>
+      <c r="CR226" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="227" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -66737,8 +67415,11 @@
       <c r="CQ227" s="2">
         <v>14947</v>
       </c>
+      <c r="CR227" s="2">
+        <v>15081</v>
+      </c>
     </row>
-    <row r="228" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -67024,8 +67705,11 @@
       <c r="CQ228" s="2">
         <v>71407</v>
       </c>
+      <c r="CR228" s="2">
+        <v>72140</v>
+      </c>
     </row>
-    <row r="229" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -67311,8 +67995,11 @@
       <c r="CQ229" s="2">
         <v>585744</v>
       </c>
+      <c r="CR229" s="2">
+        <v>590388</v>
+      </c>
     </row>
-    <row r="230" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -67598,8 +68285,11 @@
       <c r="CQ230" s="2">
         <v>6238</v>
       </c>
+      <c r="CR230" s="2">
+        <v>6317</v>
+      </c>
     </row>
-    <row r="231" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -67885,8 +68575,11 @@
       <c r="CQ231" s="2">
         <v>8289</v>
       </c>
+      <c r="CR231" s="2">
+        <v>8407</v>
+      </c>
     </row>
-    <row r="232" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -68172,8 +68865,11 @@
       <c r="CQ232" s="2">
         <v>8516</v>
       </c>
+      <c r="CR232" s="2">
+        <v>8557</v>
+      </c>
     </row>
-    <row r="233" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -68459,8 +69155,11 @@
       <c r="CQ233" s="2">
         <v>1450</v>
       </c>
+      <c r="CR233" s="2">
+        <v>1472</v>
+      </c>
     </row>
-    <row r="234" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -68746,8 +69445,11 @@
       <c r="CQ234" s="2">
         <v>12702</v>
       </c>
+      <c r="CR234" s="2">
+        <v>12770</v>
+      </c>
     </row>
-    <row r="235" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -69033,8 +69735,11 @@
       <c r="CQ235" s="2">
         <v>24803</v>
       </c>
+      <c r="CR235" s="2">
+        <v>25102</v>
+      </c>
     </row>
-    <row r="236" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -69320,8 +70025,11 @@
       <c r="CQ236" s="2">
         <v>12919</v>
       </c>
+      <c r="CR236" s="2">
+        <v>13014</v>
+      </c>
     </row>
-    <row r="237" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -69607,8 +70315,11 @@
       <c r="CQ237" s="2">
         <v>31523</v>
       </c>
+      <c r="CR237" s="2">
+        <v>31695</v>
+      </c>
     </row>
-    <row r="238" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -69894,8 +70605,11 @@
       <c r="CQ238" s="2">
         <v>65888</v>
       </c>
+      <c r="CR238" s="2">
+        <v>66072</v>
+      </c>
     </row>
-    <row r="239" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -70181,8 +70895,11 @@
       <c r="CQ239" s="2">
         <v>16909</v>
       </c>
+      <c r="CR239" s="2">
+        <v>17080</v>
+      </c>
     </row>
-    <row r="240" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -70468,8 +71185,11 @@
       <c r="CQ240" s="2">
         <v>3065</v>
       </c>
+      <c r="CR240" s="2">
+        <v>3095</v>
+      </c>
     </row>
-    <row r="241" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -70755,8 +71475,11 @@
       <c r="CQ241" s="2">
         <v>20993</v>
       </c>
+      <c r="CR241" s="2">
+        <v>21361</v>
+      </c>
     </row>
-    <row r="242" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -71042,8 +71765,11 @@
       <c r="CQ242" s="2">
         <v>179077</v>
       </c>
+      <c r="CR242" s="2">
+        <v>180540</v>
+      </c>
     </row>
-    <row r="243" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -71329,8 +72055,11 @@
       <c r="CQ243" s="2">
         <v>19916</v>
       </c>
+      <c r="CR243" s="2">
+        <v>20054</v>
+      </c>
     </row>
-    <row r="244" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -71616,8 +72345,11 @@
       <c r="CQ244" s="2">
         <v>2534</v>
       </c>
+      <c r="CR244" s="2">
+        <v>2548</v>
+      </c>
     </row>
-    <row r="245" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -71903,8 +72635,11 @@
       <c r="CQ245" s="2">
         <v>74916</v>
       </c>
+      <c r="CR245" s="2">
+        <v>75490</v>
+      </c>
     </row>
-    <row r="246" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -72190,8 +72925,11 @@
       <c r="CQ246" s="2">
         <v>9326</v>
       </c>
+      <c r="CR246" s="2">
+        <v>9387</v>
+      </c>
     </row>
-    <row r="247" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -72477,8 +73215,11 @@
       <c r="CQ247" s="2">
         <v>13659</v>
       </c>
+      <c r="CR247" s="2">
+        <v>13733</v>
+      </c>
     </row>
-    <row r="248" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -72764,8 +73505,11 @@
       <c r="CQ248" s="2">
         <v>236870</v>
       </c>
+      <c r="CR248" s="2">
+        <v>239112</v>
+      </c>
     </row>
-    <row r="249" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -73051,8 +73795,11 @@
       <c r="CQ249" s="2">
         <v>17185</v>
       </c>
+      <c r="CR249" s="2">
+        <v>17377</v>
+      </c>
     </row>
-    <row r="250" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -73338,8 +74085,11 @@
       <c r="CQ250" s="2">
         <v>728</v>
       </c>
+      <c r="CR250" s="2">
+        <v>736</v>
+      </c>
     </row>
-    <row r="251" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -73625,8 +74375,11 @@
       <c r="CQ251" s="2">
         <v>28983</v>
       </c>
+      <c r="CR251" s="2">
+        <v>29334</v>
+      </c>
     </row>
-    <row r="252" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -73912,8 +74665,11 @@
       <c r="CQ252" s="2">
         <v>12223</v>
       </c>
+      <c r="CR252" s="2">
+        <v>12288</v>
+      </c>
     </row>
-    <row r="253" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -74199,8 +74955,11 @@
       <c r="CQ253" s="2">
         <v>2184</v>
       </c>
+      <c r="CR253" s="2">
+        <v>2188</v>
+      </c>
     </row>
-    <row r="254" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -74486,8 +75245,11 @@
       <c r="CQ254" s="2">
         <v>5386</v>
       </c>
+      <c r="CR254" s="2">
+        <v>5401</v>
+      </c>
     </row>
-    <row r="255" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -74773,8 +75535,11 @@
       <c r="CQ255" s="2">
         <v>9173</v>
       </c>
+      <c r="CR255" s="2">
+        <v>9230</v>
+      </c>
     </row>
-    <row r="256" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -75060,8 +75825,11 @@
       <c r="CQ256" s="2">
         <v>5016</v>
       </c>
+      <c r="CR256" s="2">
+        <v>5030</v>
+      </c>
     </row>
-    <row r="257" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -75347,8 +76115,11 @@
       <c r="CQ257" s="2">
         <v>120718</v>
       </c>
+      <c r="CR257" s="2">
+        <v>120865</v>
+      </c>
     </row>
-    <row r="258" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:96" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -75637,8 +76408,11 @@
       <c r="CQ258" s="8">
         <v>13919586</v>
       </c>
+      <c r="CR258" s="8">
+        <v>14029601</v>
+      </c>
     </row>
-    <row r="259" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:96" x14ac:dyDescent="0.45">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -75665,7 +76439,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -75673,7 +76447,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -75681,7 +76455,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -75689,7 +76463,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -75697,7 +76471,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -75705,7 +76479,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -75713,7 +76487,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -75721,7 +76495,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -75729,7 +76503,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -75737,7 +76511,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -75745,7 +76519,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -75753,7 +76527,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -75761,7 +76535,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:95" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:96" x14ac:dyDescent="0.45">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3DF3EE7-8B78-4D80-8EC9-0D9E556D34CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE51D102-9CCA-4701-B921-174914EBEDAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11898" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,11 +1834,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CR513"/>
+  <dimension ref="A1:CS513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC224" workbookViewId="0">
-      <selection activeCell="CR258" sqref="CR258"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1874,12 +1872,12 @@
     <col min="96" max="96" width="9.87890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2168,8 +2166,11 @@
       <c r="CR2" s="4">
         <v>44181</v>
       </c>
+      <c r="CS2" s="4">
+        <v>44182</v>
+      </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2458,8 +2459,11 @@
       <c r="CR3" s="2">
         <v>40777</v>
       </c>
+      <c r="CS3" s="2">
+        <v>40988</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2748,8 +2752,11 @@
       <c r="CR4" s="2">
         <v>4523</v>
       </c>
+      <c r="CS4" s="2">
+        <v>4570</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3038,8 +3045,11 @@
       <c r="CR5" s="2">
         <v>40795</v>
       </c>
+      <c r="CS5" s="2">
+        <v>41775</v>
+      </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3338,11 @@
       <c r="CR6" s="2">
         <v>7504</v>
       </c>
+      <c r="CS6" s="2">
+        <v>7596</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3618,8 +3631,11 @@
       <c r="CR7" s="2">
         <v>2044</v>
       </c>
+      <c r="CS7" s="2">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3908,8 +3924,11 @@
       <c r="CR8" s="2">
         <v>567</v>
       </c>
+      <c r="CS8" s="2">
+        <v>582</v>
+      </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4198,8 +4217,11 @@
       <c r="CR9" s="2">
         <v>21840</v>
       </c>
+      <c r="CS9" s="2">
+        <v>22068</v>
+      </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4488,8 +4510,11 @@
       <c r="CR10" s="2">
         <v>10933</v>
       </c>
+      <c r="CS10" s="2">
+        <v>11019</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4778,8 +4803,11 @@
       <c r="CR11" s="2">
         <v>1759</v>
       </c>
+      <c r="CS11" s="2">
+        <v>1763</v>
+      </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5068,8 +5096,11 @@
       <c r="CR12" s="2">
         <v>5828</v>
       </c>
+      <c r="CS12" s="2">
+        <v>5895</v>
+      </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5358,8 +5389,11 @@
       <c r="CR13" s="2">
         <v>32837</v>
       </c>
+      <c r="CS13" s="2">
+        <v>33125</v>
+      </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5648,8 +5682,11 @@
       <c r="CR14" s="2">
         <v>1252</v>
       </c>
+      <c r="CS14" s="2">
+        <v>1257</v>
+      </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5938,8 +5975,11 @@
       <c r="CR15" s="2">
         <v>27314</v>
       </c>
+      <c r="CS15" s="2">
+        <v>27612</v>
+      </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6228,8 +6268,11 @@
       <c r="CR16" s="2">
         <v>155326</v>
       </c>
+      <c r="CS16" s="2">
+        <v>156862</v>
+      </c>
     </row>
-    <row r="17" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6518,8 +6561,11 @@
       <c r="CR17" s="2">
         <v>912625</v>
       </c>
+      <c r="CS17" s="2">
+        <v>920757</v>
+      </c>
     </row>
-    <row r="18" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6808,8 +6854,11 @@
       <c r="CR18" s="2">
         <v>3546</v>
       </c>
+      <c r="CS18" s="2">
+        <v>3590</v>
+      </c>
     </row>
-    <row r="19" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7098,8 +7147,11 @@
       <c r="CR19" s="2">
         <v>92</v>
       </c>
+      <c r="CS19" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="20" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7388,8 +7440,11 @@
       <c r="CR20" s="2">
         <v>9303</v>
       </c>
+      <c r="CS20" s="2">
+        <v>9366</v>
+      </c>
     </row>
-    <row r="21" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7678,8 +7733,11 @@
       <c r="CR21" s="2">
         <v>52525</v>
       </c>
+      <c r="CS21" s="2">
+        <v>52786</v>
+      </c>
     </row>
-    <row r="22" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -7968,8 +8026,11 @@
       <c r="CR22" s="2">
         <v>202555</v>
       </c>
+      <c r="CS22" s="2">
+        <v>204253</v>
+      </c>
     </row>
-    <row r="23" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8258,8 +8319,11 @@
       <c r="CR23" s="2">
         <v>140684</v>
       </c>
+      <c r="CS23" s="2">
+        <v>141750</v>
+      </c>
     </row>
-    <row r="24" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8548,8 +8612,11 @@
       <c r="CR24" s="2">
         <v>7354</v>
       </c>
+      <c r="CS24" s="2">
+        <v>7355</v>
+      </c>
     </row>
-    <row r="25" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8838,8 +8905,11 @@
       <c r="CR25" s="2">
         <v>465</v>
       </c>
+      <c r="CS25" s="2">
+        <v>471</v>
+      </c>
     </row>
-    <row r="26" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9128,8 +9198,11 @@
       <c r="CR26" s="2">
         <v>9484</v>
       </c>
+      <c r="CS26" s="2">
+        <v>9544</v>
+      </c>
     </row>
-    <row r="27" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9418,8 +9491,11 @@
       <c r="CR27" s="2">
         <v>18521</v>
       </c>
+      <c r="CS27" s="2">
+        <v>18912</v>
+      </c>
     </row>
-    <row r="28" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9708,8 +9784,11 @@
       <c r="CR28" s="2">
         <v>8271</v>
       </c>
+      <c r="CS28" s="2">
+        <v>8346</v>
+      </c>
     </row>
-    <row r="29" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -9998,8 +10077,11 @@
       <c r="CR29" s="2">
         <v>20308</v>
       </c>
+      <c r="CS29" s="2">
+        <v>20445</v>
+      </c>
     </row>
-    <row r="30" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10288,8 +10370,11 @@
       <c r="CR30" s="2">
         <v>18750</v>
       </c>
+      <c r="CS30" s="2">
+        <v>18939</v>
+      </c>
     </row>
-    <row r="31" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10578,8 +10663,11 @@
       <c r="CR31" s="2">
         <v>9778</v>
       </c>
+      <c r="CS31" s="2">
+        <v>9853</v>
+      </c>
     </row>
-    <row r="32" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -10868,8 +10956,11 @@
       <c r="CR32" s="2">
         <v>5470</v>
       </c>
+      <c r="CS32" s="2">
+        <v>5502</v>
+      </c>
     </row>
-    <row r="33" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11158,8 +11249,11 @@
       <c r="CR33" s="2">
         <v>172430</v>
       </c>
+      <c r="CS33" s="2">
+        <v>173858</v>
+      </c>
     </row>
-    <row r="34" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11448,8 +11542,11 @@
       <c r="CR34" s="2">
         <v>3887</v>
       </c>
+      <c r="CS34" s="2">
+        <v>3908</v>
+      </c>
     </row>
-    <row r="35" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -11738,8 +11835,11 @@
       <c r="CR35" s="2">
         <v>1610</v>
       </c>
+      <c r="CS35" s="2">
+        <v>1651</v>
+      </c>
     </row>
-    <row r="36" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12028,8 +12128,11 @@
       <c r="CR36" s="2">
         <v>11680</v>
       </c>
+      <c r="CS36" s="2">
+        <v>11744</v>
+      </c>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12318,8 +12421,11 @@
       <c r="CR37" s="2">
         <v>3963</v>
       </c>
+      <c r="CS37" s="2">
+        <v>3979</v>
+      </c>
     </row>
-    <row r="38" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12608,8 +12714,11 @@
       <c r="CR38" s="2">
         <v>6172</v>
       </c>
+      <c r="CS38" s="2">
+        <v>6223</v>
+      </c>
     </row>
-    <row r="39" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -12898,8 +13007,11 @@
       <c r="CR39" s="2">
         <v>17075</v>
       </c>
+      <c r="CS39" s="2">
+        <v>17281</v>
+      </c>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13188,8 +13300,11 @@
       <c r="CR40" s="2">
         <v>4288</v>
       </c>
+      <c r="CS40" s="2">
+        <v>4440</v>
+      </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13478,8 +13593,11 @@
       <c r="CR41" s="2">
         <v>2860</v>
       </c>
+      <c r="CS41" s="2">
+        <v>2889</v>
+      </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -13768,8 +13886,11 @@
       <c r="CR42" s="2">
         <v>742</v>
       </c>
+      <c r="CS42" s="2">
+        <v>746</v>
+      </c>
     </row>
-    <row r="43" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14058,8 +14179,11 @@
       <c r="CR43" s="2">
         <v>2307</v>
       </c>
+      <c r="CS43" s="2">
+        <v>2344</v>
+      </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14348,8 +14472,11 @@
       <c r="CR44" s="2">
         <v>2850</v>
       </c>
+      <c r="CS44" s="2">
+        <v>2883</v>
+      </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14638,8 +14765,11 @@
       <c r="CR45" s="2">
         <v>562633</v>
       </c>
+      <c r="CS45" s="2">
+        <v>567395</v>
+      </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -14928,8 +15058,11 @@
       <c r="CR46" s="2">
         <v>1318</v>
       </c>
+      <c r="CS46" s="2">
+        <v>1341</v>
+      </c>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15218,8 +15351,11 @@
       <c r="CR47" s="2">
         <v>9670</v>
       </c>
+      <c r="CS47" s="2">
+        <v>9709</v>
+      </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -15508,8 +15644,11 @@
       <c r="CR48" s="2">
         <v>61064</v>
       </c>
+      <c r="CS48" s="2">
+        <v>61660</v>
+      </c>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -15798,8 +15937,11 @@
       <c r="CR49" s="2">
         <v>6218</v>
       </c>
+      <c r="CS49" s="2">
+        <v>6252</v>
+      </c>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16088,8 +16230,11 @@
       <c r="CR50" s="2">
         <v>1746</v>
       </c>
+      <c r="CS50" s="2">
+        <v>1753</v>
+      </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16378,8 +16523,11 @@
       <c r="CR51" s="2">
         <v>17260</v>
       </c>
+      <c r="CS51" s="2">
+        <v>17433</v>
+      </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -16668,8 +16816,11 @@
       <c r="CR52" s="2">
         <v>59765</v>
       </c>
+      <c r="CS52" s="2">
+        <v>60318</v>
+      </c>
     </row>
-    <row r="53" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -16958,8 +17109,11 @@
       <c r="CR53" s="2">
         <v>869</v>
       </c>
+      <c r="CS53" s="2">
+        <v>893</v>
+      </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17248,8 +17402,11 @@
       <c r="CR54" s="2">
         <v>3266</v>
       </c>
+      <c r="CS54" s="2">
+        <v>3278</v>
+      </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17538,8 +17695,11 @@
       <c r="CR55" s="2">
         <v>1835</v>
       </c>
+      <c r="CS55" s="2">
+        <v>1842</v>
+      </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -17828,8 +17988,11 @@
       <c r="CR56" s="2">
         <v>2764</v>
       </c>
+      <c r="CS56" s="2">
+        <v>2775</v>
+      </c>
     </row>
-    <row r="57" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18118,8 +18281,11 @@
       <c r="CR57" s="2">
         <v>1518</v>
       </c>
+      <c r="CS57" s="2">
+        <v>1563</v>
+      </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -18408,8 +18574,11 @@
       <c r="CR58" s="2">
         <v>1390</v>
       </c>
+      <c r="CS58" s="2">
+        <v>1397</v>
+      </c>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -18698,8 +18867,11 @@
       <c r="CR59" s="2">
         <v>1460685</v>
       </c>
+      <c r="CS59" s="2">
+        <v>1473417</v>
+      </c>
     </row>
-    <row r="60" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -18988,8 +19160,11 @@
       <c r="CR60" s="2">
         <v>6690</v>
       </c>
+      <c r="CS60" s="2">
+        <v>6736</v>
+      </c>
     </row>
-    <row r="61" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19278,8 +19453,11 @@
       <c r="CR61" s="2">
         <v>6890</v>
       </c>
+      <c r="CS61" s="2">
+        <v>6925</v>
+      </c>
     </row>
-    <row r="62" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -19568,8 +19746,11 @@
       <c r="CR62" s="2">
         <v>4717</v>
       </c>
+      <c r="CS62" s="2">
+        <v>4750</v>
+      </c>
     </row>
-    <row r="63" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -19858,8 +20039,11 @@
       <c r="CR63" s="2">
         <v>1728</v>
       </c>
+      <c r="CS63" s="2">
+        <v>1737</v>
+      </c>
     </row>
-    <row r="64" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -20148,8 +20332,11 @@
       <c r="CR64" s="2">
         <v>349129</v>
       </c>
+      <c r="CS64" s="2">
+        <v>352544</v>
+      </c>
     </row>
-    <row r="65" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -20438,8 +20625,11 @@
       <c r="CR65" s="2">
         <v>533</v>
       </c>
+      <c r="CS65" s="2">
+        <v>537</v>
+      </c>
     </row>
-    <row r="66" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -20728,8 +20918,11 @@
       <c r="CR66" s="2">
         <v>4623</v>
       </c>
+      <c r="CS66" s="2">
+        <v>4639</v>
+      </c>
     </row>
-    <row r="67" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -21018,8 +21211,11 @@
       <c r="CR67" s="2">
         <v>1426</v>
       </c>
+      <c r="CS67" s="2">
+        <v>1447</v>
+      </c>
     </row>
-    <row r="68" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -21308,8 +21504,11 @@
       <c r="CR68" s="2">
         <v>12149</v>
       </c>
+      <c r="CS68" s="2">
+        <v>12254</v>
+      </c>
     </row>
-    <row r="69" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -21598,8 +21797,11 @@
       <c r="CR69" s="2">
         <v>4901</v>
       </c>
+      <c r="CS69" s="2">
+        <v>4933</v>
+      </c>
     </row>
-    <row r="70" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -21888,8 +22090,11 @@
       <c r="CR70" s="2">
         <v>51046</v>
       </c>
+      <c r="CS70" s="2">
+        <v>51644</v>
+      </c>
     </row>
-    <row r="71" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -22178,8 +22383,11 @@
       <c r="CR71" s="2">
         <v>1028</v>
       </c>
+      <c r="CS71" s="2">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="72" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -22468,8 +22676,11 @@
       <c r="CR72" s="2">
         <v>597794</v>
       </c>
+      <c r="CS72" s="2">
+        <v>601981</v>
+      </c>
     </row>
-    <row r="73" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -22758,8 +22969,11 @@
       <c r="CR73" s="2">
         <v>96201</v>
       </c>
+      <c r="CS73" s="2">
+        <v>96969</v>
+      </c>
     </row>
-    <row r="74" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -23048,8 +23262,11 @@
       <c r="CR74" s="2">
         <v>14428</v>
       </c>
+      <c r="CS74" s="2">
+        <v>14509</v>
+      </c>
     </row>
-    <row r="75" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -23338,8 +23555,11 @@
       <c r="CR75" s="2">
         <v>9449</v>
       </c>
+      <c r="CS75" s="2">
+        <v>9515</v>
+      </c>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -23628,8 +23848,11 @@
       <c r="CR76" s="2">
         <v>16629</v>
       </c>
+      <c r="CS76" s="2">
+        <v>16777</v>
+      </c>
     </row>
-    <row r="77" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -23918,8 +24141,11 @@
       <c r="CR77" s="2">
         <v>9953</v>
       </c>
+      <c r="CS77" s="2">
+        <v>10016</v>
+      </c>
     </row>
-    <row r="78" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -24208,8 +24434,11 @@
       <c r="CR78" s="2">
         <v>1067</v>
       </c>
+      <c r="CS78" s="2">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -24498,8 +24727,11 @@
       <c r="CR79" s="2">
         <v>1871</v>
       </c>
+      <c r="CS79" s="2">
+        <v>1877</v>
+      </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -24788,8 +25020,11 @@
       <c r="CR80" s="2">
         <v>632</v>
       </c>
+      <c r="CS80" s="2">
+        <v>638</v>
+      </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -25078,8 +25313,11 @@
       <c r="CR81" s="2">
         <v>373808</v>
       </c>
+      <c r="CS81" s="2">
+        <v>377860</v>
+      </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25368,8 +25606,11 @@
       <c r="CR82" s="2">
         <v>3087</v>
       </c>
+      <c r="CS82" s="2">
+        <v>3102</v>
+      </c>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -25658,8 +25899,11 @@
       <c r="CR83" s="2">
         <v>10937</v>
       </c>
+      <c r="CS83" s="2">
+        <v>11010</v>
+      </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -25948,8 +26192,11 @@
       <c r="CR84" s="2">
         <v>10111</v>
       </c>
+      <c r="CS84" s="2">
+        <v>10196</v>
+      </c>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -26238,8 +26485,11 @@
       <c r="CR85" s="2">
         <v>3183</v>
       </c>
+      <c r="CS85" s="2">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -26528,8 +26778,11 @@
       <c r="CR86" s="2">
         <v>219922</v>
       </c>
+      <c r="CS86" s="2">
+        <v>221694</v>
+      </c>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -26818,8 +27071,11 @@
       <c r="CR87" s="2">
         <v>2012</v>
       </c>
+      <c r="CS87" s="2">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -27108,8 +27364,11 @@
       <c r="CR88" s="2">
         <v>12086</v>
       </c>
+      <c r="CS88" s="2">
+        <v>12137</v>
+      </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -27398,8 +27657,11 @@
       <c r="CR89" s="2">
         <v>134</v>
       </c>
+      <c r="CS89" s="2">
+        <v>135</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -27688,8 +27950,11 @@
       <c r="CR90" s="2">
         <v>2458</v>
       </c>
+      <c r="CS90" s="2">
+        <v>2466</v>
+      </c>
     </row>
-    <row r="91" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -27978,8 +28243,11 @@
       <c r="CR91" s="2">
         <v>9299</v>
       </c>
+      <c r="CS91" s="2">
+        <v>9421</v>
+      </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -28268,8 +28536,11 @@
       <c r="CR92" s="2">
         <v>6435</v>
       </c>
+      <c r="CS92" s="2">
+        <v>6462</v>
+      </c>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -28558,8 +28829,11 @@
       <c r="CR93" s="2">
         <v>63200</v>
       </c>
+      <c r="CS93" s="2">
+        <v>63937</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -28848,8 +29122,11 @@
       <c r="CR94" s="2">
         <v>40983</v>
       </c>
+      <c r="CS94" s="2">
+        <v>41369</v>
+      </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -29138,8 +29415,11 @@
       <c r="CR95" s="2">
         <v>15297</v>
       </c>
+      <c r="CS95" s="2">
+        <v>15386</v>
+      </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -29428,8 +29708,11 @@
       <c r="CR96" s="2">
         <v>45532</v>
       </c>
+      <c r="CS96" s="2">
+        <v>45961</v>
+      </c>
     </row>
-    <row r="97" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -29718,8 +30001,11 @@
       <c r="CR97" s="2">
         <v>10425</v>
       </c>
+      <c r="CS97" s="2">
+        <v>10449</v>
+      </c>
     </row>
-    <row r="98" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -30008,8 +30294,11 @@
       <c r="CR98" s="2">
         <v>1815</v>
       </c>
+      <c r="CS98" s="2">
+        <v>1860</v>
+      </c>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -30298,8 +30587,11 @@
       <c r="CR99" s="2">
         <v>3637</v>
       </c>
+      <c r="CS99" s="2">
+        <v>3686</v>
+      </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -30588,8 +30880,11 @@
       <c r="CR100" s="2">
         <v>1966</v>
       </c>
+      <c r="CS100" s="2">
+        <v>1996</v>
+      </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -30878,8 +31173,11 @@
       <c r="CR101" s="2">
         <v>1494</v>
       </c>
+      <c r="CS101" s="2">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="102" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -31168,8 +31466,11 @@
       <c r="CR102" s="2">
         <v>15806</v>
       </c>
+      <c r="CS102" s="2">
+        <v>15975</v>
+      </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -31458,8 +31759,11 @@
       <c r="CR103" s="2">
         <v>2354708</v>
       </c>
+      <c r="CS103" s="2">
+        <v>2375024</v>
+      </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -31748,8 +32052,11 @@
       <c r="CR104" s="2">
         <v>42639</v>
       </c>
+      <c r="CS104" s="2">
+        <v>42945</v>
+      </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -32038,8 +32345,11 @@
       <c r="CR105" s="2">
         <v>131</v>
       </c>
+      <c r="CS105" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="106" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -32328,8 +32638,11 @@
       <c r="CR106" s="2">
         <v>1707</v>
       </c>
+      <c r="CS106" s="2">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -32618,8 +32931,11 @@
       <c r="CR107" s="2">
         <v>128047</v>
       </c>
+      <c r="CS107" s="2">
+        <v>129124</v>
+      </c>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -32908,8 +33224,11 @@
       <c r="CR108" s="2">
         <v>973</v>
       </c>
+      <c r="CS108" s="2">
+        <v>979</v>
+      </c>
     </row>
-    <row r="109" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -33198,8 +33517,11 @@
       <c r="CR109" s="2">
         <v>19497</v>
       </c>
+      <c r="CS109" s="2">
+        <v>19607</v>
+      </c>
     </row>
-    <row r="110" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -33488,8 +33810,11 @@
       <c r="CR110" s="2">
         <v>314408</v>
       </c>
+      <c r="CS110" s="2">
+        <v>316926</v>
+      </c>
     </row>
-    <row r="111" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -33778,8 +34103,11 @@
       <c r="CR111" s="2">
         <v>24932</v>
       </c>
+      <c r="CS111" s="2">
+        <v>25213</v>
+      </c>
     </row>
-    <row r="112" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -34068,8 +34396,11 @@
       <c r="CR112" s="2">
         <v>7251</v>
       </c>
+      <c r="CS112" s="2">
+        <v>7295</v>
+      </c>
     </row>
-    <row r="113" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -34358,8 +34689,11 @@
       <c r="CR113" s="2">
         <v>30524</v>
       </c>
+      <c r="CS113" s="2">
+        <v>30748</v>
+      </c>
     </row>
-    <row r="114" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -34648,8 +34982,11 @@
       <c r="CR114" s="2">
         <v>12422</v>
       </c>
+      <c r="CS114" s="2">
+        <v>12554</v>
+      </c>
     </row>
-    <row r="115" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -34938,8 +35275,11 @@
       <c r="CR115" s="2">
         <v>11616</v>
       </c>
+      <c r="CS115" s="2">
+        <v>11651</v>
+      </c>
     </row>
-    <row r="116" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -35228,8 +35568,11 @@
       <c r="CR116" s="2">
         <v>11041</v>
       </c>
+      <c r="CS116" s="2">
+        <v>11271</v>
+      </c>
     </row>
-    <row r="117" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -35518,8 +35861,11 @@
       <c r="CR117" s="2">
         <v>1942</v>
       </c>
+      <c r="CS117" s="2">
+        <v>1954</v>
+      </c>
     </row>
-    <row r="118" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -35808,8 +36154,11 @@
       <c r="CR118" s="2">
         <v>45812</v>
       </c>
+      <c r="CS118" s="2">
+        <v>46355</v>
+      </c>
     </row>
-    <row r="119" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -36098,8 +36447,11 @@
       <c r="CR119" s="2">
         <v>8194</v>
       </c>
+      <c r="CS119" s="2">
+        <v>8244</v>
+      </c>
     </row>
-    <row r="120" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -36388,8 +36740,11 @@
       <c r="CR120" s="2">
         <v>359</v>
       </c>
+      <c r="CS120" s="2">
+        <v>364</v>
+      </c>
     </row>
-    <row r="121" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -36678,8 +37033,11 @@
       <c r="CR121" s="2">
         <v>1137</v>
       </c>
+      <c r="CS121" s="2">
+        <v>1146</v>
+      </c>
     </row>
-    <row r="122" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -36968,8 +37326,11 @@
       <c r="CR122" s="2">
         <v>5307</v>
       </c>
+      <c r="CS122" s="2">
+        <v>5347</v>
+      </c>
     </row>
-    <row r="123" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -37258,8 +37619,11 @@
       <c r="CR123" s="2">
         <v>10638</v>
       </c>
+      <c r="CS123" s="2">
+        <v>10747</v>
+      </c>
     </row>
-    <row r="124" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -37548,8 +37912,11 @@
       <c r="CR124" s="2">
         <v>1305</v>
       </c>
+      <c r="CS124" s="2">
+        <v>1307</v>
+      </c>
     </row>
-    <row r="125" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -37838,8 +38205,11 @@
       <c r="CR125" s="2">
         <v>127861</v>
       </c>
+      <c r="CS125" s="2">
+        <v>128815</v>
+      </c>
     </row>
-    <row r="126" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -38128,8 +38498,11 @@
       <c r="CR126" s="2">
         <v>7138</v>
       </c>
+      <c r="CS126" s="2">
+        <v>7170</v>
+      </c>
     </row>
-    <row r="127" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -38418,8 +38791,11 @@
       <c r="CR127" s="2">
         <v>38784</v>
       </c>
+      <c r="CS127" s="2">
+        <v>39204</v>
+      </c>
     </row>
-    <row r="128" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -38708,8 +39084,11 @@
       <c r="CR128" s="2">
         <v>74466</v>
       </c>
+      <c r="CS128" s="2">
+        <v>75068</v>
+      </c>
     </row>
-    <row r="129" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -38998,8 +39377,11 @@
       <c r="CR129" s="2">
         <v>5210</v>
       </c>
+      <c r="CS129" s="2">
+        <v>5234</v>
+      </c>
     </row>
-    <row r="130" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -39288,8 +39670,11 @@
       <c r="CR130" s="2">
         <v>10674</v>
       </c>
+      <c r="CS130" s="2">
+        <v>10721</v>
+      </c>
     </row>
-    <row r="131" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -39578,8 +39963,11 @@
       <c r="CR131" s="2">
         <v>64580</v>
       </c>
+      <c r="CS131" s="2">
+        <v>65263</v>
+      </c>
     </row>
-    <row r="132" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -39868,8 +40256,11 @@
       <c r="CR132" s="2">
         <v>15062</v>
       </c>
+      <c r="CS132" s="2">
+        <v>15206</v>
+      </c>
     </row>
-    <row r="133" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -40158,8 +40549,11 @@
       <c r="CR133" s="2">
         <v>144</v>
       </c>
+      <c r="CS133" s="2">
+        <v>148</v>
+      </c>
     </row>
-    <row r="134" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -40448,8 +40842,11 @@
       <c r="CR134" s="2">
         <v>383</v>
       </c>
+      <c r="CS134" s="2">
+        <v>388</v>
+      </c>
     </row>
-    <row r="135" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -40738,8 +41135,11 @@
       <c r="CR135" s="2">
         <v>29372</v>
       </c>
+      <c r="CS135" s="2">
+        <v>29528</v>
+      </c>
     </row>
-    <row r="136" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -41028,8 +41428,11 @@
       <c r="CR136" s="2">
         <v>1467</v>
       </c>
+      <c r="CS136" s="2">
+        <v>1468</v>
+      </c>
     </row>
-    <row r="137" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -41318,8 +41721,11 @@
       <c r="CR137" s="2">
         <v>36</v>
       </c>
+      <c r="CS137" s="2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="138" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -41608,8 +42014,11 @@
       <c r="CR138" s="2">
         <v>1020</v>
       </c>
+      <c r="CS138" s="2">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="139" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -41898,8 +42307,11 @@
       <c r="CR139" s="2">
         <v>21563</v>
       </c>
+      <c r="CS139" s="2">
+        <v>22184</v>
+      </c>
     </row>
-    <row r="140" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -42188,8 +42600,11 @@
       <c r="CR140" s="2">
         <v>1532</v>
       </c>
+      <c r="CS140" s="2">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="141" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -42478,8 +42893,11 @@
       <c r="CR141" s="2">
         <v>4611</v>
       </c>
+      <c r="CS141" s="2">
+        <v>4777</v>
+      </c>
     </row>
-    <row r="142" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -42768,8 +43186,11 @@
       <c r="CR142" s="2">
         <v>15262</v>
       </c>
+      <c r="CS142" s="2">
+        <v>15429</v>
+      </c>
     </row>
-    <row r="143" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -43058,8 +43479,11 @@
       <c r="CR143" s="2">
         <v>6491</v>
       </c>
+      <c r="CS143" s="2">
+        <v>6508</v>
+      </c>
     </row>
-    <row r="144" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -43348,8 +43772,11 @@
       <c r="CR144" s="2">
         <v>11303</v>
       </c>
+      <c r="CS144" s="2">
+        <v>11401</v>
+      </c>
     </row>
-    <row r="145" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -43638,8 +44065,11 @@
       <c r="CR145" s="2">
         <v>9102</v>
       </c>
+      <c r="CS145" s="2">
+        <v>9163</v>
+      </c>
     </row>
-    <row r="146" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -43928,8 +44358,11 @@
       <c r="CR146" s="2">
         <v>5445</v>
       </c>
+      <c r="CS146" s="2">
+        <v>5492</v>
+      </c>
     </row>
-    <row r="147" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -44218,8 +44651,11 @@
       <c r="CR147" s="2">
         <v>6368</v>
       </c>
+      <c r="CS147" s="2">
+        <v>6411</v>
+      </c>
     </row>
-    <row r="148" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -44508,8 +44944,11 @@
       <c r="CR148" s="2">
         <v>34355</v>
       </c>
+      <c r="CS148" s="2">
+        <v>34551</v>
+      </c>
     </row>
-    <row r="149" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -44798,8 +45237,11 @@
       <c r="CR149" s="2">
         <v>17691</v>
       </c>
+      <c r="CS149" s="2">
+        <v>17909</v>
+      </c>
     </row>
-    <row r="150" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -45088,8 +45530,11 @@
       <c r="CR150" s="2">
         <v>256</v>
       </c>
+      <c r="CS150" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="151" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -45378,8 +45823,11 @@
       <c r="CR151" s="2">
         <v>3330</v>
       </c>
+      <c r="CS151" s="2">
+        <v>3405</v>
+      </c>
     </row>
-    <row r="152" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -45668,8 +46116,11 @@
       <c r="CR152" s="2">
         <v>6909</v>
       </c>
+      <c r="CS152" s="2">
+        <v>6976</v>
+      </c>
     </row>
-    <row r="153" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -45958,8 +46409,11 @@
       <c r="CR153" s="2">
         <v>23</v>
       </c>
+      <c r="CS153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -46248,8 +46702,11 @@
       <c r="CR154" s="2">
         <v>201731</v>
       </c>
+      <c r="CS154" s="2">
+        <v>202912</v>
+      </c>
     </row>
-    <row r="155" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -46538,8 +46995,11 @@
       <c r="CR155" s="2">
         <v>2945</v>
       </c>
+      <c r="CS155" s="2">
+        <v>2959</v>
+      </c>
     </row>
-    <row r="156" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -46828,8 +47288,11 @@
       <c r="CR156" s="2">
         <v>9641</v>
       </c>
+      <c r="CS156" s="2">
+        <v>9673</v>
+      </c>
     </row>
-    <row r="157" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -47118,8 +47581,11 @@
       <c r="CR157" s="2">
         <v>2212</v>
       </c>
+      <c r="CS157" s="2">
+        <v>2223</v>
+      </c>
     </row>
-    <row r="158" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -47408,8 +47874,11 @@
       <c r="CR158" s="2">
         <v>1211</v>
       </c>
+      <c r="CS158" s="2">
+        <v>1222</v>
+      </c>
     </row>
-    <row r="159" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -47698,8 +48167,11 @@
       <c r="CR159" s="2">
         <v>1485</v>
       </c>
+      <c r="CS159" s="2">
+        <v>1501</v>
+      </c>
     </row>
-    <row r="160" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -47988,8 +48460,11 @@
       <c r="CR160" s="2">
         <v>15712</v>
       </c>
+      <c r="CS160" s="2">
+        <v>15827</v>
+      </c>
     </row>
-    <row r="161" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -48278,8 +48753,11 @@
       <c r="CR161" s="2">
         <v>34519</v>
       </c>
+      <c r="CS161" s="2">
+        <v>34658</v>
+      </c>
     </row>
-    <row r="162" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -48568,8 +49046,11 @@
       <c r="CR162" s="2">
         <v>2198</v>
       </c>
+      <c r="CS162" s="2">
+        <v>2226</v>
+      </c>
     </row>
-    <row r="163" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -48858,8 +49339,11 @@
       <c r="CR163" s="2">
         <v>181073</v>
       </c>
+      <c r="CS163" s="2">
+        <v>182695</v>
+      </c>
     </row>
-    <row r="164" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -49148,8 +49632,11 @@
       <c r="CR164" s="2">
         <v>257</v>
       </c>
+      <c r="CS164" s="2">
+        <v>264</v>
+      </c>
     </row>
-    <row r="165" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -49438,8 +49925,11 @@
       <c r="CR165" s="2">
         <v>17128</v>
       </c>
+      <c r="CS165" s="2">
+        <v>17208</v>
+      </c>
     </row>
-    <row r="166" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -49728,8 +50218,11 @@
       <c r="CR166" s="2">
         <v>1756</v>
       </c>
+      <c r="CS166" s="2">
+        <v>1760</v>
+      </c>
     </row>
-    <row r="167" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -50018,8 +50511,11 @@
       <c r="CR167" s="2">
         <v>49662</v>
       </c>
+      <c r="CS167" s="2">
+        <v>50207</v>
+      </c>
     </row>
-    <row r="168" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -50308,8 +50804,11 @@
       <c r="CR168" s="2">
         <v>11862</v>
       </c>
+      <c r="CS168" s="2">
+        <v>11961</v>
+      </c>
     </row>
-    <row r="169" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -50598,8 +51097,11 @@
       <c r="CR169" s="2">
         <v>3355</v>
       </c>
+      <c r="CS169" s="2">
+        <v>3375</v>
+      </c>
     </row>
-    <row r="170" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -50888,8 +51390,11 @@
       <c r="CR170" s="2">
         <v>4676</v>
       </c>
+      <c r="CS170" s="2">
+        <v>4712</v>
+      </c>
     </row>
-    <row r="171" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -51178,8 +51683,11 @@
       <c r="CR171" s="2">
         <v>7792</v>
       </c>
+      <c r="CS171" s="2">
+        <v>7842</v>
+      </c>
     </row>
-    <row r="172" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -51468,8 +51976,11 @@
       <c r="CR172" s="2">
         <v>218136</v>
       </c>
+      <c r="CS172" s="2">
+        <v>219987</v>
+      </c>
     </row>
-    <row r="173" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -51758,8 +52269,11 @@
       <c r="CR173" s="2">
         <v>6826</v>
       </c>
+      <c r="CS173" s="2">
+        <v>6904</v>
+      </c>
     </row>
-    <row r="174" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -52048,8 +52562,11 @@
       <c r="CR174" s="2">
         <v>4880</v>
       </c>
+      <c r="CS174" s="2">
+        <v>4903</v>
+      </c>
     </row>
-    <row r="175" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -52338,8 +52855,11 @@
       <c r="CR175" s="2">
         <v>456</v>
       </c>
+      <c r="CS175" s="2">
+        <v>458</v>
+      </c>
     </row>
-    <row r="176" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -52628,8 +53148,11 @@
       <c r="CR176" s="2">
         <v>29021</v>
       </c>
+      <c r="CS176" s="2">
+        <v>29292</v>
+      </c>
     </row>
-    <row r="177" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -52918,8 +53441,11 @@
       <c r="CR177" s="2">
         <v>20941</v>
       </c>
+      <c r="CS177" s="2">
+        <v>21074</v>
+      </c>
     </row>
-    <row r="178" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -53208,8 +53734,11 @@
       <c r="CR178" s="2">
         <v>3213</v>
       </c>
+      <c r="CS178" s="2">
+        <v>3251</v>
+      </c>
     </row>
-    <row r="179" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -53498,8 +54027,11 @@
       <c r="CR179" s="2">
         <v>6128</v>
       </c>
+      <c r="CS179" s="2">
+        <v>6182</v>
+      </c>
     </row>
-    <row r="180" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -53788,8 +54320,11 @@
       <c r="CR180" s="2">
         <v>180203</v>
       </c>
+      <c r="CS180" s="2">
+        <v>181758</v>
+      </c>
     </row>
-    <row r="181" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -54078,8 +54613,11 @@
       <c r="CR181" s="2">
         <v>505</v>
       </c>
+      <c r="CS181" s="2">
+        <v>513</v>
+      </c>
     </row>
-    <row r="182" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -54368,8 +54906,11 @@
       <c r="CR182" s="2">
         <v>642</v>
       </c>
+      <c r="CS182" s="2">
+        <v>651</v>
+      </c>
     </row>
-    <row r="183" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -54658,8 +55199,11 @@
       <c r="CR183" s="2">
         <v>22839</v>
       </c>
+      <c r="CS183" s="2">
+        <v>23044</v>
+      </c>
     </row>
-    <row r="184" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -54948,8 +55492,11 @@
       <c r="CR184" s="2">
         <v>9718</v>
       </c>
+      <c r="CS184" s="2">
+        <v>9814</v>
+      </c>
     </row>
-    <row r="185" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -55238,8 +55785,11 @@
       <c r="CR185" s="2">
         <v>6518</v>
       </c>
+      <c r="CS185" s="2">
+        <v>6560</v>
+      </c>
     </row>
-    <row r="186" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -55528,8 +56078,11 @@
       <c r="CR186" s="2">
         <v>45155</v>
       </c>
+      <c r="CS186" s="2">
+        <v>45556</v>
+      </c>
     </row>
-    <row r="187" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -55818,8 +56371,11 @@
       <c r="CR187" s="2">
         <v>1939</v>
       </c>
+      <c r="CS187" s="2">
+        <v>1948</v>
+      </c>
     </row>
-    <row r="188" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -56108,8 +56664,11 @@
       <c r="CR188" s="2">
         <v>6957</v>
       </c>
+      <c r="CS188" s="2">
+        <v>7007</v>
+      </c>
     </row>
-    <row r="189" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -56398,8 +56957,11 @@
       <c r="CR189" s="2">
         <v>20807</v>
       </c>
+      <c r="CS189" s="2">
+        <v>20949</v>
+      </c>
     </row>
-    <row r="190" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -56688,8 +57250,11 @@
       <c r="CR190" s="2">
         <v>57791</v>
       </c>
+      <c r="CS190" s="2">
+        <v>58504</v>
+      </c>
     </row>
-    <row r="191" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -56978,8 +57543,11 @@
       <c r="CR191" s="2">
         <v>6149</v>
       </c>
+      <c r="CS191" s="2">
+        <v>6156</v>
+      </c>
     </row>
-    <row r="192" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -57268,8 +57836,11 @@
       <c r="CR192" s="2">
         <v>2001</v>
       </c>
+      <c r="CS192" s="2">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="193" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -57558,8 +58129,11 @@
       <c r="CR193" s="2">
         <v>39182</v>
       </c>
+      <c r="CS193" s="2">
+        <v>40028</v>
+      </c>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -57848,8 +58422,11 @@
       <c r="CR194" s="2">
         <v>992</v>
       </c>
+      <c r="CS194" s="2">
+        <v>993</v>
+      </c>
     </row>
-    <row r="195" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -58138,8 +58715,11 @@
       <c r="CR195" s="2">
         <v>1220</v>
       </c>
+      <c r="CS195" s="2">
+        <v>1227</v>
+      </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -58428,8 +59008,11 @@
       <c r="CR196" s="2">
         <v>4334</v>
       </c>
+      <c r="CS196" s="2">
+        <v>4357</v>
+      </c>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -58718,8 +59301,11 @@
       <c r="CR197" s="2">
         <v>3610</v>
       </c>
+      <c r="CS197" s="2">
+        <v>3632</v>
+      </c>
     </row>
-    <row r="198" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -59008,8 +59594,11 @@
       <c r="CR198" s="2">
         <v>3867</v>
       </c>
+      <c r="CS198" s="2">
+        <v>3951</v>
+      </c>
     </row>
-    <row r="199" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -59298,8 +59887,11 @@
       <c r="CR199" s="2">
         <v>114</v>
       </c>
+      <c r="CS199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -59588,8 +60180,11 @@
       <c r="CR200" s="2">
         <v>8978</v>
       </c>
+      <c r="CS200" s="2">
+        <v>9092</v>
+      </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -59878,8 +60473,11 @@
       <c r="CR201" s="2">
         <v>42207</v>
       </c>
+      <c r="CS201" s="2">
+        <v>42589</v>
+      </c>
     </row>
-    <row r="202" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -60168,8 +60766,11 @@
       <c r="CR202" s="2">
         <v>5161</v>
       </c>
+      <c r="CS202" s="2">
+        <v>5215</v>
+      </c>
     </row>
-    <row r="203" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -60458,8 +61059,11 @@
       <c r="CR203" s="2">
         <v>13981</v>
       </c>
+      <c r="CS203" s="2">
+        <v>14079</v>
+      </c>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -60748,8 +61352,11 @@
       <c r="CR204" s="2">
         <v>4385</v>
       </c>
+      <c r="CS204" s="2">
+        <v>4456</v>
+      </c>
     </row>
-    <row r="205" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -61038,8 +61645,11 @@
       <c r="CR205" s="2">
         <v>4158</v>
       </c>
+      <c r="CS205" s="2">
+        <v>4210</v>
+      </c>
     </row>
-    <row r="206" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -61328,8 +61938,11 @@
       <c r="CR206" s="2">
         <v>10666</v>
       </c>
+      <c r="CS206" s="2">
+        <v>10759</v>
+      </c>
     </row>
-    <row r="207" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -61618,8 +62231,11 @@
       <c r="CR207" s="2">
         <v>27710</v>
       </c>
+      <c r="CS207" s="2">
+        <v>28141</v>
+      </c>
     </row>
-    <row r="208" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -61908,8 +62524,11 @@
       <c r="CR208" s="2">
         <v>2423</v>
       </c>
+      <c r="CS208" s="2">
+        <v>2429</v>
+      </c>
     </row>
-    <row r="209" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -62198,8 +62817,11 @@
       <c r="CR209" s="2">
         <v>886</v>
       </c>
+      <c r="CS209" s="2">
+        <v>892</v>
+      </c>
     </row>
-    <row r="210" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -62488,8 +63110,11 @@
       <c r="CR210" s="2">
         <v>12729</v>
       </c>
+      <c r="CS210" s="2">
+        <v>13198</v>
+      </c>
     </row>
-    <row r="211" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -62778,8 +63403,11 @@
       <c r="CR211" s="2">
         <v>713</v>
       </c>
+      <c r="CS211" s="2">
+        <v>723</v>
+      </c>
     </row>
-    <row r="212" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -63068,8 +63696,11 @@
       <c r="CR212" s="2">
         <v>9253</v>
       </c>
+      <c r="CS212" s="2">
+        <v>9309</v>
+      </c>
     </row>
-    <row r="213" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -63358,8 +63989,11 @@
       <c r="CR213" s="2">
         <v>156</v>
       </c>
+      <c r="CS213" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="214" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -63648,8 +64282,11 @@
       <c r="CR214" s="2">
         <v>122897</v>
       </c>
+      <c r="CS214" s="2">
+        <v>123477</v>
+      </c>
     </row>
-    <row r="215" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -63938,8 +64575,11 @@
       <c r="CR215" s="2">
         <v>4883</v>
       </c>
+      <c r="CS215" s="2">
+        <v>4960</v>
+      </c>
     </row>
-    <row r="216" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -64228,8 +64868,11 @@
       <c r="CR216" s="2">
         <v>26180</v>
       </c>
+      <c r="CS216" s="2">
+        <v>26327</v>
+      </c>
     </row>
-    <row r="217" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -64518,8 +65161,11 @@
       <c r="CR217" s="2">
         <v>2320</v>
       </c>
+      <c r="CS217" s="2">
+        <v>2329</v>
+      </c>
     </row>
-    <row r="218" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -64808,8 +65454,11 @@
       <c r="CR218" s="2">
         <v>668</v>
       </c>
+      <c r="CS218" s="2">
+        <v>669</v>
+      </c>
     </row>
-    <row r="219" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -65098,8 +65747,11 @@
       <c r="CR219" s="2">
         <v>206</v>
       </c>
+      <c r="CS219" s="2">
+        <v>213</v>
+      </c>
     </row>
-    <row r="220" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -65388,8 +66040,11 @@
       <c r="CR220" s="2">
         <v>1316</v>
       </c>
+      <c r="CS220" s="2">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="221" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -65678,8 +66333,11 @@
       <c r="CR221" s="2">
         <v>3170</v>
       </c>
+      <c r="CS221" s="2">
+        <v>3183</v>
+      </c>
     </row>
-    <row r="222" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -65968,8 +66626,11 @@
       <c r="CR222" s="2">
         <v>961284</v>
       </c>
+      <c r="CS222" s="2">
+        <v>969271</v>
+      </c>
     </row>
-    <row r="223" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -66258,8 +66919,11 @@
       <c r="CR223" s="2">
         <v>74048</v>
       </c>
+      <c r="CS223" s="2">
+        <v>74393</v>
+      </c>
     </row>
-    <row r="224" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -66548,8 +67212,11 @@
       <c r="CR224" s="2">
         <v>280</v>
       </c>
+      <c r="CS224" s="2">
+        <v>283</v>
+      </c>
     </row>
-    <row r="225" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -66838,8 +67505,11 @@
       <c r="CR225" s="2">
         <v>3067</v>
       </c>
+      <c r="CS225" s="2">
+        <v>3078</v>
+      </c>
     </row>
-    <row r="226" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -67128,8 +67798,11 @@
       <c r="CR226" s="2">
         <v>219</v>
       </c>
+      <c r="CS226" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="227" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -67418,8 +68091,11 @@
       <c r="CR227" s="2">
         <v>15081</v>
       </c>
+      <c r="CS227" s="2">
+        <v>15179</v>
+      </c>
     </row>
-    <row r="228" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -67708,8 +68384,11 @@
       <c r="CR228" s="2">
         <v>72140</v>
       </c>
+      <c r="CS228" s="2">
+        <v>72398</v>
+      </c>
     </row>
-    <row r="229" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -67998,8 +68677,11 @@
       <c r="CR229" s="2">
         <v>590388</v>
       </c>
+      <c r="CS229" s="2">
+        <v>594795</v>
+      </c>
     </row>
-    <row r="230" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -68288,8 +68970,11 @@
       <c r="CR230" s="2">
         <v>6317</v>
       </c>
+      <c r="CS230" s="2">
+        <v>6414</v>
+      </c>
     </row>
-    <row r="231" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -68578,8 +69263,11 @@
       <c r="CR231" s="2">
         <v>8407</v>
       </c>
+      <c r="CS231" s="2">
+        <v>8482</v>
+      </c>
     </row>
-    <row r="232" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -68868,8 +69556,11 @@
       <c r="CR232" s="2">
         <v>8557</v>
       </c>
+      <c r="CS232" s="2">
+        <v>8737</v>
+      </c>
     </row>
-    <row r="233" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -69158,8 +69849,11 @@
       <c r="CR233" s="2">
         <v>1472</v>
       </c>
+      <c r="CS233" s="2">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="234" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -69448,8 +70142,11 @@
       <c r="CR234" s="2">
         <v>12770</v>
       </c>
+      <c r="CS234" s="2">
+        <v>12801</v>
+      </c>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -69738,8 +70435,11 @@
       <c r="CR235" s="2">
         <v>25102</v>
       </c>
+      <c r="CS235" s="2">
+        <v>25426</v>
+      </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -70028,8 +70728,11 @@
       <c r="CR236" s="2">
         <v>13014</v>
       </c>
+      <c r="CS236" s="2">
+        <v>13154</v>
+      </c>
     </row>
-    <row r="237" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -70318,8 +71021,11 @@
       <c r="CR237" s="2">
         <v>31695</v>
       </c>
+      <c r="CS237" s="2">
+        <v>31939</v>
+      </c>
     </row>
-    <row r="238" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -70608,8 +71314,11 @@
       <c r="CR238" s="2">
         <v>66072</v>
       </c>
+      <c r="CS238" s="2">
+        <v>66446</v>
+      </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -70898,8 +71607,11 @@
       <c r="CR239" s="2">
         <v>17080</v>
       </c>
+      <c r="CS239" s="2">
+        <v>17201</v>
+      </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -71188,8 +71900,11 @@
       <c r="CR240" s="2">
         <v>3095</v>
       </c>
+      <c r="CS240" s="2">
+        <v>3163</v>
+      </c>
     </row>
-    <row r="241" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -71478,8 +72193,11 @@
       <c r="CR241" s="2">
         <v>21361</v>
       </c>
+      <c r="CS241" s="2">
+        <v>21546</v>
+      </c>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -71768,8 +72486,11 @@
       <c r="CR242" s="2">
         <v>180540</v>
       </c>
+      <c r="CS242" s="2">
+        <v>181915</v>
+      </c>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -72058,8 +72779,11 @@
       <c r="CR243" s="2">
         <v>20054</v>
       </c>
+      <c r="CS243" s="2">
+        <v>20184</v>
+      </c>
     </row>
-    <row r="244" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -72348,8 +73072,11 @@
       <c r="CR244" s="2">
         <v>2548</v>
       </c>
+      <c r="CS244" s="2">
+        <v>2556</v>
+      </c>
     </row>
-    <row r="245" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -72638,8 +73365,11 @@
       <c r="CR245" s="2">
         <v>75490</v>
       </c>
+      <c r="CS245" s="2">
+        <v>76157</v>
+      </c>
     </row>
-    <row r="246" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -72928,8 +73658,11 @@
       <c r="CR246" s="2">
         <v>9387</v>
       </c>
+      <c r="CS246" s="2">
+        <v>9420</v>
+      </c>
     </row>
-    <row r="247" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -73218,8 +73951,11 @@
       <c r="CR247" s="2">
         <v>13733</v>
       </c>
+      <c r="CS247" s="2">
+        <v>13830</v>
+      </c>
     </row>
-    <row r="248" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -73508,8 +74244,11 @@
       <c r="CR248" s="2">
         <v>239112</v>
       </c>
+      <c r="CS248" s="2">
+        <v>241530</v>
+      </c>
     </row>
-    <row r="249" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -73798,8 +74537,11 @@
       <c r="CR249" s="2">
         <v>17377</v>
       </c>
+      <c r="CS249" s="2">
+        <v>17530</v>
+      </c>
     </row>
-    <row r="250" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -74088,8 +74830,11 @@
       <c r="CR250" s="2">
         <v>736</v>
       </c>
+      <c r="CS250" s="2">
+        <v>745</v>
+      </c>
     </row>
-    <row r="251" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -74378,8 +75123,11 @@
       <c r="CR251" s="2">
         <v>29334</v>
       </c>
+      <c r="CS251" s="2">
+        <v>29611</v>
+      </c>
     </row>
-    <row r="252" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -74668,8 +75416,11 @@
       <c r="CR252" s="2">
         <v>12288</v>
       </c>
+      <c r="CS252" s="2">
+        <v>12387</v>
+      </c>
     </row>
-    <row r="253" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -74958,8 +75709,11 @@
       <c r="CR253" s="2">
         <v>2188</v>
       </c>
+      <c r="CS253" s="2">
+        <v>2195</v>
+      </c>
     </row>
-    <row r="254" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -75248,8 +76002,11 @@
       <c r="CR254" s="2">
         <v>5401</v>
       </c>
+      <c r="CS254" s="2">
+        <v>5434</v>
+      </c>
     </row>
-    <row r="255" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -75538,8 +76295,11 @@
       <c r="CR255" s="2">
         <v>9230</v>
       </c>
+      <c r="CS255" s="2">
+        <v>9280</v>
+      </c>
     </row>
-    <row r="256" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -75828,8 +76588,11 @@
       <c r="CR256" s="2">
         <v>5030</v>
       </c>
+      <c r="CS256" s="2">
+        <v>5041</v>
+      </c>
     </row>
-    <row r="257" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -76118,8 +76881,11 @@
       <c r="CR257" s="2">
         <v>120865</v>
       </c>
+      <c r="CS257" s="2">
+        <v>121050</v>
+      </c>
     </row>
-    <row r="258" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:97" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -76411,8 +77177,11 @@
       <c r="CR258" s="8">
         <v>14029601</v>
       </c>
+      <c r="CS258" s="8">
+        <v>14149494</v>
+      </c>
     </row>
-    <row r="259" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:97" x14ac:dyDescent="0.45">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -76439,7 +77208,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -76447,7 +77216,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -76455,7 +77224,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -76463,7 +77232,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -76471,7 +77240,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -76479,7 +77248,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -76487,7 +77256,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -76495,7 +77264,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -76503,7 +77272,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -76511,7 +77280,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -76519,7 +77288,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -76527,7 +77296,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -76535,7 +77304,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:96" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:97" x14ac:dyDescent="0.45">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FE51D102-9CCA-4701-B921-174914EBEDAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34345E81-E8AD-4E98-8AC3-2BC2D8420773}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11898" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,50 +1834,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CS513"/>
+  <dimension ref="A1:CT513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4765625" customWidth="1"/>
-    <col min="2" max="24" width="9.078125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.87890625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.4765625" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.46484375" customWidth="1"/>
     <col min="27" max="27" width="9.3984375" customWidth="1"/>
     <col min="28" max="28" width="9.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.87890625" customWidth="1"/>
-    <col min="30" max="34" width="9.4765625" customWidth="1"/>
-    <col min="35" max="36" width="8.87890625" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.078125" style="5"/>
-    <col min="57" max="57" width="9.078125" style="6"/>
-    <col min="60" max="61" width="9.078125" style="6"/>
-    <col min="62" max="62" width="9.87890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.86328125" customWidth="1"/>
+    <col min="30" max="34" width="9.46484375" customWidth="1"/>
+    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.06640625" style="5"/>
+    <col min="57" max="57" width="9.06640625" style="6"/>
+    <col min="60" max="61" width="9.06640625" style="6"/>
+    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.19921875" customWidth="1"/>
     <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.078125" customWidth="1"/>
-    <col min="68" max="68" width="10.6796875" customWidth="1"/>
-    <col min="69" max="69" width="10.4765625" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.06640625" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.51953125" style="6" customWidth="1"/>
+    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
     <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.71875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.73046875" style="6" customWidth="1"/>
     <col min="74" max="74" width="10.59765625" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.078125" customWidth="1"/>
-    <col min="80" max="80" width="10.27734375" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.31640625" customWidth="1"/>
+    <col min="79" max="79" width="10.06640625" customWidth="1"/>
+    <col min="80" max="80" width="10.265625" style="7" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
     <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
-    <col min="96" max="96" width="9.87890625" bestFit="1" customWidth="1"/>
+    <col min="91" max="98" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2169,8 +2169,11 @@
       <c r="CS2" s="4">
         <v>44182</v>
       </c>
+      <c r="CT2" s="4">
+        <v>44183</v>
+      </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2462,8 +2465,11 @@
       <c r="CS3" s="2">
         <v>40988</v>
       </c>
+      <c r="CT3" s="2">
+        <v>41011</v>
+      </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2755,8 +2761,11 @@
       <c r="CS4" s="2">
         <v>4570</v>
       </c>
+      <c r="CT4" s="2">
+        <v>4576</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3048,8 +3057,11 @@
       <c r="CS5" s="2">
         <v>41775</v>
       </c>
+      <c r="CT5" s="2">
+        <v>42085</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3341,8 +3353,11 @@
       <c r="CS6" s="2">
         <v>7596</v>
       </c>
+      <c r="CT6" s="2">
+        <v>7615</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3634,8 +3649,11 @@
       <c r="CS7" s="2">
         <v>2058</v>
       </c>
+      <c r="CT7" s="2">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3927,8 +3945,11 @@
       <c r="CS8" s="2">
         <v>582</v>
       </c>
+      <c r="CT8" s="2">
+        <v>587</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4220,8 +4241,11 @@
       <c r="CS9" s="2">
         <v>22068</v>
       </c>
+      <c r="CT9" s="2">
+        <v>22205</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4513,8 +4537,11 @@
       <c r="CS10" s="2">
         <v>11019</v>
       </c>
+      <c r="CT10" s="2">
+        <v>11053</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4806,8 +4833,11 @@
       <c r="CS11" s="2">
         <v>1763</v>
       </c>
+      <c r="CT11" s="2">
+        <v>1764</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5099,8 +5129,11 @@
       <c r="CS12" s="2">
         <v>5895</v>
       </c>
+      <c r="CT12" s="2">
+        <v>5946</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5392,8 +5425,11 @@
       <c r="CS13" s="2">
         <v>33125</v>
       </c>
+      <c r="CT13" s="2">
+        <v>33145</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5685,8 +5721,11 @@
       <c r="CS14" s="2">
         <v>1257</v>
       </c>
+      <c r="CT14" s="2">
+        <v>1264</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5978,8 +6017,11 @@
       <c r="CS15" s="2">
         <v>27612</v>
       </c>
+      <c r="CT15" s="2">
+        <v>27640</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6271,8 +6313,11 @@
       <c r="CS16" s="2">
         <v>156862</v>
       </c>
+      <c r="CT16" s="2">
+        <v>157215</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6564,8 +6609,11 @@
       <c r="CS17" s="2">
         <v>920757</v>
       </c>
+      <c r="CT17" s="2">
+        <v>924756</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6857,8 +6905,11 @@
       <c r="CS18" s="2">
         <v>3590</v>
       </c>
+      <c r="CT18" s="2">
+        <v>3594</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7150,8 +7201,11 @@
       <c r="CS19" s="2">
         <v>92</v>
       </c>
+      <c r="CT19" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7443,8 +7497,11 @@
       <c r="CS20" s="2">
         <v>9366</v>
       </c>
+      <c r="CT20" s="2">
+        <v>9370</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7736,8 +7793,11 @@
       <c r="CS21" s="2">
         <v>52786</v>
       </c>
+      <c r="CT21" s="2">
+        <v>52889</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8029,8 +8089,11 @@
       <c r="CS22" s="2">
         <v>204253</v>
       </c>
+      <c r="CT22" s="2">
+        <v>204698</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8322,8 +8385,11 @@
       <c r="CS23" s="2">
         <v>141750</v>
       </c>
+      <c r="CT23" s="2">
+        <v>142756</v>
+      </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8615,8 +8681,11 @@
       <c r="CS24" s="2">
         <v>7355</v>
       </c>
+      <c r="CT24" s="2">
+        <v>7373</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8908,8 +8977,11 @@
       <c r="CS25" s="2">
         <v>471</v>
       </c>
+      <c r="CT25" s="2">
+        <v>474</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9201,8 +9273,11 @@
       <c r="CS26" s="2">
         <v>9544</v>
       </c>
+      <c r="CT26" s="2">
+        <v>9546</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9494,8 +9569,11 @@
       <c r="CS27" s="2">
         <v>18912</v>
       </c>
+      <c r="CT27" s="2">
+        <v>18951</v>
+      </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9787,8 +9865,11 @@
       <c r="CS28" s="2">
         <v>8346</v>
       </c>
+      <c r="CT28" s="2">
+        <v>8380</v>
+      </c>
     </row>
-    <row r="29" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10080,8 +10161,11 @@
       <c r="CS29" s="2">
         <v>20445</v>
       </c>
+      <c r="CT29" s="2">
+        <v>20487</v>
+      </c>
     </row>
-    <row r="30" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10373,8 +10457,11 @@
       <c r="CS30" s="2">
         <v>18939</v>
       </c>
+      <c r="CT30" s="2">
+        <v>18960</v>
+      </c>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10666,8 +10753,11 @@
       <c r="CS31" s="2">
         <v>9853</v>
       </c>
+      <c r="CT31" s="2">
+        <v>9858</v>
+      </c>
     </row>
-    <row r="32" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -10959,8 +11049,11 @@
       <c r="CS32" s="2">
         <v>5502</v>
       </c>
+      <c r="CT32" s="2">
+        <v>5518</v>
+      </c>
     </row>
-    <row r="33" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11252,8 +11345,11 @@
       <c r="CS33" s="2">
         <v>173858</v>
       </c>
+      <c r="CT33" s="2">
+        <v>174199</v>
+      </c>
     </row>
-    <row r="34" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11545,8 +11641,11 @@
       <c r="CS34" s="2">
         <v>3908</v>
       </c>
+      <c r="CT34" s="2">
+        <v>3911</v>
+      </c>
     </row>
-    <row r="35" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -11838,8 +11937,11 @@
       <c r="CS35" s="2">
         <v>1651</v>
       </c>
+      <c r="CT35" s="2">
+        <v>1655</v>
+      </c>
     </row>
-    <row r="36" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12131,8 +12233,11 @@
       <c r="CS36" s="2">
         <v>11744</v>
       </c>
+      <c r="CT36" s="2">
+        <v>11772</v>
+      </c>
     </row>
-    <row r="37" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12424,8 +12529,11 @@
       <c r="CS37" s="2">
         <v>3979</v>
       </c>
+      <c r="CT37" s="2">
+        <v>3980</v>
+      </c>
     </row>
-    <row r="38" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12717,8 +12825,11 @@
       <c r="CS38" s="2">
         <v>6223</v>
       </c>
+      <c r="CT38" s="2">
+        <v>6243</v>
+      </c>
     </row>
-    <row r="39" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13010,8 +13121,11 @@
       <c r="CS39" s="2">
         <v>17281</v>
       </c>
+      <c r="CT39" s="2">
+        <v>17337</v>
+      </c>
     </row>
-    <row r="40" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13303,8 +13417,11 @@
       <c r="CS40" s="2">
         <v>4440</v>
       </c>
+      <c r="CT40" s="2">
+        <v>4476</v>
+      </c>
     </row>
-    <row r="41" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13596,8 +13713,11 @@
       <c r="CS41" s="2">
         <v>2889</v>
       </c>
+      <c r="CT41" s="2">
+        <v>2894</v>
+      </c>
     </row>
-    <row r="42" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -13889,8 +14009,11 @@
       <c r="CS42" s="2">
         <v>746</v>
       </c>
+      <c r="CT42" s="2">
+        <v>750</v>
+      </c>
     </row>
-    <row r="43" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14182,8 +14305,11 @@
       <c r="CS43" s="2">
         <v>2344</v>
       </c>
+      <c r="CT43" s="2">
+        <v>2355</v>
+      </c>
     </row>
-    <row r="44" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14475,8 +14601,11 @@
       <c r="CS44" s="2">
         <v>2883</v>
       </c>
+      <c r="CT44" s="2">
+        <v>2903</v>
+      </c>
     </row>
-    <row r="45" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14768,8 +14897,11 @@
       <c r="CS45" s="2">
         <v>567395</v>
       </c>
+      <c r="CT45" s="2">
+        <v>569034</v>
+      </c>
     </row>
-    <row r="46" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15061,8 +15193,11 @@
       <c r="CS46" s="2">
         <v>1341</v>
       </c>
+      <c r="CT46" s="2">
+        <v>1351</v>
+      </c>
     </row>
-    <row r="47" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15354,8 +15489,11 @@
       <c r="CS47" s="2">
         <v>9709</v>
       </c>
+      <c r="CT47" s="2">
+        <v>9725</v>
+      </c>
     </row>
-    <row r="48" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -15647,8 +15785,11 @@
       <c r="CS48" s="2">
         <v>61660</v>
       </c>
+      <c r="CT48" s="2">
+        <v>61846</v>
+      </c>
     </row>
-    <row r="49" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -15940,8 +16081,11 @@
       <c r="CS49" s="2">
         <v>6252</v>
       </c>
+      <c r="CT49" s="2">
+        <v>6262</v>
+      </c>
     </row>
-    <row r="50" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16233,8 +16377,11 @@
       <c r="CS50" s="2">
         <v>1753</v>
       </c>
+      <c r="CT50" s="2">
+        <v>1762</v>
+      </c>
     </row>
-    <row r="51" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16526,8 +16673,11 @@
       <c r="CS51" s="2">
         <v>17433</v>
       </c>
+      <c r="CT51" s="2">
+        <v>17470</v>
+      </c>
     </row>
-    <row r="52" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -16819,8 +16969,11 @@
       <c r="CS52" s="2">
         <v>60318</v>
       </c>
+      <c r="CT52" s="2">
+        <v>60387</v>
+      </c>
     </row>
-    <row r="53" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17112,8 +17265,11 @@
       <c r="CS53" s="2">
         <v>893</v>
       </c>
+      <c r="CT53" s="2">
+        <v>895</v>
+      </c>
     </row>
-    <row r="54" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17405,8 +17561,11 @@
       <c r="CS54" s="2">
         <v>3278</v>
       </c>
+      <c r="CT54" s="2">
+        <v>3282</v>
+      </c>
     </row>
-    <row r="55" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17698,8 +17857,11 @@
       <c r="CS55" s="2">
         <v>1842</v>
       </c>
+      <c r="CT55" s="2">
+        <v>1853</v>
+      </c>
     </row>
-    <row r="56" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -17991,8 +18153,11 @@
       <c r="CS56" s="2">
         <v>2775</v>
       </c>
+      <c r="CT56" s="2">
+        <v>2781</v>
+      </c>
     </row>
-    <row r="57" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18284,8 +18449,11 @@
       <c r="CS57" s="2">
         <v>1563</v>
       </c>
+      <c r="CT57" s="2">
+        <v>1567</v>
+      </c>
     </row>
-    <row r="58" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -18577,8 +18745,11 @@
       <c r="CS58" s="2">
         <v>1397</v>
       </c>
+      <c r="CT58" s="2">
+        <v>1397</v>
+      </c>
     </row>
-    <row r="59" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -18870,8 +19041,11 @@
       <c r="CS59" s="2">
         <v>1473417</v>
       </c>
+      <c r="CT59" s="2">
+        <v>1477219</v>
+      </c>
     </row>
-    <row r="60" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -19163,8 +19337,11 @@
       <c r="CS60" s="2">
         <v>6736</v>
       </c>
+      <c r="CT60" s="2">
+        <v>6763</v>
+      </c>
     </row>
-    <row r="61" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19456,8 +19633,11 @@
       <c r="CS61" s="2">
         <v>6925</v>
       </c>
+      <c r="CT61" s="2">
+        <v>6926</v>
+      </c>
     </row>
-    <row r="62" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -19749,8 +19929,11 @@
       <c r="CS62" s="2">
         <v>4750</v>
       </c>
+      <c r="CT62" s="2">
+        <v>4759</v>
+      </c>
     </row>
-    <row r="63" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20042,8 +20225,11 @@
       <c r="CS63" s="2">
         <v>1737</v>
       </c>
+      <c r="CT63" s="2">
+        <v>1738</v>
+      </c>
     </row>
-    <row r="64" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -20335,8 +20521,11 @@
       <c r="CS64" s="2">
         <v>352544</v>
       </c>
+      <c r="CT64" s="2">
+        <v>353560</v>
+      </c>
     </row>
-    <row r="65" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -20628,8 +20817,11 @@
       <c r="CS65" s="2">
         <v>537</v>
       </c>
+      <c r="CT65" s="2">
+        <v>537</v>
+      </c>
     </row>
-    <row r="66" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -20921,8 +21113,11 @@
       <c r="CS66" s="2">
         <v>4639</v>
       </c>
+      <c r="CT66" s="2">
+        <v>4657</v>
+      </c>
     </row>
-    <row r="67" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -21214,8 +21409,11 @@
       <c r="CS67" s="2">
         <v>1447</v>
       </c>
+      <c r="CT67" s="2">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="68" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -21507,8 +21705,11 @@
       <c r="CS68" s="2">
         <v>12254</v>
       </c>
+      <c r="CT68" s="2">
+        <v>12261</v>
+      </c>
     </row>
-    <row r="69" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -21800,8 +22001,11 @@
       <c r="CS69" s="2">
         <v>4933</v>
       </c>
+      <c r="CT69" s="2">
+        <v>4940</v>
+      </c>
     </row>
-    <row r="70" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22093,8 +22297,11 @@
       <c r="CS70" s="2">
         <v>51644</v>
       </c>
+      <c r="CT70" s="2">
+        <v>51742</v>
+      </c>
     </row>
-    <row r="71" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -22386,8 +22593,11 @@
       <c r="CS71" s="2">
         <v>1031</v>
       </c>
+      <c r="CT71" s="2">
+        <v>1032</v>
+      </c>
     </row>
-    <row r="72" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -22679,8 +22889,11 @@
       <c r="CS72" s="2">
         <v>601981</v>
       </c>
+      <c r="CT72" s="2">
+        <v>602393</v>
+      </c>
     </row>
-    <row r="73" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -22972,8 +23185,11 @@
       <c r="CS73" s="2">
         <v>96969</v>
       </c>
+      <c r="CT73" s="2">
+        <v>97266</v>
+      </c>
     </row>
-    <row r="74" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -23265,8 +23481,11 @@
       <c r="CS74" s="2">
         <v>14509</v>
       </c>
+      <c r="CT74" s="2">
+        <v>14521</v>
+      </c>
     </row>
-    <row r="75" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -23558,8 +23777,11 @@
       <c r="CS75" s="2">
         <v>9515</v>
       </c>
+      <c r="CT75" s="2">
+        <v>9527</v>
+      </c>
     </row>
-    <row r="76" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -23851,8 +24073,11 @@
       <c r="CS76" s="2">
         <v>16777</v>
       </c>
+      <c r="CT76" s="2">
+        <v>16783</v>
+      </c>
     </row>
-    <row r="77" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -24144,8 +24369,11 @@
       <c r="CS77" s="2">
         <v>10016</v>
       </c>
+      <c r="CT77" s="2">
+        <v>10035</v>
+      </c>
     </row>
-    <row r="78" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -24437,8 +24665,11 @@
       <c r="CS78" s="2">
         <v>1071</v>
       </c>
+      <c r="CT78" s="2">
+        <v>1071</v>
+      </c>
     </row>
-    <row r="79" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -24730,8 +24961,11 @@
       <c r="CS79" s="2">
         <v>1877</v>
       </c>
+      <c r="CT79" s="2">
+        <v>1882</v>
+      </c>
     </row>
-    <row r="80" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -25023,8 +25257,11 @@
       <c r="CS80" s="2">
         <v>638</v>
       </c>
+      <c r="CT80" s="2">
+        <v>638</v>
+      </c>
     </row>
-    <row r="81" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -25316,8 +25553,11 @@
       <c r="CS81" s="2">
         <v>377860</v>
       </c>
+      <c r="CT81" s="2">
+        <v>380167</v>
+      </c>
     </row>
-    <row r="82" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25609,8 +25849,11 @@
       <c r="CS82" s="2">
         <v>3102</v>
       </c>
+      <c r="CT82" s="2">
+        <v>3102</v>
+      </c>
     </row>
-    <row r="83" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -25902,8 +26145,11 @@
       <c r="CS83" s="2">
         <v>11010</v>
       </c>
+      <c r="CT83" s="2">
+        <v>11025</v>
+      </c>
     </row>
-    <row r="84" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -26195,8 +26441,11 @@
       <c r="CS84" s="2">
         <v>10196</v>
       </c>
+      <c r="CT84" s="2">
+        <v>10216</v>
+      </c>
     </row>
-    <row r="85" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -26488,8 +26737,11 @@
       <c r="CS85" s="2">
         <v>3200</v>
       </c>
+      <c r="CT85" s="2">
+        <v>3208</v>
+      </c>
     </row>
-    <row r="86" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -26781,8 +27033,11 @@
       <c r="CS86" s="2">
         <v>221694</v>
       </c>
+      <c r="CT86" s="2">
+        <v>222046</v>
+      </c>
     </row>
-    <row r="87" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -27074,8 +27329,11 @@
       <c r="CS87" s="2">
         <v>2019</v>
       </c>
+      <c r="CT87" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="88" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -27367,8 +27625,11 @@
       <c r="CS88" s="2">
         <v>12137</v>
       </c>
+      <c r="CT88" s="2">
+        <v>12148</v>
+      </c>
     </row>
-    <row r="89" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -27660,8 +27921,11 @@
       <c r="CS89" s="2">
         <v>135</v>
       </c>
+      <c r="CT89" s="2">
+        <v>136</v>
+      </c>
     </row>
-    <row r="90" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -27953,8 +28217,11 @@
       <c r="CS90" s="2">
         <v>2466</v>
       </c>
+      <c r="CT90" s="2">
+        <v>2469</v>
+      </c>
     </row>
-    <row r="91" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -28246,8 +28513,11 @@
       <c r="CS91" s="2">
         <v>9421</v>
       </c>
+      <c r="CT91" s="2">
+        <v>9457</v>
+      </c>
     </row>
-    <row r="92" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -28539,8 +28809,11 @@
       <c r="CS92" s="2">
         <v>6462</v>
       </c>
+      <c r="CT92" s="2">
+        <v>6490</v>
+      </c>
     </row>
-    <row r="93" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -28832,8 +29105,11 @@
       <c r="CS93" s="2">
         <v>63937</v>
       </c>
+      <c r="CT93" s="2">
+        <v>64015</v>
+      </c>
     </row>
-    <row r="94" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -29125,8 +29401,11 @@
       <c r="CS94" s="2">
         <v>41369</v>
       </c>
+      <c r="CT94" s="2">
+        <v>41417</v>
+      </c>
     </row>
-    <row r="95" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -29418,8 +29697,11 @@
       <c r="CS95" s="2">
         <v>15386</v>
       </c>
+      <c r="CT95" s="2">
+        <v>15498</v>
+      </c>
     </row>
-    <row r="96" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -29711,8 +29993,11 @@
       <c r="CS96" s="2">
         <v>45961</v>
       </c>
+      <c r="CT96" s="2">
+        <v>46130</v>
+      </c>
     </row>
-    <row r="97" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -30004,8 +30289,11 @@
       <c r="CS97" s="2">
         <v>10449</v>
       </c>
+      <c r="CT97" s="2">
+        <v>10459</v>
+      </c>
     </row>
-    <row r="98" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -30297,8 +30585,11 @@
       <c r="CS98" s="2">
         <v>1860</v>
       </c>
+      <c r="CT98" s="2">
+        <v>1868</v>
+      </c>
     </row>
-    <row r="99" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -30590,8 +30881,11 @@
       <c r="CS99" s="2">
         <v>3686</v>
       </c>
+      <c r="CT99" s="2">
+        <v>3692</v>
+      </c>
     </row>
-    <row r="100" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -30883,8 +31177,11 @@
       <c r="CS100" s="2">
         <v>1996</v>
       </c>
+      <c r="CT100" s="2">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="101" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -31176,8 +31473,11 @@
       <c r="CS101" s="2">
         <v>1511</v>
       </c>
+      <c r="CT101" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="102" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -31469,8 +31769,11 @@
       <c r="CS102" s="2">
         <v>15975</v>
       </c>
+      <c r="CT102" s="2">
+        <v>15991</v>
+      </c>
     </row>
-    <row r="103" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -31762,8 +32065,11 @@
       <c r="CS103" s="2">
         <v>2375024</v>
       </c>
+      <c r="CT103" s="2">
+        <v>2383859</v>
+      </c>
     </row>
-    <row r="104" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -32055,8 +32361,11 @@
       <c r="CS104" s="2">
         <v>42945</v>
       </c>
+      <c r="CT104" s="2">
+        <v>42992</v>
+      </c>
     </row>
-    <row r="105" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -32348,8 +32657,11 @@
       <c r="CS105" s="2">
         <v>133</v>
       </c>
+      <c r="CT105" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="106" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -32641,8 +32953,11 @@
       <c r="CS106" s="2">
         <v>1715</v>
       </c>
+      <c r="CT106" s="2">
+        <v>1717</v>
+      </c>
     </row>
-    <row r="107" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -32934,8 +33249,11 @@
       <c r="CS107" s="2">
         <v>129124</v>
       </c>
+      <c r="CT107" s="2">
+        <v>129427</v>
+      </c>
     </row>
-    <row r="108" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -33227,8 +33545,11 @@
       <c r="CS108" s="2">
         <v>979</v>
       </c>
+      <c r="CT108" s="2">
+        <v>979</v>
+      </c>
     </row>
-    <row r="109" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -33520,8 +33841,11 @@
       <c r="CS109" s="2">
         <v>19607</v>
       </c>
+      <c r="CT109" s="2">
+        <v>19614</v>
+      </c>
     </row>
-    <row r="110" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -33813,8 +34137,11 @@
       <c r="CS110" s="2">
         <v>316926</v>
       </c>
+      <c r="CT110" s="2">
+        <v>317935</v>
+      </c>
     </row>
-    <row r="111" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -34106,8 +34433,11 @@
       <c r="CS111" s="2">
         <v>25213</v>
       </c>
+      <c r="CT111" s="2">
+        <v>25225</v>
+      </c>
     </row>
-    <row r="112" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -34399,8 +34729,11 @@
       <c r="CS112" s="2">
         <v>7295</v>
       </c>
+      <c r="CT112" s="2">
+        <v>7320</v>
+      </c>
     </row>
-    <row r="113" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -34692,8 +35025,11 @@
       <c r="CS113" s="2">
         <v>30748</v>
       </c>
+      <c r="CT113" s="2">
+        <v>30765</v>
+      </c>
     </row>
-    <row r="114" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -34985,8 +35321,11 @@
       <c r="CS114" s="2">
         <v>12554</v>
       </c>
+      <c r="CT114" s="2">
+        <v>12557</v>
+      </c>
     </row>
-    <row r="115" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -35278,8 +35617,11 @@
       <c r="CS115" s="2">
         <v>11651</v>
       </c>
+      <c r="CT115" s="2">
+        <v>11672</v>
+      </c>
     </row>
-    <row r="116" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -35571,8 +35913,11 @@
       <c r="CS116" s="2">
         <v>11271</v>
       </c>
+      <c r="CT116" s="2">
+        <v>11317</v>
+      </c>
     </row>
-    <row r="117" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -35864,8 +36209,11 @@
       <c r="CS117" s="2">
         <v>1954</v>
       </c>
+      <c r="CT117" s="2">
+        <v>1956</v>
+      </c>
     </row>
-    <row r="118" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -36157,8 +36505,11 @@
       <c r="CS118" s="2">
         <v>46355</v>
       </c>
+      <c r="CT118" s="2">
+        <v>46495</v>
+      </c>
     </row>
-    <row r="119" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -36450,8 +36801,11 @@
       <c r="CS119" s="2">
         <v>8244</v>
       </c>
+      <c r="CT119" s="2">
+        <v>8253</v>
+      </c>
     </row>
-    <row r="120" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -36743,8 +37097,11 @@
       <c r="CS120" s="2">
         <v>364</v>
       </c>
+      <c r="CT120" s="2">
+        <v>370</v>
+      </c>
     </row>
-    <row r="121" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -37036,8 +37393,11 @@
       <c r="CS121" s="2">
         <v>1146</v>
       </c>
+      <c r="CT121" s="2">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="122" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -37329,8 +37689,11 @@
       <c r="CS122" s="2">
         <v>5347</v>
       </c>
+      <c r="CT122" s="2">
+        <v>5350</v>
+      </c>
     </row>
-    <row r="123" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -37622,8 +37985,11 @@
       <c r="CS123" s="2">
         <v>10747</v>
       </c>
+      <c r="CT123" s="2">
+        <v>10768</v>
+      </c>
     </row>
-    <row r="124" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -37915,8 +38281,11 @@
       <c r="CS124" s="2">
         <v>1307</v>
       </c>
+      <c r="CT124" s="2">
+        <v>1310</v>
+      </c>
     </row>
-    <row r="125" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -38208,8 +38577,11 @@
       <c r="CS125" s="2">
         <v>128815</v>
       </c>
+      <c r="CT125" s="2">
+        <v>129084</v>
+      </c>
     </row>
-    <row r="126" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -38501,8 +38873,11 @@
       <c r="CS126" s="2">
         <v>7170</v>
       </c>
+      <c r="CT126" s="2">
+        <v>7171</v>
+      </c>
     </row>
-    <row r="127" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -38794,8 +39169,11 @@
       <c r="CS127" s="2">
         <v>39204</v>
       </c>
+      <c r="CT127" s="2">
+        <v>39242</v>
+      </c>
     </row>
-    <row r="128" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -39087,8 +39465,11 @@
       <c r="CS128" s="2">
         <v>75068</v>
       </c>
+      <c r="CT128" s="2">
+        <v>75261</v>
+      </c>
     </row>
-    <row r="129" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -39380,8 +39761,11 @@
       <c r="CS129" s="2">
         <v>5234</v>
       </c>
+      <c r="CT129" s="2">
+        <v>5237</v>
+      </c>
     </row>
-    <row r="130" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -39673,8 +40057,11 @@
       <c r="CS130" s="2">
         <v>10721</v>
       </c>
+      <c r="CT130" s="2">
+        <v>10731</v>
+      </c>
     </row>
-    <row r="131" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -39966,8 +40353,11 @@
       <c r="CS131" s="2">
         <v>65263</v>
       </c>
+      <c r="CT131" s="2">
+        <v>65351</v>
+      </c>
     </row>
-    <row r="132" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -40259,8 +40649,11 @@
       <c r="CS132" s="2">
         <v>15206</v>
       </c>
+      <c r="CT132" s="2">
+        <v>15238</v>
+      </c>
     </row>
-    <row r="133" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -40552,8 +40945,11 @@
       <c r="CS133" s="2">
         <v>148</v>
       </c>
+      <c r="CT133" s="2">
+        <v>148</v>
+      </c>
     </row>
-    <row r="134" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -40845,8 +41241,11 @@
       <c r="CS134" s="2">
         <v>388</v>
       </c>
+      <c r="CT134" s="2">
+        <v>388</v>
+      </c>
     </row>
-    <row r="135" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -41138,8 +41537,11 @@
       <c r="CS135" s="2">
         <v>29528</v>
       </c>
+      <c r="CT135" s="2">
+        <v>29541</v>
+      </c>
     </row>
-    <row r="136" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -41431,8 +41833,11 @@
       <c r="CS136" s="2">
         <v>1468</v>
       </c>
+      <c r="CT136" s="2">
+        <v>1468</v>
+      </c>
     </row>
-    <row r="137" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -41724,8 +42129,11 @@
       <c r="CS137" s="2">
         <v>36</v>
       </c>
+      <c r="CT137" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="138" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -42017,8 +42425,11 @@
       <c r="CS138" s="2">
         <v>1048</v>
       </c>
+      <c r="CT138" s="2">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="139" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -42310,8 +42721,11 @@
       <c r="CS139" s="2">
         <v>22184</v>
       </c>
+      <c r="CT139" s="2">
+        <v>22242</v>
+      </c>
     </row>
-    <row r="140" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -42603,8 +43017,11 @@
       <c r="CS140" s="2">
         <v>1536</v>
       </c>
+      <c r="CT140" s="2">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="141" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -42896,8 +43313,11 @@
       <c r="CS141" s="2">
         <v>4777</v>
       </c>
+      <c r="CT141" s="2">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="142" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -43189,8 +43609,11 @@
       <c r="CS142" s="2">
         <v>15429</v>
       </c>
+      <c r="CT142" s="2">
+        <v>15519</v>
+      </c>
     </row>
-    <row r="143" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -43482,8 +43905,11 @@
       <c r="CS143" s="2">
         <v>6508</v>
       </c>
+      <c r="CT143" s="2">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="144" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -43775,8 +44201,11 @@
       <c r="CS144" s="2">
         <v>11401</v>
       </c>
+      <c r="CT144" s="2">
+        <v>11411</v>
+      </c>
     </row>
-    <row r="145" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -44068,8 +44497,11 @@
       <c r="CS145" s="2">
         <v>9163</v>
       </c>
+      <c r="CT145" s="2">
+        <v>9186</v>
+      </c>
     </row>
-    <row r="146" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -44361,8 +44793,11 @@
       <c r="CS146" s="2">
         <v>5492</v>
       </c>
+      <c r="CT146" s="2">
+        <v>5525</v>
+      </c>
     </row>
-    <row r="147" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -44654,8 +45089,11 @@
       <c r="CS147" s="2">
         <v>6411</v>
       </c>
+      <c r="CT147" s="2">
+        <v>6444</v>
+      </c>
     </row>
-    <row r="148" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -44947,8 +45385,11 @@
       <c r="CS148" s="2">
         <v>34551</v>
       </c>
+      <c r="CT148" s="2">
+        <v>34631</v>
+      </c>
     </row>
-    <row r="149" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -45240,8 +45681,11 @@
       <c r="CS149" s="2">
         <v>17909</v>
       </c>
+      <c r="CT149" s="2">
+        <v>17982</v>
+      </c>
     </row>
-    <row r="150" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -45533,8 +45977,11 @@
       <c r="CS150" s="2">
         <v>256</v>
       </c>
+      <c r="CT150" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="151" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -45826,8 +46273,11 @@
       <c r="CS151" s="2">
         <v>3405</v>
       </c>
+      <c r="CT151" s="2">
+        <v>3417</v>
+      </c>
     </row>
-    <row r="152" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -46119,8 +46569,11 @@
       <c r="CS152" s="2">
         <v>6976</v>
       </c>
+      <c r="CT152" s="2">
+        <v>6983</v>
+      </c>
     </row>
-    <row r="153" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -46412,8 +46865,11 @@
       <c r="CS153" s="2">
         <v>23</v>
       </c>
+      <c r="CT153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -46705,8 +47161,11 @@
       <c r="CS154" s="2">
         <v>202912</v>
       </c>
+      <c r="CT154" s="2">
+        <v>203220</v>
+      </c>
     </row>
-    <row r="155" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -46998,8 +47457,11 @@
       <c r="CS155" s="2">
         <v>2959</v>
       </c>
+      <c r="CT155" s="2">
+        <v>2968</v>
+      </c>
     </row>
-    <row r="156" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -47291,8 +47753,11 @@
       <c r="CS156" s="2">
         <v>9673</v>
       </c>
+      <c r="CT156" s="2">
+        <v>9681</v>
+      </c>
     </row>
-    <row r="157" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -47584,8 +48049,11 @@
       <c r="CS157" s="2">
         <v>2223</v>
       </c>
+      <c r="CT157" s="2">
+        <v>2225</v>
+      </c>
     </row>
-    <row r="158" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -47877,8 +48345,11 @@
       <c r="CS158" s="2">
         <v>1222</v>
       </c>
+      <c r="CT158" s="2">
+        <v>1230</v>
+      </c>
     </row>
-    <row r="159" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -48170,8 +48641,11 @@
       <c r="CS159" s="2">
         <v>1501</v>
       </c>
+      <c r="CT159" s="2">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="160" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -48463,8 +48937,11 @@
       <c r="CS160" s="2">
         <v>15827</v>
       </c>
+      <c r="CT160" s="2">
+        <v>15881</v>
+      </c>
     </row>
-    <row r="161" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -48756,8 +49233,11 @@
       <c r="CS161" s="2">
         <v>34658</v>
       </c>
+      <c r="CT161" s="2">
+        <v>34838</v>
+      </c>
     </row>
-    <row r="162" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -49049,8 +49529,11 @@
       <c r="CS162" s="2">
         <v>2226</v>
       </c>
+      <c r="CT162" s="2">
+        <v>2231</v>
+      </c>
     </row>
-    <row r="163" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -49342,8 +49825,11 @@
       <c r="CS163" s="2">
         <v>182695</v>
       </c>
+      <c r="CT163" s="2">
+        <v>183149</v>
+      </c>
     </row>
-    <row r="164" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -49635,8 +50121,11 @@
       <c r="CS164" s="2">
         <v>264</v>
       </c>
+      <c r="CT164" s="2">
+        <v>268</v>
+      </c>
     </row>
-    <row r="165" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -49928,8 +50417,11 @@
       <c r="CS165" s="2">
         <v>17208</v>
       </c>
+      <c r="CT165" s="2">
+        <v>17278</v>
+      </c>
     </row>
-    <row r="166" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -50221,8 +50713,11 @@
       <c r="CS166" s="2">
         <v>1760</v>
       </c>
+      <c r="CT166" s="2">
+        <v>1763</v>
+      </c>
     </row>
-    <row r="167" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -50514,8 +51009,11 @@
       <c r="CS167" s="2">
         <v>50207</v>
       </c>
+      <c r="CT167" s="2">
+        <v>50380</v>
+      </c>
     </row>
-    <row r="168" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -50807,8 +51305,11 @@
       <c r="CS168" s="2">
         <v>11961</v>
       </c>
+      <c r="CT168" s="2">
+        <v>11983</v>
+      </c>
     </row>
-    <row r="169" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -51100,8 +51601,11 @@
       <c r="CS169" s="2">
         <v>3375</v>
       </c>
+      <c r="CT169" s="2">
+        <v>3374</v>
+      </c>
     </row>
-    <row r="170" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -51393,8 +51897,11 @@
       <c r="CS170" s="2">
         <v>4712</v>
       </c>
+      <c r="CT170" s="2">
+        <v>4713</v>
+      </c>
     </row>
-    <row r="171" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -51686,8 +52193,11 @@
       <c r="CS171" s="2">
         <v>7842</v>
       </c>
+      <c r="CT171" s="2">
+        <v>7859</v>
+      </c>
     </row>
-    <row r="172" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -51979,8 +52489,11 @@
       <c r="CS172" s="2">
         <v>219987</v>
       </c>
+      <c r="CT172" s="2">
+        <v>220903</v>
+      </c>
     </row>
-    <row r="173" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -52272,8 +52785,11 @@
       <c r="CS173" s="2">
         <v>6904</v>
       </c>
+      <c r="CT173" s="2">
+        <v>6911</v>
+      </c>
     </row>
-    <row r="174" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -52565,8 +53081,11 @@
       <c r="CS174" s="2">
         <v>4903</v>
       </c>
+      <c r="CT174" s="2">
+        <v>4911</v>
+      </c>
     </row>
-    <row r="175" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -52858,8 +53377,11 @@
       <c r="CS175" s="2">
         <v>458</v>
       </c>
+      <c r="CT175" s="2">
+        <v>458</v>
+      </c>
     </row>
-    <row r="176" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -53151,8 +53673,11 @@
       <c r="CS176" s="2">
         <v>29292</v>
       </c>
+      <c r="CT176" s="2">
+        <v>29356</v>
+      </c>
     </row>
-    <row r="177" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -53444,8 +53969,11 @@
       <c r="CS177" s="2">
         <v>21074</v>
       </c>
+      <c r="CT177" s="2">
+        <v>21077</v>
+      </c>
     </row>
-    <row r="178" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -53737,8 +54265,11 @@
       <c r="CS178" s="2">
         <v>3251</v>
       </c>
+      <c r="CT178" s="2">
+        <v>3258</v>
+      </c>
     </row>
-    <row r="179" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -54030,8 +54561,11 @@
       <c r="CS179" s="2">
         <v>6182</v>
       </c>
+      <c r="CT179" s="2">
+        <v>6186</v>
+      </c>
     </row>
-    <row r="180" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -54323,8 +54857,11 @@
       <c r="CS180" s="2">
         <v>181758</v>
       </c>
+      <c r="CT180" s="2">
+        <v>182292</v>
+      </c>
     </row>
-    <row r="181" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -54616,8 +55153,11 @@
       <c r="CS181" s="2">
         <v>513</v>
       </c>
+      <c r="CT181" s="2">
+        <v>513</v>
+      </c>
     </row>
-    <row r="182" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -54909,8 +55449,11 @@
       <c r="CS182" s="2">
         <v>651</v>
       </c>
+      <c r="CT182" s="2">
+        <v>652</v>
+      </c>
     </row>
-    <row r="183" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -55202,8 +55745,11 @@
       <c r="CS183" s="2">
         <v>23044</v>
       </c>
+      <c r="CT183" s="2">
+        <v>23077</v>
+      </c>
     </row>
-    <row r="184" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -55495,8 +56041,11 @@
       <c r="CS184" s="2">
         <v>9814</v>
       </c>
+      <c r="CT184" s="2">
+        <v>9827</v>
+      </c>
     </row>
-    <row r="185" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -55788,8 +56337,11 @@
       <c r="CS185" s="2">
         <v>6560</v>
       </c>
+      <c r="CT185" s="2">
+        <v>6585</v>
+      </c>
     </row>
-    <row r="186" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -56081,8 +56633,11 @@
       <c r="CS186" s="2">
         <v>45556</v>
       </c>
+      <c r="CT186" s="2">
+        <v>45629</v>
+      </c>
     </row>
-    <row r="187" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -56374,8 +56929,11 @@
       <c r="CS187" s="2">
         <v>1948</v>
       </c>
+      <c r="CT187" s="2">
+        <v>1949</v>
+      </c>
     </row>
-    <row r="188" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -56667,8 +57225,11 @@
       <c r="CS188" s="2">
         <v>7007</v>
       </c>
+      <c r="CT188" s="2">
+        <v>7012</v>
+      </c>
     </row>
-    <row r="189" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -56960,8 +57521,11 @@
       <c r="CS189" s="2">
         <v>20949</v>
       </c>
+      <c r="CT189" s="2">
+        <v>21024</v>
+      </c>
     </row>
-    <row r="190" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -57253,8 +57817,11 @@
       <c r="CS190" s="2">
         <v>58504</v>
       </c>
+      <c r="CT190" s="2">
+        <v>58574</v>
+      </c>
     </row>
-    <row r="191" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -57546,8 +58113,11 @@
       <c r="CS191" s="2">
         <v>6156</v>
       </c>
+      <c r="CT191" s="2">
+        <v>6158</v>
+      </c>
     </row>
-    <row r="192" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -57839,8 +58409,11 @@
       <c r="CS192" s="2">
         <v>2018</v>
       </c>
+      <c r="CT192" s="2">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="193" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -58132,8 +58705,11 @@
       <c r="CS193" s="2">
         <v>40028</v>
       </c>
+      <c r="CT193" s="2">
+        <v>40084</v>
+      </c>
     </row>
-    <row r="194" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -58425,8 +59001,11 @@
       <c r="CS194" s="2">
         <v>993</v>
       </c>
+      <c r="CT194" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="195" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -58718,8 +59297,11 @@
       <c r="CS195" s="2">
         <v>1227</v>
       </c>
+      <c r="CT195" s="2">
+        <v>1242</v>
+      </c>
     </row>
-    <row r="196" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -59011,8 +59593,11 @@
       <c r="CS196" s="2">
         <v>4357</v>
       </c>
+      <c r="CT196" s="2">
+        <v>4358</v>
+      </c>
     </row>
-    <row r="197" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -59304,8 +59889,11 @@
       <c r="CS197" s="2">
         <v>3632</v>
       </c>
+      <c r="CT197" s="2">
+        <v>3632</v>
+      </c>
     </row>
-    <row r="198" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -59597,8 +60185,11 @@
       <c r="CS198" s="2">
         <v>3951</v>
       </c>
+      <c r="CT198" s="2">
+        <v>3953</v>
+      </c>
     </row>
-    <row r="199" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -59890,8 +60481,11 @@
       <c r="CS199" s="2">
         <v>114</v>
       </c>
+      <c r="CT199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -60183,8 +60777,11 @@
       <c r="CS200" s="2">
         <v>9092</v>
       </c>
+      <c r="CT200" s="2">
+        <v>9134</v>
+      </c>
     </row>
-    <row r="201" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -60476,8 +61073,11 @@
       <c r="CS201" s="2">
         <v>42589</v>
       </c>
+      <c r="CT201" s="2">
+        <v>42716</v>
+      </c>
     </row>
-    <row r="202" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -60769,8 +61369,11 @@
       <c r="CS202" s="2">
         <v>5215</v>
       </c>
+      <c r="CT202" s="2">
+        <v>5243</v>
+      </c>
     </row>
-    <row r="203" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -61062,8 +61665,11 @@
       <c r="CS203" s="2">
         <v>14079</v>
       </c>
+      <c r="CT203" s="2">
+        <v>14093</v>
+      </c>
     </row>
-    <row r="204" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -61355,8 +61961,11 @@
       <c r="CS204" s="2">
         <v>4456</v>
       </c>
+      <c r="CT204" s="2">
+        <v>4493</v>
+      </c>
     </row>
-    <row r="205" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -61648,8 +62257,11 @@
       <c r="CS205" s="2">
         <v>4210</v>
       </c>
+      <c r="CT205" s="2">
+        <v>4313</v>
+      </c>
     </row>
-    <row r="206" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -61941,8 +62553,11 @@
       <c r="CS206" s="2">
         <v>10759</v>
       </c>
+      <c r="CT206" s="2">
+        <v>10788</v>
+      </c>
     </row>
-    <row r="207" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -62234,8 +62849,11 @@
       <c r="CS207" s="2">
         <v>28141</v>
       </c>
+      <c r="CT207" s="2">
+        <v>28237</v>
+      </c>
     </row>
-    <row r="208" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -62527,8 +63145,11 @@
       <c r="CS208" s="2">
         <v>2429</v>
       </c>
+      <c r="CT208" s="2">
+        <v>2434</v>
+      </c>
     </row>
-    <row r="209" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -62820,8 +63441,11 @@
       <c r="CS209" s="2">
         <v>892</v>
       </c>
+      <c r="CT209" s="2">
+        <v>901</v>
+      </c>
     </row>
-    <row r="210" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -63113,8 +63737,11 @@
       <c r="CS210" s="2">
         <v>13198</v>
       </c>
+      <c r="CT210" s="2">
+        <v>13201</v>
+      </c>
     </row>
-    <row r="211" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -63406,8 +64033,11 @@
       <c r="CS211" s="2">
         <v>723</v>
       </c>
+      <c r="CT211" s="2">
+        <v>727</v>
+      </c>
     </row>
-    <row r="212" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -63699,8 +64329,11 @@
       <c r="CS212" s="2">
         <v>9309</v>
       </c>
+      <c r="CT212" s="2">
+        <v>9334</v>
+      </c>
     </row>
-    <row r="213" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -63992,8 +64625,11 @@
       <c r="CS213" s="2">
         <v>158</v>
       </c>
+      <c r="CT213" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="214" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -64285,8 +64921,11 @@
       <c r="CS214" s="2">
         <v>123477</v>
       </c>
+      <c r="CT214" s="2">
+        <v>123538</v>
+      </c>
     </row>
-    <row r="215" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -64578,8 +65217,11 @@
       <c r="CS215" s="2">
         <v>4960</v>
       </c>
+      <c r="CT215" s="2">
+        <v>4960</v>
+      </c>
     </row>
-    <row r="216" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -64871,8 +65513,11 @@
       <c r="CS216" s="2">
         <v>26327</v>
       </c>
+      <c r="CT216" s="2">
+        <v>26413</v>
+      </c>
     </row>
-    <row r="217" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -65164,8 +65809,11 @@
       <c r="CS217" s="2">
         <v>2329</v>
       </c>
+      <c r="CT217" s="2">
+        <v>2335</v>
+      </c>
     </row>
-    <row r="218" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -65457,8 +66105,11 @@
       <c r="CS218" s="2">
         <v>669</v>
       </c>
+      <c r="CT218" s="2">
+        <v>678</v>
+      </c>
     </row>
-    <row r="219" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -65750,8 +66401,11 @@
       <c r="CS219" s="2">
         <v>213</v>
       </c>
+      <c r="CT219" s="2">
+        <v>213</v>
+      </c>
     </row>
-    <row r="220" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -66043,8 +66697,11 @@
       <c r="CS220" s="2">
         <v>1324</v>
       </c>
+      <c r="CT220" s="2">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="221" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -66336,8 +66993,11 @@
       <c r="CS221" s="2">
         <v>3183</v>
       </c>
+      <c r="CT221" s="2">
+        <v>3184</v>
+      </c>
     </row>
-    <row r="222" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -66629,8 +67289,11 @@
       <c r="CS222" s="2">
         <v>969271</v>
       </c>
+      <c r="CT222" s="2">
+        <v>971449</v>
+      </c>
     </row>
-    <row r="223" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -66922,8 +67585,11 @@
       <c r="CS223" s="2">
         <v>74393</v>
       </c>
+      <c r="CT223" s="2">
+        <v>74461</v>
+      </c>
     </row>
-    <row r="224" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -67215,8 +67881,11 @@
       <c r="CS224" s="2">
         <v>283</v>
       </c>
+      <c r="CT224" s="2">
+        <v>283</v>
+      </c>
     </row>
-    <row r="225" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -67508,8 +68177,11 @@
       <c r="CS225" s="2">
         <v>3078</v>
       </c>
+      <c r="CT225" s="2">
+        <v>3088</v>
+      </c>
     </row>
-    <row r="226" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -67801,8 +68473,11 @@
       <c r="CS226" s="2">
         <v>219</v>
       </c>
+      <c r="CT226" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="227" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -68094,8 +68769,11 @@
       <c r="CS227" s="2">
         <v>15179</v>
       </c>
+      <c r="CT227" s="2">
+        <v>15181</v>
+      </c>
     </row>
-    <row r="228" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -68387,8 +69065,11 @@
       <c r="CS228" s="2">
         <v>72398</v>
       </c>
+      <c r="CT228" s="2">
+        <v>72959</v>
+      </c>
     </row>
-    <row r="229" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -68680,8 +69361,11 @@
       <c r="CS229" s="2">
         <v>594795</v>
       </c>
+      <c r="CT229" s="2">
+        <v>595771</v>
+      </c>
     </row>
-    <row r="230" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -68973,8 +69657,11 @@
       <c r="CS230" s="2">
         <v>6414</v>
       </c>
+      <c r="CT230" s="2">
+        <v>6435</v>
+      </c>
     </row>
-    <row r="231" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -69266,8 +69953,11 @@
       <c r="CS231" s="2">
         <v>8482</v>
       </c>
+      <c r="CT231" s="2">
+        <v>8497</v>
+      </c>
     </row>
-    <row r="232" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -69559,8 +70249,11 @@
       <c r="CS232" s="2">
         <v>8737</v>
       </c>
+      <c r="CT232" s="2">
+        <v>8744</v>
+      </c>
     </row>
-    <row r="233" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -69852,8 +70545,11 @@
       <c r="CS233" s="2">
         <v>1484</v>
       </c>
+      <c r="CT233" s="2">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="234" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -70145,8 +70841,11 @@
       <c r="CS234" s="2">
         <v>12801</v>
       </c>
+      <c r="CT234" s="2">
+        <v>12902</v>
+      </c>
     </row>
-    <row r="235" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -70438,8 +71137,11 @@
       <c r="CS235" s="2">
         <v>25426</v>
       </c>
+      <c r="CT235" s="2">
+        <v>25477</v>
+      </c>
     </row>
-    <row r="236" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -70731,8 +71433,11 @@
       <c r="CS236" s="2">
         <v>13154</v>
       </c>
+      <c r="CT236" s="2">
+        <v>13162</v>
+      </c>
     </row>
-    <row r="237" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -71024,8 +71729,11 @@
       <c r="CS237" s="2">
         <v>31939</v>
       </c>
+      <c r="CT237" s="2">
+        <v>31975</v>
+      </c>
     </row>
-    <row r="238" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -71317,8 +72025,11 @@
       <c r="CS238" s="2">
         <v>66446</v>
       </c>
+      <c r="CT238" s="2">
+        <v>66497</v>
+      </c>
     </row>
-    <row r="239" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -71610,8 +72321,11 @@
       <c r="CS239" s="2">
         <v>17201</v>
       </c>
+      <c r="CT239" s="2">
+        <v>17304</v>
+      </c>
     </row>
-    <row r="240" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -71903,8 +72617,11 @@
       <c r="CS240" s="2">
         <v>3163</v>
       </c>
+      <c r="CT240" s="2">
+        <v>3164</v>
+      </c>
     </row>
-    <row r="241" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -72196,8 +72913,11 @@
       <c r="CS241" s="2">
         <v>21546</v>
       </c>
+      <c r="CT241" s="2">
+        <v>21597</v>
+      </c>
     </row>
-    <row r="242" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -72489,8 +73209,11 @@
       <c r="CS242" s="2">
         <v>181915</v>
       </c>
+      <c r="CT242" s="2">
+        <v>182231</v>
+      </c>
     </row>
-    <row r="243" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -72782,8 +73505,11 @@
       <c r="CS243" s="2">
         <v>20184</v>
       </c>
+      <c r="CT243" s="2">
+        <v>20258</v>
+      </c>
     </row>
-    <row r="244" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -73075,8 +73801,11 @@
       <c r="CS244" s="2">
         <v>2556</v>
       </c>
+      <c r="CT244" s="2">
+        <v>2561</v>
+      </c>
     </row>
-    <row r="245" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -73368,8 +74097,11 @@
       <c r="CS245" s="2">
         <v>76157</v>
       </c>
+      <c r="CT245" s="2">
+        <v>76178</v>
+      </c>
     </row>
-    <row r="246" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -73661,8 +74393,11 @@
       <c r="CS246" s="2">
         <v>9420</v>
       </c>
+      <c r="CT246" s="2">
+        <v>9441</v>
+      </c>
     </row>
-    <row r="247" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -73954,8 +74689,11 @@
       <c r="CS247" s="2">
         <v>13830</v>
       </c>
+      <c r="CT247" s="2">
+        <v>13909</v>
+      </c>
     </row>
-    <row r="248" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -74247,8 +74985,11 @@
       <c r="CS248" s="2">
         <v>241530</v>
       </c>
+      <c r="CT248" s="2">
+        <v>242134</v>
+      </c>
     </row>
-    <row r="249" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -74540,8 +75281,11 @@
       <c r="CS249" s="2">
         <v>17530</v>
       </c>
+      <c r="CT249" s="2">
+        <v>17590</v>
+      </c>
     </row>
-    <row r="250" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -74833,8 +75577,11 @@
       <c r="CS250" s="2">
         <v>745</v>
       </c>
+      <c r="CT250" s="2">
+        <v>746</v>
+      </c>
     </row>
-    <row r="251" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -75126,8 +75873,11 @@
       <c r="CS251" s="2">
         <v>29611</v>
       </c>
+      <c r="CT251" s="2">
+        <v>29729</v>
+      </c>
     </row>
-    <row r="252" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -75419,8 +76169,11 @@
       <c r="CS252" s="2">
         <v>12387</v>
       </c>
+      <c r="CT252" s="2">
+        <v>12404</v>
+      </c>
     </row>
-    <row r="253" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -75712,8 +76465,11 @@
       <c r="CS253" s="2">
         <v>2195</v>
       </c>
+      <c r="CT253" s="2">
+        <v>2196</v>
+      </c>
     </row>
-    <row r="254" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -76005,8 +76761,11 @@
       <c r="CS254" s="2">
         <v>5434</v>
       </c>
+      <c r="CT254" s="2">
+        <v>5437</v>
+      </c>
     </row>
-    <row r="255" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -76298,8 +77057,11 @@
       <c r="CS255" s="2">
         <v>9280</v>
       </c>
+      <c r="CT255" s="2">
+        <v>9379</v>
+      </c>
     </row>
-    <row r="256" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -76591,8 +77353,11 @@
       <c r="CS256" s="2">
         <v>5041</v>
       </c>
+      <c r="CT256" s="2">
+        <v>5057</v>
+      </c>
     </row>
-    <row r="257" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -76884,8 +77649,11 @@
       <c r="CS257" s="2">
         <v>121050</v>
       </c>
+      <c r="CT257" s="2">
+        <v>121100</v>
+      </c>
     </row>
-    <row r="258" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -77180,8 +77948,11 @@
       <c r="CS258" s="8">
         <v>14149494</v>
       </c>
+      <c r="CT258" s="8">
+        <v>14189044</v>
+      </c>
     </row>
-    <row r="259" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:98" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -77208,7 +77979,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -77216,7 +77987,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -77224,7 +77995,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -77232,7 +78003,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -77240,7 +78011,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -77248,7 +78019,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -77256,7 +78027,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -77264,7 +78035,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -77272,7 +78043,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -77280,7 +78051,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -77288,7 +78059,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -77296,7 +78067,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -77304,7 +78075,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:97" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:98" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
@@ -77312,7 +78083,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="273" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
@@ -77320,7 +78091,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="274" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M274" s="2"/>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
@@ -77328,7 +78099,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="275" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
@@ -77336,7 +78107,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="276" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
@@ -77344,7 +78115,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="277" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
@@ -77352,7 +78123,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="278" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
@@ -77360,7 +78131,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="279" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
@@ -77368,7 +78139,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="280" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
@@ -77376,7 +78147,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="281" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
@@ -77384,7 +78155,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="282" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
@@ -77392,7 +78163,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="283" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
@@ -77400,7 +78171,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="284" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
@@ -77408,7 +78179,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="285" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
@@ -77416,7 +78187,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="286" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
@@ -77424,7 +78195,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="287" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
@@ -77432,7 +78203,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="288" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
@@ -77440,7 +78211,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="289" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
@@ -77448,7 +78219,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="290" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
@@ -77456,7 +78227,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="291" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
@@ -77464,7 +78235,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="292" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
@@ -77472,7 +78243,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="293" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
@@ -77480,7 +78251,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="294" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
@@ -77488,7 +78259,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="295" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
@@ -77496,7 +78267,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="296" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
@@ -77504,7 +78275,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="297" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M297" s="2"/>
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
@@ -77512,7 +78283,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="298" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
@@ -77520,7 +78291,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="299" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
@@ -77528,7 +78299,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="300" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
@@ -77536,7 +78307,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="301" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M301" s="2"/>
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
@@ -77544,7 +78315,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="302" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
@@ -77552,7 +78323,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="303" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M303" s="2"/>
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
@@ -77560,7 +78331,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="304" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
@@ -77568,7 +78339,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="305" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
@@ -77576,7 +78347,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="306" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
@@ -77584,7 +78355,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="307" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
@@ -77592,7 +78363,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="308" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
@@ -77600,7 +78371,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="309" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
@@ -77608,7 +78379,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="310" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
@@ -77616,7 +78387,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="311" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
@@ -77624,7 +78395,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="312" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
@@ -77632,7 +78403,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="313" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
@@ -77640,7 +78411,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="314" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
@@ -77648,7 +78419,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="315" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
@@ -77656,7 +78427,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="316" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
@@ -77664,7 +78435,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="317" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
@@ -77672,7 +78443,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="318" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
@@ -77680,7 +78451,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="319" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
@@ -77688,7 +78459,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="320" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
@@ -77696,7 +78467,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="321" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
@@ -77704,7 +78475,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="322" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
@@ -77712,7 +78483,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="323" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
@@ -77720,7 +78491,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
@@ -77728,7 +78499,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="325" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M325" s="2"/>
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
@@ -77736,7 +78507,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="326" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M326" s="2"/>
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
@@ -77744,7 +78515,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="327" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M327" s="2"/>
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
@@ -77752,7 +78523,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="328" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
@@ -77760,7 +78531,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="329" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
@@ -77768,7 +78539,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="330" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
@@ -77776,7 +78547,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="331" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M331" s="2"/>
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
@@ -77784,7 +78555,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="332" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M332" s="2"/>
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
@@ -77792,7 +78563,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="333" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
@@ -77800,7 +78571,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="334" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
@@ -77808,7 +78579,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="335" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M335" s="2"/>
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
@@ -77816,7 +78587,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="336" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M336" s="2"/>
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
@@ -77824,7 +78595,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="337" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
@@ -77832,7 +78603,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="338" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
@@ -77840,7 +78611,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="339" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M339" s="2"/>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -77848,7 +78619,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="340" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
@@ -77856,7 +78627,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="341" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M341" s="2"/>
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
@@ -77864,7 +78635,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="342" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M342" s="2"/>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -77872,7 +78643,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="343" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M343" s="2"/>
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
@@ -77880,7 +78651,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="344" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
@@ -77888,7 +78659,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="345" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M345" s="2"/>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -77896,7 +78667,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="346" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M346" s="2"/>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -77904,7 +78675,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="347" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M347" s="2"/>
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
@@ -77912,7 +78683,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="348" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M348" s="2"/>
       <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
@@ -77920,7 +78691,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="349" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M349" s="2"/>
       <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
@@ -77928,7 +78699,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="350" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M350" s="2"/>
       <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
@@ -77936,7 +78707,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="351" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M351" s="2"/>
       <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
@@ -77944,7 +78715,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="352" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
@@ -77952,7 +78723,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="353" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M353" s="2"/>
       <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
@@ -77960,7 +78731,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="354" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M354" s="2"/>
       <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
@@ -77968,7 +78739,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="355" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M355" s="2"/>
       <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
@@ -77976,7 +78747,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="356" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M356" s="2"/>
       <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
@@ -77984,7 +78755,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="357" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
@@ -77992,7 +78763,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="358" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
@@ -78000,7 +78771,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="359" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M359" s="2"/>
       <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
@@ -78008,7 +78779,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="360" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M360" s="2"/>
       <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
@@ -78016,7 +78787,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="361" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M361" s="2"/>
       <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
@@ -78024,7 +78795,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="362" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M362" s="2"/>
       <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
@@ -78032,7 +78803,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="363" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
@@ -78040,7 +78811,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="364" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M364" s="2"/>
       <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
@@ -78048,7 +78819,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="365" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M365" s="2"/>
       <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
@@ -78056,7 +78827,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="366" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M366" s="2"/>
       <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
@@ -78064,7 +78835,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="367" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M367" s="2"/>
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
@@ -78072,7 +78843,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="368" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M368" s="2"/>
       <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
@@ -78080,7 +78851,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="369" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M369" s="2"/>
       <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
@@ -78088,7 +78859,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="370" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M370" s="2"/>
       <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
@@ -78096,7 +78867,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="371" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M371" s="2"/>
       <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
@@ -78104,7 +78875,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="372" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M372" s="2"/>
       <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
@@ -78112,7 +78883,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="373" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M373" s="2"/>
       <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
@@ -78120,7 +78891,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="374" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M374" s="2"/>
       <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
@@ -78128,7 +78899,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="375" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M375" s="2"/>
       <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
@@ -78136,7 +78907,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="376" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M376" s="2"/>
       <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
@@ -78144,7 +78915,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="377" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M377" s="2"/>
       <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
@@ -78152,7 +78923,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="378" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M378" s="2"/>
       <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
@@ -78160,7 +78931,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="379" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M379" s="2"/>
       <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
@@ -78168,7 +78939,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="380" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M380" s="2"/>
       <c r="P380" s="2"/>
       <c r="Q380" s="2"/>
@@ -78176,7 +78947,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="381" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M381" s="2"/>
       <c r="P381" s="2"/>
       <c r="Q381" s="2"/>
@@ -78184,7 +78955,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="382" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M382" s="2"/>
       <c r="P382" s="2"/>
       <c r="Q382" s="2"/>
@@ -78192,7 +78963,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="383" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M383" s="2"/>
       <c r="P383" s="2"/>
       <c r="Q383" s="2"/>
@@ -78200,7 +78971,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="384" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M384" s="2"/>
       <c r="P384" s="2"/>
       <c r="Q384" s="2"/>
@@ -78208,7 +78979,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="385" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M385" s="2"/>
       <c r="P385" s="2"/>
       <c r="Q385" s="2"/>
@@ -78216,7 +78987,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="386" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M386" s="2"/>
       <c r="P386" s="2"/>
       <c r="Q386" s="2"/>
@@ -78224,7 +78995,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="387" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M387" s="2"/>
       <c r="P387" s="2"/>
       <c r="Q387" s="2"/>
@@ -78232,7 +79003,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="388" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M388" s="2"/>
       <c r="P388" s="2"/>
       <c r="Q388" s="2"/>
@@ -78240,7 +79011,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="389" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M389" s="2"/>
       <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
@@ -78248,7 +79019,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="390" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M390" s="2"/>
       <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
@@ -78256,7 +79027,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="391" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M391" s="2"/>
       <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
@@ -78264,7 +79035,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="392" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M392" s="2"/>
       <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
@@ -78272,7 +79043,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="393" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M393" s="2"/>
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
@@ -78280,7 +79051,7 @@
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="394" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M394" s="2"/>
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
@@ -78288,7 +79059,7 @@
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="395" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M395" s="2"/>
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
@@ -78296,7 +79067,7 @@
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="396" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
@@ -78304,7 +79075,7 @@
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="397" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
@@ -78312,7 +79083,7 @@
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="398" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M398" s="2"/>
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
@@ -78320,7 +79091,7 @@
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="399" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M399" s="2"/>
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
@@ -78328,7 +79099,7 @@
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="400" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
@@ -78336,7 +79107,7 @@
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="401" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M401" s="2"/>
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
@@ -78344,7 +79115,7 @@
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="402" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M402" s="2"/>
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
@@ -78352,7 +79123,7 @@
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="403" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
@@ -78360,7 +79131,7 @@
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="404" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M404" s="2"/>
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
@@ -78368,7 +79139,7 @@
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="405" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M405" s="2"/>
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
@@ -78376,7 +79147,7 @@
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="406" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M406" s="2"/>
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
@@ -78384,7 +79155,7 @@
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="407" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M407" s="2"/>
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
@@ -78392,7 +79163,7 @@
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="408" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M408" s="2"/>
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
@@ -78400,7 +79171,7 @@
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="409" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
@@ -78408,7 +79179,7 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="410" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M410" s="2"/>
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
@@ -78416,7 +79187,7 @@
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="411" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M411" s="2"/>
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
@@ -78424,7 +79195,7 @@
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="412" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
@@ -78432,7 +79203,7 @@
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="413" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M413" s="2"/>
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
@@ -78440,7 +79211,7 @@
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="414" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
@@ -78448,7 +79219,7 @@
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="415" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M415" s="2"/>
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
@@ -78456,7 +79227,7 @@
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="416" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M416" s="2"/>
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
@@ -78464,7 +79235,7 @@
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="417" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M417" s="2"/>
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
@@ -78472,7 +79243,7 @@
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="418" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M418" s="2"/>
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
@@ -78480,7 +79251,7 @@
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="419" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
@@ -78488,7 +79259,7 @@
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="420" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
@@ -78496,7 +79267,7 @@
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="421" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
@@ -78504,7 +79275,7 @@
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="422" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M422" s="2"/>
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
@@ -78512,7 +79283,7 @@
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="423" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M423" s="2"/>
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
@@ -78520,7 +79291,7 @@
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="424" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
@@ -78528,7 +79299,7 @@
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="425" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
@@ -78536,7 +79307,7 @@
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="426" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
@@ -78544,7 +79315,7 @@
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="427" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
@@ -78552,7 +79323,7 @@
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="428" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M428" s="2"/>
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
@@ -78560,7 +79331,7 @@
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="429" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
@@ -78568,7 +79339,7 @@
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="430" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M430" s="2"/>
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
@@ -78576,7 +79347,7 @@
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="431" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
@@ -78584,7 +79355,7 @@
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="432" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M432" s="2"/>
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
@@ -78592,7 +79363,7 @@
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="433" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M433" s="2"/>
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
@@ -78600,7 +79371,7 @@
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="434" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
@@ -78608,7 +79379,7 @@
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="435" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M435" s="2"/>
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
@@ -78616,7 +79387,7 @@
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="436" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M436" s="2"/>
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
@@ -78624,7 +79395,7 @@
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="437" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M437" s="2"/>
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
@@ -78632,7 +79403,7 @@
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="438" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
@@ -78640,7 +79411,7 @@
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="439" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M439" s="2"/>
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
@@ -78648,7 +79419,7 @@
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="440" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M440" s="2"/>
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
@@ -78656,7 +79427,7 @@
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="441" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
@@ -78664,7 +79435,7 @@
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="442" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
@@ -78672,7 +79443,7 @@
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="443" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M443" s="2"/>
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
@@ -78680,7 +79451,7 @@
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="444" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M444" s="2"/>
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
@@ -78688,7 +79459,7 @@
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="445" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M445" s="2"/>
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
@@ -78696,7 +79467,7 @@
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="446" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M446" s="2"/>
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
@@ -78704,7 +79475,7 @@
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="447" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
@@ -78712,7 +79483,7 @@
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="448" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M448" s="2"/>
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
@@ -78720,7 +79491,7 @@
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="449" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M449" s="2"/>
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
@@ -78728,7 +79499,7 @@
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="450" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M450" s="2"/>
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
@@ -78736,7 +79507,7 @@
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="451" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M451" s="2"/>
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
@@ -78744,7 +79515,7 @@
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="452" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M452" s="2"/>
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
@@ -78752,7 +79523,7 @@
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="453" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
@@ -78760,7 +79531,7 @@
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="454" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M454" s="2"/>
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
@@ -78768,7 +79539,7 @@
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="455" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
@@ -78776,7 +79547,7 @@
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="456" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M456" s="2"/>
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
@@ -78784,7 +79555,7 @@
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="457" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
@@ -78792,7 +79563,7 @@
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="458" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M458" s="2"/>
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
@@ -78800,7 +79571,7 @@
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="459" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M459" s="2"/>
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
@@ -78808,7 +79579,7 @@
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="460" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
@@ -78816,7 +79587,7 @@
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="461" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
@@ -78824,7 +79595,7 @@
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="462" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M462" s="2"/>
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
@@ -78832,7 +79603,7 @@
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="463" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M463" s="2"/>
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
@@ -78840,7 +79611,7 @@
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="464" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
@@ -78848,7 +79619,7 @@
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="465" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M465" s="2"/>
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
@@ -78856,7 +79627,7 @@
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="466" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M466" s="2"/>
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
@@ -78864,7 +79635,7 @@
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="467" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M467" s="2"/>
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
@@ -78872,7 +79643,7 @@
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="468" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
@@ -78880,7 +79651,7 @@
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="469" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
@@ -78888,7 +79659,7 @@
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="470" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
@@ -78896,7 +79667,7 @@
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="471" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
@@ -78904,7 +79675,7 @@
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="472" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M472" s="2"/>
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
@@ -78912,7 +79683,7 @@
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="473" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M473" s="2"/>
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
@@ -78920,7 +79691,7 @@
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="474" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M474" s="2"/>
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
@@ -78928,7 +79699,7 @@
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="475" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M475" s="2"/>
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
@@ -78936,7 +79707,7 @@
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="476" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
@@ -78944,7 +79715,7 @@
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="477" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
@@ -78952,7 +79723,7 @@
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="478" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M478" s="2"/>
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
@@ -78960,7 +79731,7 @@
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="479" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
@@ -78968,7 +79739,7 @@
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="480" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M480" s="2"/>
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
@@ -78976,7 +79747,7 @@
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="481" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M481" s="2"/>
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
@@ -78984,7 +79755,7 @@
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="482" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M482" s="2"/>
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
@@ -78992,7 +79763,7 @@
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="483" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M483" s="2"/>
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
@@ -79000,7 +79771,7 @@
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="484" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M484" s="2"/>
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
@@ -79008,7 +79779,7 @@
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="485" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M485" s="2"/>
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
@@ -79016,7 +79787,7 @@
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="486" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M486" s="2"/>
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
@@ -79024,7 +79795,7 @@
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="487" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
@@ -79032,7 +79803,7 @@
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="488" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M488" s="2"/>
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
@@ -79040,7 +79811,7 @@
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="489" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M489" s="2"/>
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
@@ -79048,7 +79819,7 @@
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="490" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M490" s="2"/>
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
@@ -79056,7 +79827,7 @@
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="491" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M491" s="2"/>
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
@@ -79064,7 +79835,7 @@
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="492" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M492" s="2"/>
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
@@ -79072,7 +79843,7 @@
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="493" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
@@ -79080,7 +79851,7 @@
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="494" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
@@ -79088,7 +79859,7 @@
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="495" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M495" s="2"/>
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
@@ -79096,7 +79867,7 @@
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="496" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
@@ -79104,7 +79875,7 @@
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="497" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M497" s="2"/>
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
@@ -79112,7 +79883,7 @@
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="498" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M498" s="2"/>
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
@@ -79120,7 +79891,7 @@
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="499" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
@@ -79128,7 +79899,7 @@
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="500" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M500" s="2"/>
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
@@ -79136,7 +79907,7 @@
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="501" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M501" s="2"/>
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
@@ -79144,7 +79915,7 @@
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="502" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
@@ -79152,7 +79923,7 @@
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="503" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M503" s="2"/>
       <c r="P503" s="2"/>
       <c r="Q503" s="2"/>
@@ -79160,7 +79931,7 @@
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="504" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M504" s="2"/>
       <c r="P504" s="2"/>
       <c r="Q504" s="2"/>
@@ -79168,7 +79939,7 @@
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="505" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" s="2"/>
@@ -79176,7 +79947,7 @@
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="506" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" s="2"/>
@@ -79184,7 +79955,7 @@
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="507" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M507" s="2"/>
       <c r="P507" s="2"/>
       <c r="Q507" s="2"/>
@@ -79192,7 +79963,7 @@
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="508" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M508" s="2"/>
       <c r="P508" s="2"/>
       <c r="Q508" s="2"/>
@@ -79200,7 +79971,7 @@
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="509" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M509" s="2"/>
       <c r="P509" s="2"/>
       <c r="Q509" s="2"/>
@@ -79208,7 +79979,7 @@
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="510" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M510" s="2"/>
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
@@ -79216,7 +79987,7 @@
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="511" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M511" s="2"/>
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
@@ -79224,10 +79995,10 @@
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="512" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M512" s="2"/>
     </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M513" s="2"/>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{34345E81-E8AD-4E98-8AC3-2BC2D8420773}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E405AA0-4FAE-413C-8915-835BF62D1BAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CT513"/>
+  <dimension ref="A1:CU513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1869,15 +1869,15 @@
     <col min="80" max="80" width="10.265625" style="7" customWidth="1"/>
     <col min="81" max="81" width="10.33203125" customWidth="1"/>
     <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
-    <col min="91" max="98" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="99" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2172,8 +2172,11 @@
       <c r="CT2" s="4">
         <v>44183</v>
       </c>
+      <c r="CU2" s="4">
+        <v>44184</v>
+      </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2468,8 +2471,11 @@
       <c r="CT3" s="2">
         <v>41011</v>
       </c>
+      <c r="CU3" s="2">
+        <v>41302</v>
+      </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2764,8 +2770,11 @@
       <c r="CT4" s="2">
         <v>4576</v>
       </c>
+      <c r="CU4" s="2">
+        <v>4594</v>
+      </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3060,8 +3069,11 @@
       <c r="CT5" s="2">
         <v>42085</v>
       </c>
+      <c r="CU5" s="2">
+        <v>42779</v>
+      </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3356,8 +3368,11 @@
       <c r="CT6" s="2">
         <v>7615</v>
       </c>
+      <c r="CU6" s="2">
+        <v>7710</v>
+      </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3652,8 +3667,11 @@
       <c r="CT7" s="2">
         <v>2058</v>
       </c>
+      <c r="CU7" s="2">
+        <v>2084</v>
+      </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3948,8 +3966,11 @@
       <c r="CT8" s="2">
         <v>587</v>
       </c>
+      <c r="CU8" s="2">
+        <v>594</v>
+      </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4244,8 +4265,11 @@
       <c r="CT9" s="2">
         <v>22205</v>
       </c>
+      <c r="CU9" s="2">
+        <v>22410</v>
+      </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4540,8 +4564,11 @@
       <c r="CT10" s="2">
         <v>11053</v>
       </c>
+      <c r="CU10" s="2">
+        <v>11186</v>
+      </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4836,8 +4863,11 @@
       <c r="CT11" s="2">
         <v>1764</v>
       </c>
+      <c r="CU11" s="2">
+        <v>1769</v>
+      </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5132,8 +5162,11 @@
       <c r="CT12" s="2">
         <v>5946</v>
       </c>
+      <c r="CU12" s="2">
+        <v>6007</v>
+      </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5428,8 +5461,11 @@
       <c r="CT13" s="2">
         <v>33145</v>
       </c>
+      <c r="CU13" s="2">
+        <v>33609</v>
+      </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5724,8 +5760,11 @@
       <c r="CT14" s="2">
         <v>1264</v>
       </c>
+      <c r="CU14" s="2">
+        <v>1268</v>
+      </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6020,8 +6059,11 @@
       <c r="CT15" s="2">
         <v>27640</v>
       </c>
+      <c r="CU15" s="2">
+        <v>27797</v>
+      </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6316,8 +6358,11 @@
       <c r="CT16" s="2">
         <v>157215</v>
       </c>
+      <c r="CU16" s="2">
+        <v>159345</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6612,8 +6657,11 @@
       <c r="CT17" s="2">
         <v>924756</v>
       </c>
+      <c r="CU17" s="2">
+        <v>933282</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6908,8 +6956,11 @@
       <c r="CT18" s="2">
         <v>3594</v>
       </c>
+      <c r="CU18" s="2">
+        <v>3648</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7204,8 +7255,11 @@
       <c r="CT19" s="2">
         <v>92</v>
       </c>
+      <c r="CU19" s="2">
+        <v>92</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7500,8 +7554,11 @@
       <c r="CT20" s="2">
         <v>9370</v>
       </c>
+      <c r="CU20" s="2">
+        <v>9456</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7796,8 +7853,11 @@
       <c r="CT21" s="2">
         <v>52889</v>
       </c>
+      <c r="CU21" s="2">
+        <v>53280</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8092,8 +8152,11 @@
       <c r="CT22" s="2">
         <v>204698</v>
       </c>
+      <c r="CU22" s="2">
+        <v>206195</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8388,8 +8451,11 @@
       <c r="CT23" s="2">
         <v>142756</v>
       </c>
+      <c r="CU23" s="2">
+        <v>145159</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8684,8 +8750,11 @@
       <c r="CT24" s="2">
         <v>7373</v>
       </c>
+      <c r="CU24" s="2">
+        <v>7443</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -8980,8 +9049,11 @@
       <c r="CT25" s="2">
         <v>474</v>
       </c>
+      <c r="CU25" s="2">
+        <v>474</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9276,8 +9348,11 @@
       <c r="CT26" s="2">
         <v>9546</v>
       </c>
+      <c r="CU26" s="2">
+        <v>9941</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9572,8 +9647,11 @@
       <c r="CT27" s="2">
         <v>18951</v>
       </c>
+      <c r="CU27" s="2">
+        <v>19033</v>
+      </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9868,8 +9946,11 @@
       <c r="CT28" s="2">
         <v>8380</v>
       </c>
+      <c r="CU28" s="2">
+        <v>8559</v>
+      </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10164,8 +10245,11 @@
       <c r="CT29" s="2">
         <v>20487</v>
       </c>
+      <c r="CU29" s="2">
+        <v>20802</v>
+      </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10460,8 +10544,11 @@
       <c r="CT30" s="2">
         <v>18960</v>
       </c>
+      <c r="CU30" s="2">
+        <v>19187</v>
+      </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10756,8 +10843,11 @@
       <c r="CT31" s="2">
         <v>9858</v>
       </c>
+      <c r="CU31" s="2">
+        <v>9899</v>
+      </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11052,8 +11142,11 @@
       <c r="CT32" s="2">
         <v>5518</v>
       </c>
+      <c r="CU32" s="2">
+        <v>5584</v>
+      </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11348,8 +11441,11 @@
       <c r="CT33" s="2">
         <v>174199</v>
       </c>
+      <c r="CU33" s="2">
+        <v>175597</v>
+      </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11644,8 +11740,11 @@
       <c r="CT34" s="2">
         <v>3911</v>
       </c>
+      <c r="CU34" s="2">
+        <v>3956</v>
+      </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -11940,8 +12039,11 @@
       <c r="CT35" s="2">
         <v>1655</v>
       </c>
+      <c r="CU35" s="2">
+        <v>1659</v>
+      </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12236,8 +12338,11 @@
       <c r="CT36" s="2">
         <v>11772</v>
       </c>
+      <c r="CU36" s="2">
+        <v>11864</v>
+      </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12532,8 +12637,11 @@
       <c r="CT37" s="2">
         <v>3980</v>
       </c>
+      <c r="CU37" s="2">
+        <v>3997</v>
+      </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12828,8 +12936,11 @@
       <c r="CT38" s="2">
         <v>6243</v>
       </c>
+      <c r="CU38" s="2">
+        <v>6276</v>
+      </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13124,8 +13235,11 @@
       <c r="CT39" s="2">
         <v>17337</v>
       </c>
+      <c r="CU39" s="2">
+        <v>17471</v>
+      </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13420,8 +13534,11 @@
       <c r="CT40" s="2">
         <v>4476</v>
       </c>
+      <c r="CU40" s="2">
+        <v>4479</v>
+      </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13716,8 +13833,11 @@
       <c r="CT41" s="2">
         <v>2894</v>
       </c>
+      <c r="CU41" s="2">
+        <v>2924</v>
+      </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14012,8 +14132,11 @@
       <c r="CT42" s="2">
         <v>750</v>
       </c>
+      <c r="CU42" s="2">
+        <v>753</v>
+      </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14308,8 +14431,11 @@
       <c r="CT43" s="2">
         <v>2355</v>
       </c>
+      <c r="CU43" s="2">
+        <v>2361</v>
+      </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14604,8 +14730,11 @@
       <c r="CT44" s="2">
         <v>2903</v>
       </c>
+      <c r="CU44" s="2">
+        <v>2919</v>
+      </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14900,8 +15029,11 @@
       <c r="CT45" s="2">
         <v>569034</v>
       </c>
+      <c r="CU45" s="2">
+        <v>573529</v>
+      </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15196,8 +15328,11 @@
       <c r="CT46" s="2">
         <v>1351</v>
       </c>
+      <c r="CU46" s="2">
+        <v>1351</v>
+      </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15492,8 +15627,11 @@
       <c r="CT47" s="2">
         <v>9725</v>
       </c>
+      <c r="CU47" s="2">
+        <v>9788</v>
+      </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -15788,8 +15926,11 @@
       <c r="CT48" s="2">
         <v>61846</v>
       </c>
+      <c r="CU48" s="2">
+        <v>62815</v>
+      </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16084,8 +16225,11 @@
       <c r="CT49" s="2">
         <v>6262</v>
       </c>
+      <c r="CU49" s="2">
+        <v>6322</v>
+      </c>
     </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16380,8 +16524,11 @@
       <c r="CT50" s="2">
         <v>1762</v>
       </c>
+      <c r="CU50" s="2">
+        <v>1764</v>
+      </c>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16676,8 +16823,11 @@
       <c r="CT51" s="2">
         <v>17470</v>
       </c>
+      <c r="CU51" s="2">
+        <v>17628</v>
+      </c>
     </row>
-    <row r="52" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -16972,8 +17122,11 @@
       <c r="CT52" s="2">
         <v>60387</v>
       </c>
+      <c r="CU52" s="2">
+        <v>60617</v>
+      </c>
     </row>
-    <row r="53" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17268,8 +17421,11 @@
       <c r="CT53" s="2">
         <v>895</v>
       </c>
+      <c r="CU53" s="2">
+        <v>895</v>
+      </c>
     </row>
-    <row r="54" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17564,8 +17720,11 @@
       <c r="CT54" s="2">
         <v>3282</v>
       </c>
+      <c r="CU54" s="2">
+        <v>3377</v>
+      </c>
     </row>
-    <row r="55" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -17860,8 +18019,11 @@
       <c r="CT55" s="2">
         <v>1853</v>
       </c>
+      <c r="CU55" s="2">
+        <v>1856</v>
+      </c>
     </row>
-    <row r="56" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18156,8 +18318,11 @@
       <c r="CT56" s="2">
         <v>2781</v>
       </c>
+      <c r="CU56" s="2">
+        <v>2796</v>
+      </c>
     </row>
-    <row r="57" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18452,8 +18617,11 @@
       <c r="CT57" s="2">
         <v>1567</v>
       </c>
+      <c r="CU57" s="2">
+        <v>1629</v>
+      </c>
     </row>
-    <row r="58" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -18748,8 +18916,11 @@
       <c r="CT58" s="2">
         <v>1397</v>
       </c>
+      <c r="CU58" s="2">
+        <v>1402</v>
+      </c>
     </row>
-    <row r="59" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19044,8 +19215,11 @@
       <c r="CT59" s="2">
         <v>1477219</v>
       </c>
+      <c r="CU59" s="2">
+        <v>1486912</v>
+      </c>
     </row>
-    <row r="60" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -19340,8 +19514,11 @@
       <c r="CT60" s="2">
         <v>6763</v>
       </c>
+      <c r="CU60" s="2">
+        <v>6794</v>
+      </c>
     </row>
-    <row r="61" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19636,8 +19813,11 @@
       <c r="CT61" s="2">
         <v>6926</v>
       </c>
+      <c r="CU61" s="2">
+        <v>6956</v>
+      </c>
     </row>
-    <row r="62" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -19932,8 +20112,11 @@
       <c r="CT62" s="2">
         <v>4759</v>
       </c>
+      <c r="CU62" s="2">
+        <v>4767</v>
+      </c>
     </row>
-    <row r="63" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20228,8 +20411,11 @@
       <c r="CT63" s="2">
         <v>1738</v>
       </c>
+      <c r="CU63" s="2">
+        <v>1755</v>
+      </c>
     </row>
-    <row r="64" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -20524,8 +20710,11 @@
       <c r="CT64" s="2">
         <v>353560</v>
       </c>
+      <c r="CU64" s="2">
+        <v>356971</v>
+      </c>
     </row>
-    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -20820,8 +21009,11 @@
       <c r="CT65" s="2">
         <v>537</v>
       </c>
+      <c r="CU65" s="2">
+        <v>538</v>
+      </c>
     </row>
-    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -21116,8 +21308,11 @@
       <c r="CT66" s="2">
         <v>4657</v>
       </c>
+      <c r="CU66" s="2">
+        <v>4717</v>
+      </c>
     </row>
-    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -21412,8 +21607,11 @@
       <c r="CT67" s="2">
         <v>1454</v>
       </c>
+      <c r="CU67" s="2">
+        <v>1457</v>
+      </c>
     </row>
-    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -21708,8 +21906,11 @@
       <c r="CT68" s="2">
         <v>12261</v>
       </c>
+      <c r="CU68" s="2">
+        <v>12391</v>
+      </c>
     </row>
-    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22004,8 +22205,11 @@
       <c r="CT69" s="2">
         <v>4940</v>
       </c>
+      <c r="CU69" s="2">
+        <v>4968</v>
+      </c>
     </row>
-    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22300,8 +22504,11 @@
       <c r="CT70" s="2">
         <v>51742</v>
       </c>
+      <c r="CU70" s="2">
+        <v>52206</v>
+      </c>
     </row>
-    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -22596,8 +22803,11 @@
       <c r="CT71" s="2">
         <v>1032</v>
       </c>
+      <c r="CU71" s="2">
+        <v>1035</v>
+      </c>
     </row>
-    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -22892,8 +23102,11 @@
       <c r="CT72" s="2">
         <v>602393</v>
       </c>
+      <c r="CU72" s="2">
+        <v>605274</v>
+      </c>
     </row>
-    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -23188,8 +23401,11 @@
       <c r="CT73" s="2">
         <v>97266</v>
       </c>
+      <c r="CU73" s="2">
+        <v>98222</v>
+      </c>
     </row>
-    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -23484,8 +23700,11 @@
       <c r="CT74" s="2">
         <v>14521</v>
       </c>
+      <c r="CU74" s="2">
+        <v>14685</v>
+      </c>
     </row>
-    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -23780,8 +23999,11 @@
       <c r="CT75" s="2">
         <v>9527</v>
       </c>
+      <c r="CU75" s="2">
+        <v>9622</v>
+      </c>
     </row>
-    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -24076,8 +24298,11 @@
       <c r="CT76" s="2">
         <v>16783</v>
       </c>
+      <c r="CU76" s="2">
+        <v>16917</v>
+      </c>
     </row>
-    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -24372,8 +24597,11 @@
       <c r="CT77" s="2">
         <v>10035</v>
       </c>
+      <c r="CU77" s="2">
+        <v>10135</v>
+      </c>
     </row>
-    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -24668,8 +24896,11 @@
       <c r="CT78" s="2">
         <v>1071</v>
       </c>
+      <c r="CU78" s="2">
+        <v>1086</v>
+      </c>
     </row>
-    <row r="79" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -24964,8 +25195,11 @@
       <c r="CT79" s="2">
         <v>1882</v>
       </c>
+      <c r="CU79" s="2">
+        <v>1896</v>
+      </c>
     </row>
-    <row r="80" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -25260,8 +25494,11 @@
       <c r="CT80" s="2">
         <v>638</v>
       </c>
+      <c r="CU80" s="2">
+        <v>640</v>
+      </c>
     </row>
-    <row r="81" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -25556,8 +25793,11 @@
       <c r="CT81" s="2">
         <v>380167</v>
       </c>
+      <c r="CU81" s="2">
+        <v>382943</v>
+      </c>
     </row>
-    <row r="82" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -25852,8 +26092,11 @@
       <c r="CT82" s="2">
         <v>3102</v>
       </c>
+      <c r="CU82" s="2">
+        <v>3143</v>
+      </c>
     </row>
-    <row r="83" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -26148,8 +26391,11 @@
       <c r="CT83" s="2">
         <v>11025</v>
       </c>
+      <c r="CU83" s="2">
+        <v>11157</v>
+      </c>
     </row>
-    <row r="84" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -26444,8 +26690,11 @@
       <c r="CT84" s="2">
         <v>10216</v>
       </c>
+      <c r="CU84" s="2">
+        <v>10256</v>
+      </c>
     </row>
-    <row r="85" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -26740,8 +26989,11 @@
       <c r="CT85" s="2">
         <v>3208</v>
       </c>
+      <c r="CU85" s="2">
+        <v>3236</v>
+      </c>
     </row>
-    <row r="86" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -27036,8 +27288,11 @@
       <c r="CT86" s="2">
         <v>222046</v>
       </c>
+      <c r="CU86" s="2">
+        <v>224399</v>
+      </c>
     </row>
-    <row r="87" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -27332,8 +27587,11 @@
       <c r="CT87" s="2">
         <v>2020</v>
       </c>
+      <c r="CU87" s="2">
+        <v>2026</v>
+      </c>
     </row>
-    <row r="88" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -27628,8 +27886,11 @@
       <c r="CT88" s="2">
         <v>12148</v>
       </c>
+      <c r="CU88" s="2">
+        <v>12229</v>
+      </c>
     </row>
-    <row r="89" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -27924,8 +28185,11 @@
       <c r="CT89" s="2">
         <v>136</v>
       </c>
+      <c r="CU89" s="2">
+        <v>137</v>
+      </c>
     </row>
-    <row r="90" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -28220,8 +28484,11 @@
       <c r="CT90" s="2">
         <v>2469</v>
       </c>
+      <c r="CU90" s="2">
+        <v>2477</v>
+      </c>
     </row>
-    <row r="91" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -28516,8 +28783,11 @@
       <c r="CT91" s="2">
         <v>9457</v>
       </c>
+      <c r="CU91" s="2">
+        <v>9589</v>
+      </c>
     </row>
-    <row r="92" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -28812,8 +29082,11 @@
       <c r="CT92" s="2">
         <v>6490</v>
       </c>
+      <c r="CU92" s="2">
+        <v>6502</v>
+      </c>
     </row>
-    <row r="93" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -29108,8 +29381,11 @@
       <c r="CT93" s="2">
         <v>64015</v>
       </c>
+      <c r="CU93" s="2">
+        <v>64415</v>
+      </c>
     </row>
-    <row r="94" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -29404,8 +29680,11 @@
       <c r="CT94" s="2">
         <v>41417</v>
       </c>
+      <c r="CU94" s="2">
+        <v>41944</v>
+      </c>
     </row>
-    <row r="95" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -29700,8 +29979,11 @@
       <c r="CT95" s="2">
         <v>15498</v>
       </c>
+      <c r="CU95" s="2">
+        <v>15958</v>
+      </c>
     </row>
-    <row r="96" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -29996,8 +30278,11 @@
       <c r="CT96" s="2">
         <v>46130</v>
       </c>
+      <c r="CU96" s="2">
+        <v>46650</v>
+      </c>
     </row>
-    <row r="97" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -30292,8 +30577,11 @@
       <c r="CT97" s="2">
         <v>10459</v>
       </c>
+      <c r="CU97" s="2">
+        <v>10529</v>
+      </c>
     </row>
-    <row r="98" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -30588,8 +30876,11 @@
       <c r="CT98" s="2">
         <v>1868</v>
       </c>
+      <c r="CU98" s="2">
+        <v>1873</v>
+      </c>
     </row>
-    <row r="99" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -30884,8 +31175,11 @@
       <c r="CT99" s="2">
         <v>3692</v>
       </c>
+      <c r="CU99" s="2">
+        <v>3742</v>
+      </c>
     </row>
-    <row r="100" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -31180,8 +31474,11 @@
       <c r="CT100" s="2">
         <v>2000</v>
       </c>
+      <c r="CU100" s="2">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="101" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -31476,8 +31773,11 @@
       <c r="CT101" s="2">
         <v>1513</v>
       </c>
+      <c r="CU101" s="2">
+        <v>1514</v>
+      </c>
     </row>
-    <row r="102" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -31772,8 +32072,11 @@
       <c r="CT102" s="2">
         <v>15991</v>
       </c>
+      <c r="CU102" s="2">
+        <v>16217</v>
+      </c>
     </row>
-    <row r="103" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -32068,8 +32371,11 @@
       <c r="CT103" s="2">
         <v>2383859</v>
       </c>
+      <c r="CU103" s="2">
+        <v>2399205</v>
+      </c>
     </row>
-    <row r="104" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -32364,8 +32670,11 @@
       <c r="CT104" s="2">
         <v>42992</v>
       </c>
+      <c r="CU104" s="2">
+        <v>43528</v>
+      </c>
     </row>
-    <row r="105" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -32660,8 +32969,11 @@
       <c r="CT105" s="2">
         <v>133</v>
       </c>
+      <c r="CU105" s="2">
+        <v>133</v>
+      </c>
     </row>
-    <row r="106" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -32956,8 +33268,11 @@
       <c r="CT106" s="2">
         <v>1717</v>
       </c>
+      <c r="CU106" s="2">
+        <v>1719</v>
+      </c>
     </row>
-    <row r="107" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -33252,8 +33567,11 @@
       <c r="CT107" s="2">
         <v>129427</v>
       </c>
+      <c r="CU107" s="2">
+        <v>131324</v>
+      </c>
     </row>
-    <row r="108" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -33548,8 +33866,11 @@
       <c r="CT108" s="2">
         <v>979</v>
       </c>
+      <c r="CU108" s="2">
+        <v>981</v>
+      </c>
     </row>
-    <row r="109" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -33844,8 +34165,11 @@
       <c r="CT109" s="2">
         <v>19614</v>
       </c>
+      <c r="CU109" s="2">
+        <v>19791</v>
+      </c>
     </row>
-    <row r="110" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -34140,8 +34464,11 @@
       <c r="CT110" s="2">
         <v>317935</v>
       </c>
+      <c r="CU110" s="2">
+        <v>319990</v>
+      </c>
     </row>
-    <row r="111" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -34436,8 +34763,11 @@
       <c r="CT111" s="2">
         <v>25225</v>
       </c>
+      <c r="CU111" s="2">
+        <v>25563</v>
+      </c>
     </row>
-    <row r="112" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -34732,8 +35062,11 @@
       <c r="CT112" s="2">
         <v>7320</v>
       </c>
+      <c r="CU112" s="2">
+        <v>7377</v>
+      </c>
     </row>
-    <row r="113" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -35028,8 +35361,11 @@
       <c r="CT113" s="2">
         <v>30765</v>
       </c>
+      <c r="CU113" s="2">
+        <v>31146</v>
+      </c>
     </row>
-    <row r="114" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -35324,8 +35660,11 @@
       <c r="CT114" s="2">
         <v>12557</v>
       </c>
+      <c r="CU114" s="2">
+        <v>12698</v>
+      </c>
     </row>
-    <row r="115" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -35620,8 +35959,11 @@
       <c r="CT115" s="2">
         <v>11672</v>
       </c>
+      <c r="CU115" s="2">
+        <v>11724</v>
+      </c>
     </row>
-    <row r="116" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -35916,8 +36258,11 @@
       <c r="CT116" s="2">
         <v>11317</v>
       </c>
+      <c r="CU116" s="2">
+        <v>11485</v>
+      </c>
     </row>
-    <row r="117" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -36212,8 +36557,11 @@
       <c r="CT117" s="2">
         <v>1956</v>
       </c>
+      <c r="CU117" s="2">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="118" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -36508,8 +36856,11 @@
       <c r="CT118" s="2">
         <v>46495</v>
       </c>
+      <c r="CU118" s="2">
+        <v>46913</v>
+      </c>
     </row>
-    <row r="119" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -36804,8 +37155,11 @@
       <c r="CT119" s="2">
         <v>8253</v>
       </c>
+      <c r="CU119" s="2">
+        <v>8353</v>
+      </c>
     </row>
-    <row r="120" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -37100,8 +37454,11 @@
       <c r="CT120" s="2">
         <v>370</v>
       </c>
+      <c r="CU120" s="2">
+        <v>371</v>
+      </c>
     </row>
-    <row r="121" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -37396,8 +37753,11 @@
       <c r="CT121" s="2">
         <v>1151</v>
       </c>
+      <c r="CU121" s="2">
+        <v>1156</v>
+      </c>
     </row>
-    <row r="122" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -37692,8 +38052,11 @@
       <c r="CT122" s="2">
         <v>5350</v>
       </c>
+      <c r="CU122" s="2">
+        <v>5370</v>
+      </c>
     </row>
-    <row r="123" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -37988,8 +38351,11 @@
       <c r="CT123" s="2">
         <v>10768</v>
       </c>
+      <c r="CU123" s="2">
+        <v>10886</v>
+      </c>
     </row>
-    <row r="124" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -38284,8 +38650,11 @@
       <c r="CT124" s="2">
         <v>1310</v>
       </c>
+      <c r="CU124" s="2">
+        <v>1319</v>
+      </c>
     </row>
-    <row r="125" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -38580,8 +38949,11 @@
       <c r="CT125" s="2">
         <v>129084</v>
       </c>
+      <c r="CU125" s="2">
+        <v>129760</v>
+      </c>
     </row>
-    <row r="126" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -38876,8 +39248,11 @@
       <c r="CT126" s="2">
         <v>7171</v>
       </c>
+      <c r="CU126" s="2">
+        <v>7192</v>
+      </c>
     </row>
-    <row r="127" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -39172,8 +39547,11 @@
       <c r="CT127" s="2">
         <v>39242</v>
       </c>
+      <c r="CU127" s="2">
+        <v>39627</v>
+      </c>
     </row>
-    <row r="128" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -39468,8 +39846,11 @@
       <c r="CT128" s="2">
         <v>75261</v>
       </c>
+      <c r="CU128" s="2">
+        <v>75749</v>
+      </c>
     </row>
-    <row r="129" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -39764,8 +40145,11 @@
       <c r="CT129" s="2">
         <v>5237</v>
       </c>
+      <c r="CU129" s="2">
+        <v>5277</v>
+      </c>
     </row>
-    <row r="130" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -40060,8 +40444,11 @@
       <c r="CT130" s="2">
         <v>10731</v>
       </c>
+      <c r="CU130" s="2">
+        <v>10852</v>
+      </c>
     </row>
-    <row r="131" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -40356,8 +40743,11 @@
       <c r="CT131" s="2">
         <v>65351</v>
       </c>
+      <c r="CU131" s="2">
+        <v>66072</v>
+      </c>
     </row>
-    <row r="132" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -40652,8 +41042,11 @@
       <c r="CT132" s="2">
         <v>15238</v>
       </c>
+      <c r="CU132" s="2">
+        <v>15370</v>
+      </c>
     </row>
-    <row r="133" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -40948,8 +41341,11 @@
       <c r="CT133" s="2">
         <v>148</v>
       </c>
+      <c r="CU133" s="2">
+        <v>148</v>
+      </c>
     </row>
-    <row r="134" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -41244,8 +41640,11 @@
       <c r="CT134" s="2">
         <v>388</v>
       </c>
+      <c r="CU134" s="2">
+        <v>389</v>
+      </c>
     </row>
-    <row r="135" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -41540,8 +41939,11 @@
       <c r="CT135" s="2">
         <v>29541</v>
       </c>
+      <c r="CU135" s="2">
+        <v>30027</v>
+      </c>
     </row>
-    <row r="136" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -41836,8 +42238,11 @@
       <c r="CT136" s="2">
         <v>1468</v>
       </c>
+      <c r="CU136" s="2">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="137" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -42132,8 +42537,11 @@
       <c r="CT137" s="2">
         <v>37</v>
       </c>
+      <c r="CU137" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="138" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -42428,8 +42836,11 @@
       <c r="CT138" s="2">
         <v>1049</v>
       </c>
+      <c r="CU138" s="2">
+        <v>1144</v>
+      </c>
     </row>
-    <row r="139" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -42724,8 +43135,11 @@
       <c r="CT139" s="2">
         <v>22242</v>
       </c>
+      <c r="CU139" s="2">
+        <v>22370</v>
+      </c>
     </row>
-    <row r="140" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -43020,8 +43434,11 @@
       <c r="CT140" s="2">
         <v>1537</v>
       </c>
+      <c r="CU140" s="2">
+        <v>1539</v>
+      </c>
     </row>
-    <row r="141" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -43316,8 +43733,11 @@
       <c r="CT141" s="2">
         <v>4800</v>
       </c>
+      <c r="CU141" s="2">
+        <v>4830</v>
+      </c>
     </row>
-    <row r="142" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -43612,8 +44032,11 @@
       <c r="CT142" s="2">
         <v>15519</v>
       </c>
+      <c r="CU142" s="2">
+        <v>15626</v>
+      </c>
     </row>
-    <row r="143" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -43908,8 +44331,11 @@
       <c r="CT143" s="2">
         <v>6518</v>
       </c>
+      <c r="CU143" s="2">
+        <v>6557</v>
+      </c>
     </row>
-    <row r="144" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -44204,8 +44630,11 @@
       <c r="CT144" s="2">
         <v>11411</v>
       </c>
+      <c r="CU144" s="2">
+        <v>11510</v>
+      </c>
     </row>
-    <row r="145" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -44500,8 +44929,11 @@
       <c r="CT145" s="2">
         <v>9186</v>
       </c>
+      <c r="CU145" s="2">
+        <v>9211</v>
+      </c>
     </row>
-    <row r="146" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -44796,8 +45228,11 @@
       <c r="CT146" s="2">
         <v>5525</v>
       </c>
+      <c r="CU146" s="2">
+        <v>5759</v>
+      </c>
     </row>
-    <row r="147" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -45092,8 +45527,11 @@
       <c r="CT147" s="2">
         <v>6444</v>
       </c>
+      <c r="CU147" s="2">
+        <v>6537</v>
+      </c>
     </row>
-    <row r="148" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -45388,8 +45826,11 @@
       <c r="CT148" s="2">
         <v>34631</v>
       </c>
+      <c r="CU148" s="2">
+        <v>34917</v>
+      </c>
     </row>
-    <row r="149" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -45684,8 +46125,11 @@
       <c r="CT149" s="2">
         <v>17982</v>
       </c>
+      <c r="CU149" s="2">
+        <v>18325</v>
+      </c>
     </row>
-    <row r="150" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -45980,8 +46424,11 @@
       <c r="CT150" s="2">
         <v>256</v>
       </c>
+      <c r="CU150" s="2">
+        <v>257</v>
+      </c>
     </row>
-    <row r="151" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -46276,8 +46723,11 @@
       <c r="CT151" s="2">
         <v>3417</v>
       </c>
+      <c r="CU151" s="2">
+        <v>3473</v>
+      </c>
     </row>
-    <row r="152" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -46572,8 +47022,11 @@
       <c r="CT152" s="2">
         <v>6983</v>
       </c>
+      <c r="CU152" s="2">
+        <v>7052</v>
+      </c>
     </row>
-    <row r="153" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -46868,8 +47321,11 @@
       <c r="CT153" s="2">
         <v>23</v>
       </c>
+      <c r="CU153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -47164,8 +47620,11 @@
       <c r="CT154" s="2">
         <v>203220</v>
       </c>
+      <c r="CU154" s="2">
+        <v>204727</v>
+      </c>
     </row>
-    <row r="155" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -47460,8 +47919,11 @@
       <c r="CT155" s="2">
         <v>2968</v>
       </c>
+      <c r="CU155" s="2">
+        <v>2988</v>
+      </c>
     </row>
-    <row r="156" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -47756,8 +48218,11 @@
       <c r="CT156" s="2">
         <v>9681</v>
       </c>
+      <c r="CU156" s="2">
+        <v>9764</v>
+      </c>
     </row>
-    <row r="157" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -48052,8 +48517,11 @@
       <c r="CT157" s="2">
         <v>2225</v>
       </c>
+      <c r="CU157" s="2">
+        <v>2250</v>
+      </c>
     </row>
-    <row r="158" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -48348,8 +48816,11 @@
       <c r="CT158" s="2">
         <v>1230</v>
       </c>
+      <c r="CU158" s="2">
+        <v>1248</v>
+      </c>
     </row>
-    <row r="159" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -48644,8 +49115,11 @@
       <c r="CT159" s="2">
         <v>1517</v>
       </c>
+      <c r="CU159" s="2">
+        <v>1541</v>
+      </c>
     </row>
-    <row r="160" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -48940,8 +49414,11 @@
       <c r="CT160" s="2">
         <v>15881</v>
       </c>
+      <c r="CU160" s="2">
+        <v>16084</v>
+      </c>
     </row>
-    <row r="161" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -49236,8 +49713,11 @@
       <c r="CT161" s="2">
         <v>34838</v>
       </c>
+      <c r="CU161" s="2">
+        <v>35326</v>
+      </c>
     </row>
-    <row r="162" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -49532,8 +50012,11 @@
       <c r="CT162" s="2">
         <v>2231</v>
       </c>
+      <c r="CU162" s="2">
+        <v>2253</v>
+      </c>
     </row>
-    <row r="163" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -49828,8 +50311,11 @@
       <c r="CT163" s="2">
         <v>183149</v>
       </c>
+      <c r="CU163" s="2">
+        <v>184674</v>
+      </c>
     </row>
-    <row r="164" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -50124,8 +50610,11 @@
       <c r="CT164" s="2">
         <v>268</v>
       </c>
+      <c r="CU164" s="2">
+        <v>273</v>
+      </c>
     </row>
-    <row r="165" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -50420,8 +50909,11 @@
       <c r="CT165" s="2">
         <v>17278</v>
       </c>
+      <c r="CU165" s="2">
+        <v>17407</v>
+      </c>
     </row>
-    <row r="166" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -50716,8 +51208,11 @@
       <c r="CT166" s="2">
         <v>1763</v>
       </c>
+      <c r="CU166" s="2">
+        <v>1773</v>
+      </c>
     </row>
-    <row r="167" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -51012,8 +51507,11 @@
       <c r="CT167" s="2">
         <v>50380</v>
       </c>
+      <c r="CU167" s="2">
+        <v>51167</v>
+      </c>
     </row>
-    <row r="168" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -51308,8 +51806,11 @@
       <c r="CT168" s="2">
         <v>11983</v>
       </c>
+      <c r="CU168" s="2">
+        <v>12080</v>
+      </c>
     </row>
-    <row r="169" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -51604,8 +52105,11 @@
       <c r="CT169" s="2">
         <v>3374</v>
       </c>
+      <c r="CU169" s="2">
+        <v>3382</v>
+      </c>
     </row>
-    <row r="170" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -51900,8 +52404,11 @@
       <c r="CT170" s="2">
         <v>4713</v>
       </c>
+      <c r="CU170" s="2">
+        <v>4740</v>
+      </c>
     </row>
-    <row r="171" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -52196,8 +52703,11 @@
       <c r="CT171" s="2">
         <v>7859</v>
       </c>
+      <c r="CU171" s="2">
+        <v>7932</v>
+      </c>
     </row>
-    <row r="172" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -52492,8 +53002,11 @@
       <c r="CT172" s="2">
         <v>220903</v>
       </c>
+      <c r="CU172" s="2">
+        <v>222565</v>
+      </c>
     </row>
-    <row r="173" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -52788,8 +53301,11 @@
       <c r="CT173" s="2">
         <v>6911</v>
       </c>
+      <c r="CU173" s="2">
+        <v>6916</v>
+      </c>
     </row>
-    <row r="174" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -53084,8 +53600,11 @@
       <c r="CT174" s="2">
         <v>4911</v>
       </c>
+      <c r="CU174" s="2">
+        <v>4965</v>
+      </c>
     </row>
-    <row r="175" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -53380,8 +53899,11 @@
       <c r="CT175" s="2">
         <v>458</v>
       </c>
+      <c r="CU175" s="2">
+        <v>459</v>
+      </c>
     </row>
-    <row r="176" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -53676,8 +54198,11 @@
       <c r="CT176" s="2">
         <v>29356</v>
       </c>
+      <c r="CU176" s="2">
+        <v>29722</v>
+      </c>
     </row>
-    <row r="177" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -53972,8 +54497,11 @@
       <c r="CT177" s="2">
         <v>21077</v>
       </c>
+      <c r="CU177" s="2">
+        <v>21241</v>
+      </c>
     </row>
-    <row r="178" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -54268,8 +54796,11 @@
       <c r="CT178" s="2">
         <v>3258</v>
       </c>
+      <c r="CU178" s="2">
+        <v>3287</v>
+      </c>
     </row>
-    <row r="179" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -54564,8 +55095,11 @@
       <c r="CT179" s="2">
         <v>6186</v>
       </c>
+      <c r="CU179" s="2">
+        <v>6290</v>
+      </c>
     </row>
-    <row r="180" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -54860,8 +55394,11 @@
       <c r="CT180" s="2">
         <v>182292</v>
       </c>
+      <c r="CU180" s="2">
+        <v>184054</v>
+      </c>
     </row>
-    <row r="181" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -55156,8 +55693,11 @@
       <c r="CT181" s="2">
         <v>513</v>
       </c>
+      <c r="CU181" s="2">
+        <v>514</v>
+      </c>
     </row>
-    <row r="182" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -55452,8 +55992,11 @@
       <c r="CT182" s="2">
         <v>652</v>
       </c>
+      <c r="CU182" s="2">
+        <v>655</v>
+      </c>
     </row>
-    <row r="183" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -55748,8 +56291,11 @@
       <c r="CT183" s="2">
         <v>23077</v>
       </c>
+      <c r="CU183" s="2">
+        <v>23392</v>
+      </c>
     </row>
-    <row r="184" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -56044,8 +56590,11 @@
       <c r="CT184" s="2">
         <v>9827</v>
       </c>
+      <c r="CU184" s="2">
+        <v>9904</v>
+      </c>
     </row>
-    <row r="185" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -56340,8 +56889,11 @@
       <c r="CT185" s="2">
         <v>6585</v>
       </c>
+      <c r="CU185" s="2">
+        <v>6641</v>
+      </c>
     </row>
-    <row r="186" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -56636,8 +57188,11 @@
       <c r="CT186" s="2">
         <v>45629</v>
       </c>
+      <c r="CU186" s="2">
+        <v>46004</v>
+      </c>
     </row>
-    <row r="187" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -56932,8 +57487,11 @@
       <c r="CT187" s="2">
         <v>1949</v>
       </c>
+      <c r="CU187" s="2">
+        <v>1955</v>
+      </c>
     </row>
-    <row r="188" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -57228,8 +57786,11 @@
       <c r="CT188" s="2">
         <v>7012</v>
       </c>
+      <c r="CU188" s="2">
+        <v>7087</v>
+      </c>
     </row>
-    <row r="189" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -57524,8 +58085,11 @@
       <c r="CT189" s="2">
         <v>21024</v>
       </c>
+      <c r="CU189" s="2">
+        <v>21144</v>
+      </c>
     </row>
-    <row r="190" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -57820,8 +58384,11 @@
       <c r="CT190" s="2">
         <v>58574</v>
       </c>
+      <c r="CU190" s="2">
+        <v>58697</v>
+      </c>
     </row>
-    <row r="191" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -58116,8 +58683,11 @@
       <c r="CT191" s="2">
         <v>6158</v>
       </c>
+      <c r="CU191" s="2">
+        <v>6175</v>
+      </c>
     </row>
-    <row r="192" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -58412,8 +58982,11 @@
       <c r="CT192" s="2">
         <v>2018</v>
       </c>
+      <c r="CU192" s="2">
+        <v>2046</v>
+      </c>
     </row>
-    <row r="193" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -58708,8 +59281,11 @@
       <c r="CT193" s="2">
         <v>40084</v>
       </c>
+      <c r="CU193" s="2">
+        <v>40260</v>
+      </c>
     </row>
-    <row r="194" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -59004,8 +59580,11 @@
       <c r="CT194" s="2">
         <v>1001</v>
       </c>
+      <c r="CU194" s="2">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="195" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -59300,8 +59879,11 @@
       <c r="CT195" s="2">
         <v>1242</v>
       </c>
+      <c r="CU195" s="2">
+        <v>1275</v>
+      </c>
     </row>
-    <row r="196" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -59596,8 +60178,11 @@
       <c r="CT196" s="2">
         <v>4358</v>
       </c>
+      <c r="CU196" s="2">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="197" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -59892,8 +60477,11 @@
       <c r="CT197" s="2">
         <v>3632</v>
       </c>
+      <c r="CU197" s="2">
+        <v>3637</v>
+      </c>
     </row>
-    <row r="198" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -60188,8 +60776,11 @@
       <c r="CT198" s="2">
         <v>3953</v>
       </c>
+      <c r="CU198" s="2">
+        <v>3972</v>
+      </c>
     </row>
-    <row r="199" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -60484,8 +61075,11 @@
       <c r="CT199" s="2">
         <v>114</v>
       </c>
+      <c r="CU199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -60780,8 +61374,11 @@
       <c r="CT200" s="2">
         <v>9134</v>
       </c>
+      <c r="CU200" s="2">
+        <v>9245</v>
+      </c>
     </row>
-    <row r="201" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -61076,8 +61673,11 @@
       <c r="CT201" s="2">
         <v>42716</v>
       </c>
+      <c r="CU201" s="2">
+        <v>42936</v>
+      </c>
     </row>
-    <row r="202" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -61372,8 +61972,11 @@
       <c r="CT202" s="2">
         <v>5243</v>
       </c>
+      <c r="CU202" s="2">
+        <v>5267</v>
+      </c>
     </row>
-    <row r="203" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -61668,8 +62271,11 @@
       <c r="CT203" s="2">
         <v>14093</v>
       </c>
+      <c r="CU203" s="2">
+        <v>14227</v>
+      </c>
     </row>
-    <row r="204" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -61964,8 +62570,11 @@
       <c r="CT204" s="2">
         <v>4493</v>
       </c>
+      <c r="CU204" s="2">
+        <v>4530</v>
+      </c>
     </row>
-    <row r="205" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -62260,8 +62869,11 @@
       <c r="CT205" s="2">
         <v>4313</v>
       </c>
+      <c r="CU205" s="2">
+        <v>4447</v>
+      </c>
     </row>
-    <row r="206" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -62556,8 +63168,11 @@
       <c r="CT206" s="2">
         <v>10788</v>
       </c>
+      <c r="CU206" s="2">
+        <v>10868</v>
+      </c>
     </row>
-    <row r="207" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -62852,8 +63467,11 @@
       <c r="CT207" s="2">
         <v>28237</v>
       </c>
+      <c r="CU207" s="2">
+        <v>28482</v>
+      </c>
     </row>
-    <row r="208" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -63148,8 +63766,11 @@
       <c r="CT208" s="2">
         <v>2434</v>
       </c>
+      <c r="CU208" s="2">
+        <v>2443</v>
+      </c>
     </row>
-    <row r="209" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -63444,8 +64065,11 @@
       <c r="CT209" s="2">
         <v>901</v>
       </c>
+      <c r="CU209" s="2">
+        <v>906</v>
+      </c>
     </row>
-    <row r="210" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -63740,8 +64364,11 @@
       <c r="CT210" s="2">
         <v>13201</v>
       </c>
+      <c r="CU210" s="2">
+        <v>13315</v>
+      </c>
     </row>
-    <row r="211" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -64036,8 +64663,11 @@
       <c r="CT211" s="2">
         <v>727</v>
       </c>
+      <c r="CU211" s="2">
+        <v>729</v>
+      </c>
     </row>
-    <row r="212" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -64332,8 +64962,11 @@
       <c r="CT212" s="2">
         <v>9334</v>
       </c>
+      <c r="CU212" s="2">
+        <v>9397</v>
+      </c>
     </row>
-    <row r="213" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -64628,8 +65261,11 @@
       <c r="CT213" s="2">
         <v>158</v>
       </c>
+      <c r="CU213" s="2">
+        <v>158</v>
+      </c>
     </row>
-    <row r="214" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -64924,8 +65560,11 @@
       <c r="CT214" s="2">
         <v>123538</v>
       </c>
+      <c r="CU214" s="2">
+        <v>125147</v>
+      </c>
     </row>
-    <row r="215" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -65220,8 +65859,11 @@
       <c r="CT215" s="2">
         <v>4960</v>
       </c>
+      <c r="CU215" s="2">
+        <v>5016</v>
+      </c>
     </row>
-    <row r="216" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -65516,8 +66158,11 @@
       <c r="CT216" s="2">
         <v>26413</v>
       </c>
+      <c r="CU216" s="2">
+        <v>26927</v>
+      </c>
     </row>
-    <row r="217" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -65812,8 +66457,11 @@
       <c r="CT217" s="2">
         <v>2335</v>
       </c>
+      <c r="CU217" s="2">
+        <v>2351</v>
+      </c>
     </row>
-    <row r="218" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -66108,8 +66756,11 @@
       <c r="CT218" s="2">
         <v>678</v>
       </c>
+      <c r="CU218" s="2">
+        <v>680</v>
+      </c>
     </row>
-    <row r="219" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -66404,8 +67055,11 @@
       <c r="CT219" s="2">
         <v>213</v>
       </c>
+      <c r="CU219" s="2">
+        <v>215</v>
+      </c>
     </row>
-    <row r="220" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -66700,8 +67354,11 @@
       <c r="CT220" s="2">
         <v>1328</v>
       </c>
+      <c r="CU220" s="2">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="221" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -66996,8 +67653,11 @@
       <c r="CT221" s="2">
         <v>3184</v>
       </c>
+      <c r="CU221" s="2">
+        <v>3203</v>
+      </c>
     </row>
-    <row r="222" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -67292,8 +67952,11 @@
       <c r="CT222" s="2">
         <v>971449</v>
       </c>
+      <c r="CU222" s="2">
+        <v>979250</v>
+      </c>
     </row>
-    <row r="223" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -67588,8 +68251,11 @@
       <c r="CT223" s="2">
         <v>74461</v>
       </c>
+      <c r="CU223" s="2">
+        <v>75333</v>
+      </c>
     </row>
-    <row r="224" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -67884,8 +68550,11 @@
       <c r="CT224" s="2">
         <v>283</v>
       </c>
+      <c r="CU224" s="2">
+        <v>287</v>
+      </c>
     </row>
-    <row r="225" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -68180,8 +68849,11 @@
       <c r="CT225" s="2">
         <v>3088</v>
       </c>
+      <c r="CU225" s="2">
+        <v>3097</v>
+      </c>
     </row>
-    <row r="226" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -68476,8 +69148,11 @@
       <c r="CT226" s="2">
         <v>219</v>
       </c>
+      <c r="CU226" s="2">
+        <v>219</v>
+      </c>
     </row>
-    <row r="227" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -68772,8 +69447,11 @@
       <c r="CT227" s="2">
         <v>15181</v>
       </c>
+      <c r="CU227" s="2">
+        <v>15433</v>
+      </c>
     </row>
-    <row r="228" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -69068,8 +69746,11 @@
       <c r="CT228" s="2">
         <v>72959</v>
       </c>
+      <c r="CU228" s="2">
+        <v>73446</v>
+      </c>
     </row>
-    <row r="229" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -69364,8 +70045,11 @@
       <c r="CT229" s="2">
         <v>595771</v>
       </c>
+      <c r="CU229" s="2">
+        <v>603608</v>
+      </c>
     </row>
-    <row r="230" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -69660,8 +70344,11 @@
       <c r="CT230" s="2">
         <v>6435</v>
       </c>
+      <c r="CU230" s="2">
+        <v>6565</v>
+      </c>
     </row>
-    <row r="231" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -69956,8 +70643,11 @@
       <c r="CT231" s="2">
         <v>8497</v>
       </c>
+      <c r="CU231" s="2">
+        <v>8613</v>
+      </c>
     </row>
-    <row r="232" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -70252,8 +70942,11 @@
       <c r="CT232" s="2">
         <v>8744</v>
       </c>
+      <c r="CU232" s="2">
+        <v>8829</v>
+      </c>
     </row>
-    <row r="233" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -70548,8 +71241,11 @@
       <c r="CT233" s="2">
         <v>1487</v>
       </c>
+      <c r="CU233" s="2">
+        <v>1508</v>
+      </c>
     </row>
-    <row r="234" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -70844,8 +71540,11 @@
       <c r="CT234" s="2">
         <v>12902</v>
       </c>
+      <c r="CU234" s="2">
+        <v>13247</v>
+      </c>
     </row>
-    <row r="235" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -71140,8 +71839,11 @@
       <c r="CT235" s="2">
         <v>25477</v>
       </c>
+      <c r="CU235" s="2">
+        <v>25865</v>
+      </c>
     </row>
-    <row r="236" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -71436,8 +72138,11 @@
       <c r="CT236" s="2">
         <v>13162</v>
       </c>
+      <c r="CU236" s="2">
+        <v>13276</v>
+      </c>
     </row>
-    <row r="237" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -71732,8 +72437,11 @@
       <c r="CT237" s="2">
         <v>31975</v>
       </c>
+      <c r="CU237" s="2">
+        <v>32060</v>
+      </c>
     </row>
-    <row r="238" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -72028,8 +72736,11 @@
       <c r="CT238" s="2">
         <v>66497</v>
       </c>
+      <c r="CU238" s="2">
+        <v>66980</v>
+      </c>
     </row>
-    <row r="239" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -72324,8 +73035,11 @@
       <c r="CT239" s="2">
         <v>17304</v>
       </c>
+      <c r="CU239" s="2">
+        <v>17559</v>
+      </c>
     </row>
-    <row r="240" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -72620,8 +73334,11 @@
       <c r="CT240" s="2">
         <v>3164</v>
       </c>
+      <c r="CU240" s="2">
+        <v>3189</v>
+      </c>
     </row>
-    <row r="241" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -72916,8 +73633,11 @@
       <c r="CT241" s="2">
         <v>21597</v>
       </c>
+      <c r="CU241" s="2">
+        <v>22274</v>
+      </c>
     </row>
-    <row r="242" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -73212,8 +73932,11 @@
       <c r="CT242" s="2">
         <v>182231</v>
       </c>
+      <c r="CU242" s="2">
+        <v>185145</v>
+      </c>
     </row>
-    <row r="243" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -73508,8 +74231,11 @@
       <c r="CT243" s="2">
         <v>20258</v>
       </c>
+      <c r="CU243" s="2">
+        <v>20378</v>
+      </c>
     </row>
-    <row r="244" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -73804,8 +74530,11 @@
       <c r="CT244" s="2">
         <v>2561</v>
       </c>
+      <c r="CU244" s="2">
+        <v>2565</v>
+      </c>
     </row>
-    <row r="245" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -74100,8 +74829,11 @@
       <c r="CT245" s="2">
         <v>76178</v>
       </c>
+      <c r="CU245" s="2">
+        <v>76972</v>
+      </c>
     </row>
-    <row r="246" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -74396,8 +75128,11 @@
       <c r="CT246" s="2">
         <v>9441</v>
       </c>
+      <c r="CU246" s="2">
+        <v>9470</v>
+      </c>
     </row>
-    <row r="247" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -74692,8 +75427,11 @@
       <c r="CT247" s="2">
         <v>13909</v>
       </c>
+      <c r="CU247" s="2">
+        <v>14029</v>
+      </c>
     </row>
-    <row r="248" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -74988,8 +75726,11 @@
       <c r="CT248" s="2">
         <v>242134</v>
       </c>
+      <c r="CU248" s="2">
+        <v>245596</v>
+      </c>
     </row>
-    <row r="249" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -75284,8 +76025,11 @@
       <c r="CT249" s="2">
         <v>17590</v>
       </c>
+      <c r="CU249" s="2">
+        <v>17833</v>
+      </c>
     </row>
-    <row r="250" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -75580,8 +76324,11 @@
       <c r="CT250" s="2">
         <v>746</v>
       </c>
+      <c r="CU250" s="2">
+        <v>757</v>
+      </c>
     </row>
-    <row r="251" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -75876,8 +76623,11 @@
       <c r="CT251" s="2">
         <v>29729</v>
       </c>
+      <c r="CU251" s="2">
+        <v>29986</v>
+      </c>
     </row>
-    <row r="252" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -76172,8 +76922,11 @@
       <c r="CT252" s="2">
         <v>12404</v>
       </c>
+      <c r="CU252" s="2">
+        <v>12546</v>
+      </c>
     </row>
-    <row r="253" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -76468,8 +77221,11 @@
       <c r="CT253" s="2">
         <v>2196</v>
       </c>
+      <c r="CU253" s="2">
+        <v>2209</v>
+      </c>
     </row>
-    <row r="254" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -76764,8 +77520,11 @@
       <c r="CT254" s="2">
         <v>5437</v>
       </c>
+      <c r="CU254" s="2">
+        <v>5455</v>
+      </c>
     </row>
-    <row r="255" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -77060,8 +77819,11 @@
       <c r="CT255" s="2">
         <v>9379</v>
       </c>
+      <c r="CU255" s="2">
+        <v>9389</v>
+      </c>
     </row>
-    <row r="256" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -77356,8 +78118,11 @@
       <c r="CT256" s="2">
         <v>5057</v>
       </c>
+      <c r="CU256" s="2">
+        <v>5132</v>
+      </c>
     </row>
-    <row r="257" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -77652,8 +78417,11 @@
       <c r="CT257" s="2">
         <v>121100</v>
       </c>
+      <c r="CU257" s="2">
+        <v>121192</v>
+      </c>
     </row>
-    <row r="258" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -77951,8 +78719,11 @@
       <c r="CT258" s="8">
         <v>14189044</v>
       </c>
+      <c r="CU258" s="8">
+        <v>14310667</v>
+      </c>
     </row>
-    <row r="259" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:99" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -77979,7 +78750,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -77987,7 +78758,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -77995,7 +78766,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -78003,7 +78774,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -78011,7 +78782,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -78019,7 +78790,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -78027,7 +78798,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -78035,7 +78806,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -78043,7 +78814,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -78051,7 +78822,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -78059,7 +78830,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -78067,7 +78838,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -78075,7 +78846,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:98" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:99" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6E405AA0-4FAE-413C-8915-835BF62D1BAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B1117BBF-D12A-420F-9B1F-84A3B772B7ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,9 +1834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CU513"/>
+  <dimension ref="A1:CV513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CV9" sqref="CV9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1869,15 +1871,15 @@
     <col min="80" max="80" width="10.265625" style="7" customWidth="1"/>
     <col min="81" max="81" width="10.33203125" customWidth="1"/>
     <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
-    <col min="91" max="99" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="100" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2175,8 +2177,11 @@
       <c r="CU2" s="4">
         <v>44184</v>
       </c>
+      <c r="CV2" s="4">
+        <v>44185</v>
+      </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2474,8 +2479,11 @@
       <c r="CU3" s="2">
         <v>41302</v>
       </c>
+      <c r="CV3" s="2">
+        <v>41591</v>
+      </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2773,8 +2781,11 @@
       <c r="CU4" s="2">
         <v>4594</v>
       </c>
+      <c r="CV4" s="2">
+        <v>4627</v>
+      </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3072,8 +3083,11 @@
       <c r="CU5" s="2">
         <v>42779</v>
       </c>
+      <c r="CV5" s="2">
+        <v>43349</v>
+      </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3385,11 @@
       <c r="CU6" s="2">
         <v>7710</v>
       </c>
+      <c r="CV6" s="2">
+        <v>7816</v>
+      </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3670,8 +3687,11 @@
       <c r="CU7" s="2">
         <v>2084</v>
       </c>
+      <c r="CV7" s="2">
+        <v>2124</v>
+      </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3969,8 +3989,11 @@
       <c r="CU8" s="2">
         <v>594</v>
       </c>
+      <c r="CV8" s="2">
+        <v>600</v>
+      </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4268,8 +4291,11 @@
       <c r="CU9" s="2">
         <v>22410</v>
       </c>
+      <c r="CV9" s="2">
+        <v>22667</v>
+      </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4567,8 +4593,11 @@
       <c r="CU10" s="2">
         <v>11186</v>
       </c>
+      <c r="CV10" s="2">
+        <v>11313</v>
+      </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4866,8 +4895,11 @@
       <c r="CU11" s="2">
         <v>1769</v>
       </c>
+      <c r="CV11" s="2">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5165,8 +5197,11 @@
       <c r="CU12" s="2">
         <v>6007</v>
       </c>
+      <c r="CV12" s="2">
+        <v>6050</v>
+      </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5464,8 +5499,11 @@
       <c r="CU13" s="2">
         <v>33609</v>
       </c>
+      <c r="CV13" s="2">
+        <v>34128</v>
+      </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5763,8 +5801,11 @@
       <c r="CU14" s="2">
         <v>1268</v>
       </c>
+      <c r="CV14" s="2">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6062,8 +6103,11 @@
       <c r="CU15" s="2">
         <v>27797</v>
       </c>
+      <c r="CV15" s="2">
+        <v>28118</v>
+      </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6361,8 +6405,11 @@
       <c r="CU16" s="2">
         <v>159345</v>
       </c>
+      <c r="CV16" s="2">
+        <v>161154</v>
+      </c>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6660,8 +6707,11 @@
       <c r="CU17" s="2">
         <v>933282</v>
       </c>
+      <c r="CV17" s="2">
+        <v>946600</v>
+      </c>
     </row>
-    <row r="18" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -6959,8 +7009,11 @@
       <c r="CU18" s="2">
         <v>3648</v>
       </c>
+      <c r="CV18" s="2">
+        <v>3700</v>
+      </c>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7258,8 +7311,11 @@
       <c r="CU19" s="2">
         <v>92</v>
       </c>
+      <c r="CV19" s="2">
+        <v>93</v>
+      </c>
     </row>
-    <row r="20" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7557,8 +7613,11 @@
       <c r="CU20" s="2">
         <v>9456</v>
       </c>
+      <c r="CV20" s="2">
+        <v>9526</v>
+      </c>
     </row>
-    <row r="21" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7856,8 +7915,11 @@
       <c r="CU21" s="2">
         <v>53280</v>
       </c>
+      <c r="CV21" s="2">
+        <v>53569</v>
+      </c>
     </row>
-    <row r="22" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8155,8 +8217,11 @@
       <c r="CU22" s="2">
         <v>206195</v>
       </c>
+      <c r="CV22" s="2">
+        <v>208230</v>
+      </c>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8454,8 +8519,11 @@
       <c r="CU23" s="2">
         <v>145159</v>
       </c>
+      <c r="CV23" s="2">
+        <v>147108</v>
+      </c>
     </row>
-    <row r="24" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8753,8 +8821,11 @@
       <c r="CU24" s="2">
         <v>7443</v>
       </c>
+      <c r="CV24" s="2">
+        <v>7497</v>
+      </c>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9052,8 +9123,11 @@
       <c r="CU25" s="2">
         <v>474</v>
       </c>
+      <c r="CV25" s="2">
+        <v>479</v>
+      </c>
     </row>
-    <row r="26" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9351,8 +9425,11 @@
       <c r="CU26" s="2">
         <v>9941</v>
       </c>
+      <c r="CV26" s="2">
+        <v>10049</v>
+      </c>
     </row>
-    <row r="27" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9650,8 +9727,11 @@
       <c r="CU27" s="2">
         <v>19033</v>
       </c>
+      <c r="CV27" s="2">
+        <v>19337</v>
+      </c>
     </row>
-    <row r="28" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -9949,8 +10029,11 @@
       <c r="CU28" s="2">
         <v>8559</v>
       </c>
+      <c r="CV28" s="2">
+        <v>8623</v>
+      </c>
     </row>
-    <row r="29" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10248,8 +10331,11 @@
       <c r="CU29" s="2">
         <v>20802</v>
       </c>
+      <c r="CV29" s="2">
+        <v>21040</v>
+      </c>
     </row>
-    <row r="30" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10547,8 +10633,11 @@
       <c r="CU30" s="2">
         <v>19187</v>
       </c>
+      <c r="CV30" s="2">
+        <v>19792</v>
+      </c>
     </row>
-    <row r="31" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10846,8 +10935,11 @@
       <c r="CU31" s="2">
         <v>9899</v>
       </c>
+      <c r="CV31" s="2">
+        <v>10046</v>
+      </c>
     </row>
-    <row r="32" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11145,8 +11237,11 @@
       <c r="CU32" s="2">
         <v>5584</v>
       </c>
+      <c r="CV32" s="2">
+        <v>5699</v>
+      </c>
     </row>
-    <row r="33" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11444,8 +11539,11 @@
       <c r="CU33" s="2">
         <v>175597</v>
       </c>
+      <c r="CV33" s="2">
+        <v>177069</v>
+      </c>
     </row>
-    <row r="34" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11743,8 +11841,11 @@
       <c r="CU34" s="2">
         <v>3956</v>
       </c>
+      <c r="CV34" s="2">
+        <v>4001</v>
+      </c>
     </row>
-    <row r="35" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12042,8 +12143,11 @@
       <c r="CU35" s="2">
         <v>1659</v>
       </c>
+      <c r="CV35" s="2">
+        <v>1673</v>
+      </c>
     </row>
-    <row r="36" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12341,8 +12445,11 @@
       <c r="CU36" s="2">
         <v>11864</v>
       </c>
+      <c r="CV36" s="2">
+        <v>11933</v>
+      </c>
     </row>
-    <row r="37" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12640,8 +12747,11 @@
       <c r="CU37" s="2">
         <v>3997</v>
       </c>
+      <c r="CV37" s="2">
+        <v>4039</v>
+      </c>
     </row>
-    <row r="38" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -12939,8 +13049,11 @@
       <c r="CU38" s="2">
         <v>6276</v>
       </c>
+      <c r="CV38" s="2">
+        <v>6307</v>
+      </c>
     </row>
-    <row r="39" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13238,8 +13351,11 @@
       <c r="CU39" s="2">
         <v>17471</v>
       </c>
+      <c r="CV39" s="2">
+        <v>17622</v>
+      </c>
     </row>
-    <row r="40" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13537,8 +13653,11 @@
       <c r="CU40" s="2">
         <v>4479</v>
       </c>
+      <c r="CV40" s="2">
+        <v>4533</v>
+      </c>
     </row>
-    <row r="41" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13836,8 +13955,11 @@
       <c r="CU41" s="2">
         <v>2924</v>
       </c>
+      <c r="CV41" s="2">
+        <v>2953</v>
+      </c>
     </row>
-    <row r="42" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14135,8 +14257,11 @@
       <c r="CU42" s="2">
         <v>753</v>
       </c>
+      <c r="CV42" s="2">
+        <v>755</v>
+      </c>
     </row>
-    <row r="43" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14434,8 +14559,11 @@
       <c r="CU43" s="2">
         <v>2361</v>
       </c>
+      <c r="CV43" s="2">
+        <v>2389</v>
+      </c>
     </row>
-    <row r="44" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14733,8 +14861,11 @@
       <c r="CU44" s="2">
         <v>2919</v>
       </c>
+      <c r="CV44" s="2">
+        <v>2980</v>
+      </c>
     </row>
-    <row r="45" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15032,8 +15163,11 @@
       <c r="CU45" s="2">
         <v>573529</v>
       </c>
+      <c r="CV45" s="2">
+        <v>580825</v>
+      </c>
     </row>
-    <row r="46" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15331,8 +15465,11 @@
       <c r="CU46" s="2">
         <v>1351</v>
       </c>
+      <c r="CV46" s="2">
+        <v>1361</v>
+      </c>
     </row>
-    <row r="47" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15630,8 +15767,11 @@
       <c r="CU47" s="2">
         <v>9788</v>
       </c>
+      <c r="CV47" s="2">
+        <v>9857</v>
+      </c>
     </row>
-    <row r="48" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -15929,8 +16069,11 @@
       <c r="CU48" s="2">
         <v>62815</v>
       </c>
+      <c r="CV48" s="2">
+        <v>63875</v>
+      </c>
     </row>
-    <row r="49" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16228,8 +16371,11 @@
       <c r="CU49" s="2">
         <v>6322</v>
       </c>
+      <c r="CV49" s="2">
+        <v>6376</v>
+      </c>
     </row>
-    <row r="50" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16527,8 +16673,11 @@
       <c r="CU50" s="2">
         <v>1764</v>
       </c>
+      <c r="CV50" s="2">
+        <v>1783</v>
+      </c>
     </row>
-    <row r="51" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16826,8 +16975,11 @@
       <c r="CU51" s="2">
         <v>17628</v>
       </c>
+      <c r="CV51" s="2">
+        <v>17870</v>
+      </c>
     </row>
-    <row r="52" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17125,8 +17277,11 @@
       <c r="CU52" s="2">
         <v>60617</v>
       </c>
+      <c r="CV52" s="2">
+        <v>61315</v>
+      </c>
     </row>
-    <row r="53" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17424,8 +17579,11 @@
       <c r="CU53" s="2">
         <v>895</v>
       </c>
+      <c r="CV53" s="2">
+        <v>901</v>
+      </c>
     </row>
-    <row r="54" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17723,8 +17881,11 @@
       <c r="CU54" s="2">
         <v>3377</v>
       </c>
+      <c r="CV54" s="2">
+        <v>3412</v>
+      </c>
     </row>
-    <row r="55" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18022,8 +18183,11 @@
       <c r="CU55" s="2">
         <v>1856</v>
       </c>
+      <c r="CV55" s="2">
+        <v>1859</v>
+      </c>
     </row>
-    <row r="56" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18321,8 +18485,11 @@
       <c r="CU56" s="2">
         <v>2796</v>
       </c>
+      <c r="CV56" s="2">
+        <v>2814</v>
+      </c>
     </row>
-    <row r="57" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18620,8 +18787,11 @@
       <c r="CU57" s="2">
         <v>1629</v>
       </c>
+      <c r="CV57" s="2">
+        <v>1634</v>
+      </c>
     </row>
-    <row r="58" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -18919,8 +19089,11 @@
       <c r="CU58" s="2">
         <v>1402</v>
       </c>
+      <c r="CV58" s="2">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="59" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19218,8 +19391,11 @@
       <c r="CU59" s="2">
         <v>1486912</v>
       </c>
+      <c r="CV59" s="2">
+        <v>1504201</v>
+      </c>
     </row>
-    <row r="60" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -19517,8 +19693,11 @@
       <c r="CU60" s="2">
         <v>6794</v>
       </c>
+      <c r="CV60" s="2">
+        <v>6840</v>
+      </c>
     </row>
-    <row r="61" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19816,8 +19995,11 @@
       <c r="CU61" s="2">
         <v>6956</v>
       </c>
+      <c r="CV61" s="2">
+        <v>6996</v>
+      </c>
     </row>
-    <row r="62" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -20115,8 +20297,11 @@
       <c r="CU62" s="2">
         <v>4767</v>
       </c>
+      <c r="CV62" s="2">
+        <v>4788</v>
+      </c>
     </row>
-    <row r="63" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20414,8 +20599,11 @@
       <c r="CU63" s="2">
         <v>1755</v>
       </c>
+      <c r="CV63" s="2">
+        <v>1792</v>
+      </c>
     </row>
-    <row r="64" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -20713,8 +20901,11 @@
       <c r="CU64" s="2">
         <v>356971</v>
       </c>
+      <c r="CV64" s="2">
+        <v>361883</v>
+      </c>
     </row>
-    <row r="65" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21012,8 +21203,11 @@
       <c r="CU65" s="2">
         <v>538</v>
       </c>
+      <c r="CV65" s="2">
+        <v>548</v>
+      </c>
     </row>
-    <row r="66" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -21311,8 +21505,11 @@
       <c r="CU66" s="2">
         <v>4717</v>
       </c>
+      <c r="CV66" s="2">
+        <v>4797</v>
+      </c>
     </row>
-    <row r="67" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -21610,8 +21807,11 @@
       <c r="CU67" s="2">
         <v>1457</v>
       </c>
+      <c r="CV67" s="2">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="68" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -21909,8 +22109,11 @@
       <c r="CU68" s="2">
         <v>12391</v>
       </c>
+      <c r="CV68" s="2">
+        <v>12438</v>
+      </c>
     </row>
-    <row r="69" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22208,8 +22411,11 @@
       <c r="CU69" s="2">
         <v>4968</v>
       </c>
+      <c r="CV69" s="2">
+        <v>5028</v>
+      </c>
     </row>
-    <row r="70" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22507,8 +22713,11 @@
       <c r="CU70" s="2">
         <v>52206</v>
       </c>
+      <c r="CV70" s="2">
+        <v>52536</v>
+      </c>
     </row>
-    <row r="71" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -22806,8 +23015,11 @@
       <c r="CU71" s="2">
         <v>1035</v>
       </c>
+      <c r="CV71" s="2">
+        <v>1039</v>
+      </c>
     </row>
-    <row r="72" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -23105,8 +23317,11 @@
       <c r="CU72" s="2">
         <v>605274</v>
       </c>
+      <c r="CV72" s="2">
+        <v>611078</v>
+      </c>
     </row>
-    <row r="73" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -23404,8 +23619,11 @@
       <c r="CU73" s="2">
         <v>98222</v>
       </c>
+      <c r="CV73" s="2">
+        <v>99590</v>
+      </c>
     </row>
-    <row r="74" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -23703,8 +23921,11 @@
       <c r="CU74" s="2">
         <v>14685</v>
       </c>
+      <c r="CV74" s="2">
+        <v>14804</v>
+      </c>
     </row>
-    <row r="75" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -24002,8 +24223,11 @@
       <c r="CU75" s="2">
         <v>9622</v>
       </c>
+      <c r="CV75" s="2">
+        <v>9721</v>
+      </c>
     </row>
-    <row r="76" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -24301,8 +24525,11 @@
       <c r="CU76" s="2">
         <v>16917</v>
       </c>
+      <c r="CV76" s="2">
+        <v>17135</v>
+      </c>
     </row>
-    <row r="77" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -24600,8 +24827,11 @@
       <c r="CU77" s="2">
         <v>10135</v>
       </c>
+      <c r="CV77" s="2">
+        <v>10213</v>
+      </c>
     </row>
-    <row r="78" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -24899,8 +25129,11 @@
       <c r="CU78" s="2">
         <v>1086</v>
       </c>
+      <c r="CV78" s="2">
+        <v>1099</v>
+      </c>
     </row>
-    <row r="79" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -25198,8 +25431,11 @@
       <c r="CU79" s="2">
         <v>1896</v>
       </c>
+      <c r="CV79" s="2">
+        <v>1911</v>
+      </c>
     </row>
-    <row r="80" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -25497,8 +25733,11 @@
       <c r="CU80" s="2">
         <v>640</v>
       </c>
+      <c r="CV80" s="2">
+        <v>642</v>
+      </c>
     </row>
-    <row r="81" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -25796,8 +26035,11 @@
       <c r="CU81" s="2">
         <v>382943</v>
       </c>
+      <c r="CV81" s="2">
+        <v>386908</v>
+      </c>
     </row>
-    <row r="82" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -26095,8 +26337,11 @@
       <c r="CU82" s="2">
         <v>3143</v>
       </c>
+      <c r="CV82" s="2">
+        <v>3176</v>
+      </c>
     </row>
-    <row r="83" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -26394,8 +26639,11 @@
       <c r="CU83" s="2">
         <v>11157</v>
       </c>
+      <c r="CV83" s="2">
+        <v>11283</v>
+      </c>
     </row>
-    <row r="84" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -26693,8 +26941,11 @@
       <c r="CU84" s="2">
         <v>10256</v>
       </c>
+      <c r="CV84" s="2">
+        <v>10343</v>
+      </c>
     </row>
-    <row r="85" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -26992,8 +27243,11 @@
       <c r="CU85" s="2">
         <v>3236</v>
       </c>
+      <c r="CV85" s="2">
+        <v>3245</v>
+      </c>
     </row>
-    <row r="86" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -27291,8 +27545,11 @@
       <c r="CU86" s="2">
         <v>224399</v>
       </c>
+      <c r="CV86" s="2">
+        <v>226217</v>
+      </c>
     </row>
-    <row r="87" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -27590,8 +27847,11 @@
       <c r="CU87" s="2">
         <v>2026</v>
       </c>
+      <c r="CV87" s="2">
+        <v>2042</v>
+      </c>
     </row>
-    <row r="88" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -27889,8 +28149,11 @@
       <c r="CU88" s="2">
         <v>12229</v>
       </c>
+      <c r="CV88" s="2">
+        <v>12314</v>
+      </c>
     </row>
-    <row r="89" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -28188,8 +28451,11 @@
       <c r="CU89" s="2">
         <v>137</v>
       </c>
+      <c r="CV89" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="90" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -28487,8 +28753,11 @@
       <c r="CU90" s="2">
         <v>2477</v>
       </c>
+      <c r="CV90" s="2">
+        <v>2502</v>
+      </c>
     </row>
-    <row r="91" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -28786,8 +29055,11 @@
       <c r="CU91" s="2">
         <v>9589</v>
       </c>
+      <c r="CV91" s="2">
+        <v>9675</v>
+      </c>
     </row>
-    <row r="92" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -29085,8 +29357,11 @@
       <c r="CU92" s="2">
         <v>6502</v>
       </c>
+      <c r="CV92" s="2">
+        <v>6534</v>
+      </c>
     </row>
-    <row r="93" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -29384,8 +29659,11 @@
       <c r="CU93" s="2">
         <v>64415</v>
       </c>
+      <c r="CV93" s="2">
+        <v>65316</v>
+      </c>
     </row>
-    <row r="94" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -29683,8 +29961,11 @@
       <c r="CU94" s="2">
         <v>41944</v>
       </c>
+      <c r="CV94" s="2">
+        <v>42498</v>
+      </c>
     </row>
-    <row r="95" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -29982,8 +30263,11 @@
       <c r="CU95" s="2">
         <v>15958</v>
       </c>
+      <c r="CV95" s="2">
+        <v>16215</v>
+      </c>
     </row>
-    <row r="96" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -30281,8 +30565,11 @@
       <c r="CU96" s="2">
         <v>46650</v>
       </c>
+      <c r="CV96" s="2">
+        <v>47601</v>
+      </c>
     </row>
-    <row r="97" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -30580,8 +30867,11 @@
       <c r="CU97" s="2">
         <v>10529</v>
       </c>
+      <c r="CV97" s="2">
+        <v>10730</v>
+      </c>
     </row>
-    <row r="98" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -30879,8 +31169,11 @@
       <c r="CU98" s="2">
         <v>1873</v>
       </c>
+      <c r="CV98" s="2">
+        <v>1890</v>
+      </c>
     </row>
-    <row r="99" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -31178,8 +31471,11 @@
       <c r="CU99" s="2">
         <v>3742</v>
       </c>
+      <c r="CV99" s="2">
+        <v>3767</v>
+      </c>
     </row>
-    <row r="100" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -31477,8 +31773,11 @@
       <c r="CU100" s="2">
         <v>2000</v>
       </c>
+      <c r="CV100" s="2">
+        <v>2056</v>
+      </c>
     </row>
-    <row r="101" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -31776,8 +32075,11 @@
       <c r="CU101" s="2">
         <v>1514</v>
       </c>
+      <c r="CV101" s="2">
+        <v>1525</v>
+      </c>
     </row>
-    <row r="102" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -32075,8 +32377,11 @@
       <c r="CU102" s="2">
         <v>16217</v>
       </c>
+      <c r="CV102" s="2">
+        <v>16390</v>
+      </c>
     </row>
-    <row r="103" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -32374,8 +32679,11 @@
       <c r="CU103" s="2">
         <v>2399205</v>
       </c>
+      <c r="CV103" s="2">
+        <v>2427774</v>
+      </c>
     </row>
-    <row r="104" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -32673,8 +32981,11 @@
       <c r="CU104" s="2">
         <v>43528</v>
       </c>
+      <c r="CV104" s="2">
+        <v>43860</v>
+      </c>
     </row>
-    <row r="105" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -32972,8 +33283,11 @@
       <c r="CU105" s="2">
         <v>133</v>
       </c>
+      <c r="CV105" s="2">
+        <v>137</v>
+      </c>
     </row>
-    <row r="106" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -33271,8 +33585,11 @@
       <c r="CU106" s="2">
         <v>1719</v>
       </c>
+      <c r="CV106" s="2">
+        <v>1749</v>
+      </c>
     </row>
-    <row r="107" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -33570,8 +33887,11 @@
       <c r="CU107" s="2">
         <v>131324</v>
       </c>
+      <c r="CV107" s="2">
+        <v>133831</v>
+      </c>
     </row>
-    <row r="108" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -33869,8 +34189,11 @@
       <c r="CU108" s="2">
         <v>981</v>
       </c>
+      <c r="CV108" s="2">
+        <v>982</v>
+      </c>
     </row>
-    <row r="109" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -34168,8 +34491,11 @@
       <c r="CU109" s="2">
         <v>19791</v>
       </c>
+      <c r="CV109" s="2">
+        <v>19929</v>
+      </c>
     </row>
-    <row r="110" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -34467,8 +34793,11 @@
       <c r="CU110" s="2">
         <v>319990</v>
       </c>
+      <c r="CV110" s="2">
+        <v>322401</v>
+      </c>
     </row>
-    <row r="111" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -34766,8 +35095,11 @@
       <c r="CU111" s="2">
         <v>25563</v>
       </c>
+      <c r="CV111" s="2">
+        <v>25946</v>
+      </c>
     </row>
-    <row r="112" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -35065,8 +35397,11 @@
       <c r="CU112" s="2">
         <v>7377</v>
       </c>
+      <c r="CV112" s="2">
+        <v>7428</v>
+      </c>
     </row>
-    <row r="113" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -35364,8 +35699,11 @@
       <c r="CU113" s="2">
         <v>31146</v>
       </c>
+      <c r="CV113" s="2">
+        <v>31524</v>
+      </c>
     </row>
-    <row r="114" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -35663,8 +36001,11 @@
       <c r="CU114" s="2">
         <v>12698</v>
       </c>
+      <c r="CV114" s="2">
+        <v>12868</v>
+      </c>
     </row>
-    <row r="115" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -35962,8 +36303,11 @@
       <c r="CU115" s="2">
         <v>11724</v>
       </c>
+      <c r="CV115" s="2">
+        <v>11790</v>
+      </c>
     </row>
-    <row r="116" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -36261,8 +36605,11 @@
       <c r="CU116" s="2">
         <v>11485</v>
       </c>
+      <c r="CV116" s="2">
+        <v>11653</v>
+      </c>
     </row>
-    <row r="117" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -36560,8 +36907,11 @@
       <c r="CU117" s="2">
         <v>2028</v>
       </c>
+      <c r="CV117" s="2">
+        <v>2051</v>
+      </c>
     </row>
-    <row r="118" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -36859,8 +37209,11 @@
       <c r="CU118" s="2">
         <v>46913</v>
       </c>
+      <c r="CV118" s="2">
+        <v>47524</v>
+      </c>
     </row>
-    <row r="119" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -37158,8 +37511,11 @@
       <c r="CU119" s="2">
         <v>8353</v>
       </c>
+      <c r="CV119" s="2">
+        <v>8412</v>
+      </c>
     </row>
-    <row r="120" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -37457,8 +37813,11 @@
       <c r="CU120" s="2">
         <v>371</v>
       </c>
+      <c r="CV120" s="2">
+        <v>375</v>
+      </c>
     </row>
-    <row r="121" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -37756,8 +38115,11 @@
       <c r="CU121" s="2">
         <v>1156</v>
       </c>
+      <c r="CV121" s="2">
+        <v>1167</v>
+      </c>
     </row>
-    <row r="122" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -38055,8 +38417,11 @@
       <c r="CU122" s="2">
         <v>5370</v>
       </c>
+      <c r="CV122" s="2">
+        <v>5399</v>
+      </c>
     </row>
-    <row r="123" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -38354,8 +38719,11 @@
       <c r="CU123" s="2">
         <v>10886</v>
       </c>
+      <c r="CV123" s="2">
+        <v>11056</v>
+      </c>
     </row>
-    <row r="124" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -38653,8 +39021,11 @@
       <c r="CU124" s="2">
         <v>1319</v>
       </c>
+      <c r="CV124" s="2">
+        <v>1321</v>
+      </c>
     </row>
-    <row r="125" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -38952,8 +39323,11 @@
       <c r="CU125" s="2">
         <v>129760</v>
       </c>
+      <c r="CV125" s="2">
+        <v>131369</v>
+      </c>
     </row>
-    <row r="126" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -39251,8 +39625,11 @@
       <c r="CU126" s="2">
         <v>7192</v>
       </c>
+      <c r="CV126" s="2">
+        <v>7203</v>
+      </c>
     </row>
-    <row r="127" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -39550,8 +39927,11 @@
       <c r="CU127" s="2">
         <v>39627</v>
       </c>
+      <c r="CV127" s="2">
+        <v>39909</v>
+      </c>
     </row>
-    <row r="128" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -39849,8 +40229,11 @@
       <c r="CU128" s="2">
         <v>75749</v>
       </c>
+      <c r="CV128" s="2">
+        <v>76584</v>
+      </c>
     </row>
-    <row r="129" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -40148,8 +40531,11 @@
       <c r="CU129" s="2">
         <v>5277</v>
       </c>
+      <c r="CV129" s="2">
+        <v>5342</v>
+      </c>
     </row>
-    <row r="130" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -40447,8 +40833,11 @@
       <c r="CU130" s="2">
         <v>10852</v>
       </c>
+      <c r="CV130" s="2">
+        <v>10964</v>
+      </c>
     </row>
-    <row r="131" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -40746,8 +41135,11 @@
       <c r="CU131" s="2">
         <v>66072</v>
       </c>
+      <c r="CV131" s="2">
+        <v>66911</v>
+      </c>
     </row>
-    <row r="132" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -41045,8 +41437,11 @@
       <c r="CU132" s="2">
         <v>15370</v>
       </c>
+      <c r="CV132" s="2">
+        <v>15710</v>
+      </c>
     </row>
-    <row r="133" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -41344,8 +41739,11 @@
       <c r="CU133" s="2">
         <v>148</v>
       </c>
+      <c r="CV133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -41643,8 +42041,11 @@
       <c r="CU134" s="2">
         <v>389</v>
       </c>
+      <c r="CV134" s="2">
+        <v>390</v>
+      </c>
     </row>
-    <row r="135" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -41942,8 +42343,11 @@
       <c r="CU135" s="2">
         <v>30027</v>
       </c>
+      <c r="CV135" s="2">
+        <v>30120</v>
+      </c>
     </row>
-    <row r="136" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -42241,8 +42645,11 @@
       <c r="CU136" s="2">
         <v>1476</v>
       </c>
+      <c r="CV136" s="2">
+        <v>1491</v>
+      </c>
     </row>
-    <row r="137" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -42540,8 +42947,11 @@
       <c r="CU137" s="2">
         <v>37</v>
       </c>
+      <c r="CV137" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="138" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -42839,8 +43249,11 @@
       <c r="CU138" s="2">
         <v>1144</v>
       </c>
+      <c r="CV138" s="2">
+        <v>1151</v>
+      </c>
     </row>
-    <row r="139" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -43138,8 +43551,11 @@
       <c r="CU139" s="2">
         <v>22370</v>
       </c>
+      <c r="CV139" s="2">
+        <v>22498</v>
+      </c>
     </row>
-    <row r="140" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -43437,8 +43853,11 @@
       <c r="CU140" s="2">
         <v>1539</v>
       </c>
+      <c r="CV140" s="2">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="141" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -43736,8 +44155,11 @@
       <c r="CU141" s="2">
         <v>4830</v>
       </c>
+      <c r="CV141" s="2">
+        <v>4893</v>
+      </c>
     </row>
-    <row r="142" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -44035,8 +44457,11 @@
       <c r="CU142" s="2">
         <v>15626</v>
       </c>
+      <c r="CV142" s="2">
+        <v>15824</v>
+      </c>
     </row>
-    <row r="143" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -44334,8 +44759,11 @@
       <c r="CU143" s="2">
         <v>6557</v>
       </c>
+      <c r="CV143" s="2">
+        <v>6599</v>
+      </c>
     </row>
-    <row r="144" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -44633,8 +45061,11 @@
       <c r="CU144" s="2">
         <v>11510</v>
       </c>
+      <c r="CV144" s="2">
+        <v>11620</v>
+      </c>
     </row>
-    <row r="145" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -44932,8 +45363,11 @@
       <c r="CU145" s="2">
         <v>9211</v>
       </c>
+      <c r="CV145" s="2">
+        <v>9279</v>
+      </c>
     </row>
-    <row r="146" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -45231,8 +45665,11 @@
       <c r="CU146" s="2">
         <v>5759</v>
       </c>
+      <c r="CV146" s="2">
+        <v>5850</v>
+      </c>
     </row>
-    <row r="147" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -45530,8 +45967,11 @@
       <c r="CU147" s="2">
         <v>6537</v>
       </c>
+      <c r="CV147" s="2">
+        <v>6636</v>
+      </c>
     </row>
-    <row r="148" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -45829,8 +46269,11 @@
       <c r="CU148" s="2">
         <v>34917</v>
       </c>
+      <c r="CV148" s="2">
+        <v>35291</v>
+      </c>
     </row>
-    <row r="149" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -46128,8 +46571,11 @@
       <c r="CU149" s="2">
         <v>18325</v>
       </c>
+      <c r="CV149" s="2">
+        <v>18780</v>
+      </c>
     </row>
-    <row r="150" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -46427,8 +46873,11 @@
       <c r="CU150" s="2">
         <v>257</v>
       </c>
+      <c r="CV150" s="2">
+        <v>261</v>
+      </c>
     </row>
-    <row r="151" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -46726,8 +47175,11 @@
       <c r="CU151" s="2">
         <v>3473</v>
       </c>
+      <c r="CV151" s="2">
+        <v>3591</v>
+      </c>
     </row>
-    <row r="152" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -47025,8 +47477,11 @@
       <c r="CU152" s="2">
         <v>7052</v>
       </c>
+      <c r="CV152" s="2">
+        <v>7181</v>
+      </c>
     </row>
-    <row r="153" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -47324,8 +47779,11 @@
       <c r="CU153" s="2">
         <v>23</v>
       </c>
+      <c r="CV153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -47623,8 +48081,11 @@
       <c r="CU154" s="2">
         <v>204727</v>
       </c>
+      <c r="CV154" s="2">
+        <v>205919</v>
+      </c>
     </row>
-    <row r="155" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -47922,8 +48383,11 @@
       <c r="CU155" s="2">
         <v>2988</v>
       </c>
+      <c r="CV155" s="2">
+        <v>3015</v>
+      </c>
     </row>
-    <row r="156" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -48221,8 +48685,11 @@
       <c r="CU156" s="2">
         <v>9764</v>
       </c>
+      <c r="CV156" s="2">
+        <v>9810</v>
+      </c>
     </row>
-    <row r="157" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -48520,8 +48987,11 @@
       <c r="CU157" s="2">
         <v>2250</v>
       </c>
+      <c r="CV157" s="2">
+        <v>2295</v>
+      </c>
     </row>
-    <row r="158" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -48819,8 +49289,11 @@
       <c r="CU158" s="2">
         <v>1248</v>
       </c>
+      <c r="CV158" s="2">
+        <v>1261</v>
+      </c>
     </row>
-    <row r="159" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -49118,8 +49591,11 @@
       <c r="CU159" s="2">
         <v>1541</v>
       </c>
+      <c r="CV159" s="2">
+        <v>1565</v>
+      </c>
     </row>
-    <row r="160" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -49417,8 +49893,11 @@
       <c r="CU160" s="2">
         <v>16084</v>
       </c>
+      <c r="CV160" s="2">
+        <v>16189</v>
+      </c>
     </row>
-    <row r="161" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -49716,8 +50195,11 @@
       <c r="CU161" s="2">
         <v>35326</v>
       </c>
+      <c r="CV161" s="2">
+        <v>35718</v>
+      </c>
     </row>
-    <row r="162" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -50015,8 +50497,11 @@
       <c r="CU162" s="2">
         <v>2253</v>
       </c>
+      <c r="CV162" s="2">
+        <v>2276</v>
+      </c>
     </row>
-    <row r="163" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -50314,8 +50799,11 @@
       <c r="CU163" s="2">
         <v>184674</v>
       </c>
+      <c r="CV163" s="2">
+        <v>187299</v>
+      </c>
     </row>
-    <row r="164" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -50613,8 +51101,11 @@
       <c r="CU164" s="2">
         <v>273</v>
       </c>
+      <c r="CV164" s="2">
+        <v>274</v>
+      </c>
     </row>
-    <row r="165" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -50912,8 +51403,11 @@
       <c r="CU165" s="2">
         <v>17407</v>
       </c>
+      <c r="CV165" s="2">
+        <v>17644</v>
+      </c>
     </row>
-    <row r="166" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -51211,8 +51705,11 @@
       <c r="CU166" s="2">
         <v>1773</v>
       </c>
+      <c r="CV166" s="2">
+        <v>1775</v>
+      </c>
     </row>
-    <row r="167" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -51510,8 +52007,11 @@
       <c r="CU167" s="2">
         <v>51167</v>
       </c>
+      <c r="CV167" s="2">
+        <v>51908</v>
+      </c>
     </row>
-    <row r="168" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -51809,8 +52309,11 @@
       <c r="CU168" s="2">
         <v>12080</v>
       </c>
+      <c r="CV168" s="2">
+        <v>12222</v>
+      </c>
     </row>
-    <row r="169" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -52108,8 +52611,11 @@
       <c r="CU169" s="2">
         <v>3382</v>
       </c>
+      <c r="CV169" s="2">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="170" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -52407,8 +52913,11 @@
       <c r="CU170" s="2">
         <v>4740</v>
       </c>
+      <c r="CV170" s="2">
+        <v>4809</v>
+      </c>
     </row>
-    <row r="171" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -52706,8 +53215,11 @@
       <c r="CU171" s="2">
         <v>7932</v>
       </c>
+      <c r="CV171" s="2">
+        <v>8032</v>
+      </c>
     </row>
-    <row r="172" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -53005,8 +53517,11 @@
       <c r="CU172" s="2">
         <v>222565</v>
       </c>
+      <c r="CV172" s="2">
+        <v>226226</v>
+      </c>
     </row>
-    <row r="173" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -53304,8 +53819,11 @@
       <c r="CU173" s="2">
         <v>6916</v>
       </c>
+      <c r="CV173" s="2">
+        <v>6970</v>
+      </c>
     </row>
-    <row r="174" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -53603,8 +54121,11 @@
       <c r="CU174" s="2">
         <v>4965</v>
       </c>
+      <c r="CV174" s="2">
+        <v>5008</v>
+      </c>
     </row>
-    <row r="175" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -53902,8 +54423,11 @@
       <c r="CU175" s="2">
         <v>459</v>
       </c>
+      <c r="CV175" s="2">
+        <v>459</v>
+      </c>
     </row>
-    <row r="176" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -54201,8 +54725,11 @@
       <c r="CU176" s="2">
         <v>29722</v>
       </c>
+      <c r="CV176" s="2">
+        <v>29942</v>
+      </c>
     </row>
-    <row r="177" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -54500,8 +55027,11 @@
       <c r="CU177" s="2">
         <v>21241</v>
       </c>
+      <c r="CV177" s="2">
+        <v>21398</v>
+      </c>
     </row>
-    <row r="178" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -54799,8 +55329,11 @@
       <c r="CU178" s="2">
         <v>3287</v>
       </c>
+      <c r="CV178" s="2">
+        <v>3304</v>
+      </c>
     </row>
-    <row r="179" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -55098,8 +55631,11 @@
       <c r="CU179" s="2">
         <v>6290</v>
       </c>
+      <c r="CV179" s="2">
+        <v>6371</v>
+      </c>
     </row>
-    <row r="180" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -55397,8 +55933,11 @@
       <c r="CU180" s="2">
         <v>184054</v>
       </c>
+      <c r="CV180" s="2">
+        <v>185895</v>
+      </c>
     </row>
-    <row r="181" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -55696,8 +56235,11 @@
       <c r="CU181" s="2">
         <v>514</v>
       </c>
+      <c r="CV181" s="2">
+        <v>528</v>
+      </c>
     </row>
-    <row r="182" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -55995,8 +56537,11 @@
       <c r="CU182" s="2">
         <v>655</v>
       </c>
+      <c r="CV182" s="2">
+        <v>656</v>
+      </c>
     </row>
-    <row r="183" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -56294,8 +56839,11 @@
       <c r="CU183" s="2">
         <v>23392</v>
       </c>
+      <c r="CV183" s="2">
+        <v>23795</v>
+      </c>
     </row>
-    <row r="184" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -56593,8 +57141,11 @@
       <c r="CU184" s="2">
         <v>9904</v>
       </c>
+      <c r="CV184" s="2">
+        <v>9981</v>
+      </c>
     </row>
-    <row r="185" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -56892,8 +57443,11 @@
       <c r="CU185" s="2">
         <v>6641</v>
       </c>
+      <c r="CV185" s="2">
+        <v>6685</v>
+      </c>
     </row>
-    <row r="186" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -57191,8 +57745,11 @@
       <c r="CU186" s="2">
         <v>46004</v>
       </c>
+      <c r="CV186" s="2">
+        <v>46744</v>
+      </c>
     </row>
-    <row r="187" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -57490,8 +58047,11 @@
       <c r="CU187" s="2">
         <v>1955</v>
       </c>
+      <c r="CV187" s="2">
+        <v>1964</v>
+      </c>
     </row>
-    <row r="188" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -57789,8 +58349,11 @@
       <c r="CU188" s="2">
         <v>7087</v>
       </c>
+      <c r="CV188" s="2">
+        <v>7181</v>
+      </c>
     </row>
-    <row r="189" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -58088,8 +58651,11 @@
       <c r="CU189" s="2">
         <v>21144</v>
       </c>
+      <c r="CV189" s="2">
+        <v>21301</v>
+      </c>
     </row>
-    <row r="190" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -58387,8 +58953,11 @@
       <c r="CU190" s="2">
         <v>58697</v>
       </c>
+      <c r="CV190" s="2">
+        <v>59133</v>
+      </c>
     </row>
-    <row r="191" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -58686,8 +59255,11 @@
       <c r="CU191" s="2">
         <v>6175</v>
       </c>
+      <c r="CV191" s="2">
+        <v>6180</v>
+      </c>
     </row>
-    <row r="192" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -58985,8 +59557,11 @@
       <c r="CU192" s="2">
         <v>2046</v>
       </c>
+      <c r="CV192" s="2">
+        <v>2067</v>
+      </c>
     </row>
-    <row r="193" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -59284,8 +59859,11 @@
       <c r="CU193" s="2">
         <v>40260</v>
       </c>
+      <c r="CV193" s="2">
+        <v>40676</v>
+      </c>
     </row>
-    <row r="194" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -59583,8 +60161,11 @@
       <c r="CU194" s="2">
         <v>1003</v>
       </c>
+      <c r="CV194" s="2">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="195" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -59882,8 +60463,11 @@
       <c r="CU195" s="2">
         <v>1275</v>
       </c>
+      <c r="CV195" s="2">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="196" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -60181,8 +60765,11 @@
       <c r="CU196" s="2">
         <v>4400</v>
       </c>
+      <c r="CV196" s="2">
+        <v>4477</v>
+      </c>
     </row>
-    <row r="197" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -60480,8 +61067,11 @@
       <c r="CU197" s="2">
         <v>3637</v>
       </c>
+      <c r="CV197" s="2">
+        <v>3639</v>
+      </c>
     </row>
-    <row r="198" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -60779,8 +61369,11 @@
       <c r="CU198" s="2">
         <v>3972</v>
       </c>
+      <c r="CV198" s="2">
+        <v>3985</v>
+      </c>
     </row>
-    <row r="199" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -61078,8 +61671,11 @@
       <c r="CU199" s="2">
         <v>114</v>
       </c>
+      <c r="CV199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -61377,8 +61973,11 @@
       <c r="CU200" s="2">
         <v>9245</v>
       </c>
+      <c r="CV200" s="2">
+        <v>9425</v>
+      </c>
     </row>
-    <row r="201" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -61676,8 +62275,11 @@
       <c r="CU201" s="2">
         <v>42936</v>
       </c>
+      <c r="CV201" s="2">
+        <v>43611</v>
+      </c>
     </row>
-    <row r="202" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -61975,8 +62577,11 @@
       <c r="CU202" s="2">
         <v>5267</v>
       </c>
+      <c r="CV202" s="2">
+        <v>5350</v>
+      </c>
     </row>
-    <row r="203" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -62274,8 +62879,11 @@
       <c r="CU203" s="2">
         <v>14227</v>
       </c>
+      <c r="CV203" s="2">
+        <v>14331</v>
+      </c>
     </row>
-    <row r="204" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -62573,8 +63181,11 @@
       <c r="CU204" s="2">
         <v>4530</v>
       </c>
+      <c r="CV204" s="2">
+        <v>4563</v>
+      </c>
     </row>
-    <row r="205" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -62872,8 +63483,11 @@
       <c r="CU205" s="2">
         <v>4447</v>
       </c>
+      <c r="CV205" s="2">
+        <v>4485</v>
+      </c>
     </row>
-    <row r="206" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -63171,8 +63785,11 @@
       <c r="CU206" s="2">
         <v>10868</v>
       </c>
+      <c r="CV206" s="2">
+        <v>11016</v>
+      </c>
     </row>
-    <row r="207" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -63470,8 +64087,11 @@
       <c r="CU207" s="2">
         <v>28482</v>
       </c>
+      <c r="CV207" s="2">
+        <v>28857</v>
+      </c>
     </row>
-    <row r="208" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -63769,8 +64389,11 @@
       <c r="CU208" s="2">
         <v>2443</v>
       </c>
+      <c r="CV208" s="2">
+        <v>2452</v>
+      </c>
     </row>
-    <row r="209" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -64068,8 +64691,11 @@
       <c r="CU209" s="2">
         <v>906</v>
       </c>
+      <c r="CV209" s="2">
+        <v>914</v>
+      </c>
     </row>
-    <row r="210" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -64367,8 +64993,11 @@
       <c r="CU210" s="2">
         <v>13315</v>
       </c>
+      <c r="CV210" s="2">
+        <v>13412</v>
+      </c>
     </row>
-    <row r="211" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -64666,8 +65295,11 @@
       <c r="CU211" s="2">
         <v>729</v>
       </c>
+      <c r="CV211" s="2">
+        <v>738</v>
+      </c>
     </row>
-    <row r="212" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -64965,8 +65597,11 @@
       <c r="CU212" s="2">
         <v>9397</v>
       </c>
+      <c r="CV212" s="2">
+        <v>9482</v>
+      </c>
     </row>
-    <row r="213" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -65264,8 +65899,11 @@
       <c r="CU213" s="2">
         <v>158</v>
       </c>
+      <c r="CV213" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="214" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -65563,8 +66201,11 @@
       <c r="CU214" s="2">
         <v>125147</v>
       </c>
+      <c r="CV214" s="2">
+        <v>125980</v>
+      </c>
     </row>
-    <row r="215" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -65862,8 +66503,11 @@
       <c r="CU215" s="2">
         <v>5016</v>
       </c>
+      <c r="CV215" s="2">
+        <v>5133</v>
+      </c>
     </row>
-    <row r="216" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -66161,8 +66805,11 @@
       <c r="CU216" s="2">
         <v>26927</v>
       </c>
+      <c r="CV216" s="2">
+        <v>27152</v>
+      </c>
     </row>
-    <row r="217" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -66460,8 +67107,11 @@
       <c r="CU217" s="2">
         <v>2351</v>
       </c>
+      <c r="CV217" s="2">
+        <v>2359</v>
+      </c>
     </row>
-    <row r="218" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -66759,8 +67409,11 @@
       <c r="CU218" s="2">
         <v>680</v>
       </c>
+      <c r="CV218" s="2">
+        <v>683</v>
+      </c>
     </row>
-    <row r="219" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -67058,8 +67711,11 @@
       <c r="CU219" s="2">
         <v>215</v>
       </c>
+      <c r="CV219" s="2">
+        <v>217</v>
+      </c>
     </row>
-    <row r="220" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -67357,8 +68013,11 @@
       <c r="CU220" s="2">
         <v>1344</v>
       </c>
+      <c r="CV220" s="2">
+        <v>1365</v>
+      </c>
     </row>
-    <row r="221" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -67656,8 +68315,11 @@
       <c r="CU221" s="2">
         <v>3203</v>
       </c>
+      <c r="CV221" s="2">
+        <v>3215</v>
+      </c>
     </row>
-    <row r="222" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -67955,8 +68617,11 @@
       <c r="CU222" s="2">
         <v>979250</v>
       </c>
+      <c r="CV222" s="2">
+        <v>992028</v>
+      </c>
     </row>
-    <row r="223" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -68254,8 +68919,11 @@
       <c r="CU223" s="2">
         <v>75333</v>
       </c>
+      <c r="CV223" s="2">
+        <v>75665</v>
+      </c>
     </row>
-    <row r="224" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -68553,8 +69221,11 @@
       <c r="CU224" s="2">
         <v>287</v>
       </c>
+      <c r="CV224" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="225" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -68852,8 +69523,11 @@
       <c r="CU225" s="2">
         <v>3097</v>
       </c>
+      <c r="CV225" s="2">
+        <v>3126</v>
+      </c>
     </row>
-    <row r="226" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -69151,8 +69825,11 @@
       <c r="CU226" s="2">
         <v>219</v>
       </c>
+      <c r="CV226" s="2">
+        <v>221</v>
+      </c>
     </row>
-    <row r="227" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -69450,8 +70127,11 @@
       <c r="CU227" s="2">
         <v>15433</v>
       </c>
+      <c r="CV227" s="2">
+        <v>15582</v>
+      </c>
     </row>
-    <row r="228" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -69749,8 +70429,11 @@
       <c r="CU228" s="2">
         <v>73446</v>
       </c>
+      <c r="CV228" s="2">
+        <v>74160</v>
+      </c>
     </row>
-    <row r="229" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -70048,8 +70731,11 @@
       <c r="CU229" s="2">
         <v>603608</v>
       </c>
+      <c r="CV229" s="2">
+        <v>612891</v>
+      </c>
     </row>
-    <row r="230" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -70347,8 +71033,11 @@
       <c r="CU230" s="2">
         <v>6565</v>
       </c>
+      <c r="CV230" s="2">
+        <v>6636</v>
+      </c>
     </row>
-    <row r="231" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -70646,8 +71335,11 @@
       <c r="CU231" s="2">
         <v>8613</v>
       </c>
+      <c r="CV231" s="2">
+        <v>8747</v>
+      </c>
     </row>
-    <row r="232" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -70945,8 +71637,11 @@
       <c r="CU232" s="2">
         <v>8829</v>
       </c>
+      <c r="CV232" s="2">
+        <v>8956</v>
+      </c>
     </row>
-    <row r="233" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -71244,8 +71939,11 @@
       <c r="CU233" s="2">
         <v>1508</v>
       </c>
+      <c r="CV233" s="2">
+        <v>1515</v>
+      </c>
     </row>
-    <row r="234" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -71543,8 +72241,11 @@
       <c r="CU234" s="2">
         <v>13247</v>
       </c>
+      <c r="CV234" s="2">
+        <v>13529</v>
+      </c>
     </row>
-    <row r="235" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -71842,8 +72543,11 @@
       <c r="CU235" s="2">
         <v>25865</v>
       </c>
+      <c r="CV235" s="2">
+        <v>26313</v>
+      </c>
     </row>
-    <row r="236" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -72141,8 +72845,11 @@
       <c r="CU236" s="2">
         <v>13276</v>
       </c>
+      <c r="CV236" s="2">
+        <v>13476</v>
+      </c>
     </row>
-    <row r="237" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -72440,8 +73147,11 @@
       <c r="CU237" s="2">
         <v>32060</v>
       </c>
+      <c r="CV237" s="2">
+        <v>32328</v>
+      </c>
     </row>
-    <row r="238" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -72739,8 +73449,11 @@
       <c r="CU238" s="2">
         <v>66980</v>
       </c>
+      <c r="CV238" s="2">
+        <v>67561</v>
+      </c>
     </row>
-    <row r="239" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -73038,8 +73751,11 @@
       <c r="CU239" s="2">
         <v>17559</v>
       </c>
+      <c r="CV239" s="2">
+        <v>17851</v>
+      </c>
     </row>
-    <row r="240" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -73337,8 +74053,11 @@
       <c r="CU240" s="2">
         <v>3189</v>
       </c>
+      <c r="CV240" s="2">
+        <v>3212</v>
+      </c>
     </row>
-    <row r="241" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -73636,8 +74355,11 @@
       <c r="CU241" s="2">
         <v>22274</v>
       </c>
+      <c r="CV241" s="2">
+        <v>22792</v>
+      </c>
     </row>
-    <row r="242" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -73935,8 +74657,11 @@
       <c r="CU242" s="2">
         <v>185145</v>
       </c>
+      <c r="CV242" s="2">
+        <v>189812</v>
+      </c>
     </row>
-    <row r="243" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -74234,8 +74959,11 @@
       <c r="CU243" s="2">
         <v>20378</v>
       </c>
+      <c r="CV243" s="2">
+        <v>20535</v>
+      </c>
     </row>
-    <row r="244" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -74533,8 +75261,11 @@
       <c r="CU244" s="2">
         <v>2565</v>
       </c>
+      <c r="CV244" s="2">
+        <v>2577</v>
+      </c>
     </row>
-    <row r="245" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -74832,8 +75563,11 @@
       <c r="CU245" s="2">
         <v>76972</v>
       </c>
+      <c r="CV245" s="2">
+        <v>78146</v>
+      </c>
     </row>
-    <row r="246" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -75131,8 +75865,11 @@
       <c r="CU246" s="2">
         <v>9470</v>
       </c>
+      <c r="CV246" s="2">
+        <v>9526</v>
+      </c>
     </row>
-    <row r="247" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -75430,8 +76167,11 @@
       <c r="CU247" s="2">
         <v>14029</v>
       </c>
+      <c r="CV247" s="2">
+        <v>14169</v>
+      </c>
     </row>
-    <row r="248" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -75729,8 +76469,11 @@
       <c r="CU248" s="2">
         <v>245596</v>
       </c>
+      <c r="CV248" s="2">
+        <v>249828</v>
+      </c>
     </row>
-    <row r="249" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -76028,8 +76771,11 @@
       <c r="CU249" s="2">
         <v>17833</v>
       </c>
+      <c r="CV249" s="2">
+        <v>18168</v>
+      </c>
     </row>
-    <row r="250" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -76327,8 +77073,11 @@
       <c r="CU250" s="2">
         <v>757</v>
       </c>
+      <c r="CV250" s="2">
+        <v>766</v>
+      </c>
     </row>
-    <row r="251" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -76626,8 +77375,11 @@
       <c r="CU251" s="2">
         <v>29986</v>
       </c>
+      <c r="CV251" s="2">
+        <v>30317</v>
+      </c>
     </row>
-    <row r="252" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -76925,8 +77677,11 @@
       <c r="CU252" s="2">
         <v>12546</v>
       </c>
+      <c r="CV252" s="2">
+        <v>12730</v>
+      </c>
     </row>
-    <row r="253" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -77224,8 +77979,11 @@
       <c r="CU253" s="2">
         <v>2209</v>
       </c>
+      <c r="CV253" s="2">
+        <v>2216</v>
+      </c>
     </row>
-    <row r="254" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -77523,8 +78281,11 @@
       <c r="CU254" s="2">
         <v>5455</v>
       </c>
+      <c r="CV254" s="2">
+        <v>5473</v>
+      </c>
     </row>
-    <row r="255" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -77822,8 +78583,11 @@
       <c r="CU255" s="2">
         <v>9389</v>
       </c>
+      <c r="CV255" s="2">
+        <v>9845</v>
+      </c>
     </row>
-    <row r="256" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -78121,8 +78885,11 @@
       <c r="CU256" s="2">
         <v>5132</v>
       </c>
+      <c r="CV256" s="2">
+        <v>5196</v>
+      </c>
     </row>
-    <row r="257" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -78420,8 +79187,11 @@
       <c r="CU257" s="2">
         <v>121192</v>
       </c>
+      <c r="CV257" s="2">
+        <v>121298</v>
+      </c>
     </row>
-    <row r="258" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:100" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -78722,8 +79492,11 @@
       <c r="CU258" s="8">
         <v>14310667</v>
       </c>
+      <c r="CV258" s="8">
+        <v>14483812</v>
+      </c>
     </row>
-    <row r="259" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:100" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -78750,7 +79523,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -78758,7 +79531,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -78766,7 +79539,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -78774,7 +79547,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -78782,7 +79555,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -78790,7 +79563,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -78798,7 +79571,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -78806,7 +79579,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -78814,7 +79587,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -78822,7 +79595,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -78830,7 +79603,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -78838,7 +79611,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -78846,7 +79619,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:100" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B1117BBF-D12A-420F-9B1F-84A3B772B7ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C776049-7DF3-4766-A5CD-668F12CD4479}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CV513"/>
+  <dimension ref="A1:CW513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CV9" sqref="CV9"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="CW258" sqref="CW258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1871,15 +1871,15 @@
     <col min="80" max="80" width="10.265625" style="7" customWidth="1"/>
     <col min="81" max="81" width="10.33203125" customWidth="1"/>
     <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
-    <col min="91" max="100" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="91" max="101" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2180,8 +2180,11 @@
       <c r="CV2" s="4">
         <v>44185</v>
       </c>
+      <c r="CW2" s="4">
+        <v>44186</v>
+      </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2482,8 +2485,11 @@
       <c r="CV3" s="2">
         <v>41591</v>
       </c>
+      <c r="CW3" s="2">
+        <v>41961</v>
+      </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2784,8 +2790,11 @@
       <c r="CV4" s="2">
         <v>4627</v>
       </c>
+      <c r="CW4" s="2">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3086,8 +3095,11 @@
       <c r="CV5" s="2">
         <v>43349</v>
       </c>
+      <c r="CW5" s="2">
+        <v>43743</v>
+      </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3388,8 +3400,11 @@
       <c r="CV6" s="2">
         <v>7816</v>
       </c>
+      <c r="CW6" s="2">
+        <v>7981</v>
+      </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3690,8 +3705,11 @@
       <c r="CV7" s="2">
         <v>2124</v>
       </c>
+      <c r="CW7" s="2">
+        <v>2137</v>
+      </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3992,8 +4010,11 @@
       <c r="CV8" s="2">
         <v>600</v>
       </c>
+      <c r="CW8" s="2">
+        <v>603</v>
+      </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4294,8 +4315,11 @@
       <c r="CV9" s="2">
         <v>22667</v>
       </c>
+      <c r="CW9" s="2">
+        <v>22992</v>
+      </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4596,8 +4620,11 @@
       <c r="CV10" s="2">
         <v>11313</v>
       </c>
+      <c r="CW10" s="2">
+        <v>11393</v>
+      </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4898,8 +4925,11 @@
       <c r="CV11" s="2">
         <v>1775</v>
       </c>
+      <c r="CW11" s="2">
+        <v>1787</v>
+      </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5200,8 +5230,11 @@
       <c r="CV12" s="2">
         <v>6050</v>
       </c>
+      <c r="CW12" s="2">
+        <v>6113</v>
+      </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5502,8 +5535,11 @@
       <c r="CV13" s="2">
         <v>34128</v>
       </c>
+      <c r="CW13" s="2">
+        <v>34975</v>
+      </c>
     </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5804,8 +5840,11 @@
       <c r="CV14" s="2">
         <v>1273</v>
       </c>
+      <c r="CW14" s="2">
+        <v>1278</v>
+      </c>
     </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6106,8 +6145,11 @@
       <c r="CV15" s="2">
         <v>28118</v>
       </c>
+      <c r="CW15" s="2">
+        <v>28294</v>
+      </c>
     </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6408,8 +6450,11 @@
       <c r="CV16" s="2">
         <v>161154</v>
       </c>
+      <c r="CW16" s="2">
+        <v>162556</v>
+      </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6710,8 +6755,11 @@
       <c r="CV17" s="2">
         <v>946600</v>
       </c>
+      <c r="CW17" s="2">
+        <v>959445</v>
+      </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7012,8 +7060,11 @@
       <c r="CV18" s="2">
         <v>3700</v>
       </c>
+      <c r="CW18" s="2">
+        <v>3741</v>
+      </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7314,8 +7365,11 @@
       <c r="CV19" s="2">
         <v>93</v>
       </c>
+      <c r="CW19" s="2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7616,8 +7670,11 @@
       <c r="CV20" s="2">
         <v>9526</v>
       </c>
+      <c r="CW20" s="2">
+        <v>9562</v>
+      </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7918,8 +7975,11 @@
       <c r="CV21" s="2">
         <v>53569</v>
       </c>
+      <c r="CW21" s="2">
+        <v>54022</v>
+      </c>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8220,8 +8280,11 @@
       <c r="CV22" s="2">
         <v>208230</v>
       </c>
+      <c r="CW22" s="2">
+        <v>209951</v>
+      </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8522,8 +8585,11 @@
       <c r="CV23" s="2">
         <v>147108</v>
       </c>
+      <c r="CW23" s="2">
+        <v>148459</v>
+      </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8824,8 +8890,11 @@
       <c r="CV24" s="2">
         <v>7497</v>
       </c>
+      <c r="CW24" s="2">
+        <v>7504</v>
+      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9126,8 +9195,11 @@
       <c r="CV25" s="2">
         <v>479</v>
       </c>
+      <c r="CW25" s="2">
+        <v>482</v>
+      </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9428,8 +9500,11 @@
       <c r="CV26" s="2">
         <v>10049</v>
       </c>
+      <c r="CW26" s="2">
+        <v>10181</v>
+      </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9730,8 +9805,11 @@
       <c r="CV27" s="2">
         <v>19337</v>
       </c>
+      <c r="CW27" s="2">
+        <v>19615</v>
+      </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10032,8 +10110,11 @@
       <c r="CV28" s="2">
         <v>8623</v>
       </c>
+      <c r="CW28" s="2">
+        <v>8675</v>
+      </c>
     </row>
-    <row r="29" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10334,8 +10415,11 @@
       <c r="CV29" s="2">
         <v>21040</v>
       </c>
+      <c r="CW29" s="2">
+        <v>21175</v>
+      </c>
     </row>
-    <row r="30" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10636,8 +10720,11 @@
       <c r="CV30" s="2">
         <v>19792</v>
       </c>
+      <c r="CW30" s="2">
+        <v>20229</v>
+      </c>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -10938,8 +11025,11 @@
       <c r="CV31" s="2">
         <v>10046</v>
       </c>
+      <c r="CW31" s="2">
+        <v>10381</v>
+      </c>
     </row>
-    <row r="32" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11240,8 +11330,11 @@
       <c r="CV32" s="2">
         <v>5699</v>
       </c>
+      <c r="CW32" s="2">
+        <v>5832</v>
+      </c>
     </row>
-    <row r="33" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11542,8 +11635,11 @@
       <c r="CV33" s="2">
         <v>177069</v>
       </c>
+      <c r="CW33" s="2">
+        <v>178061</v>
+      </c>
     </row>
-    <row r="34" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11844,8 +11940,11 @@
       <c r="CV34" s="2">
         <v>4001</v>
       </c>
+      <c r="CW34" s="2">
+        <v>4031</v>
+      </c>
     </row>
-    <row r="35" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12146,8 +12245,11 @@
       <c r="CV35" s="2">
         <v>1673</v>
       </c>
+      <c r="CW35" s="2">
+        <v>1679</v>
+      </c>
     </row>
-    <row r="36" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12448,8 +12550,11 @@
       <c r="CV36" s="2">
         <v>11933</v>
       </c>
+      <c r="CW36" s="2">
+        <v>12078</v>
+      </c>
     </row>
-    <row r="37" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12750,8 +12855,11 @@
       <c r="CV37" s="2">
         <v>4039</v>
       </c>
+      <c r="CW37" s="2">
+        <v>4060</v>
+      </c>
     </row>
-    <row r="38" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13052,8 +13160,11 @@
       <c r="CV38" s="2">
         <v>6307</v>
       </c>
+      <c r="CW38" s="2">
+        <v>6351</v>
+      </c>
     </row>
-    <row r="39" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13354,8 +13465,11 @@
       <c r="CV39" s="2">
         <v>17622</v>
       </c>
+      <c r="CW39" s="2">
+        <v>18289</v>
+      </c>
     </row>
-    <row r="40" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13656,8 +13770,11 @@
       <c r="CV40" s="2">
         <v>4533</v>
       </c>
+      <c r="CW40" s="2">
+        <v>4541</v>
+      </c>
     </row>
-    <row r="41" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -13958,8 +14075,11 @@
       <c r="CV41" s="2">
         <v>2953</v>
       </c>
+      <c r="CW41" s="2">
+        <v>3073</v>
+      </c>
     </row>
-    <row r="42" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14260,8 +14380,11 @@
       <c r="CV42" s="2">
         <v>755</v>
       </c>
+      <c r="CW42" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="43" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14562,8 +14685,11 @@
       <c r="CV43" s="2">
         <v>2389</v>
       </c>
+      <c r="CW43" s="2">
+        <v>2411</v>
+      </c>
     </row>
-    <row r="44" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14864,8 +14990,11 @@
       <c r="CV44" s="2">
         <v>2980</v>
       </c>
+      <c r="CW44" s="2">
+        <v>3005</v>
+      </c>
     </row>
-    <row r="45" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15166,8 +15295,11 @@
       <c r="CV45" s="2">
         <v>580825</v>
       </c>
+      <c r="CW45" s="2">
+        <v>587773</v>
+      </c>
     </row>
-    <row r="46" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15468,8 +15600,11 @@
       <c r="CV46" s="2">
         <v>1361</v>
       </c>
+      <c r="CW46" s="2">
+        <v>1392</v>
+      </c>
     </row>
-    <row r="47" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15770,8 +15905,11 @@
       <c r="CV47" s="2">
         <v>9857</v>
       </c>
+      <c r="CW47" s="2">
+        <v>9975</v>
+      </c>
     </row>
-    <row r="48" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16072,8 +16210,11 @@
       <c r="CV48" s="2">
         <v>63875</v>
       </c>
+      <c r="CW48" s="2">
+        <v>64722</v>
+      </c>
     </row>
-    <row r="49" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16374,8 +16515,11 @@
       <c r="CV49" s="2">
         <v>6376</v>
       </c>
+      <c r="CW49" s="2">
+        <v>6436</v>
+      </c>
     </row>
-    <row r="50" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16676,8 +16820,11 @@
       <c r="CV50" s="2">
         <v>1783</v>
       </c>
+      <c r="CW50" s="2">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="51" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -16978,8 +17125,11 @@
       <c r="CV51" s="2">
         <v>17870</v>
       </c>
+      <c r="CW51" s="2">
+        <v>17967</v>
+      </c>
     </row>
-    <row r="52" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17280,8 +17430,11 @@
       <c r="CV52" s="2">
         <v>61315</v>
       </c>
+      <c r="CW52" s="2">
+        <v>61816</v>
+      </c>
     </row>
-    <row r="53" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17582,8 +17735,11 @@
       <c r="CV53" s="2">
         <v>901</v>
       </c>
+      <c r="CW53" s="2">
+        <v>903</v>
+      </c>
     </row>
-    <row r="54" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -17884,8 +18040,11 @@
       <c r="CV54" s="2">
         <v>3412</v>
       </c>
+      <c r="CW54" s="2">
+        <v>3424</v>
+      </c>
     </row>
-    <row r="55" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18186,8 +18345,11 @@
       <c r="CV55" s="2">
         <v>1859</v>
       </c>
+      <c r="CW55" s="2">
+        <v>1899</v>
+      </c>
     </row>
-    <row r="56" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18488,8 +18650,11 @@
       <c r="CV56" s="2">
         <v>2814</v>
       </c>
+      <c r="CW56" s="2">
+        <v>2832</v>
+      </c>
     </row>
-    <row r="57" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18790,8 +18955,11 @@
       <c r="CV57" s="2">
         <v>1634</v>
       </c>
+      <c r="CW57" s="2">
+        <v>1638</v>
+      </c>
     </row>
-    <row r="58" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -19092,8 +19260,11 @@
       <c r="CV58" s="2">
         <v>1484</v>
       </c>
+      <c r="CW58" s="2">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="59" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19394,8 +19565,11 @@
       <c r="CV59" s="2">
         <v>1504201</v>
       </c>
+      <c r="CW59" s="2">
+        <v>1518755</v>
+      </c>
     </row>
-    <row r="60" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -19696,8 +19870,11 @@
       <c r="CV60" s="2">
         <v>6840</v>
       </c>
+      <c r="CW60" s="2">
+        <v>6852</v>
+      </c>
     </row>
-    <row r="61" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -19998,8 +20175,11 @@
       <c r="CV61" s="2">
         <v>6996</v>
       </c>
+      <c r="CW61" s="2">
+        <v>7050</v>
+      </c>
     </row>
-    <row r="62" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -20300,8 +20480,11 @@
       <c r="CV62" s="2">
         <v>4788</v>
       </c>
+      <c r="CW62" s="2">
+        <v>4935</v>
+      </c>
     </row>
-    <row r="63" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20602,8 +20785,11 @@
       <c r="CV63" s="2">
         <v>1792</v>
       </c>
+      <c r="CW63" s="2">
+        <v>1806</v>
+      </c>
     </row>
-    <row r="64" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -20904,8 +21090,11 @@
       <c r="CV64" s="2">
         <v>361883</v>
       </c>
+      <c r="CW64" s="2">
+        <v>366516</v>
+      </c>
     </row>
-    <row r="65" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21206,8 +21395,11 @@
       <c r="CV65" s="2">
         <v>548</v>
       </c>
+      <c r="CW65" s="2">
+        <v>553</v>
+      </c>
     </row>
-    <row r="66" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -21508,8 +21700,11 @@
       <c r="CV66" s="2">
         <v>4797</v>
       </c>
+      <c r="CW66" s="2">
+        <v>4927</v>
+      </c>
     </row>
-    <row r="67" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -21810,8 +22005,11 @@
       <c r="CV67" s="2">
         <v>1463</v>
       </c>
+      <c r="CW67" s="2">
+        <v>1467</v>
+      </c>
     </row>
-    <row r="68" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -22112,8 +22310,11 @@
       <c r="CV68" s="2">
         <v>12438</v>
       </c>
+      <c r="CW68" s="2">
+        <v>12549</v>
+      </c>
     </row>
-    <row r="69" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22414,8 +22615,11 @@
       <c r="CV69" s="2">
         <v>5028</v>
       </c>
+      <c r="CW69" s="2">
+        <v>5086</v>
+      </c>
     </row>
-    <row r="70" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22716,8 +22920,11 @@
       <c r="CV70" s="2">
         <v>52536</v>
       </c>
+      <c r="CW70" s="2">
+        <v>53316</v>
+      </c>
     </row>
-    <row r="71" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -23018,8 +23225,11 @@
       <c r="CV71" s="2">
         <v>1039</v>
       </c>
+      <c r="CW71" s="2">
+        <v>1046</v>
+      </c>
     </row>
-    <row r="72" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -23320,8 +23530,11 @@
       <c r="CV72" s="2">
         <v>611078</v>
       </c>
+      <c r="CW72" s="2">
+        <v>614800</v>
+      </c>
     </row>
-    <row r="73" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -23622,8 +23835,11 @@
       <c r="CV73" s="2">
         <v>99590</v>
       </c>
+      <c r="CW73" s="2">
+        <v>100541</v>
+      </c>
     </row>
-    <row r="74" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -23924,8 +24140,11 @@
       <c r="CV74" s="2">
         <v>14804</v>
       </c>
+      <c r="CW74" s="2">
+        <v>14924</v>
+      </c>
     </row>
-    <row r="75" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -24226,8 +24445,11 @@
       <c r="CV75" s="2">
         <v>9721</v>
       </c>
+      <c r="CW75" s="2">
+        <v>9810</v>
+      </c>
     </row>
-    <row r="76" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -24528,8 +24750,11 @@
       <c r="CV76" s="2">
         <v>17135</v>
       </c>
+      <c r="CW76" s="2">
+        <v>17320</v>
+      </c>
     </row>
-    <row r="77" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -24830,8 +25055,11 @@
       <c r="CV77" s="2">
         <v>10213</v>
       </c>
+      <c r="CW77" s="2">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="78" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -25132,8 +25360,11 @@
       <c r="CV78" s="2">
         <v>1099</v>
       </c>
+      <c r="CW78" s="2">
+        <v>1111</v>
+      </c>
     </row>
-    <row r="79" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -25434,8 +25665,11 @@
       <c r="CV79" s="2">
         <v>1911</v>
       </c>
+      <c r="CW79" s="2">
+        <v>1924</v>
+      </c>
     </row>
-    <row r="80" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -25736,8 +25970,11 @@
       <c r="CV80" s="2">
         <v>642</v>
       </c>
+      <c r="CW80" s="2">
+        <v>652</v>
+      </c>
     </row>
-    <row r="81" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -26038,8 +26275,11 @@
       <c r="CV81" s="2">
         <v>386908</v>
       </c>
+      <c r="CW81" s="2">
+        <v>390471</v>
+      </c>
     </row>
-    <row r="82" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -26340,8 +26580,11 @@
       <c r="CV82" s="2">
         <v>3176</v>
       </c>
+      <c r="CW82" s="2">
+        <v>3224</v>
+      </c>
     </row>
-    <row r="83" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -26642,8 +26885,11 @@
       <c r="CV83" s="2">
         <v>11283</v>
       </c>
+      <c r="CW83" s="2">
+        <v>11339</v>
+      </c>
     </row>
-    <row r="84" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -26944,8 +27190,11 @@
       <c r="CV84" s="2">
         <v>10343</v>
       </c>
+      <c r="CW84" s="2">
+        <v>10474</v>
+      </c>
     </row>
-    <row r="85" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -27246,8 +27495,11 @@
       <c r="CV85" s="2">
         <v>3245</v>
       </c>
+      <c r="CW85" s="2">
+        <v>3270</v>
+      </c>
     </row>
-    <row r="86" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -27548,8 +27800,11 @@
       <c r="CV86" s="2">
         <v>226217</v>
       </c>
+      <c r="CW86" s="2">
+        <v>227740</v>
+      </c>
     </row>
-    <row r="87" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -27850,8 +28105,11 @@
       <c r="CV87" s="2">
         <v>2042</v>
       </c>
+      <c r="CW87" s="2">
+        <v>2045</v>
+      </c>
     </row>
-    <row r="88" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -28152,8 +28410,11 @@
       <c r="CV88" s="2">
         <v>12314</v>
       </c>
+      <c r="CW88" s="2">
+        <v>12437</v>
+      </c>
     </row>
-    <row r="89" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -28454,8 +28715,11 @@
       <c r="CV89" s="2">
         <v>138</v>
       </c>
+      <c r="CW89" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="90" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -28756,8 +29020,11 @@
       <c r="CV90" s="2">
         <v>2502</v>
       </c>
+      <c r="CW90" s="2">
+        <v>2586</v>
+      </c>
     </row>
-    <row r="91" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -29058,8 +29325,11 @@
       <c r="CV91" s="2">
         <v>9675</v>
       </c>
+      <c r="CW91" s="2">
+        <v>9728</v>
+      </c>
     </row>
-    <row r="92" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -29360,8 +29630,11 @@
       <c r="CV92" s="2">
         <v>6534</v>
       </c>
+      <c r="CW92" s="2">
+        <v>6584</v>
+      </c>
     </row>
-    <row r="93" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -29662,8 +29935,11 @@
       <c r="CV93" s="2">
         <v>65316</v>
       </c>
+      <c r="CW93" s="2">
+        <v>66335</v>
+      </c>
     </row>
-    <row r="94" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -29964,8 +30240,11 @@
       <c r="CV94" s="2">
         <v>42498</v>
       </c>
+      <c r="CW94" s="2">
+        <v>43220</v>
+      </c>
     </row>
-    <row r="95" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -30266,8 +30545,11 @@
       <c r="CV95" s="2">
         <v>16215</v>
       </c>
+      <c r="CW95" s="2">
+        <v>16320</v>
+      </c>
     </row>
-    <row r="96" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -30568,8 +30850,11 @@
       <c r="CV96" s="2">
         <v>47601</v>
       </c>
+      <c r="CW96" s="2">
+        <v>48132</v>
+      </c>
     </row>
-    <row r="97" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -30870,8 +31155,11 @@
       <c r="CV97" s="2">
         <v>10730</v>
       </c>
+      <c r="CW97" s="2">
+        <v>10805</v>
+      </c>
     </row>
-    <row r="98" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -31172,8 +31460,11 @@
       <c r="CV98" s="2">
         <v>1890</v>
       </c>
+      <c r="CW98" s="2">
+        <v>1896</v>
+      </c>
     </row>
-    <row r="99" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -31474,8 +31765,11 @@
       <c r="CV99" s="2">
         <v>3767</v>
       </c>
+      <c r="CW99" s="2">
+        <v>3807</v>
+      </c>
     </row>
-    <row r="100" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -31776,8 +32070,11 @@
       <c r="CV100" s="2">
         <v>2056</v>
       </c>
+      <c r="CW100" s="2">
+        <v>2059</v>
+      </c>
     </row>
-    <row r="101" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -32078,8 +32375,11 @@
       <c r="CV101" s="2">
         <v>1525</v>
       </c>
+      <c r="CW101" s="2">
+        <v>1531</v>
+      </c>
     </row>
-    <row r="102" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -32380,8 +32680,11 @@
       <c r="CV102" s="2">
         <v>16390</v>
       </c>
+      <c r="CW102" s="2">
+        <v>16507</v>
+      </c>
     </row>
-    <row r="103" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -32682,8 +32985,11 @@
       <c r="CV103" s="2">
         <v>2427774</v>
       </c>
+      <c r="CW103" s="2">
+        <v>2451860</v>
+      </c>
     </row>
-    <row r="104" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -32984,8 +33290,11 @@
       <c r="CV104" s="2">
         <v>43860</v>
       </c>
+      <c r="CW104" s="2">
+        <v>45468</v>
+      </c>
     </row>
-    <row r="105" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -33286,8 +33595,11 @@
       <c r="CV105" s="2">
         <v>137</v>
       </c>
+      <c r="CW105" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="106" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -33588,8 +33900,11 @@
       <c r="CV106" s="2">
         <v>1749</v>
       </c>
+      <c r="CW106" s="2">
+        <v>1758</v>
+      </c>
     </row>
-    <row r="107" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -33890,8 +34205,11 @@
       <c r="CV107" s="2">
         <v>133831</v>
       </c>
+      <c r="CW107" s="2">
+        <v>135347</v>
+      </c>
     </row>
-    <row r="108" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -34192,8 +34510,11 @@
       <c r="CV108" s="2">
         <v>982</v>
       </c>
+      <c r="CW108" s="2">
+        <v>984</v>
+      </c>
     </row>
-    <row r="109" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -34494,8 +34815,11 @@
       <c r="CV109" s="2">
         <v>19929</v>
       </c>
+      <c r="CW109" s="2">
+        <v>20902</v>
+      </c>
     </row>
-    <row r="110" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -34796,8 +35120,11 @@
       <c r="CV110" s="2">
         <v>322401</v>
       </c>
+      <c r="CW110" s="2">
+        <v>325008</v>
+      </c>
     </row>
-    <row r="111" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -35098,8 +35425,11 @@
       <c r="CV111" s="2">
         <v>25946</v>
       </c>
+      <c r="CW111" s="2">
+        <v>26067</v>
+      </c>
     </row>
-    <row r="112" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -35400,8 +35730,11 @@
       <c r="CV112" s="2">
         <v>7428</v>
       </c>
+      <c r="CW112" s="2">
+        <v>7494</v>
+      </c>
     </row>
-    <row r="113" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -35702,8 +36035,11 @@
       <c r="CV113" s="2">
         <v>31524</v>
       </c>
+      <c r="CW113" s="2">
+        <v>31948</v>
+      </c>
     </row>
-    <row r="114" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -36004,8 +36340,11 @@
       <c r="CV114" s="2">
         <v>12868</v>
       </c>
+      <c r="CW114" s="2">
+        <v>12977</v>
+      </c>
     </row>
-    <row r="115" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -36306,8 +36645,11 @@
       <c r="CV115" s="2">
         <v>11790</v>
       </c>
+      <c r="CW115" s="2">
+        <v>12023</v>
+      </c>
     </row>
-    <row r="116" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -36608,8 +36950,11 @@
       <c r="CV116" s="2">
         <v>11653</v>
       </c>
+      <c r="CW116" s="2">
+        <v>11745</v>
+      </c>
     </row>
-    <row r="117" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -36910,8 +37255,11 @@
       <c r="CV117" s="2">
         <v>2051</v>
       </c>
+      <c r="CW117" s="2">
+        <v>2084</v>
+      </c>
     </row>
-    <row r="118" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -37212,8 +37560,11 @@
       <c r="CV118" s="2">
         <v>47524</v>
       </c>
+      <c r="CW118" s="2">
+        <v>48206</v>
+      </c>
     </row>
-    <row r="119" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -37514,8 +37865,11 @@
       <c r="CV119" s="2">
         <v>8412</v>
       </c>
+      <c r="CW119" s="2">
+        <v>8443</v>
+      </c>
     </row>
-    <row r="120" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -37816,8 +38170,11 @@
       <c r="CV120" s="2">
         <v>375</v>
       </c>
+      <c r="CW120" s="2">
+        <v>382</v>
+      </c>
     </row>
-    <row r="121" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -38118,8 +38475,11 @@
       <c r="CV121" s="2">
         <v>1167</v>
       </c>
+      <c r="CW121" s="2">
+        <v>1203</v>
+      </c>
     </row>
-    <row r="122" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -38420,8 +38780,11 @@
       <c r="CV122" s="2">
         <v>5399</v>
       </c>
+      <c r="CW122" s="2">
+        <v>5447</v>
+      </c>
     </row>
-    <row r="123" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -38722,8 +39085,11 @@
       <c r="CV123" s="2">
         <v>11056</v>
       </c>
+      <c r="CW123" s="2">
+        <v>11175</v>
+      </c>
     </row>
-    <row r="124" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -39024,8 +39390,11 @@
       <c r="CV124" s="2">
         <v>1321</v>
       </c>
+      <c r="CW124" s="2">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="125" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -39326,8 +39695,11 @@
       <c r="CV125" s="2">
         <v>131369</v>
       </c>
+      <c r="CW125" s="2">
+        <v>132332</v>
+      </c>
     </row>
-    <row r="126" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -39628,8 +40000,11 @@
       <c r="CV126" s="2">
         <v>7203</v>
       </c>
+      <c r="CW126" s="2">
+        <v>7217</v>
+      </c>
     </row>
-    <row r="127" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -39930,8 +40305,11 @@
       <c r="CV127" s="2">
         <v>39909</v>
       </c>
+      <c r="CW127" s="2">
+        <v>40432</v>
+      </c>
     </row>
-    <row r="128" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -40232,8 +40610,11 @@
       <c r="CV128" s="2">
         <v>76584</v>
       </c>
+      <c r="CW128" s="2">
+        <v>78253</v>
+      </c>
     </row>
-    <row r="129" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -40534,8 +40915,11 @@
       <c r="CV129" s="2">
         <v>5342</v>
       </c>
+      <c r="CW129" s="2">
+        <v>5381</v>
+      </c>
     </row>
-    <row r="130" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -40836,8 +41220,11 @@
       <c r="CV130" s="2">
         <v>10964</v>
       </c>
+      <c r="CW130" s="2">
+        <v>11076</v>
+      </c>
     </row>
-    <row r="131" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -41138,8 +41525,11 @@
       <c r="CV131" s="2">
         <v>66911</v>
       </c>
+      <c r="CW131" s="2">
+        <v>67641</v>
+      </c>
     </row>
-    <row r="132" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -41440,8 +41830,11 @@
       <c r="CV132" s="2">
         <v>15710</v>
       </c>
+      <c r="CW132" s="2">
+        <v>15945</v>
+      </c>
     </row>
-    <row r="133" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -41742,8 +42135,11 @@
       <c r="CV133" s="2">
         <v>149</v>
       </c>
+      <c r="CW133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -42044,8 +42440,11 @@
       <c r="CV134" s="2">
         <v>390</v>
       </c>
+      <c r="CW134" s="2">
+        <v>397</v>
+      </c>
     </row>
-    <row r="135" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -42346,8 +42745,11 @@
       <c r="CV135" s="2">
         <v>30120</v>
       </c>
+      <c r="CW135" s="2">
+        <v>30528</v>
+      </c>
     </row>
-    <row r="136" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -42648,8 +43050,11 @@
       <c r="CV136" s="2">
         <v>1491</v>
       </c>
+      <c r="CW136" s="2">
+        <v>1495</v>
+      </c>
     </row>
-    <row r="137" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -42950,8 +43355,11 @@
       <c r="CV137" s="2">
         <v>37</v>
       </c>
+      <c r="CW137" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="138" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -43252,8 +43660,11 @@
       <c r="CV138" s="2">
         <v>1151</v>
       </c>
+      <c r="CW138" s="2">
+        <v>1160</v>
+      </c>
     </row>
-    <row r="139" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -43554,8 +43965,11 @@
       <c r="CV139" s="2">
         <v>22498</v>
       </c>
+      <c r="CW139" s="2">
+        <v>22612</v>
+      </c>
     </row>
-    <row r="140" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -43856,8 +44270,11 @@
       <c r="CV140" s="2">
         <v>1715</v>
       </c>
+      <c r="CW140" s="2">
+        <v>1776</v>
+      </c>
     </row>
-    <row r="141" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -44158,8 +44575,11 @@
       <c r="CV141" s="2">
         <v>4893</v>
       </c>
+      <c r="CW141" s="2">
+        <v>4922</v>
+      </c>
     </row>
-    <row r="142" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -44460,8 +44880,11 @@
       <c r="CV142" s="2">
         <v>15824</v>
       </c>
+      <c r="CW142" s="2">
+        <v>15939</v>
+      </c>
     </row>
-    <row r="143" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -44762,8 +45185,11 @@
       <c r="CV143" s="2">
         <v>6599</v>
       </c>
+      <c r="CW143" s="2">
+        <v>6699</v>
+      </c>
     </row>
-    <row r="144" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -45064,8 +45490,11 @@
       <c r="CV144" s="2">
         <v>11620</v>
       </c>
+      <c r="CW144" s="2">
+        <v>11881</v>
+      </c>
     </row>
-    <row r="145" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -45366,8 +45795,11 @@
       <c r="CV145" s="2">
         <v>9279</v>
       </c>
+      <c r="CW145" s="2">
+        <v>9337</v>
+      </c>
     </row>
-    <row r="146" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -45668,8 +46100,11 @@
       <c r="CV146" s="2">
         <v>5850</v>
       </c>
+      <c r="CW146" s="2">
+        <v>5892</v>
+      </c>
     </row>
-    <row r="147" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -45970,8 +46405,11 @@
       <c r="CV147" s="2">
         <v>6636</v>
       </c>
+      <c r="CW147" s="2">
+        <v>6692</v>
+      </c>
     </row>
-    <row r="148" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -46272,8 +46710,11 @@
       <c r="CV148" s="2">
         <v>35291</v>
       </c>
+      <c r="CW148" s="2">
+        <v>35467</v>
+      </c>
     </row>
-    <row r="149" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -46574,8 +47015,11 @@
       <c r="CV149" s="2">
         <v>18780</v>
       </c>
+      <c r="CW149" s="2">
+        <v>18947</v>
+      </c>
     </row>
-    <row r="150" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -46876,8 +47320,11 @@
       <c r="CV150" s="2">
         <v>261</v>
       </c>
+      <c r="CW150" s="2">
+        <v>261</v>
+      </c>
     </row>
-    <row r="151" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -47178,8 +47625,11 @@
       <c r="CV151" s="2">
         <v>3591</v>
       </c>
+      <c r="CW151" s="2">
+        <v>3631</v>
+      </c>
     </row>
-    <row r="152" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -47480,8 +47930,11 @@
       <c r="CV152" s="2">
         <v>7181</v>
       </c>
+      <c r="CW152" s="2">
+        <v>7226</v>
+      </c>
     </row>
-    <row r="153" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -47782,8 +48235,11 @@
       <c r="CV153" s="2">
         <v>23</v>
       </c>
+      <c r="CW153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -48084,8 +48540,11 @@
       <c r="CV154" s="2">
         <v>205919</v>
       </c>
+      <c r="CW154" s="2">
+        <v>206970</v>
+      </c>
     </row>
-    <row r="155" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -48386,8 +48845,11 @@
       <c r="CV155" s="2">
         <v>3015</v>
       </c>
+      <c r="CW155" s="2">
+        <v>3024</v>
+      </c>
     </row>
-    <row r="156" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -48688,8 +49150,11 @@
       <c r="CV156" s="2">
         <v>9810</v>
       </c>
+      <c r="CW156" s="2">
+        <v>9840</v>
+      </c>
     </row>
-    <row r="157" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -48990,8 +49455,11 @@
       <c r="CV157" s="2">
         <v>2295</v>
       </c>
+      <c r="CW157" s="2">
+        <v>2310</v>
+      </c>
     </row>
-    <row r="158" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -49292,8 +49760,11 @@
       <c r="CV158" s="2">
         <v>1261</v>
       </c>
+      <c r="CW158" s="2">
+        <v>1270</v>
+      </c>
     </row>
-    <row r="159" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -49594,8 +50065,11 @@
       <c r="CV159" s="2">
         <v>1565</v>
       </c>
+      <c r="CW159" s="2">
+        <v>1573</v>
+      </c>
     </row>
-    <row r="160" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -49896,8 +50370,11 @@
       <c r="CV160" s="2">
         <v>16189</v>
       </c>
+      <c r="CW160" s="2">
+        <v>16615</v>
+      </c>
     </row>
-    <row r="161" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -50198,8 +50675,11 @@
       <c r="CV161" s="2">
         <v>35718</v>
       </c>
+      <c r="CW161" s="2">
+        <v>36028</v>
+      </c>
     </row>
-    <row r="162" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -50500,8 +50980,11 @@
       <c r="CV162" s="2">
         <v>2276</v>
       </c>
+      <c r="CW162" s="2">
+        <v>2296</v>
+      </c>
     </row>
-    <row r="163" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -50802,8 +51285,11 @@
       <c r="CV163" s="2">
         <v>187299</v>
       </c>
+      <c r="CW163" s="2">
+        <v>189231</v>
+      </c>
     </row>
-    <row r="164" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -51104,8 +51590,11 @@
       <c r="CV164" s="2">
         <v>274</v>
       </c>
+      <c r="CW164" s="2">
+        <v>277</v>
+      </c>
     </row>
-    <row r="165" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -51406,8 +51895,11 @@
       <c r="CV165" s="2">
         <v>17644</v>
       </c>
+      <c r="CW165" s="2">
+        <v>17907</v>
+      </c>
     </row>
-    <row r="166" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -51708,8 +52200,11 @@
       <c r="CV166" s="2">
         <v>1775</v>
       </c>
+      <c r="CW166" s="2">
+        <v>1776</v>
+      </c>
     </row>
-    <row r="167" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -52010,8 +52505,11 @@
       <c r="CV167" s="2">
         <v>51908</v>
       </c>
+      <c r="CW167" s="2">
+        <v>52386</v>
+      </c>
     </row>
-    <row r="168" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -52312,8 +52810,11 @@
       <c r="CV168" s="2">
         <v>12222</v>
       </c>
+      <c r="CW168" s="2">
+        <v>12319</v>
+      </c>
     </row>
-    <row r="169" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -52614,8 +53115,11 @@
       <c r="CV169" s="2">
         <v>3394</v>
       </c>
+      <c r="CW169" s="2">
+        <v>3453</v>
+      </c>
     </row>
-    <row r="170" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -52916,8 +53420,11 @@
       <c r="CV170" s="2">
         <v>4809</v>
       </c>
+      <c r="CW170" s="2">
+        <v>4815</v>
+      </c>
     </row>
-    <row r="171" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -53218,8 +53725,11 @@
       <c r="CV171" s="2">
         <v>8032</v>
       </c>
+      <c r="CW171" s="2">
+        <v>8108</v>
+      </c>
     </row>
-    <row r="172" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -53520,8 +54030,11 @@
       <c r="CV172" s="2">
         <v>226226</v>
       </c>
+      <c r="CW172" s="2">
+        <v>227999</v>
+      </c>
     </row>
-    <row r="173" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -53822,8 +54335,11 @@
       <c r="CV173" s="2">
         <v>6970</v>
       </c>
+      <c r="CW173" s="2">
+        <v>6979</v>
+      </c>
     </row>
-    <row r="174" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -54124,8 +54640,11 @@
       <c r="CV174" s="2">
         <v>5008</v>
       </c>
+      <c r="CW174" s="2">
+        <v>5093</v>
+      </c>
     </row>
-    <row r="175" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -54426,8 +54945,11 @@
       <c r="CV175" s="2">
         <v>459</v>
       </c>
+      <c r="CW175" s="2">
+        <v>463</v>
+      </c>
     </row>
-    <row r="176" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -54728,8 +55250,11 @@
       <c r="CV176" s="2">
         <v>29942</v>
       </c>
+      <c r="CW176" s="2">
+        <v>30101</v>
+      </c>
     </row>
-    <row r="177" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -55030,8 +55555,11 @@
       <c r="CV177" s="2">
         <v>21398</v>
       </c>
+      <c r="CW177" s="2">
+        <v>21956</v>
+      </c>
     </row>
-    <row r="178" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -55332,8 +55860,11 @@
       <c r="CV178" s="2">
         <v>3304</v>
       </c>
+      <c r="CW178" s="2">
+        <v>3335</v>
+      </c>
     </row>
-    <row r="179" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -55634,8 +56165,11 @@
       <c r="CV179" s="2">
         <v>6371</v>
       </c>
+      <c r="CW179" s="2">
+        <v>6553</v>
+      </c>
     </row>
-    <row r="180" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -55936,8 +56470,11 @@
       <c r="CV180" s="2">
         <v>185895</v>
       </c>
+      <c r="CW180" s="2">
+        <v>187082</v>
+      </c>
     </row>
-    <row r="181" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -56238,8 +56775,11 @@
       <c r="CV181" s="2">
         <v>528</v>
       </c>
+      <c r="CW181" s="2">
+        <v>529</v>
+      </c>
     </row>
-    <row r="182" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -56540,8 +57080,11 @@
       <c r="CV182" s="2">
         <v>656</v>
       </c>
+      <c r="CW182" s="2">
+        <v>657</v>
+      </c>
     </row>
-    <row r="183" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -56842,8 +57385,11 @@
       <c r="CV183" s="2">
         <v>23795</v>
       </c>
+      <c r="CW183" s="2">
+        <v>23978</v>
+      </c>
     </row>
-    <row r="184" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -57144,8 +57690,11 @@
       <c r="CV184" s="2">
         <v>9981</v>
       </c>
+      <c r="CW184" s="2">
+        <v>10283</v>
+      </c>
     </row>
-    <row r="185" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -57446,8 +57995,11 @@
       <c r="CV185" s="2">
         <v>6685</v>
       </c>
+      <c r="CW185" s="2">
+        <v>6711</v>
+      </c>
     </row>
-    <row r="186" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -57748,8 +58300,11 @@
       <c r="CV186" s="2">
         <v>46744</v>
       </c>
+      <c r="CW186" s="2">
+        <v>47410</v>
+      </c>
     </row>
-    <row r="187" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -58050,8 +58605,11 @@
       <c r="CV187" s="2">
         <v>1964</v>
       </c>
+      <c r="CW187" s="2">
+        <v>1970</v>
+      </c>
     </row>
-    <row r="188" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -58352,8 +58910,11 @@
       <c r="CV188" s="2">
         <v>7181</v>
       </c>
+      <c r="CW188" s="2">
+        <v>7229</v>
+      </c>
     </row>
-    <row r="189" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -58654,8 +59215,11 @@
       <c r="CV189" s="2">
         <v>21301</v>
       </c>
+      <c r="CW189" s="2">
+        <v>21410</v>
+      </c>
     </row>
-    <row r="190" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -58956,8 +59520,11 @@
       <c r="CV190" s="2">
         <v>59133</v>
       </c>
+      <c r="CW190" s="2">
+        <v>59730</v>
+      </c>
     </row>
-    <row r="191" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -59258,8 +59825,11 @@
       <c r="CV191" s="2">
         <v>6180</v>
       </c>
+      <c r="CW191" s="2">
+        <v>6198</v>
+      </c>
     </row>
-    <row r="192" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -59560,8 +60130,11 @@
       <c r="CV192" s="2">
         <v>2067</v>
       </c>
+      <c r="CW192" s="2">
+        <v>2095</v>
+      </c>
     </row>
-    <row r="193" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -59862,8 +60435,11 @@
       <c r="CV193" s="2">
         <v>40676</v>
       </c>
+      <c r="CW193" s="2">
+        <v>40935</v>
+      </c>
     </row>
-    <row r="194" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -60164,8 +60740,11 @@
       <c r="CV194" s="2">
         <v>1004</v>
       </c>
+      <c r="CW194" s="2">
+        <v>1011</v>
+      </c>
     </row>
-    <row r="195" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -60466,8 +61045,11 @@
       <c r="CV195" s="2">
         <v>1295</v>
       </c>
+      <c r="CW195" s="2">
+        <v>1326</v>
+      </c>
     </row>
-    <row r="196" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -60768,8 +61350,11 @@
       <c r="CV196" s="2">
         <v>4477</v>
       </c>
+      <c r="CW196" s="2">
+        <v>4569</v>
+      </c>
     </row>
-    <row r="197" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -61070,8 +61655,11 @@
       <c r="CV197" s="2">
         <v>3639</v>
       </c>
+      <c r="CW197" s="2">
+        <v>3667</v>
+      </c>
     </row>
-    <row r="198" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -61372,8 +61960,11 @@
       <c r="CV198" s="2">
         <v>3985</v>
       </c>
+      <c r="CW198" s="2">
+        <v>4113</v>
+      </c>
     </row>
-    <row r="199" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -61674,8 +62265,11 @@
       <c r="CV199" s="2">
         <v>114</v>
       </c>
+      <c r="CW199" s="2">
+        <v>114</v>
+      </c>
     </row>
-    <row r="200" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -61976,8 +62570,11 @@
       <c r="CV200" s="2">
         <v>9425</v>
       </c>
+      <c r="CW200" s="2">
+        <v>9541</v>
+      </c>
     </row>
-    <row r="201" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -62278,8 +62875,11 @@
       <c r="CV201" s="2">
         <v>43611</v>
       </c>
+      <c r="CW201" s="2">
+        <v>44020</v>
+      </c>
     </row>
-    <row r="202" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -62580,8 +63180,11 @@
       <c r="CV202" s="2">
         <v>5350</v>
       </c>
+      <c r="CW202" s="2">
+        <v>5403</v>
+      </c>
     </row>
-    <row r="203" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -62882,8 +63485,11 @@
       <c r="CV203" s="2">
         <v>14331</v>
       </c>
+      <c r="CW203" s="2">
+        <v>14434</v>
+      </c>
     </row>
-    <row r="204" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -63184,8 +63790,11 @@
       <c r="CV204" s="2">
         <v>4563</v>
       </c>
+      <c r="CW204" s="2">
+        <v>4614</v>
+      </c>
     </row>
-    <row r="205" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -63486,8 +64095,11 @@
       <c r="CV205" s="2">
         <v>4485</v>
       </c>
+      <c r="CW205" s="2">
+        <v>4529</v>
+      </c>
     </row>
-    <row r="206" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -63788,8 +64400,11 @@
       <c r="CV206" s="2">
         <v>11016</v>
       </c>
+      <c r="CW206" s="2">
+        <v>11132</v>
+      </c>
     </row>
-    <row r="207" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -64090,8 +64705,11 @@
       <c r="CV207" s="2">
         <v>28857</v>
       </c>
+      <c r="CW207" s="2">
+        <v>29200</v>
+      </c>
     </row>
-    <row r="208" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -64392,8 +65010,11 @@
       <c r="CV208" s="2">
         <v>2452</v>
       </c>
+      <c r="CW208" s="2">
+        <v>2465</v>
+      </c>
     </row>
-    <row r="209" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -64694,8 +65315,11 @@
       <c r="CV209" s="2">
         <v>914</v>
       </c>
+      <c r="CW209" s="2">
+        <v>919</v>
+      </c>
     </row>
-    <row r="210" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -64996,8 +65620,11 @@
       <c r="CV210" s="2">
         <v>13412</v>
       </c>
+      <c r="CW210" s="2">
+        <v>13517</v>
+      </c>
     </row>
-    <row r="211" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -65298,8 +65925,11 @@
       <c r="CV211" s="2">
         <v>738</v>
       </c>
+      <c r="CW211" s="2">
+        <v>745</v>
+      </c>
     </row>
-    <row r="212" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -65600,8 +66230,11 @@
       <c r="CV212" s="2">
         <v>9482</v>
       </c>
+      <c r="CW212" s="2">
+        <v>9508</v>
+      </c>
     </row>
-    <row r="213" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -65902,8 +66535,11 @@
       <c r="CV213" s="2">
         <v>161</v>
       </c>
+      <c r="CW213" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="214" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -66204,8 +66840,11 @@
       <c r="CV214" s="2">
         <v>125980</v>
       </c>
+      <c r="CW214" s="2">
+        <v>130367</v>
+      </c>
     </row>
-    <row r="215" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -66506,8 +67145,11 @@
       <c r="CV215" s="2">
         <v>5133</v>
       </c>
+      <c r="CW215" s="2">
+        <v>5175</v>
+      </c>
     </row>
-    <row r="216" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -66808,8 +67450,11 @@
       <c r="CV216" s="2">
         <v>27152</v>
       </c>
+      <c r="CW216" s="2">
+        <v>27351</v>
+      </c>
     </row>
-    <row r="217" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -67110,8 +67755,11 @@
       <c r="CV217" s="2">
         <v>2359</v>
       </c>
+      <c r="CW217" s="2">
+        <v>2364</v>
+      </c>
     </row>
-    <row r="218" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -67412,8 +68060,11 @@
       <c r="CV218" s="2">
         <v>683</v>
       </c>
+      <c r="CW218" s="2">
+        <v>685</v>
+      </c>
     </row>
-    <row r="219" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -67714,8 +68365,11 @@
       <c r="CV219" s="2">
         <v>217</v>
       </c>
+      <c r="CW219" s="2">
+        <v>227</v>
+      </c>
     </row>
-    <row r="220" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -68016,8 +68670,11 @@
       <c r="CV220" s="2">
         <v>1365</v>
       </c>
+      <c r="CW220" s="2">
+        <v>1398</v>
+      </c>
     </row>
-    <row r="221" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -68318,8 +68975,11 @@
       <c r="CV221" s="2">
         <v>3215</v>
       </c>
+      <c r="CW221" s="2">
+        <v>3228</v>
+      </c>
     </row>
-    <row r="222" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -68620,8 +69280,11 @@
       <c r="CV222" s="2">
         <v>992028</v>
       </c>
+      <c r="CW222" s="2">
+        <v>1006645</v>
+      </c>
     </row>
-    <row r="223" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -68922,8 +69585,11 @@
       <c r="CV223" s="2">
         <v>75665</v>
       </c>
+      <c r="CW223" s="2">
+        <v>76660</v>
+      </c>
     </row>
-    <row r="224" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -69224,8 +69890,11 @@
       <c r="CV224" s="2">
         <v>289</v>
       </c>
+      <c r="CW224" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="225" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -69526,8 +70195,11 @@
       <c r="CV225" s="2">
         <v>3126</v>
       </c>
+      <c r="CW225" s="2">
+        <v>3142</v>
+      </c>
     </row>
-    <row r="226" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -69828,8 +70500,11 @@
       <c r="CV226" s="2">
         <v>221</v>
       </c>
+      <c r="CW226" s="2">
+        <v>225</v>
+      </c>
     </row>
-    <row r="227" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -70130,8 +70805,11 @@
       <c r="CV227" s="2">
         <v>15582</v>
       </c>
+      <c r="CW227" s="2">
+        <v>15657</v>
+      </c>
     </row>
-    <row r="228" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -70432,8 +71110,11 @@
       <c r="CV228" s="2">
         <v>74160</v>
       </c>
+      <c r="CW228" s="2">
+        <v>74667</v>
+      </c>
     </row>
-    <row r="229" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -70734,8 +71415,11 @@
       <c r="CV229" s="2">
         <v>612891</v>
       </c>
+      <c r="CW229" s="2">
+        <v>621087</v>
+      </c>
     </row>
-    <row r="230" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -71036,8 +71720,11 @@
       <c r="CV230" s="2">
         <v>6636</v>
       </c>
+      <c r="CW230" s="2">
+        <v>6719</v>
+      </c>
     </row>
-    <row r="231" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -71338,8 +72025,11 @@
       <c r="CV231" s="2">
         <v>8747</v>
       </c>
+      <c r="CW231" s="2">
+        <v>8785</v>
+      </c>
     </row>
-    <row r="232" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -71640,8 +72330,11 @@
       <c r="CV232" s="2">
         <v>8956</v>
       </c>
+      <c r="CW232" s="2">
+        <v>9045</v>
+      </c>
     </row>
-    <row r="233" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -71942,8 +72635,11 @@
       <c r="CV233" s="2">
         <v>1515</v>
       </c>
+      <c r="CW233" s="2">
+        <v>1574</v>
+      </c>
     </row>
-    <row r="234" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -72244,8 +72940,11 @@
       <c r="CV234" s="2">
         <v>13529</v>
       </c>
+      <c r="CW234" s="2">
+        <v>13758</v>
+      </c>
     </row>
-    <row r="235" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -72546,8 +73245,11 @@
       <c r="CV235" s="2">
         <v>26313</v>
       </c>
+      <c r="CW235" s="2">
+        <v>26722</v>
+      </c>
     </row>
-    <row r="236" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -72848,8 +73550,11 @@
       <c r="CV236" s="2">
         <v>13476</v>
       </c>
+      <c r="CW236" s="2">
+        <v>13706</v>
+      </c>
     </row>
-    <row r="237" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -73150,8 +73855,11 @@
       <c r="CV237" s="2">
         <v>32328</v>
       </c>
+      <c r="CW237" s="2">
+        <v>32756</v>
+      </c>
     </row>
-    <row r="238" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -73452,8 +74160,11 @@
       <c r="CV238" s="2">
         <v>67561</v>
       </c>
+      <c r="CW238" s="2">
+        <v>67739</v>
+      </c>
     </row>
-    <row r="239" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -73754,8 +74465,11 @@
       <c r="CV239" s="2">
         <v>17851</v>
       </c>
+      <c r="CW239" s="2">
+        <v>17998</v>
+      </c>
     </row>
-    <row r="240" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -74056,8 +74770,11 @@
       <c r="CV240" s="2">
         <v>3212</v>
       </c>
+      <c r="CW240" s="2">
+        <v>3250</v>
+      </c>
     </row>
-    <row r="241" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -74358,8 +75075,11 @@
       <c r="CV241" s="2">
         <v>22792</v>
       </c>
+      <c r="CW241" s="2">
+        <v>22916</v>
+      </c>
     </row>
-    <row r="242" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -74660,8 +75380,11 @@
       <c r="CV242" s="2">
         <v>189812</v>
       </c>
+      <c r="CW242" s="2">
+        <v>193165</v>
+      </c>
     </row>
-    <row r="243" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -74962,8 +75685,11 @@
       <c r="CV243" s="2">
         <v>20535</v>
       </c>
+      <c r="CW243" s="2">
+        <v>20645</v>
+      </c>
     </row>
-    <row r="244" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -75264,8 +75990,11 @@
       <c r="CV244" s="2">
         <v>2577</v>
       </c>
+      <c r="CW244" s="2">
+        <v>2632</v>
+      </c>
     </row>
-    <row r="245" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -75566,8 +76295,11 @@
       <c r="CV245" s="2">
         <v>78146</v>
       </c>
+      <c r="CW245" s="2">
+        <v>78652</v>
+      </c>
     </row>
-    <row r="246" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -75868,8 +76600,11 @@
       <c r="CV246" s="2">
         <v>9526</v>
       </c>
+      <c r="CW246" s="2">
+        <v>9628</v>
+      </c>
     </row>
-    <row r="247" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -76170,8 +76905,11 @@
       <c r="CV247" s="2">
         <v>14169</v>
       </c>
+      <c r="CW247" s="2">
+        <v>14275</v>
+      </c>
     </row>
-    <row r="248" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -76472,8 +77210,11 @@
       <c r="CV248" s="2">
         <v>249828</v>
       </c>
+      <c r="CW248" s="2">
+        <v>253036</v>
+      </c>
     </row>
-    <row r="249" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -76774,8 +77515,11 @@
       <c r="CV249" s="2">
         <v>18168</v>
       </c>
+      <c r="CW249" s="2">
+        <v>18399</v>
+      </c>
     </row>
-    <row r="250" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -77076,8 +77820,11 @@
       <c r="CV250" s="2">
         <v>766</v>
       </c>
+      <c r="CW250" s="2">
+        <v>776</v>
+      </c>
     </row>
-    <row r="251" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -77378,8 +78125,11 @@
       <c r="CV251" s="2">
         <v>30317</v>
       </c>
+      <c r="CW251" s="2">
+        <v>30666</v>
+      </c>
     </row>
-    <row r="252" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -77680,8 +78430,11 @@
       <c r="CV252" s="2">
         <v>12730</v>
       </c>
+      <c r="CW252" s="2">
+        <v>12945</v>
+      </c>
     </row>
-    <row r="253" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -77982,8 +78735,11 @@
       <c r="CV253" s="2">
         <v>2216</v>
       </c>
+      <c r="CW253" s="2">
+        <v>2226</v>
+      </c>
     </row>
-    <row r="254" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -78284,8 +79040,11 @@
       <c r="CV254" s="2">
         <v>5473</v>
       </c>
+      <c r="CW254" s="2">
+        <v>5490</v>
+      </c>
     </row>
-    <row r="255" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -78586,8 +79345,11 @@
       <c r="CV255" s="2">
         <v>9845</v>
       </c>
+      <c r="CW255" s="2">
+        <v>9912</v>
+      </c>
     </row>
-    <row r="256" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -78888,8 +79650,11 @@
       <c r="CV256" s="2">
         <v>5196</v>
       </c>
+      <c r="CW256" s="2">
+        <v>5317</v>
+      </c>
     </row>
-    <row r="257" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -79190,8 +79955,11 @@
       <c r="CV257" s="2">
         <v>121298</v>
       </c>
+      <c r="CW257" s="2">
+        <v>122248</v>
+      </c>
     </row>
-    <row r="258" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:101" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -79495,8 +80263,11 @@
       <c r="CV258" s="8">
         <v>14483812</v>
       </c>
+      <c r="CW258" s="8">
+        <v>14642477</v>
+      </c>
     </row>
-    <row r="259" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:101" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -79523,7 +80294,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -79531,7 +80302,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -79539,7 +80310,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -79547,7 +80318,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -79555,7 +80326,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -79563,7 +80334,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -79571,7 +80342,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -79579,7 +80350,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -79587,7 +80358,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -79595,7 +80366,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -79603,7 +80374,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -79611,7 +80382,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -79619,7 +80390,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:100" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:101" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C776049-7DF3-4766-A5CD-668F12CD4479}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{502715E8-AA49-418A-B948-A3CD4F37E16B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,52 +1834,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CW513"/>
+  <dimension ref="A1:CX513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="CW258" sqref="CW258"/>
+    <sheetView tabSelected="1" topLeftCell="CM234" workbookViewId="0">
+      <selection activeCell="CU248" sqref="CU248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.46484375" customWidth="1"/>
-    <col min="27" max="27" width="9.3984375" customWidth="1"/>
-    <col min="28" max="28" width="9.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.86328125" customWidth="1"/>
-    <col min="30" max="34" width="9.46484375" customWidth="1"/>
-    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.06640625" style="5"/>
-    <col min="57" max="57" width="9.06640625" style="6"/>
-    <col min="60" max="61" width="9.06640625" style="6"/>
-    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.19921875" customWidth="1"/>
-    <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.06640625" customWidth="1"/>
-    <col min="68" max="68" width="10.6640625" customWidth="1"/>
-    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.4609375" customWidth="1"/>
+    <col min="2" max="24" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.4609375" customWidth="1"/>
+    <col min="27" max="27" width="9.3828125" customWidth="1"/>
+    <col min="28" max="28" width="9.61328125" customWidth="1"/>
+    <col min="29" max="29" width="9.84375" customWidth="1"/>
+    <col min="30" max="34" width="9.4609375" customWidth="1"/>
+    <col min="35" max="36" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.07421875" style="5"/>
+    <col min="57" max="57" width="9.07421875" style="6"/>
+    <col min="60" max="61" width="9.07421875" style="6"/>
+    <col min="62" max="62" width="9.84375" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.23046875" customWidth="1"/>
+    <col min="64" max="66" width="10.23046875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.07421875" customWidth="1"/>
+    <col min="68" max="68" width="10.69140625" customWidth="1"/>
+    <col min="69" max="69" width="10.4609375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
-    <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.73046875" style="6" customWidth="1"/>
-    <col min="74" max="74" width="10.59765625" customWidth="1"/>
+    <col min="71" max="71" width="10.53515625" style="6" customWidth="1"/>
+    <col min="72" max="72" width="10.23046875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.69140625" style="6" customWidth="1"/>
+    <col min="74" max="74" width="10.61328125" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.06640625" customWidth="1"/>
-    <col min="80" max="80" width="10.265625" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" customWidth="1"/>
-    <col min="82" max="90" width="10.796875" style="7" customWidth="1"/>
-    <col min="91" max="101" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.07421875" customWidth="1"/>
+    <col min="80" max="80" width="10.23046875" style="7" customWidth="1"/>
+    <col min="81" max="81" width="10.3046875" customWidth="1"/>
+    <col min="82" max="90" width="10.765625" style="7" customWidth="1"/>
+    <col min="91" max="102" width="9.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2183,8 +2183,11 @@
       <c r="CW2" s="4">
         <v>44186</v>
       </c>
+      <c r="CX2" s="4">
+        <v>44187</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2488,8 +2491,11 @@
       <c r="CW3" s="2">
         <v>41961</v>
       </c>
+      <c r="CX3" s="2">
+        <v>42280</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2793,8 +2799,11 @@
       <c r="CW4" s="2">
         <v>4676</v>
       </c>
+      <c r="CX4" s="2">
+        <v>4692</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3098,8 +3107,11 @@
       <c r="CW5" s="2">
         <v>43743</v>
       </c>
+      <c r="CX5" s="2">
+        <v>43978</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3403,8 +3415,11 @@
       <c r="CW6" s="2">
         <v>7981</v>
       </c>
+      <c r="CX6" s="2">
+        <v>8139</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3708,8 +3723,11 @@
       <c r="CW7" s="2">
         <v>2137</v>
       </c>
+      <c r="CX7" s="2">
+        <v>2152</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4013,8 +4031,11 @@
       <c r="CW8" s="2">
         <v>603</v>
       </c>
+      <c r="CX8" s="2">
+        <v>603</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4318,8 +4339,11 @@
       <c r="CW9" s="2">
         <v>22992</v>
       </c>
+      <c r="CX9" s="2">
+        <v>23099</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4623,8 +4647,11 @@
       <c r="CW10" s="2">
         <v>11393</v>
       </c>
+      <c r="CX10" s="2">
+        <v>11433</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4928,8 +4955,11 @@
       <c r="CW11" s="2">
         <v>1787</v>
       </c>
+      <c r="CX11" s="2">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5233,8 +5263,11 @@
       <c r="CW12" s="2">
         <v>6113</v>
       </c>
+      <c r="CX12" s="2">
+        <v>6196</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5538,8 +5571,11 @@
       <c r="CW13" s="2">
         <v>34975</v>
       </c>
+      <c r="CX13" s="2">
+        <v>35352</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5843,8 +5879,11 @@
       <c r="CW14" s="2">
         <v>1278</v>
       </c>
+      <c r="CX14" s="2">
+        <v>1427</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6148,8 +6187,11 @@
       <c r="CW15" s="2">
         <v>28294</v>
       </c>
+      <c r="CX15" s="2">
+        <v>28373</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6453,8 +6495,11 @@
       <c r="CW16" s="2">
         <v>162556</v>
       </c>
+      <c r="CX16" s="2">
+        <v>163298</v>
+      </c>
     </row>
-    <row r="17" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6758,8 +6803,11 @@
       <c r="CW17" s="2">
         <v>959445</v>
       </c>
+      <c r="CX17" s="2">
+        <v>966179</v>
+      </c>
     </row>
-    <row r="18" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7063,8 +7111,11 @@
       <c r="CW18" s="2">
         <v>3741</v>
       </c>
+      <c r="CX18" s="2">
+        <v>3777</v>
+      </c>
     </row>
-    <row r="19" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7368,8 +7419,11 @@
       <c r="CW19" s="2">
         <v>100</v>
       </c>
+      <c r="CX19" s="2">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7673,8 +7727,11 @@
       <c r="CW20" s="2">
         <v>9562</v>
       </c>
+      <c r="CX20" s="2">
+        <v>9602</v>
+      </c>
     </row>
-    <row r="21" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -7978,8 +8035,11 @@
       <c r="CW21" s="2">
         <v>54022</v>
       </c>
+      <c r="CX21" s="2">
+        <v>54411</v>
+      </c>
     </row>
-    <row r="22" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8283,8 +8343,11 @@
       <c r="CW22" s="2">
         <v>209951</v>
       </c>
+      <c r="CX22" s="2">
+        <v>210850</v>
+      </c>
     </row>
-    <row r="23" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8588,8 +8651,11 @@
       <c r="CW23" s="2">
         <v>148459</v>
       </c>
+      <c r="CX23" s="2">
+        <v>149847</v>
+      </c>
     </row>
-    <row r="24" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8893,8 +8959,11 @@
       <c r="CW24" s="2">
         <v>7504</v>
       </c>
+      <c r="CX24" s="2">
+        <v>7508</v>
+      </c>
     </row>
-    <row r="25" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9198,8 +9267,11 @@
       <c r="CW25" s="2">
         <v>482</v>
       </c>
+      <c r="CX25" s="2">
+        <v>482</v>
+      </c>
     </row>
-    <row r="26" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9503,8 +9575,11 @@
       <c r="CW26" s="2">
         <v>10181</v>
       </c>
+      <c r="CX26" s="2">
+        <v>10182</v>
+      </c>
     </row>
-    <row r="27" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9808,8 +9883,11 @@
       <c r="CW27" s="2">
         <v>19615</v>
       </c>
+      <c r="CX27" s="2">
+        <v>19706</v>
+      </c>
     </row>
-    <row r="28" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10113,8 +10191,11 @@
       <c r="CW28" s="2">
         <v>8675</v>
       </c>
+      <c r="CX28" s="2">
+        <v>8772</v>
+      </c>
     </row>
-    <row r="29" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10418,8 +10499,11 @@
       <c r="CW29" s="2">
         <v>21175</v>
       </c>
+      <c r="CX29" s="2">
+        <v>21414</v>
+      </c>
     </row>
-    <row r="30" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10723,8 +10807,11 @@
       <c r="CW30" s="2">
         <v>20229</v>
       </c>
+      <c r="CX30" s="2">
+        <v>20503</v>
+      </c>
     </row>
-    <row r="31" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11028,8 +11115,11 @@
       <c r="CW31" s="2">
         <v>10381</v>
       </c>
+      <c r="CX31" s="2">
+        <v>10383</v>
+      </c>
     </row>
-    <row r="32" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11333,8 +11423,11 @@
       <c r="CW32" s="2">
         <v>5832</v>
       </c>
+      <c r="CX32" s="2">
+        <v>5884</v>
+      </c>
     </row>
-    <row r="33" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11638,8 +11731,11 @@
       <c r="CW33" s="2">
         <v>178061</v>
       </c>
+      <c r="CX33" s="2">
+        <v>179155</v>
+      </c>
     </row>
-    <row r="34" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -11943,8 +12039,11 @@
       <c r="CW34" s="2">
         <v>4031</v>
       </c>
+      <c r="CX34" s="2">
+        <v>4063</v>
+      </c>
     </row>
-    <row r="35" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12248,8 +12347,11 @@
       <c r="CW35" s="2">
         <v>1679</v>
       </c>
+      <c r="CX35" s="2">
+        <v>1681</v>
+      </c>
     </row>
-    <row r="36" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12553,8 +12655,11 @@
       <c r="CW36" s="2">
         <v>12078</v>
       </c>
+      <c r="CX36" s="2">
+        <v>12137</v>
+      </c>
     </row>
-    <row r="37" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12858,8 +12963,11 @@
       <c r="CW37" s="2">
         <v>4060</v>
       </c>
+      <c r="CX37" s="2">
+        <v>4062</v>
+      </c>
     </row>
-    <row r="38" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13163,8 +13271,11 @@
       <c r="CW38" s="2">
         <v>6351</v>
       </c>
+      <c r="CX38" s="2">
+        <v>6389</v>
+      </c>
     </row>
-    <row r="39" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13468,8 +13579,11 @@
       <c r="CW39" s="2">
         <v>18289</v>
       </c>
+      <c r="CX39" s="2">
+        <v>18366</v>
+      </c>
     </row>
-    <row r="40" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13773,8 +13887,11 @@
       <c r="CW40" s="2">
         <v>4541</v>
       </c>
+      <c r="CX40" s="2">
+        <v>4548</v>
+      </c>
     </row>
-    <row r="41" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14078,8 +14195,11 @@
       <c r="CW41" s="2">
         <v>3073</v>
       </c>
+      <c r="CX41" s="2">
+        <v>3133</v>
+      </c>
     </row>
-    <row r="42" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14383,8 +14503,11 @@
       <c r="CW42" s="2">
         <v>758</v>
       </c>
+      <c r="CX42" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="43" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14688,8 +14811,11 @@
       <c r="CW43" s="2">
         <v>2411</v>
       </c>
+      <c r="CX43" s="2">
+        <v>2428</v>
+      </c>
     </row>
-    <row r="44" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -14993,8 +15119,11 @@
       <c r="CW44" s="2">
         <v>3005</v>
       </c>
+      <c r="CX44" s="2">
+        <v>3016</v>
+      </c>
     </row>
-    <row r="45" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15298,8 +15427,11 @@
       <c r="CW45" s="2">
         <v>587773</v>
       </c>
+      <c r="CX45" s="2">
+        <v>590898</v>
+      </c>
     </row>
-    <row r="46" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15603,8 +15735,11 @@
       <c r="CW46" s="2">
         <v>1392</v>
       </c>
+      <c r="CX46" s="2">
+        <v>1395</v>
+      </c>
     </row>
-    <row r="47" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -15908,8 +16043,11 @@
       <c r="CW47" s="2">
         <v>9975</v>
       </c>
+      <c r="CX47" s="2">
+        <v>10080</v>
+      </c>
     </row>
-    <row r="48" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16213,8 +16351,11 @@
       <c r="CW48" s="2">
         <v>64722</v>
       </c>
+      <c r="CX48" s="2">
+        <v>65157</v>
+      </c>
     </row>
-    <row r="49" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16518,8 +16659,11 @@
       <c r="CW49" s="2">
         <v>6436</v>
       </c>
+      <c r="CX49" s="2">
+        <v>6446</v>
+      </c>
     </row>
-    <row r="50" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16823,8 +16967,11 @@
       <c r="CW50" s="2">
         <v>1790</v>
       </c>
+      <c r="CX50" s="2">
+        <v>1799</v>
+      </c>
     </row>
-    <row r="51" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -17128,8 +17275,11 @@
       <c r="CW51" s="2">
         <v>17967</v>
       </c>
+      <c r="CX51" s="2">
+        <v>18001</v>
+      </c>
     </row>
-    <row r="52" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17433,8 +17583,11 @@
       <c r="CW52" s="2">
         <v>61816</v>
       </c>
+      <c r="CX52" s="2">
+        <v>62030</v>
+      </c>
     </row>
-    <row r="53" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17738,8 +17891,11 @@
       <c r="CW53" s="2">
         <v>903</v>
       </c>
+      <c r="CX53" s="2">
+        <v>903</v>
+      </c>
     </row>
-    <row r="54" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18043,8 +18199,11 @@
       <c r="CW54" s="2">
         <v>3424</v>
       </c>
+      <c r="CX54" s="2">
+        <v>3427</v>
+      </c>
     </row>
-    <row r="55" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18348,8 +18507,11 @@
       <c r="CW55" s="2">
         <v>1899</v>
       </c>
+      <c r="CX55" s="2">
+        <v>1914</v>
+      </c>
     </row>
-    <row r="56" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18653,8 +18815,11 @@
       <c r="CW56" s="2">
         <v>2832</v>
       </c>
+      <c r="CX56" s="2">
+        <v>2839</v>
+      </c>
     </row>
-    <row r="57" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -18958,8 +19123,11 @@
       <c r="CW57" s="2">
         <v>1638</v>
       </c>
+      <c r="CX57" s="2">
+        <v>1640</v>
+      </c>
     </row>
-    <row r="58" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -19263,8 +19431,11 @@
       <c r="CW58" s="2">
         <v>1484</v>
       </c>
+      <c r="CX58" s="2">
+        <v>1484</v>
+      </c>
     </row>
-    <row r="59" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19568,8 +19739,11 @@
       <c r="CW59" s="2">
         <v>1518755</v>
       </c>
+      <c r="CX59" s="2">
+        <v>1525772</v>
+      </c>
     </row>
-    <row r="60" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -19873,8 +20047,11 @@
       <c r="CW60" s="2">
         <v>6852</v>
       </c>
+      <c r="CX60" s="2">
+        <v>6866</v>
+      </c>
     </row>
-    <row r="61" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -20178,8 +20355,11 @@
       <c r="CW61" s="2">
         <v>7050</v>
       </c>
+      <c r="CX61" s="2">
+        <v>7059</v>
+      </c>
     </row>
-    <row r="62" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -20483,8 +20663,11 @@
       <c r="CW62" s="2">
         <v>4935</v>
       </c>
+      <c r="CX62" s="2">
+        <v>4958</v>
+      </c>
     </row>
-    <row r="63" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20788,8 +20971,11 @@
       <c r="CW63" s="2">
         <v>1806</v>
       </c>
+      <c r="CX63" s="2">
+        <v>1813</v>
+      </c>
     </row>
-    <row r="64" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -21093,8 +21279,11 @@
       <c r="CW64" s="2">
         <v>366516</v>
       </c>
+      <c r="CX64" s="2">
+        <v>368795</v>
+      </c>
     </row>
-    <row r="65" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21398,8 +21587,11 @@
       <c r="CW65" s="2">
         <v>553</v>
       </c>
+      <c r="CX65" s="2">
+        <v>554</v>
+      </c>
     </row>
-    <row r="66" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -21703,8 +21895,11 @@
       <c r="CW66" s="2">
         <v>4927</v>
       </c>
+      <c r="CX66" s="2">
+        <v>5010</v>
+      </c>
     </row>
-    <row r="67" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -22008,8 +22203,11 @@
       <c r="CW67" s="2">
         <v>1467</v>
       </c>
+      <c r="CX67" s="2">
+        <v>1470</v>
+      </c>
     </row>
-    <row r="68" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -22313,8 +22511,11 @@
       <c r="CW68" s="2">
         <v>12549</v>
       </c>
+      <c r="CX68" s="2">
+        <v>12626</v>
+      </c>
     </row>
-    <row r="69" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22618,8 +22819,11 @@
       <c r="CW69" s="2">
         <v>5086</v>
       </c>
+      <c r="CX69" s="2">
+        <v>5117</v>
+      </c>
     </row>
-    <row r="70" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22923,8 +23127,11 @@
       <c r="CW70" s="2">
         <v>53316</v>
       </c>
+      <c r="CX70" s="2">
+        <v>53478</v>
+      </c>
     </row>
-    <row r="71" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -23228,8 +23435,11 @@
       <c r="CW71" s="2">
         <v>1046</v>
       </c>
+      <c r="CX71" s="2">
+        <v>1048</v>
+      </c>
     </row>
-    <row r="72" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -23533,8 +23743,11 @@
       <c r="CW72" s="2">
         <v>614800</v>
       </c>
+      <c r="CX72" s="2">
+        <v>615687</v>
+      </c>
     </row>
-    <row r="73" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -23838,8 +24051,11 @@
       <c r="CW73" s="2">
         <v>100541</v>
       </c>
+      <c r="CX73" s="2">
+        <v>101102</v>
+      </c>
     </row>
-    <row r="74" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -24143,8 +24359,11 @@
       <c r="CW74" s="2">
         <v>14924</v>
       </c>
+      <c r="CX74" s="2">
+        <v>14987</v>
+      </c>
     </row>
-    <row r="75" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -24448,8 +24667,11 @@
       <c r="CW75" s="2">
         <v>9810</v>
       </c>
+      <c r="CX75" s="2">
+        <v>9860</v>
+      </c>
     </row>
-    <row r="76" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -24753,8 +24975,11 @@
       <c r="CW76" s="2">
         <v>17320</v>
       </c>
+      <c r="CX76" s="2">
+        <v>17413</v>
+      </c>
     </row>
-    <row r="77" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -25058,8 +25283,11 @@
       <c r="CW77" s="2">
         <v>10300</v>
       </c>
+      <c r="CX77" s="2">
+        <v>10337</v>
+      </c>
     </row>
-    <row r="78" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -25363,8 +25591,11 @@
       <c r="CW78" s="2">
         <v>1111</v>
       </c>
+      <c r="CX78" s="2">
+        <v>1120</v>
+      </c>
     </row>
-    <row r="79" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -25668,8 +25899,11 @@
       <c r="CW79" s="2">
         <v>1924</v>
       </c>
+      <c r="CX79" s="2">
+        <v>1930</v>
+      </c>
     </row>
-    <row r="80" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -25973,8 +26207,11 @@
       <c r="CW80" s="2">
         <v>652</v>
       </c>
+      <c r="CX80" s="2">
+        <v>658</v>
+      </c>
     </row>
-    <row r="81" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -26278,8 +26515,11 @@
       <c r="CW81" s="2">
         <v>390471</v>
       </c>
+      <c r="CX81" s="2">
+        <v>392295</v>
+      </c>
     </row>
-    <row r="82" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -26583,8 +26823,11 @@
       <c r="CW82" s="2">
         <v>3224</v>
       </c>
+      <c r="CX82" s="2">
+        <v>3248</v>
+      </c>
     </row>
-    <row r="83" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -26888,8 +27131,11 @@
       <c r="CW83" s="2">
         <v>11339</v>
       </c>
+      <c r="CX83" s="2">
+        <v>11430</v>
+      </c>
     </row>
-    <row r="84" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -27193,8 +27439,11 @@
       <c r="CW84" s="2">
         <v>10474</v>
       </c>
+      <c r="CX84" s="2">
+        <v>10502</v>
+      </c>
     </row>
-    <row r="85" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -27498,8 +27747,11 @@
       <c r="CW85" s="2">
         <v>3270</v>
       </c>
+      <c r="CX85" s="2">
+        <v>3279</v>
+      </c>
     </row>
-    <row r="86" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -27803,8 +28055,11 @@
       <c r="CW86" s="2">
         <v>227740</v>
       </c>
+      <c r="CX86" s="2">
+        <v>229021</v>
+      </c>
     </row>
-    <row r="87" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -28108,8 +28363,11 @@
       <c r="CW87" s="2">
         <v>2045</v>
       </c>
+      <c r="CX87" s="2">
+        <v>2065</v>
+      </c>
     </row>
-    <row r="88" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -28413,8 +28671,11 @@
       <c r="CW88" s="2">
         <v>12437</v>
       </c>
+      <c r="CX88" s="2">
+        <v>13012</v>
+      </c>
     </row>
-    <row r="89" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -28718,8 +28979,11 @@
       <c r="CW89" s="2">
         <v>138</v>
       </c>
+      <c r="CX89" s="2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="90" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -29023,8 +29287,11 @@
       <c r="CW90" s="2">
         <v>2586</v>
       </c>
+      <c r="CX90" s="2">
+        <v>2589</v>
+      </c>
     </row>
-    <row r="91" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -29328,8 +29595,11 @@
       <c r="CW91" s="2">
         <v>9728</v>
       </c>
+      <c r="CX91" s="2">
+        <v>9763</v>
+      </c>
     </row>
-    <row r="92" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -29633,8 +29903,11 @@
       <c r="CW92" s="2">
         <v>6584</v>
       </c>
+      <c r="CX92" s="2">
+        <v>6595</v>
+      </c>
     </row>
-    <row r="93" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -29938,8 +30211,11 @@
       <c r="CW93" s="2">
         <v>66335</v>
       </c>
+      <c r="CX93" s="2">
+        <v>66574</v>
+      </c>
     </row>
-    <row r="94" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -30243,8 +30519,11 @@
       <c r="CW94" s="2">
         <v>43220</v>
       </c>
+      <c r="CX94" s="2">
+        <v>43474</v>
+      </c>
     </row>
-    <row r="95" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -30548,8 +30827,11 @@
       <c r="CW95" s="2">
         <v>16320</v>
       </c>
+      <c r="CX95" s="2">
+        <v>16387</v>
+      </c>
     </row>
-    <row r="96" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -30853,8 +31135,11 @@
       <c r="CW96" s="2">
         <v>48132</v>
       </c>
+      <c r="CX96" s="2">
+        <v>48439</v>
+      </c>
     </row>
-    <row r="97" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -31158,8 +31443,11 @@
       <c r="CW97" s="2">
         <v>10805</v>
       </c>
+      <c r="CX97" s="2">
+        <v>10831</v>
+      </c>
     </row>
-    <row r="98" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -31463,8 +31751,11 @@
       <c r="CW98" s="2">
         <v>1896</v>
       </c>
+      <c r="CX98" s="2">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="99" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -31768,8 +32059,11 @@
       <c r="CW99" s="2">
         <v>3807</v>
       </c>
+      <c r="CX99" s="2">
+        <v>3820</v>
+      </c>
     </row>
-    <row r="100" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -32073,8 +32367,11 @@
       <c r="CW100" s="2">
         <v>2059</v>
       </c>
+      <c r="CX100" s="2">
+        <v>2060</v>
+      </c>
     </row>
-    <row r="101" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -32378,8 +32675,11 @@
       <c r="CW101" s="2">
         <v>1531</v>
       </c>
+      <c r="CX101" s="2">
+        <v>1536</v>
+      </c>
     </row>
-    <row r="102" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -32683,8 +32983,11 @@
       <c r="CW102" s="2">
         <v>16507</v>
       </c>
+      <c r="CX102" s="2">
+        <v>16560</v>
+      </c>
     </row>
-    <row r="103" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -32988,8 +33291,11 @@
       <c r="CW103" s="2">
         <v>2451860</v>
       </c>
+      <c r="CX103" s="2">
+        <v>2464559</v>
+      </c>
     </row>
-    <row r="104" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -33293,8 +33599,11 @@
       <c r="CW104" s="2">
         <v>45468</v>
       </c>
+      <c r="CX104" s="2">
+        <v>45719</v>
+      </c>
     </row>
-    <row r="105" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -33598,8 +33907,11 @@
       <c r="CW105" s="2">
         <v>138</v>
       </c>
+      <c r="CX105" s="2">
+        <v>138</v>
+      </c>
     </row>
-    <row r="106" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -33903,8 +34215,11 @@
       <c r="CW106" s="2">
         <v>1758</v>
       </c>
+      <c r="CX106" s="2">
+        <v>1762</v>
+      </c>
     </row>
-    <row r="107" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -34208,8 +34523,11 @@
       <c r="CW107" s="2">
         <v>135347</v>
       </c>
+      <c r="CX107" s="2">
+        <v>136781</v>
+      </c>
     </row>
-    <row r="108" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -34513,8 +34831,11 @@
       <c r="CW108" s="2">
         <v>984</v>
       </c>
+      <c r="CX108" s="2">
+        <v>985</v>
+      </c>
     </row>
-    <row r="109" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -34818,8 +35139,11 @@
       <c r="CW109" s="2">
         <v>20902</v>
       </c>
+      <c r="CX109" s="2">
+        <v>21124</v>
+      </c>
     </row>
-    <row r="110" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -35123,8 +35447,11 @@
       <c r="CW110" s="2">
         <v>325008</v>
       </c>
+      <c r="CX110" s="2">
+        <v>327072</v>
+      </c>
     </row>
-    <row r="111" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -35428,8 +35755,11 @@
       <c r="CW111" s="2">
         <v>26067</v>
       </c>
+      <c r="CX111" s="2">
+        <v>26288</v>
+      </c>
     </row>
-    <row r="112" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -35733,8 +36063,11 @@
       <c r="CW112" s="2">
         <v>7494</v>
       </c>
+      <c r="CX112" s="2">
+        <v>7525</v>
+      </c>
     </row>
-    <row r="113" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -36038,8 +36371,11 @@
       <c r="CW113" s="2">
         <v>31948</v>
       </c>
+      <c r="CX113" s="2">
+        <v>32180</v>
+      </c>
     </row>
-    <row r="114" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -36343,8 +36679,11 @@
       <c r="CW114" s="2">
         <v>12977</v>
       </c>
+      <c r="CX114" s="2">
+        <v>13048</v>
+      </c>
     </row>
-    <row r="115" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -36648,8 +36987,11 @@
       <c r="CW115" s="2">
         <v>12023</v>
       </c>
+      <c r="CX115" s="2">
+        <v>12188</v>
+      </c>
     </row>
-    <row r="116" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -36953,8 +37295,11 @@
       <c r="CW116" s="2">
         <v>11745</v>
       </c>
+      <c r="CX116" s="2">
+        <v>11770</v>
+      </c>
     </row>
-    <row r="117" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -37258,8 +37603,11 @@
       <c r="CW117" s="2">
         <v>2084</v>
       </c>
+      <c r="CX117" s="2">
+        <v>2087</v>
+      </c>
     </row>
-    <row r="118" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -37563,8 +37911,11 @@
       <c r="CW118" s="2">
         <v>48206</v>
       </c>
+      <c r="CX118" s="2">
+        <v>48379</v>
+      </c>
     </row>
-    <row r="119" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -37868,8 +38219,11 @@
       <c r="CW119" s="2">
         <v>8443</v>
       </c>
+      <c r="CX119" s="2">
+        <v>8447</v>
+      </c>
     </row>
-    <row r="120" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -38173,8 +38527,11 @@
       <c r="CW120" s="2">
         <v>382</v>
       </c>
+      <c r="CX120" s="2">
+        <v>386</v>
+      </c>
     </row>
-    <row r="121" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -38478,8 +38835,11 @@
       <c r="CW121" s="2">
         <v>1203</v>
       </c>
+      <c r="CX121" s="2">
+        <v>1228</v>
+      </c>
     </row>
-    <row r="122" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -38783,8 +39143,11 @@
       <c r="CW122" s="2">
         <v>5447</v>
       </c>
+      <c r="CX122" s="2">
+        <v>5451</v>
+      </c>
     </row>
-    <row r="123" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -39088,8 +39451,11 @@
       <c r="CW123" s="2">
         <v>11175</v>
       </c>
+      <c r="CX123" s="2">
+        <v>11242</v>
+      </c>
     </row>
-    <row r="124" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -39393,8 +39759,11 @@
       <c r="CW124" s="2">
         <v>1322</v>
       </c>
+      <c r="CX124" s="2">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="125" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -39698,8 +40067,11 @@
       <c r="CW125" s="2">
         <v>132332</v>
       </c>
+      <c r="CX125" s="2">
+        <v>132684</v>
+      </c>
     </row>
-    <row r="126" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -40003,8 +40375,11 @@
       <c r="CW126" s="2">
         <v>7217</v>
       </c>
+      <c r="CX126" s="2">
+        <v>7226</v>
+      </c>
     </row>
-    <row r="127" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -40308,8 +40683,11 @@
       <c r="CW127" s="2">
         <v>40432</v>
       </c>
+      <c r="CX127" s="2">
+        <v>40538</v>
+      </c>
     </row>
-    <row r="128" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -40613,8 +40991,11 @@
       <c r="CW128" s="2">
         <v>78253</v>
       </c>
+      <c r="CX128" s="2">
+        <v>78670</v>
+      </c>
     </row>
-    <row r="129" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -40918,8 +41299,11 @@
       <c r="CW129" s="2">
         <v>5381</v>
       </c>
+      <c r="CX129" s="2">
+        <v>5391</v>
+      </c>
     </row>
-    <row r="130" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -41223,8 +41607,11 @@
       <c r="CW130" s="2">
         <v>11076</v>
       </c>
+      <c r="CX130" s="2">
+        <v>11104</v>
+      </c>
     </row>
-    <row r="131" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -41528,8 +41915,11 @@
       <c r="CW131" s="2">
         <v>67641</v>
       </c>
+      <c r="CX131" s="2">
+        <v>67947</v>
+      </c>
     </row>
-    <row r="132" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -41833,8 +42223,11 @@
       <c r="CW132" s="2">
         <v>15945</v>
       </c>
+      <c r="CX132" s="2">
+        <v>16129</v>
+      </c>
     </row>
-    <row r="133" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -42138,8 +42531,11 @@
       <c r="CW133" s="2">
         <v>149</v>
       </c>
+      <c r="CX133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -42443,8 +42839,11 @@
       <c r="CW134" s="2">
         <v>397</v>
       </c>
+      <c r="CX134" s="2">
+        <v>397</v>
+      </c>
     </row>
-    <row r="135" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -42748,8 +43147,11 @@
       <c r="CW135" s="2">
         <v>30528</v>
       </c>
+      <c r="CX135" s="2">
+        <v>30696</v>
+      </c>
     </row>
-    <row r="136" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -43053,8 +43455,11 @@
       <c r="CW136" s="2">
         <v>1495</v>
       </c>
+      <c r="CX136" s="2">
+        <v>1498</v>
+      </c>
     </row>
-    <row r="137" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -43358,8 +43763,11 @@
       <c r="CW137" s="2">
         <v>37</v>
       </c>
+      <c r="CX137" s="2">
+        <v>37</v>
+      </c>
     </row>
-    <row r="138" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -43663,8 +44071,11 @@
       <c r="CW138" s="2">
         <v>1160</v>
       </c>
+      <c r="CX138" s="2">
+        <v>1168</v>
+      </c>
     </row>
-    <row r="139" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -43968,8 +44379,11 @@
       <c r="CW139" s="2">
         <v>22612</v>
       </c>
+      <c r="CX139" s="2">
+        <v>22697</v>
+      </c>
     </row>
-    <row r="140" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -44273,8 +44687,11 @@
       <c r="CW140" s="2">
         <v>1776</v>
       </c>
+      <c r="CX140" s="2">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="141" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -44578,8 +44995,11 @@
       <c r="CW141" s="2">
         <v>4922</v>
       </c>
+      <c r="CX141" s="2">
+        <v>4973</v>
+      </c>
     </row>
-    <row r="142" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -44883,8 +45303,11 @@
       <c r="CW142" s="2">
         <v>15939</v>
       </c>
+      <c r="CX142" s="2">
+        <v>16020</v>
+      </c>
     </row>
-    <row r="143" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -45188,8 +45611,11 @@
       <c r="CW143" s="2">
         <v>6699</v>
       </c>
+      <c r="CX143" s="2">
+        <v>6732</v>
+      </c>
     </row>
-    <row r="144" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -45493,8 +45919,11 @@
       <c r="CW144" s="2">
         <v>11881</v>
       </c>
+      <c r="CX144" s="2">
+        <v>12047</v>
+      </c>
     </row>
-    <row r="145" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -45798,8 +46227,11 @@
       <c r="CW145" s="2">
         <v>9337</v>
       </c>
+      <c r="CX145" s="2">
+        <v>9368</v>
+      </c>
     </row>
-    <row r="146" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -46103,8 +46535,11 @@
       <c r="CW146" s="2">
         <v>5892</v>
       </c>
+      <c r="CX146" s="2">
+        <v>5916</v>
+      </c>
     </row>
-    <row r="147" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -46408,8 +46843,11 @@
       <c r="CW147" s="2">
         <v>6692</v>
       </c>
+      <c r="CX147" s="2">
+        <v>6721</v>
+      </c>
     </row>
-    <row r="148" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -46713,8 +47151,11 @@
       <c r="CW148" s="2">
         <v>35467</v>
       </c>
+      <c r="CX148" s="2">
+        <v>35627</v>
+      </c>
     </row>
-    <row r="149" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -47018,8 +47459,11 @@
       <c r="CW149" s="2">
         <v>18947</v>
       </c>
+      <c r="CX149" s="2">
+        <v>19115</v>
+      </c>
     </row>
-    <row r="150" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -47323,8 +47767,11 @@
       <c r="CW150" s="2">
         <v>261</v>
       </c>
+      <c r="CX150" s="2">
+        <v>267</v>
+      </c>
     </row>
-    <row r="151" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -47628,8 +48075,11 @@
       <c r="CW151" s="2">
         <v>3631</v>
       </c>
+      <c r="CX151" s="2">
+        <v>3654</v>
+      </c>
     </row>
-    <row r="152" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -47933,8 +48383,11 @@
       <c r="CW152" s="2">
         <v>7226</v>
       </c>
+      <c r="CX152" s="2">
+        <v>7275</v>
+      </c>
     </row>
-    <row r="153" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -48238,8 +48691,11 @@
       <c r="CW153" s="2">
         <v>23</v>
       </c>
+      <c r="CX153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -48543,8 +48999,11 @@
       <c r="CW154" s="2">
         <v>206970</v>
       </c>
+      <c r="CX154" s="2">
+        <v>207938</v>
+      </c>
     </row>
-    <row r="155" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -48848,8 +49307,11 @@
       <c r="CW155" s="2">
         <v>3024</v>
       </c>
+      <c r="CX155" s="2">
+        <v>3040</v>
+      </c>
     </row>
-    <row r="156" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -49153,8 +49615,11 @@
       <c r="CW156" s="2">
         <v>9840</v>
       </c>
+      <c r="CX156" s="2">
+        <v>9854</v>
+      </c>
     </row>
-    <row r="157" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -49458,8 +49923,11 @@
       <c r="CW157" s="2">
         <v>2310</v>
       </c>
+      <c r="CX157" s="2">
+        <v>2321</v>
+      </c>
     </row>
-    <row r="158" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -49763,8 +50231,11 @@
       <c r="CW158" s="2">
         <v>1270</v>
       </c>
+      <c r="CX158" s="2">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="159" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -50068,8 +50539,11 @@
       <c r="CW159" s="2">
         <v>1573</v>
       </c>
+      <c r="CX159" s="2">
+        <v>1598</v>
+      </c>
     </row>
-    <row r="160" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -50373,8 +50847,11 @@
       <c r="CW160" s="2">
         <v>16615</v>
       </c>
+      <c r="CX160" s="2">
+        <v>16665</v>
+      </c>
     </row>
-    <row r="161" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -50678,8 +51155,11 @@
       <c r="CW161" s="2">
         <v>36028</v>
       </c>
+      <c r="CX161" s="2">
+        <v>36321</v>
+      </c>
     </row>
-    <row r="162" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -50983,8 +51463,11 @@
       <c r="CW162" s="2">
         <v>2296</v>
       </c>
+      <c r="CX162" s="2">
+        <v>2315</v>
+      </c>
     </row>
-    <row r="163" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -51288,8 +51771,11 @@
       <c r="CW163" s="2">
         <v>189231</v>
       </c>
+      <c r="CX163" s="2">
+        <v>190290</v>
+      </c>
     </row>
-    <row r="164" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -51593,8 +52079,11 @@
       <c r="CW164" s="2">
         <v>277</v>
       </c>
+      <c r="CX164" s="2">
+        <v>278</v>
+      </c>
     </row>
-    <row r="165" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -51898,8 +52387,11 @@
       <c r="CW165" s="2">
         <v>17907</v>
       </c>
+      <c r="CX165" s="2">
+        <v>18009</v>
+      </c>
     </row>
-    <row r="166" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -52203,8 +52695,11 @@
       <c r="CW166" s="2">
         <v>1776</v>
       </c>
+      <c r="CX166" s="2">
+        <v>1784</v>
+      </c>
     </row>
-    <row r="167" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -52508,8 +53003,11 @@
       <c r="CW167" s="2">
         <v>52386</v>
       </c>
+      <c r="CX167" s="2">
+        <v>52622</v>
+      </c>
     </row>
-    <row r="168" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -52813,8 +53311,11 @@
       <c r="CW168" s="2">
         <v>12319</v>
       </c>
+      <c r="CX168" s="2">
+        <v>12417</v>
+      </c>
     </row>
-    <row r="169" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -53118,8 +53619,11 @@
       <c r="CW169" s="2">
         <v>3453</v>
       </c>
+      <c r="CX169" s="2">
+        <v>3458</v>
+      </c>
     </row>
-    <row r="170" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -53423,8 +53927,11 @@
       <c r="CW170" s="2">
         <v>4815</v>
       </c>
+      <c r="CX170" s="2">
+        <v>4834</v>
+      </c>
     </row>
-    <row r="171" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -53728,8 +54235,11 @@
       <c r="CW171" s="2">
         <v>8108</v>
       </c>
+      <c r="CX171" s="2">
+        <v>8143</v>
+      </c>
     </row>
-    <row r="172" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -54033,8 +54543,11 @@
       <c r="CW172" s="2">
         <v>227999</v>
       </c>
+      <c r="CX172" s="2">
+        <v>230045</v>
+      </c>
     </row>
-    <row r="173" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -54338,8 +54851,11 @@
       <c r="CW173" s="2">
         <v>6979</v>
       </c>
+      <c r="CX173" s="2">
+        <v>6980</v>
+      </c>
     </row>
-    <row r="174" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -54643,8 +55159,11 @@
       <c r="CW174" s="2">
         <v>5093</v>
       </c>
+      <c r="CX174" s="2">
+        <v>5110</v>
+      </c>
     </row>
-    <row r="175" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -54948,8 +55467,11 @@
       <c r="CW175" s="2">
         <v>463</v>
       </c>
+      <c r="CX175" s="2">
+        <v>463</v>
+      </c>
     </row>
-    <row r="176" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -55253,8 +55775,11 @@
       <c r="CW176" s="2">
         <v>30101</v>
       </c>
+      <c r="CX176" s="2">
+        <v>30246</v>
+      </c>
     </row>
-    <row r="177" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -55558,8 +56083,11 @@
       <c r="CW177" s="2">
         <v>21956</v>
       </c>
+      <c r="CX177" s="2">
+        <v>22061</v>
+      </c>
     </row>
-    <row r="178" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -55863,8 +56391,11 @@
       <c r="CW178" s="2">
         <v>3335</v>
       </c>
+      <c r="CX178" s="2">
+        <v>3351</v>
+      </c>
     </row>
-    <row r="179" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -56168,8 +56699,11 @@
       <c r="CW179" s="2">
         <v>6553</v>
       </c>
+      <c r="CX179" s="2">
+        <v>6690</v>
+      </c>
     </row>
-    <row r="180" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -56473,8 +57007,11 @@
       <c r="CW180" s="2">
         <v>187082</v>
       </c>
+      <c r="CX180" s="2">
+        <v>187973</v>
+      </c>
     </row>
-    <row r="181" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -56778,8 +57315,11 @@
       <c r="CW181" s="2">
         <v>529</v>
       </c>
+      <c r="CX181" s="2">
+        <v>529</v>
+      </c>
     </row>
-    <row r="182" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -57083,8 +57623,11 @@
       <c r="CW182" s="2">
         <v>657</v>
       </c>
+      <c r="CX182" s="2">
+        <v>657</v>
+      </c>
     </row>
-    <row r="183" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -57388,8 +57931,11 @@
       <c r="CW183" s="2">
         <v>23978</v>
       </c>
+      <c r="CX183" s="2">
+        <v>24114</v>
+      </c>
     </row>
-    <row r="184" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -57693,8 +58239,11 @@
       <c r="CW184" s="2">
         <v>10283</v>
       </c>
+      <c r="CX184" s="2">
+        <v>10428</v>
+      </c>
     </row>
-    <row r="185" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -57998,8 +58547,11 @@
       <c r="CW185" s="2">
         <v>6711</v>
       </c>
+      <c r="CX185" s="2">
+        <v>6842</v>
+      </c>
     </row>
-    <row r="186" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -58303,8 +58855,11 @@
       <c r="CW186" s="2">
         <v>47410</v>
       </c>
+      <c r="CX186" s="2">
+        <v>47990</v>
+      </c>
     </row>
-    <row r="187" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -58608,8 +59163,11 @@
       <c r="CW187" s="2">
         <v>1970</v>
       </c>
+      <c r="CX187" s="2">
+        <v>1973</v>
+      </c>
     </row>
-    <row r="188" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -58913,8 +59471,11 @@
       <c r="CW188" s="2">
         <v>7229</v>
       </c>
+      <c r="CX188" s="2">
+        <v>7238</v>
+      </c>
     </row>
-    <row r="189" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -59218,8 +59779,11 @@
       <c r="CW189" s="2">
         <v>21410</v>
       </c>
+      <c r="CX189" s="2">
+        <v>21458</v>
+      </c>
     </row>
-    <row r="190" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -59523,8 +60087,11 @@
       <c r="CW190" s="2">
         <v>59730</v>
       </c>
+      <c r="CX190" s="2">
+        <v>59759</v>
+      </c>
     </row>
-    <row r="191" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -59828,8 +60395,11 @@
       <c r="CW191" s="2">
         <v>6198</v>
       </c>
+      <c r="CX191" s="2">
+        <v>6199</v>
+      </c>
     </row>
-    <row r="192" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -60133,8 +60703,11 @@
       <c r="CW192" s="2">
         <v>2095</v>
       </c>
+      <c r="CX192" s="2">
+        <v>2110</v>
+      </c>
     </row>
-    <row r="193" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -60438,8 +61011,11 @@
       <c r="CW193" s="2">
         <v>40935</v>
       </c>
+      <c r="CX193" s="2">
+        <v>40969</v>
+      </c>
     </row>
-    <row r="194" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -60743,8 +61319,11 @@
       <c r="CW194" s="2">
         <v>1011</v>
       </c>
+      <c r="CX194" s="2">
+        <v>1015</v>
+      </c>
     </row>
-    <row r="195" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -61048,8 +61627,11 @@
       <c r="CW195" s="2">
         <v>1326</v>
       </c>
+      <c r="CX195" s="2">
+        <v>1338</v>
+      </c>
     </row>
-    <row r="196" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -61353,8 +61935,11 @@
       <c r="CW196" s="2">
         <v>4569</v>
       </c>
+      <c r="CX196" s="2">
+        <v>4641</v>
+      </c>
     </row>
-    <row r="197" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -61658,8 +62243,11 @@
       <c r="CW197" s="2">
         <v>3667</v>
       </c>
+      <c r="CX197" s="2">
+        <v>3670</v>
+      </c>
     </row>
-    <row r="198" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -61963,8 +62551,11 @@
       <c r="CW198" s="2">
         <v>4113</v>
       </c>
+      <c r="CX198" s="2">
+        <v>4146</v>
+      </c>
     </row>
-    <row r="199" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -62268,8 +62859,11 @@
       <c r="CW199" s="2">
         <v>114</v>
       </c>
+      <c r="CX199" s="2">
+        <v>115</v>
+      </c>
     </row>
-    <row r="200" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -62573,8 +63167,11 @@
       <c r="CW200" s="2">
         <v>9541</v>
       </c>
+      <c r="CX200" s="2">
+        <v>9583</v>
+      </c>
     </row>
-    <row r="201" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -62878,8 +63475,11 @@
       <c r="CW201" s="2">
         <v>44020</v>
       </c>
+      <c r="CX201" s="2">
+        <v>44085</v>
+      </c>
     </row>
-    <row r="202" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -63183,8 +63783,11 @@
       <c r="CW202" s="2">
         <v>5403</v>
       </c>
+      <c r="CX202" s="2">
+        <v>5415</v>
+      </c>
     </row>
-    <row r="203" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -63488,8 +64091,11 @@
       <c r="CW203" s="2">
         <v>14434</v>
       </c>
+      <c r="CX203" s="2">
+        <v>14501</v>
+      </c>
     </row>
-    <row r="204" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -63793,8 +64399,11 @@
       <c r="CW204" s="2">
         <v>4614</v>
       </c>
+      <c r="CX204" s="2">
+        <v>4629</v>
+      </c>
     </row>
-    <row r="205" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -64098,8 +64707,11 @@
       <c r="CW205" s="2">
         <v>4529</v>
       </c>
+      <c r="CX205" s="2">
+        <v>4532</v>
+      </c>
     </row>
-    <row r="206" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -64403,8 +65015,11 @@
       <c r="CW206" s="2">
         <v>11132</v>
       </c>
+      <c r="CX206" s="2">
+        <v>11192</v>
+      </c>
     </row>
-    <row r="207" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -64708,8 +65323,11 @@
       <c r="CW207" s="2">
         <v>29200</v>
       </c>
+      <c r="CX207" s="2">
+        <v>29370</v>
+      </c>
     </row>
-    <row r="208" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -65013,8 +65631,11 @@
       <c r="CW208" s="2">
         <v>2465</v>
       </c>
+      <c r="CX208" s="2">
+        <v>2472</v>
+      </c>
     </row>
-    <row r="209" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -65318,8 +65939,11 @@
       <c r="CW209" s="2">
         <v>919</v>
       </c>
+      <c r="CX209" s="2">
+        <v>925</v>
+      </c>
     </row>
-    <row r="210" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -65623,8 +66247,11 @@
       <c r="CW210" s="2">
         <v>13517</v>
       </c>
+      <c r="CX210" s="2">
+        <v>13571</v>
+      </c>
     </row>
-    <row r="211" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -65928,8 +66555,11 @@
       <c r="CW211" s="2">
         <v>745</v>
       </c>
+      <c r="CX211" s="2">
+        <v>751</v>
+      </c>
     </row>
-    <row r="212" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -66233,8 +66863,11 @@
       <c r="CW212" s="2">
         <v>9508</v>
       </c>
+      <c r="CX212" s="2">
+        <v>9547</v>
+      </c>
     </row>
-    <row r="213" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -66538,8 +67171,11 @@
       <c r="CW213" s="2">
         <v>161</v>
       </c>
+      <c r="CX213" s="2">
+        <v>161</v>
+      </c>
     </row>
-    <row r="214" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -66843,8 +67479,11 @@
       <c r="CW214" s="2">
         <v>130367</v>
       </c>
+      <c r="CX214" s="2">
+        <v>131453</v>
+      </c>
     </row>
-    <row r="215" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -67148,8 +67787,11 @@
       <c r="CW215" s="2">
         <v>5175</v>
       </c>
+      <c r="CX215" s="2">
+        <v>5193</v>
+      </c>
     </row>
-    <row r="216" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -67453,8 +68095,11 @@
       <c r="CW216" s="2">
         <v>27351</v>
       </c>
+      <c r="CX216" s="2">
+        <v>27530</v>
+      </c>
     </row>
-    <row r="217" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -67758,8 +68403,11 @@
       <c r="CW217" s="2">
         <v>2364</v>
       </c>
+      <c r="CX217" s="2">
+        <v>2382</v>
+      </c>
     </row>
-    <row r="218" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -68063,8 +68711,11 @@
       <c r="CW218" s="2">
         <v>685</v>
       </c>
+      <c r="CX218" s="2">
+        <v>689</v>
+      </c>
     </row>
-    <row r="219" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -68368,8 +69019,11 @@
       <c r="CW219" s="2">
         <v>227</v>
       </c>
+      <c r="CX219" s="2">
+        <v>228</v>
+      </c>
     </row>
-    <row r="220" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -68673,8 +69327,11 @@
       <c r="CW220" s="2">
         <v>1398</v>
       </c>
+      <c r="CX220" s="2">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="221" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -68978,8 +69635,11 @@
       <c r="CW221" s="2">
         <v>3228</v>
       </c>
+      <c r="CX221" s="2">
+        <v>3253</v>
+      </c>
     </row>
-    <row r="222" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -69283,8 +69943,11 @@
       <c r="CW222" s="2">
         <v>1006645</v>
       </c>
+      <c r="CX222" s="2">
+        <v>1016303</v>
+      </c>
     </row>
-    <row r="223" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -69588,8 +70251,11 @@
       <c r="CW223" s="2">
         <v>76660</v>
       </c>
+      <c r="CX223" s="2">
+        <v>76997</v>
+      </c>
     </row>
-    <row r="224" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -69893,8 +70559,11 @@
       <c r="CW224" s="2">
         <v>289</v>
       </c>
+      <c r="CX224" s="2">
+        <v>289</v>
+      </c>
     </row>
-    <row r="225" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -70198,8 +70867,11 @@
       <c r="CW225" s="2">
         <v>3142</v>
       </c>
+      <c r="CX225" s="2">
+        <v>3147</v>
+      </c>
     </row>
-    <row r="226" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -70503,8 +71175,11 @@
       <c r="CW226" s="2">
         <v>225</v>
       </c>
+      <c r="CX226" s="2">
+        <v>226</v>
+      </c>
     </row>
-    <row r="227" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -70808,8 +71483,11 @@
       <c r="CW227" s="2">
         <v>15657</v>
       </c>
+      <c r="CX227" s="2">
+        <v>15722</v>
+      </c>
     </row>
-    <row r="228" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -71113,8 +71791,11 @@
       <c r="CW228" s="2">
         <v>74667</v>
       </c>
+      <c r="CX228" s="2">
+        <v>75174</v>
+      </c>
     </row>
-    <row r="229" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -71418,8 +72099,11 @@
       <c r="CW229" s="2">
         <v>621087</v>
       </c>
+      <c r="CX229" s="2">
+        <v>626387</v>
+      </c>
     </row>
-    <row r="230" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -71723,8 +72407,11 @@
       <c r="CW230" s="2">
         <v>6719</v>
       </c>
+      <c r="CX230" s="2">
+        <v>6752</v>
+      </c>
     </row>
-    <row r="231" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -72028,8 +72715,11 @@
       <c r="CW231" s="2">
         <v>8785</v>
       </c>
+      <c r="CX231" s="2">
+        <v>8799</v>
+      </c>
     </row>
-    <row r="232" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -72333,8 +73023,11 @@
       <c r="CW232" s="2">
         <v>9045</v>
       </c>
+      <c r="CX232" s="2">
+        <v>9092</v>
+      </c>
     </row>
-    <row r="233" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -72638,8 +73331,11 @@
       <c r="CW233" s="2">
         <v>1574</v>
       </c>
+      <c r="CX233" s="2">
+        <v>1578</v>
+      </c>
     </row>
-    <row r="234" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -72943,8 +73639,11 @@
       <c r="CW234" s="2">
         <v>13758</v>
       </c>
+      <c r="CX234" s="2">
+        <v>13907</v>
+      </c>
     </row>
-    <row r="235" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -73248,8 +73947,11 @@
       <c r="CW235" s="2">
         <v>26722</v>
       </c>
+      <c r="CX235" s="2">
+        <v>27022</v>
+      </c>
     </row>
-    <row r="236" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -73553,8 +74255,11 @@
       <c r="CW236" s="2">
         <v>13706</v>
       </c>
+      <c r="CX236" s="2">
+        <v>13802</v>
+      </c>
     </row>
-    <row r="237" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -73858,8 +74563,11 @@
       <c r="CW237" s="2">
         <v>32756</v>
       </c>
+      <c r="CX237" s="2">
+        <v>32813</v>
+      </c>
     </row>
-    <row r="238" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -74163,8 +74871,11 @@
       <c r="CW238" s="2">
         <v>67739</v>
       </c>
+      <c r="CX238" s="2">
+        <v>68071</v>
+      </c>
     </row>
-    <row r="239" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -74468,8 +75179,11 @@
       <c r="CW239" s="2">
         <v>17998</v>
       </c>
+      <c r="CX239" s="2">
+        <v>18099</v>
+      </c>
     </row>
-    <row r="240" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -74773,8 +75487,11 @@
       <c r="CW240" s="2">
         <v>3250</v>
       </c>
+      <c r="CX240" s="2">
+        <v>3254</v>
+      </c>
     </row>
-    <row r="241" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -75078,8 +75795,11 @@
       <c r="CW241" s="2">
         <v>22916</v>
       </c>
+      <c r="CX241" s="2">
+        <v>23049</v>
+      </c>
     </row>
-    <row r="242" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -75383,8 +76103,11 @@
       <c r="CW242" s="2">
         <v>193165</v>
       </c>
+      <c r="CX242" s="2">
+        <v>195101</v>
+      </c>
     </row>
-    <row r="243" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -75688,8 +76411,11 @@
       <c r="CW243" s="2">
         <v>20645</v>
       </c>
+      <c r="CX243" s="2">
+        <v>20714</v>
+      </c>
     </row>
-    <row r="244" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -75993,8 +76719,11 @@
       <c r="CW244" s="2">
         <v>2632</v>
       </c>
+      <c r="CX244" s="2">
+        <v>2677</v>
+      </c>
     </row>
-    <row r="245" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -76298,8 +77027,11 @@
       <c r="CW245" s="2">
         <v>78652</v>
       </c>
+      <c r="CX245" s="2">
+        <v>78957</v>
+      </c>
     </row>
-    <row r="246" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -76603,8 +77335,11 @@
       <c r="CW246" s="2">
         <v>9628</v>
       </c>
+      <c r="CX246" s="2">
+        <v>9651</v>
+      </c>
     </row>
-    <row r="247" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -76908,8 +77643,11 @@
       <c r="CW247" s="2">
         <v>14275</v>
       </c>
+      <c r="CX247" s="2">
+        <v>14441</v>
+      </c>
     </row>
-    <row r="248" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -77213,8 +77951,11 @@
       <c r="CW248" s="2">
         <v>253036</v>
       </c>
+      <c r="CX248" s="2">
+        <v>254615</v>
+      </c>
     </row>
-    <row r="249" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -77518,8 +78259,11 @@
       <c r="CW249" s="2">
         <v>18399</v>
       </c>
+      <c r="CX249" s="2">
+        <v>18647</v>
+      </c>
     </row>
-    <row r="250" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -77823,8 +78567,11 @@
       <c r="CW250" s="2">
         <v>776</v>
       </c>
+      <c r="CX250" s="2">
+        <v>778</v>
+      </c>
     </row>
-    <row r="251" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -78128,8 +78875,11 @@
       <c r="CW251" s="2">
         <v>30666</v>
       </c>
+      <c r="CX251" s="2">
+        <v>30924</v>
+      </c>
     </row>
-    <row r="252" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -78433,8 +79183,11 @@
       <c r="CW252" s="2">
         <v>12945</v>
       </c>
+      <c r="CX252" s="2">
+        <v>13013</v>
+      </c>
     </row>
-    <row r="253" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -78738,8 +79491,11 @@
       <c r="CW253" s="2">
         <v>2226</v>
       </c>
+      <c r="CX253" s="2">
+        <v>2232</v>
+      </c>
     </row>
-    <row r="254" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -79043,8 +79799,11 @@
       <c r="CW254" s="2">
         <v>5490</v>
       </c>
+      <c r="CX254" s="2">
+        <v>5502</v>
+      </c>
     </row>
-    <row r="255" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -79348,8 +80107,11 @@
       <c r="CW255" s="2">
         <v>9912</v>
       </c>
+      <c r="CX255" s="2">
+        <v>9927</v>
+      </c>
     </row>
-    <row r="256" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -79653,8 +80415,11 @@
       <c r="CW256" s="2">
         <v>5317</v>
       </c>
+      <c r="CX256" s="2">
+        <v>5382</v>
+      </c>
     </row>
-    <row r="257" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -79958,8 +80723,11 @@
       <c r="CW257" s="2">
         <v>122248</v>
       </c>
+      <c r="CX257" s="2">
+        <v>122331</v>
+      </c>
     </row>
-    <row r="258" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:102" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -80266,8 +81034,11 @@
       <c r="CW258" s="8">
         <v>14642477</v>
       </c>
+      <c r="CX258" s="8">
+        <v>14728384</v>
+      </c>
     </row>
-    <row r="259" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:102" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -80294,7 +81065,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -80302,7 +81073,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -80310,7 +81081,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -80318,7 +81089,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -80326,7 +81097,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -80334,7 +81105,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -80342,7 +81113,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -80350,7 +81121,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -80358,7 +81129,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -80366,7 +81137,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -80374,7 +81145,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -80382,7 +81153,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -80390,7 +81161,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:101" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:102" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{502715E8-AA49-418A-B948-A3CD4F37E16B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6AFE0BC-F4E0-43EE-A702-3B02A7C98FE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,52 +1834,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CX513"/>
+  <dimension ref="A1:CY513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM234" workbookViewId="0">
-      <selection activeCell="CU248" sqref="CU248"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" customWidth="1"/>
-    <col min="2" max="24" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.4609375" customWidth="1"/>
-    <col min="27" max="27" width="9.3828125" customWidth="1"/>
-    <col min="28" max="28" width="9.61328125" customWidth="1"/>
-    <col min="29" max="29" width="9.84375" customWidth="1"/>
-    <col min="30" max="34" width="9.4609375" customWidth="1"/>
-    <col min="35" max="36" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.07421875" style="5"/>
-    <col min="57" max="57" width="9.07421875" style="6"/>
-    <col min="60" max="61" width="9.07421875" style="6"/>
-    <col min="62" max="62" width="9.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.23046875" customWidth="1"/>
-    <col min="64" max="66" width="10.23046875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.07421875" customWidth="1"/>
-    <col min="68" max="68" width="10.69140625" customWidth="1"/>
-    <col min="69" max="69" width="10.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.46484375" customWidth="1"/>
+    <col min="27" max="27" width="9.3984375" customWidth="1"/>
+    <col min="28" max="28" width="9.59765625" customWidth="1"/>
+    <col min="29" max="29" width="9.86328125" customWidth="1"/>
+    <col min="30" max="34" width="9.46484375" customWidth="1"/>
+    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.06640625" style="5"/>
+    <col min="57" max="57" width="9.06640625" style="6"/>
+    <col min="60" max="61" width="9.06640625" style="6"/>
+    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.19921875" customWidth="1"/>
+    <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.06640625" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.53515625" style="6" customWidth="1"/>
-    <col min="72" max="72" width="10.23046875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.69140625" style="6" customWidth="1"/>
-    <col min="74" max="74" width="10.61328125" customWidth="1"/>
+    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
+    <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.6640625" style="6" customWidth="1"/>
+    <col min="74" max="74" width="10.59765625" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.07421875" customWidth="1"/>
-    <col min="80" max="80" width="10.23046875" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.3046875" customWidth="1"/>
-    <col min="82" max="90" width="10.765625" style="7" customWidth="1"/>
-    <col min="91" max="102" width="9.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="10.06640625" customWidth="1"/>
+    <col min="80" max="80" width="10.19921875" style="7" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
+    <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
+    <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2186,8 +2184,11 @@
       <c r="CX2" s="4">
         <v>44187</v>
       </c>
+      <c r="CY2" s="4">
+        <v>44188</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2494,8 +2495,11 @@
       <c r="CX3" s="2">
         <v>42280</v>
       </c>
+      <c r="CY3" s="2">
+        <v>42623</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2802,8 +2806,11 @@
       <c r="CX4" s="2">
         <v>4692</v>
       </c>
+      <c r="CY4" s="2">
+        <v>4713</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3110,8 +3117,11 @@
       <c r="CX5" s="2">
         <v>43978</v>
       </c>
+      <c r="CY5" s="2">
+        <v>44523</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3418,8 +3428,11 @@
       <c r="CX6" s="2">
         <v>8139</v>
       </c>
+      <c r="CY6" s="2">
+        <v>8198</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3726,8 +3739,11 @@
       <c r="CX7" s="2">
         <v>2152</v>
       </c>
+      <c r="CY7" s="2">
+        <v>2378</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4034,8 +4050,11 @@
       <c r="CX8" s="2">
         <v>603</v>
       </c>
+      <c r="CY8" s="2">
+        <v>612</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4342,8 +4361,11 @@
       <c r="CX9" s="2">
         <v>23099</v>
       </c>
+      <c r="CY9" s="2">
+        <v>23323</v>
+      </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4650,8 +4672,11 @@
       <c r="CX10" s="2">
         <v>11433</v>
       </c>
+      <c r="CY10" s="2">
+        <v>11553</v>
+      </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4958,8 +4983,11 @@
       <c r="CX11" s="2">
         <v>1790</v>
       </c>
+      <c r="CY11" s="2">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5266,8 +5294,11 @@
       <c r="CX12" s="2">
         <v>6196</v>
       </c>
+      <c r="CY12" s="2">
+        <v>6262</v>
+      </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5574,8 +5605,11 @@
       <c r="CX13" s="2">
         <v>35352</v>
       </c>
+      <c r="CY13" s="2">
+        <v>35597</v>
+      </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5882,8 +5916,11 @@
       <c r="CX14" s="2">
         <v>1427</v>
       </c>
+      <c r="CY14" s="2">
+        <v>1452</v>
+      </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6190,8 +6227,11 @@
       <c r="CX15" s="2">
         <v>28373</v>
       </c>
+      <c r="CY15" s="2">
+        <v>28500</v>
+      </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6498,8 +6538,11 @@
       <c r="CX16" s="2">
         <v>163298</v>
       </c>
+      <c r="CY16" s="2">
+        <v>164324</v>
+      </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6806,8 +6849,11 @@
       <c r="CX17" s="2">
         <v>966179</v>
       </c>
+      <c r="CY17" s="2">
+        <v>974506</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7114,8 +7160,11 @@
       <c r="CX18" s="2">
         <v>3777</v>
       </c>
+      <c r="CY18" s="2">
+        <v>3808</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7422,8 +7471,11 @@
       <c r="CX19" s="2">
         <v>102</v>
       </c>
+      <c r="CY19" s="2">
+        <v>102</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7730,8 +7782,11 @@
       <c r="CX20" s="2">
         <v>9602</v>
       </c>
+      <c r="CY20" s="2">
+        <v>9663</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8038,8 +8093,11 @@
       <c r="CX21" s="2">
         <v>54411</v>
       </c>
+      <c r="CY21" s="2">
+        <v>54580</v>
+      </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8346,8 +8404,11 @@
       <c r="CX22" s="2">
         <v>210850</v>
       </c>
+      <c r="CY22" s="2">
+        <v>212544</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8654,8 +8715,11 @@
       <c r="CX23" s="2">
         <v>149847</v>
       </c>
+      <c r="CY23" s="2">
+        <v>150912</v>
+      </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -8962,8 +9026,11 @@
       <c r="CX24" s="2">
         <v>7508</v>
       </c>
+      <c r="CY24" s="2">
+        <v>7515</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9270,8 +9337,11 @@
       <c r="CX25" s="2">
         <v>482</v>
       </c>
+      <c r="CY25" s="2">
+        <v>488</v>
+      </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9578,8 +9648,11 @@
       <c r="CX26" s="2">
         <v>10182</v>
       </c>
+      <c r="CY26" s="2">
+        <v>10185</v>
+      </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9886,8 +9959,11 @@
       <c r="CX27" s="2">
         <v>19706</v>
       </c>
+      <c r="CY27" s="2">
+        <v>19918</v>
+      </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10194,8 +10270,11 @@
       <c r="CX28" s="2">
         <v>8772</v>
       </c>
+      <c r="CY28" s="2">
+        <v>8873</v>
+      </c>
     </row>
-    <row r="29" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10502,8 +10581,11 @@
       <c r="CX29" s="2">
         <v>21414</v>
       </c>
+      <c r="CY29" s="2">
+        <v>21627</v>
+      </c>
     </row>
-    <row r="30" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10810,8 +10892,11 @@
       <c r="CX30" s="2">
         <v>20503</v>
       </c>
+      <c r="CY30" s="2">
+        <v>20713</v>
+      </c>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11118,8 +11203,11 @@
       <c r="CX31" s="2">
         <v>10383</v>
       </c>
+      <c r="CY31" s="2">
+        <v>10428</v>
+      </c>
     </row>
-    <row r="32" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11426,8 +11514,11 @@
       <c r="CX32" s="2">
         <v>5884</v>
       </c>
+      <c r="CY32" s="2">
+        <v>5958</v>
+      </c>
     </row>
-    <row r="33" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11734,8 +11825,11 @@
       <c r="CX33" s="2">
         <v>179155</v>
       </c>
+      <c r="CY33" s="2">
+        <v>180318</v>
+      </c>
     </row>
-    <row r="34" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12042,8 +12136,11 @@
       <c r="CX34" s="2">
         <v>4063</v>
       </c>
+      <c r="CY34" s="2">
+        <v>4078</v>
+      </c>
     </row>
-    <row r="35" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12350,8 +12447,11 @@
       <c r="CX35" s="2">
         <v>1681</v>
       </c>
+      <c r="CY35" s="2">
+        <v>1701</v>
+      </c>
     </row>
-    <row r="36" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12658,8 +12758,11 @@
       <c r="CX36" s="2">
         <v>12137</v>
       </c>
+      <c r="CY36" s="2">
+        <v>12169</v>
+      </c>
     </row>
-    <row r="37" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -12966,8 +13069,11 @@
       <c r="CX37" s="2">
         <v>4062</v>
       </c>
+      <c r="CY37" s="2">
+        <v>4137</v>
+      </c>
     </row>
-    <row r="38" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13274,8 +13380,11 @@
       <c r="CX38" s="2">
         <v>6389</v>
       </c>
+      <c r="CY38" s="2">
+        <v>6399</v>
+      </c>
     </row>
-    <row r="39" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13582,8 +13691,11 @@
       <c r="CX39" s="2">
         <v>18366</v>
       </c>
+      <c r="CY39" s="2">
+        <v>18562</v>
+      </c>
     </row>
-    <row r="40" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -13890,8 +14002,11 @@
       <c r="CX40" s="2">
         <v>4548</v>
       </c>
+      <c r="CY40" s="2">
+        <v>4697</v>
+      </c>
     </row>
-    <row r="41" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14198,8 +14313,11 @@
       <c r="CX41" s="2">
         <v>3133</v>
       </c>
+      <c r="CY41" s="2">
+        <v>3351</v>
+      </c>
     </row>
-    <row r="42" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14506,8 +14624,11 @@
       <c r="CX42" s="2">
         <v>758</v>
       </c>
+      <c r="CY42" s="2">
+        <v>760</v>
+      </c>
     </row>
-    <row r="43" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14814,8 +14935,11 @@
       <c r="CX43" s="2">
         <v>2428</v>
       </c>
+      <c r="CY43" s="2">
+        <v>2435</v>
+      </c>
     </row>
-    <row r="44" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15122,8 +15246,11 @@
       <c r="CX44" s="2">
         <v>3016</v>
       </c>
+      <c r="CY44" s="2">
+        <v>3347</v>
+      </c>
     </row>
-    <row r="45" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15430,8 +15557,11 @@
       <c r="CX45" s="2">
         <v>590898</v>
       </c>
+      <c r="CY45" s="2">
+        <v>597691</v>
+      </c>
     </row>
-    <row r="46" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15738,8 +15868,11 @@
       <c r="CX46" s="2">
         <v>1395</v>
       </c>
+      <c r="CY46" s="2">
+        <v>1414</v>
+      </c>
     </row>
-    <row r="47" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16046,8 +16179,11 @@
       <c r="CX47" s="2">
         <v>10080</v>
       </c>
+      <c r="CY47" s="2">
+        <v>10138</v>
+      </c>
     </row>
-    <row r="48" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16354,8 +16490,11 @@
       <c r="CX48" s="2">
         <v>65157</v>
       </c>
+      <c r="CY48" s="2">
+        <v>65752</v>
+      </c>
     </row>
-    <row r="49" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16662,8 +16801,11 @@
       <c r="CX49" s="2">
         <v>6446</v>
       </c>
+      <c r="CY49" s="2">
+        <v>6518</v>
+      </c>
     </row>
-    <row r="50" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -16970,8 +17112,11 @@
       <c r="CX50" s="2">
         <v>1799</v>
       </c>
+      <c r="CY50" s="2">
+        <v>1807</v>
+      </c>
     </row>
-    <row r="51" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -17278,8 +17423,11 @@
       <c r="CX51" s="2">
         <v>18001</v>
       </c>
+      <c r="CY51" s="2">
+        <v>18245</v>
+      </c>
     </row>
-    <row r="52" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17586,8 +17734,11 @@
       <c r="CX52" s="2">
         <v>62030</v>
       </c>
+      <c r="CY52" s="2">
+        <v>62470</v>
+      </c>
     </row>
-    <row r="53" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -17894,8 +18045,11 @@
       <c r="CX53" s="2">
         <v>903</v>
       </c>
+      <c r="CY53" s="2">
+        <v>917</v>
+      </c>
     </row>
-    <row r="54" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18202,8 +18356,11 @@
       <c r="CX54" s="2">
         <v>3427</v>
       </c>
+      <c r="CY54" s="2">
+        <v>3441</v>
+      </c>
     </row>
-    <row r="55" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18510,8 +18667,11 @@
       <c r="CX55" s="2">
         <v>1914</v>
       </c>
+      <c r="CY55" s="2">
+        <v>1923</v>
+      </c>
     </row>
-    <row r="56" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18818,8 +18978,11 @@
       <c r="CX56" s="2">
         <v>2839</v>
       </c>
+      <c r="CY56" s="2">
+        <v>2861</v>
+      </c>
     </row>
-    <row r="57" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19126,8 +19289,11 @@
       <c r="CX57" s="2">
         <v>1640</v>
       </c>
+      <c r="CY57" s="2">
+        <v>1652</v>
+      </c>
     </row>
-    <row r="58" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -19434,8 +19600,11 @@
       <c r="CX58" s="2">
         <v>1484</v>
       </c>
+      <c r="CY58" s="2">
+        <v>1489</v>
+      </c>
     </row>
-    <row r="59" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19742,8 +19911,11 @@
       <c r="CX59" s="2">
         <v>1525772</v>
       </c>
+      <c r="CY59" s="2">
+        <v>1540374</v>
+      </c>
     </row>
-    <row r="60" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -20050,8 +20222,11 @@
       <c r="CX60" s="2">
         <v>6866</v>
       </c>
+      <c r="CY60" s="2">
+        <v>6873</v>
+      </c>
     </row>
-    <row r="61" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -20358,8 +20533,11 @@
       <c r="CX61" s="2">
         <v>7059</v>
       </c>
+      <c r="CY61" s="2">
+        <v>7103</v>
+      </c>
     </row>
-    <row r="62" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -20666,8 +20844,11 @@
       <c r="CX62" s="2">
         <v>4958</v>
       </c>
+      <c r="CY62" s="2">
+        <v>4980</v>
+      </c>
     </row>
-    <row r="63" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -20974,8 +21155,11 @@
       <c r="CX63" s="2">
         <v>1813</v>
       </c>
+      <c r="CY63" s="2">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="64" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -21282,8 +21466,11 @@
       <c r="CX64" s="2">
         <v>368795</v>
       </c>
+      <c r="CY64" s="2">
+        <v>372477</v>
+      </c>
     </row>
-    <row r="65" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21590,8 +21777,11 @@
       <c r="CX65" s="2">
         <v>554</v>
       </c>
+      <c r="CY65" s="2">
+        <v>559</v>
+      </c>
     </row>
-    <row r="66" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -21898,8 +22088,11 @@
       <c r="CX66" s="2">
         <v>5010</v>
       </c>
+      <c r="CY66" s="2">
+        <v>5054</v>
+      </c>
     </row>
-    <row r="67" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -22206,8 +22399,11 @@
       <c r="CX67" s="2">
         <v>1470</v>
       </c>
+      <c r="CY67" s="2">
+        <v>1476</v>
+      </c>
     </row>
-    <row r="68" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -22514,8 +22710,11 @@
       <c r="CX68" s="2">
         <v>12626</v>
       </c>
+      <c r="CY68" s="2">
+        <v>12794</v>
+      </c>
     </row>
-    <row r="69" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -22822,8 +23021,11 @@
       <c r="CX69" s="2">
         <v>5117</v>
       </c>
+      <c r="CY69" s="2">
+        <v>5157</v>
+      </c>
     </row>
-    <row r="70" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -23130,8 +23332,11 @@
       <c r="CX70" s="2">
         <v>53478</v>
       </c>
+      <c r="CY70" s="2">
+        <v>53954</v>
+      </c>
     </row>
-    <row r="71" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -23438,8 +23643,11 @@
       <c r="CX71" s="2">
         <v>1048</v>
       </c>
+      <c r="CY71" s="2">
+        <v>1049</v>
+      </c>
     </row>
-    <row r="72" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -23746,8 +23954,11 @@
       <c r="CX72" s="2">
         <v>615687</v>
       </c>
+      <c r="CY72" s="2">
+        <v>621351</v>
+      </c>
     </row>
-    <row r="73" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -24054,8 +24265,11 @@
       <c r="CX73" s="2">
         <v>101102</v>
       </c>
+      <c r="CY73" s="2">
+        <v>102037</v>
+      </c>
     </row>
-    <row r="74" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -24362,8 +24576,11 @@
       <c r="CX74" s="2">
         <v>14987</v>
       </c>
+      <c r="CY74" s="2">
+        <v>15176</v>
+      </c>
     </row>
-    <row r="75" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -24670,8 +24887,11 @@
       <c r="CX75" s="2">
         <v>9860</v>
       </c>
+      <c r="CY75" s="2">
+        <v>9943</v>
+      </c>
     </row>
-    <row r="76" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -24978,8 +25198,11 @@
       <c r="CX76" s="2">
         <v>17413</v>
       </c>
+      <c r="CY76" s="2">
+        <v>17517</v>
+      </c>
     </row>
-    <row r="77" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -25286,8 +25509,11 @@
       <c r="CX77" s="2">
         <v>10337</v>
       </c>
+      <c r="CY77" s="2">
+        <v>10393</v>
+      </c>
     </row>
-    <row r="78" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -25594,8 +25820,11 @@
       <c r="CX78" s="2">
         <v>1120</v>
       </c>
+      <c r="CY78" s="2">
+        <v>1125</v>
+      </c>
     </row>
-    <row r="79" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -25902,8 +26131,11 @@
       <c r="CX79" s="2">
         <v>1930</v>
       </c>
+      <c r="CY79" s="2">
+        <v>1943</v>
+      </c>
     </row>
-    <row r="80" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -26210,8 +26442,11 @@
       <c r="CX80" s="2">
         <v>658</v>
       </c>
+      <c r="CY80" s="2">
+        <v>697</v>
+      </c>
     </row>
-    <row r="81" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -26518,8 +26753,11 @@
       <c r="CX81" s="2">
         <v>392295</v>
       </c>
+      <c r="CY81" s="2">
+        <v>396151</v>
+      </c>
     </row>
-    <row r="82" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -26826,8 +27064,11 @@
       <c r="CX82" s="2">
         <v>3248</v>
       </c>
+      <c r="CY82" s="2">
+        <v>3265</v>
+      </c>
     </row>
-    <row r="83" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -27134,8 +27375,11 @@
       <c r="CX83" s="2">
         <v>11430</v>
       </c>
+      <c r="CY83" s="2">
+        <v>11531</v>
+      </c>
     </row>
-    <row r="84" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -27442,8 +27686,11 @@
       <c r="CX84" s="2">
         <v>10502</v>
       </c>
+      <c r="CY84" s="2">
+        <v>10607</v>
+      </c>
     </row>
-    <row r="85" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -27750,8 +27997,11 @@
       <c r="CX85" s="2">
         <v>3279</v>
       </c>
+      <c r="CY85" s="2">
+        <v>3289</v>
+      </c>
     </row>
-    <row r="86" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -28058,8 +28308,11 @@
       <c r="CX86" s="2">
         <v>229021</v>
       </c>
+      <c r="CY86" s="2">
+        <v>230353</v>
+      </c>
     </row>
-    <row r="87" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -28366,8 +28619,11 @@
       <c r="CX87" s="2">
         <v>2065</v>
       </c>
+      <c r="CY87" s="2">
+        <v>2067</v>
+      </c>
     </row>
-    <row r="88" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -28674,8 +28930,11 @@
       <c r="CX88" s="2">
         <v>13012</v>
       </c>
+      <c r="CY88" s="2">
+        <v>13125</v>
+      </c>
     </row>
-    <row r="89" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -28982,8 +29241,11 @@
       <c r="CX89" s="2">
         <v>139</v>
       </c>
+      <c r="CY89" s="2">
+        <v>141</v>
+      </c>
     </row>
-    <row r="90" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -29290,8 +29552,11 @@
       <c r="CX90" s="2">
         <v>2589</v>
       </c>
+      <c r="CY90" s="2">
+        <v>2632</v>
+      </c>
     </row>
-    <row r="91" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -29598,8 +29863,11 @@
       <c r="CX91" s="2">
         <v>9763</v>
       </c>
+      <c r="CY91" s="2">
+        <v>9815</v>
+      </c>
     </row>
-    <row r="92" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -29906,8 +30174,11 @@
       <c r="CX92" s="2">
         <v>6595</v>
       </c>
+      <c r="CY92" s="2">
+        <v>6654</v>
+      </c>
     </row>
-    <row r="93" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -30214,8 +30485,11 @@
       <c r="CX93" s="2">
         <v>66574</v>
       </c>
+      <c r="CY93" s="2">
+        <v>67061</v>
+      </c>
     </row>
-    <row r="94" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -30522,8 +30796,11 @@
       <c r="CX94" s="2">
         <v>43474</v>
       </c>
+      <c r="CY94" s="2">
+        <v>43610</v>
+      </c>
     </row>
-    <row r="95" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -30830,8 +31107,11 @@
       <c r="CX95" s="2">
         <v>16387</v>
       </c>
+      <c r="CY95" s="2">
+        <v>16566</v>
+      </c>
     </row>
-    <row r="96" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -31138,8 +31418,11 @@
       <c r="CX96" s="2">
         <v>48439</v>
       </c>
+      <c r="CY96" s="2">
+        <v>48867</v>
+      </c>
     </row>
-    <row r="97" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -31446,8 +31729,11 @@
       <c r="CX97" s="2">
         <v>10831</v>
       </c>
+      <c r="CY97" s="2">
+        <v>10887</v>
+      </c>
     </row>
-    <row r="98" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -31754,8 +32040,11 @@
       <c r="CX98" s="2">
         <v>1900</v>
       </c>
+      <c r="CY98" s="2">
+        <v>1946</v>
+      </c>
     </row>
-    <row r="99" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -32062,8 +32351,11 @@
       <c r="CX99" s="2">
         <v>3820</v>
       </c>
+      <c r="CY99" s="2">
+        <v>3847</v>
+      </c>
     </row>
-    <row r="100" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -32370,8 +32662,11 @@
       <c r="CX100" s="2">
         <v>2060</v>
       </c>
+      <c r="CY100" s="2">
+        <v>2085</v>
+      </c>
     </row>
-    <row r="101" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -32678,8 +32973,11 @@
       <c r="CX101" s="2">
         <v>1536</v>
       </c>
+      <c r="CY101" s="2">
+        <v>1575</v>
+      </c>
     </row>
-    <row r="102" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -32986,8 +33284,11 @@
       <c r="CX102" s="2">
         <v>16560</v>
       </c>
+      <c r="CY102" s="2">
+        <v>16699</v>
+      </c>
     </row>
-    <row r="103" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -33294,8 +33595,11 @@
       <c r="CX103" s="2">
         <v>2464559</v>
       </c>
+      <c r="CY103" s="2">
+        <v>2493981</v>
+      </c>
     </row>
-    <row r="104" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -33602,8 +33906,11 @@
       <c r="CX104" s="2">
         <v>45719</v>
       </c>
+      <c r="CY104" s="2">
+        <v>45853</v>
+      </c>
     </row>
-    <row r="105" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -33910,8 +34217,11 @@
       <c r="CX105" s="2">
         <v>138</v>
       </c>
+      <c r="CY105" s="2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="106" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -34218,8 +34528,11 @@
       <c r="CX106" s="2">
         <v>1762</v>
       </c>
+      <c r="CY106" s="2">
+        <v>1766</v>
+      </c>
     </row>
-    <row r="107" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -34526,8 +34839,11 @@
       <c r="CX107" s="2">
         <v>136781</v>
       </c>
+      <c r="CY107" s="2">
+        <v>137633</v>
+      </c>
     </row>
-    <row r="108" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -34834,8 +35150,11 @@
       <c r="CX108" s="2">
         <v>985</v>
       </c>
+      <c r="CY108" s="2">
+        <v>986</v>
+      </c>
     </row>
-    <row r="109" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -35142,8 +35461,11 @@
       <c r="CX109" s="2">
         <v>21124</v>
       </c>
+      <c r="CY109" s="2">
+        <v>21228</v>
+      </c>
     </row>
-    <row r="110" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -35450,8 +35772,11 @@
       <c r="CX110" s="2">
         <v>327072</v>
       </c>
+      <c r="CY110" s="2">
+        <v>328489</v>
+      </c>
     </row>
-    <row r="111" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -35758,8 +36083,11 @@
       <c r="CX111" s="2">
         <v>26288</v>
       </c>
+      <c r="CY111" s="2">
+        <v>26489</v>
+      </c>
     </row>
-    <row r="112" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -36066,8 +36394,11 @@
       <c r="CX112" s="2">
         <v>7525</v>
       </c>
+      <c r="CY112" s="2">
+        <v>7552</v>
+      </c>
     </row>
-    <row r="113" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -36374,8 +36705,11 @@
       <c r="CX113" s="2">
         <v>32180</v>
       </c>
+      <c r="CY113" s="2">
+        <v>32545</v>
+      </c>
     </row>
-    <row r="114" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -36682,8 +37016,11 @@
       <c r="CX114" s="2">
         <v>13048</v>
       </c>
+      <c r="CY114" s="2">
+        <v>13098</v>
+      </c>
     </row>
-    <row r="115" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -36990,8 +37327,11 @@
       <c r="CX115" s="2">
         <v>12188</v>
       </c>
+      <c r="CY115" s="2">
+        <v>12257</v>
+      </c>
     </row>
-    <row r="116" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -37298,8 +37638,11 @@
       <c r="CX116" s="2">
         <v>11770</v>
       </c>
+      <c r="CY116" s="2">
+        <v>11844</v>
+      </c>
     </row>
-    <row r="117" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -37606,8 +37949,11 @@
       <c r="CX117" s="2">
         <v>2087</v>
       </c>
+      <c r="CY117" s="2">
+        <v>2108</v>
+      </c>
     </row>
-    <row r="118" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -37914,8 +38260,11 @@
       <c r="CX118" s="2">
         <v>48379</v>
       </c>
+      <c r="CY118" s="2">
+        <v>48835</v>
+      </c>
     </row>
-    <row r="119" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -38222,8 +38571,11 @@
       <c r="CX119" s="2">
         <v>8447</v>
       </c>
+      <c r="CY119" s="2">
+        <v>8487</v>
+      </c>
     </row>
-    <row r="120" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -38530,8 +38882,11 @@
       <c r="CX120" s="2">
         <v>386</v>
       </c>
+      <c r="CY120" s="2">
+        <v>391</v>
+      </c>
     </row>
-    <row r="121" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -38838,8 +39193,11 @@
       <c r="CX121" s="2">
         <v>1228</v>
       </c>
+      <c r="CY121" s="2">
+        <v>1241</v>
+      </c>
     </row>
-    <row r="122" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -39146,8 +39504,11 @@
       <c r="CX122" s="2">
         <v>5451</v>
       </c>
+      <c r="CY122" s="2">
+        <v>5474</v>
+      </c>
     </row>
-    <row r="123" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -39454,8 +39815,11 @@
       <c r="CX123" s="2">
         <v>11242</v>
       </c>
+      <c r="CY123" s="2">
+        <v>11301</v>
+      </c>
     </row>
-    <row r="124" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -39762,8 +40126,11 @@
       <c r="CX124" s="2">
         <v>1322</v>
       </c>
+      <c r="CY124" s="2">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="125" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -40070,8 +40437,11 @@
       <c r="CX125" s="2">
         <v>132684</v>
       </c>
+      <c r="CY125" s="2">
+        <v>133453</v>
+      </c>
     </row>
-    <row r="126" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -40378,8 +40748,11 @@
       <c r="CX126" s="2">
         <v>7226</v>
       </c>
+      <c r="CY126" s="2">
+        <v>7231</v>
+      </c>
     </row>
-    <row r="127" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -40686,8 +41059,11 @@
       <c r="CX127" s="2">
         <v>40538</v>
       </c>
+      <c r="CY127" s="2">
+        <v>40795</v>
+      </c>
     </row>
-    <row r="128" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -40994,8 +41370,11 @@
       <c r="CX128" s="2">
         <v>78670</v>
       </c>
+      <c r="CY128" s="2">
+        <v>79344</v>
+      </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -41302,8 +41681,11 @@
       <c r="CX129" s="2">
         <v>5391</v>
       </c>
+      <c r="CY129" s="2">
+        <v>5446</v>
+      </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -41610,8 +41992,11 @@
       <c r="CX130" s="2">
         <v>11104</v>
       </c>
+      <c r="CY130" s="2">
+        <v>11161</v>
+      </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -41918,8 +42303,11 @@
       <c r="CX131" s="2">
         <v>67947</v>
       </c>
+      <c r="CY131" s="2">
+        <v>68617</v>
+      </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -42226,8 +42614,11 @@
       <c r="CX132" s="2">
         <v>16129</v>
       </c>
+      <c r="CY132" s="2">
+        <v>16276</v>
+      </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -42534,8 +42925,11 @@
       <c r="CX133" s="2">
         <v>149</v>
       </c>
+      <c r="CY133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -42842,8 +43236,11 @@
       <c r="CX134" s="2">
         <v>397</v>
       </c>
+      <c r="CY134" s="2">
+        <v>401</v>
+      </c>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -43150,8 +43547,11 @@
       <c r="CX135" s="2">
         <v>30696</v>
       </c>
+      <c r="CY135" s="2">
+        <v>30953</v>
+      </c>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -43458,8 +43858,11 @@
       <c r="CX136" s="2">
         <v>1498</v>
       </c>
+      <c r="CY136" s="2">
+        <v>1500</v>
+      </c>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -43766,8 +44169,11 @@
       <c r="CX137" s="2">
         <v>37</v>
       </c>
+      <c r="CY137" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -44074,8 +44480,11 @@
       <c r="CX138" s="2">
         <v>1168</v>
       </c>
+      <c r="CY138" s="2">
+        <v>1182</v>
+      </c>
     </row>
-    <row r="139" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -44382,8 +44791,11 @@
       <c r="CX139" s="2">
         <v>22697</v>
       </c>
+      <c r="CY139" s="2">
+        <v>22760</v>
+      </c>
     </row>
-    <row r="140" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -44690,8 +45102,11 @@
       <c r="CX140" s="2">
         <v>1782</v>
       </c>
+      <c r="CY140" s="2">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="141" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -44998,8 +45413,11 @@
       <c r="CX141" s="2">
         <v>4973</v>
       </c>
+      <c r="CY141" s="2">
+        <v>5032</v>
+      </c>
     </row>
-    <row r="142" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -45306,8 +45724,11 @@
       <c r="CX142" s="2">
         <v>16020</v>
       </c>
+      <c r="CY142" s="2">
+        <v>16147</v>
+      </c>
     </row>
-    <row r="143" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -45614,8 +46035,11 @@
       <c r="CX143" s="2">
         <v>6732</v>
       </c>
+      <c r="CY143" s="2">
+        <v>6749</v>
+      </c>
     </row>
-    <row r="144" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -45922,8 +46346,11 @@
       <c r="CX144" s="2">
         <v>12047</v>
       </c>
+      <c r="CY144" s="2">
+        <v>12143</v>
+      </c>
     </row>
-    <row r="145" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -46230,8 +46657,11 @@
       <c r="CX145" s="2">
         <v>9368</v>
       </c>
+      <c r="CY145" s="2">
+        <v>9416</v>
+      </c>
     </row>
-    <row r="146" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -46538,8 +46968,11 @@
       <c r="CX146" s="2">
         <v>5916</v>
       </c>
+      <c r="CY146" s="2">
+        <v>5958</v>
+      </c>
     </row>
-    <row r="147" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -46846,8 +47279,11 @@
       <c r="CX147" s="2">
         <v>6721</v>
       </c>
+      <c r="CY147" s="2">
+        <v>6775</v>
+      </c>
     </row>
-    <row r="148" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -47154,8 +47590,11 @@
       <c r="CX148" s="2">
         <v>35627</v>
       </c>
+      <c r="CY148" s="2">
+        <v>36095</v>
+      </c>
     </row>
-    <row r="149" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -47462,8 +47901,11 @@
       <c r="CX149" s="2">
         <v>19115</v>
       </c>
+      <c r="CY149" s="2">
+        <v>19480</v>
+      </c>
     </row>
-    <row r="150" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -47770,8 +48212,11 @@
       <c r="CX150" s="2">
         <v>267</v>
       </c>
+      <c r="CY150" s="2">
+        <v>273</v>
+      </c>
     </row>
-    <row r="151" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -48078,8 +48523,11 @@
       <c r="CX151" s="2">
         <v>3654</v>
       </c>
+      <c r="CY151" s="2">
+        <v>3722</v>
+      </c>
     </row>
-    <row r="152" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -48386,8 +48834,11 @@
       <c r="CX152" s="2">
         <v>7275</v>
       </c>
+      <c r="CY152" s="2">
+        <v>7364</v>
+      </c>
     </row>
-    <row r="153" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -48694,8 +49145,11 @@
       <c r="CX153" s="2">
         <v>23</v>
       </c>
+      <c r="CY153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -49002,8 +49456,11 @@
       <c r="CX154" s="2">
         <v>207938</v>
       </c>
+      <c r="CY154" s="2">
+        <v>208782</v>
+      </c>
     </row>
-    <row r="155" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -49310,8 +49767,11 @@
       <c r="CX155" s="2">
         <v>3040</v>
       </c>
+      <c r="CY155" s="2">
+        <v>3060</v>
+      </c>
     </row>
-    <row r="156" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -49618,8 +50078,11 @@
       <c r="CX156" s="2">
         <v>9854</v>
       </c>
+      <c r="CY156" s="2">
+        <v>9906</v>
+      </c>
     </row>
-    <row r="157" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -49926,8 +50389,11 @@
       <c r="CX157" s="2">
         <v>2321</v>
       </c>
+      <c r="CY157" s="2">
+        <v>2328</v>
+      </c>
     </row>
-    <row r="158" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -50234,8 +50700,11 @@
       <c r="CX158" s="2">
         <v>1273</v>
       </c>
+      <c r="CY158" s="2">
+        <v>1286</v>
+      </c>
     </row>
-    <row r="159" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -50542,8 +51011,11 @@
       <c r="CX159" s="2">
         <v>1598</v>
       </c>
+      <c r="CY159" s="2">
+        <v>1605</v>
+      </c>
     </row>
-    <row r="160" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -50850,8 +51322,11 @@
       <c r="CX160" s="2">
         <v>16665</v>
       </c>
+      <c r="CY160" s="2">
+        <v>16757</v>
+      </c>
     </row>
-    <row r="161" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -51158,8 +51633,11 @@
       <c r="CX161" s="2">
         <v>36321</v>
       </c>
+      <c r="CY161" s="2">
+        <v>36614</v>
+      </c>
     </row>
-    <row r="162" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -51466,8 +51944,11 @@
       <c r="CX162" s="2">
         <v>2315</v>
       </c>
+      <c r="CY162" s="2">
+        <v>2324</v>
+      </c>
     </row>
-    <row r="163" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -51774,8 +52255,11 @@
       <c r="CX163" s="2">
         <v>190290</v>
       </c>
+      <c r="CY163" s="2">
+        <v>191465</v>
+      </c>
     </row>
-    <row r="164" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -52082,8 +52566,11 @@
       <c r="CX164" s="2">
         <v>278</v>
       </c>
+      <c r="CY164" s="2">
+        <v>283</v>
+      </c>
     </row>
-    <row r="165" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -52390,8 +52877,11 @@
       <c r="CX165" s="2">
         <v>18009</v>
       </c>
+      <c r="CY165" s="2">
+        <v>18124</v>
+      </c>
     </row>
-    <row r="166" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -52698,8 +53188,11 @@
       <c r="CX166" s="2">
         <v>1784</v>
       </c>
+      <c r="CY166" s="2">
+        <v>1786</v>
+      </c>
     </row>
-    <row r="167" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -53006,8 +53499,11 @@
       <c r="CX167" s="2">
         <v>52622</v>
       </c>
+      <c r="CY167" s="2">
+        <v>53145</v>
+      </c>
     </row>
-    <row r="168" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -53314,8 +53810,11 @@
       <c r="CX168" s="2">
         <v>12417</v>
       </c>
+      <c r="CY168" s="2">
+        <v>12471</v>
+      </c>
     </row>
-    <row r="169" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -53622,8 +54121,11 @@
       <c r="CX169" s="2">
         <v>3458</v>
       </c>
+      <c r="CY169" s="2">
+        <v>3472</v>
+      </c>
     </row>
-    <row r="170" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -53930,8 +54432,11 @@
       <c r="CX170" s="2">
         <v>4834</v>
       </c>
+      <c r="CY170" s="2">
+        <v>4890</v>
+      </c>
     </row>
-    <row r="171" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -54238,8 +54743,11 @@
       <c r="CX171" s="2">
         <v>8143</v>
       </c>
+      <c r="CY171" s="2">
+        <v>8261</v>
+      </c>
     </row>
-    <row r="172" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -54546,8 +55054,11 @@
       <c r="CX172" s="2">
         <v>230045</v>
       </c>
+      <c r="CY172" s="2">
+        <v>232240</v>
+      </c>
     </row>
-    <row r="173" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -54854,8 +55365,11 @@
       <c r="CX173" s="2">
         <v>6980</v>
       </c>
+      <c r="CY173" s="2">
+        <v>7053</v>
+      </c>
     </row>
-    <row r="174" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -55162,8 +55676,11 @@
       <c r="CX174" s="2">
         <v>5110</v>
       </c>
+      <c r="CY174" s="2">
+        <v>5135</v>
+      </c>
     </row>
-    <row r="175" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -55470,8 +55987,11 @@
       <c r="CX175" s="2">
         <v>463</v>
       </c>
+      <c r="CY175" s="2">
+        <v>466</v>
+      </c>
     </row>
-    <row r="176" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -55778,8 +56298,11 @@
       <c r="CX176" s="2">
         <v>30246</v>
       </c>
+      <c r="CY176" s="2">
+        <v>30410</v>
+      </c>
     </row>
-    <row r="177" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -56086,8 +56609,11 @@
       <c r="CX177" s="2">
         <v>22061</v>
       </c>
+      <c r="CY177" s="2">
+        <v>22272</v>
+      </c>
     </row>
-    <row r="178" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -56394,8 +56920,11 @@
       <c r="CX178" s="2">
         <v>3351</v>
       </c>
+      <c r="CY178" s="2">
+        <v>3361</v>
+      </c>
     </row>
-    <row r="179" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -56702,8 +57231,11 @@
       <c r="CX179" s="2">
         <v>6690</v>
       </c>
+      <c r="CY179" s="2">
+        <v>6708</v>
+      </c>
     </row>
-    <row r="180" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -57010,8 +57542,11 @@
       <c r="CX180" s="2">
         <v>187973</v>
       </c>
+      <c r="CY180" s="2">
+        <v>189729</v>
+      </c>
     </row>
-    <row r="181" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -57318,8 +57853,11 @@
       <c r="CX181" s="2">
         <v>529</v>
       </c>
+      <c r="CY181" s="2">
+        <v>534</v>
+      </c>
     </row>
-    <row r="182" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -57626,8 +58164,11 @@
       <c r="CX182" s="2">
         <v>657</v>
       </c>
+      <c r="CY182" s="2">
+        <v>666</v>
+      </c>
     </row>
-    <row r="183" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -57934,8 +58475,11 @@
       <c r="CX183" s="2">
         <v>24114</v>
       </c>
+      <c r="CY183" s="2">
+        <v>24277</v>
+      </c>
     </row>
-    <row r="184" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -58242,8 +58786,11 @@
       <c r="CX184" s="2">
         <v>10428</v>
       </c>
+      <c r="CY184" s="2">
+        <v>10472</v>
+      </c>
     </row>
-    <row r="185" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -58550,8 +59097,11 @@
       <c r="CX185" s="2">
         <v>6842</v>
       </c>
+      <c r="CY185" s="2">
+        <v>6888</v>
+      </c>
     </row>
-    <row r="186" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -58858,8 +59408,11 @@
       <c r="CX186" s="2">
         <v>47990</v>
       </c>
+      <c r="CY186" s="2">
+        <v>48460</v>
+      </c>
     </row>
-    <row r="187" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -59166,8 +59719,11 @@
       <c r="CX187" s="2">
         <v>1973</v>
       </c>
+      <c r="CY187" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="188" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -59474,8 +60030,11 @@
       <c r="CX188" s="2">
         <v>7238</v>
       </c>
+      <c r="CY188" s="2">
+        <v>7253</v>
+      </c>
     </row>
-    <row r="189" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -59782,8 +60341,11 @@
       <c r="CX189" s="2">
         <v>21458</v>
       </c>
+      <c r="CY189" s="2">
+        <v>21543</v>
+      </c>
     </row>
-    <row r="190" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -60090,8 +60652,11 @@
       <c r="CX190" s="2">
         <v>59759</v>
       </c>
+      <c r="CY190" s="2">
+        <v>60203</v>
+      </c>
     </row>
-    <row r="191" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -60398,8 +60963,11 @@
       <c r="CX191" s="2">
         <v>6199</v>
       </c>
+      <c r="CY191" s="2">
+        <v>6204</v>
+      </c>
     </row>
-    <row r="192" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -60706,8 +61274,11 @@
       <c r="CX192" s="2">
         <v>2110</v>
       </c>
+      <c r="CY192" s="2">
+        <v>2132</v>
+      </c>
     </row>
-    <row r="193" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -61014,8 +61585,11 @@
       <c r="CX193" s="2">
         <v>40969</v>
       </c>
+      <c r="CY193" s="2">
+        <v>41410</v>
+      </c>
     </row>
-    <row r="194" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -61322,8 +61896,11 @@
       <c r="CX194" s="2">
         <v>1015</v>
       </c>
+      <c r="CY194" s="2">
+        <v>1021</v>
+      </c>
     </row>
-    <row r="195" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -61630,8 +62207,11 @@
       <c r="CX195" s="2">
         <v>1338</v>
       </c>
+      <c r="CY195" s="2">
+        <v>1348</v>
+      </c>
     </row>
-    <row r="196" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -61938,8 +62518,11 @@
       <c r="CX196" s="2">
         <v>4641</v>
       </c>
+      <c r="CY196" s="2">
+        <v>4657</v>
+      </c>
     </row>
-    <row r="197" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -62246,8 +62829,11 @@
       <c r="CX197" s="2">
         <v>3670</v>
       </c>
+      <c r="CY197" s="2">
+        <v>3685</v>
+      </c>
     </row>
-    <row r="198" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -62554,8 +63140,11 @@
       <c r="CX198" s="2">
         <v>4146</v>
       </c>
+      <c r="CY198" s="2">
+        <v>4174</v>
+      </c>
     </row>
-    <row r="199" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -62862,8 +63451,11 @@
       <c r="CX199" s="2">
         <v>115</v>
       </c>
+      <c r="CY199" s="2">
+        <v>117</v>
+      </c>
     </row>
-    <row r="200" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -63170,8 +63762,11 @@
       <c r="CX200" s="2">
         <v>9583</v>
       </c>
+      <c r="CY200" s="2">
+        <v>9732</v>
+      </c>
     </row>
-    <row r="201" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -63478,8 +64073,11 @@
       <c r="CX201" s="2">
         <v>44085</v>
       </c>
+      <c r="CY201" s="2">
+        <v>44584</v>
+      </c>
     </row>
-    <row r="202" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -63786,8 +64384,11 @@
       <c r="CX202" s="2">
         <v>5415</v>
       </c>
+      <c r="CY202" s="2">
+        <v>5458</v>
+      </c>
     </row>
-    <row r="203" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -64094,8 +64695,11 @@
       <c r="CX203" s="2">
         <v>14501</v>
       </c>
+      <c r="CY203" s="2">
+        <v>14584</v>
+      </c>
     </row>
-    <row r="204" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -64402,8 +65006,11 @@
       <c r="CX204" s="2">
         <v>4629</v>
       </c>
+      <c r="CY204" s="2">
+        <v>4715</v>
+      </c>
     </row>
-    <row r="205" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -64710,8 +65317,11 @@
       <c r="CX205" s="2">
         <v>4532</v>
       </c>
+      <c r="CY205" s="2">
+        <v>4547</v>
+      </c>
     </row>
-    <row r="206" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -65018,8 +65628,11 @@
       <c r="CX206" s="2">
         <v>11192</v>
       </c>
+      <c r="CY206" s="2">
+        <v>11289</v>
+      </c>
     </row>
-    <row r="207" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -65326,8 +65939,11 @@
       <c r="CX207" s="2">
         <v>29370</v>
       </c>
+      <c r="CY207" s="2">
+        <v>29592</v>
+      </c>
     </row>
-    <row r="208" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -65634,8 +66250,11 @@
       <c r="CX208" s="2">
         <v>2472</v>
       </c>
+      <c r="CY208" s="2">
+        <v>2489</v>
+      </c>
     </row>
-    <row r="209" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -65942,8 +66561,11 @@
       <c r="CX209" s="2">
         <v>925</v>
       </c>
+      <c r="CY209" s="2">
+        <v>928</v>
+      </c>
     </row>
-    <row r="210" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -66250,8 +66872,11 @@
       <c r="CX210" s="2">
         <v>13571</v>
       </c>
+      <c r="CY210" s="2">
+        <v>13651</v>
+      </c>
     </row>
-    <row r="211" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -66558,8 +67183,11 @@
       <c r="CX211" s="2">
         <v>751</v>
       </c>
+      <c r="CY211" s="2">
+        <v>761</v>
+      </c>
     </row>
-    <row r="212" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -66866,8 +67494,11 @@
       <c r="CX212" s="2">
         <v>9547</v>
       </c>
+      <c r="CY212" s="2">
+        <v>9588</v>
+      </c>
     </row>
-    <row r="213" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -67174,8 +67805,11 @@
       <c r="CX213" s="2">
         <v>161</v>
       </c>
+      <c r="CY213" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="214" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -67482,8 +68116,11 @@
       <c r="CX214" s="2">
         <v>131453</v>
       </c>
+      <c r="CY214" s="2">
+        <v>132131</v>
+      </c>
     </row>
-    <row r="215" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -67790,8 +68427,11 @@
       <c r="CX215" s="2">
         <v>5193</v>
       </c>
+      <c r="CY215" s="2">
+        <v>5234</v>
+      </c>
     </row>
-    <row r="216" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -68098,8 +68738,11 @@
       <c r="CX216" s="2">
         <v>27530</v>
       </c>
+      <c r="CY216" s="2">
+        <v>27731</v>
+      </c>
     </row>
-    <row r="217" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -68406,8 +69049,11 @@
       <c r="CX217" s="2">
         <v>2382</v>
       </c>
+      <c r="CY217" s="2">
+        <v>2426</v>
+      </c>
     </row>
-    <row r="218" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -68714,8 +69360,11 @@
       <c r="CX218" s="2">
         <v>689</v>
       </c>
+      <c r="CY218" s="2">
+        <v>692</v>
+      </c>
     </row>
-    <row r="219" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -69022,8 +69671,11 @@
       <c r="CX219" s="2">
         <v>228</v>
       </c>
+      <c r="CY219" s="2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="220" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -69330,8 +69982,11 @@
       <c r="CX220" s="2">
         <v>1403</v>
       </c>
+      <c r="CY220" s="2">
+        <v>1409</v>
+      </c>
     </row>
-    <row r="221" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -69638,8 +70293,11 @@
       <c r="CX221" s="2">
         <v>3253</v>
       </c>
+      <c r="CY221" s="2">
+        <v>3281</v>
+      </c>
     </row>
-    <row r="222" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -69946,8 +70604,11 @@
       <c r="CX222" s="2">
         <v>1016303</v>
       </c>
+      <c r="CY222" s="2">
+        <v>1026354</v>
+      </c>
     </row>
-    <row r="223" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -70254,8 +70915,11 @@
       <c r="CX223" s="2">
         <v>76997</v>
       </c>
+      <c r="CY223" s="2">
+        <v>77986</v>
+      </c>
     </row>
-    <row r="224" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -70562,8 +71226,11 @@
       <c r="CX224" s="2">
         <v>289</v>
       </c>
+      <c r="CY224" s="2">
+        <v>291</v>
+      </c>
     </row>
-    <row r="225" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -70870,8 +71537,11 @@
       <c r="CX225" s="2">
         <v>3147</v>
       </c>
+      <c r="CY225" s="2">
+        <v>3154</v>
+      </c>
     </row>
-    <row r="226" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -71178,8 +71848,11 @@
       <c r="CX226" s="2">
         <v>226</v>
       </c>
+      <c r="CY226" s="2">
+        <v>230</v>
+      </c>
     </row>
-    <row r="227" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -71486,8 +72159,11 @@
       <c r="CX227" s="2">
         <v>15722</v>
       </c>
+      <c r="CY227" s="2">
+        <v>15758</v>
+      </c>
     </row>
-    <row r="228" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -71794,8 +72470,11 @@
       <c r="CX228" s="2">
         <v>75174</v>
       </c>
+      <c r="CY228" s="2">
+        <v>75805</v>
+      </c>
     </row>
-    <row r="229" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -72102,8 +72781,11 @@
       <c r="CX229" s="2">
         <v>626387</v>
       </c>
+      <c r="CY229" s="2">
+        <v>631080</v>
+      </c>
     </row>
-    <row r="230" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -72410,8 +73092,11 @@
       <c r="CX230" s="2">
         <v>6752</v>
       </c>
+      <c r="CY230" s="2">
+        <v>6819</v>
+      </c>
     </row>
-    <row r="231" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -72718,8 +73403,11 @@
       <c r="CX231" s="2">
         <v>8799</v>
       </c>
+      <c r="CY231" s="2">
+        <v>8858</v>
+      </c>
     </row>
-    <row r="232" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -73026,8 +73714,11 @@
       <c r="CX232" s="2">
         <v>9092</v>
       </c>
+      <c r="CY232" s="2">
+        <v>9124</v>
+      </c>
     </row>
-    <row r="233" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -73334,8 +74025,11 @@
       <c r="CX233" s="2">
         <v>1578</v>
       </c>
+      <c r="CY233" s="2">
+        <v>1592</v>
+      </c>
     </row>
-    <row r="234" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -73642,8 +74336,11 @@
       <c r="CX234" s="2">
         <v>13907</v>
       </c>
+      <c r="CY234" s="2">
+        <v>14076</v>
+      </c>
     </row>
-    <row r="235" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -73950,8 +74647,11 @@
       <c r="CX235" s="2">
         <v>27022</v>
       </c>
+      <c r="CY235" s="2">
+        <v>27157</v>
+      </c>
     </row>
-    <row r="236" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -74258,8 +74958,11 @@
       <c r="CX236" s="2">
         <v>13802</v>
       </c>
+      <c r="CY236" s="2">
+        <v>13959</v>
+      </c>
     </row>
-    <row r="237" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -74566,8 +75269,11 @@
       <c r="CX237" s="2">
         <v>32813</v>
       </c>
+      <c r="CY237" s="2">
+        <v>33010</v>
+      </c>
     </row>
-    <row r="238" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -74874,8 +75580,11 @@
       <c r="CX238" s="2">
         <v>68071</v>
       </c>
+      <c r="CY238" s="2">
+        <v>68462</v>
+      </c>
     </row>
-    <row r="239" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -75182,8 +75891,11 @@
       <c r="CX239" s="2">
         <v>18099</v>
       </c>
+      <c r="CY239" s="2">
+        <v>18238</v>
+      </c>
     </row>
-    <row r="240" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -75490,8 +76202,11 @@
       <c r="CX240" s="2">
         <v>3254</v>
       </c>
+      <c r="CY240" s="2">
+        <v>3265</v>
+      </c>
     </row>
-    <row r="241" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -75798,8 +76513,11 @@
       <c r="CX241" s="2">
         <v>23049</v>
       </c>
+      <c r="CY241" s="2">
+        <v>23309</v>
+      </c>
     </row>
-    <row r="242" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -76106,8 +76824,11 @@
       <c r="CX242" s="2">
         <v>195101</v>
       </c>
+      <c r="CY242" s="2">
+        <v>196508</v>
+      </c>
     </row>
-    <row r="243" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -76414,8 +77135,11 @@
       <c r="CX243" s="2">
         <v>20714</v>
       </c>
+      <c r="CY243" s="2">
+        <v>20860</v>
+      </c>
     </row>
-    <row r="244" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -76722,8 +77446,11 @@
       <c r="CX244" s="2">
         <v>2677</v>
       </c>
+      <c r="CY244" s="2">
+        <v>2688</v>
+      </c>
     </row>
-    <row r="245" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -77030,8 +77757,11 @@
       <c r="CX245" s="2">
         <v>78957</v>
       </c>
+      <c r="CY245" s="2">
+        <v>84411</v>
+      </c>
     </row>
-    <row r="246" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -77338,8 +78068,11 @@
       <c r="CX246" s="2">
         <v>9651</v>
       </c>
+      <c r="CY246" s="2">
+        <v>9809</v>
+      </c>
     </row>
-    <row r="247" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -77646,8 +78379,11 @@
       <c r="CX247" s="2">
         <v>14441</v>
       </c>
+      <c r="CY247" s="2">
+        <v>14546</v>
+      </c>
     </row>
-    <row r="248" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -77954,8 +78690,11 @@
       <c r="CX248" s="2">
         <v>254615</v>
       </c>
+      <c r="CY248" s="2">
+        <v>256807</v>
+      </c>
     </row>
-    <row r="249" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -78262,8 +79001,11 @@
       <c r="CX249" s="2">
         <v>18647</v>
       </c>
+      <c r="CY249" s="2">
+        <v>18831</v>
+      </c>
     </row>
-    <row r="250" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -78570,8 +79312,11 @@
       <c r="CX250" s="2">
         <v>778</v>
       </c>
+      <c r="CY250" s="2">
+        <v>783</v>
+      </c>
     </row>
-    <row r="251" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -78878,8 +79623,11 @@
       <c r="CX251" s="2">
         <v>30924</v>
       </c>
+      <c r="CY251" s="2">
+        <v>31170</v>
+      </c>
     </row>
-    <row r="252" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -79186,8 +79934,11 @@
       <c r="CX252" s="2">
         <v>13013</v>
       </c>
+      <c r="CY252" s="2">
+        <v>13095</v>
+      </c>
     </row>
-    <row r="253" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -79494,8 +80245,11 @@
       <c r="CX253" s="2">
         <v>2232</v>
       </c>
+      <c r="CY253" s="2">
+        <v>2235</v>
+      </c>
     </row>
-    <row r="254" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -79802,8 +80556,11 @@
       <c r="CX254" s="2">
         <v>5502</v>
       </c>
+      <c r="CY254" s="2">
+        <v>5573</v>
+      </c>
     </row>
-    <row r="255" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -80110,8 +80867,11 @@
       <c r="CX255" s="2">
         <v>9927</v>
       </c>
+      <c r="CY255" s="2">
+        <v>9949</v>
+      </c>
     </row>
-    <row r="256" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -80418,8 +81178,11 @@
       <c r="CX256" s="2">
         <v>5382</v>
       </c>
+      <c r="CY256" s="2">
+        <v>5416</v>
+      </c>
     </row>
-    <row r="257" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -80726,8 +81489,11 @@
       <c r="CX257" s="2">
         <v>122331</v>
       </c>
+      <c r="CY257" s="2">
+        <v>122548</v>
+      </c>
     </row>
-    <row r="258" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:103" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -81037,8 +81803,11 @@
       <c r="CX258" s="8">
         <v>14728384</v>
       </c>
+      <c r="CY258" s="8">
+        <v>14865845</v>
+      </c>
     </row>
-    <row r="259" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:103" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -81065,7 +81834,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -81073,7 +81842,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -81081,7 +81850,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -81089,7 +81858,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -81097,7 +81866,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -81105,7 +81874,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -81113,7 +81882,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -81121,7 +81890,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -81129,7 +81898,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -81137,7 +81906,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -81145,7 +81914,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -81153,7 +81922,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -81161,7 +81930,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:102" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:103" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6AFE0BC-F4E0-43EE-A702-3B02A7C98FE9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{238BE50B-4E8C-4601-B2C7-257B51804333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11898" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,50 +1834,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CY513"/>
+  <dimension ref="A1:CZ513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.46484375" customWidth="1"/>
+    <col min="1" max="1" width="15.4765625" customWidth="1"/>
+    <col min="2" max="24" width="9.078125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.87890625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.4765625" customWidth="1"/>
     <col min="27" max="27" width="9.3984375" customWidth="1"/>
     <col min="28" max="28" width="9.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.86328125" customWidth="1"/>
-    <col min="30" max="34" width="9.46484375" customWidth="1"/>
-    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.06640625" style="5"/>
-    <col min="57" max="57" width="9.06640625" style="6"/>
-    <col min="60" max="61" width="9.06640625" style="6"/>
-    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.87890625" customWidth="1"/>
+    <col min="30" max="34" width="9.4765625" customWidth="1"/>
+    <col min="35" max="36" width="8.87890625" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.078125" style="5"/>
+    <col min="57" max="57" width="9.078125" style="6"/>
+    <col min="60" max="61" width="9.078125" style="6"/>
+    <col min="62" max="62" width="9.87890625" style="6" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.19921875" customWidth="1"/>
     <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.06640625" customWidth="1"/>
-    <col min="68" max="68" width="10.6640625" customWidth="1"/>
-    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.078125" customWidth="1"/>
+    <col min="68" max="68" width="10.6796875" customWidth="1"/>
+    <col min="69" max="69" width="10.4765625" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
+    <col min="71" max="71" width="10.51953125" style="6" customWidth="1"/>
     <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.6640625" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.6796875" style="6" customWidth="1"/>
     <col min="74" max="74" width="10.59765625" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.06640625" customWidth="1"/>
+    <col min="79" max="79" width="10.078125" customWidth="1"/>
     <col min="80" max="80" width="10.19921875" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" customWidth="1"/>
-    <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
-    <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.31640625" customWidth="1"/>
+    <col min="82" max="90" width="10.71875" style="7" customWidth="1"/>
+    <col min="91" max="103" width="9.87890625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2187,8 +2187,11 @@
       <c r="CY2" s="4">
         <v>44188</v>
       </c>
+      <c r="CZ2" s="4">
+        <v>44189</v>
+      </c>
     </row>
-    <row r="3" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2498,8 +2501,11 @@
       <c r="CY3" s="2">
         <v>42623</v>
       </c>
+      <c r="CZ3" s="2">
+        <v>43044</v>
+      </c>
     </row>
-    <row r="4" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2809,8 +2815,11 @@
       <c r="CY4" s="2">
         <v>4713</v>
       </c>
+      <c r="CZ4" s="2">
+        <v>4739</v>
+      </c>
     </row>
-    <row r="5" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3120,8 +3129,11 @@
       <c r="CY5" s="2">
         <v>44523</v>
       </c>
+      <c r="CZ5" s="2">
+        <v>45759</v>
+      </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3443,11 @@
       <c r="CY6" s="2">
         <v>8198</v>
       </c>
+      <c r="CZ6" s="2">
+        <v>8358</v>
+      </c>
     </row>
-    <row r="7" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3742,8 +3757,11 @@
       <c r="CY7" s="2">
         <v>2378</v>
       </c>
+      <c r="CZ7" s="2">
+        <v>2398</v>
+      </c>
     </row>
-    <row r="8" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4053,8 +4071,11 @@
       <c r="CY8" s="2">
         <v>612</v>
       </c>
+      <c r="CZ8" s="2">
+        <v>617</v>
+      </c>
     </row>
-    <row r="9" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4364,8 +4385,11 @@
       <c r="CY9" s="2">
         <v>23323</v>
       </c>
+      <c r="CZ9" s="2">
+        <v>23578</v>
+      </c>
     </row>
-    <row r="10" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4675,8 +4699,11 @@
       <c r="CY10" s="2">
         <v>11553</v>
       </c>
+      <c r="CZ10" s="2">
+        <v>11659</v>
+      </c>
     </row>
-    <row r="11" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4986,8 +5013,11 @@
       <c r="CY11" s="2">
         <v>1798</v>
       </c>
+      <c r="CZ11" s="2">
+        <v>1813</v>
+      </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5297,8 +5327,11 @@
       <c r="CY12" s="2">
         <v>6262</v>
       </c>
+      <c r="CZ12" s="2">
+        <v>6318</v>
+      </c>
     </row>
-    <row r="13" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5608,8 +5641,11 @@
       <c r="CY13" s="2">
         <v>35597</v>
       </c>
+      <c r="CZ13" s="2">
+        <v>36328</v>
+      </c>
     </row>
-    <row r="14" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5919,8 +5955,11 @@
       <c r="CY14" s="2">
         <v>1452</v>
       </c>
+      <c r="CZ14" s="2">
+        <v>1459</v>
+      </c>
     </row>
-    <row r="15" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6230,8 +6269,11 @@
       <c r="CY15" s="2">
         <v>28500</v>
       </c>
+      <c r="CZ15" s="2">
+        <v>28644</v>
+      </c>
     </row>
-    <row r="16" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6541,8 +6583,11 @@
       <c r="CY16" s="2">
         <v>164324</v>
       </c>
+      <c r="CZ16" s="2">
+        <v>166776</v>
+      </c>
     </row>
-    <row r="17" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6852,8 +6897,11 @@
       <c r="CY17" s="2">
         <v>974506</v>
       </c>
+      <c r="CZ17" s="2">
+        <v>984471</v>
+      </c>
     </row>
-    <row r="18" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7163,8 +7211,11 @@
       <c r="CY18" s="2">
         <v>3808</v>
       </c>
+      <c r="CZ18" s="2">
+        <v>3842</v>
+      </c>
     </row>
-    <row r="19" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7474,8 +7525,11 @@
       <c r="CY19" s="2">
         <v>102</v>
       </c>
+      <c r="CZ19" s="2">
+        <v>105</v>
+      </c>
     </row>
-    <row r="20" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7785,8 +7839,11 @@
       <c r="CY20" s="2">
         <v>9663</v>
       </c>
+      <c r="CZ20" s="2">
+        <v>9715</v>
+      </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8096,8 +8153,11 @@
       <c r="CY21" s="2">
         <v>54580</v>
       </c>
+      <c r="CZ21" s="2">
+        <v>55092</v>
+      </c>
     </row>
-    <row r="22" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8407,8 +8467,11 @@
       <c r="CY22" s="2">
         <v>212544</v>
       </c>
+      <c r="CZ22" s="2">
+        <v>214678</v>
+      </c>
     </row>
-    <row r="23" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8718,8 +8781,11 @@
       <c r="CY23" s="2">
         <v>150912</v>
       </c>
+      <c r="CZ23" s="2">
+        <v>153666</v>
+      </c>
     </row>
-    <row r="24" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9029,8 +9095,11 @@
       <c r="CY24" s="2">
         <v>7515</v>
       </c>
+      <c r="CZ24" s="2">
+        <v>7517</v>
+      </c>
     </row>
-    <row r="25" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9340,8 +9409,11 @@
       <c r="CY25" s="2">
         <v>488</v>
       </c>
+      <c r="CZ25" s="2">
+        <v>506</v>
+      </c>
     </row>
-    <row r="26" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9651,8 +9723,11 @@
       <c r="CY26" s="2">
         <v>10185</v>
       </c>
+      <c r="CZ26" s="2">
+        <v>10211</v>
+      </c>
     </row>
-    <row r="27" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -9962,8 +10037,11 @@
       <c r="CY27" s="2">
         <v>19918</v>
       </c>
+      <c r="CZ27" s="2">
+        <v>20122</v>
+      </c>
     </row>
-    <row r="28" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10273,8 +10351,11 @@
       <c r="CY28" s="2">
         <v>8873</v>
       </c>
+      <c r="CZ28" s="2">
+        <v>9001</v>
+      </c>
     </row>
-    <row r="29" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10584,8 +10665,11 @@
       <c r="CY29" s="2">
         <v>21627</v>
       </c>
+      <c r="CZ29" s="2">
+        <v>21921</v>
+      </c>
     </row>
-    <row r="30" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10895,8 +10979,11 @@
       <c r="CY30" s="2">
         <v>20713</v>
       </c>
+      <c r="CZ30" s="2">
+        <v>21286</v>
+      </c>
     </row>
-    <row r="31" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11206,8 +11293,11 @@
       <c r="CY31" s="2">
         <v>10428</v>
       </c>
+      <c r="CZ31" s="2">
+        <v>10744</v>
+      </c>
     </row>
-    <row r="32" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11517,8 +11607,11 @@
       <c r="CY32" s="2">
         <v>5958</v>
       </c>
+      <c r="CZ32" s="2">
+        <v>6087</v>
+      </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11828,8 +11921,11 @@
       <c r="CY33" s="2">
         <v>180318</v>
       </c>
+      <c r="CZ33" s="2">
+        <v>181566</v>
+      </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12139,8 +12235,11 @@
       <c r="CY34" s="2">
         <v>4078</v>
       </c>
+      <c r="CZ34" s="2">
+        <v>4103</v>
+      </c>
     </row>
-    <row r="35" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12450,8 +12549,11 @@
       <c r="CY35" s="2">
         <v>1701</v>
       </c>
+      <c r="CZ35" s="2">
+        <v>1720</v>
+      </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12761,8 +12863,11 @@
       <c r="CY36" s="2">
         <v>12169</v>
       </c>
+      <c r="CZ36" s="2">
+        <v>12238</v>
+      </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13072,8 +13177,11 @@
       <c r="CY37" s="2">
         <v>4137</v>
       </c>
+      <c r="CZ37" s="2">
+        <v>4162</v>
+      </c>
     </row>
-    <row r="38" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13383,8 +13491,11 @@
       <c r="CY38" s="2">
         <v>6399</v>
       </c>
+      <c r="CZ38" s="2">
+        <v>6451</v>
+      </c>
     </row>
-    <row r="39" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13694,8 +13805,11 @@
       <c r="CY39" s="2">
         <v>18562</v>
       </c>
+      <c r="CZ39" s="2">
+        <v>18743</v>
+      </c>
     </row>
-    <row r="40" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14005,8 +14119,11 @@
       <c r="CY40" s="2">
         <v>4697</v>
       </c>
+      <c r="CZ40" s="2">
+        <v>4736</v>
+      </c>
     </row>
-    <row r="41" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14316,8 +14433,11 @@
       <c r="CY41" s="2">
         <v>3351</v>
       </c>
+      <c r="CZ41" s="2">
+        <v>3372</v>
+      </c>
     </row>
-    <row r="42" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14627,8 +14747,11 @@
       <c r="CY42" s="2">
         <v>760</v>
       </c>
+      <c r="CZ42" s="2">
+        <v>764</v>
+      </c>
     </row>
-    <row r="43" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -14938,8 +15061,11 @@
       <c r="CY43" s="2">
         <v>2435</v>
       </c>
+      <c r="CZ43" s="2">
+        <v>2436</v>
+      </c>
     </row>
-    <row r="44" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15249,8 +15375,11 @@
       <c r="CY44" s="2">
         <v>3347</v>
       </c>
+      <c r="CZ44" s="2">
+        <v>3384</v>
+      </c>
     </row>
-    <row r="45" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15560,8 +15689,11 @@
       <c r="CY45" s="2">
         <v>597691</v>
       </c>
+      <c r="CZ45" s="2">
+        <v>602537</v>
+      </c>
     </row>
-    <row r="46" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -15871,8 +16003,11 @@
       <c r="CY46" s="2">
         <v>1414</v>
       </c>
+      <c r="CZ46" s="2">
+        <v>1423</v>
+      </c>
     </row>
-    <row r="47" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16182,8 +16317,11 @@
       <c r="CY47" s="2">
         <v>10138</v>
       </c>
+      <c r="CZ47" s="2">
+        <v>10204</v>
+      </c>
     </row>
-    <row r="48" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16493,8 +16631,11 @@
       <c r="CY48" s="2">
         <v>65752</v>
       </c>
+      <c r="CZ48" s="2">
+        <v>66558</v>
+      </c>
     </row>
-    <row r="49" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16804,8 +16945,11 @@
       <c r="CY49" s="2">
         <v>6518</v>
       </c>
+      <c r="CZ49" s="2">
+        <v>6592</v>
+      </c>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -17115,8 +17259,11 @@
       <c r="CY50" s="2">
         <v>1807</v>
       </c>
+      <c r="CZ50" s="2">
+        <v>1810</v>
+      </c>
     </row>
-    <row r="51" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -17426,8 +17573,11 @@
       <c r="CY51" s="2">
         <v>18245</v>
       </c>
+      <c r="CZ51" s="2">
+        <v>18493</v>
+      </c>
     </row>
-    <row r="52" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17737,8 +17887,11 @@
       <c r="CY52" s="2">
         <v>62470</v>
       </c>
+      <c r="CZ52" s="2">
+        <v>62736</v>
+      </c>
     </row>
-    <row r="53" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18048,8 +18201,11 @@
       <c r="CY53" s="2">
         <v>917</v>
       </c>
+      <c r="CZ53" s="2">
+        <v>929</v>
+      </c>
     </row>
-    <row r="54" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18359,8 +18515,11 @@
       <c r="CY54" s="2">
         <v>3441</v>
       </c>
+      <c r="CZ54" s="2">
+        <v>3450</v>
+      </c>
     </row>
-    <row r="55" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18670,8 +18829,11 @@
       <c r="CY55" s="2">
         <v>1923</v>
       </c>
+      <c r="CZ55" s="2">
+        <v>1936</v>
+      </c>
     </row>
-    <row r="56" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -18981,8 +19143,11 @@
       <c r="CY56" s="2">
         <v>2861</v>
       </c>
+      <c r="CZ56" s="2">
+        <v>2888</v>
+      </c>
     </row>
-    <row r="57" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19292,8 +19457,11 @@
       <c r="CY57" s="2">
         <v>1652</v>
       </c>
+      <c r="CZ57" s="2">
+        <v>1657</v>
+      </c>
     </row>
-    <row r="58" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -19603,8 +19771,11 @@
       <c r="CY58" s="2">
         <v>1489</v>
       </c>
+      <c r="CZ58" s="2">
+        <v>1490</v>
+      </c>
     </row>
-    <row r="59" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -19914,8 +20085,11 @@
       <c r="CY59" s="2">
         <v>1540374</v>
       </c>
+      <c r="CZ59" s="2">
+        <v>1551437</v>
+      </c>
     </row>
-    <row r="60" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -20225,8 +20399,11 @@
       <c r="CY60" s="2">
         <v>6873</v>
       </c>
+      <c r="CZ60" s="2">
+        <v>6908</v>
+      </c>
     </row>
-    <row r="61" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -20536,8 +20713,11 @@
       <c r="CY61" s="2">
         <v>7103</v>
       </c>
+      <c r="CZ61" s="2">
+        <v>7131</v>
+      </c>
     </row>
-    <row r="62" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -20847,8 +21027,11 @@
       <c r="CY62" s="2">
         <v>4980</v>
       </c>
+      <c r="CZ62" s="2">
+        <v>5108</v>
+      </c>
     </row>
-    <row r="63" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -21158,8 +21341,11 @@
       <c r="CY63" s="2">
         <v>1827</v>
       </c>
+      <c r="CZ63" s="2">
+        <v>1843</v>
+      </c>
     </row>
-    <row r="64" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -21469,8 +21655,11 @@
       <c r="CY64" s="2">
         <v>372477</v>
       </c>
+      <c r="CZ64" s="2">
+        <v>375735</v>
+      </c>
     </row>
-    <row r="65" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21780,8 +21969,11 @@
       <c r="CY65" s="2">
         <v>559</v>
       </c>
+      <c r="CZ65" s="2">
+        <v>568</v>
+      </c>
     </row>
-    <row r="66" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -22091,8 +22283,11 @@
       <c r="CY66" s="2">
         <v>5054</v>
       </c>
+      <c r="CZ66" s="2">
+        <v>5087</v>
+      </c>
     </row>
-    <row r="67" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -22402,8 +22597,11 @@
       <c r="CY67" s="2">
         <v>1476</v>
       </c>
+      <c r="CZ67" s="2">
+        <v>1485</v>
+      </c>
     </row>
-    <row r="68" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -22713,8 +22911,11 @@
       <c r="CY68" s="2">
         <v>12794</v>
       </c>
+      <c r="CZ68" s="2">
+        <v>12976</v>
+      </c>
     </row>
-    <row r="69" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -23024,8 +23225,11 @@
       <c r="CY69" s="2">
         <v>5157</v>
       </c>
+      <c r="CZ69" s="2">
+        <v>5192</v>
+      </c>
     </row>
-    <row r="70" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -23335,8 +23539,11 @@
       <c r="CY70" s="2">
         <v>53954</v>
       </c>
+      <c r="CZ70" s="2">
+        <v>54179</v>
+      </c>
     </row>
-    <row r="71" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -23646,8 +23853,11 @@
       <c r="CY71" s="2">
         <v>1049</v>
       </c>
+      <c r="CZ71" s="2">
+        <v>1053</v>
+      </c>
     </row>
-    <row r="72" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -23957,8 +24167,11 @@
       <c r="CY72" s="2">
         <v>621351</v>
       </c>
+      <c r="CZ72" s="2">
+        <v>623389</v>
+      </c>
     </row>
-    <row r="73" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -24268,8 +24481,11 @@
       <c r="CY73" s="2">
         <v>102037</v>
       </c>
+      <c r="CZ73" s="2">
+        <v>102679</v>
+      </c>
     </row>
-    <row r="74" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -24579,8 +24795,11 @@
       <c r="CY74" s="2">
         <v>15176</v>
       </c>
+      <c r="CZ74" s="2">
+        <v>15262</v>
+      </c>
     </row>
-    <row r="75" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -24890,8 +25109,11 @@
       <c r="CY75" s="2">
         <v>9943</v>
       </c>
+      <c r="CZ75" s="2">
+        <v>10072</v>
+      </c>
     </row>
-    <row r="76" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -25201,8 +25423,11 @@
       <c r="CY76" s="2">
         <v>17517</v>
       </c>
+      <c r="CZ76" s="2">
+        <v>17677</v>
+      </c>
     </row>
-    <row r="77" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -25512,8 +25737,11 @@
       <c r="CY77" s="2">
         <v>10393</v>
       </c>
+      <c r="CZ77" s="2">
+        <v>10484</v>
+      </c>
     </row>
-    <row r="78" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -25823,8 +26051,11 @@
       <c r="CY78" s="2">
         <v>1125</v>
       </c>
+      <c r="CZ78" s="2">
+        <v>1146</v>
+      </c>
     </row>
-    <row r="79" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -26134,8 +26365,11 @@
       <c r="CY79" s="2">
         <v>1943</v>
       </c>
+      <c r="CZ79" s="2">
+        <v>1958</v>
+      </c>
     </row>
-    <row r="80" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -26445,8 +26679,11 @@
       <c r="CY80" s="2">
         <v>697</v>
       </c>
+      <c r="CZ80" s="2">
+        <v>698</v>
+      </c>
     </row>
-    <row r="81" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -26756,8 +26993,11 @@
       <c r="CY81" s="2">
         <v>396151</v>
       </c>
+      <c r="CZ81" s="2">
+        <v>400673</v>
+      </c>
     </row>
-    <row r="82" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -27067,8 +27307,11 @@
       <c r="CY82" s="2">
         <v>3265</v>
       </c>
+      <c r="CZ82" s="2">
+        <v>3282</v>
+      </c>
     </row>
-    <row r="83" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -27378,8 +27621,11 @@
       <c r="CY83" s="2">
         <v>11531</v>
       </c>
+      <c r="CZ83" s="2">
+        <v>11649</v>
+      </c>
     </row>
-    <row r="84" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -27689,8 +27935,11 @@
       <c r="CY84" s="2">
         <v>10607</v>
       </c>
+      <c r="CZ84" s="2">
+        <v>10662</v>
+      </c>
     </row>
-    <row r="85" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -28000,8 +28249,11 @@
       <c r="CY85" s="2">
         <v>3289</v>
       </c>
+      <c r="CZ85" s="2">
+        <v>3302</v>
+      </c>
     </row>
-    <row r="86" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -28311,8 +28563,11 @@
       <c r="CY86" s="2">
         <v>230353</v>
       </c>
+      <c r="CZ86" s="2">
+        <v>232391</v>
+      </c>
     </row>
-    <row r="87" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -28622,8 +28877,11 @@
       <c r="CY87" s="2">
         <v>2067</v>
       </c>
+      <c r="CZ87" s="2">
+        <v>2087</v>
+      </c>
     </row>
-    <row r="88" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -28933,8 +29191,11 @@
       <c r="CY88" s="2">
         <v>13125</v>
       </c>
+      <c r="CZ88" s="2">
+        <v>13203</v>
+      </c>
     </row>
-    <row r="89" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -29244,8 +29505,11 @@
       <c r="CY89" s="2">
         <v>141</v>
       </c>
+      <c r="CZ89" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="90" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -29555,8 +29819,11 @@
       <c r="CY90" s="2">
         <v>2632</v>
       </c>
+      <c r="CZ90" s="2">
+        <v>2638</v>
+      </c>
     </row>
-    <row r="91" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -29866,8 +30133,11 @@
       <c r="CY91" s="2">
         <v>9815</v>
       </c>
+      <c r="CZ91" s="2">
+        <v>10107</v>
+      </c>
     </row>
-    <row r="92" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -30177,8 +30447,11 @@
       <c r="CY92" s="2">
         <v>6654</v>
       </c>
+      <c r="CZ92" s="2">
+        <v>6721</v>
+      </c>
     </row>
-    <row r="93" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -30488,8 +30761,11 @@
       <c r="CY93" s="2">
         <v>67061</v>
       </c>
+      <c r="CZ93" s="2">
+        <v>67548</v>
+      </c>
     </row>
-    <row r="94" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -30799,8 +31075,11 @@
       <c r="CY94" s="2">
         <v>43610</v>
       </c>
+      <c r="CZ94" s="2">
+        <v>44177</v>
+      </c>
     </row>
-    <row r="95" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -31110,8 +31389,11 @@
       <c r="CY95" s="2">
         <v>16566</v>
       </c>
+      <c r="CZ95" s="2">
+        <v>16940</v>
+      </c>
     </row>
-    <row r="96" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -31421,8 +31703,11 @@
       <c r="CY96" s="2">
         <v>48867</v>
       </c>
+      <c r="CZ96" s="2">
+        <v>49461</v>
+      </c>
     </row>
-    <row r="97" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -31732,8 +32017,11 @@
       <c r="CY97" s="2">
         <v>10887</v>
       </c>
+      <c r="CZ97" s="2">
+        <v>11015</v>
+      </c>
     </row>
-    <row r="98" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -32043,8 +32331,11 @@
       <c r="CY98" s="2">
         <v>1946</v>
       </c>
+      <c r="CZ98" s="2">
+        <v>1959</v>
+      </c>
     </row>
-    <row r="99" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -32354,8 +32645,11 @@
       <c r="CY99" s="2">
         <v>3847</v>
       </c>
+      <c r="CZ99" s="2">
+        <v>3871</v>
+      </c>
     </row>
-    <row r="100" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -32665,8 +32959,11 @@
       <c r="CY100" s="2">
         <v>2085</v>
       </c>
+      <c r="CZ100" s="2">
+        <v>2090</v>
+      </c>
     </row>
-    <row r="101" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -32976,8 +33273,11 @@
       <c r="CY101" s="2">
         <v>1575</v>
       </c>
+      <c r="CZ101" s="2">
+        <v>1591</v>
+      </c>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -33287,8 +33587,11 @@
       <c r="CY102" s="2">
         <v>16699</v>
       </c>
+      <c r="CZ102" s="2">
+        <v>16932</v>
+      </c>
     </row>
-    <row r="103" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -33598,8 +33901,11 @@
       <c r="CY103" s="2">
         <v>2493981</v>
       </c>
+      <c r="CZ103" s="2">
+        <v>2519635</v>
+      </c>
     </row>
-    <row r="104" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -33909,8 +34215,11 @@
       <c r="CY104" s="2">
         <v>45853</v>
       </c>
+      <c r="CZ104" s="2">
+        <v>46395</v>
+      </c>
     </row>
-    <row r="105" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -34220,8 +34529,11 @@
       <c r="CY105" s="2">
         <v>139</v>
       </c>
+      <c r="CZ105" s="2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="106" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -34531,8 +34843,11 @@
       <c r="CY106" s="2">
         <v>1766</v>
       </c>
+      <c r="CZ106" s="2">
+        <v>1773</v>
+      </c>
     </row>
-    <row r="107" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -34842,8 +35157,11 @@
       <c r="CY107" s="2">
         <v>137633</v>
       </c>
+      <c r="CZ107" s="2">
+        <v>138950</v>
+      </c>
     </row>
-    <row r="108" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -35153,8 +35471,11 @@
       <c r="CY108" s="2">
         <v>986</v>
       </c>
+      <c r="CZ108" s="2">
+        <v>988</v>
+      </c>
     </row>
-    <row r="109" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -35464,8 +35785,11 @@
       <c r="CY109" s="2">
         <v>21228</v>
       </c>
+      <c r="CZ109" s="2">
+        <v>21394</v>
+      </c>
     </row>
-    <row r="110" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -35775,8 +36099,11 @@
       <c r="CY110" s="2">
         <v>328489</v>
       </c>
+      <c r="CZ110" s="2">
+        <v>330781</v>
+      </c>
     </row>
-    <row r="111" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -36086,8 +36413,11 @@
       <c r="CY111" s="2">
         <v>26489</v>
       </c>
+      <c r="CZ111" s="2">
+        <v>26645</v>
+      </c>
     </row>
-    <row r="112" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -36397,8 +36727,11 @@
       <c r="CY112" s="2">
         <v>7552</v>
       </c>
+      <c r="CZ112" s="2">
+        <v>7635</v>
+      </c>
     </row>
-    <row r="113" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -36708,8 +37041,11 @@
       <c r="CY113" s="2">
         <v>32545</v>
       </c>
+      <c r="CZ113" s="2">
+        <v>32721</v>
+      </c>
     </row>
-    <row r="114" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -37019,8 +37355,11 @@
       <c r="CY114" s="2">
         <v>13098</v>
       </c>
+      <c r="CZ114" s="2">
+        <v>13208</v>
+      </c>
     </row>
-    <row r="115" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -37330,8 +37669,11 @@
       <c r="CY115" s="2">
         <v>12257</v>
       </c>
+      <c r="CZ115" s="2">
+        <v>12472</v>
+      </c>
     </row>
-    <row r="116" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -37641,8 +37983,11 @@
       <c r="CY116" s="2">
         <v>11844</v>
       </c>
+      <c r="CZ116" s="2">
+        <v>11998</v>
+      </c>
     </row>
-    <row r="117" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -37952,8 +38297,11 @@
       <c r="CY117" s="2">
         <v>2108</v>
       </c>
+      <c r="CZ117" s="2">
+        <v>2116</v>
+      </c>
     </row>
-    <row r="118" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -38263,8 +38611,11 @@
       <c r="CY118" s="2">
         <v>48835</v>
       </c>
+      <c r="CZ118" s="2">
+        <v>49348</v>
+      </c>
     </row>
-    <row r="119" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -38574,8 +38925,11 @@
       <c r="CY119" s="2">
         <v>8487</v>
       </c>
+      <c r="CZ119" s="2">
+        <v>8520</v>
+      </c>
     </row>
-    <row r="120" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -38885,8 +39239,11 @@
       <c r="CY120" s="2">
         <v>391</v>
       </c>
+      <c r="CZ120" s="2">
+        <v>392</v>
+      </c>
     </row>
-    <row r="121" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -39196,8 +39553,11 @@
       <c r="CY121" s="2">
         <v>1241</v>
       </c>
+      <c r="CZ121" s="2">
+        <v>1253</v>
+      </c>
     </row>
-    <row r="122" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -39507,8 +39867,11 @@
       <c r="CY122" s="2">
         <v>5474</v>
       </c>
+      <c r="CZ122" s="2">
+        <v>5496</v>
+      </c>
     </row>
-    <row r="123" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -39818,8 +40181,11 @@
       <c r="CY123" s="2">
         <v>11301</v>
       </c>
+      <c r="CZ123" s="2">
+        <v>11361</v>
+      </c>
     </row>
-    <row r="124" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -40129,8 +40495,11 @@
       <c r="CY124" s="2">
         <v>1322</v>
       </c>
+      <c r="CZ124" s="2">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="125" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -40440,8 +40809,11 @@
       <c r="CY125" s="2">
         <v>133453</v>
       </c>
+      <c r="CZ125" s="2">
+        <v>134185</v>
+      </c>
     </row>
-    <row r="126" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -40751,8 +41123,11 @@
       <c r="CY126" s="2">
         <v>7231</v>
       </c>
+      <c r="CZ126" s="2">
+        <v>7289</v>
+      </c>
     </row>
-    <row r="127" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -41062,8 +41437,11 @@
       <c r="CY127" s="2">
         <v>40795</v>
       </c>
+      <c r="CZ127" s="2">
+        <v>41207</v>
+      </c>
     </row>
-    <row r="128" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -41373,8 +41751,11 @@
       <c r="CY128" s="2">
         <v>79344</v>
       </c>
+      <c r="CZ128" s="2">
+        <v>80109</v>
+      </c>
     </row>
-    <row r="129" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -41684,8 +42065,11 @@
       <c r="CY129" s="2">
         <v>5446</v>
       </c>
+      <c r="CZ129" s="2">
+        <v>5483</v>
+      </c>
     </row>
-    <row r="130" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -41995,8 +42379,11 @@
       <c r="CY130" s="2">
         <v>11161</v>
       </c>
+      <c r="CZ130" s="2">
+        <v>11283</v>
+      </c>
     </row>
-    <row r="131" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -42306,8 +42693,11 @@
       <c r="CY131" s="2">
         <v>68617</v>
       </c>
+      <c r="CZ131" s="2">
+        <v>69317</v>
+      </c>
     </row>
-    <row r="132" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -42617,8 +43007,11 @@
       <c r="CY132" s="2">
         <v>16276</v>
       </c>
+      <c r="CZ132" s="2">
+        <v>16431</v>
+      </c>
     </row>
-    <row r="133" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -42928,8 +43321,11 @@
       <c r="CY133" s="2">
         <v>149</v>
       </c>
+      <c r="CZ133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -43239,8 +43635,11 @@
       <c r="CY134" s="2">
         <v>401</v>
       </c>
+      <c r="CZ134" s="2">
+        <v>403</v>
+      </c>
     </row>
-    <row r="135" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -43550,8 +43949,11 @@
       <c r="CY135" s="2">
         <v>30953</v>
       </c>
+      <c r="CZ135" s="2">
+        <v>31138</v>
+      </c>
     </row>
-    <row r="136" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -43861,8 +44263,11 @@
       <c r="CY136" s="2">
         <v>1500</v>
       </c>
+      <c r="CZ136" s="2">
+        <v>1505</v>
+      </c>
     </row>
-    <row r="137" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -44172,8 +44577,11 @@
       <c r="CY137" s="2">
         <v>38</v>
       </c>
+      <c r="CZ137" s="2">
+        <v>38</v>
+      </c>
     </row>
-    <row r="138" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -44483,8 +44891,11 @@
       <c r="CY138" s="2">
         <v>1182</v>
       </c>
+      <c r="CZ138" s="2">
+        <v>1204</v>
+      </c>
     </row>
-    <row r="139" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -44794,8 +45205,11 @@
       <c r="CY139" s="2">
         <v>22760</v>
       </c>
+      <c r="CZ139" s="2">
+        <v>22873</v>
+      </c>
     </row>
-    <row r="140" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -45105,8 +45519,11 @@
       <c r="CY140" s="2">
         <v>1790</v>
       </c>
+      <c r="CZ140" s="2">
+        <v>1791</v>
+      </c>
     </row>
-    <row r="141" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -45416,8 +45833,11 @@
       <c r="CY141" s="2">
         <v>5032</v>
       </c>
+      <c r="CZ141" s="2">
+        <v>5080</v>
+      </c>
     </row>
-    <row r="142" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -45727,8 +46147,11 @@
       <c r="CY142" s="2">
         <v>16147</v>
       </c>
+      <c r="CZ142" s="2">
+        <v>16317</v>
+      </c>
     </row>
-    <row r="143" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -46038,8 +46461,11 @@
       <c r="CY143" s="2">
         <v>6749</v>
       </c>
+      <c r="CZ143" s="2">
+        <v>6989</v>
+      </c>
     </row>
-    <row r="144" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -46349,8 +46775,11 @@
       <c r="CY144" s="2">
         <v>12143</v>
       </c>
+      <c r="CZ144" s="2">
+        <v>12292</v>
+      </c>
     </row>
-    <row r="145" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -46660,8 +47089,11 @@
       <c r="CY145" s="2">
         <v>9416</v>
       </c>
+      <c r="CZ145" s="2">
+        <v>9455</v>
+      </c>
     </row>
-    <row r="146" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -46971,8 +47403,11 @@
       <c r="CY146" s="2">
         <v>5958</v>
       </c>
+      <c r="CZ146" s="2">
+        <v>6012</v>
+      </c>
     </row>
-    <row r="147" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -47282,8 +47717,11 @@
       <c r="CY147" s="2">
         <v>6775</v>
       </c>
+      <c r="CZ147" s="2">
+        <v>6889</v>
+      </c>
     </row>
-    <row r="148" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -47593,8 +48031,11 @@
       <c r="CY148" s="2">
         <v>36095</v>
       </c>
+      <c r="CZ148" s="2">
+        <v>36369</v>
+      </c>
     </row>
-    <row r="149" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -47904,8 +48345,11 @@
       <c r="CY149" s="2">
         <v>19480</v>
       </c>
+      <c r="CZ149" s="2">
+        <v>19870</v>
+      </c>
     </row>
-    <row r="150" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -48215,8 +48659,11 @@
       <c r="CY150" s="2">
         <v>273</v>
       </c>
+      <c r="CZ150" s="2">
+        <v>276</v>
+      </c>
     </row>
-    <row r="151" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -48526,8 +48973,11 @@
       <c r="CY151" s="2">
         <v>3722</v>
       </c>
+      <c r="CZ151" s="2">
+        <v>3783</v>
+      </c>
     </row>
-    <row r="152" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -48837,8 +49287,11 @@
       <c r="CY152" s="2">
         <v>7364</v>
       </c>
+      <c r="CZ152" s="2">
+        <v>7426</v>
+      </c>
     </row>
-    <row r="153" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -49148,8 +49601,11 @@
       <c r="CY153" s="2">
         <v>23</v>
       </c>
+      <c r="CZ153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -49459,8 +49915,11 @@
       <c r="CY154" s="2">
         <v>208782</v>
       </c>
+      <c r="CZ154" s="2">
+        <v>210953</v>
+      </c>
     </row>
-    <row r="155" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -49770,8 +50229,11 @@
       <c r="CY155" s="2">
         <v>3060</v>
       </c>
+      <c r="CZ155" s="2">
+        <v>3092</v>
+      </c>
     </row>
-    <row r="156" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -50081,8 +50543,11 @@
       <c r="CY156" s="2">
         <v>9906</v>
       </c>
+      <c r="CZ156" s="2">
+        <v>9964</v>
+      </c>
     </row>
-    <row r="157" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -50392,8 +50857,11 @@
       <c r="CY157" s="2">
         <v>2328</v>
       </c>
+      <c r="CZ157" s="2">
+        <v>2368</v>
+      </c>
     </row>
-    <row r="158" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -50703,8 +51171,11 @@
       <c r="CY158" s="2">
         <v>1286</v>
       </c>
+      <c r="CZ158" s="2">
+        <v>1293</v>
+      </c>
     </row>
-    <row r="159" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -51014,8 +51485,11 @@
       <c r="CY159" s="2">
         <v>1605</v>
       </c>
+      <c r="CZ159" s="2">
+        <v>1625</v>
+      </c>
     </row>
-    <row r="160" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -51325,8 +51799,11 @@
       <c r="CY160" s="2">
         <v>16757</v>
       </c>
+      <c r="CZ160" s="2">
+        <v>16896</v>
+      </c>
     </row>
-    <row r="161" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -51636,8 +52113,11 @@
       <c r="CY161" s="2">
         <v>36614</v>
       </c>
+      <c r="CZ161" s="2">
+        <v>36942</v>
+      </c>
     </row>
-    <row r="162" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -51947,8 +52427,11 @@
       <c r="CY162" s="2">
         <v>2324</v>
       </c>
+      <c r="CZ162" s="2">
+        <v>2341</v>
+      </c>
     </row>
-    <row r="163" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -52258,8 +52741,11 @@
       <c r="CY163" s="2">
         <v>191465</v>
       </c>
+      <c r="CZ163" s="2">
+        <v>193504</v>
+      </c>
     </row>
-    <row r="164" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -52569,8 +53055,11 @@
       <c r="CY164" s="2">
         <v>283</v>
       </c>
+      <c r="CZ164" s="2">
+        <v>287</v>
+      </c>
     </row>
-    <row r="165" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -52880,8 +53369,11 @@
       <c r="CY165" s="2">
         <v>18124</v>
       </c>
+      <c r="CZ165" s="2">
+        <v>18432</v>
+      </c>
     </row>
-    <row r="166" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -53191,8 +53683,11 @@
       <c r="CY166" s="2">
         <v>1786</v>
       </c>
+      <c r="CZ166" s="2">
+        <v>1790</v>
+      </c>
     </row>
-    <row r="167" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -53502,8 +53997,11 @@
       <c r="CY167" s="2">
         <v>53145</v>
       </c>
+      <c r="CZ167" s="2">
+        <v>53328</v>
+      </c>
     </row>
-    <row r="168" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -53813,8 +54311,11 @@
       <c r="CY168" s="2">
         <v>12471</v>
       </c>
+      <c r="CZ168" s="2">
+        <v>12554</v>
+      </c>
     </row>
-    <row r="169" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -54124,8 +54625,11 @@
       <c r="CY169" s="2">
         <v>3472</v>
       </c>
+      <c r="CZ169" s="2">
+        <v>3520</v>
+      </c>
     </row>
-    <row r="170" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -54435,8 +54939,11 @@
       <c r="CY170" s="2">
         <v>4890</v>
       </c>
+      <c r="CZ170" s="2">
+        <v>4920</v>
+      </c>
     </row>
-    <row r="171" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -54746,8 +55253,11 @@
       <c r="CY171" s="2">
         <v>8261</v>
       </c>
+      <c r="CZ171" s="2">
+        <v>8326</v>
+      </c>
     </row>
-    <row r="172" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -55057,8 +55567,11 @@
       <c r="CY172" s="2">
         <v>232240</v>
       </c>
+      <c r="CZ172" s="2">
+        <v>234148</v>
+      </c>
     </row>
-    <row r="173" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -55368,8 +55881,11 @@
       <c r="CY173" s="2">
         <v>7053</v>
       </c>
+      <c r="CZ173" s="2">
+        <v>7094</v>
+      </c>
     </row>
-    <row r="174" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -55679,8 +56195,11 @@
       <c r="CY174" s="2">
         <v>5135</v>
       </c>
+      <c r="CZ174" s="2">
+        <v>5226</v>
+      </c>
     </row>
-    <row r="175" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -55990,8 +56509,11 @@
       <c r="CY175" s="2">
         <v>466</v>
       </c>
+      <c r="CZ175" s="2">
+        <v>468</v>
+      </c>
     </row>
-    <row r="176" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -56301,8 +56823,11 @@
       <c r="CY176" s="2">
         <v>30410</v>
       </c>
+      <c r="CZ176" s="2">
+        <v>30788</v>
+      </c>
     </row>
-    <row r="177" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -56612,8 +57137,11 @@
       <c r="CY177" s="2">
         <v>22272</v>
       </c>
+      <c r="CZ177" s="2">
+        <v>22418</v>
+      </c>
     </row>
-    <row r="178" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -56923,8 +57451,11 @@
       <c r="CY178" s="2">
         <v>3361</v>
       </c>
+      <c r="CZ178" s="2">
+        <v>3377</v>
+      </c>
     </row>
-    <row r="179" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -57234,8 +57765,11 @@
       <c r="CY179" s="2">
         <v>6708</v>
       </c>
+      <c r="CZ179" s="2">
+        <v>6857</v>
+      </c>
     </row>
-    <row r="180" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -57545,8 +58079,11 @@
       <c r="CY180" s="2">
         <v>189729</v>
       </c>
+      <c r="CZ180" s="2">
+        <v>190982</v>
+      </c>
     </row>
-    <row r="181" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -57856,8 +58393,11 @@
       <c r="CY181" s="2">
         <v>534</v>
       </c>
+      <c r="CZ181" s="2">
+        <v>542</v>
+      </c>
     </row>
-    <row r="182" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -58167,8 +58707,11 @@
       <c r="CY182" s="2">
         <v>666</v>
       </c>
+      <c r="CZ182" s="2">
+        <v>670</v>
+      </c>
     </row>
-    <row r="183" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -58478,8 +59021,11 @@
       <c r="CY183" s="2">
         <v>24277</v>
       </c>
+      <c r="CZ183" s="2">
+        <v>24526</v>
+      </c>
     </row>
-    <row r="184" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -58789,8 +59335,11 @@
       <c r="CY184" s="2">
         <v>10472</v>
       </c>
+      <c r="CZ184" s="2">
+        <v>10603</v>
+      </c>
     </row>
-    <row r="185" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -59100,8 +59649,11 @@
       <c r="CY185" s="2">
         <v>6888</v>
       </c>
+      <c r="CZ185" s="2">
+        <v>7047</v>
+      </c>
     </row>
-    <row r="186" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -59411,8 +59963,11 @@
       <c r="CY186" s="2">
         <v>48460</v>
       </c>
+      <c r="CZ186" s="2">
+        <v>48976</v>
+      </c>
     </row>
-    <row r="187" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -59722,8 +60277,11 @@
       <c r="CY187" s="2">
         <v>2020</v>
       </c>
+      <c r="CZ187" s="2">
+        <v>2032</v>
+      </c>
     </row>
-    <row r="188" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -60033,8 +60591,11 @@
       <c r="CY188" s="2">
         <v>7253</v>
       </c>
+      <c r="CZ188" s="2">
+        <v>7270</v>
+      </c>
     </row>
-    <row r="189" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -60344,8 +60905,11 @@
       <c r="CY189" s="2">
         <v>21543</v>
       </c>
+      <c r="CZ189" s="2">
+        <v>21741</v>
+      </c>
     </row>
-    <row r="190" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -60655,8 +61219,11 @@
       <c r="CY190" s="2">
         <v>60203</v>
       </c>
+      <c r="CZ190" s="2">
+        <v>60571</v>
+      </c>
     </row>
-    <row r="191" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -60966,8 +61533,11 @@
       <c r="CY191" s="2">
         <v>6204</v>
       </c>
+      <c r="CZ191" s="2">
+        <v>6206</v>
+      </c>
     </row>
-    <row r="192" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -61277,8 +61847,11 @@
       <c r="CY192" s="2">
         <v>2132</v>
       </c>
+      <c r="CZ192" s="2">
+        <v>2152</v>
+      </c>
     </row>
-    <row r="193" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -61588,8 +62161,11 @@
       <c r="CY193" s="2">
         <v>41410</v>
       </c>
+      <c r="CZ193" s="2">
+        <v>41657</v>
+      </c>
     </row>
-    <row r="194" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -61899,8 +62475,11 @@
       <c r="CY194" s="2">
         <v>1021</v>
       </c>
+      <c r="CZ194" s="2">
+        <v>1024</v>
+      </c>
     </row>
-    <row r="195" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -62210,8 +62789,11 @@
       <c r="CY195" s="2">
         <v>1348</v>
       </c>
+      <c r="CZ195" s="2">
+        <v>1353</v>
+      </c>
     </row>
-    <row r="196" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -62521,8 +63103,11 @@
       <c r="CY196" s="2">
         <v>4657</v>
       </c>
+      <c r="CZ196" s="2">
+        <v>4676</v>
+      </c>
     </row>
-    <row r="197" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -62832,8 +63417,11 @@
       <c r="CY197" s="2">
         <v>3685</v>
       </c>
+      <c r="CZ197" s="2">
+        <v>3690</v>
+      </c>
     </row>
-    <row r="198" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -63143,8 +63731,11 @@
       <c r="CY198" s="2">
         <v>4174</v>
       </c>
+      <c r="CZ198" s="2">
+        <v>4194</v>
+      </c>
     </row>
-    <row r="199" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -63454,8 +64045,11 @@
       <c r="CY199" s="2">
         <v>117</v>
       </c>
+      <c r="CZ199" s="2">
+        <v>118</v>
+      </c>
     </row>
-    <row r="200" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -63765,8 +64359,11 @@
       <c r="CY200" s="2">
         <v>9732</v>
       </c>
+      <c r="CZ200" s="2">
+        <v>9932</v>
+      </c>
     </row>
-    <row r="201" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -64076,8 +64673,11 @@
       <c r="CY201" s="2">
         <v>44584</v>
       </c>
+      <c r="CZ201" s="2">
+        <v>45058</v>
+      </c>
     </row>
-    <row r="202" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -64387,8 +64987,11 @@
       <c r="CY202" s="2">
         <v>5458</v>
       </c>
+      <c r="CZ202" s="2">
+        <v>5519</v>
+      </c>
     </row>
-    <row r="203" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -64698,8 +65301,11 @@
       <c r="CY203" s="2">
         <v>14584</v>
       </c>
+      <c r="CZ203" s="2">
+        <v>14746</v>
+      </c>
     </row>
-    <row r="204" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -65009,8 +65615,11 @@
       <c r="CY204" s="2">
         <v>4715</v>
       </c>
+      <c r="CZ204" s="2">
+        <v>4754</v>
+      </c>
     </row>
-    <row r="205" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -65320,8 +65929,11 @@
       <c r="CY205" s="2">
         <v>4547</v>
       </c>
+      <c r="CZ205" s="2">
+        <v>4596</v>
+      </c>
     </row>
-    <row r="206" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -65631,8 +66243,11 @@
       <c r="CY206" s="2">
         <v>11289</v>
       </c>
+      <c r="CZ206" s="2">
+        <v>11392</v>
+      </c>
     </row>
-    <row r="207" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -65942,8 +66557,11 @@
       <c r="CY207" s="2">
         <v>29592</v>
       </c>
+      <c r="CZ207" s="2">
+        <v>29886</v>
+      </c>
     </row>
-    <row r="208" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -66253,8 +66871,11 @@
       <c r="CY208" s="2">
         <v>2489</v>
       </c>
+      <c r="CZ208" s="2">
+        <v>2535</v>
+      </c>
     </row>
-    <row r="209" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -66564,8 +67185,11 @@
       <c r="CY209" s="2">
         <v>928</v>
       </c>
+      <c r="CZ209" s="2">
+        <v>934</v>
+      </c>
     </row>
-    <row r="210" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -66875,8 +67499,11 @@
       <c r="CY210" s="2">
         <v>13651</v>
       </c>
+      <c r="CZ210" s="2">
+        <v>13726</v>
+      </c>
     </row>
-    <row r="211" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -67186,8 +67813,11 @@
       <c r="CY211" s="2">
         <v>761</v>
       </c>
+      <c r="CZ211" s="2">
+        <v>763</v>
+      </c>
     </row>
-    <row r="212" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -67497,8 +68127,11 @@
       <c r="CY212" s="2">
         <v>9588</v>
       </c>
+      <c r="CZ212" s="2">
+        <v>9735</v>
+      </c>
     </row>
-    <row r="213" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -67808,8 +68441,11 @@
       <c r="CY213" s="2">
         <v>163</v>
       </c>
+      <c r="CZ213" s="2">
+        <v>163</v>
+      </c>
     </row>
-    <row r="214" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -68119,8 +68755,11 @@
       <c r="CY214" s="2">
         <v>132131</v>
       </c>
+      <c r="CZ214" s="2">
+        <v>133089</v>
+      </c>
     </row>
-    <row r="215" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -68430,8 +69069,11 @@
       <c r="CY215" s="2">
         <v>5234</v>
       </c>
+      <c r="CZ215" s="2">
+        <v>5299</v>
+      </c>
     </row>
-    <row r="216" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -68741,8 +69383,11 @@
       <c r="CY216" s="2">
         <v>27731</v>
       </c>
+      <c r="CZ216" s="2">
+        <v>28214</v>
+      </c>
     </row>
-    <row r="217" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -69052,8 +69697,11 @@
       <c r="CY217" s="2">
         <v>2426</v>
       </c>
+      <c r="CZ217" s="2">
+        <v>2448</v>
+      </c>
     </row>
-    <row r="218" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -69363,8 +70011,11 @@
       <c r="CY218" s="2">
         <v>692</v>
       </c>
+      <c r="CZ218" s="2">
+        <v>696</v>
+      </c>
     </row>
-    <row r="219" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -69674,8 +70325,11 @@
       <c r="CY219" s="2">
         <v>235</v>
       </c>
+      <c r="CZ219" s="2">
+        <v>250</v>
+      </c>
     </row>
-    <row r="220" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -69985,8 +70639,11 @@
       <c r="CY220" s="2">
         <v>1409</v>
       </c>
+      <c r="CZ220" s="2">
+        <v>1422</v>
+      </c>
     </row>
-    <row r="221" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -70296,8 +70953,11 @@
       <c r="CY221" s="2">
         <v>3281</v>
       </c>
+      <c r="CZ221" s="2">
+        <v>3304</v>
+      </c>
     </row>
-    <row r="222" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -70607,8 +71267,11 @@
       <c r="CY222" s="2">
         <v>1026354</v>
       </c>
+      <c r="CZ222" s="2">
+        <v>1034167</v>
+      </c>
     </row>
-    <row r="223" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -70918,8 +71581,11 @@
       <c r="CY223" s="2">
         <v>77986</v>
       </c>
+      <c r="CZ223" s="2">
+        <v>79112</v>
+      </c>
     </row>
-    <row r="224" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -71229,8 +71895,11 @@
       <c r="CY224" s="2">
         <v>291</v>
       </c>
+      <c r="CZ224" s="2">
+        <v>292</v>
+      </c>
     </row>
-    <row r="225" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -71540,8 +72209,11 @@
       <c r="CY225" s="2">
         <v>3154</v>
       </c>
+      <c r="CZ225" s="2">
+        <v>3167</v>
+      </c>
     </row>
-    <row r="226" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -71851,8 +72523,11 @@
       <c r="CY226" s="2">
         <v>230</v>
       </c>
+      <c r="CZ226" s="2">
+        <v>234</v>
+      </c>
     </row>
-    <row r="227" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -72162,8 +72837,11 @@
       <c r="CY227" s="2">
         <v>15758</v>
       </c>
+      <c r="CZ227" s="2">
+        <v>15855</v>
+      </c>
     </row>
-    <row r="228" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -72473,8 +73151,11 @@
       <c r="CY228" s="2">
         <v>75805</v>
       </c>
+      <c r="CZ228" s="2">
+        <v>76426</v>
+      </c>
     </row>
-    <row r="229" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -72784,8 +73465,11 @@
       <c r="CY229" s="2">
         <v>631080</v>
       </c>
+      <c r="CZ229" s="2">
+        <v>637493</v>
+      </c>
     </row>
-    <row r="230" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -73095,8 +73779,11 @@
       <c r="CY230" s="2">
         <v>6819</v>
       </c>
+      <c r="CZ230" s="2">
+        <v>6935</v>
+      </c>
     </row>
-    <row r="231" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -73406,8 +74093,11 @@
       <c r="CY231" s="2">
         <v>8858</v>
       </c>
+      <c r="CZ231" s="2">
+        <v>8917</v>
+      </c>
     </row>
-    <row r="232" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -73717,8 +74407,11 @@
       <c r="CY232" s="2">
         <v>9124</v>
       </c>
+      <c r="CZ232" s="2">
+        <v>9276</v>
+      </c>
     </row>
-    <row r="233" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -74028,8 +74721,11 @@
       <c r="CY233" s="2">
         <v>1592</v>
       </c>
+      <c r="CZ233" s="2">
+        <v>1627</v>
+      </c>
     </row>
-    <row r="234" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -74339,8 +75035,11 @@
       <c r="CY234" s="2">
         <v>14076</v>
       </c>
+      <c r="CZ234" s="2">
+        <v>14118</v>
+      </c>
     </row>
-    <row r="235" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -74650,8 +75349,11 @@
       <c r="CY235" s="2">
         <v>27157</v>
       </c>
+      <c r="CZ235" s="2">
+        <v>27546</v>
+      </c>
     </row>
-    <row r="236" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -74961,8 +75663,11 @@
       <c r="CY236" s="2">
         <v>13959</v>
       </c>
+      <c r="CZ236" s="2">
+        <v>14083</v>
+      </c>
     </row>
-    <row r="237" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -75272,8 +75977,11 @@
       <c r="CY237" s="2">
         <v>33010</v>
       </c>
+      <c r="CZ237" s="2">
+        <v>33143</v>
+      </c>
     </row>
-    <row r="238" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -75583,8 +76291,11 @@
       <c r="CY238" s="2">
         <v>68462</v>
       </c>
+      <c r="CZ238" s="2">
+        <v>68960</v>
+      </c>
     </row>
-    <row r="239" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -75894,8 +76605,11 @@
       <c r="CY239" s="2">
         <v>18238</v>
       </c>
+      <c r="CZ239" s="2">
+        <v>18466</v>
+      </c>
     </row>
-    <row r="240" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -76205,8 +76919,11 @@
       <c r="CY240" s="2">
         <v>3265</v>
       </c>
+      <c r="CZ240" s="2">
+        <v>3271</v>
+      </c>
     </row>
-    <row r="241" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -76516,8 +77233,11 @@
       <c r="CY241" s="2">
         <v>23309</v>
       </c>
+      <c r="CZ241" s="2">
+        <v>23546</v>
+      </c>
     </row>
-    <row r="242" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -76827,8 +77547,11 @@
       <c r="CY242" s="2">
         <v>196508</v>
       </c>
+      <c r="CZ242" s="2">
+        <v>199002</v>
+      </c>
     </row>
-    <row r="243" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -77138,8 +77861,11 @@
       <c r="CY243" s="2">
         <v>20860</v>
       </c>
+      <c r="CZ243" s="2">
+        <v>21031</v>
+      </c>
     </row>
-    <row r="244" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -77449,8 +78175,11 @@
       <c r="CY244" s="2">
         <v>2688</v>
       </c>
+      <c r="CZ244" s="2">
+        <v>2739</v>
+      </c>
     </row>
-    <row r="245" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -77760,8 +78489,11 @@
       <c r="CY245" s="2">
         <v>84411</v>
       </c>
+      <c r="CZ245" s="2">
+        <v>85252</v>
+      </c>
     </row>
-    <row r="246" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -78071,8 +78803,11 @@
       <c r="CY246" s="2">
         <v>9809</v>
       </c>
+      <c r="CZ246" s="2">
+        <v>9944</v>
+      </c>
     </row>
-    <row r="247" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -78382,8 +79117,11 @@
       <c r="CY247" s="2">
         <v>14546</v>
       </c>
+      <c r="CZ247" s="2">
+        <v>14647</v>
+      </c>
     </row>
-    <row r="248" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -78693,8 +79431,11 @@
       <c r="CY248" s="2">
         <v>256807</v>
       </c>
+      <c r="CZ248" s="2">
+        <v>258939</v>
+      </c>
     </row>
-    <row r="249" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -79004,8 +79745,11 @@
       <c r="CY249" s="2">
         <v>18831</v>
       </c>
+      <c r="CZ249" s="2">
+        <v>19172</v>
+      </c>
     </row>
-    <row r="250" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -79315,8 +80059,11 @@
       <c r="CY250" s="2">
         <v>783</v>
       </c>
+      <c r="CZ250" s="2">
+        <v>787</v>
+      </c>
     </row>
-    <row r="251" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -79626,8 +80373,11 @@
       <c r="CY251" s="2">
         <v>31170</v>
       </c>
+      <c r="CZ251" s="2">
+        <v>31409</v>
+      </c>
     </row>
-    <row r="252" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -79937,8 +80687,11 @@
       <c r="CY252" s="2">
         <v>13095</v>
       </c>
+      <c r="CZ252" s="2">
+        <v>13178</v>
+      </c>
     </row>
-    <row r="253" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -80248,8 +81001,11 @@
       <c r="CY253" s="2">
         <v>2235</v>
       </c>
+      <c r="CZ253" s="2">
+        <v>2245</v>
+      </c>
     </row>
-    <row r="254" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -80559,8 +81315,11 @@
       <c r="CY254" s="2">
         <v>5573</v>
       </c>
+      <c r="CZ254" s="2">
+        <v>5595</v>
+      </c>
     </row>
-    <row r="255" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -80870,8 +81629,11 @@
       <c r="CY255" s="2">
         <v>9949</v>
       </c>
+      <c r="CZ255" s="2">
+        <v>10126</v>
+      </c>
     </row>
-    <row r="256" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -81181,8 +81943,11 @@
       <c r="CY256" s="2">
         <v>5416</v>
       </c>
+      <c r="CZ256" s="2">
+        <v>5439</v>
+      </c>
     </row>
-    <row r="257" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -81492,8 +82257,11 @@
       <c r="CY257" s="2">
         <v>122548</v>
       </c>
+      <c r="CZ257" s="2">
+        <v>122661</v>
+      </c>
     </row>
-    <row r="258" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:104" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -81806,8 +82574,11 @@
       <c r="CY258" s="8">
         <v>14865845</v>
       </c>
+      <c r="CZ258" s="8">
+        <v>15000870</v>
+      </c>
     </row>
-    <row r="259" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:104" x14ac:dyDescent="0.45">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -81834,7 +82605,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -81842,7 +82613,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -81850,7 +82621,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -81858,7 +82629,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -81866,7 +82637,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -81874,7 +82645,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -81882,7 +82653,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -81890,7 +82661,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -81898,7 +82669,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -81906,7 +82677,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -81914,7 +82685,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -81922,7 +82693,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -81930,7 +82701,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:103" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:104" x14ac:dyDescent="0.45">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
@@ -81938,7 +82709,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
@@ -81946,7 +82717,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M274" s="2"/>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
@@ -81954,7 +82725,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
@@ -81962,7 +82733,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
@@ -81970,7 +82741,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
@@ -81978,7 +82749,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
@@ -81986,7 +82757,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
@@ -81994,7 +82765,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
@@ -82002,7 +82773,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
@@ -82010,7 +82781,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
@@ -82018,7 +82789,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
@@ -82026,7 +82797,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
@@ -82034,7 +82805,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
@@ -82042,7 +82813,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
@@ -82050,7 +82821,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
@@ -82058,7 +82829,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
@@ -82066,7 +82837,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
@@ -82074,7 +82845,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
@@ -82082,7 +82853,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
@@ -82090,7 +82861,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
@@ -82098,7 +82869,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
@@ -82106,7 +82877,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
@@ -82114,7 +82885,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
@@ -82122,7 +82893,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
@@ -82130,7 +82901,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M297" s="2"/>
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
@@ -82138,7 +82909,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
@@ -82146,7 +82917,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
@@ -82154,7 +82925,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
@@ -82162,7 +82933,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M301" s="2"/>
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
@@ -82170,7 +82941,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
@@ -82178,7 +82949,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M303" s="2"/>
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
@@ -82186,7 +82957,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
@@ -82194,7 +82965,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
@@ -82202,7 +82973,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
@@ -82210,7 +82981,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
@@ -82218,7 +82989,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
@@ -82226,7 +82997,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
@@ -82234,7 +83005,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
@@ -82242,7 +83013,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
@@ -82250,7 +83021,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
@@ -82258,7 +83029,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
@@ -82266,7 +83037,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
@@ -82274,7 +83045,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
@@ -82282,7 +83053,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
@@ -82290,7 +83061,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
@@ -82298,7 +83069,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
@@ -82306,7 +83077,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
@@ -82314,7 +83085,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
@@ -82322,7 +83093,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
@@ -82330,7 +83101,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
@@ -82338,7 +83109,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
@@ -82346,7 +83117,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
@@ -82354,7 +83125,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M325" s="2"/>
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
@@ -82362,7 +83133,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M326" s="2"/>
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
@@ -82370,7 +83141,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M327" s="2"/>
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
@@ -82378,7 +83149,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
@@ -82386,7 +83157,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
@@ -82394,7 +83165,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
@@ -82402,7 +83173,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M331" s="2"/>
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
@@ -82410,7 +83181,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M332" s="2"/>
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
@@ -82418,7 +83189,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
@@ -82426,7 +83197,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
@@ -82434,7 +83205,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M335" s="2"/>
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
@@ -82442,7 +83213,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M336" s="2"/>
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
@@ -82450,7 +83221,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
@@ -82458,7 +83229,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
@@ -82466,7 +83237,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M339" s="2"/>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -82474,7 +83245,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
@@ -82482,7 +83253,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M341" s="2"/>
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
@@ -82490,7 +83261,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M342" s="2"/>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -82498,7 +83269,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M343" s="2"/>
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
@@ -82506,7 +83277,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
@@ -82514,7 +83285,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M345" s="2"/>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -82522,7 +83293,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M346" s="2"/>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -82530,7 +83301,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M347" s="2"/>
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
@@ -82538,7 +83309,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M348" s="2"/>
       <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
@@ -82546,7 +83317,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M349" s="2"/>
       <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
@@ -82554,7 +83325,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M350" s="2"/>
       <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
@@ -82562,7 +83333,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M351" s="2"/>
       <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
@@ -82570,7 +83341,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
@@ -82578,7 +83349,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M353" s="2"/>
       <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
@@ -82586,7 +83357,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M354" s="2"/>
       <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
@@ -82594,7 +83365,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M355" s="2"/>
       <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
@@ -82602,7 +83373,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M356" s="2"/>
       <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
@@ -82610,7 +83381,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
@@ -82618,7 +83389,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
@@ -82626,7 +83397,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M359" s="2"/>
       <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
@@ -82634,7 +83405,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M360" s="2"/>
       <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
@@ -82642,7 +83413,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M361" s="2"/>
       <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
@@ -82650,7 +83421,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M362" s="2"/>
       <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
@@ -82658,7 +83429,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
@@ -82666,7 +83437,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M364" s="2"/>
       <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
@@ -82674,7 +83445,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M365" s="2"/>
       <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
@@ -82682,7 +83453,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M366" s="2"/>
       <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
@@ -82690,7 +83461,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M367" s="2"/>
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
@@ -82698,7 +83469,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M368" s="2"/>
       <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
@@ -82706,7 +83477,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M369" s="2"/>
       <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
@@ -82714,7 +83485,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M370" s="2"/>
       <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
@@ -82722,7 +83493,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M371" s="2"/>
       <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
@@ -82730,7 +83501,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M372" s="2"/>
       <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
@@ -82738,7 +83509,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M373" s="2"/>
       <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
@@ -82746,7 +83517,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M374" s="2"/>
       <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
@@ -82754,7 +83525,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M375" s="2"/>
       <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
@@ -82762,7 +83533,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M376" s="2"/>
       <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
@@ -82770,7 +83541,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M377" s="2"/>
       <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
@@ -82778,7 +83549,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M378" s="2"/>
       <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
@@ -82786,7 +83557,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M379" s="2"/>
       <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
@@ -82794,7 +83565,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M380" s="2"/>
       <c r="P380" s="2"/>
       <c r="Q380" s="2"/>
@@ -82802,7 +83573,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M381" s="2"/>
       <c r="P381" s="2"/>
       <c r="Q381" s="2"/>
@@ -82810,7 +83581,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M382" s="2"/>
       <c r="P382" s="2"/>
       <c r="Q382" s="2"/>
@@ -82818,7 +83589,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M383" s="2"/>
       <c r="P383" s="2"/>
       <c r="Q383" s="2"/>
@@ -82826,7 +83597,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M384" s="2"/>
       <c r="P384" s="2"/>
       <c r="Q384" s="2"/>
@@ -82834,7 +83605,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M385" s="2"/>
       <c r="P385" s="2"/>
       <c r="Q385" s="2"/>
@@ -82842,7 +83613,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M386" s="2"/>
       <c r="P386" s="2"/>
       <c r="Q386" s="2"/>
@@ -82850,7 +83621,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M387" s="2"/>
       <c r="P387" s="2"/>
       <c r="Q387" s="2"/>
@@ -82858,7 +83629,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M388" s="2"/>
       <c r="P388" s="2"/>
       <c r="Q388" s="2"/>
@@ -82866,7 +83637,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M389" s="2"/>
       <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
@@ -82874,7 +83645,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M390" s="2"/>
       <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
@@ -82882,7 +83653,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M391" s="2"/>
       <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
@@ -82890,7 +83661,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M392" s="2"/>
       <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
@@ -82898,7 +83669,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M393" s="2"/>
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
@@ -82906,7 +83677,7 @@
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M394" s="2"/>
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
@@ -82914,7 +83685,7 @@
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M395" s="2"/>
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
@@ -82922,7 +83693,7 @@
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
@@ -82930,7 +83701,7 @@
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
@@ -82938,7 +83709,7 @@
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M398" s="2"/>
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
@@ -82946,7 +83717,7 @@
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M399" s="2"/>
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
@@ -82954,7 +83725,7 @@
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
@@ -82962,7 +83733,7 @@
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M401" s="2"/>
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
@@ -82970,7 +83741,7 @@
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M402" s="2"/>
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
@@ -82978,7 +83749,7 @@
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
@@ -82986,7 +83757,7 @@
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M404" s="2"/>
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
@@ -82994,7 +83765,7 @@
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M405" s="2"/>
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
@@ -83002,7 +83773,7 @@
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M406" s="2"/>
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
@@ -83010,7 +83781,7 @@
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M407" s="2"/>
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
@@ -83018,7 +83789,7 @@
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="408" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M408" s="2"/>
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
@@ -83026,7 +83797,7 @@
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
@@ -83034,7 +83805,7 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M410" s="2"/>
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
@@ -83042,7 +83813,7 @@
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M411" s="2"/>
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
@@ -83050,7 +83821,7 @@
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
@@ -83058,7 +83829,7 @@
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M413" s="2"/>
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
@@ -83066,7 +83837,7 @@
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
@@ -83074,7 +83845,7 @@
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M415" s="2"/>
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
@@ -83082,7 +83853,7 @@
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M416" s="2"/>
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
@@ -83090,7 +83861,7 @@
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M417" s="2"/>
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
@@ -83098,7 +83869,7 @@
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M418" s="2"/>
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
@@ -83106,7 +83877,7 @@
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
@@ -83114,7 +83885,7 @@
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
@@ -83122,7 +83893,7 @@
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
@@ -83130,7 +83901,7 @@
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M422" s="2"/>
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
@@ -83138,7 +83909,7 @@
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M423" s="2"/>
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
@@ -83146,7 +83917,7 @@
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
@@ -83154,7 +83925,7 @@
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
@@ -83162,7 +83933,7 @@
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
@@ -83170,7 +83941,7 @@
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
@@ -83178,7 +83949,7 @@
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M428" s="2"/>
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
@@ -83186,7 +83957,7 @@
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
@@ -83194,7 +83965,7 @@
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M430" s="2"/>
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
@@ -83202,7 +83973,7 @@
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
@@ -83210,7 +83981,7 @@
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M432" s="2"/>
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
@@ -83218,7 +83989,7 @@
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M433" s="2"/>
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
@@ -83226,7 +83997,7 @@
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
@@ -83234,7 +84005,7 @@
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M435" s="2"/>
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
@@ -83242,7 +84013,7 @@
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="436" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M436" s="2"/>
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
@@ -83250,7 +84021,7 @@
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="437" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M437" s="2"/>
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
@@ -83258,7 +84029,7 @@
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="438" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
@@ -83266,7 +84037,7 @@
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="439" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M439" s="2"/>
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
@@ -83274,7 +84045,7 @@
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="440" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M440" s="2"/>
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
@@ -83282,7 +84053,7 @@
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="441" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
@@ -83290,7 +84061,7 @@
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="442" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
@@ -83298,7 +84069,7 @@
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="443" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M443" s="2"/>
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
@@ -83306,7 +84077,7 @@
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="444" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M444" s="2"/>
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
@@ -83314,7 +84085,7 @@
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="445" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M445" s="2"/>
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
@@ -83322,7 +84093,7 @@
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="446" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M446" s="2"/>
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
@@ -83330,7 +84101,7 @@
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="447" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
@@ -83338,7 +84109,7 @@
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="448" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M448" s="2"/>
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
@@ -83346,7 +84117,7 @@
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="449" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M449" s="2"/>
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
@@ -83354,7 +84125,7 @@
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="450" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M450" s="2"/>
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
@@ -83362,7 +84133,7 @@
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="451" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M451" s="2"/>
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
@@ -83370,7 +84141,7 @@
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="452" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M452" s="2"/>
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
@@ -83378,7 +84149,7 @@
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="453" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
@@ -83386,7 +84157,7 @@
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="454" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M454" s="2"/>
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
@@ -83394,7 +84165,7 @@
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="455" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
@@ -83402,7 +84173,7 @@
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="456" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M456" s="2"/>
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
@@ -83410,7 +84181,7 @@
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="457" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
@@ -83418,7 +84189,7 @@
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="458" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M458" s="2"/>
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
@@ -83426,7 +84197,7 @@
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="459" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M459" s="2"/>
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
@@ -83434,7 +84205,7 @@
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="460" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
@@ -83442,7 +84213,7 @@
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="461" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
@@ -83450,7 +84221,7 @@
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="462" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M462" s="2"/>
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
@@ -83458,7 +84229,7 @@
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="463" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M463" s="2"/>
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
@@ -83466,7 +84237,7 @@
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="464" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
@@ -83474,7 +84245,7 @@
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="465" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M465" s="2"/>
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
@@ -83482,7 +84253,7 @@
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="466" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M466" s="2"/>
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
@@ -83490,7 +84261,7 @@
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="467" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M467" s="2"/>
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
@@ -83498,7 +84269,7 @@
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="468" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
@@ -83506,7 +84277,7 @@
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="469" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
@@ -83514,7 +84285,7 @@
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="470" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
@@ -83522,7 +84293,7 @@
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="471" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
@@ -83530,7 +84301,7 @@
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="472" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M472" s="2"/>
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
@@ -83538,7 +84309,7 @@
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="473" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M473" s="2"/>
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
@@ -83546,7 +84317,7 @@
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="474" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M474" s="2"/>
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
@@ -83554,7 +84325,7 @@
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="475" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M475" s="2"/>
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
@@ -83562,7 +84333,7 @@
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="476" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
@@ -83570,7 +84341,7 @@
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="477" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
@@ -83578,7 +84349,7 @@
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="478" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M478" s="2"/>
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
@@ -83586,7 +84357,7 @@
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="479" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
@@ -83594,7 +84365,7 @@
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="480" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M480" s="2"/>
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
@@ -83602,7 +84373,7 @@
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="481" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M481" s="2"/>
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
@@ -83610,7 +84381,7 @@
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="482" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M482" s="2"/>
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
@@ -83618,7 +84389,7 @@
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="483" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M483" s="2"/>
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
@@ -83626,7 +84397,7 @@
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="484" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M484" s="2"/>
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
@@ -83634,7 +84405,7 @@
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="485" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M485" s="2"/>
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
@@ -83642,7 +84413,7 @@
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="486" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M486" s="2"/>
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
@@ -83650,7 +84421,7 @@
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="487" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
@@ -83658,7 +84429,7 @@
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="488" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M488" s="2"/>
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
@@ -83666,7 +84437,7 @@
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="489" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M489" s="2"/>
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
@@ -83674,7 +84445,7 @@
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="490" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M490" s="2"/>
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
@@ -83682,7 +84453,7 @@
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="491" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M491" s="2"/>
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
@@ -83690,7 +84461,7 @@
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="492" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M492" s="2"/>
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
@@ -83698,7 +84469,7 @@
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="493" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
@@ -83706,7 +84477,7 @@
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="494" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
@@ -83714,7 +84485,7 @@
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="495" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M495" s="2"/>
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
@@ -83722,7 +84493,7 @@
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="496" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
@@ -83730,7 +84501,7 @@
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="497" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M497" s="2"/>
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
@@ -83738,7 +84509,7 @@
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="498" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M498" s="2"/>
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
@@ -83746,7 +84517,7 @@
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="499" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
@@ -83754,7 +84525,7 @@
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="500" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M500" s="2"/>
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
@@ -83762,7 +84533,7 @@
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="501" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M501" s="2"/>
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
@@ -83770,7 +84541,7 @@
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="502" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
@@ -83778,7 +84549,7 @@
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="503" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M503" s="2"/>
       <c r="P503" s="2"/>
       <c r="Q503" s="2"/>
@@ -83786,7 +84557,7 @@
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="504" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M504" s="2"/>
       <c r="P504" s="2"/>
       <c r="Q504" s="2"/>
@@ -83794,7 +84565,7 @@
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="505" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" s="2"/>
@@ -83802,7 +84573,7 @@
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="506" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" s="2"/>
@@ -83810,7 +84581,7 @@
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="507" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M507" s="2"/>
       <c r="P507" s="2"/>
       <c r="Q507" s="2"/>
@@ -83818,7 +84589,7 @@
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="508" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M508" s="2"/>
       <c r="P508" s="2"/>
       <c r="Q508" s="2"/>
@@ -83826,7 +84597,7 @@
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="509" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M509" s="2"/>
       <c r="P509" s="2"/>
       <c r="Q509" s="2"/>
@@ -83834,7 +84605,7 @@
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="510" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M510" s="2"/>
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
@@ -83842,7 +84613,7 @@
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="511" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M511" s="2"/>
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
@@ -83850,10 +84621,10 @@
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="13:20" x14ac:dyDescent="0.3">
+    <row r="512" spans="13:20" x14ac:dyDescent="0.45">
       <c r="M512" s="2"/>
     </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.45">
       <c r="M513" s="2"/>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{238BE50B-4E8C-4601-B2C7-257B51804333}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{932AD2EE-6D86-40AC-B685-D296D23CAC6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11898" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,50 +1834,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:CZ513"/>
+  <dimension ref="A1:DB513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4765625" customWidth="1"/>
-    <col min="2" max="24" width="9.078125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.87890625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.4765625" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.46484375" customWidth="1"/>
     <col min="27" max="27" width="9.3984375" customWidth="1"/>
     <col min="28" max="28" width="9.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.87890625" customWidth="1"/>
-    <col min="30" max="34" width="9.4765625" customWidth="1"/>
-    <col min="35" max="36" width="8.87890625" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.078125" style="5"/>
-    <col min="57" max="57" width="9.078125" style="6"/>
-    <col min="60" max="61" width="9.078125" style="6"/>
-    <col min="62" max="62" width="9.87890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.86328125" customWidth="1"/>
+    <col min="30" max="34" width="9.46484375" customWidth="1"/>
+    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.06640625" style="5"/>
+    <col min="57" max="57" width="9.06640625" style="6"/>
+    <col min="60" max="61" width="9.06640625" style="6"/>
+    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="10.19921875" customWidth="1"/>
     <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.078125" customWidth="1"/>
-    <col min="68" max="68" width="10.6796875" customWidth="1"/>
-    <col min="69" max="69" width="10.4765625" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.06640625" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.51953125" style="6" customWidth="1"/>
+    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
     <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.6796875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.6640625" style="6" customWidth="1"/>
     <col min="74" max="74" width="10.59765625" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.078125" customWidth="1"/>
+    <col min="79" max="79" width="10.06640625" customWidth="1"/>
     <col min="80" max="80" width="10.19921875" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.31640625" customWidth="1"/>
-    <col min="82" max="90" width="10.71875" style="7" customWidth="1"/>
-    <col min="91" max="103" width="9.87890625" style="7" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
+    <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
+    <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.1328125" customWidth="1"/>
+    <col min="105" max="106" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2190,8 +2192,14 @@
       <c r="CZ2" s="4">
         <v>44189</v>
       </c>
+      <c r="DA2" s="4">
+        <v>44190</v>
+      </c>
+      <c r="DB2" s="4">
+        <v>44191</v>
+      </c>
     </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2504,8 +2512,14 @@
       <c r="CZ3" s="2">
         <v>43044</v>
       </c>
+      <c r="DA3" s="2">
+        <v>43244</v>
+      </c>
+      <c r="DB3" s="2">
+        <v>43366</v>
+      </c>
     </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2818,8 +2832,14 @@
       <c r="CZ4" s="2">
         <v>4739</v>
       </c>
+      <c r="DA4" s="2">
+        <v>4789</v>
+      </c>
+      <c r="DB4" s="2">
+        <v>4798</v>
+      </c>
     </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3132,8 +3152,14 @@
       <c r="CZ5" s="2">
         <v>45759</v>
       </c>
+      <c r="DA5" s="2">
+        <v>46420</v>
+      </c>
+      <c r="DB5" s="2">
+        <v>46558</v>
+      </c>
     </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3446,8 +3472,14 @@
       <c r="CZ6" s="2">
         <v>8358</v>
       </c>
+      <c r="DA6" s="2">
+        <v>8423</v>
+      </c>
+      <c r="DB6" s="2">
+        <v>8451</v>
+      </c>
     </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3760,8 +3792,14 @@
       <c r="CZ7" s="2">
         <v>2398</v>
       </c>
+      <c r="DA7" s="2">
+        <v>2422</v>
+      </c>
+      <c r="DB7" s="2">
+        <v>2431</v>
+      </c>
     </row>
-    <row r="8" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4074,8 +4112,14 @@
       <c r="CZ8" s="2">
         <v>617</v>
       </c>
+      <c r="DA8" s="2">
+        <v>619</v>
+      </c>
+      <c r="DB8" s="2">
+        <v>620</v>
+      </c>
     </row>
-    <row r="9" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4388,8 +4432,14 @@
       <c r="CZ9" s="2">
         <v>23578</v>
       </c>
+      <c r="DA9" s="2">
+        <v>23995</v>
+      </c>
+      <c r="DB9" s="2">
+        <v>24101</v>
+      </c>
     </row>
-    <row r="10" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4702,8 +4752,14 @@
       <c r="CZ10" s="2">
         <v>11659</v>
       </c>
+      <c r="DA10" s="2">
+        <v>11743</v>
+      </c>
+      <c r="DB10" s="2">
+        <v>11791</v>
+      </c>
     </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5016,8 +5072,14 @@
       <c r="CZ11" s="2">
         <v>1813</v>
       </c>
+      <c r="DA11" s="2">
+        <v>1815</v>
+      </c>
+      <c r="DB11" s="2">
+        <v>1820</v>
+      </c>
     </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5330,8 +5392,14 @@
       <c r="CZ12" s="2">
         <v>6318</v>
       </c>
+      <c r="DA12" s="2">
+        <v>6421</v>
+      </c>
+      <c r="DB12" s="2">
+        <v>6465</v>
+      </c>
     </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5644,8 +5712,14 @@
       <c r="CZ13" s="2">
         <v>36328</v>
       </c>
+      <c r="DA13" s="2">
+        <v>36622</v>
+      </c>
+      <c r="DB13" s="2">
+        <v>36776</v>
+      </c>
     </row>
-    <row r="14" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5958,8 +6032,14 @@
       <c r="CZ14" s="2">
         <v>1459</v>
       </c>
+      <c r="DA14" s="2">
+        <v>1463</v>
+      </c>
+      <c r="DB14" s="2">
+        <v>1465</v>
+      </c>
     </row>
-    <row r="15" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6272,8 +6352,14 @@
       <c r="CZ15" s="2">
         <v>28644</v>
       </c>
+      <c r="DA15" s="2">
+        <v>28754</v>
+      </c>
+      <c r="DB15" s="2">
+        <v>28813</v>
+      </c>
     </row>
-    <row r="16" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6586,8 +6672,14 @@
       <c r="CZ16" s="2">
         <v>166776</v>
       </c>
+      <c r="DA16" s="2">
+        <v>168192</v>
+      </c>
+      <c r="DB16" s="2">
+        <v>169370</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6900,8 +6992,14 @@
       <c r="CZ17" s="2">
         <v>984471</v>
       </c>
+      <c r="DA17" s="2">
+        <v>994966</v>
+      </c>
+      <c r="DB17" s="2">
+        <v>1002191</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7214,8 +7312,14 @@
       <c r="CZ18" s="2">
         <v>3842</v>
       </c>
+      <c r="DA18" s="2">
+        <v>3858</v>
+      </c>
+      <c r="DB18" s="2">
+        <v>3879</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7528,8 +7632,14 @@
       <c r="CZ19" s="2">
         <v>105</v>
       </c>
+      <c r="DA19" s="2">
+        <v>105</v>
+      </c>
+      <c r="DB19" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7842,8 +7952,14 @@
       <c r="CZ20" s="2">
         <v>9715</v>
       </c>
+      <c r="DA20" s="2">
+        <v>9788</v>
+      </c>
+      <c r="DB20" s="2">
+        <v>9836</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8156,8 +8272,14 @@
       <c r="CZ21" s="2">
         <v>55092</v>
       </c>
+      <c r="DA21" s="2">
+        <v>55226</v>
+      </c>
+      <c r="DB21" s="2">
+        <v>55499</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8470,8 +8592,14 @@
       <c r="CZ22" s="2">
         <v>214678</v>
       </c>
+      <c r="DA22" s="2">
+        <v>216405</v>
+      </c>
+      <c r="DB22" s="2">
+        <v>217810</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8784,8 +8912,14 @@
       <c r="CZ23" s="2">
         <v>153666</v>
       </c>
+      <c r="DA23" s="2">
+        <v>154644</v>
+      </c>
+      <c r="DB23" s="2">
+        <v>155771</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9098,8 +9232,14 @@
       <c r="CZ24" s="2">
         <v>7517</v>
       </c>
+      <c r="DA24" s="2">
+        <v>7526</v>
+      </c>
+      <c r="DB24" s="2">
+        <v>7529</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9412,8 +9552,14 @@
       <c r="CZ25" s="2">
         <v>506</v>
       </c>
+      <c r="DA25" s="2">
+        <v>516</v>
+      </c>
+      <c r="DB25" s="2">
+        <v>520</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9726,8 +9872,14 @@
       <c r="CZ26" s="2">
         <v>10211</v>
       </c>
+      <c r="DA26" s="2">
+        <v>10232</v>
+      </c>
+      <c r="DB26" s="2">
+        <v>10269</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10040,8 +10192,14 @@
       <c r="CZ27" s="2">
         <v>20122</v>
       </c>
+      <c r="DA27" s="2">
+        <v>20539</v>
+      </c>
+      <c r="DB27" s="2">
+        <v>20695</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10354,8 +10512,14 @@
       <c r="CZ28" s="2">
         <v>9001</v>
       </c>
+      <c r="DA28" s="2">
+        <v>9068</v>
+      </c>
+      <c r="DB28" s="2">
+        <v>9125</v>
+      </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10668,8 +10832,14 @@
       <c r="CZ29" s="2">
         <v>21921</v>
       </c>
+      <c r="DA29" s="2">
+        <v>22005</v>
+      </c>
+      <c r="DB29" s="2">
+        <v>22132</v>
+      </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -10982,8 +11152,14 @@
       <c r="CZ30" s="2">
         <v>21286</v>
       </c>
+      <c r="DA30" s="2">
+        <v>21573</v>
+      </c>
+      <c r="DB30" s="2">
+        <v>21740</v>
+      </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11296,8 +11472,14 @@
       <c r="CZ31" s="2">
         <v>10744</v>
       </c>
+      <c r="DA31" s="2">
+        <v>10807</v>
+      </c>
+      <c r="DB31" s="2">
+        <v>10969</v>
+      </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11610,8 +11792,14 @@
       <c r="CZ32" s="2">
         <v>6087</v>
       </c>
+      <c r="DA32" s="2">
+        <v>6154</v>
+      </c>
+      <c r="DB32" s="2">
+        <v>6170</v>
+      </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -11924,8 +12112,14 @@
       <c r="CZ33" s="2">
         <v>181566</v>
       </c>
+      <c r="DA33" s="2">
+        <v>182997</v>
+      </c>
+      <c r="DB33" s="2">
+        <v>183817</v>
+      </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12238,8 +12432,14 @@
       <c r="CZ34" s="2">
         <v>4103</v>
       </c>
+      <c r="DA34" s="2">
+        <v>4137</v>
+      </c>
+      <c r="DB34" s="2">
+        <v>4159</v>
+      </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12552,8 +12752,14 @@
       <c r="CZ35" s="2">
         <v>1720</v>
       </c>
+      <c r="DA35" s="2">
+        <v>1736</v>
+      </c>
+      <c r="DB35" s="2">
+        <v>1738</v>
+      </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -12866,8 +13072,14 @@
       <c r="CZ36" s="2">
         <v>12238</v>
       </c>
+      <c r="DA36" s="2">
+        <v>12298</v>
+      </c>
+      <c r="DB36" s="2">
+        <v>12330</v>
+      </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13180,8 +13392,14 @@
       <c r="CZ37" s="2">
         <v>4162</v>
       </c>
+      <c r="DA37" s="2">
+        <v>4174</v>
+      </c>
+      <c r="DB37" s="2">
+        <v>4177</v>
+      </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13494,8 +13712,14 @@
       <c r="CZ38" s="2">
         <v>6451</v>
       </c>
+      <c r="DA38" s="2">
+        <v>6491</v>
+      </c>
+      <c r="DB38" s="2">
+        <v>6515</v>
+      </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13808,8 +14032,14 @@
       <c r="CZ39" s="2">
         <v>18743</v>
       </c>
+      <c r="DA39" s="2">
+        <v>18942</v>
+      </c>
+      <c r="DB39" s="2">
+        <v>19046</v>
+      </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14122,8 +14352,14 @@
       <c r="CZ40" s="2">
         <v>4736</v>
       </c>
+      <c r="DA40" s="2">
+        <v>4895</v>
+      </c>
+      <c r="DB40" s="2">
+        <v>4936</v>
+      </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14436,8 +14672,14 @@
       <c r="CZ41" s="2">
         <v>3372</v>
       </c>
+      <c r="DA41" s="2">
+        <v>3426</v>
+      </c>
+      <c r="DB41" s="2">
+        <v>3431</v>
+      </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14750,8 +14992,14 @@
       <c r="CZ42" s="2">
         <v>764</v>
       </c>
+      <c r="DA42" s="2">
+        <v>768</v>
+      </c>
+      <c r="DB42" s="2">
+        <v>769</v>
+      </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15064,8 +15312,14 @@
       <c r="CZ43" s="2">
         <v>2436</v>
       </c>
+      <c r="DA43" s="2">
+        <v>2444</v>
+      </c>
+      <c r="DB43" s="2">
+        <v>2459</v>
+      </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15378,8 +15632,14 @@
       <c r="CZ44" s="2">
         <v>3384</v>
       </c>
+      <c r="DA44" s="2">
+        <v>3447</v>
+      </c>
+      <c r="DB44" s="2">
+        <v>3565</v>
+      </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15692,8 +15952,14 @@
       <c r="CZ45" s="2">
         <v>602537</v>
       </c>
+      <c r="DA45" s="2">
+        <v>611573</v>
+      </c>
+      <c r="DB45" s="2">
+        <v>616455</v>
+      </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16006,8 +16272,14 @@
       <c r="CZ46" s="2">
         <v>1423</v>
       </c>
+      <c r="DA46" s="2">
+        <v>1454</v>
+      </c>
+      <c r="DB46" s="2">
+        <v>1459</v>
+      </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16320,8 +16592,14 @@
       <c r="CZ47" s="2">
         <v>10204</v>
       </c>
+      <c r="DA47" s="2">
+        <v>10365</v>
+      </c>
+      <c r="DB47" s="2">
+        <v>10407</v>
+      </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16634,8 +16912,14 @@
       <c r="CZ48" s="2">
         <v>66558</v>
       </c>
+      <c r="DA48" s="2">
+        <v>67131</v>
+      </c>
+      <c r="DB48" s="2">
+        <v>67581</v>
+      </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -16948,8 +17232,14 @@
       <c r="CZ49" s="2">
         <v>6592</v>
       </c>
+      <c r="DA49" s="2">
+        <v>6643</v>
+      </c>
+      <c r="DB49" s="2">
+        <v>6656</v>
+      </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -17262,8 +17552,14 @@
       <c r="CZ50" s="2">
         <v>1810</v>
       </c>
+      <c r="DA50" s="2">
+        <v>1816</v>
+      </c>
+      <c r="DB50" s="2">
+        <v>1892</v>
+      </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -17576,8 +17872,14 @@
       <c r="CZ51" s="2">
         <v>18493</v>
       </c>
+      <c r="DA51" s="2">
+        <v>18717</v>
+      </c>
+      <c r="DB51" s="2">
+        <v>18982</v>
+      </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -17890,8 +18192,14 @@
       <c r="CZ52" s="2">
         <v>62736</v>
       </c>
+      <c r="DA52" s="2">
+        <v>63325</v>
+      </c>
+      <c r="DB52" s="2">
+        <v>63830</v>
+      </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18204,8 +18512,14 @@
       <c r="CZ53" s="2">
         <v>929</v>
       </c>
+      <c r="DA53" s="2">
+        <v>945</v>
+      </c>
+      <c r="DB53" s="2">
+        <v>958</v>
+      </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18518,8 +18832,14 @@
       <c r="CZ54" s="2">
         <v>3450</v>
       </c>
+      <c r="DA54" s="2">
+        <v>3471</v>
+      </c>
+      <c r="DB54" s="2">
+        <v>3472</v>
+      </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -18832,8 +19152,14 @@
       <c r="CZ55" s="2">
         <v>1936</v>
       </c>
+      <c r="DA55" s="2">
+        <v>1937</v>
+      </c>
+      <c r="DB55" s="2">
+        <v>1944</v>
+      </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -19146,8 +19472,14 @@
       <c r="CZ56" s="2">
         <v>2888</v>
       </c>
+      <c r="DA56" s="2">
+        <v>2901</v>
+      </c>
+      <c r="DB56" s="2">
+        <v>2950</v>
+      </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19460,8 +19792,14 @@
       <c r="CZ57" s="2">
         <v>1657</v>
       </c>
+      <c r="DA57" s="2">
+        <v>1671</v>
+      </c>
+      <c r="DB57" s="2">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -19774,8 +20112,14 @@
       <c r="CZ58" s="2">
         <v>1490</v>
       </c>
+      <c r="DA58" s="2">
+        <v>1559</v>
+      </c>
+      <c r="DB58" s="2">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -20088,8 +20432,14 @@
       <c r="CZ59" s="2">
         <v>1551437</v>
       </c>
+      <c r="DA59" s="2">
+        <v>1567010</v>
+      </c>
+      <c r="DB59" s="2">
+        <v>1576608</v>
+      </c>
     </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -20402,8 +20752,14 @@
       <c r="CZ60" s="2">
         <v>6908</v>
       </c>
+      <c r="DA60" s="2">
+        <v>6920</v>
+      </c>
+      <c r="DB60" s="2">
+        <v>6931</v>
+      </c>
     </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -20716,8 +21072,14 @@
       <c r="CZ61" s="2">
         <v>7131</v>
       </c>
+      <c r="DA61" s="2">
+        <v>7274</v>
+      </c>
+      <c r="DB61" s="2">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -21030,8 +21392,14 @@
       <c r="CZ62" s="2">
         <v>5108</v>
       </c>
+      <c r="DA62" s="2">
+        <v>5124</v>
+      </c>
+      <c r="DB62" s="2">
+        <v>5125</v>
+      </c>
     </row>
-    <row r="63" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -21344,8 +21712,14 @@
       <c r="CZ63" s="2">
         <v>1843</v>
       </c>
+      <c r="DA63" s="2">
+        <v>1857</v>
+      </c>
+      <c r="DB63" s="2">
+        <v>1872</v>
+      </c>
     </row>
-    <row r="64" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -21658,8 +22032,14 @@
       <c r="CZ64" s="2">
         <v>375735</v>
       </c>
+      <c r="DA64" s="2">
+        <v>381193</v>
+      </c>
+      <c r="DB64" s="2">
+        <v>384034</v>
+      </c>
     </row>
-    <row r="65" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -21972,8 +22352,14 @@
       <c r="CZ65" s="2">
         <v>568</v>
       </c>
+      <c r="DA65" s="2">
+        <v>571</v>
+      </c>
+      <c r="DB65" s="2">
+        <v>572</v>
+      </c>
     </row>
-    <row r="66" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -22286,8 +22672,14 @@
       <c r="CZ66" s="2">
         <v>5087</v>
       </c>
+      <c r="DA66" s="2">
+        <v>5109</v>
+      </c>
+      <c r="DB66" s="2">
+        <v>5154</v>
+      </c>
     </row>
-    <row r="67" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -22600,8 +22992,14 @@
       <c r="CZ67" s="2">
         <v>1485</v>
       </c>
+      <c r="DA67" s="2">
+        <v>1503</v>
+      </c>
+      <c r="DB67" s="2">
+        <v>1503</v>
+      </c>
     </row>
-    <row r="68" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -22914,8 +23312,14 @@
       <c r="CZ68" s="2">
         <v>12976</v>
       </c>
+      <c r="DA68" s="2">
+        <v>13085</v>
+      </c>
+      <c r="DB68" s="2">
+        <v>13211</v>
+      </c>
     </row>
-    <row r="69" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -23228,8 +23632,14 @@
       <c r="CZ69" s="2">
         <v>5192</v>
       </c>
+      <c r="DA69" s="2">
+        <v>5288</v>
+      </c>
+      <c r="DB69" s="2">
+        <v>5305</v>
+      </c>
     </row>
-    <row r="70" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -23542,8 +23952,14 @@
       <c r="CZ70" s="2">
         <v>54179</v>
       </c>
+      <c r="DA70" s="2">
+        <v>54655</v>
+      </c>
+      <c r="DB70" s="2">
+        <v>54766</v>
+      </c>
     </row>
-    <row r="71" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -23856,8 +24272,14 @@
       <c r="CZ71" s="2">
         <v>1053</v>
       </c>
+      <c r="DA71" s="2">
+        <v>1056</v>
+      </c>
+      <c r="DB71" s="2">
+        <v>1059</v>
+      </c>
     </row>
-    <row r="72" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -24170,8 +24592,14 @@
       <c r="CZ72" s="2">
         <v>623389</v>
       </c>
+      <c r="DA72" s="2">
+        <v>635246</v>
+      </c>
+      <c r="DB72" s="2">
+        <v>639899</v>
+      </c>
     </row>
-    <row r="73" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -24484,8 +24912,14 @@
       <c r="CZ73" s="2">
         <v>102679</v>
       </c>
+      <c r="DA73" s="2">
+        <v>103861</v>
+      </c>
+      <c r="DB73" s="2">
+        <v>104889</v>
+      </c>
     </row>
-    <row r="74" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -24798,8 +25232,14 @@
       <c r="CZ74" s="2">
         <v>15262</v>
       </c>
+      <c r="DA74" s="2">
+        <v>15444</v>
+      </c>
+      <c r="DB74" s="2">
+        <v>15462</v>
+      </c>
     </row>
-    <row r="75" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -25112,8 +25552,14 @@
       <c r="CZ75" s="2">
         <v>10072</v>
       </c>
+      <c r="DA75" s="2">
+        <v>10188</v>
+      </c>
+      <c r="DB75" s="2">
+        <v>10244</v>
+      </c>
     </row>
-    <row r="76" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -25426,8 +25872,14 @@
       <c r="CZ76" s="2">
         <v>17677</v>
       </c>
+      <c r="DA76" s="2">
+        <v>17795</v>
+      </c>
+      <c r="DB76" s="2">
+        <v>17896</v>
+      </c>
     </row>
-    <row r="77" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -25740,8 +26192,14 @@
       <c r="CZ77" s="2">
         <v>10484</v>
       </c>
+      <c r="DA77" s="2">
+        <v>10585</v>
+      </c>
+      <c r="DB77" s="2">
+        <v>10626</v>
+      </c>
     </row>
-    <row r="78" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -26054,8 +26512,14 @@
       <c r="CZ78" s="2">
         <v>1146</v>
       </c>
+      <c r="DA78" s="2">
+        <v>1151</v>
+      </c>
+      <c r="DB78" s="2">
+        <v>1156</v>
+      </c>
     </row>
-    <row r="79" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -26368,8 +26832,14 @@
       <c r="CZ79" s="2">
         <v>1958</v>
       </c>
+      <c r="DA79" s="2">
+        <v>1965</v>
+      </c>
+      <c r="DB79" s="2">
+        <v>1969</v>
+      </c>
     </row>
-    <row r="80" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -26682,8 +27152,14 @@
       <c r="CZ80" s="2">
         <v>698</v>
       </c>
+      <c r="DA80" s="2">
+        <v>702</v>
+      </c>
+      <c r="DB80" s="2">
+        <v>702</v>
+      </c>
     </row>
-    <row r="81" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -26996,8 +27472,14 @@
       <c r="CZ81" s="2">
         <v>400673</v>
       </c>
+      <c r="DA81" s="2">
+        <v>404977</v>
+      </c>
+      <c r="DB81" s="2">
+        <v>408014</v>
+      </c>
     </row>
-    <row r="82" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -27310,8 +27792,14 @@
       <c r="CZ82" s="2">
         <v>3282</v>
       </c>
+      <c r="DA82" s="2">
+        <v>3308</v>
+      </c>
+      <c r="DB82" s="2">
+        <v>3332</v>
+      </c>
     </row>
-    <row r="83" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -27624,8 +28112,14 @@
       <c r="CZ83" s="2">
         <v>11649</v>
       </c>
+      <c r="DA83" s="2">
+        <v>11776</v>
+      </c>
+      <c r="DB83" s="2">
+        <v>11826</v>
+      </c>
     </row>
-    <row r="84" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -27938,8 +28432,14 @@
       <c r="CZ84" s="2">
         <v>10662</v>
       </c>
+      <c r="DA84" s="2">
+        <v>10830</v>
+      </c>
+      <c r="DB84" s="2">
+        <v>10889</v>
+      </c>
     </row>
-    <row r="85" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -28252,8 +28752,14 @@
       <c r="CZ85" s="2">
         <v>3302</v>
       </c>
+      <c r="DA85" s="2">
+        <v>3312</v>
+      </c>
+      <c r="DB85" s="2">
+        <v>3318</v>
+      </c>
     </row>
-    <row r="86" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -28566,8 +29072,14 @@
       <c r="CZ86" s="2">
         <v>232391</v>
       </c>
+      <c r="DA86" s="2">
+        <v>234152</v>
+      </c>
+      <c r="DB86" s="2">
+        <v>235233</v>
+      </c>
     </row>
-    <row r="87" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -28880,8 +29392,14 @@
       <c r="CZ87" s="2">
         <v>2087</v>
       </c>
+      <c r="DA87" s="2">
+        <v>2092</v>
+      </c>
+      <c r="DB87" s="2">
+        <v>2092</v>
+      </c>
     </row>
-    <row r="88" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -29194,8 +29712,14 @@
       <c r="CZ88" s="2">
         <v>13203</v>
       </c>
+      <c r="DA88" s="2">
+        <v>13245</v>
+      </c>
+      <c r="DB88" s="2">
+        <v>13289</v>
+      </c>
     </row>
-    <row r="89" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -29508,8 +30032,14 @@
       <c r="CZ89" s="2">
         <v>142</v>
       </c>
+      <c r="DA89" s="2">
+        <v>142</v>
+      </c>
+      <c r="DB89" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="90" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -29822,8 +30352,14 @@
       <c r="CZ90" s="2">
         <v>2638</v>
       </c>
+      <c r="DA90" s="2">
+        <v>2672</v>
+      </c>
+      <c r="DB90" s="2">
+        <v>2681</v>
+      </c>
     </row>
-    <row r="91" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -30136,8 +30672,14 @@
       <c r="CZ91" s="2">
         <v>10107</v>
       </c>
+      <c r="DA91" s="2">
+        <v>10177</v>
+      </c>
+      <c r="DB91" s="2">
+        <v>10263</v>
+      </c>
     </row>
-    <row r="92" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -30450,8 +30992,14 @@
       <c r="CZ92" s="2">
         <v>6721</v>
       </c>
+      <c r="DA92" s="2">
+        <v>6732</v>
+      </c>
+      <c r="DB92" s="2">
+        <v>6736</v>
+      </c>
     </row>
-    <row r="93" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -30764,8 +31312,14 @@
       <c r="CZ93" s="2">
         <v>67548</v>
       </c>
+      <c r="DA93" s="2">
+        <v>67980</v>
+      </c>
+      <c r="DB93" s="2">
+        <v>68523</v>
+      </c>
     </row>
-    <row r="94" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -31078,8 +31632,14 @@
       <c r="CZ94" s="2">
         <v>44177</v>
       </c>
+      <c r="DA94" s="2">
+        <v>44543</v>
+      </c>
+      <c r="DB94" s="2">
+        <v>44743</v>
+      </c>
     </row>
-    <row r="95" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -31392,8 +31952,14 @@
       <c r="CZ95" s="2">
         <v>16940</v>
       </c>
+      <c r="DA95" s="2">
+        <v>17226</v>
+      </c>
+      <c r="DB95" s="2">
+        <v>17283</v>
+      </c>
     </row>
-    <row r="96" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -31706,8 +32272,14 @@
       <c r="CZ96" s="2">
         <v>49461</v>
       </c>
+      <c r="DA96" s="2">
+        <v>49960</v>
+      </c>
+      <c r="DB96" s="2">
+        <v>50255</v>
+      </c>
     </row>
-    <row r="97" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -32020,8 +32592,14 @@
       <c r="CZ97" s="2">
         <v>11015</v>
       </c>
+      <c r="DA97" s="2">
+        <v>11072</v>
+      </c>
+      <c r="DB97" s="2">
+        <v>11107</v>
+      </c>
     </row>
-    <row r="98" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -32334,8 +32912,14 @@
       <c r="CZ98" s="2">
         <v>1959</v>
       </c>
+      <c r="DA98" s="2">
+        <v>2057</v>
+      </c>
+      <c r="DB98" s="2">
+        <v>2060</v>
+      </c>
     </row>
-    <row r="99" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -32648,8 +33232,14 @@
       <c r="CZ99" s="2">
         <v>3871</v>
       </c>
+      <c r="DA99" s="2">
+        <v>3891</v>
+      </c>
+      <c r="DB99" s="2">
+        <v>3911</v>
+      </c>
     </row>
-    <row r="100" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -32962,8 +33552,14 @@
       <c r="CZ100" s="2">
         <v>2090</v>
       </c>
+      <c r="DA100" s="2">
+        <v>2173</v>
+      </c>
+      <c r="DB100" s="2">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="101" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -33276,8 +33872,14 @@
       <c r="CZ101" s="2">
         <v>1591</v>
       </c>
+      <c r="DA101" s="2">
+        <v>1606</v>
+      </c>
+      <c r="DB101" s="2">
+        <v>1616</v>
+      </c>
     </row>
-    <row r="102" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -33590,8 +34192,14 @@
       <c r="CZ102" s="2">
         <v>16932</v>
       </c>
+      <c r="DA102" s="2">
+        <v>17048</v>
+      </c>
+      <c r="DB102" s="2">
+        <v>17256</v>
+      </c>
     </row>
-    <row r="103" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -33904,8 +34512,14 @@
       <c r="CZ103" s="2">
         <v>2519635</v>
       </c>
+      <c r="DA103" s="2">
+        <v>2546138</v>
+      </c>
+      <c r="DB103" s="2">
+        <v>2566782</v>
+      </c>
     </row>
-    <row r="104" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -34218,8 +34832,14 @@
       <c r="CZ104" s="2">
         <v>46395</v>
       </c>
+      <c r="DA104" s="2">
+        <v>46716</v>
+      </c>
+      <c r="DB104" s="2">
+        <v>46887</v>
+      </c>
     </row>
-    <row r="105" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -34532,8 +35152,14 @@
       <c r="CZ105" s="2">
         <v>139</v>
       </c>
+      <c r="DA105" s="2">
+        <v>142</v>
+      </c>
+      <c r="DB105" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="106" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -34846,8 +35472,14 @@
       <c r="CZ106" s="2">
         <v>1773</v>
       </c>
+      <c r="DA106" s="2">
+        <v>1796</v>
+      </c>
+      <c r="DB106" s="2">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="107" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -35160,8 +35792,14 @@
       <c r="CZ107" s="2">
         <v>138950</v>
       </c>
+      <c r="DA107" s="2">
+        <v>139814</v>
+      </c>
+      <c r="DB107" s="2">
+        <v>140595</v>
+      </c>
     </row>
-    <row r="108" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -35474,8 +36112,14 @@
       <c r="CZ108" s="2">
         <v>988</v>
       </c>
+      <c r="DA108" s="2">
+        <v>994</v>
+      </c>
+      <c r="DB108" s="2">
+        <v>994</v>
+      </c>
     </row>
-    <row r="109" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -35788,8 +36432,14 @@
       <c r="CZ109" s="2">
         <v>21394</v>
       </c>
+      <c r="DA109" s="2">
+        <v>21609</v>
+      </c>
+      <c r="DB109" s="2">
+        <v>21714</v>
+      </c>
     </row>
-    <row r="110" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -36102,8 +36752,14 @@
       <c r="CZ110" s="2">
         <v>330781</v>
       </c>
+      <c r="DA110" s="2">
+        <v>332608</v>
+      </c>
+      <c r="DB110" s="2">
+        <v>333937</v>
+      </c>
     </row>
-    <row r="111" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -36416,8 +37072,14 @@
       <c r="CZ111" s="2">
         <v>26645</v>
       </c>
+      <c r="DA111" s="2">
+        <v>26926</v>
+      </c>
+      <c r="DB111" s="2">
+        <v>27334</v>
+      </c>
     </row>
-    <row r="112" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -36730,8 +37392,14 @@
       <c r="CZ112" s="2">
         <v>7635</v>
       </c>
+      <c r="DA112" s="2">
+        <v>7665</v>
+      </c>
+      <c r="DB112" s="2">
+        <v>7713</v>
+      </c>
     </row>
-    <row r="113" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -37044,8 +37712,14 @@
       <c r="CZ113" s="2">
         <v>32721</v>
       </c>
+      <c r="DA113" s="2">
+        <v>33254</v>
+      </c>
+      <c r="DB113" s="2">
+        <v>33418</v>
+      </c>
     </row>
-    <row r="114" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -37358,8 +38032,14 @@
       <c r="CZ114" s="2">
         <v>13208</v>
       </c>
+      <c r="DA114" s="2">
+        <v>13273</v>
+      </c>
+      <c r="DB114" s="2">
+        <v>13364</v>
+      </c>
     </row>
-    <row r="115" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -37672,8 +38352,14 @@
       <c r="CZ115" s="2">
         <v>12472</v>
       </c>
+      <c r="DA115" s="2">
+        <v>12529</v>
+      </c>
+      <c r="DB115" s="2">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="116" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -37986,8 +38672,14 @@
       <c r="CZ116" s="2">
         <v>11998</v>
       </c>
+      <c r="DA116" s="2">
+        <v>12056</v>
+      </c>
+      <c r="DB116" s="2">
+        <v>12166</v>
+      </c>
     </row>
-    <row r="117" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -38300,8 +38992,14 @@
       <c r="CZ117" s="2">
         <v>2116</v>
       </c>
+      <c r="DA117" s="2">
+        <v>2155</v>
+      </c>
+      <c r="DB117" s="2">
+        <v>2167</v>
+      </c>
     </row>
-    <row r="118" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -38614,8 +39312,14 @@
       <c r="CZ118" s="2">
         <v>49348</v>
       </c>
+      <c r="DA118" s="2">
+        <v>49967</v>
+      </c>
+      <c r="DB118" s="2">
+        <v>50302</v>
+      </c>
     </row>
-    <row r="119" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -38928,8 +39632,14 @@
       <c r="CZ119" s="2">
         <v>8520</v>
       </c>
+      <c r="DA119" s="2">
+        <v>8626</v>
+      </c>
+      <c r="DB119" s="2">
+        <v>8668</v>
+      </c>
     </row>
-    <row r="120" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -39242,8 +39952,14 @@
       <c r="CZ120" s="2">
         <v>392</v>
       </c>
+      <c r="DA120" s="2">
+        <v>395</v>
+      </c>
+      <c r="DB120" s="2">
+        <v>399</v>
+      </c>
     </row>
-    <row r="121" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -39556,8 +40272,14 @@
       <c r="CZ121" s="2">
         <v>1253</v>
       </c>
+      <c r="DA121" s="2">
+        <v>1268</v>
+      </c>
+      <c r="DB121" s="2">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="122" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -39870,8 +40592,14 @@
       <c r="CZ122" s="2">
         <v>5496</v>
       </c>
+      <c r="DA122" s="2">
+        <v>5544</v>
+      </c>
+      <c r="DB122" s="2">
+        <v>5573</v>
+      </c>
     </row>
-    <row r="123" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -40184,8 +40912,14 @@
       <c r="CZ123" s="2">
         <v>11361</v>
       </c>
+      <c r="DA123" s="2">
+        <v>11621</v>
+      </c>
+      <c r="DB123" s="2">
+        <v>11706</v>
+      </c>
     </row>
-    <row r="124" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -40498,8 +41232,14 @@
       <c r="CZ124" s="2">
         <v>1322</v>
       </c>
+      <c r="DA124" s="2">
+        <v>1324</v>
+      </c>
+      <c r="DB124" s="2">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="125" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -40812,8 +41552,14 @@
       <c r="CZ125" s="2">
         <v>134185</v>
       </c>
+      <c r="DA125" s="2">
+        <v>135086</v>
+      </c>
+      <c r="DB125" s="2">
+        <v>135575</v>
+      </c>
     </row>
-    <row r="126" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -41126,8 +41872,14 @@
       <c r="CZ126" s="2">
         <v>7289</v>
       </c>
+      <c r="DA126" s="2">
+        <v>7311</v>
+      </c>
+      <c r="DB126" s="2">
+        <v>7756</v>
+      </c>
     </row>
-    <row r="127" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -41440,8 +42192,14 @@
       <c r="CZ127" s="2">
         <v>41207</v>
       </c>
+      <c r="DA127" s="2">
+        <v>41845</v>
+      </c>
+      <c r="DB127" s="2">
+        <v>42332</v>
+      </c>
     </row>
-    <row r="128" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -41754,8 +42512,14 @@
       <c r="CZ128" s="2">
         <v>80109</v>
       </c>
+      <c r="DA128" s="2">
+        <v>81098</v>
+      </c>
+      <c r="DB128" s="2">
+        <v>81636</v>
+      </c>
     </row>
-    <row r="129" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -42068,8 +42832,14 @@
       <c r="CZ129" s="2">
         <v>5483</v>
       </c>
+      <c r="DA129" s="2">
+        <v>5537</v>
+      </c>
+      <c r="DB129" s="2">
+        <v>5563</v>
+      </c>
     </row>
-    <row r="130" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -42382,8 +43152,14 @@
       <c r="CZ130" s="2">
         <v>11283</v>
       </c>
+      <c r="DA130" s="2">
+        <v>11532</v>
+      </c>
+      <c r="DB130" s="2">
+        <v>11557</v>
+      </c>
     </row>
-    <row r="131" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -42696,8 +43472,14 @@
       <c r="CZ131" s="2">
         <v>69317</v>
       </c>
+      <c r="DA131" s="2">
+        <v>70119</v>
+      </c>
+      <c r="DB131" s="2">
+        <v>70606</v>
+      </c>
     </row>
-    <row r="132" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -43010,8 +43792,14 @@
       <c r="CZ132" s="2">
         <v>16431</v>
       </c>
+      <c r="DA132" s="2">
+        <v>16733</v>
+      </c>
+      <c r="DB132" s="2">
+        <v>17000</v>
+      </c>
     </row>
-    <row r="133" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -43324,8 +44112,14 @@
       <c r="CZ133" s="2">
         <v>149</v>
       </c>
+      <c r="DA133" s="2">
+        <v>149</v>
+      </c>
+      <c r="DB133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -43638,8 +44432,14 @@
       <c r="CZ134" s="2">
         <v>403</v>
       </c>
+      <c r="DA134" s="2">
+        <v>406</v>
+      </c>
+      <c r="DB134" s="2">
+        <v>406</v>
+      </c>
     </row>
-    <row r="135" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -43952,8 +44752,14 @@
       <c r="CZ135" s="2">
         <v>31138</v>
       </c>
+      <c r="DA135" s="2">
+        <v>31524</v>
+      </c>
+      <c r="DB135" s="2">
+        <v>31806</v>
+      </c>
     </row>
-    <row r="136" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -44266,8 +45072,14 @@
       <c r="CZ136" s="2">
         <v>1505</v>
       </c>
+      <c r="DA136" s="2">
+        <v>1510</v>
+      </c>
+      <c r="DB136" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="137" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -44580,8 +45392,14 @@
       <c r="CZ137" s="2">
         <v>38</v>
       </c>
+      <c r="DA137" s="2">
+        <v>38</v>
+      </c>
+      <c r="DB137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -44894,8 +45712,14 @@
       <c r="CZ138" s="2">
         <v>1204</v>
       </c>
+      <c r="DA138" s="2">
+        <v>1211</v>
+      </c>
+      <c r="DB138" s="2">
+        <v>1218</v>
+      </c>
     </row>
-    <row r="139" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -45208,8 +46032,14 @@
       <c r="CZ139" s="2">
         <v>22873</v>
       </c>
+      <c r="DA139" s="2">
+        <v>22957</v>
+      </c>
+      <c r="DB139" s="2">
+        <v>22999</v>
+      </c>
     </row>
-    <row r="140" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -45522,8 +46352,14 @@
       <c r="CZ140" s="2">
         <v>1791</v>
       </c>
+      <c r="DA140" s="2">
+        <v>1800</v>
+      </c>
+      <c r="DB140" s="2">
+        <v>1802</v>
+      </c>
     </row>
-    <row r="141" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -45836,8 +46672,14 @@
       <c r="CZ141" s="2">
         <v>5080</v>
       </c>
+      <c r="DA141" s="2">
+        <v>5153</v>
+      </c>
+      <c r="DB141" s="2">
+        <v>5160</v>
+      </c>
     </row>
-    <row r="142" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -46150,8 +46992,14 @@
       <c r="CZ142" s="2">
         <v>16317</v>
       </c>
+      <c r="DA142" s="2">
+        <v>16547</v>
+      </c>
+      <c r="DB142" s="2">
+        <v>16680</v>
+      </c>
     </row>
-    <row r="143" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -46464,8 +47312,14 @@
       <c r="CZ143" s="2">
         <v>6989</v>
       </c>
+      <c r="DA143" s="2">
+        <v>6995</v>
+      </c>
+      <c r="DB143" s="2">
+        <v>7006</v>
+      </c>
     </row>
-    <row r="144" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -46778,8 +47632,14 @@
       <c r="CZ144" s="2">
         <v>12292</v>
       </c>
+      <c r="DA144" s="2">
+        <v>12374</v>
+      </c>
+      <c r="DB144" s="2">
+        <v>12420</v>
+      </c>
     </row>
-    <row r="145" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -47092,8 +47952,14 @@
       <c r="CZ145" s="2">
         <v>9455</v>
       </c>
+      <c r="DA145" s="2">
+        <v>9526</v>
+      </c>
+      <c r="DB145" s="2">
+        <v>9561</v>
+      </c>
     </row>
-    <row r="146" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -47406,8 +48272,14 @@
       <c r="CZ146" s="2">
         <v>6012</v>
       </c>
+      <c r="DA146" s="2">
+        <v>6057</v>
+      </c>
+      <c r="DB146" s="2">
+        <v>6114</v>
+      </c>
     </row>
-    <row r="147" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -47720,8 +48592,14 @@
       <c r="CZ147" s="2">
         <v>6889</v>
       </c>
+      <c r="DA147" s="2">
+        <v>6959</v>
+      </c>
+      <c r="DB147" s="2">
+        <v>7002</v>
+      </c>
     </row>
-    <row r="148" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -48034,8 +48912,14 @@
       <c r="CZ148" s="2">
         <v>36369</v>
       </c>
+      <c r="DA148" s="2">
+        <v>36642</v>
+      </c>
+      <c r="DB148" s="2">
+        <v>36774</v>
+      </c>
     </row>
-    <row r="149" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -48348,8 +49232,14 @@
       <c r="CZ149" s="2">
         <v>19870</v>
       </c>
+      <c r="DA149" s="2">
+        <v>19986</v>
+      </c>
+      <c r="DB149" s="2">
+        <v>20072</v>
+      </c>
     </row>
-    <row r="150" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -48662,8 +49552,14 @@
       <c r="CZ150" s="2">
         <v>276</v>
       </c>
+      <c r="DA150" s="2">
+        <v>279</v>
+      </c>
+      <c r="DB150" s="2">
+        <v>279</v>
+      </c>
     </row>
-    <row r="151" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -48976,8 +49872,14 @@
       <c r="CZ151" s="2">
         <v>3783</v>
       </c>
+      <c r="DA151" s="2">
+        <v>3862</v>
+      </c>
+      <c r="DB151" s="2">
+        <v>3976</v>
+      </c>
     </row>
-    <row r="152" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -49290,8 +50192,14 @@
       <c r="CZ152" s="2">
         <v>7426</v>
       </c>
+      <c r="DA152" s="2">
+        <v>7454</v>
+      </c>
+      <c r="DB152" s="2">
+        <v>7479</v>
+      </c>
     </row>
-    <row r="153" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -49604,8 +50512,14 @@
       <c r="CZ153" s="2">
         <v>23</v>
       </c>
+      <c r="DA153" s="2">
+        <v>23</v>
+      </c>
+      <c r="DB153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -49918,8 +50832,14 @@
       <c r="CZ154" s="2">
         <v>210953</v>
       </c>
+      <c r="DA154" s="2">
+        <v>211603</v>
+      </c>
+      <c r="DB154" s="2">
+        <v>212404</v>
+      </c>
     </row>
-    <row r="155" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -50232,8 +51152,14 @@
       <c r="CZ155" s="2">
         <v>3092</v>
       </c>
+      <c r="DA155" s="2">
+        <v>3107</v>
+      </c>
+      <c r="DB155" s="2">
+        <v>3121</v>
+      </c>
     </row>
-    <row r="156" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -50546,8 +51472,14 @@
       <c r="CZ156" s="2">
         <v>9964</v>
       </c>
+      <c r="DA156" s="2">
+        <v>10013</v>
+      </c>
+      <c r="DB156" s="2">
+        <v>10030</v>
+      </c>
     </row>
-    <row r="157" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -50860,8 +51792,14 @@
       <c r="CZ157" s="2">
         <v>2368</v>
       </c>
+      <c r="DA157" s="2">
+        <v>2374</v>
+      </c>
+      <c r="DB157" s="2">
+        <v>2387</v>
+      </c>
     </row>
-    <row r="158" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -51174,8 +52112,14 @@
       <c r="CZ158" s="2">
         <v>1293</v>
       </c>
+      <c r="DA158" s="2">
+        <v>1298</v>
+      </c>
+      <c r="DB158" s="2">
+        <v>1301</v>
+      </c>
     </row>
-    <row r="159" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -51488,8 +52432,14 @@
       <c r="CZ159" s="2">
         <v>1625</v>
       </c>
+      <c r="DA159" s="2">
+        <v>1644</v>
+      </c>
+      <c r="DB159" s="2">
+        <v>1657</v>
+      </c>
     </row>
-    <row r="160" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -51802,8 +52752,14 @@
       <c r="CZ160" s="2">
         <v>16896</v>
       </c>
+      <c r="DA160" s="2">
+        <v>17021</v>
+      </c>
+      <c r="DB160" s="2">
+        <v>17069</v>
+      </c>
     </row>
-    <row r="161" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -52116,8 +53072,14 @@
       <c r="CZ161" s="2">
         <v>36942</v>
       </c>
+      <c r="DA161" s="2">
+        <v>37128</v>
+      </c>
+      <c r="DB161" s="2">
+        <v>37349</v>
+      </c>
     </row>
-    <row r="162" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -52430,8 +53392,14 @@
       <c r="CZ162" s="2">
         <v>2341</v>
       </c>
+      <c r="DA162" s="2">
+        <v>2353</v>
+      </c>
+      <c r="DB162" s="2">
+        <v>2373</v>
+      </c>
     </row>
-    <row r="163" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -52744,8 +53712,14 @@
       <c r="CZ163" s="2">
         <v>193504</v>
       </c>
+      <c r="DA163" s="2">
+        <v>196137</v>
+      </c>
+      <c r="DB163" s="2">
+        <v>197582</v>
+      </c>
     </row>
-    <row r="164" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -53058,8 +54032,14 @@
       <c r="CZ164" s="2">
         <v>287</v>
       </c>
+      <c r="DA164" s="2">
+        <v>290</v>
+      </c>
+      <c r="DB164" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="165" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -53372,8 +54352,14 @@
       <c r="CZ165" s="2">
         <v>18432</v>
       </c>
+      <c r="DA165" s="2">
+        <v>18606</v>
+      </c>
+      <c r="DB165" s="2">
+        <v>18698</v>
+      </c>
     </row>
-    <row r="166" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -53686,8 +54672,14 @@
       <c r="CZ166" s="2">
         <v>1790</v>
       </c>
+      <c r="DA166" s="2">
+        <v>1796</v>
+      </c>
+      <c r="DB166" s="2">
+        <v>1805</v>
+      </c>
     </row>
-    <row r="167" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -54000,8 +54992,14 @@
       <c r="CZ167" s="2">
         <v>53328</v>
       </c>
+      <c r="DA167" s="2">
+        <v>53745</v>
+      </c>
+      <c r="DB167" s="2">
+        <v>53996</v>
+      </c>
     </row>
-    <row r="168" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -54314,8 +55312,14 @@
       <c r="CZ168" s="2">
         <v>12554</v>
       </c>
+      <c r="DA168" s="2">
+        <v>12640</v>
+      </c>
+      <c r="DB168" s="2">
+        <v>12678</v>
+      </c>
     </row>
-    <row r="169" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -54628,8 +55632,14 @@
       <c r="CZ169" s="2">
         <v>3520</v>
       </c>
+      <c r="DA169" s="2">
+        <v>3603</v>
+      </c>
+      <c r="DB169" s="2">
+        <v>3681</v>
+      </c>
     </row>
-    <row r="170" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -54942,8 +55952,14 @@
       <c r="CZ170" s="2">
         <v>4920</v>
       </c>
+      <c r="DA170" s="2">
+        <v>4936</v>
+      </c>
+      <c r="DB170" s="2">
+        <v>4950</v>
+      </c>
     </row>
-    <row r="171" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -55256,8 +56272,14 @@
       <c r="CZ171" s="2">
         <v>8326</v>
       </c>
+      <c r="DA171" s="2">
+        <v>8396</v>
+      </c>
+      <c r="DB171" s="2">
+        <v>8452</v>
+      </c>
     </row>
-    <row r="172" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -55570,8 +56592,14 @@
       <c r="CZ172" s="2">
         <v>234148</v>
       </c>
+      <c r="DA172" s="2">
+        <v>236620</v>
+      </c>
+      <c r="DB172" s="2">
+        <v>239256</v>
+      </c>
     </row>
-    <row r="173" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -55884,8 +56912,14 @@
       <c r="CZ173" s="2">
         <v>7094</v>
       </c>
+      <c r="DA173" s="2">
+        <v>7109</v>
+      </c>
+      <c r="DB173" s="2">
+        <v>7109</v>
+      </c>
     </row>
-    <row r="174" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -56198,8 +57232,14 @@
       <c r="CZ174" s="2">
         <v>5226</v>
       </c>
+      <c r="DA174" s="2">
+        <v>5308</v>
+      </c>
+      <c r="DB174" s="2">
+        <v>5319</v>
+      </c>
     </row>
-    <row r="175" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -56512,8 +57552,14 @@
       <c r="CZ175" s="2">
         <v>468</v>
       </c>
+      <c r="DA175" s="2">
+        <v>470</v>
+      </c>
+      <c r="DB175" s="2">
+        <v>471</v>
+      </c>
     </row>
-    <row r="176" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -56826,8 +57872,14 @@
       <c r="CZ176" s="2">
         <v>30788</v>
       </c>
+      <c r="DA176" s="2">
+        <v>30920</v>
+      </c>
+      <c r="DB176" s="2">
+        <v>31027</v>
+      </c>
     </row>
-    <row r="177" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -57140,8 +58192,14 @@
       <c r="CZ177" s="2">
         <v>22418</v>
       </c>
+      <c r="DA177" s="2">
+        <v>22646</v>
+      </c>
+      <c r="DB177" s="2">
+        <v>22698</v>
+      </c>
     </row>
-    <row r="178" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -57454,8 +58512,14 @@
       <c r="CZ178" s="2">
         <v>3377</v>
       </c>
+      <c r="DA178" s="2">
+        <v>3428</v>
+      </c>
+      <c r="DB178" s="2">
+        <v>3455</v>
+      </c>
     </row>
-    <row r="179" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -57768,8 +58832,14 @@
       <c r="CZ179" s="2">
         <v>6857</v>
       </c>
+      <c r="DA179" s="2">
+        <v>6875</v>
+      </c>
+      <c r="DB179" s="2">
+        <v>6896</v>
+      </c>
     </row>
-    <row r="180" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -58082,8 +59152,14 @@
       <c r="CZ180" s="2">
         <v>190982</v>
       </c>
+      <c r="DA180" s="2">
+        <v>192778</v>
+      </c>
+      <c r="DB180" s="2">
+        <v>193656</v>
+      </c>
     </row>
-    <row r="181" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -58396,8 +59472,14 @@
       <c r="CZ181" s="2">
         <v>542</v>
       </c>
+      <c r="DA181" s="2">
+        <v>558</v>
+      </c>
+      <c r="DB181" s="2">
+        <v>559</v>
+      </c>
     </row>
-    <row r="182" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -58710,8 +59792,14 @@
       <c r="CZ182" s="2">
         <v>670</v>
       </c>
+      <c r="DA182" s="2">
+        <v>676</v>
+      </c>
+      <c r="DB182" s="2">
+        <v>676</v>
+      </c>
     </row>
-    <row r="183" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -59024,8 +60112,14 @@
       <c r="CZ183" s="2">
         <v>24526</v>
       </c>
+      <c r="DA183" s="2">
+        <v>24753</v>
+      </c>
+      <c r="DB183" s="2">
+        <v>24919</v>
+      </c>
     </row>
-    <row r="184" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -59338,8 +60432,14 @@
       <c r="CZ184" s="2">
         <v>10603</v>
       </c>
+      <c r="DA184" s="2">
+        <v>10911</v>
+      </c>
+      <c r="DB184" s="2">
+        <v>10990</v>
+      </c>
     </row>
-    <row r="185" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -59652,8 +60752,14 @@
       <c r="CZ185" s="2">
         <v>7047</v>
       </c>
+      <c r="DA185" s="2">
+        <v>7110</v>
+      </c>
+      <c r="DB185" s="2">
+        <v>7127</v>
+      </c>
     </row>
-    <row r="186" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -59966,8 +61072,14 @@
       <c r="CZ186" s="2">
         <v>48976</v>
       </c>
+      <c r="DA186" s="2">
+        <v>49885</v>
+      </c>
+      <c r="DB186" s="2">
+        <v>50313</v>
+      </c>
     </row>
-    <row r="187" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -60280,8 +61392,14 @@
       <c r="CZ187" s="2">
         <v>2032</v>
       </c>
+      <c r="DA187" s="2">
+        <v>2045</v>
+      </c>
+      <c r="DB187" s="2">
+        <v>2051</v>
+      </c>
     </row>
-    <row r="188" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -60594,8 +61712,14 @@
       <c r="CZ188" s="2">
         <v>7270</v>
       </c>
+      <c r="DA188" s="2">
+        <v>7282</v>
+      </c>
+      <c r="DB188" s="2">
+        <v>7308</v>
+      </c>
     </row>
-    <row r="189" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -60908,8 +62032,14 @@
       <c r="CZ189" s="2">
         <v>21741</v>
       </c>
+      <c r="DA189" s="2">
+        <v>21845</v>
+      </c>
+      <c r="DB189" s="2">
+        <v>21945</v>
+      </c>
     </row>
-    <row r="190" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -61222,8 +62352,14 @@
       <c r="CZ190" s="2">
         <v>60571</v>
       </c>
+      <c r="DA190" s="2">
+        <v>60828</v>
+      </c>
+      <c r="DB190" s="2">
+        <v>60907</v>
+      </c>
     </row>
-    <row r="191" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -61536,8 +62672,14 @@
       <c r="CZ191" s="2">
         <v>6206</v>
       </c>
+      <c r="DA191" s="2">
+        <v>6215</v>
+      </c>
+      <c r="DB191" s="2">
+        <v>6216</v>
+      </c>
     </row>
-    <row r="192" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -61850,8 +62992,14 @@
       <c r="CZ192" s="2">
         <v>2152</v>
       </c>
+      <c r="DA192" s="2">
+        <v>2171</v>
+      </c>
+      <c r="DB192" s="2">
+        <v>2186</v>
+      </c>
     </row>
-    <row r="193" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -62164,8 +63312,14 @@
       <c r="CZ193" s="2">
         <v>41657</v>
       </c>
+      <c r="DA193" s="2">
+        <v>41882</v>
+      </c>
+      <c r="DB193" s="2">
+        <v>41972</v>
+      </c>
     </row>
-    <row r="194" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -62478,8 +63632,14 @@
       <c r="CZ194" s="2">
         <v>1024</v>
       </c>
+      <c r="DA194" s="2">
+        <v>1025</v>
+      </c>
+      <c r="DB194" s="2">
+        <v>1026</v>
+      </c>
     </row>
-    <row r="195" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -62792,8 +63952,14 @@
       <c r="CZ195" s="2">
         <v>1353</v>
       </c>
+      <c r="DA195" s="2">
+        <v>1362</v>
+      </c>
+      <c r="DB195" s="2">
+        <v>1381</v>
+      </c>
     </row>
-    <row r="196" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -63106,8 +64272,14 @@
       <c r="CZ196" s="2">
         <v>4676</v>
       </c>
+      <c r="DA196" s="2">
+        <v>4690</v>
+      </c>
+      <c r="DB196" s="2">
+        <v>4719</v>
+      </c>
     </row>
-    <row r="197" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -63420,8 +64592,14 @@
       <c r="CZ197" s="2">
         <v>3690</v>
       </c>
+      <c r="DA197" s="2">
+        <v>3697</v>
+      </c>
+      <c r="DB197" s="2">
+        <v>3702</v>
+      </c>
     </row>
-    <row r="198" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -63734,8 +64912,14 @@
       <c r="CZ198" s="2">
         <v>4194</v>
       </c>
+      <c r="DA198" s="2">
+        <v>4271</v>
+      </c>
+      <c r="DB198" s="2">
+        <v>4282</v>
+      </c>
     </row>
-    <row r="199" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -64048,8 +65232,14 @@
       <c r="CZ199" s="2">
         <v>118</v>
       </c>
+      <c r="DA199" s="2">
+        <v>120</v>
+      </c>
+      <c r="DB199" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="200" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -64362,8 +65552,14 @@
       <c r="CZ200" s="2">
         <v>9932</v>
       </c>
+      <c r="DA200" s="2">
+        <v>10128</v>
+      </c>
+      <c r="DB200" s="2">
+        <v>10241</v>
+      </c>
     </row>
-    <row r="201" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -64676,8 +65872,14 @@
       <c r="CZ201" s="2">
         <v>45058</v>
       </c>
+      <c r="DA201" s="2">
+        <v>45581</v>
+      </c>
+      <c r="DB201" s="2">
+        <v>46014</v>
+      </c>
     </row>
-    <row r="202" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -64990,8 +66192,14 @@
       <c r="CZ202" s="2">
         <v>5519</v>
       </c>
+      <c r="DA202" s="2">
+        <v>5559</v>
+      </c>
+      <c r="DB202" s="2">
+        <v>5646</v>
+      </c>
     </row>
-    <row r="203" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -65304,8 +66512,14 @@
       <c r="CZ203" s="2">
         <v>14746</v>
       </c>
+      <c r="DA203" s="2">
+        <v>14866</v>
+      </c>
+      <c r="DB203" s="2">
+        <v>14936</v>
+      </c>
     </row>
-    <row r="204" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -65618,8 +66832,14 @@
       <c r="CZ204" s="2">
         <v>4754</v>
       </c>
+      <c r="DA204" s="2">
+        <v>4836</v>
+      </c>
+      <c r="DB204" s="2">
+        <v>4849</v>
+      </c>
     </row>
-    <row r="205" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -65932,8 +67152,14 @@
       <c r="CZ205" s="2">
         <v>4596</v>
       </c>
+      <c r="DA205" s="2">
+        <v>4628</v>
+      </c>
+      <c r="DB205" s="2">
+        <v>4689</v>
+      </c>
     </row>
-    <row r="206" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -66246,8 +67472,14 @@
       <c r="CZ206" s="2">
         <v>11392</v>
       </c>
+      <c r="DA206" s="2">
+        <v>11478</v>
+      </c>
+      <c r="DB206" s="2">
+        <v>11544</v>
+      </c>
     </row>
-    <row r="207" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -66560,8 +67792,14 @@
       <c r="CZ207" s="2">
         <v>29886</v>
       </c>
+      <c r="DA207" s="2">
+        <v>30315</v>
+      </c>
+      <c r="DB207" s="2">
+        <v>30478</v>
+      </c>
     </row>
-    <row r="208" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -66874,8 +68112,14 @@
       <c r="CZ208" s="2">
         <v>2535</v>
       </c>
+      <c r="DA208" s="2">
+        <v>2563</v>
+      </c>
+      <c r="DB208" s="2">
+        <v>2571</v>
+      </c>
     </row>
-    <row r="209" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -67188,8 +68432,14 @@
       <c r="CZ209" s="2">
         <v>934</v>
       </c>
+      <c r="DA209" s="2">
+        <v>937</v>
+      </c>
+      <c r="DB209" s="2">
+        <v>941</v>
+      </c>
     </row>
-    <row r="210" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -67502,8 +68752,14 @@
       <c r="CZ210" s="2">
         <v>13726</v>
       </c>
+      <c r="DA210" s="2">
+        <v>13735</v>
+      </c>
+      <c r="DB210" s="2">
+        <v>13806</v>
+      </c>
     </row>
-    <row r="211" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -67816,8 +69072,14 @@
       <c r="CZ211" s="2">
         <v>763</v>
       </c>
+      <c r="DA211" s="2">
+        <v>768</v>
+      </c>
+      <c r="DB211" s="2">
+        <v>772</v>
+      </c>
     </row>
-    <row r="212" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -68130,8 +69392,14 @@
       <c r="CZ212" s="2">
         <v>9735</v>
       </c>
+      <c r="DA212" s="2">
+        <v>9756</v>
+      </c>
+      <c r="DB212" s="2">
+        <v>9794</v>
+      </c>
     </row>
-    <row r="213" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -68444,8 +69712,14 @@
       <c r="CZ213" s="2">
         <v>163</v>
       </c>
+      <c r="DA213" s="2">
+        <v>165</v>
+      </c>
+      <c r="DB213" s="2">
+        <v>165</v>
+      </c>
     </row>
-    <row r="214" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -68758,8 +70032,14 @@
       <c r="CZ214" s="2">
         <v>133089</v>
       </c>
+      <c r="DA214" s="2">
+        <v>133751</v>
+      </c>
+      <c r="DB214" s="2">
+        <v>133997</v>
+      </c>
     </row>
-    <row r="215" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -69072,8 +70352,14 @@
       <c r="CZ215" s="2">
         <v>5299</v>
       </c>
+      <c r="DA215" s="2">
+        <v>5354</v>
+      </c>
+      <c r="DB215" s="2">
+        <v>5379</v>
+      </c>
     </row>
-    <row r="216" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -69386,8 +70672,14 @@
       <c r="CZ216" s="2">
         <v>28214</v>
       </c>
+      <c r="DA216" s="2">
+        <v>28539</v>
+      </c>
+      <c r="DB216" s="2">
+        <v>28732</v>
+      </c>
     </row>
-    <row r="217" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -69700,8 +70992,14 @@
       <c r="CZ217" s="2">
         <v>2448</v>
       </c>
+      <c r="DA217" s="2">
+        <v>2493</v>
+      </c>
+      <c r="DB217" s="2">
+        <v>2505</v>
+      </c>
     </row>
-    <row r="218" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -70014,8 +71312,14 @@
       <c r="CZ218" s="2">
         <v>696</v>
       </c>
+      <c r="DA218" s="2">
+        <v>701</v>
+      </c>
+      <c r="DB218" s="2">
+        <v>702</v>
+      </c>
     </row>
-    <row r="219" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -70328,8 +71632,14 @@
       <c r="CZ219" s="2">
         <v>250</v>
       </c>
+      <c r="DA219" s="2">
+        <v>255</v>
+      </c>
+      <c r="DB219" s="2">
+        <v>256</v>
+      </c>
     </row>
-    <row r="220" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -70642,8 +71952,14 @@
       <c r="CZ220" s="2">
         <v>1422</v>
       </c>
+      <c r="DA220" s="2">
+        <v>1428</v>
+      </c>
+      <c r="DB220" s="2">
+        <v>1432</v>
+      </c>
     </row>
-    <row r="221" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -70956,8 +72272,14 @@
       <c r="CZ221" s="2">
         <v>3304</v>
       </c>
+      <c r="DA221" s="2">
+        <v>3326</v>
+      </c>
+      <c r="DB221" s="2">
+        <v>3327</v>
+      </c>
     </row>
-    <row r="222" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -71270,8 +72592,14 @@
       <c r="CZ222" s="2">
         <v>1034167</v>
       </c>
+      <c r="DA222" s="2">
+        <v>1045579</v>
+      </c>
+      <c r="DB222" s="2">
+        <v>1055173</v>
+      </c>
     </row>
-    <row r="223" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -71584,8 +72912,14 @@
       <c r="CZ223" s="2">
         <v>79112</v>
       </c>
+      <c r="DA223" s="2">
+        <v>79621</v>
+      </c>
+      <c r="DB223" s="2">
+        <v>79944</v>
+      </c>
     </row>
-    <row r="224" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -71898,8 +73232,14 @@
       <c r="CZ224" s="2">
         <v>292</v>
       </c>
+      <c r="DA224" s="2">
+        <v>295</v>
+      </c>
+      <c r="DB224" s="2">
+        <v>297</v>
+      </c>
     </row>
-    <row r="225" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -72212,8 +73552,14 @@
       <c r="CZ225" s="2">
         <v>3167</v>
       </c>
+      <c r="DA225" s="2">
+        <v>3173</v>
+      </c>
+      <c r="DB225" s="2">
+        <v>3189</v>
+      </c>
     </row>
-    <row r="226" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -72526,8 +73872,14 @@
       <c r="CZ226" s="2">
         <v>234</v>
       </c>
+      <c r="DA226" s="2">
+        <v>235</v>
+      </c>
+      <c r="DB226" s="2">
+        <v>235</v>
+      </c>
     </row>
-    <row r="227" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -72840,8 +74192,14 @@
       <c r="CZ227" s="2">
         <v>15855</v>
       </c>
+      <c r="DA227" s="2">
+        <v>15955</v>
+      </c>
+      <c r="DB227" s="2">
+        <v>16037</v>
+      </c>
     </row>
-    <row r="228" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -73154,8 +74512,14 @@
       <c r="CZ228" s="2">
         <v>76426</v>
       </c>
+      <c r="DA228" s="2">
+        <v>77069</v>
+      </c>
+      <c r="DB228" s="2">
+        <v>77395</v>
+      </c>
     </row>
-    <row r="229" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -73468,8 +74832,14 @@
       <c r="CZ229" s="2">
         <v>637493</v>
       </c>
+      <c r="DA229" s="2">
+        <v>643300</v>
+      </c>
+      <c r="DB229" s="2">
+        <v>647853</v>
+      </c>
     </row>
-    <row r="230" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -73782,8 +75152,14 @@
       <c r="CZ230" s="2">
         <v>6935</v>
       </c>
+      <c r="DA230" s="2">
+        <v>7010</v>
+      </c>
+      <c r="DB230" s="2">
+        <v>7035</v>
+      </c>
     </row>
-    <row r="231" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -74096,8 +75472,14 @@
       <c r="CZ231" s="2">
         <v>8917</v>
       </c>
+      <c r="DA231" s="2">
+        <v>9024</v>
+      </c>
+      <c r="DB231" s="2">
+        <v>9080</v>
+      </c>
     </row>
-    <row r="232" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -74410,8 +75792,14 @@
       <c r="CZ232" s="2">
         <v>9276</v>
       </c>
+      <c r="DA232" s="2">
+        <v>9407</v>
+      </c>
+      <c r="DB232" s="2">
+        <v>9446</v>
+      </c>
     </row>
-    <row r="233" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -74724,8 +76112,14 @@
       <c r="CZ233" s="2">
         <v>1627</v>
       </c>
+      <c r="DA233" s="2">
+        <v>1633</v>
+      </c>
+      <c r="DB233" s="2">
+        <v>1634</v>
+      </c>
     </row>
-    <row r="234" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -75038,8 +76432,14 @@
       <c r="CZ234" s="2">
         <v>14118</v>
       </c>
+      <c r="DA234" s="2">
+        <v>14159</v>
+      </c>
+      <c r="DB234" s="2">
+        <v>14356</v>
+      </c>
     </row>
-    <row r="235" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -75352,8 +76752,14 @@
       <c r="CZ235" s="2">
         <v>27546</v>
       </c>
+      <c r="DA235" s="2">
+        <v>28014</v>
+      </c>
+      <c r="DB235" s="2">
+        <v>28179</v>
+      </c>
     </row>
-    <row r="236" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -75666,8 +77072,14 @@
       <c r="CZ236" s="2">
         <v>14083</v>
       </c>
+      <c r="DA236" s="2">
+        <v>14244</v>
+      </c>
+      <c r="DB236" s="2">
+        <v>14367</v>
+      </c>
     </row>
-    <row r="237" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -75980,8 +77392,14 @@
       <c r="CZ237" s="2">
         <v>33143</v>
       </c>
+      <c r="DA237" s="2">
+        <v>33483</v>
+      </c>
+      <c r="DB237" s="2">
+        <v>33678</v>
+      </c>
     </row>
-    <row r="238" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -76294,8 +77712,14 @@
       <c r="CZ238" s="2">
         <v>68960</v>
       </c>
+      <c r="DA238" s="2">
+        <v>69196</v>
+      </c>
+      <c r="DB238" s="2">
+        <v>69376</v>
+      </c>
     </row>
-    <row r="239" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -76608,8 +78032,14 @@
       <c r="CZ239" s="2">
         <v>18466</v>
       </c>
+      <c r="DA239" s="2">
+        <v>18669</v>
+      </c>
+      <c r="DB239" s="2">
+        <v>18777</v>
+      </c>
     </row>
-    <row r="240" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -76922,8 +78352,14 @@
       <c r="CZ240" s="2">
         <v>3271</v>
       </c>
+      <c r="DA240" s="2">
+        <v>3278</v>
+      </c>
+      <c r="DB240" s="2">
+        <v>3284</v>
+      </c>
     </row>
-    <row r="241" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -77236,8 +78672,14 @@
       <c r="CZ241" s="2">
         <v>23546</v>
       </c>
+      <c r="DA241" s="2">
+        <v>23831</v>
+      </c>
+      <c r="DB241" s="2">
+        <v>24013</v>
+      </c>
     </row>
-    <row r="242" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -77550,8 +78992,14 @@
       <c r="CZ242" s="2">
         <v>199002</v>
       </c>
+      <c r="DA242" s="2">
+        <v>200476</v>
+      </c>
+      <c r="DB242" s="2">
+        <v>202540</v>
+      </c>
     </row>
-    <row r="243" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -77864,8 +79312,14 @@
       <c r="CZ243" s="2">
         <v>21031</v>
       </c>
+      <c r="DA243" s="2">
+        <v>21321</v>
+      </c>
+      <c r="DB243" s="2">
+        <v>21392</v>
+      </c>
     </row>
-    <row r="244" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -78178,8 +79632,14 @@
       <c r="CZ244" s="2">
         <v>2739</v>
       </c>
+      <c r="DA244" s="2">
+        <v>2755</v>
+      </c>
+      <c r="DB244" s="2">
+        <v>2760</v>
+      </c>
     </row>
-    <row r="245" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -78492,8 +79952,14 @@
       <c r="CZ245" s="2">
         <v>85252</v>
       </c>
+      <c r="DA245" s="2">
+        <v>86418</v>
+      </c>
+      <c r="DB245" s="2">
+        <v>86661</v>
+      </c>
     </row>
-    <row r="246" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -78806,8 +80272,14 @@
       <c r="CZ246" s="2">
         <v>9944</v>
       </c>
+      <c r="DA246" s="2">
+        <v>10005</v>
+      </c>
+      <c r="DB246" s="2">
+        <v>10067</v>
+      </c>
     </row>
-    <row r="247" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -79120,8 +80592,14 @@
       <c r="CZ247" s="2">
         <v>14647</v>
       </c>
+      <c r="DA247" s="2">
+        <v>14778</v>
+      </c>
+      <c r="DB247" s="2">
+        <v>14908</v>
+      </c>
     </row>
-    <row r="248" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -79434,8 +80912,14 @@
       <c r="CZ248" s="2">
         <v>258939</v>
       </c>
+      <c r="DA248" s="2">
+        <v>261194</v>
+      </c>
+      <c r="DB248" s="2">
+        <v>263115</v>
+      </c>
     </row>
-    <row r="249" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -79748,8 +81232,14 @@
       <c r="CZ249" s="2">
         <v>19172</v>
       </c>
+      <c r="DA249" s="2">
+        <v>19330</v>
+      </c>
+      <c r="DB249" s="2">
+        <v>19434</v>
+      </c>
     </row>
-    <row r="250" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -80062,8 +81552,14 @@
       <c r="CZ250" s="2">
         <v>787</v>
       </c>
+      <c r="DA250" s="2">
+        <v>793</v>
+      </c>
+      <c r="DB250" s="2">
+        <v>795</v>
+      </c>
     </row>
-    <row r="251" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -80376,8 +81872,14 @@
       <c r="CZ251" s="2">
         <v>31409</v>
       </c>
+      <c r="DA251" s="2">
+        <v>31720</v>
+      </c>
+      <c r="DB251" s="2">
+        <v>31899</v>
+      </c>
     </row>
-    <row r="252" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -80690,8 +82192,14 @@
       <c r="CZ252" s="2">
         <v>13178</v>
       </c>
+      <c r="DA252" s="2">
+        <v>13250</v>
+      </c>
+      <c r="DB252" s="2">
+        <v>13318</v>
+      </c>
     </row>
-    <row r="253" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -81004,8 +82512,14 @@
       <c r="CZ253" s="2">
         <v>2245</v>
       </c>
+      <c r="DA253" s="2">
+        <v>2248</v>
+      </c>
+      <c r="DB253" s="2">
+        <v>2250</v>
+      </c>
     </row>
-    <row r="254" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -81318,8 +82832,14 @@
       <c r="CZ254" s="2">
         <v>5595</v>
       </c>
+      <c r="DA254" s="2">
+        <v>5630</v>
+      </c>
+      <c r="DB254" s="2">
+        <v>5640</v>
+      </c>
     </row>
-    <row r="255" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -81632,8 +83152,14 @@
       <c r="CZ255" s="2">
         <v>10126</v>
       </c>
+      <c r="DA255" s="2">
+        <v>10343</v>
+      </c>
+      <c r="DB255" s="2">
+        <v>10501</v>
+      </c>
     </row>
-    <row r="256" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -81946,8 +83472,14 @@
       <c r="CZ256" s="2">
         <v>5439</v>
       </c>
+      <c r="DA256" s="2">
+        <v>5457</v>
+      </c>
+      <c r="DB256" s="2">
+        <v>5493</v>
+      </c>
     </row>
-    <row r="257" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -82260,8 +83792,14 @@
       <c r="CZ257" s="2">
         <v>122661</v>
       </c>
+      <c r="DA257" s="2">
+        <v>122850</v>
+      </c>
+      <c r="DB257" s="2">
+        <v>122901</v>
+      </c>
     </row>
-    <row r="258" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -82577,8 +84115,14 @@
       <c r="CZ258" s="8">
         <v>15000870</v>
       </c>
+      <c r="DA258" s="8">
+        <v>15154358</v>
+      </c>
+      <c r="DB258" s="8">
+        <v>15258132</v>
+      </c>
     </row>
-    <row r="259" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:106" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -82605,7 +84149,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -82613,7 +84157,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -82621,7 +84165,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -82629,7 +84173,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -82637,7 +84181,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -82645,7 +84189,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -82653,7 +84197,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -82661,7 +84205,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -82669,7 +84213,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -82677,7 +84221,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -82685,7 +84229,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -82693,7 +84237,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -82701,7 +84245,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:104" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:106" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>
@@ -82709,7 +84253,7 @@
       <c r="S272" s="2"/>
       <c r="T272" s="2"/>
     </row>
-    <row r="273" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="273" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M273" s="2"/>
       <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
@@ -82717,7 +84261,7 @@
       <c r="S273" s="2"/>
       <c r="T273" s="2"/>
     </row>
-    <row r="274" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="274" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M274" s="2"/>
       <c r="P274" s="2"/>
       <c r="Q274" s="2"/>
@@ -82725,7 +84269,7 @@
       <c r="S274" s="2"/>
       <c r="T274" s="2"/>
     </row>
-    <row r="275" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="275" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M275" s="2"/>
       <c r="P275" s="2"/>
       <c r="Q275" s="2"/>
@@ -82733,7 +84277,7 @@
       <c r="S275" s="2"/>
       <c r="T275" s="2"/>
     </row>
-    <row r="276" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="276" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M276" s="2"/>
       <c r="P276" s="2"/>
       <c r="Q276" s="2"/>
@@ -82741,7 +84285,7 @@
       <c r="S276" s="2"/>
       <c r="T276" s="2"/>
     </row>
-    <row r="277" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="277" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M277" s="2"/>
       <c r="P277" s="2"/>
       <c r="Q277" s="2"/>
@@ -82749,7 +84293,7 @@
       <c r="S277" s="2"/>
       <c r="T277" s="2"/>
     </row>
-    <row r="278" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="278" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M278" s="2"/>
       <c r="P278" s="2"/>
       <c r="Q278" s="2"/>
@@ -82757,7 +84301,7 @@
       <c r="S278" s="2"/>
       <c r="T278" s="2"/>
     </row>
-    <row r="279" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="279" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M279" s="2"/>
       <c r="P279" s="2"/>
       <c r="Q279" s="2"/>
@@ -82765,7 +84309,7 @@
       <c r="S279" s="2"/>
       <c r="T279" s="2"/>
     </row>
-    <row r="280" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="280" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M280" s="2"/>
       <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
@@ -82773,7 +84317,7 @@
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
     </row>
-    <row r="281" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="281" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M281" s="2"/>
       <c r="P281" s="2"/>
       <c r="Q281" s="2"/>
@@ -82781,7 +84325,7 @@
       <c r="S281" s="2"/>
       <c r="T281" s="2"/>
     </row>
-    <row r="282" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="282" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M282" s="2"/>
       <c r="P282" s="2"/>
       <c r="Q282" s="2"/>
@@ -82789,7 +84333,7 @@
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
     </row>
-    <row r="283" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="283" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M283" s="2"/>
       <c r="P283" s="2"/>
       <c r="Q283" s="2"/>
@@ -82797,7 +84341,7 @@
       <c r="S283" s="2"/>
       <c r="T283" s="2"/>
     </row>
-    <row r="284" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="284" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M284" s="2"/>
       <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
@@ -82805,7 +84349,7 @@
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
     </row>
-    <row r="285" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="285" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M285" s="2"/>
       <c r="P285" s="2"/>
       <c r="Q285" s="2"/>
@@ -82813,7 +84357,7 @@
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
     </row>
-    <row r="286" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="286" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M286" s="2"/>
       <c r="P286" s="2"/>
       <c r="Q286" s="2"/>
@@ -82821,7 +84365,7 @@
       <c r="S286" s="2"/>
       <c r="T286" s="2"/>
     </row>
-    <row r="287" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="287" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M287" s="2"/>
       <c r="P287" s="2"/>
       <c r="Q287" s="2"/>
@@ -82829,7 +84373,7 @@
       <c r="S287" s="2"/>
       <c r="T287" s="2"/>
     </row>
-    <row r="288" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="288" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M288" s="2"/>
       <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
@@ -82837,7 +84381,7 @@
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
     </row>
-    <row r="289" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="289" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M289" s="2"/>
       <c r="P289" s="2"/>
       <c r="Q289" s="2"/>
@@ -82845,7 +84389,7 @@
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
     </row>
-    <row r="290" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="290" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M290" s="2"/>
       <c r="P290" s="2"/>
       <c r="Q290" s="2"/>
@@ -82853,7 +84397,7 @@
       <c r="S290" s="2"/>
       <c r="T290" s="2"/>
     </row>
-    <row r="291" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="291" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M291" s="2"/>
       <c r="P291" s="2"/>
       <c r="Q291" s="2"/>
@@ -82861,7 +84405,7 @@
       <c r="S291" s="2"/>
       <c r="T291" s="2"/>
     </row>
-    <row r="292" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="292" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M292" s="2"/>
       <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
@@ -82869,7 +84413,7 @@
       <c r="S292" s="2"/>
       <c r="T292" s="2"/>
     </row>
-    <row r="293" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="293" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M293" s="2"/>
       <c r="P293" s="2"/>
       <c r="Q293" s="2"/>
@@ -82877,7 +84421,7 @@
       <c r="S293" s="2"/>
       <c r="T293" s="2"/>
     </row>
-    <row r="294" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="294" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M294" s="2"/>
       <c r="P294" s="2"/>
       <c r="Q294" s="2"/>
@@ -82885,7 +84429,7 @@
       <c r="S294" s="2"/>
       <c r="T294" s="2"/>
     </row>
-    <row r="295" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="295" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M295" s="2"/>
       <c r="P295" s="2"/>
       <c r="Q295" s="2"/>
@@ -82893,7 +84437,7 @@
       <c r="S295" s="2"/>
       <c r="T295" s="2"/>
     </row>
-    <row r="296" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="296" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M296" s="2"/>
       <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
@@ -82901,7 +84445,7 @@
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
     </row>
-    <row r="297" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="297" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M297" s="2"/>
       <c r="P297" s="2"/>
       <c r="Q297" s="2"/>
@@ -82909,7 +84453,7 @@
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
     </row>
-    <row r="298" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="298" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M298" s="2"/>
       <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
@@ -82917,7 +84461,7 @@
       <c r="S298" s="2"/>
       <c r="T298" s="2"/>
     </row>
-    <row r="299" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="299" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M299" s="2"/>
       <c r="P299" s="2"/>
       <c r="Q299" s="2"/>
@@ -82925,7 +84469,7 @@
       <c r="S299" s="2"/>
       <c r="T299" s="2"/>
     </row>
-    <row r="300" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="300" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M300" s="2"/>
       <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
@@ -82933,7 +84477,7 @@
       <c r="S300" s="2"/>
       <c r="T300" s="2"/>
     </row>
-    <row r="301" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="301" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M301" s="2"/>
       <c r="P301" s="2"/>
       <c r="Q301" s="2"/>
@@ -82941,7 +84485,7 @@
       <c r="S301" s="2"/>
       <c r="T301" s="2"/>
     </row>
-    <row r="302" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="302" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M302" s="2"/>
       <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
@@ -82949,7 +84493,7 @@
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
     </row>
-    <row r="303" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="303" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M303" s="2"/>
       <c r="P303" s="2"/>
       <c r="Q303" s="2"/>
@@ -82957,7 +84501,7 @@
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
     </row>
-    <row r="304" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="304" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M304" s="2"/>
       <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
@@ -82965,7 +84509,7 @@
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
     </row>
-    <row r="305" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="305" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" s="2"/>
@@ -82973,7 +84517,7 @@
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
     </row>
-    <row r="306" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="306" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M306" s="2"/>
       <c r="P306" s="2"/>
       <c r="Q306" s="2"/>
@@ -82981,7 +84525,7 @@
       <c r="S306" s="2"/>
       <c r="T306" s="2"/>
     </row>
-    <row r="307" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="307" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M307" s="2"/>
       <c r="P307" s="2"/>
       <c r="Q307" s="2"/>
@@ -82989,7 +84533,7 @@
       <c r="S307" s="2"/>
       <c r="T307" s="2"/>
     </row>
-    <row r="308" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="308" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M308" s="2"/>
       <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
@@ -82997,7 +84541,7 @@
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
     </row>
-    <row r="309" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="309" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M309" s="2"/>
       <c r="P309" s="2"/>
       <c r="Q309" s="2"/>
@@ -83005,7 +84549,7 @@
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
     </row>
-    <row r="310" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="310" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
@@ -83013,7 +84557,7 @@
       <c r="S310" s="2"/>
       <c r="T310" s="2"/>
     </row>
-    <row r="311" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="311" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M311" s="2"/>
       <c r="P311" s="2"/>
       <c r="Q311" s="2"/>
@@ -83021,7 +84565,7 @@
       <c r="S311" s="2"/>
       <c r="T311" s="2"/>
     </row>
-    <row r="312" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="312" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M312" s="2"/>
       <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
@@ -83029,7 +84573,7 @@
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
     </row>
-    <row r="313" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="313" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M313" s="2"/>
       <c r="P313" s="2"/>
       <c r="Q313" s="2"/>
@@ -83037,7 +84581,7 @@
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
     </row>
-    <row r="314" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="314" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M314" s="2"/>
       <c r="P314" s="2"/>
       <c r="Q314" s="2"/>
@@ -83045,7 +84589,7 @@
       <c r="S314" s="2"/>
       <c r="T314" s="2"/>
     </row>
-    <row r="315" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="315" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" s="2"/>
@@ -83053,7 +84597,7 @@
       <c r="S315" s="2"/>
       <c r="T315" s="2"/>
     </row>
-    <row r="316" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="316" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M316" s="2"/>
       <c r="P316" s="2"/>
       <c r="Q316" s="2"/>
@@ -83061,7 +84605,7 @@
       <c r="S316" s="2"/>
       <c r="T316" s="2"/>
     </row>
-    <row r="317" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="317" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M317" s="2"/>
       <c r="P317" s="2"/>
       <c r="Q317" s="2"/>
@@ -83069,7 +84613,7 @@
       <c r="S317" s="2"/>
       <c r="T317" s="2"/>
     </row>
-    <row r="318" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="318" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M318" s="2"/>
       <c r="P318" s="2"/>
       <c r="Q318" s="2"/>
@@ -83077,7 +84621,7 @@
       <c r="S318" s="2"/>
       <c r="T318" s="2"/>
     </row>
-    <row r="319" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="319" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M319" s="2"/>
       <c r="P319" s="2"/>
       <c r="Q319" s="2"/>
@@ -83085,7 +84629,7 @@
       <c r="S319" s="2"/>
       <c r="T319" s="2"/>
     </row>
-    <row r="320" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="320" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M320" s="2"/>
       <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
@@ -83093,7 +84637,7 @@
       <c r="S320" s="2"/>
       <c r="T320" s="2"/>
     </row>
-    <row r="321" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="321" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M321" s="2"/>
       <c r="P321" s="2"/>
       <c r="Q321" s="2"/>
@@ -83101,7 +84645,7 @@
       <c r="S321" s="2"/>
       <c r="T321" s="2"/>
     </row>
-    <row r="322" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="322" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M322" s="2"/>
       <c r="P322" s="2"/>
       <c r="Q322" s="2"/>
@@ -83109,7 +84653,7 @@
       <c r="S322" s="2"/>
       <c r="T322" s="2"/>
     </row>
-    <row r="323" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="323" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M323" s="2"/>
       <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
@@ -83117,7 +84661,7 @@
       <c r="S323" s="2"/>
       <c r="T323" s="2"/>
     </row>
-    <row r="324" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="324" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" s="2"/>
@@ -83125,7 +84669,7 @@
       <c r="S324" s="2"/>
       <c r="T324" s="2"/>
     </row>
-    <row r="325" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="325" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M325" s="2"/>
       <c r="P325" s="2"/>
       <c r="Q325" s="2"/>
@@ -83133,7 +84677,7 @@
       <c r="S325" s="2"/>
       <c r="T325" s="2"/>
     </row>
-    <row r="326" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="326" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M326" s="2"/>
       <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
@@ -83141,7 +84685,7 @@
       <c r="S326" s="2"/>
       <c r="T326" s="2"/>
     </row>
-    <row r="327" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="327" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M327" s="2"/>
       <c r="P327" s="2"/>
       <c r="Q327" s="2"/>
@@ -83149,7 +84693,7 @@
       <c r="S327" s="2"/>
       <c r="T327" s="2"/>
     </row>
-    <row r="328" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="328" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" s="2"/>
@@ -83157,7 +84701,7 @@
       <c r="S328" s="2"/>
       <c r="T328" s="2"/>
     </row>
-    <row r="329" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="329" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M329" s="2"/>
       <c r="P329" s="2"/>
       <c r="Q329" s="2"/>
@@ -83165,7 +84709,7 @@
       <c r="S329" s="2"/>
       <c r="T329" s="2"/>
     </row>
-    <row r="330" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="330" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M330" s="2"/>
       <c r="P330" s="2"/>
       <c r="Q330" s="2"/>
@@ -83173,7 +84717,7 @@
       <c r="S330" s="2"/>
       <c r="T330" s="2"/>
     </row>
-    <row r="331" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="331" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M331" s="2"/>
       <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
@@ -83181,7 +84725,7 @@
       <c r="S331" s="2"/>
       <c r="T331" s="2"/>
     </row>
-    <row r="332" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="332" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M332" s="2"/>
       <c r="P332" s="2"/>
       <c r="Q332" s="2"/>
@@ -83189,7 +84733,7 @@
       <c r="S332" s="2"/>
       <c r="T332" s="2"/>
     </row>
-    <row r="333" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="333" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M333" s="2"/>
       <c r="P333" s="2"/>
       <c r="Q333" s="2"/>
@@ -83197,7 +84741,7 @@
       <c r="S333" s="2"/>
       <c r="T333" s="2"/>
     </row>
-    <row r="334" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="334" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" s="2"/>
@@ -83205,7 +84749,7 @@
       <c r="S334" s="2"/>
       <c r="T334" s="2"/>
     </row>
-    <row r="335" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="335" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M335" s="2"/>
       <c r="P335" s="2"/>
       <c r="Q335" s="2"/>
@@ -83213,7 +84757,7 @@
       <c r="S335" s="2"/>
       <c r="T335" s="2"/>
     </row>
-    <row r="336" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="336" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M336" s="2"/>
       <c r="P336" s="2"/>
       <c r="Q336" s="2"/>
@@ -83221,7 +84765,7 @@
       <c r="S336" s="2"/>
       <c r="T336" s="2"/>
     </row>
-    <row r="337" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="337" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M337" s="2"/>
       <c r="P337" s="2"/>
       <c r="Q337" s="2"/>
@@ -83229,7 +84773,7 @@
       <c r="S337" s="2"/>
       <c r="T337" s="2"/>
     </row>
-    <row r="338" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="338" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M338" s="2"/>
       <c r="P338" s="2"/>
       <c r="Q338" s="2"/>
@@ -83237,7 +84781,7 @@
       <c r="S338" s="2"/>
       <c r="T338" s="2"/>
     </row>
-    <row r="339" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="339" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M339" s="2"/>
       <c r="P339" s="2"/>
       <c r="Q339" s="2"/>
@@ -83245,7 +84789,7 @@
       <c r="S339" s="2"/>
       <c r="T339" s="2"/>
     </row>
-    <row r="340" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="340" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M340" s="2"/>
       <c r="P340" s="2"/>
       <c r="Q340" s="2"/>
@@ -83253,7 +84797,7 @@
       <c r="S340" s="2"/>
       <c r="T340" s="2"/>
     </row>
-    <row r="341" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="341" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M341" s="2"/>
       <c r="P341" s="2"/>
       <c r="Q341" s="2"/>
@@ -83261,7 +84805,7 @@
       <c r="S341" s="2"/>
       <c r="T341" s="2"/>
     </row>
-    <row r="342" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="342" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M342" s="2"/>
       <c r="P342" s="2"/>
       <c r="Q342" s="2"/>
@@ -83269,7 +84813,7 @@
       <c r="S342" s="2"/>
       <c r="T342" s="2"/>
     </row>
-    <row r="343" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="343" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M343" s="2"/>
       <c r="P343" s="2"/>
       <c r="Q343" s="2"/>
@@ -83277,7 +84821,7 @@
       <c r="S343" s="2"/>
       <c r="T343" s="2"/>
     </row>
-    <row r="344" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="344" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M344" s="2"/>
       <c r="P344" s="2"/>
       <c r="Q344" s="2"/>
@@ -83285,7 +84829,7 @@
       <c r="S344" s="2"/>
       <c r="T344" s="2"/>
     </row>
-    <row r="345" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="345" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M345" s="2"/>
       <c r="P345" s="2"/>
       <c r="Q345" s="2"/>
@@ -83293,7 +84837,7 @@
       <c r="S345" s="2"/>
       <c r="T345" s="2"/>
     </row>
-    <row r="346" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="346" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M346" s="2"/>
       <c r="P346" s="2"/>
       <c r="Q346" s="2"/>
@@ -83301,7 +84845,7 @@
       <c r="S346" s="2"/>
       <c r="T346" s="2"/>
     </row>
-    <row r="347" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="347" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M347" s="2"/>
       <c r="P347" s="2"/>
       <c r="Q347" s="2"/>
@@ -83309,7 +84853,7 @@
       <c r="S347" s="2"/>
       <c r="T347" s="2"/>
     </row>
-    <row r="348" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="348" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M348" s="2"/>
       <c r="P348" s="2"/>
       <c r="Q348" s="2"/>
@@ -83317,7 +84861,7 @@
       <c r="S348" s="2"/>
       <c r="T348" s="2"/>
     </row>
-    <row r="349" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="349" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M349" s="2"/>
       <c r="P349" s="2"/>
       <c r="Q349" s="2"/>
@@ -83325,7 +84869,7 @@
       <c r="S349" s="2"/>
       <c r="T349" s="2"/>
     </row>
-    <row r="350" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="350" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M350" s="2"/>
       <c r="P350" s="2"/>
       <c r="Q350" s="2"/>
@@ -83333,7 +84877,7 @@
       <c r="S350" s="2"/>
       <c r="T350" s="2"/>
     </row>
-    <row r="351" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="351" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M351" s="2"/>
       <c r="P351" s="2"/>
       <c r="Q351" s="2"/>
@@ -83341,7 +84885,7 @@
       <c r="S351" s="2"/>
       <c r="T351" s="2"/>
     </row>
-    <row r="352" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="352" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M352" s="2"/>
       <c r="P352" s="2"/>
       <c r="Q352" s="2"/>
@@ -83349,7 +84893,7 @@
       <c r="S352" s="2"/>
       <c r="T352" s="2"/>
     </row>
-    <row r="353" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="353" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M353" s="2"/>
       <c r="P353" s="2"/>
       <c r="Q353" s="2"/>
@@ -83357,7 +84901,7 @@
       <c r="S353" s="2"/>
       <c r="T353" s="2"/>
     </row>
-    <row r="354" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="354" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M354" s="2"/>
       <c r="P354" s="2"/>
       <c r="Q354" s="2"/>
@@ -83365,7 +84909,7 @@
       <c r="S354" s="2"/>
       <c r="T354" s="2"/>
     </row>
-    <row r="355" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="355" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M355" s="2"/>
       <c r="P355" s="2"/>
       <c r="Q355" s="2"/>
@@ -83373,7 +84917,7 @@
       <c r="S355" s="2"/>
       <c r="T355" s="2"/>
     </row>
-    <row r="356" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="356" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M356" s="2"/>
       <c r="P356" s="2"/>
       <c r="Q356" s="2"/>
@@ -83381,7 +84925,7 @@
       <c r="S356" s="2"/>
       <c r="T356" s="2"/>
     </row>
-    <row r="357" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="357" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M357" s="2"/>
       <c r="P357" s="2"/>
       <c r="Q357" s="2"/>
@@ -83389,7 +84933,7 @@
       <c r="S357" s="2"/>
       <c r="T357" s="2"/>
     </row>
-    <row r="358" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="358" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M358" s="2"/>
       <c r="P358" s="2"/>
       <c r="Q358" s="2"/>
@@ -83397,7 +84941,7 @@
       <c r="S358" s="2"/>
       <c r="T358" s="2"/>
     </row>
-    <row r="359" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="359" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M359" s="2"/>
       <c r="P359" s="2"/>
       <c r="Q359" s="2"/>
@@ -83405,7 +84949,7 @@
       <c r="S359" s="2"/>
       <c r="T359" s="2"/>
     </row>
-    <row r="360" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="360" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M360" s="2"/>
       <c r="P360" s="2"/>
       <c r="Q360" s="2"/>
@@ -83413,7 +84957,7 @@
       <c r="S360" s="2"/>
       <c r="T360" s="2"/>
     </row>
-    <row r="361" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="361" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M361" s="2"/>
       <c r="P361" s="2"/>
       <c r="Q361" s="2"/>
@@ -83421,7 +84965,7 @@
       <c r="S361" s="2"/>
       <c r="T361" s="2"/>
     </row>
-    <row r="362" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="362" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M362" s="2"/>
       <c r="P362" s="2"/>
       <c r="Q362" s="2"/>
@@ -83429,7 +84973,7 @@
       <c r="S362" s="2"/>
       <c r="T362" s="2"/>
     </row>
-    <row r="363" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="363" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M363" s="2"/>
       <c r="P363" s="2"/>
       <c r="Q363" s="2"/>
@@ -83437,7 +84981,7 @@
       <c r="S363" s="2"/>
       <c r="T363" s="2"/>
     </row>
-    <row r="364" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="364" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M364" s="2"/>
       <c r="P364" s="2"/>
       <c r="Q364" s="2"/>
@@ -83445,7 +84989,7 @@
       <c r="S364" s="2"/>
       <c r="T364" s="2"/>
     </row>
-    <row r="365" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="365" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M365" s="2"/>
       <c r="P365" s="2"/>
       <c r="Q365" s="2"/>
@@ -83453,7 +84997,7 @@
       <c r="S365" s="2"/>
       <c r="T365" s="2"/>
     </row>
-    <row r="366" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="366" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M366" s="2"/>
       <c r="P366" s="2"/>
       <c r="Q366" s="2"/>
@@ -83461,7 +85005,7 @@
       <c r="S366" s="2"/>
       <c r="T366" s="2"/>
     </row>
-    <row r="367" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="367" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M367" s="2"/>
       <c r="P367" s="2"/>
       <c r="Q367" s="2"/>
@@ -83469,7 +85013,7 @@
       <c r="S367" s="2"/>
       <c r="T367" s="2"/>
     </row>
-    <row r="368" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="368" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M368" s="2"/>
       <c r="P368" s="2"/>
       <c r="Q368" s="2"/>
@@ -83477,7 +85021,7 @@
       <c r="S368" s="2"/>
       <c r="T368" s="2"/>
     </row>
-    <row r="369" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="369" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M369" s="2"/>
       <c r="P369" s="2"/>
       <c r="Q369" s="2"/>
@@ -83485,7 +85029,7 @@
       <c r="S369" s="2"/>
       <c r="T369" s="2"/>
     </row>
-    <row r="370" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="370" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M370" s="2"/>
       <c r="P370" s="2"/>
       <c r="Q370" s="2"/>
@@ -83493,7 +85037,7 @@
       <c r="S370" s="2"/>
       <c r="T370" s="2"/>
     </row>
-    <row r="371" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="371" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M371" s="2"/>
       <c r="P371" s="2"/>
       <c r="Q371" s="2"/>
@@ -83501,7 +85045,7 @@
       <c r="S371" s="2"/>
       <c r="T371" s="2"/>
     </row>
-    <row r="372" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="372" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M372" s="2"/>
       <c r="P372" s="2"/>
       <c r="Q372" s="2"/>
@@ -83509,7 +85053,7 @@
       <c r="S372" s="2"/>
       <c r="T372" s="2"/>
     </row>
-    <row r="373" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="373" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M373" s="2"/>
       <c r="P373" s="2"/>
       <c r="Q373" s="2"/>
@@ -83517,7 +85061,7 @@
       <c r="S373" s="2"/>
       <c r="T373" s="2"/>
     </row>
-    <row r="374" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="374" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M374" s="2"/>
       <c r="P374" s="2"/>
       <c r="Q374" s="2"/>
@@ -83525,7 +85069,7 @@
       <c r="S374" s="2"/>
       <c r="T374" s="2"/>
     </row>
-    <row r="375" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="375" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M375" s="2"/>
       <c r="P375" s="2"/>
       <c r="Q375" s="2"/>
@@ -83533,7 +85077,7 @@
       <c r="S375" s="2"/>
       <c r="T375" s="2"/>
     </row>
-    <row r="376" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="376" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M376" s="2"/>
       <c r="P376" s="2"/>
       <c r="Q376" s="2"/>
@@ -83541,7 +85085,7 @@
       <c r="S376" s="2"/>
       <c r="T376" s="2"/>
     </row>
-    <row r="377" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="377" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M377" s="2"/>
       <c r="P377" s="2"/>
       <c r="Q377" s="2"/>
@@ -83549,7 +85093,7 @@
       <c r="S377" s="2"/>
       <c r="T377" s="2"/>
     </row>
-    <row r="378" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="378" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M378" s="2"/>
       <c r="P378" s="2"/>
       <c r="Q378" s="2"/>
@@ -83557,7 +85101,7 @@
       <c r="S378" s="2"/>
       <c r="T378" s="2"/>
     </row>
-    <row r="379" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="379" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M379" s="2"/>
       <c r="P379" s="2"/>
       <c r="Q379" s="2"/>
@@ -83565,7 +85109,7 @@
       <c r="S379" s="2"/>
       <c r="T379" s="2"/>
     </row>
-    <row r="380" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="380" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M380" s="2"/>
       <c r="P380" s="2"/>
       <c r="Q380" s="2"/>
@@ -83573,7 +85117,7 @@
       <c r="S380" s="2"/>
       <c r="T380" s="2"/>
     </row>
-    <row r="381" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="381" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M381" s="2"/>
       <c r="P381" s="2"/>
       <c r="Q381" s="2"/>
@@ -83581,7 +85125,7 @@
       <c r="S381" s="2"/>
       <c r="T381" s="2"/>
     </row>
-    <row r="382" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="382" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M382" s="2"/>
       <c r="P382" s="2"/>
       <c r="Q382" s="2"/>
@@ -83589,7 +85133,7 @@
       <c r="S382" s="2"/>
       <c r="T382" s="2"/>
     </row>
-    <row r="383" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="383" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M383" s="2"/>
       <c r="P383" s="2"/>
       <c r="Q383" s="2"/>
@@ -83597,7 +85141,7 @@
       <c r="S383" s="2"/>
       <c r="T383" s="2"/>
     </row>
-    <row r="384" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="384" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M384" s="2"/>
       <c r="P384" s="2"/>
       <c r="Q384" s="2"/>
@@ -83605,7 +85149,7 @@
       <c r="S384" s="2"/>
       <c r="T384" s="2"/>
     </row>
-    <row r="385" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="385" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M385" s="2"/>
       <c r="P385" s="2"/>
       <c r="Q385" s="2"/>
@@ -83613,7 +85157,7 @@
       <c r="S385" s="2"/>
       <c r="T385" s="2"/>
     </row>
-    <row r="386" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="386" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M386" s="2"/>
       <c r="P386" s="2"/>
       <c r="Q386" s="2"/>
@@ -83621,7 +85165,7 @@
       <c r="S386" s="2"/>
       <c r="T386" s="2"/>
     </row>
-    <row r="387" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="387" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M387" s="2"/>
       <c r="P387" s="2"/>
       <c r="Q387" s="2"/>
@@ -83629,7 +85173,7 @@
       <c r="S387" s="2"/>
       <c r="T387" s="2"/>
     </row>
-    <row r="388" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="388" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M388" s="2"/>
       <c r="P388" s="2"/>
       <c r="Q388" s="2"/>
@@ -83637,7 +85181,7 @@
       <c r="S388" s="2"/>
       <c r="T388" s="2"/>
     </row>
-    <row r="389" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="389" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M389" s="2"/>
       <c r="P389" s="2"/>
       <c r="Q389" s="2"/>
@@ -83645,7 +85189,7 @@
       <c r="S389" s="2"/>
       <c r="T389" s="2"/>
     </row>
-    <row r="390" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="390" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M390" s="2"/>
       <c r="P390" s="2"/>
       <c r="Q390" s="2"/>
@@ -83653,7 +85197,7 @@
       <c r="S390" s="2"/>
       <c r="T390" s="2"/>
     </row>
-    <row r="391" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="391" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M391" s="2"/>
       <c r="P391" s="2"/>
       <c r="Q391" s="2"/>
@@ -83661,7 +85205,7 @@
       <c r="S391" s="2"/>
       <c r="T391" s="2"/>
     </row>
-    <row r="392" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="392" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M392" s="2"/>
       <c r="P392" s="2"/>
       <c r="Q392" s="2"/>
@@ -83669,7 +85213,7 @@
       <c r="S392" s="2"/>
       <c r="T392" s="2"/>
     </row>
-    <row r="393" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="393" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M393" s="2"/>
       <c r="P393" s="2"/>
       <c r="Q393" s="2"/>
@@ -83677,7 +85221,7 @@
       <c r="S393" s="2"/>
       <c r="T393" s="2"/>
     </row>
-    <row r="394" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="394" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M394" s="2"/>
       <c r="P394" s="2"/>
       <c r="Q394" s="2"/>
@@ -83685,7 +85229,7 @@
       <c r="S394" s="2"/>
       <c r="T394" s="2"/>
     </row>
-    <row r="395" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="395" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M395" s="2"/>
       <c r="P395" s="2"/>
       <c r="Q395" s="2"/>
@@ -83693,7 +85237,7 @@
       <c r="S395" s="2"/>
       <c r="T395" s="2"/>
     </row>
-    <row r="396" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="396" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M396" s="2"/>
       <c r="P396" s="2"/>
       <c r="Q396" s="2"/>
@@ -83701,7 +85245,7 @@
       <c r="S396" s="2"/>
       <c r="T396" s="2"/>
     </row>
-    <row r="397" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="397" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M397" s="2"/>
       <c r="P397" s="2"/>
       <c r="Q397" s="2"/>
@@ -83709,7 +85253,7 @@
       <c r="S397" s="2"/>
       <c r="T397" s="2"/>
     </row>
-    <row r="398" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="398" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M398" s="2"/>
       <c r="P398" s="2"/>
       <c r="Q398" s="2"/>
@@ -83717,7 +85261,7 @@
       <c r="S398" s="2"/>
       <c r="T398" s="2"/>
     </row>
-    <row r="399" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="399" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M399" s="2"/>
       <c r="P399" s="2"/>
       <c r="Q399" s="2"/>
@@ -83725,7 +85269,7 @@
       <c r="S399" s="2"/>
       <c r="T399" s="2"/>
     </row>
-    <row r="400" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="400" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M400" s="2"/>
       <c r="P400" s="2"/>
       <c r="Q400" s="2"/>
@@ -83733,7 +85277,7 @@
       <c r="S400" s="2"/>
       <c r="T400" s="2"/>
     </row>
-    <row r="401" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="401" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M401" s="2"/>
       <c r="P401" s="2"/>
       <c r="Q401" s="2"/>
@@ -83741,7 +85285,7 @@
       <c r="S401" s="2"/>
       <c r="T401" s="2"/>
     </row>
-    <row r="402" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="402" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M402" s="2"/>
       <c r="P402" s="2"/>
       <c r="Q402" s="2"/>
@@ -83749,7 +85293,7 @@
       <c r="S402" s="2"/>
       <c r="T402" s="2"/>
     </row>
-    <row r="403" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="403" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M403" s="2"/>
       <c r="P403" s="2"/>
       <c r="Q403" s="2"/>
@@ -83757,7 +85301,7 @@
       <c r="S403" s="2"/>
       <c r="T403" s="2"/>
     </row>
-    <row r="404" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="404" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M404" s="2"/>
       <c r="P404" s="2"/>
       <c r="Q404" s="2"/>
@@ -83765,7 +85309,7 @@
       <c r="S404" s="2"/>
       <c r="T404" s="2"/>
     </row>
-    <row r="405" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="405" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M405" s="2"/>
       <c r="P405" s="2"/>
       <c r="Q405" s="2"/>
@@ -83773,7 +85317,7 @@
       <c r="S405" s="2"/>
       <c r="T405" s="2"/>
     </row>
-    <row r="406" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="406" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M406" s="2"/>
       <c r="P406" s="2"/>
       <c r="Q406" s="2"/>
@@ -83781,7 +85325,7 @@
       <c r="S406" s="2"/>
       <c r="T406" s="2"/>
     </row>
-    <row r="407" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="407" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M407" s="2"/>
       <c r="P407" s="2"/>
       <c r="Q407" s="2"/>
@@ -83789,7 +85333,7 @@
       <c r="S407" s="2"/>
       <c r="T407" s="2"/>
     </row>
-    <row r="408" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="408" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M408" s="2"/>
       <c r="P408" s="2"/>
       <c r="Q408" s="2"/>
@@ -83797,7 +85341,7 @@
       <c r="S408" s="2"/>
       <c r="T408" s="2"/>
     </row>
-    <row r="409" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="409" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M409" s="2"/>
       <c r="P409" s="2"/>
       <c r="Q409" s="2"/>
@@ -83805,7 +85349,7 @@
       <c r="S409" s="2"/>
       <c r="T409" s="2"/>
     </row>
-    <row r="410" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="410" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M410" s="2"/>
       <c r="P410" s="2"/>
       <c r="Q410" s="2"/>
@@ -83813,7 +85357,7 @@
       <c r="S410" s="2"/>
       <c r="T410" s="2"/>
     </row>
-    <row r="411" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="411" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M411" s="2"/>
       <c r="P411" s="2"/>
       <c r="Q411" s="2"/>
@@ -83821,7 +85365,7 @@
       <c r="S411" s="2"/>
       <c r="T411" s="2"/>
     </row>
-    <row r="412" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="412" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M412" s="2"/>
       <c r="P412" s="2"/>
       <c r="Q412" s="2"/>
@@ -83829,7 +85373,7 @@
       <c r="S412" s="2"/>
       <c r="T412" s="2"/>
     </row>
-    <row r="413" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="413" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M413" s="2"/>
       <c r="P413" s="2"/>
       <c r="Q413" s="2"/>
@@ -83837,7 +85381,7 @@
       <c r="S413" s="2"/>
       <c r="T413" s="2"/>
     </row>
-    <row r="414" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="414" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M414" s="2"/>
       <c r="P414" s="2"/>
       <c r="Q414" s="2"/>
@@ -83845,7 +85389,7 @@
       <c r="S414" s="2"/>
       <c r="T414" s="2"/>
     </row>
-    <row r="415" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="415" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M415" s="2"/>
       <c r="P415" s="2"/>
       <c r="Q415" s="2"/>
@@ -83853,7 +85397,7 @@
       <c r="S415" s="2"/>
       <c r="T415" s="2"/>
     </row>
-    <row r="416" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="416" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M416" s="2"/>
       <c r="P416" s="2"/>
       <c r="Q416" s="2"/>
@@ -83861,7 +85405,7 @@
       <c r="S416" s="2"/>
       <c r="T416" s="2"/>
     </row>
-    <row r="417" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="417" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M417" s="2"/>
       <c r="P417" s="2"/>
       <c r="Q417" s="2"/>
@@ -83869,7 +85413,7 @@
       <c r="S417" s="2"/>
       <c r="T417" s="2"/>
     </row>
-    <row r="418" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="418" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M418" s="2"/>
       <c r="P418" s="2"/>
       <c r="Q418" s="2"/>
@@ -83877,7 +85421,7 @@
       <c r="S418" s="2"/>
       <c r="T418" s="2"/>
     </row>
-    <row r="419" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="419" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M419" s="2"/>
       <c r="P419" s="2"/>
       <c r="Q419" s="2"/>
@@ -83885,7 +85429,7 @@
       <c r="S419" s="2"/>
       <c r="T419" s="2"/>
     </row>
-    <row r="420" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="420" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M420" s="2"/>
       <c r="P420" s="2"/>
       <c r="Q420" s="2"/>
@@ -83893,7 +85437,7 @@
       <c r="S420" s="2"/>
       <c r="T420" s="2"/>
     </row>
-    <row r="421" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="421" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M421" s="2"/>
       <c r="P421" s="2"/>
       <c r="Q421" s="2"/>
@@ -83901,7 +85445,7 @@
       <c r="S421" s="2"/>
       <c r="T421" s="2"/>
     </row>
-    <row r="422" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="422" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M422" s="2"/>
       <c r="P422" s="2"/>
       <c r="Q422" s="2"/>
@@ -83909,7 +85453,7 @@
       <c r="S422" s="2"/>
       <c r="T422" s="2"/>
     </row>
-    <row r="423" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="423" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M423" s="2"/>
       <c r="P423" s="2"/>
       <c r="Q423" s="2"/>
@@ -83917,7 +85461,7 @@
       <c r="S423" s="2"/>
       <c r="T423" s="2"/>
     </row>
-    <row r="424" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="424" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M424" s="2"/>
       <c r="P424" s="2"/>
       <c r="Q424" s="2"/>
@@ -83925,7 +85469,7 @@
       <c r="S424" s="2"/>
       <c r="T424" s="2"/>
     </row>
-    <row r="425" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="425" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M425" s="2"/>
       <c r="P425" s="2"/>
       <c r="Q425" s="2"/>
@@ -83933,7 +85477,7 @@
       <c r="S425" s="2"/>
       <c r="T425" s="2"/>
     </row>
-    <row r="426" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="426" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M426" s="2"/>
       <c r="P426" s="2"/>
       <c r="Q426" s="2"/>
@@ -83941,7 +85485,7 @@
       <c r="S426" s="2"/>
       <c r="T426" s="2"/>
     </row>
-    <row r="427" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="427" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M427" s="2"/>
       <c r="P427" s="2"/>
       <c r="Q427" s="2"/>
@@ -83949,7 +85493,7 @@
       <c r="S427" s="2"/>
       <c r="T427" s="2"/>
     </row>
-    <row r="428" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="428" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M428" s="2"/>
       <c r="P428" s="2"/>
       <c r="Q428" s="2"/>
@@ -83957,7 +85501,7 @@
       <c r="S428" s="2"/>
       <c r="T428" s="2"/>
     </row>
-    <row r="429" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="429" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M429" s="2"/>
       <c r="P429" s="2"/>
       <c r="Q429" s="2"/>
@@ -83965,7 +85509,7 @@
       <c r="S429" s="2"/>
       <c r="T429" s="2"/>
     </row>
-    <row r="430" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="430" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M430" s="2"/>
       <c r="P430" s="2"/>
       <c r="Q430" s="2"/>
@@ -83973,7 +85517,7 @@
       <c r="S430" s="2"/>
       <c r="T430" s="2"/>
     </row>
-    <row r="431" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="431" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M431" s="2"/>
       <c r="P431" s="2"/>
       <c r="Q431" s="2"/>
@@ -83981,7 +85525,7 @@
       <c r="S431" s="2"/>
       <c r="T431" s="2"/>
     </row>
-    <row r="432" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="432" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M432" s="2"/>
       <c r="P432" s="2"/>
       <c r="Q432" s="2"/>
@@ -83989,7 +85533,7 @@
       <c r="S432" s="2"/>
       <c r="T432" s="2"/>
     </row>
-    <row r="433" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="433" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M433" s="2"/>
       <c r="P433" s="2"/>
       <c r="Q433" s="2"/>
@@ -83997,7 +85541,7 @@
       <c r="S433" s="2"/>
       <c r="T433" s="2"/>
     </row>
-    <row r="434" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="434" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M434" s="2"/>
       <c r="P434" s="2"/>
       <c r="Q434" s="2"/>
@@ -84005,7 +85549,7 @@
       <c r="S434" s="2"/>
       <c r="T434" s="2"/>
     </row>
-    <row r="435" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="435" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M435" s="2"/>
       <c r="P435" s="2"/>
       <c r="Q435" s="2"/>
@@ -84013,7 +85557,7 @@
       <c r="S435" s="2"/>
       <c r="T435" s="2"/>
     </row>
-    <row r="436" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="436" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M436" s="2"/>
       <c r="P436" s="2"/>
       <c r="Q436" s="2"/>
@@ -84021,7 +85565,7 @@
       <c r="S436" s="2"/>
       <c r="T436" s="2"/>
     </row>
-    <row r="437" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="437" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M437" s="2"/>
       <c r="P437" s="2"/>
       <c r="Q437" s="2"/>
@@ -84029,7 +85573,7 @@
       <c r="S437" s="2"/>
       <c r="T437" s="2"/>
     </row>
-    <row r="438" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="438" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M438" s="2"/>
       <c r="P438" s="2"/>
       <c r="Q438" s="2"/>
@@ -84037,7 +85581,7 @@
       <c r="S438" s="2"/>
       <c r="T438" s="2"/>
     </row>
-    <row r="439" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="439" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M439" s="2"/>
       <c r="P439" s="2"/>
       <c r="Q439" s="2"/>
@@ -84045,7 +85589,7 @@
       <c r="S439" s="2"/>
       <c r="T439" s="2"/>
     </row>
-    <row r="440" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="440" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M440" s="2"/>
       <c r="P440" s="2"/>
       <c r="Q440" s="2"/>
@@ -84053,7 +85597,7 @@
       <c r="S440" s="2"/>
       <c r="T440" s="2"/>
     </row>
-    <row r="441" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="441" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M441" s="2"/>
       <c r="P441" s="2"/>
       <c r="Q441" s="2"/>
@@ -84061,7 +85605,7 @@
       <c r="S441" s="2"/>
       <c r="T441" s="2"/>
     </row>
-    <row r="442" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="442" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M442" s="2"/>
       <c r="P442" s="2"/>
       <c r="Q442" s="2"/>
@@ -84069,7 +85613,7 @@
       <c r="S442" s="2"/>
       <c r="T442" s="2"/>
     </row>
-    <row r="443" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="443" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M443" s="2"/>
       <c r="P443" s="2"/>
       <c r="Q443" s="2"/>
@@ -84077,7 +85621,7 @@
       <c r="S443" s="2"/>
       <c r="T443" s="2"/>
     </row>
-    <row r="444" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="444" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M444" s="2"/>
       <c r="P444" s="2"/>
       <c r="Q444" s="2"/>
@@ -84085,7 +85629,7 @@
       <c r="S444" s="2"/>
       <c r="T444" s="2"/>
     </row>
-    <row r="445" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="445" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M445" s="2"/>
       <c r="P445" s="2"/>
       <c r="Q445" s="2"/>
@@ -84093,7 +85637,7 @@
       <c r="S445" s="2"/>
       <c r="T445" s="2"/>
     </row>
-    <row r="446" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="446" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M446" s="2"/>
       <c r="P446" s="2"/>
       <c r="Q446" s="2"/>
@@ -84101,7 +85645,7 @@
       <c r="S446" s="2"/>
       <c r="T446" s="2"/>
     </row>
-    <row r="447" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="447" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M447" s="2"/>
       <c r="P447" s="2"/>
       <c r="Q447" s="2"/>
@@ -84109,7 +85653,7 @@
       <c r="S447" s="2"/>
       <c r="T447" s="2"/>
     </row>
-    <row r="448" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="448" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M448" s="2"/>
       <c r="P448" s="2"/>
       <c r="Q448" s="2"/>
@@ -84117,7 +85661,7 @@
       <c r="S448" s="2"/>
       <c r="T448" s="2"/>
     </row>
-    <row r="449" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="449" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M449" s="2"/>
       <c r="P449" s="2"/>
       <c r="Q449" s="2"/>
@@ -84125,7 +85669,7 @@
       <c r="S449" s="2"/>
       <c r="T449" s="2"/>
     </row>
-    <row r="450" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="450" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M450" s="2"/>
       <c r="P450" s="2"/>
       <c r="Q450" s="2"/>
@@ -84133,7 +85677,7 @@
       <c r="S450" s="2"/>
       <c r="T450" s="2"/>
     </row>
-    <row r="451" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="451" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M451" s="2"/>
       <c r="P451" s="2"/>
       <c r="Q451" s="2"/>
@@ -84141,7 +85685,7 @@
       <c r="S451" s="2"/>
       <c r="T451" s="2"/>
     </row>
-    <row r="452" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="452" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M452" s="2"/>
       <c r="P452" s="2"/>
       <c r="Q452" s="2"/>
@@ -84149,7 +85693,7 @@
       <c r="S452" s="2"/>
       <c r="T452" s="2"/>
     </row>
-    <row r="453" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="453" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M453" s="2"/>
       <c r="P453" s="2"/>
       <c r="Q453" s="2"/>
@@ -84157,7 +85701,7 @@
       <c r="S453" s="2"/>
       <c r="T453" s="2"/>
     </row>
-    <row r="454" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="454" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M454" s="2"/>
       <c r="P454" s="2"/>
       <c r="Q454" s="2"/>
@@ -84165,7 +85709,7 @@
       <c r="S454" s="2"/>
       <c r="T454" s="2"/>
     </row>
-    <row r="455" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="455" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M455" s="2"/>
       <c r="P455" s="2"/>
       <c r="Q455" s="2"/>
@@ -84173,7 +85717,7 @@
       <c r="S455" s="2"/>
       <c r="T455" s="2"/>
     </row>
-    <row r="456" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="456" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M456" s="2"/>
       <c r="P456" s="2"/>
       <c r="Q456" s="2"/>
@@ -84181,7 +85725,7 @@
       <c r="S456" s="2"/>
       <c r="T456" s="2"/>
     </row>
-    <row r="457" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="457" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M457" s="2"/>
       <c r="P457" s="2"/>
       <c r="Q457" s="2"/>
@@ -84189,7 +85733,7 @@
       <c r="S457" s="2"/>
       <c r="T457" s="2"/>
     </row>
-    <row r="458" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="458" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M458" s="2"/>
       <c r="P458" s="2"/>
       <c r="Q458" s="2"/>
@@ -84197,7 +85741,7 @@
       <c r="S458" s="2"/>
       <c r="T458" s="2"/>
     </row>
-    <row r="459" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="459" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M459" s="2"/>
       <c r="P459" s="2"/>
       <c r="Q459" s="2"/>
@@ -84205,7 +85749,7 @@
       <c r="S459" s="2"/>
       <c r="T459" s="2"/>
     </row>
-    <row r="460" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="460" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M460" s="2"/>
       <c r="P460" s="2"/>
       <c r="Q460" s="2"/>
@@ -84213,7 +85757,7 @@
       <c r="S460" s="2"/>
       <c r="T460" s="2"/>
     </row>
-    <row r="461" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="461" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M461" s="2"/>
       <c r="P461" s="2"/>
       <c r="Q461" s="2"/>
@@ -84221,7 +85765,7 @@
       <c r="S461" s="2"/>
       <c r="T461" s="2"/>
     </row>
-    <row r="462" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="462" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M462" s="2"/>
       <c r="P462" s="2"/>
       <c r="Q462" s="2"/>
@@ -84229,7 +85773,7 @@
       <c r="S462" s="2"/>
       <c r="T462" s="2"/>
     </row>
-    <row r="463" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="463" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M463" s="2"/>
       <c r="P463" s="2"/>
       <c r="Q463" s="2"/>
@@ -84237,7 +85781,7 @@
       <c r="S463" s="2"/>
       <c r="T463" s="2"/>
     </row>
-    <row r="464" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="464" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M464" s="2"/>
       <c r="P464" s="2"/>
       <c r="Q464" s="2"/>
@@ -84245,7 +85789,7 @@
       <c r="S464" s="2"/>
       <c r="T464" s="2"/>
     </row>
-    <row r="465" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="465" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M465" s="2"/>
       <c r="P465" s="2"/>
       <c r="Q465" s="2"/>
@@ -84253,7 +85797,7 @@
       <c r="S465" s="2"/>
       <c r="T465" s="2"/>
     </row>
-    <row r="466" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="466" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M466" s="2"/>
       <c r="P466" s="2"/>
       <c r="Q466" s="2"/>
@@ -84261,7 +85805,7 @@
       <c r="S466" s="2"/>
       <c r="T466" s="2"/>
     </row>
-    <row r="467" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="467" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M467" s="2"/>
       <c r="P467" s="2"/>
       <c r="Q467" s="2"/>
@@ -84269,7 +85813,7 @@
       <c r="S467" s="2"/>
       <c r="T467" s="2"/>
     </row>
-    <row r="468" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="468" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M468" s="2"/>
       <c r="P468" s="2"/>
       <c r="Q468" s="2"/>
@@ -84277,7 +85821,7 @@
       <c r="S468" s="2"/>
       <c r="T468" s="2"/>
     </row>
-    <row r="469" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="469" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M469" s="2"/>
       <c r="P469" s="2"/>
       <c r="Q469" s="2"/>
@@ -84285,7 +85829,7 @@
       <c r="S469" s="2"/>
       <c r="T469" s="2"/>
     </row>
-    <row r="470" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="470" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M470" s="2"/>
       <c r="P470" s="2"/>
       <c r="Q470" s="2"/>
@@ -84293,7 +85837,7 @@
       <c r="S470" s="2"/>
       <c r="T470" s="2"/>
     </row>
-    <row r="471" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="471" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M471" s="2"/>
       <c r="P471" s="2"/>
       <c r="Q471" s="2"/>
@@ -84301,7 +85845,7 @@
       <c r="S471" s="2"/>
       <c r="T471" s="2"/>
     </row>
-    <row r="472" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="472" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M472" s="2"/>
       <c r="P472" s="2"/>
       <c r="Q472" s="2"/>
@@ -84309,7 +85853,7 @@
       <c r="S472" s="2"/>
       <c r="T472" s="2"/>
     </row>
-    <row r="473" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="473" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M473" s="2"/>
       <c r="P473" s="2"/>
       <c r="Q473" s="2"/>
@@ -84317,7 +85861,7 @@
       <c r="S473" s="2"/>
       <c r="T473" s="2"/>
     </row>
-    <row r="474" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="474" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M474" s="2"/>
       <c r="P474" s="2"/>
       <c r="Q474" s="2"/>
@@ -84325,7 +85869,7 @@
       <c r="S474" s="2"/>
       <c r="T474" s="2"/>
     </row>
-    <row r="475" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="475" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M475" s="2"/>
       <c r="P475" s="2"/>
       <c r="Q475" s="2"/>
@@ -84333,7 +85877,7 @@
       <c r="S475" s="2"/>
       <c r="T475" s="2"/>
     </row>
-    <row r="476" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="476" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M476" s="2"/>
       <c r="P476" s="2"/>
       <c r="Q476" s="2"/>
@@ -84341,7 +85885,7 @@
       <c r="S476" s="2"/>
       <c r="T476" s="2"/>
     </row>
-    <row r="477" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="477" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M477" s="2"/>
       <c r="P477" s="2"/>
       <c r="Q477" s="2"/>
@@ -84349,7 +85893,7 @@
       <c r="S477" s="2"/>
       <c r="T477" s="2"/>
     </row>
-    <row r="478" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="478" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M478" s="2"/>
       <c r="P478" s="2"/>
       <c r="Q478" s="2"/>
@@ -84357,7 +85901,7 @@
       <c r="S478" s="2"/>
       <c r="T478" s="2"/>
     </row>
-    <row r="479" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="479" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M479" s="2"/>
       <c r="P479" s="2"/>
       <c r="Q479" s="2"/>
@@ -84365,7 +85909,7 @@
       <c r="S479" s="2"/>
       <c r="T479" s="2"/>
     </row>
-    <row r="480" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="480" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M480" s="2"/>
       <c r="P480" s="2"/>
       <c r="Q480" s="2"/>
@@ -84373,7 +85917,7 @@
       <c r="S480" s="2"/>
       <c r="T480" s="2"/>
     </row>
-    <row r="481" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="481" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M481" s="2"/>
       <c r="P481" s="2"/>
       <c r="Q481" s="2"/>
@@ -84381,7 +85925,7 @@
       <c r="S481" s="2"/>
       <c r="T481" s="2"/>
     </row>
-    <row r="482" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="482" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M482" s="2"/>
       <c r="P482" s="2"/>
       <c r="Q482" s="2"/>
@@ -84389,7 +85933,7 @@
       <c r="S482" s="2"/>
       <c r="T482" s="2"/>
     </row>
-    <row r="483" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="483" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M483" s="2"/>
       <c r="P483" s="2"/>
       <c r="Q483" s="2"/>
@@ -84397,7 +85941,7 @@
       <c r="S483" s="2"/>
       <c r="T483" s="2"/>
     </row>
-    <row r="484" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="484" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M484" s="2"/>
       <c r="P484" s="2"/>
       <c r="Q484" s="2"/>
@@ -84405,7 +85949,7 @@
       <c r="S484" s="2"/>
       <c r="T484" s="2"/>
     </row>
-    <row r="485" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="485" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M485" s="2"/>
       <c r="P485" s="2"/>
       <c r="Q485" s="2"/>
@@ -84413,7 +85957,7 @@
       <c r="S485" s="2"/>
       <c r="T485" s="2"/>
     </row>
-    <row r="486" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="486" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M486" s="2"/>
       <c r="P486" s="2"/>
       <c r="Q486" s="2"/>
@@ -84421,7 +85965,7 @@
       <c r="S486" s="2"/>
       <c r="T486" s="2"/>
     </row>
-    <row r="487" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="487" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M487" s="2"/>
       <c r="P487" s="2"/>
       <c r="Q487" s="2"/>
@@ -84429,7 +85973,7 @@
       <c r="S487" s="2"/>
       <c r="T487" s="2"/>
     </row>
-    <row r="488" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="488" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M488" s="2"/>
       <c r="P488" s="2"/>
       <c r="Q488" s="2"/>
@@ -84437,7 +85981,7 @@
       <c r="S488" s="2"/>
       <c r="T488" s="2"/>
     </row>
-    <row r="489" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="489" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M489" s="2"/>
       <c r="P489" s="2"/>
       <c r="Q489" s="2"/>
@@ -84445,7 +85989,7 @@
       <c r="S489" s="2"/>
       <c r="T489" s="2"/>
     </row>
-    <row r="490" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="490" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M490" s="2"/>
       <c r="P490" s="2"/>
       <c r="Q490" s="2"/>
@@ -84453,7 +85997,7 @@
       <c r="S490" s="2"/>
       <c r="T490" s="2"/>
     </row>
-    <row r="491" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="491" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M491" s="2"/>
       <c r="P491" s="2"/>
       <c r="Q491" s="2"/>
@@ -84461,7 +86005,7 @@
       <c r="S491" s="2"/>
       <c r="T491" s="2"/>
     </row>
-    <row r="492" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="492" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M492" s="2"/>
       <c r="P492" s="2"/>
       <c r="Q492" s="2"/>
@@ -84469,7 +86013,7 @@
       <c r="S492" s="2"/>
       <c r="T492" s="2"/>
     </row>
-    <row r="493" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="493" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M493" s="2"/>
       <c r="P493" s="2"/>
       <c r="Q493" s="2"/>
@@ -84477,7 +86021,7 @@
       <c r="S493" s="2"/>
       <c r="T493" s="2"/>
     </row>
-    <row r="494" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="494" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M494" s="2"/>
       <c r="P494" s="2"/>
       <c r="Q494" s="2"/>
@@ -84485,7 +86029,7 @@
       <c r="S494" s="2"/>
       <c r="T494" s="2"/>
     </row>
-    <row r="495" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="495" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M495" s="2"/>
       <c r="P495" s="2"/>
       <c r="Q495" s="2"/>
@@ -84493,7 +86037,7 @@
       <c r="S495" s="2"/>
       <c r="T495" s="2"/>
     </row>
-    <row r="496" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="496" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M496" s="2"/>
       <c r="P496" s="2"/>
       <c r="Q496" s="2"/>
@@ -84501,7 +86045,7 @@
       <c r="S496" s="2"/>
       <c r="T496" s="2"/>
     </row>
-    <row r="497" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="497" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M497" s="2"/>
       <c r="P497" s="2"/>
       <c r="Q497" s="2"/>
@@ -84509,7 +86053,7 @@
       <c r="S497" s="2"/>
       <c r="T497" s="2"/>
     </row>
-    <row r="498" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="498" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M498" s="2"/>
       <c r="P498" s="2"/>
       <c r="Q498" s="2"/>
@@ -84517,7 +86061,7 @@
       <c r="S498" s="2"/>
       <c r="T498" s="2"/>
     </row>
-    <row r="499" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="499" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M499" s="2"/>
       <c r="P499" s="2"/>
       <c r="Q499" s="2"/>
@@ -84525,7 +86069,7 @@
       <c r="S499" s="2"/>
       <c r="T499" s="2"/>
     </row>
-    <row r="500" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="500" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M500" s="2"/>
       <c r="P500" s="2"/>
       <c r="Q500" s="2"/>
@@ -84533,7 +86077,7 @@
       <c r="S500" s="2"/>
       <c r="T500" s="2"/>
     </row>
-    <row r="501" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="501" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M501" s="2"/>
       <c r="P501" s="2"/>
       <c r="Q501" s="2"/>
@@ -84541,7 +86085,7 @@
       <c r="S501" s="2"/>
       <c r="T501" s="2"/>
     </row>
-    <row r="502" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="502" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M502" s="2"/>
       <c r="P502" s="2"/>
       <c r="Q502" s="2"/>
@@ -84549,7 +86093,7 @@
       <c r="S502" s="2"/>
       <c r="T502" s="2"/>
     </row>
-    <row r="503" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="503" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M503" s="2"/>
       <c r="P503" s="2"/>
       <c r="Q503" s="2"/>
@@ -84557,7 +86101,7 @@
       <c r="S503" s="2"/>
       <c r="T503" s="2"/>
     </row>
-    <row r="504" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="504" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M504" s="2"/>
       <c r="P504" s="2"/>
       <c r="Q504" s="2"/>
@@ -84565,7 +86109,7 @@
       <c r="S504" s="2"/>
       <c r="T504" s="2"/>
     </row>
-    <row r="505" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="505" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M505" s="2"/>
       <c r="P505" s="2"/>
       <c r="Q505" s="2"/>
@@ -84573,7 +86117,7 @@
       <c r="S505" s="2"/>
       <c r="T505" s="2"/>
     </row>
-    <row r="506" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="506" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M506" s="2"/>
       <c r="P506" s="2"/>
       <c r="Q506" s="2"/>
@@ -84581,7 +86125,7 @@
       <c r="S506" s="2"/>
       <c r="T506" s="2"/>
     </row>
-    <row r="507" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="507" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M507" s="2"/>
       <c r="P507" s="2"/>
       <c r="Q507" s="2"/>
@@ -84589,7 +86133,7 @@
       <c r="S507" s="2"/>
       <c r="T507" s="2"/>
     </row>
-    <row r="508" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="508" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M508" s="2"/>
       <c r="P508" s="2"/>
       <c r="Q508" s="2"/>
@@ -84597,7 +86141,7 @@
       <c r="S508" s="2"/>
       <c r="T508" s="2"/>
     </row>
-    <row r="509" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="509" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M509" s="2"/>
       <c r="P509" s="2"/>
       <c r="Q509" s="2"/>
@@ -84605,7 +86149,7 @@
       <c r="S509" s="2"/>
       <c r="T509" s="2"/>
     </row>
-    <row r="510" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="510" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M510" s="2"/>
       <c r="P510" s="2"/>
       <c r="Q510" s="2"/>
@@ -84613,7 +86157,7 @@
       <c r="S510" s="2"/>
       <c r="T510" s="2"/>
     </row>
-    <row r="511" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="511" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M511" s="2"/>
       <c r="P511" s="2"/>
       <c r="Q511" s="2"/>
@@ -84621,10 +86165,10 @@
       <c r="S511" s="2"/>
       <c r="T511" s="2"/>
     </row>
-    <row r="512" spans="13:20" x14ac:dyDescent="0.45">
+    <row r="512" spans="13:20" x14ac:dyDescent="0.3">
       <c r="M512" s="2"/>
     </row>
-    <row r="513" spans="13:13" x14ac:dyDescent="0.45">
+    <row r="513" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M513" s="2"/>
     </row>
   </sheetData>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{932AD2EE-6D86-40AC-B685-D296D23CAC6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{704BCF41-C02D-4C34-ABFF-71FDD0440482}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,9 +1834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DB513"/>
+  <dimension ref="A1:DC513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DE8" sqref="DE8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1871,15 +1873,15 @@
     <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="106" width="10.59765625" style="7" customWidth="1"/>
+    <col min="105" max="107" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2198,8 +2200,11 @@
       <c r="DB2" s="4">
         <v>44191</v>
       </c>
+      <c r="DC2" s="4">
+        <v>44192</v>
+      </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2518,8 +2523,11 @@
       <c r="DB3" s="2">
         <v>43366</v>
       </c>
+      <c r="DC3" s="2">
+        <v>43444</v>
+      </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2838,8 +2846,11 @@
       <c r="DB4" s="2">
         <v>4798</v>
       </c>
+      <c r="DC4" s="2">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3158,8 +3169,11 @@
       <c r="DB5" s="2">
         <v>46558</v>
       </c>
+      <c r="DC5" s="2">
+        <v>46639</v>
+      </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3492,11 @@
       <c r="DB6" s="2">
         <v>8451</v>
       </c>
+      <c r="DC6" s="2">
+        <v>8515</v>
+      </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3798,8 +3815,11 @@
       <c r="DB7" s="2">
         <v>2431</v>
       </c>
+      <c r="DC7" s="2">
+        <v>2440</v>
+      </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4118,8 +4138,11 @@
       <c r="DB8" s="2">
         <v>620</v>
       </c>
+      <c r="DC8" s="2">
+        <v>621</v>
+      </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4438,8 +4461,11 @@
       <c r="DB9" s="2">
         <v>24101</v>
       </c>
+      <c r="DC9" s="2">
+        <v>24251</v>
+      </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4758,8 +4784,11 @@
       <c r="DB10" s="2">
         <v>11791</v>
       </c>
+      <c r="DC10" s="2">
+        <v>11824</v>
+      </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5078,8 +5107,11 @@
       <c r="DB11" s="2">
         <v>1820</v>
       </c>
+      <c r="DC11" s="2">
+        <v>1823</v>
+      </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5398,8 +5430,11 @@
       <c r="DB12" s="2">
         <v>6465</v>
       </c>
+      <c r="DC12" s="2">
+        <v>6536</v>
+      </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5718,8 +5753,11 @@
       <c r="DB13" s="2">
         <v>36776</v>
       </c>
+      <c r="DC13" s="2">
+        <v>37022</v>
+      </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6038,8 +6076,11 @@
       <c r="DB14" s="2">
         <v>1465</v>
       </c>
+      <c r="DC14" s="2">
+        <v>1466</v>
+      </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6358,8 +6399,11 @@
       <c r="DB15" s="2">
         <v>28813</v>
       </c>
+      <c r="DC15" s="2">
+        <v>28867</v>
+      </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6678,8 +6722,11 @@
       <c r="DB16" s="2">
         <v>169370</v>
       </c>
+      <c r="DC16" s="2">
+        <v>170380</v>
+      </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -6998,8 +7045,11 @@
       <c r="DB17" s="2">
         <v>1002191</v>
       </c>
+      <c r="DC17" s="2">
+        <v>1006932</v>
+      </c>
     </row>
-    <row r="18" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7318,8 +7368,11 @@
       <c r="DB18" s="2">
         <v>3879</v>
       </c>
+      <c r="DC18" s="2">
+        <v>3911</v>
+      </c>
     </row>
-    <row r="19" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7638,8 +7691,11 @@
       <c r="DB19" s="2">
         <v>108</v>
       </c>
+      <c r="DC19" s="2">
+        <v>108</v>
+      </c>
     </row>
-    <row r="20" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -7958,8 +8014,11 @@
       <c r="DB20" s="2">
         <v>9836</v>
       </c>
+      <c r="DC20" s="2">
+        <v>9860</v>
+      </c>
     </row>
-    <row r="21" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8278,8 +8337,11 @@
       <c r="DB21" s="2">
         <v>55499</v>
       </c>
+      <c r="DC21" s="2">
+        <v>55554</v>
+      </c>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8598,8 +8660,11 @@
       <c r="DB22" s="2">
         <v>217810</v>
       </c>
+      <c r="DC22" s="2">
+        <v>218702</v>
+      </c>
     </row>
-    <row r="23" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8918,8 +8983,11 @@
       <c r="DB23" s="2">
         <v>155771</v>
       </c>
+      <c r="DC23" s="2">
+        <v>156550</v>
+      </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9238,8 +9306,11 @@
       <c r="DB24" s="2">
         <v>7529</v>
       </c>
+      <c r="DC24" s="2">
+        <v>7531</v>
+      </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9558,8 +9629,11 @@
       <c r="DB25" s="2">
         <v>520</v>
       </c>
+      <c r="DC25" s="2">
+        <v>520</v>
+      </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9878,8 +9952,11 @@
       <c r="DB26" s="2">
         <v>10269</v>
       </c>
+      <c r="DC26" s="2">
+        <v>10279</v>
+      </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10198,8 +10275,11 @@
       <c r="DB27" s="2">
         <v>20695</v>
       </c>
+      <c r="DC27" s="2">
+        <v>20770</v>
+      </c>
     </row>
-    <row r="28" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10518,8 +10598,11 @@
       <c r="DB28" s="2">
         <v>9125</v>
       </c>
+      <c r="DC28" s="2">
+        <v>9165</v>
+      </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10838,8 +10921,11 @@
       <c r="DB29" s="2">
         <v>22132</v>
       </c>
+      <c r="DC29" s="2">
+        <v>22245</v>
+      </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11158,8 +11244,11 @@
       <c r="DB30" s="2">
         <v>21740</v>
       </c>
+      <c r="DC30" s="2">
+        <v>22015</v>
+      </c>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11478,8 +11567,11 @@
       <c r="DB31" s="2">
         <v>10969</v>
       </c>
+      <c r="DC31" s="2">
+        <v>11062</v>
+      </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11798,8 +11890,11 @@
       <c r="DB32" s="2">
         <v>6170</v>
       </c>
+      <c r="DC32" s="2">
+        <v>6188</v>
+      </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12118,8 +12213,11 @@
       <c r="DB33" s="2">
         <v>183817</v>
       </c>
+      <c r="DC33" s="2">
+        <v>184428</v>
+      </c>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12438,8 +12536,11 @@
       <c r="DB34" s="2">
         <v>4159</v>
       </c>
+      <c r="DC34" s="2">
+        <v>4174</v>
+      </c>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12758,8 +12859,11 @@
       <c r="DB35" s="2">
         <v>1738</v>
       </c>
+      <c r="DC35" s="2">
+        <v>1743</v>
+      </c>
     </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13078,8 +13182,11 @@
       <c r="DB36" s="2">
         <v>12330</v>
       </c>
+      <c r="DC36" s="2">
+        <v>12350</v>
+      </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13398,8 +13505,11 @@
       <c r="DB37" s="2">
         <v>4177</v>
       </c>
+      <c r="DC37" s="2">
+        <v>4177</v>
+      </c>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13718,8 +13828,11 @@
       <c r="DB38" s="2">
         <v>6515</v>
       </c>
+      <c r="DC38" s="2">
+        <v>6523</v>
+      </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14038,8 +14151,11 @@
       <c r="DB39" s="2">
         <v>19046</v>
       </c>
+      <c r="DC39" s="2">
+        <v>19081</v>
+      </c>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14358,8 +14474,11 @@
       <c r="DB40" s="2">
         <v>4936</v>
       </c>
+      <c r="DC40" s="2">
+        <v>4941</v>
+      </c>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14678,8 +14797,11 @@
       <c r="DB41" s="2">
         <v>3431</v>
       </c>
+      <c r="DC41" s="2">
+        <v>3444</v>
+      </c>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -14998,8 +15120,11 @@
       <c r="DB42" s="2">
         <v>769</v>
       </c>
+      <c r="DC42" s="2">
+        <v>771</v>
+      </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15318,8 +15443,11 @@
       <c r="DB43" s="2">
         <v>2459</v>
       </c>
+      <c r="DC43" s="2">
+        <v>2463</v>
+      </c>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15638,8 +15766,11 @@
       <c r="DB44" s="2">
         <v>3565</v>
       </c>
+      <c r="DC44" s="2">
+        <v>3579</v>
+      </c>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -15958,8 +16089,11 @@
       <c r="DB45" s="2">
         <v>616455</v>
       </c>
+      <c r="DC45" s="2">
+        <v>619890</v>
+      </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16278,8 +16412,11 @@
       <c r="DB46" s="2">
         <v>1459</v>
       </c>
+      <c r="DC46" s="2">
+        <v>1460</v>
+      </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16598,8 +16735,11 @@
       <c r="DB47" s="2">
         <v>10407</v>
       </c>
+      <c r="DC47" s="2">
+        <v>10429</v>
+      </c>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -16918,8 +17058,11 @@
       <c r="DB48" s="2">
         <v>67581</v>
       </c>
+      <c r="DC48" s="2">
+        <v>68005</v>
+      </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17238,8 +17381,11 @@
       <c r="DB49" s="2">
         <v>6656</v>
       </c>
+      <c r="DC49" s="2">
+        <v>6658</v>
+      </c>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -17558,8 +17704,11 @@
       <c r="DB50" s="2">
         <v>1892</v>
       </c>
+      <c r="DC50" s="2">
+        <v>1895</v>
+      </c>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -17878,8 +18027,11 @@
       <c r="DB51" s="2">
         <v>18982</v>
       </c>
+      <c r="DC51" s="2">
+        <v>19094</v>
+      </c>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18198,8 +18350,11 @@
       <c r="DB52" s="2">
         <v>63830</v>
       </c>
+      <c r="DC52" s="2">
+        <v>63948</v>
+      </c>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18518,8 +18673,11 @@
       <c r="DB53" s="2">
         <v>958</v>
       </c>
+      <c r="DC53" s="2">
+        <v>959</v>
+      </c>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18838,8 +18996,11 @@
       <c r="DB54" s="2">
         <v>3472</v>
       </c>
+      <c r="DC54" s="2">
+        <v>3474</v>
+      </c>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19158,8 +19319,11 @@
       <c r="DB55" s="2">
         <v>1944</v>
       </c>
+      <c r="DC55" s="2">
+        <v>1948</v>
+      </c>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -19478,8 +19642,11 @@
       <c r="DB56" s="2">
         <v>2950</v>
       </c>
+      <c r="DC56" s="2">
+        <v>2958</v>
+      </c>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19798,8 +19965,11 @@
       <c r="DB57" s="2">
         <v>1680</v>
       </c>
+      <c r="DC57" s="2">
+        <v>1682</v>
+      </c>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20118,8 +20288,11 @@
       <c r="DB58" s="2">
         <v>1561</v>
       </c>
+      <c r="DC58" s="2">
+        <v>1562</v>
+      </c>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -20438,8 +20611,11 @@
       <c r="DB59" s="2">
         <v>1576608</v>
       </c>
+      <c r="DC59" s="2">
+        <v>1582374</v>
+      </c>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -20758,8 +20934,11 @@
       <c r="DB60" s="2">
         <v>6931</v>
       </c>
+      <c r="DC60" s="2">
+        <v>6936</v>
+      </c>
     </row>
-    <row r="61" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21078,8 +21257,11 @@
       <c r="DB61" s="2">
         <v>7300</v>
       </c>
+      <c r="DC61" s="2">
+        <v>7303</v>
+      </c>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -21398,8 +21580,11 @@
       <c r="DB62" s="2">
         <v>5125</v>
       </c>
+      <c r="DC62" s="2">
+        <v>5139</v>
+      </c>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -21718,8 +21903,11 @@
       <c r="DB63" s="2">
         <v>1872</v>
       </c>
+      <c r="DC63" s="2">
+        <v>1874</v>
+      </c>
     </row>
-    <row r="64" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22038,8 +22226,11 @@
       <c r="DB64" s="2">
         <v>384034</v>
       </c>
+      <c r="DC64" s="2">
+        <v>385773</v>
+      </c>
     </row>
-    <row r="65" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -22358,8 +22549,11 @@
       <c r="DB65" s="2">
         <v>572</v>
       </c>
+      <c r="DC65" s="2">
+        <v>576</v>
+      </c>
     </row>
-    <row r="66" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -22678,8 +22872,11 @@
       <c r="DB66" s="2">
         <v>5154</v>
       </c>
+      <c r="DC66" s="2">
+        <v>5197</v>
+      </c>
     </row>
-    <row r="67" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -22998,8 +23195,11 @@
       <c r="DB67" s="2">
         <v>1503</v>
       </c>
+      <c r="DC67" s="2">
+        <v>1503</v>
+      </c>
     </row>
-    <row r="68" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -23318,8 +23518,11 @@
       <c r="DB68" s="2">
         <v>13211</v>
       </c>
+      <c r="DC68" s="2">
+        <v>13257</v>
+      </c>
     </row>
-    <row r="69" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -23638,8 +23841,11 @@
       <c r="DB69" s="2">
         <v>5305</v>
       </c>
+      <c r="DC69" s="2">
+        <v>5319</v>
+      </c>
     </row>
-    <row r="70" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -23958,8 +24164,11 @@
       <c r="DB70" s="2">
         <v>54766</v>
       </c>
+      <c r="DC70" s="2">
+        <v>54876</v>
+      </c>
     </row>
-    <row r="71" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -24278,8 +24487,11 @@
       <c r="DB71" s="2">
         <v>1059</v>
       </c>
+      <c r="DC71" s="2">
+        <v>1060</v>
+      </c>
     </row>
-    <row r="72" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -24598,8 +24810,11 @@
       <c r="DB72" s="2">
         <v>639899</v>
       </c>
+      <c r="DC72" s="2">
+        <v>641001</v>
+      </c>
     </row>
-    <row r="73" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -24918,8 +25133,11 @@
       <c r="DB73" s="2">
         <v>104889</v>
       </c>
+      <c r="DC73" s="2">
+        <v>105314</v>
+      </c>
     </row>
-    <row r="74" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -25238,8 +25456,11 @@
       <c r="DB74" s="2">
         <v>15462</v>
       </c>
+      <c r="DC74" s="2">
+        <v>15508</v>
+      </c>
     </row>
-    <row r="75" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -25558,8 +25779,11 @@
       <c r="DB75" s="2">
         <v>10244</v>
       </c>
+      <c r="DC75" s="2">
+        <v>10295</v>
+      </c>
     </row>
-    <row r="76" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -25878,8 +26102,11 @@
       <c r="DB76" s="2">
         <v>17896</v>
       </c>
+      <c r="DC76" s="2">
+        <v>17943</v>
+      </c>
     </row>
-    <row r="77" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -26198,8 +26425,11 @@
       <c r="DB77" s="2">
         <v>10626</v>
       </c>
+      <c r="DC77" s="2">
+        <v>10643</v>
+      </c>
     </row>
-    <row r="78" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -26518,8 +26748,11 @@
       <c r="DB78" s="2">
         <v>1156</v>
       </c>
+      <c r="DC78" s="2">
+        <v>1163</v>
+      </c>
     </row>
-    <row r="79" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -26838,8 +27071,11 @@
       <c r="DB79" s="2">
         <v>1969</v>
       </c>
+      <c r="DC79" s="2">
+        <v>1974</v>
+      </c>
     </row>
-    <row r="80" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -27158,8 +27394,11 @@
       <c r="DB80" s="2">
         <v>702</v>
       </c>
+      <c r="DC80" s="2">
+        <v>704</v>
+      </c>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -27478,8 +27717,11 @@
       <c r="DB81" s="2">
         <v>408014</v>
       </c>
+      <c r="DC81" s="2">
+        <v>409712</v>
+      </c>
     </row>
-    <row r="82" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -27798,8 +28040,11 @@
       <c r="DB82" s="2">
         <v>3332</v>
       </c>
+      <c r="DC82" s="2">
+        <v>3344</v>
+      </c>
     </row>
-    <row r="83" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -28118,8 +28363,11 @@
       <c r="DB83" s="2">
         <v>11826</v>
       </c>
+      <c r="DC83" s="2">
+        <v>11942</v>
+      </c>
     </row>
-    <row r="84" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -28438,8 +28686,11 @@
       <c r="DB84" s="2">
         <v>10889</v>
       </c>
+      <c r="DC84" s="2">
+        <v>10905</v>
+      </c>
     </row>
-    <row r="85" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -28758,8 +29009,11 @@
       <c r="DB85" s="2">
         <v>3318</v>
       </c>
+      <c r="DC85" s="2">
+        <v>3327</v>
+      </c>
     </row>
-    <row r="86" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -29078,8 +29332,11 @@
       <c r="DB86" s="2">
         <v>235233</v>
       </c>
+      <c r="DC86" s="2">
+        <v>236360</v>
+      </c>
     </row>
-    <row r="87" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -29398,8 +29655,11 @@
       <c r="DB87" s="2">
         <v>2092</v>
       </c>
+      <c r="DC87" s="2">
+        <v>2096</v>
+      </c>
     </row>
-    <row r="88" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -29718,8 +29978,11 @@
       <c r="DB88" s="2">
         <v>13289</v>
       </c>
+      <c r="DC88" s="2">
+        <v>13378</v>
+      </c>
     </row>
-    <row r="89" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -30038,8 +30301,11 @@
       <c r="DB89" s="2">
         <v>142</v>
       </c>
+      <c r="DC89" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="90" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -30358,8 +30624,11 @@
       <c r="DB90" s="2">
         <v>2681</v>
       </c>
+      <c r="DC90" s="2">
+        <v>2682</v>
+      </c>
     </row>
-    <row r="91" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -30678,8 +30947,11 @@
       <c r="DB91" s="2">
         <v>10263</v>
       </c>
+      <c r="DC91" s="2">
+        <v>10273</v>
+      </c>
     </row>
-    <row r="92" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -30998,8 +31270,11 @@
       <c r="DB92" s="2">
         <v>6736</v>
       </c>
+      <c r="DC92" s="2">
+        <v>6739</v>
+      </c>
     </row>
-    <row r="93" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -31318,8 +31593,11 @@
       <c r="DB93" s="2">
         <v>68523</v>
       </c>
+      <c r="DC93" s="2">
+        <v>68731</v>
+      </c>
     </row>
-    <row r="94" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -31638,8 +31916,11 @@
       <c r="DB94" s="2">
         <v>44743</v>
       </c>
+      <c r="DC94" s="2">
+        <v>45024</v>
+      </c>
     </row>
-    <row r="95" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -31958,8 +32239,11 @@
       <c r="DB95" s="2">
         <v>17283</v>
       </c>
+      <c r="DC95" s="2">
+        <v>17449</v>
+      </c>
     </row>
-    <row r="96" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -32278,8 +32562,11 @@
       <c r="DB96" s="2">
         <v>50255</v>
       </c>
+      <c r="DC96" s="2">
+        <v>50470</v>
+      </c>
     </row>
-    <row r="97" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -32598,8 +32885,11 @@
       <c r="DB97" s="2">
         <v>11107</v>
       </c>
+      <c r="DC97" s="2">
+        <v>11117</v>
+      </c>
     </row>
-    <row r="98" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -32918,8 +33208,11 @@
       <c r="DB98" s="2">
         <v>2060</v>
       </c>
+      <c r="DC98" s="2">
+        <v>2065</v>
+      </c>
     </row>
-    <row r="99" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -33238,8 +33531,11 @@
       <c r="DB99" s="2">
         <v>3911</v>
       </c>
+      <c r="DC99" s="2">
+        <v>3920</v>
+      </c>
     </row>
-    <row r="100" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -33558,8 +33854,11 @@
       <c r="DB100" s="2">
         <v>2173</v>
       </c>
+      <c r="DC100" s="2">
+        <v>2175</v>
+      </c>
     </row>
-    <row r="101" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -33878,8 +34177,11 @@
       <c r="DB101" s="2">
         <v>1616</v>
       </c>
+      <c r="DC101" s="2">
+        <v>1622</v>
+      </c>
     </row>
-    <row r="102" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -34198,8 +34500,11 @@
       <c r="DB102" s="2">
         <v>17256</v>
       </c>
+      <c r="DC102" s="2">
+        <v>17334</v>
+      </c>
     </row>
-    <row r="103" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -34518,8 +34823,11 @@
       <c r="DB103" s="2">
         <v>2566782</v>
       </c>
+      <c r="DC103" s="2">
+        <v>2577493</v>
+      </c>
     </row>
-    <row r="104" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -34838,8 +35146,11 @@
       <c r="DB104" s="2">
         <v>46887</v>
       </c>
+      <c r="DC104" s="2">
+        <v>47085</v>
+      </c>
     </row>
-    <row r="105" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -35158,8 +35469,11 @@
       <c r="DB105" s="2">
         <v>142</v>
       </c>
+      <c r="DC105" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="106" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -35478,8 +35792,11 @@
       <c r="DB106" s="2">
         <v>1798</v>
       </c>
+      <c r="DC106" s="2">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="107" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -35798,8 +36115,11 @@
       <c r="DB107" s="2">
         <v>140595</v>
       </c>
+      <c r="DC107" s="2">
+        <v>142031</v>
+      </c>
     </row>
-    <row r="108" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -36118,8 +36438,11 @@
       <c r="DB108" s="2">
         <v>994</v>
       </c>
+      <c r="DC108" s="2">
+        <v>995</v>
+      </c>
     </row>
-    <row r="109" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -36438,8 +36761,11 @@
       <c r="DB109" s="2">
         <v>21714</v>
       </c>
+      <c r="DC109" s="2">
+        <v>21848</v>
+      </c>
     </row>
-    <row r="110" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -36758,8 +37084,11 @@
       <c r="DB110" s="2">
         <v>333937</v>
       </c>
+      <c r="DC110" s="2">
+        <v>335121</v>
+      </c>
     </row>
-    <row r="111" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -37078,8 +37407,11 @@
       <c r="DB111" s="2">
         <v>27334</v>
       </c>
+      <c r="DC111" s="2">
+        <v>27609</v>
+      </c>
     </row>
-    <row r="112" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -37398,8 +37730,11 @@
       <c r="DB112" s="2">
         <v>7713</v>
       </c>
+      <c r="DC112" s="2">
+        <v>7734</v>
+      </c>
     </row>
-    <row r="113" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -37718,8 +38053,11 @@
       <c r="DB113" s="2">
         <v>33418</v>
       </c>
+      <c r="DC113" s="2">
+        <v>33564</v>
+      </c>
     </row>
-    <row r="114" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -38038,8 +38376,11 @@
       <c r="DB114" s="2">
         <v>13364</v>
       </c>
+      <c r="DC114" s="2">
+        <v>13376</v>
+      </c>
     </row>
-    <row r="115" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -38358,8 +38699,11 @@
       <c r="DB115" s="2">
         <v>12600</v>
       </c>
+      <c r="DC115" s="2">
+        <v>12621</v>
+      </c>
     </row>
-    <row r="116" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -38678,8 +39022,11 @@
       <c r="DB116" s="2">
         <v>12166</v>
       </c>
+      <c r="DC116" s="2">
+        <v>12207</v>
+      </c>
     </row>
-    <row r="117" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -38998,8 +39345,11 @@
       <c r="DB117" s="2">
         <v>2167</v>
       </c>
+      <c r="DC117" s="2">
+        <v>2169</v>
+      </c>
     </row>
-    <row r="118" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -39318,8 +39668,11 @@
       <c r="DB118" s="2">
         <v>50302</v>
       </c>
+      <c r="DC118" s="2">
+        <v>50482</v>
+      </c>
     </row>
-    <row r="119" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -39638,8 +39991,11 @@
       <c r="DB119" s="2">
         <v>8668</v>
       </c>
+      <c r="DC119" s="2">
+        <v>8681</v>
+      </c>
     </row>
-    <row r="120" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -39958,8 +40314,11 @@
       <c r="DB120" s="2">
         <v>399</v>
       </c>
+      <c r="DC120" s="2">
+        <v>400</v>
+      </c>
     </row>
-    <row r="121" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -40278,8 +40637,11 @@
       <c r="DB121" s="2">
         <v>1273</v>
       </c>
+      <c r="DC121" s="2">
+        <v>1278</v>
+      </c>
     </row>
-    <row r="122" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -40598,8 +40960,11 @@
       <c r="DB122" s="2">
         <v>5573</v>
       </c>
+      <c r="DC122" s="2">
+        <v>5575</v>
+      </c>
     </row>
-    <row r="123" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -40918,8 +41283,11 @@
       <c r="DB123" s="2">
         <v>11706</v>
       </c>
+      <c r="DC123" s="2">
+        <v>11728</v>
+      </c>
     </row>
-    <row r="124" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -41238,8 +41606,11 @@
       <c r="DB124" s="2">
         <v>1324</v>
       </c>
+      <c r="DC124" s="2">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="125" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -41558,8 +41929,11 @@
       <c r="DB125" s="2">
         <v>135575</v>
       </c>
+      <c r="DC125" s="2">
+        <v>135944</v>
+      </c>
     </row>
-    <row r="126" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -41878,8 +42252,11 @@
       <c r="DB126" s="2">
         <v>7756</v>
       </c>
+      <c r="DC126" s="2">
+        <v>7785</v>
+      </c>
     </row>
-    <row r="127" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -42198,8 +42575,11 @@
       <c r="DB127" s="2">
         <v>42332</v>
       </c>
+      <c r="DC127" s="2">
+        <v>42429</v>
+      </c>
     </row>
-    <row r="128" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -42518,8 +42898,11 @@
       <c r="DB128" s="2">
         <v>81636</v>
       </c>
+      <c r="DC128" s="2">
+        <v>82049</v>
+      </c>
     </row>
-    <row r="129" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -42838,8 +43221,11 @@
       <c r="DB129" s="2">
         <v>5563</v>
       </c>
+      <c r="DC129" s="2">
+        <v>5577</v>
+      </c>
     </row>
-    <row r="130" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -43158,8 +43544,11 @@
       <c r="DB130" s="2">
         <v>11557</v>
       </c>
+      <c r="DC130" s="2">
+        <v>11573</v>
+      </c>
     </row>
-    <row r="131" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -43478,8 +43867,11 @@
       <c r="DB131" s="2">
         <v>70606</v>
       </c>
+      <c r="DC131" s="2">
+        <v>70857</v>
+      </c>
     </row>
-    <row r="132" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -43798,8 +44190,11 @@
       <c r="DB132" s="2">
         <v>17000</v>
       </c>
+      <c r="DC132" s="2">
+        <v>17072</v>
+      </c>
     </row>
-    <row r="133" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -44118,8 +44513,11 @@
       <c r="DB133" s="2">
         <v>149</v>
       </c>
+      <c r="DC133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -44438,8 +44836,11 @@
       <c r="DB134" s="2">
         <v>406</v>
       </c>
+      <c r="DC134" s="2">
+        <v>410</v>
+      </c>
     </row>
-    <row r="135" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -44758,8 +45159,11 @@
       <c r="DB135" s="2">
         <v>31806</v>
       </c>
+      <c r="DC135" s="2">
+        <v>32030</v>
+      </c>
     </row>
-    <row r="136" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -45078,8 +45482,11 @@
       <c r="DB136" s="2">
         <v>1513</v>
       </c>
+      <c r="DC136" s="2">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="137" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -45398,8 +45805,11 @@
       <c r="DB137" s="2">
         <v>39</v>
       </c>
+      <c r="DC137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -45718,8 +46128,11 @@
       <c r="DB138" s="2">
         <v>1218</v>
       </c>
+      <c r="DC138" s="2">
+        <v>1226</v>
+      </c>
     </row>
-    <row r="139" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -46038,8 +46451,11 @@
       <c r="DB139" s="2">
         <v>22999</v>
       </c>
+      <c r="DC139" s="2">
+        <v>23040</v>
+      </c>
     </row>
-    <row r="140" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -46358,8 +46774,11 @@
       <c r="DB140" s="2">
         <v>1802</v>
       </c>
+      <c r="DC140" s="2">
+        <v>1802</v>
+      </c>
     </row>
-    <row r="141" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -46678,8 +47097,11 @@
       <c r="DB141" s="2">
         <v>5160</v>
       </c>
+      <c r="DC141" s="2">
+        <v>5167</v>
+      </c>
     </row>
-    <row r="142" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -46998,8 +47420,11 @@
       <c r="DB142" s="2">
         <v>16680</v>
       </c>
+      <c r="DC142" s="2">
+        <v>16734</v>
+      </c>
     </row>
-    <row r="143" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -47318,8 +47743,11 @@
       <c r="DB143" s="2">
         <v>7006</v>
       </c>
+      <c r="DC143" s="2">
+        <v>7014</v>
+      </c>
     </row>
-    <row r="144" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -47638,8 +48066,11 @@
       <c r="DB144" s="2">
         <v>12420</v>
       </c>
+      <c r="DC144" s="2">
+        <v>12472</v>
+      </c>
     </row>
-    <row r="145" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -47958,8 +48389,11 @@
       <c r="DB145" s="2">
         <v>9561</v>
       </c>
+      <c r="DC145" s="2">
+        <v>9574</v>
+      </c>
     </row>
-    <row r="146" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -48278,8 +48712,11 @@
       <c r="DB146" s="2">
         <v>6114</v>
       </c>
+      <c r="DC146" s="2">
+        <v>6139</v>
+      </c>
     </row>
-    <row r="147" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -48598,8 +49035,11 @@
       <c r="DB147" s="2">
         <v>7002</v>
       </c>
+      <c r="DC147" s="2">
+        <v>7053</v>
+      </c>
     </row>
-    <row r="148" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -48918,8 +49358,11 @@
       <c r="DB148" s="2">
         <v>36774</v>
       </c>
+      <c r="DC148" s="2">
+        <v>36865</v>
+      </c>
     </row>
-    <row r="149" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -49238,8 +49681,11 @@
       <c r="DB149" s="2">
         <v>20072</v>
       </c>
+      <c r="DC149" s="2">
+        <v>20311</v>
+      </c>
     </row>
-    <row r="150" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -49558,8 +50004,11 @@
       <c r="DB150" s="2">
         <v>279</v>
       </c>
+      <c r="DC150" s="2">
+        <v>279</v>
+      </c>
     </row>
-    <row r="151" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -49878,8 +50327,11 @@
       <c r="DB151" s="2">
         <v>3976</v>
       </c>
+      <c r="DC151" s="2">
+        <v>4021</v>
+      </c>
     </row>
-    <row r="152" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -50198,8 +50650,11 @@
       <c r="DB152" s="2">
         <v>7479</v>
       </c>
+      <c r="DC152" s="2">
+        <v>7514</v>
+      </c>
     </row>
-    <row r="153" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -50518,8 +50973,11 @@
       <c r="DB153" s="2">
         <v>23</v>
       </c>
+      <c r="DC153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -50838,8 +51296,11 @@
       <c r="DB154" s="2">
         <v>212404</v>
       </c>
+      <c r="DC154" s="2">
+        <v>212929</v>
+      </c>
     </row>
-    <row r="155" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -51158,8 +51619,11 @@
       <c r="DB155" s="2">
         <v>3121</v>
       </c>
+      <c r="DC155" s="2">
+        <v>3135</v>
+      </c>
     </row>
-    <row r="156" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -51478,8 +51942,11 @@
       <c r="DB156" s="2">
         <v>10030</v>
       </c>
+      <c r="DC156" s="2">
+        <v>10046</v>
+      </c>
     </row>
-    <row r="157" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -51798,8 +52265,11 @@
       <c r="DB157" s="2">
         <v>2387</v>
       </c>
+      <c r="DC157" s="2">
+        <v>2407</v>
+      </c>
     </row>
-    <row r="158" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -52118,8 +52588,11 @@
       <c r="DB158" s="2">
         <v>1301</v>
       </c>
+      <c r="DC158" s="2">
+        <v>1303</v>
+      </c>
     </row>
-    <row r="159" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -52438,8 +52911,11 @@
       <c r="DB159" s="2">
         <v>1657</v>
       </c>
+      <c r="DC159" s="2">
+        <v>1666</v>
+      </c>
     </row>
-    <row r="160" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -52758,8 +53234,11 @@
       <c r="DB160" s="2">
         <v>17069</v>
       </c>
+      <c r="DC160" s="2">
+        <v>17275</v>
+      </c>
     </row>
-    <row r="161" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -53078,8 +53557,11 @@
       <c r="DB161" s="2">
         <v>37349</v>
       </c>
+      <c r="DC161" s="2">
+        <v>37550</v>
+      </c>
     </row>
-    <row r="162" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -53398,8 +53880,11 @@
       <c r="DB162" s="2">
         <v>2373</v>
       </c>
+      <c r="DC162" s="2">
+        <v>2381</v>
+      </c>
     </row>
-    <row r="163" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -53718,8 +54203,11 @@
       <c r="DB163" s="2">
         <v>197582</v>
       </c>
+      <c r="DC163" s="2">
+        <v>198428</v>
+      </c>
     </row>
-    <row r="164" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -54038,8 +54526,11 @@
       <c r="DB164" s="2">
         <v>293</v>
       </c>
+      <c r="DC164" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="165" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -54358,8 +54849,11 @@
       <c r="DB165" s="2">
         <v>18698</v>
       </c>
+      <c r="DC165" s="2">
+        <v>18757</v>
+      </c>
     </row>
-    <row r="166" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -54678,8 +55172,11 @@
       <c r="DB166" s="2">
         <v>1805</v>
       </c>
+      <c r="DC166" s="2">
+        <v>1808</v>
+      </c>
     </row>
-    <row r="167" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -54998,8 +55495,11 @@
       <c r="DB167" s="2">
         <v>53996</v>
       </c>
+      <c r="DC167" s="2">
+        <v>54126</v>
+      </c>
     </row>
-    <row r="168" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -55318,8 +55818,11 @@
       <c r="DB168" s="2">
         <v>12678</v>
       </c>
+      <c r="DC168" s="2">
+        <v>12714</v>
+      </c>
     </row>
-    <row r="169" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -55638,8 +56141,11 @@
       <c r="DB169" s="2">
         <v>3681</v>
       </c>
+      <c r="DC169" s="2">
+        <v>3680</v>
+      </c>
     </row>
-    <row r="170" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -55958,8 +56464,11 @@
       <c r="DB170" s="2">
         <v>4950</v>
       </c>
+      <c r="DC170" s="2">
+        <v>4963</v>
+      </c>
     </row>
-    <row r="171" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -56278,8 +56787,11 @@
       <c r="DB171" s="2">
         <v>8452</v>
       </c>
+      <c r="DC171" s="2">
+        <v>8485</v>
+      </c>
     </row>
-    <row r="172" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -56598,8 +57110,11 @@
       <c r="DB172" s="2">
         <v>239256</v>
       </c>
+      <c r="DC172" s="2">
+        <v>240891</v>
+      </c>
     </row>
-    <row r="173" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -56918,8 +57433,11 @@
       <c r="DB173" s="2">
         <v>7109</v>
       </c>
+      <c r="DC173" s="2">
+        <v>7109</v>
+      </c>
     </row>
-    <row r="174" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -57238,8 +57756,11 @@
       <c r="DB174" s="2">
         <v>5319</v>
       </c>
+      <c r="DC174" s="2">
+        <v>5329</v>
+      </c>
     </row>
-    <row r="175" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -57558,8 +58079,11 @@
       <c r="DB175" s="2">
         <v>471</v>
       </c>
+      <c r="DC175" s="2">
+        <v>471</v>
+      </c>
     </row>
-    <row r="176" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -57878,8 +58402,11 @@
       <c r="DB176" s="2">
         <v>31027</v>
       </c>
+      <c r="DC176" s="2">
+        <v>31119</v>
+      </c>
     </row>
-    <row r="177" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -58198,8 +58725,11 @@
       <c r="DB177" s="2">
         <v>22698</v>
       </c>
+      <c r="DC177" s="2">
+        <v>22773</v>
+      </c>
     </row>
-    <row r="178" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -58518,8 +59048,11 @@
       <c r="DB178" s="2">
         <v>3455</v>
       </c>
+      <c r="DC178" s="2">
+        <v>3468</v>
+      </c>
     </row>
-    <row r="179" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -58838,8 +59371,11 @@
       <c r="DB179" s="2">
         <v>6896</v>
       </c>
+      <c r="DC179" s="2">
+        <v>6957</v>
+      </c>
     </row>
-    <row r="180" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -59158,8 +59694,11 @@
       <c r="DB180" s="2">
         <v>193656</v>
       </c>
+      <c r="DC180" s="2">
+        <v>194237</v>
+      </c>
     </row>
-    <row r="181" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -59478,8 +60017,11 @@
       <c r="DB181" s="2">
         <v>559</v>
       </c>
+      <c r="DC181" s="2">
+        <v>560</v>
+      </c>
     </row>
-    <row r="182" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -59798,8 +60340,11 @@
       <c r="DB182" s="2">
         <v>676</v>
       </c>
+      <c r="DC182" s="2">
+        <v>676</v>
+      </c>
     </row>
-    <row r="183" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -60118,8 +60663,11 @@
       <c r="DB183" s="2">
         <v>24919</v>
       </c>
+      <c r="DC183" s="2">
+        <v>24987</v>
+      </c>
     </row>
-    <row r="184" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -60438,8 +60986,11 @@
       <c r="DB184" s="2">
         <v>10990</v>
       </c>
+      <c r="DC184" s="2">
+        <v>11018</v>
+      </c>
     </row>
-    <row r="185" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -60758,8 +61309,11 @@
       <c r="DB185" s="2">
         <v>7127</v>
       </c>
+      <c r="DC185" s="2">
+        <v>7161</v>
+      </c>
     </row>
-    <row r="186" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -61078,8 +61632,11 @@
       <c r="DB186" s="2">
         <v>50313</v>
       </c>
+      <c r="DC186" s="2">
+        <v>50552</v>
+      </c>
     </row>
-    <row r="187" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -61398,8 +61955,11 @@
       <c r="DB187" s="2">
         <v>2051</v>
       </c>
+      <c r="DC187" s="2">
+        <v>2054</v>
+      </c>
     </row>
-    <row r="188" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -61718,8 +62278,11 @@
       <c r="DB188" s="2">
         <v>7308</v>
       </c>
+      <c r="DC188" s="2">
+        <v>7323</v>
+      </c>
     </row>
-    <row r="189" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -62038,8 +62601,11 @@
       <c r="DB189" s="2">
         <v>21945</v>
       </c>
+      <c r="DC189" s="2">
+        <v>21973</v>
+      </c>
     </row>
-    <row r="190" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -62358,8 +62924,11 @@
       <c r="DB190" s="2">
         <v>60907</v>
       </c>
+      <c r="DC190" s="2">
+        <v>61060</v>
+      </c>
     </row>
-    <row r="191" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -62678,8 +63247,11 @@
       <c r="DB191" s="2">
         <v>6216</v>
       </c>
+      <c r="DC191" s="2">
+        <v>6218</v>
+      </c>
     </row>
-    <row r="192" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -62998,8 +63570,11 @@
       <c r="DB192" s="2">
         <v>2186</v>
       </c>
+      <c r="DC192" s="2">
+        <v>2199</v>
+      </c>
     </row>
-    <row r="193" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -63318,8 +63893,11 @@
       <c r="DB193" s="2">
         <v>41972</v>
       </c>
+      <c r="DC193" s="2">
+        <v>42113</v>
+      </c>
     </row>
-    <row r="194" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -63638,8 +64216,11 @@
       <c r="DB194" s="2">
         <v>1026</v>
       </c>
+      <c r="DC194" s="2">
+        <v>1029</v>
+      </c>
     </row>
-    <row r="195" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -63958,8 +64539,11 @@
       <c r="DB195" s="2">
         <v>1381</v>
       </c>
+      <c r="DC195" s="2">
+        <v>1388</v>
+      </c>
     </row>
-    <row r="196" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -64278,8 +64862,11 @@
       <c r="DB196" s="2">
         <v>4719</v>
       </c>
+      <c r="DC196" s="2">
+        <v>4765</v>
+      </c>
     </row>
-    <row r="197" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -64598,8 +65185,11 @@
       <c r="DB197" s="2">
         <v>3702</v>
       </c>
+      <c r="DC197" s="2">
+        <v>3702</v>
+      </c>
     </row>
-    <row r="198" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -64918,8 +65508,11 @@
       <c r="DB198" s="2">
         <v>4282</v>
       </c>
+      <c r="DC198" s="2">
+        <v>4329</v>
+      </c>
     </row>
-    <row r="199" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -65238,8 +65831,11 @@
       <c r="DB199" s="2">
         <v>121</v>
       </c>
+      <c r="DC199" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="200" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -65558,8 +66154,11 @@
       <c r="DB200" s="2">
         <v>10241</v>
       </c>
+      <c r="DC200" s="2">
+        <v>10283</v>
+      </c>
     </row>
-    <row r="201" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -65878,8 +66477,11 @@
       <c r="DB201" s="2">
         <v>46014</v>
       </c>
+      <c r="DC201" s="2">
+        <v>46147</v>
+      </c>
     </row>
-    <row r="202" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -66198,8 +66800,11 @@
       <c r="DB202" s="2">
         <v>5646</v>
       </c>
+      <c r="DC202" s="2">
+        <v>5657</v>
+      </c>
     </row>
-    <row r="203" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -66518,8 +67123,11 @@
       <c r="DB203" s="2">
         <v>14936</v>
       </c>
+      <c r="DC203" s="2">
+        <v>14974</v>
+      </c>
     </row>
-    <row r="204" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -66838,8 +67446,11 @@
       <c r="DB204" s="2">
         <v>4849</v>
       </c>
+      <c r="DC204" s="2">
+        <v>4862</v>
+      </c>
     </row>
-    <row r="205" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -67158,8 +67769,11 @@
       <c r="DB205" s="2">
         <v>4689</v>
       </c>
+      <c r="DC205" s="2">
+        <v>4691</v>
+      </c>
     </row>
-    <row r="206" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -67478,8 +68092,11 @@
       <c r="DB206" s="2">
         <v>11544</v>
       </c>
+      <c r="DC206" s="2">
+        <v>11582</v>
+      </c>
     </row>
-    <row r="207" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -67798,8 +68415,11 @@
       <c r="DB207" s="2">
         <v>30478</v>
       </c>
+      <c r="DC207" s="2">
+        <v>30563</v>
+      </c>
     </row>
-    <row r="208" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -68118,8 +68738,11 @@
       <c r="DB208" s="2">
         <v>2571</v>
       </c>
+      <c r="DC208" s="2">
+        <v>2584</v>
+      </c>
     </row>
-    <row r="209" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -68438,8 +69061,11 @@
       <c r="DB209" s="2">
         <v>941</v>
       </c>
+      <c r="DC209" s="2">
+        <v>944</v>
+      </c>
     </row>
-    <row r="210" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -68758,8 +69384,11 @@
       <c r="DB210" s="2">
         <v>13806</v>
       </c>
+      <c r="DC210" s="2">
+        <v>13832</v>
+      </c>
     </row>
-    <row r="211" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -69078,8 +69707,11 @@
       <c r="DB211" s="2">
         <v>772</v>
       </c>
+      <c r="DC211" s="2">
+        <v>774</v>
+      </c>
     </row>
-    <row r="212" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -69398,8 +70030,11 @@
       <c r="DB212" s="2">
         <v>9794</v>
       </c>
+      <c r="DC212" s="2">
+        <v>9810</v>
+      </c>
     </row>
-    <row r="213" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -69718,8 +70353,11 @@
       <c r="DB213" s="2">
         <v>165</v>
       </c>
+      <c r="DC213" s="2">
+        <v>165</v>
+      </c>
     </row>
-    <row r="214" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -70038,8 +70676,11 @@
       <c r="DB214" s="2">
         <v>133997</v>
       </c>
+      <c r="DC214" s="2">
+        <v>134355</v>
+      </c>
     </row>
-    <row r="215" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -70358,8 +70999,11 @@
       <c r="DB215" s="2">
         <v>5379</v>
       </c>
+      <c r="DC215" s="2">
+        <v>5392</v>
+      </c>
     </row>
-    <row r="216" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -70678,8 +71322,11 @@
       <c r="DB216" s="2">
         <v>28732</v>
       </c>
+      <c r="DC216" s="2">
+        <v>29039</v>
+      </c>
     </row>
-    <row r="217" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -70998,8 +71645,11 @@
       <c r="DB217" s="2">
         <v>2505</v>
       </c>
+      <c r="DC217" s="2">
+        <v>2520</v>
+      </c>
     </row>
-    <row r="218" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -71318,8 +71968,11 @@
       <c r="DB218" s="2">
         <v>702</v>
       </c>
+      <c r="DC218" s="2">
+        <v>703</v>
+      </c>
     </row>
-    <row r="219" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -71638,8 +72291,11 @@
       <c r="DB219" s="2">
         <v>256</v>
       </c>
+      <c r="DC219" s="2">
+        <v>266</v>
+      </c>
     </row>
-    <row r="220" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -71958,8 +72614,11 @@
       <c r="DB220" s="2">
         <v>1432</v>
       </c>
+      <c r="DC220" s="2">
+        <v>1436</v>
+      </c>
     </row>
-    <row r="221" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -72278,8 +72937,11 @@
       <c r="DB221" s="2">
         <v>3327</v>
       </c>
+      <c r="DC221" s="2">
+        <v>3345</v>
+      </c>
     </row>
-    <row r="222" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -72598,8 +73260,11 @@
       <c r="DB222" s="2">
         <v>1055173</v>
       </c>
+      <c r="DC222" s="2">
+        <v>1062299</v>
+      </c>
     </row>
-    <row r="223" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -72918,8 +73583,11 @@
       <c r="DB223" s="2">
         <v>79944</v>
       </c>
+      <c r="DC223" s="2">
+        <v>80129</v>
+      </c>
     </row>
-    <row r="224" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -73238,8 +73906,11 @@
       <c r="DB224" s="2">
         <v>297</v>
       </c>
+      <c r="DC224" s="2">
+        <v>299</v>
+      </c>
     </row>
-    <row r="225" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -73558,8 +74229,11 @@
       <c r="DB225" s="2">
         <v>3189</v>
       </c>
+      <c r="DC225" s="2">
+        <v>3196</v>
+      </c>
     </row>
-    <row r="226" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -73878,8 +74552,11 @@
       <c r="DB226" s="2">
         <v>235</v>
       </c>
+      <c r="DC226" s="2">
+        <v>236</v>
+      </c>
     </row>
-    <row r="227" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -74198,8 +74875,11 @@
       <c r="DB227" s="2">
         <v>16037</v>
       </c>
+      <c r="DC227" s="2">
+        <v>16052</v>
+      </c>
     </row>
-    <row r="228" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -74518,8 +75198,11 @@
       <c r="DB228" s="2">
         <v>77395</v>
       </c>
+      <c r="DC228" s="2">
+        <v>77866</v>
+      </c>
     </row>
-    <row r="229" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -74838,8 +75521,11 @@
       <c r="DB229" s="2">
         <v>647853</v>
       </c>
+      <c r="DC229" s="2">
+        <v>652031</v>
+      </c>
     </row>
-    <row r="230" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -75158,8 +75844,11 @@
       <c r="DB230" s="2">
         <v>7035</v>
       </c>
+      <c r="DC230" s="2">
+        <v>7060</v>
+      </c>
     </row>
-    <row r="231" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -75478,8 +76167,11 @@
       <c r="DB231" s="2">
         <v>9080</v>
       </c>
+      <c r="DC231" s="2">
+        <v>9095</v>
+      </c>
     </row>
-    <row r="232" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -75798,8 +76490,11 @@
       <c r="DB232" s="2">
         <v>9446</v>
       </c>
+      <c r="DC232" s="2">
+        <v>9494</v>
+      </c>
     </row>
-    <row r="233" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -76118,8 +76813,11 @@
       <c r="DB233" s="2">
         <v>1634</v>
       </c>
+      <c r="DC233" s="2">
+        <v>1644</v>
+      </c>
     </row>
-    <row r="234" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -76438,8 +77136,11 @@
       <c r="DB234" s="2">
         <v>14356</v>
       </c>
+      <c r="DC234" s="2">
+        <v>14516</v>
+      </c>
     </row>
-    <row r="235" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -76758,8 +77459,11 @@
       <c r="DB235" s="2">
         <v>28179</v>
       </c>
+      <c r="DC235" s="2">
+        <v>28338</v>
+      </c>
     </row>
-    <row r="236" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -77078,8 +77782,11 @@
       <c r="DB236" s="2">
         <v>14367</v>
       </c>
+      <c r="DC236" s="2">
+        <v>14438</v>
+      </c>
     </row>
-    <row r="237" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -77398,8 +78105,11 @@
       <c r="DB237" s="2">
         <v>33678</v>
       </c>
+      <c r="DC237" s="2">
+        <v>33697</v>
+      </c>
     </row>
-    <row r="238" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -77718,8 +78428,11 @@
       <c r="DB238" s="2">
         <v>69376</v>
       </c>
+      <c r="DC238" s="2">
+        <v>69840</v>
+      </c>
     </row>
-    <row r="239" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -78038,8 +78751,11 @@
       <c r="DB239" s="2">
         <v>18777</v>
       </c>
+      <c r="DC239" s="2">
+        <v>18843</v>
+      </c>
     </row>
-    <row r="240" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -78358,8 +79074,11 @@
       <c r="DB240" s="2">
         <v>3284</v>
       </c>
+      <c r="DC240" s="2">
+        <v>3289</v>
+      </c>
     </row>
-    <row r="241" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -78678,8 +79397,11 @@
       <c r="DB241" s="2">
         <v>24013</v>
       </c>
+      <c r="DC241" s="2">
+        <v>24110</v>
+      </c>
     </row>
-    <row r="242" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -78998,8 +79720,11 @@
       <c r="DB242" s="2">
         <v>202540</v>
       </c>
+      <c r="DC242" s="2">
+        <v>204050</v>
+      </c>
     </row>
-    <row r="243" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -79318,8 +80043,11 @@
       <c r="DB243" s="2">
         <v>21392</v>
       </c>
+      <c r="DC243" s="2">
+        <v>21466</v>
+      </c>
     </row>
-    <row r="244" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -79638,8 +80366,11 @@
       <c r="DB244" s="2">
         <v>2760</v>
       </c>
+      <c r="DC244" s="2">
+        <v>2761</v>
+      </c>
     </row>
-    <row r="245" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -79958,8 +80689,11 @@
       <c r="DB245" s="2">
         <v>86661</v>
       </c>
+      <c r="DC245" s="2">
+        <v>87146</v>
+      </c>
     </row>
-    <row r="246" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -80278,8 +81012,11 @@
       <c r="DB246" s="2">
         <v>10067</v>
       </c>
+      <c r="DC246" s="2">
+        <v>10070</v>
+      </c>
     </row>
-    <row r="247" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -80598,8 +81335,11 @@
       <c r="DB247" s="2">
         <v>14908</v>
       </c>
+      <c r="DC247" s="2">
+        <v>14963</v>
+      </c>
     </row>
-    <row r="248" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -80918,8 +81658,11 @@
       <c r="DB248" s="2">
         <v>263115</v>
       </c>
+      <c r="DC248" s="2">
+        <v>265209</v>
+      </c>
     </row>
-    <row r="249" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -81238,8 +81981,11 @@
       <c r="DB249" s="2">
         <v>19434</v>
       </c>
+      <c r="DC249" s="2">
+        <v>19680</v>
+      </c>
     </row>
-    <row r="250" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -81558,8 +82304,11 @@
       <c r="DB250" s="2">
         <v>795</v>
       </c>
+      <c r="DC250" s="2">
+        <v>799</v>
+      </c>
     </row>
-    <row r="251" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -81878,8 +82627,11 @@
       <c r="DB251" s="2">
         <v>31899</v>
       </c>
+      <c r="DC251" s="2">
+        <v>32039</v>
+      </c>
     </row>
-    <row r="252" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -82198,8 +82950,11 @@
       <c r="DB252" s="2">
         <v>13318</v>
       </c>
+      <c r="DC252" s="2">
+        <v>13397</v>
+      </c>
     </row>
-    <row r="253" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -82518,8 +83273,11 @@
       <c r="DB253" s="2">
         <v>2250</v>
       </c>
+      <c r="DC253" s="2">
+        <v>2254</v>
+      </c>
     </row>
-    <row r="254" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -82838,8 +83596,11 @@
       <c r="DB254" s="2">
         <v>5640</v>
       </c>
+      <c r="DC254" s="2">
+        <v>5642</v>
+      </c>
     </row>
-    <row r="255" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -83158,8 +83919,11 @@
       <c r="DB255" s="2">
         <v>10501</v>
       </c>
+      <c r="DC255" s="2">
+        <v>10722</v>
+      </c>
     </row>
-    <row r="256" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -83478,8 +84242,11 @@
       <c r="DB256" s="2">
         <v>5493</v>
       </c>
+      <c r="DC256" s="2">
+        <v>5544</v>
+      </c>
     </row>
-    <row r="257" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -83798,8 +84565,11 @@
       <c r="DB257" s="2">
         <v>122901</v>
       </c>
+      <c r="DC257" s="2">
+        <v>122933</v>
+      </c>
     </row>
-    <row r="258" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:107" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -84121,8 +84891,11 @@
       <c r="DB258" s="8">
         <v>15258132</v>
       </c>
+      <c r="DC258" s="8">
+        <v>15326725</v>
+      </c>
     </row>
-    <row r="259" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:107" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -84149,7 +84922,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -84157,7 +84930,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -84165,7 +84938,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -84173,7 +84946,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -84181,7 +84954,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -84189,7 +84962,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -84197,7 +84970,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -84205,7 +84978,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -84213,7 +84986,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -84221,7 +84994,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -84229,7 +85002,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -84237,7 +85010,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -84245,7 +85018,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:106" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:107" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{704BCF41-C02D-4C34-ABFF-71FDD0440482}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0684655D-DBE3-4206-B6A3-BFA5080A05FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,11 +1834,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DC513"/>
+  <dimension ref="A1:DD513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DE8" sqref="DE8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1873,15 +1871,15 @@
     <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="107" width="10.59765625" style="7" customWidth="1"/>
+    <col min="105" max="108" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2203,8 +2201,11 @@
       <c r="DC2" s="4">
         <v>44192</v>
       </c>
+      <c r="DD2" s="4">
+        <v>44193</v>
+      </c>
     </row>
-    <row r="3" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2526,8 +2527,11 @@
       <c r="DC3" s="2">
         <v>43444</v>
       </c>
+      <c r="DD3" s="2">
+        <v>43500</v>
+      </c>
     </row>
-    <row r="4" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2849,8 +2853,11 @@
       <c r="DC4" s="2">
         <v>4800</v>
       </c>
+      <c r="DD4" s="2">
+        <v>4809</v>
+      </c>
     </row>
-    <row r="5" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3172,8 +3179,11 @@
       <c r="DC5" s="2">
         <v>46639</v>
       </c>
+      <c r="DD5" s="2">
+        <v>46731</v>
+      </c>
     </row>
-    <row r="6" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3505,11 @@
       <c r="DC6" s="2">
         <v>8515</v>
       </c>
+      <c r="DD6" s="2">
+        <v>8714</v>
+      </c>
     </row>
-    <row r="7" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3818,8 +3831,11 @@
       <c r="DC7" s="2">
         <v>2440</v>
       </c>
+      <c r="DD7" s="2">
+        <v>2450</v>
+      </c>
     </row>
-    <row r="8" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4141,8 +4157,11 @@
       <c r="DC8" s="2">
         <v>621</v>
       </c>
+      <c r="DD8" s="2">
+        <v>626</v>
+      </c>
     </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4464,8 +4483,11 @@
       <c r="DC9" s="2">
         <v>24251</v>
       </c>
+      <c r="DD9" s="2">
+        <v>24381</v>
+      </c>
     </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4787,8 +4809,11 @@
       <c r="DC10" s="2">
         <v>11824</v>
       </c>
+      <c r="DD10" s="2">
+        <v>11870</v>
+      </c>
     </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5110,8 +5135,11 @@
       <c r="DC11" s="2">
         <v>1823</v>
       </c>
+      <c r="DD11" s="2">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5433,8 +5461,11 @@
       <c r="DC12" s="2">
         <v>6536</v>
       </c>
+      <c r="DD12" s="2">
+        <v>6572</v>
+      </c>
     </row>
-    <row r="13" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5756,8 +5787,11 @@
       <c r="DC13" s="2">
         <v>37022</v>
       </c>
+      <c r="DD13" s="2">
+        <v>37165</v>
+      </c>
     </row>
-    <row r="14" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6079,8 +6113,11 @@
       <c r="DC14" s="2">
         <v>1466</v>
       </c>
+      <c r="DD14" s="2">
+        <v>1469</v>
+      </c>
     </row>
-    <row r="15" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6402,8 +6439,11 @@
       <c r="DC15" s="2">
         <v>28867</v>
       </c>
+      <c r="DD15" s="2">
+        <v>28975</v>
+      </c>
     </row>
-    <row r="16" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6725,8 +6765,11 @@
       <c r="DC16" s="2">
         <v>170380</v>
       </c>
+      <c r="DD16" s="2">
+        <v>171035</v>
+      </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7048,8 +7091,11 @@
       <c r="DC17" s="2">
         <v>1006932</v>
       </c>
+      <c r="DD17" s="2">
+        <v>1014320</v>
+      </c>
     </row>
-    <row r="18" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7371,8 +7417,11 @@
       <c r="DC18" s="2">
         <v>3911</v>
       </c>
+      <c r="DD18" s="2">
+        <v>3932</v>
+      </c>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7694,8 +7743,11 @@
       <c r="DC19" s="2">
         <v>108</v>
       </c>
+      <c r="DD19" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8017,8 +8069,11 @@
       <c r="DC20" s="2">
         <v>9860</v>
       </c>
+      <c r="DD20" s="2">
+        <v>9876</v>
+      </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8340,8 +8395,11 @@
       <c r="DC21" s="2">
         <v>55554</v>
       </c>
+      <c r="DD21" s="2">
+        <v>55924</v>
+      </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8663,8 +8721,11 @@
       <c r="DC22" s="2">
         <v>218702</v>
       </c>
+      <c r="DD22" s="2">
+        <v>219794</v>
+      </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -8986,8 +9047,11 @@
       <c r="DC23" s="2">
         <v>156550</v>
       </c>
+      <c r="DD23" s="2">
+        <v>156908</v>
+      </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9309,8 +9373,11 @@
       <c r="DC24" s="2">
         <v>7531</v>
       </c>
+      <c r="DD24" s="2">
+        <v>7533</v>
+      </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9632,8 +9699,11 @@
       <c r="DC25" s="2">
         <v>520</v>
       </c>
+      <c r="DD25" s="2">
+        <v>526</v>
+      </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -9955,8 +10025,11 @@
       <c r="DC26" s="2">
         <v>10279</v>
       </c>
+      <c r="DD26" s="2">
+        <v>10281</v>
+      </c>
     </row>
-    <row r="27" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10278,8 +10351,11 @@
       <c r="DC27" s="2">
         <v>20770</v>
       </c>
+      <c r="DD27" s="2">
+        <v>20912</v>
+      </c>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10601,8 +10677,11 @@
       <c r="DC28" s="2">
         <v>9165</v>
       </c>
+      <c r="DD28" s="2">
+        <v>9207</v>
+      </c>
     </row>
-    <row r="29" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -10924,8 +11003,11 @@
       <c r="DC29" s="2">
         <v>22245</v>
       </c>
+      <c r="DD29" s="2">
+        <v>22309</v>
+      </c>
     </row>
-    <row r="30" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11247,8 +11329,11 @@
       <c r="DC30" s="2">
         <v>22015</v>
       </c>
+      <c r="DD30" s="2">
+        <v>22088</v>
+      </c>
     </row>
-    <row r="31" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11570,8 +11655,11 @@
       <c r="DC31" s="2">
         <v>11062</v>
       </c>
+      <c r="DD31" s="2">
+        <v>11084</v>
+      </c>
     </row>
-    <row r="32" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11893,8 +11981,11 @@
       <c r="DC32" s="2">
         <v>6188</v>
       </c>
+      <c r="DD32" s="2">
+        <v>6222</v>
+      </c>
     </row>
-    <row r="33" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12216,8 +12307,11 @@
       <c r="DC33" s="2">
         <v>184428</v>
       </c>
+      <c r="DD33" s="2">
+        <v>185288</v>
+      </c>
     </row>
-    <row r="34" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12539,8 +12633,11 @@
       <c r="DC34" s="2">
         <v>4174</v>
       </c>
+      <c r="DD34" s="2">
+        <v>4599</v>
+      </c>
     </row>
-    <row r="35" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12862,8 +12959,11 @@
       <c r="DC35" s="2">
         <v>1743</v>
       </c>
+      <c r="DD35" s="2">
+        <v>1747</v>
+      </c>
     </row>
-    <row r="36" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13185,8 +13285,11 @@
       <c r="DC36" s="2">
         <v>12350</v>
       </c>
+      <c r="DD36" s="2">
+        <v>12501</v>
+      </c>
     </row>
-    <row r="37" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13508,8 +13611,11 @@
       <c r="DC37" s="2">
         <v>4177</v>
       </c>
+      <c r="DD37" s="2">
+        <v>4202</v>
+      </c>
     </row>
-    <row r="38" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13831,8 +13937,11 @@
       <c r="DC38" s="2">
         <v>6523</v>
       </c>
+      <c r="DD38" s="2">
+        <v>6535</v>
+      </c>
     </row>
-    <row r="39" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14154,8 +14263,11 @@
       <c r="DC39" s="2">
         <v>19081</v>
       </c>
+      <c r="DD39" s="2">
+        <v>19124</v>
+      </c>
     </row>
-    <row r="40" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14477,8 +14589,11 @@
       <c r="DC40" s="2">
         <v>4941</v>
       </c>
+      <c r="DD40" s="2">
+        <v>4953</v>
+      </c>
     </row>
-    <row r="41" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14800,8 +14915,11 @@
       <c r="DC41" s="2">
         <v>3444</v>
       </c>
+      <c r="DD41" s="2">
+        <v>3457</v>
+      </c>
     </row>
-    <row r="42" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15123,8 +15241,11 @@
       <c r="DC42" s="2">
         <v>771</v>
       </c>
+      <c r="DD42" s="2">
+        <v>777</v>
+      </c>
     </row>
-    <row r="43" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15446,8 +15567,11 @@
       <c r="DC43" s="2">
         <v>2463</v>
       </c>
+      <c r="DD43" s="2">
+        <v>2477</v>
+      </c>
     </row>
-    <row r="44" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15769,8 +15893,11 @@
       <c r="DC44" s="2">
         <v>3579</v>
       </c>
+      <c r="DD44" s="2">
+        <v>3596</v>
+      </c>
     </row>
-    <row r="45" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16092,8 +16219,11 @@
       <c r="DC45" s="2">
         <v>619890</v>
       </c>
+      <c r="DD45" s="2">
+        <v>625554</v>
+      </c>
     </row>
-    <row r="46" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16415,8 +16545,11 @@
       <c r="DC46" s="2">
         <v>1460</v>
       </c>
+      <c r="DD46" s="2">
+        <v>1462</v>
+      </c>
     </row>
-    <row r="47" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16738,8 +16871,11 @@
       <c r="DC47" s="2">
         <v>10429</v>
       </c>
+      <c r="DD47" s="2">
+        <v>10446</v>
+      </c>
     </row>
-    <row r="48" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17061,8 +17197,11 @@
       <c r="DC48" s="2">
         <v>68005</v>
       </c>
+      <c r="DD48" s="2">
+        <v>68416</v>
+      </c>
     </row>
-    <row r="49" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17384,8 +17523,11 @@
       <c r="DC49" s="2">
         <v>6658</v>
       </c>
+      <c r="DD49" s="2">
+        <v>6670</v>
+      </c>
     </row>
-    <row r="50" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -17707,8 +17849,11 @@
       <c r="DC50" s="2">
         <v>1895</v>
       </c>
+      <c r="DD50" s="2">
+        <v>1896</v>
+      </c>
     </row>
-    <row r="51" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18030,8 +18175,11 @@
       <c r="DC51" s="2">
         <v>19094</v>
       </c>
+      <c r="DD51" s="2">
+        <v>19154</v>
+      </c>
     </row>
-    <row r="52" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18353,8 +18501,11 @@
       <c r="DC52" s="2">
         <v>63948</v>
       </c>
+      <c r="DD52" s="2">
+        <v>64022</v>
+      </c>
     </row>
-    <row r="53" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18676,8 +18827,11 @@
       <c r="DC53" s="2">
         <v>959</v>
       </c>
+      <c r="DD53" s="2">
+        <v>963</v>
+      </c>
     </row>
-    <row r="54" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -18999,8 +19153,11 @@
       <c r="DC54" s="2">
         <v>3474</v>
       </c>
+      <c r="DD54" s="2">
+        <v>3477</v>
+      </c>
     </row>
-    <row r="55" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19322,8 +19479,11 @@
       <c r="DC55" s="2">
         <v>1948</v>
       </c>
+      <c r="DD55" s="2">
+        <v>1958</v>
+      </c>
     </row>
-    <row r="56" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -19645,8 +19805,11 @@
       <c r="DC56" s="2">
         <v>2958</v>
       </c>
+      <c r="DD56" s="2">
+        <v>2965</v>
+      </c>
     </row>
-    <row r="57" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -19968,8 +20131,11 @@
       <c r="DC57" s="2">
         <v>1682</v>
       </c>
+      <c r="DD57" s="2">
+        <v>1686</v>
+      </c>
     </row>
-    <row r="58" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20291,8 +20457,11 @@
       <c r="DC58" s="2">
         <v>1562</v>
       </c>
+      <c r="DD58" s="2">
+        <v>1567</v>
+      </c>
     </row>
-    <row r="59" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -20614,8 +20783,11 @@
       <c r="DC59" s="2">
         <v>1582374</v>
       </c>
+      <c r="DD59" s="2">
+        <v>1594350</v>
+      </c>
     </row>
-    <row r="60" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -20937,8 +21109,11 @@
       <c r="DC60" s="2">
         <v>6936</v>
       </c>
+      <c r="DD60" s="2">
+        <v>7388</v>
+      </c>
     </row>
-    <row r="61" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21260,8 +21435,11 @@
       <c r="DC61" s="2">
         <v>7303</v>
       </c>
+      <c r="DD61" s="2">
+        <v>7326</v>
+      </c>
     </row>
-    <row r="62" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -21583,8 +21761,11 @@
       <c r="DC62" s="2">
         <v>5139</v>
       </c>
+      <c r="DD62" s="2">
+        <v>5155</v>
+      </c>
     </row>
-    <row r="63" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -21906,8 +22087,11 @@
       <c r="DC63" s="2">
         <v>1874</v>
       </c>
+      <c r="DD63" s="2">
+        <v>1881</v>
+      </c>
     </row>
-    <row r="64" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22229,8 +22413,11 @@
       <c r="DC64" s="2">
         <v>385773</v>
       </c>
+      <c r="DD64" s="2">
+        <v>388907</v>
+      </c>
     </row>
-    <row r="65" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -22552,8 +22739,11 @@
       <c r="DC65" s="2">
         <v>576</v>
       </c>
+      <c r="DD65" s="2">
+        <v>580</v>
+      </c>
     </row>
-    <row r="66" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -22875,8 +23065,11 @@
       <c r="DC66" s="2">
         <v>5197</v>
       </c>
+      <c r="DD66" s="2">
+        <v>5222</v>
+      </c>
     </row>
-    <row r="67" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -23198,8 +23391,11 @@
       <c r="DC67" s="2">
         <v>1503</v>
       </c>
+      <c r="DD67" s="2">
+        <v>1507</v>
+      </c>
     </row>
-    <row r="68" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -23521,8 +23717,11 @@
       <c r="DC68" s="2">
         <v>13257</v>
       </c>
+      <c r="DD68" s="2">
+        <v>13379</v>
+      </c>
     </row>
-    <row r="69" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -23844,8 +24043,11 @@
       <c r="DC69" s="2">
         <v>5319</v>
       </c>
+      <c r="DD69" s="2">
+        <v>5327</v>
+      </c>
     </row>
-    <row r="70" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -24167,8 +24369,11 @@
       <c r="DC70" s="2">
         <v>54876</v>
       </c>
+      <c r="DD70" s="2">
+        <v>55016</v>
+      </c>
     </row>
-    <row r="71" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -24490,8 +24695,11 @@
       <c r="DC71" s="2">
         <v>1060</v>
       </c>
+      <c r="DD71" s="2">
+        <v>1063</v>
+      </c>
     </row>
-    <row r="72" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -24813,8 +25021,11 @@
       <c r="DC72" s="2">
         <v>641001</v>
       </c>
+      <c r="DD72" s="2">
+        <v>642652</v>
+      </c>
     </row>
-    <row r="73" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -25136,8 +25347,11 @@
       <c r="DC73" s="2">
         <v>105314</v>
       </c>
+      <c r="DD73" s="2">
+        <v>105856</v>
+      </c>
     </row>
-    <row r="74" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -25459,8 +25673,11 @@
       <c r="DC74" s="2">
         <v>15508</v>
       </c>
+      <c r="DD74" s="2">
+        <v>15534</v>
+      </c>
     </row>
-    <row r="75" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -25782,8 +25999,11 @@
       <c r="DC75" s="2">
         <v>10295</v>
       </c>
+      <c r="DD75" s="2">
+        <v>10338</v>
+      </c>
     </row>
-    <row r="76" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -26105,8 +26325,11 @@
       <c r="DC76" s="2">
         <v>17943</v>
       </c>
+      <c r="DD76" s="2">
+        <v>18030</v>
+      </c>
     </row>
-    <row r="77" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -26428,8 +26651,11 @@
       <c r="DC77" s="2">
         <v>10643</v>
       </c>
+      <c r="DD77" s="2">
+        <v>10668</v>
+      </c>
     </row>
-    <row r="78" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -26751,8 +26977,11 @@
       <c r="DC78" s="2">
         <v>1163</v>
       </c>
+      <c r="DD78" s="2">
+        <v>1166</v>
+      </c>
     </row>
-    <row r="79" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -27074,8 +27303,11 @@
       <c r="DC79" s="2">
         <v>1974</v>
       </c>
+      <c r="DD79" s="2">
+        <v>1985</v>
+      </c>
     </row>
-    <row r="80" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -27397,8 +27629,11 @@
       <c r="DC80" s="2">
         <v>704</v>
       </c>
+      <c r="DD80" s="2">
+        <v>723</v>
+      </c>
     </row>
-    <row r="81" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -27720,8 +27955,11 @@
       <c r="DC81" s="2">
         <v>409712</v>
       </c>
+      <c r="DD81" s="2">
+        <v>411630</v>
+      </c>
     </row>
-    <row r="82" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -28043,8 +28281,11 @@
       <c r="DC82" s="2">
         <v>3344</v>
       </c>
+      <c r="DD82" s="2">
+        <v>3549</v>
+      </c>
     </row>
-    <row r="83" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -28366,8 +28607,11 @@
       <c r="DC83" s="2">
         <v>11942</v>
       </c>
+      <c r="DD83" s="2">
+        <v>11966</v>
+      </c>
     </row>
-    <row r="84" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -28689,8 +28933,11 @@
       <c r="DC84" s="2">
         <v>10905</v>
       </c>
+      <c r="DD84" s="2">
+        <v>10936</v>
+      </c>
     </row>
-    <row r="85" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -29012,8 +29259,11 @@
       <c r="DC85" s="2">
         <v>3327</v>
       </c>
+      <c r="DD85" s="2">
+        <v>3330</v>
+      </c>
     </row>
-    <row r="86" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -29335,8 +29585,11 @@
       <c r="DC86" s="2">
         <v>236360</v>
       </c>
+      <c r="DD86" s="2">
+        <v>237377</v>
+      </c>
     </row>
-    <row r="87" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -29658,8 +29911,11 @@
       <c r="DC87" s="2">
         <v>2096</v>
       </c>
+      <c r="DD87" s="2">
+        <v>2098</v>
+      </c>
     </row>
-    <row r="88" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -29981,8 +30237,11 @@
       <c r="DC88" s="2">
         <v>13378</v>
       </c>
+      <c r="DD88" s="2">
+        <v>13412</v>
+      </c>
     </row>
-    <row r="89" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -30304,8 +30563,11 @@
       <c r="DC89" s="2">
         <v>142</v>
       </c>
+      <c r="DD89" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="90" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -30627,8 +30889,11 @@
       <c r="DC90" s="2">
         <v>2682</v>
       </c>
+      <c r="DD90" s="2">
+        <v>2703</v>
+      </c>
     </row>
-    <row r="91" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -30950,8 +31215,11 @@
       <c r="DC91" s="2">
         <v>10273</v>
       </c>
+      <c r="DD91" s="2">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="92" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -31273,8 +31541,11 @@
       <c r="DC92" s="2">
         <v>6739</v>
       </c>
+      <c r="DD92" s="2">
+        <v>6779</v>
+      </c>
     </row>
-    <row r="93" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -31596,8 +31867,11 @@
       <c r="DC93" s="2">
         <v>68731</v>
       </c>
+      <c r="DD93" s="2">
+        <v>69056</v>
+      </c>
     </row>
-    <row r="94" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -31919,8 +32193,11 @@
       <c r="DC94" s="2">
         <v>45024</v>
       </c>
+      <c r="DD94" s="2">
+        <v>45258</v>
+      </c>
     </row>
-    <row r="95" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -32242,8 +32519,11 @@
       <c r="DC95" s="2">
         <v>17449</v>
       </c>
+      <c r="DD95" s="2">
+        <v>17517</v>
+      </c>
     </row>
-    <row r="96" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -32565,8 +32845,11 @@
       <c r="DC96" s="2">
         <v>50470</v>
       </c>
+      <c r="DD96" s="2">
+        <v>50727</v>
+      </c>
     </row>
-    <row r="97" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -32888,8 +33171,11 @@
       <c r="DC97" s="2">
         <v>11117</v>
       </c>
+      <c r="DD97" s="2">
+        <v>11139</v>
+      </c>
     </row>
-    <row r="98" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -33211,8 +33497,11 @@
       <c r="DC98" s="2">
         <v>2065</v>
       </c>
+      <c r="DD98" s="2">
+        <v>2069</v>
+      </c>
     </row>
-    <row r="99" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -33534,8 +33823,11 @@
       <c r="DC99" s="2">
         <v>3920</v>
       </c>
+      <c r="DD99" s="2">
+        <v>3919</v>
+      </c>
     </row>
-    <row r="100" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -33857,8 +34149,11 @@
       <c r="DC100" s="2">
         <v>2175</v>
       </c>
+      <c r="DD100" s="2">
+        <v>2179</v>
+      </c>
     </row>
-    <row r="101" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -34180,8 +34475,11 @@
       <c r="DC101" s="2">
         <v>1622</v>
       </c>
+      <c r="DD101" s="2">
+        <v>1628</v>
+      </c>
     </row>
-    <row r="102" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -34503,8 +34801,11 @@
       <c r="DC102" s="2">
         <v>17334</v>
       </c>
+      <c r="DD102" s="2">
+        <v>17383</v>
+      </c>
     </row>
-    <row r="103" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -34826,8 +35127,11 @@
       <c r="DC103" s="2">
         <v>2577493</v>
       </c>
+      <c r="DD103" s="2">
+        <v>2593331</v>
+      </c>
     </row>
-    <row r="104" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -35149,8 +35453,11 @@
       <c r="DC104" s="2">
         <v>47085</v>
       </c>
+      <c r="DD104" s="2">
+        <v>47396</v>
+      </c>
     </row>
-    <row r="105" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -35472,8 +35779,11 @@
       <c r="DC105" s="2">
         <v>142</v>
       </c>
+      <c r="DD105" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="106" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -35795,8 +36105,11 @@
       <c r="DC106" s="2">
         <v>1800</v>
       </c>
+      <c r="DD106" s="2">
+        <v>1802</v>
+      </c>
     </row>
-    <row r="107" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -36118,8 +36431,11 @@
       <c r="DC107" s="2">
         <v>142031</v>
       </c>
+      <c r="DD107" s="2">
+        <v>142996</v>
+      </c>
     </row>
-    <row r="108" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -36441,8 +36757,11 @@
       <c r="DC108" s="2">
         <v>995</v>
       </c>
+      <c r="DD108" s="2">
+        <v>997</v>
+      </c>
     </row>
-    <row r="109" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -36764,8 +37083,11 @@
       <c r="DC109" s="2">
         <v>21848</v>
       </c>
+      <c r="DD109" s="2">
+        <v>21979</v>
+      </c>
     </row>
-    <row r="110" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -37087,8 +37409,11 @@
       <c r="DC110" s="2">
         <v>335121</v>
       </c>
+      <c r="DD110" s="2">
+        <v>336840</v>
+      </c>
     </row>
-    <row r="111" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -37410,8 +37735,11 @@
       <c r="DC111" s="2">
         <v>27609</v>
       </c>
+      <c r="DD111" s="2">
+        <v>27640</v>
+      </c>
     </row>
-    <row r="112" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -37733,8 +38061,11 @@
       <c r="DC112" s="2">
         <v>7734</v>
       </c>
+      <c r="DD112" s="2">
+        <v>7764</v>
+      </c>
     </row>
-    <row r="113" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -38056,8 +38387,11 @@
       <c r="DC113" s="2">
         <v>33564</v>
       </c>
+      <c r="DD113" s="2">
+        <v>33716</v>
+      </c>
     </row>
-    <row r="114" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -38379,8 +38713,11 @@
       <c r="DC114" s="2">
         <v>13376</v>
       </c>
+      <c r="DD114" s="2">
+        <v>13457</v>
+      </c>
     </row>
-    <row r="115" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -38702,8 +39039,11 @@
       <c r="DC115" s="2">
         <v>12621</v>
       </c>
+      <c r="DD115" s="2">
+        <v>12784</v>
+      </c>
     </row>
-    <row r="116" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -39025,8 +39365,11 @@
       <c r="DC116" s="2">
         <v>12207</v>
       </c>
+      <c r="DD116" s="2">
+        <v>12222</v>
+      </c>
     </row>
-    <row r="117" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -39348,8 +39691,11 @@
       <c r="DC117" s="2">
         <v>2169</v>
       </c>
+      <c r="DD117" s="2">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="118" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -39671,8 +40017,11 @@
       <c r="DC118" s="2">
         <v>50482</v>
       </c>
+      <c r="DD118" s="2">
+        <v>50796</v>
+      </c>
     </row>
-    <row r="119" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -39994,8 +40343,11 @@
       <c r="DC119" s="2">
         <v>8681</v>
       </c>
+      <c r="DD119" s="2">
+        <v>8691</v>
+      </c>
     </row>
-    <row r="120" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -40317,8 +40669,11 @@
       <c r="DC120" s="2">
         <v>400</v>
       </c>
+      <c r="DD120" s="2">
+        <v>406</v>
+      </c>
     </row>
-    <row r="121" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -40640,8 +40995,11 @@
       <c r="DC121" s="2">
         <v>1278</v>
       </c>
+      <c r="DD121" s="2">
+        <v>1282</v>
+      </c>
     </row>
-    <row r="122" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -40963,8 +41321,11 @@
       <c r="DC122" s="2">
         <v>5575</v>
       </c>
+      <c r="DD122" s="2">
+        <v>5597</v>
+      </c>
     </row>
-    <row r="123" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -41286,8 +41647,11 @@
       <c r="DC123" s="2">
         <v>11728</v>
       </c>
+      <c r="DD123" s="2">
+        <v>11755</v>
+      </c>
     </row>
-    <row r="124" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -41609,8 +41973,11 @@
       <c r="DC124" s="2">
         <v>1324</v>
       </c>
+      <c r="DD124" s="2">
+        <v>1324</v>
+      </c>
     </row>
-    <row r="125" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -41932,8 +42299,11 @@
       <c r="DC125" s="2">
         <v>135944</v>
       </c>
+      <c r="DD125" s="2">
+        <v>136808</v>
+      </c>
     </row>
-    <row r="126" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -42255,8 +42625,11 @@
       <c r="DC126" s="2">
         <v>7785</v>
       </c>
+      <c r="DD126" s="2">
+        <v>7788</v>
+      </c>
     </row>
-    <row r="127" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -42578,8 +42951,11 @@
       <c r="DC127" s="2">
         <v>42429</v>
       </c>
+      <c r="DD127" s="2">
+        <v>42601</v>
+      </c>
     </row>
-    <row r="128" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -42901,8 +43277,11 @@
       <c r="DC128" s="2">
         <v>82049</v>
       </c>
+      <c r="DD128" s="2">
+        <v>82640</v>
+      </c>
     </row>
-    <row r="129" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -43224,8 +43603,11 @@
       <c r="DC129" s="2">
         <v>5577</v>
       </c>
+      <c r="DD129" s="2">
+        <v>5588</v>
+      </c>
     </row>
-    <row r="130" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -43547,8 +43929,11 @@
       <c r="DC130" s="2">
         <v>11573</v>
       </c>
+      <c r="DD130" s="2">
+        <v>11603</v>
+      </c>
     </row>
-    <row r="131" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -43870,8 +44255,11 @@
       <c r="DC131" s="2">
         <v>70857</v>
       </c>
+      <c r="DD131" s="2">
+        <v>71362</v>
+      </c>
     </row>
-    <row r="132" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -44193,8 +44581,11 @@
       <c r="DC132" s="2">
         <v>17072</v>
       </c>
+      <c r="DD132" s="2">
+        <v>17156</v>
+      </c>
     </row>
-    <row r="133" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -44516,8 +44907,11 @@
       <c r="DC133" s="2">
         <v>149</v>
       </c>
+      <c r="DD133" s="2">
+        <v>149</v>
+      </c>
     </row>
-    <row r="134" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -44839,8 +45233,11 @@
       <c r="DC134" s="2">
         <v>410</v>
       </c>
+      <c r="DD134" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="135" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -45162,8 +45559,11 @@
       <c r="DC135" s="2">
         <v>32030</v>
       </c>
+      <c r="DD135" s="2">
+        <v>32211</v>
+      </c>
     </row>
-    <row r="136" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -45485,8 +45885,11 @@
       <c r="DC136" s="2">
         <v>1520</v>
       </c>
+      <c r="DD136" s="2">
+        <v>1522</v>
+      </c>
     </row>
-    <row r="137" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -45808,8 +46211,11 @@
       <c r="DC137" s="2">
         <v>39</v>
       </c>
+      <c r="DD137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -46131,8 +46537,11 @@
       <c r="DC138" s="2">
         <v>1226</v>
       </c>
+      <c r="DD138" s="2">
+        <v>1236</v>
+      </c>
     </row>
-    <row r="139" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -46454,8 +46863,11 @@
       <c r="DC139" s="2">
         <v>23040</v>
       </c>
+      <c r="DD139" s="2">
+        <v>23147</v>
+      </c>
     </row>
-    <row r="140" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -46777,8 +47189,11 @@
       <c r="DC140" s="2">
         <v>1802</v>
       </c>
+      <c r="DD140" s="2">
+        <v>1804</v>
+      </c>
     </row>
-    <row r="141" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -47100,8 +47515,11 @@
       <c r="DC141" s="2">
         <v>5167</v>
       </c>
+      <c r="DD141" s="2">
+        <v>5171</v>
+      </c>
     </row>
-    <row r="142" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -47423,8 +47841,11 @@
       <c r="DC142" s="2">
         <v>16734</v>
       </c>
+      <c r="DD142" s="2">
+        <v>16839</v>
+      </c>
     </row>
-    <row r="143" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -47746,8 +48167,11 @@
       <c r="DC143" s="2">
         <v>7014</v>
       </c>
+      <c r="DD143" s="2">
+        <v>7025</v>
+      </c>
     </row>
-    <row r="144" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -48069,8 +48493,11 @@
       <c r="DC144" s="2">
         <v>12472</v>
       </c>
+      <c r="DD144" s="2">
+        <v>12525</v>
+      </c>
     </row>
-    <row r="145" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -48392,8 +48819,11 @@
       <c r="DC145" s="2">
         <v>9574</v>
       </c>
+      <c r="DD145" s="2">
+        <v>9597</v>
+      </c>
     </row>
-    <row r="146" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -48715,8 +49145,11 @@
       <c r="DC146" s="2">
         <v>6139</v>
       </c>
+      <c r="DD146" s="2">
+        <v>6172</v>
+      </c>
     </row>
-    <row r="147" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -49038,8 +49471,11 @@
       <c r="DC147" s="2">
         <v>7053</v>
       </c>
+      <c r="DD147" s="2">
+        <v>7079</v>
+      </c>
     </row>
-    <row r="148" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -49361,8 +49797,11 @@
       <c r="DC148" s="2">
         <v>36865</v>
       </c>
+      <c r="DD148" s="2">
+        <v>36932</v>
+      </c>
     </row>
-    <row r="149" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -49684,8 +50123,11 @@
       <c r="DC149" s="2">
         <v>20311</v>
       </c>
+      <c r="DD149" s="2">
+        <v>20402</v>
+      </c>
     </row>
-    <row r="150" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -50007,8 +50449,11 @@
       <c r="DC150" s="2">
         <v>279</v>
       </c>
+      <c r="DD150" s="2">
+        <v>282</v>
+      </c>
     </row>
-    <row r="151" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -50330,8 +50775,11 @@
       <c r="DC151" s="2">
         <v>4021</v>
       </c>
+      <c r="DD151" s="2">
+        <v>4042</v>
+      </c>
     </row>
-    <row r="152" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -50653,8 +51101,11 @@
       <c r="DC152" s="2">
         <v>7514</v>
       </c>
+      <c r="DD152" s="2">
+        <v>7538</v>
+      </c>
     </row>
-    <row r="153" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -50976,8 +51427,11 @@
       <c r="DC153" s="2">
         <v>23</v>
       </c>
+      <c r="DD153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -51299,8 +51753,11 @@
       <c r="DC154" s="2">
         <v>212929</v>
       </c>
+      <c r="DD154" s="2">
+        <v>213595</v>
+      </c>
     </row>
-    <row r="155" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -51622,8 +52079,11 @@
       <c r="DC155" s="2">
         <v>3135</v>
       </c>
+      <c r="DD155" s="2">
+        <v>3166</v>
+      </c>
     </row>
-    <row r="156" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -51945,8 +52405,11 @@
       <c r="DC156" s="2">
         <v>10046</v>
       </c>
+      <c r="DD156" s="2">
+        <v>10065</v>
+      </c>
     </row>
-    <row r="157" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -52268,8 +52731,11 @@
       <c r="DC157" s="2">
         <v>2407</v>
       </c>
+      <c r="DD157" s="2">
+        <v>2419</v>
+      </c>
     </row>
-    <row r="158" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -52591,8 +53057,11 @@
       <c r="DC158" s="2">
         <v>1303</v>
       </c>
+      <c r="DD158" s="2">
+        <v>1307</v>
+      </c>
     </row>
-    <row r="159" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -52914,8 +53383,11 @@
       <c r="DC159" s="2">
         <v>1666</v>
       </c>
+      <c r="DD159" s="2">
+        <v>1670</v>
+      </c>
     </row>
-    <row r="160" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -53237,8 +53709,11 @@
       <c r="DC160" s="2">
         <v>17275</v>
       </c>
+      <c r="DD160" s="2">
+        <v>17332</v>
+      </c>
     </row>
-    <row r="161" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -53560,8 +54035,11 @@
       <c r="DC161" s="2">
         <v>37550</v>
       </c>
+      <c r="DD161" s="2">
+        <v>37741</v>
+      </c>
     </row>
-    <row r="162" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -53883,8 +54361,11 @@
       <c r="DC162" s="2">
         <v>2381</v>
       </c>
+      <c r="DD162" s="2">
+        <v>2390</v>
+      </c>
     </row>
-    <row r="163" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -54206,8 +54687,11 @@
       <c r="DC163" s="2">
         <v>198428</v>
       </c>
+      <c r="DD163" s="2">
+        <v>198884</v>
+      </c>
     </row>
-    <row r="164" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -54529,8 +55013,11 @@
       <c r="DC164" s="2">
         <v>293</v>
       </c>
+      <c r="DD164" s="2">
+        <v>293</v>
+      </c>
     </row>
-    <row r="165" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -54852,8 +55339,11 @@
       <c r="DC165" s="2">
         <v>18757</v>
       </c>
+      <c r="DD165" s="2">
+        <v>18885</v>
+      </c>
     </row>
-    <row r="166" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -55175,8 +55665,11 @@
       <c r="DC166" s="2">
         <v>1808</v>
       </c>
+      <c r="DD166" s="2">
+        <v>1809</v>
+      </c>
     </row>
-    <row r="167" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -55498,8 +55991,11 @@
       <c r="DC167" s="2">
         <v>54126</v>
       </c>
+      <c r="DD167" s="2">
+        <v>54293</v>
+      </c>
     </row>
-    <row r="168" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -55821,8 +56317,11 @@
       <c r="DC168" s="2">
         <v>12714</v>
       </c>
+      <c r="DD168" s="2">
+        <v>12755</v>
+      </c>
     </row>
-    <row r="169" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -56144,8 +56643,11 @@
       <c r="DC169" s="2">
         <v>3680</v>
       </c>
+      <c r="DD169" s="2">
+        <v>3689</v>
+      </c>
     </row>
-    <row r="170" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -56467,8 +56969,11 @@
       <c r="DC170" s="2">
         <v>4963</v>
       </c>
+      <c r="DD170" s="2">
+        <v>5003</v>
+      </c>
     </row>
-    <row r="171" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -56790,8 +57295,11 @@
       <c r="DC171" s="2">
         <v>8485</v>
       </c>
+      <c r="DD171" s="2">
+        <v>8577</v>
+      </c>
     </row>
-    <row r="172" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -57113,8 +57621,11 @@
       <c r="DC172" s="2">
         <v>240891</v>
       </c>
+      <c r="DD172" s="2">
+        <v>242467</v>
+      </c>
     </row>
-    <row r="173" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -57436,8 +57947,11 @@
       <c r="DC173" s="2">
         <v>7109</v>
       </c>
+      <c r="DD173" s="2">
+        <v>7133</v>
+      </c>
     </row>
-    <row r="174" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -57759,8 +58273,11 @@
       <c r="DC174" s="2">
         <v>5329</v>
       </c>
+      <c r="DD174" s="2">
+        <v>5628</v>
+      </c>
     </row>
-    <row r="175" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -58082,8 +58599,11 @@
       <c r="DC175" s="2">
         <v>471</v>
       </c>
+      <c r="DD175" s="2">
+        <v>474</v>
+      </c>
     </row>
-    <row r="176" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -58405,8 +58925,11 @@
       <c r="DC176" s="2">
         <v>31119</v>
       </c>
+      <c r="DD176" s="2">
+        <v>31198</v>
+      </c>
     </row>
-    <row r="177" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -58728,8 +59251,11 @@
       <c r="DC177" s="2">
         <v>22773</v>
       </c>
+      <c r="DD177" s="2">
+        <v>22956</v>
+      </c>
     </row>
-    <row r="178" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -59051,8 +59577,11 @@
       <c r="DC178" s="2">
         <v>3468</v>
       </c>
+      <c r="DD178" s="2">
+        <v>3481</v>
+      </c>
     </row>
-    <row r="179" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -59374,8 +59903,11 @@
       <c r="DC179" s="2">
         <v>6957</v>
       </c>
+      <c r="DD179" s="2">
+        <v>6972</v>
+      </c>
     </row>
-    <row r="180" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -59697,8 +60229,11 @@
       <c r="DC180" s="2">
         <v>194237</v>
       </c>
+      <c r="DD180" s="2">
+        <v>195397</v>
+      </c>
     </row>
-    <row r="181" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -60020,8 +60555,11 @@
       <c r="DC181" s="2">
         <v>560</v>
       </c>
+      <c r="DD181" s="2">
+        <v>563</v>
+      </c>
     </row>
-    <row r="182" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -60343,8 +60881,11 @@
       <c r="DC182" s="2">
         <v>676</v>
       </c>
+      <c r="DD182" s="2">
+        <v>677</v>
+      </c>
     </row>
-    <row r="183" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -60666,8 +61207,11 @@
       <c r="DC183" s="2">
         <v>24987</v>
       </c>
+      <c r="DD183" s="2">
+        <v>25025</v>
+      </c>
     </row>
-    <row r="184" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -60989,8 +61533,11 @@
       <c r="DC184" s="2">
         <v>11018</v>
       </c>
+      <c r="DD184" s="2">
+        <v>11062</v>
+      </c>
     </row>
-    <row r="185" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -61312,8 +61859,11 @@
       <c r="DC185" s="2">
         <v>7161</v>
       </c>
+      <c r="DD185" s="2">
+        <v>7175</v>
+      </c>
     </row>
-    <row r="186" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -61635,8 +62185,11 @@
       <c r="DC186" s="2">
         <v>50552</v>
       </c>
+      <c r="DD186" s="2">
+        <v>50895</v>
+      </c>
     </row>
-    <row r="187" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -61958,8 +62511,11 @@
       <c r="DC187" s="2">
         <v>2054</v>
       </c>
+      <c r="DD187" s="2">
+        <v>2057</v>
+      </c>
     </row>
-    <row r="188" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -62281,8 +62837,11 @@
       <c r="DC188" s="2">
         <v>7323</v>
       </c>
+      <c r="DD188" s="2">
+        <v>7339</v>
+      </c>
     </row>
-    <row r="189" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -62604,8 +63163,11 @@
       <c r="DC189" s="2">
         <v>21973</v>
       </c>
+      <c r="DD189" s="2">
+        <v>22040</v>
+      </c>
     </row>
-    <row r="190" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -62927,8 +63489,11 @@
       <c r="DC190" s="2">
         <v>61060</v>
       </c>
+      <c r="DD190" s="2">
+        <v>61307</v>
+      </c>
     </row>
-    <row r="191" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -63250,8 +63815,11 @@
       <c r="DC191" s="2">
         <v>6218</v>
       </c>
+      <c r="DD191" s="2">
+        <v>6218</v>
+      </c>
     </row>
-    <row r="192" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -63573,8 +64141,11 @@
       <c r="DC192" s="2">
         <v>2199</v>
       </c>
+      <c r="DD192" s="2">
+        <v>2217</v>
+      </c>
     </row>
-    <row r="193" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -63896,8 +64467,11 @@
       <c r="DC193" s="2">
         <v>42113</v>
       </c>
+      <c r="DD193" s="2">
+        <v>42299</v>
+      </c>
     </row>
-    <row r="194" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -64219,8 +64793,11 @@
       <c r="DC194" s="2">
         <v>1029</v>
       </c>
+      <c r="DD194" s="2">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="195" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -64542,8 +65119,11 @@
       <c r="DC195" s="2">
         <v>1388</v>
       </c>
+      <c r="DD195" s="2">
+        <v>1395</v>
+      </c>
     </row>
-    <row r="196" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -64865,8 +65445,11 @@
       <c r="DC196" s="2">
         <v>4765</v>
       </c>
+      <c r="DD196" s="2">
+        <v>4877</v>
+      </c>
     </row>
-    <row r="197" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -65188,8 +65771,11 @@
       <c r="DC197" s="2">
         <v>3702</v>
       </c>
+      <c r="DD197" s="2">
+        <v>3710</v>
+      </c>
     </row>
-    <row r="198" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -65511,8 +66097,11 @@
       <c r="DC198" s="2">
         <v>4329</v>
       </c>
+      <c r="DD198" s="2">
+        <v>4336</v>
+      </c>
     </row>
-    <row r="199" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -65834,8 +66423,11 @@
       <c r="DC199" s="2">
         <v>121</v>
       </c>
+      <c r="DD199" s="2">
+        <v>121</v>
+      </c>
     </row>
-    <row r="200" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -66157,8 +66749,11 @@
       <c r="DC200" s="2">
         <v>10283</v>
       </c>
+      <c r="DD200" s="2">
+        <v>10316</v>
+      </c>
     </row>
-    <row r="201" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -66480,8 +67075,11 @@
       <c r="DC201" s="2">
         <v>46147</v>
       </c>
+      <c r="DD201" s="2">
+        <v>46486</v>
+      </c>
     </row>
-    <row r="202" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -66803,8 +67401,11 @@
       <c r="DC202" s="2">
         <v>5657</v>
       </c>
+      <c r="DD202" s="2">
+        <v>5681</v>
+      </c>
     </row>
-    <row r="203" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -67126,8 +67727,11 @@
       <c r="DC203" s="2">
         <v>14974</v>
       </c>
+      <c r="DD203" s="2">
+        <v>15019</v>
+      </c>
     </row>
-    <row r="204" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -67449,8 +68053,11 @@
       <c r="DC204" s="2">
         <v>4862</v>
       </c>
+      <c r="DD204" s="2">
+        <v>4867</v>
+      </c>
     </row>
-    <row r="205" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -67772,8 +68379,11 @@
       <c r="DC205" s="2">
         <v>4691</v>
       </c>
+      <c r="DD205" s="2">
+        <v>4694</v>
+      </c>
     </row>
-    <row r="206" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -68095,8 +68705,11 @@
       <c r="DC206" s="2">
         <v>11582</v>
       </c>
+      <c r="DD206" s="2">
+        <v>11613</v>
+      </c>
     </row>
-    <row r="207" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -68418,8 +69031,11 @@
       <c r="DC207" s="2">
         <v>30563</v>
       </c>
+      <c r="DD207" s="2">
+        <v>30736</v>
+      </c>
     </row>
-    <row r="208" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -68741,8 +69357,11 @@
       <c r="DC208" s="2">
         <v>2584</v>
       </c>
+      <c r="DD208" s="2">
+        <v>2587</v>
+      </c>
     </row>
-    <row r="209" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -69064,8 +69683,11 @@
       <c r="DC209" s="2">
         <v>944</v>
       </c>
+      <c r="DD209" s="2">
+        <v>945</v>
+      </c>
     </row>
-    <row r="210" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -69387,8 +70009,11 @@
       <c r="DC210" s="2">
         <v>13832</v>
       </c>
+      <c r="DD210" s="2">
+        <v>13904</v>
+      </c>
     </row>
-    <row r="211" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -69710,8 +70335,11 @@
       <c r="DC211" s="2">
         <v>774</v>
       </c>
+      <c r="DD211" s="2">
+        <v>775</v>
+      </c>
     </row>
-    <row r="212" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -70033,8 +70661,11 @@
       <c r="DC212" s="2">
         <v>9810</v>
       </c>
+      <c r="DD212" s="2">
+        <v>9828</v>
+      </c>
     </row>
-    <row r="213" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -70356,8 +70987,11 @@
       <c r="DC213" s="2">
         <v>165</v>
       </c>
+      <c r="DD213" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="214" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -70679,8 +71313,11 @@
       <c r="DC214" s="2">
         <v>134355</v>
       </c>
+      <c r="DD214" s="2">
+        <v>134724</v>
+      </c>
     </row>
-    <row r="215" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -71002,8 +71639,11 @@
       <c r="DC215" s="2">
         <v>5392</v>
       </c>
+      <c r="DD215" s="2">
+        <v>5406</v>
+      </c>
     </row>
-    <row r="216" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -71325,8 +71965,11 @@
       <c r="DC216" s="2">
         <v>29039</v>
       </c>
+      <c r="DD216" s="2">
+        <v>29184</v>
+      </c>
     </row>
-    <row r="217" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -71648,8 +72291,11 @@
       <c r="DC217" s="2">
         <v>2520</v>
       </c>
+      <c r="DD217" s="2">
+        <v>2526</v>
+      </c>
     </row>
-    <row r="218" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -71971,8 +72617,11 @@
       <c r="DC218" s="2">
         <v>703</v>
       </c>
+      <c r="DD218" s="2">
+        <v>705</v>
+      </c>
     </row>
-    <row r="219" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -72294,8 +72943,11 @@
       <c r="DC219" s="2">
         <v>266</v>
       </c>
+      <c r="DD219" s="2">
+        <v>267</v>
+      </c>
     </row>
-    <row r="220" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -72617,8 +73269,11 @@
       <c r="DC220" s="2">
         <v>1436</v>
       </c>
+      <c r="DD220" s="2">
+        <v>1443</v>
+      </c>
     </row>
-    <row r="221" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -72940,8 +73595,11 @@
       <c r="DC221" s="2">
         <v>3345</v>
       </c>
+      <c r="DD221" s="2">
+        <v>3355</v>
+      </c>
     </row>
-    <row r="222" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -73263,8 +73921,11 @@
       <c r="DC222" s="2">
         <v>1062299</v>
       </c>
+      <c r="DD222" s="2">
+        <v>1071213</v>
+      </c>
     </row>
-    <row r="223" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -73586,8 +74247,11 @@
       <c r="DC223" s="2">
         <v>80129</v>
       </c>
+      <c r="DD223" s="2">
+        <v>80313</v>
+      </c>
     </row>
-    <row r="224" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -73909,8 +74573,11 @@
       <c r="DC224" s="2">
         <v>299</v>
       </c>
+      <c r="DD224" s="2">
+        <v>303</v>
+      </c>
     </row>
-    <row r="225" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -74232,8 +74899,11 @@
       <c r="DC225" s="2">
         <v>3196</v>
       </c>
+      <c r="DD225" s="2">
+        <v>3202</v>
+      </c>
     </row>
-    <row r="226" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -74555,8 +75225,11 @@
       <c r="DC226" s="2">
         <v>236</v>
       </c>
+      <c r="DD226" s="2">
+        <v>236</v>
+      </c>
     </row>
-    <row r="227" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -74878,8 +75551,11 @@
       <c r="DC227" s="2">
         <v>16052</v>
       </c>
+      <c r="DD227" s="2">
+        <v>17381</v>
+      </c>
     </row>
-    <row r="228" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -75201,8 +75877,11 @@
       <c r="DC228" s="2">
         <v>77866</v>
       </c>
+      <c r="DD228" s="2">
+        <v>78312</v>
+      </c>
     </row>
-    <row r="229" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -75524,8 +76203,11 @@
       <c r="DC229" s="2">
         <v>652031</v>
       </c>
+      <c r="DD229" s="2">
+        <v>656130</v>
+      </c>
     </row>
-    <row r="230" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -75847,8 +76529,11 @@
       <c r="DC230" s="2">
         <v>7060</v>
       </c>
+      <c r="DD230" s="2">
+        <v>7077</v>
+      </c>
     </row>
-    <row r="231" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -76170,8 +76855,11 @@
       <c r="DC231" s="2">
         <v>9095</v>
       </c>
+      <c r="DD231" s="2">
+        <v>9134</v>
+      </c>
     </row>
-    <row r="232" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -76493,8 +77181,11 @@
       <c r="DC232" s="2">
         <v>9494</v>
       </c>
+      <c r="DD232" s="2">
+        <v>9572</v>
+      </c>
     </row>
-    <row r="233" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -76816,8 +77507,11 @@
       <c r="DC233" s="2">
         <v>1644</v>
       </c>
+      <c r="DD233" s="2">
+        <v>1646</v>
+      </c>
     </row>
-    <row r="234" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -77139,8 +77833,11 @@
       <c r="DC234" s="2">
         <v>14516</v>
       </c>
+      <c r="DD234" s="2">
+        <v>14598</v>
+      </c>
     </row>
-    <row r="235" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -77462,8 +78159,11 @@
       <c r="DC235" s="2">
         <v>28338</v>
       </c>
+      <c r="DD235" s="2">
+        <v>28613</v>
+      </c>
     </row>
-    <row r="236" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -77785,8 +78485,11 @@
       <c r="DC236" s="2">
         <v>14438</v>
       </c>
+      <c r="DD236" s="2">
+        <v>14520</v>
+      </c>
     </row>
-    <row r="237" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -78108,8 +78811,11 @@
       <c r="DC237" s="2">
         <v>33697</v>
       </c>
+      <c r="DD237" s="2">
+        <v>33947</v>
+      </c>
     </row>
-    <row r="238" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -78431,8 +79137,11 @@
       <c r="DC238" s="2">
         <v>69840</v>
       </c>
+      <c r="DD238" s="2">
+        <v>69977</v>
+      </c>
     </row>
-    <row r="239" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -78754,8 +79463,11 @@
       <c r="DC239" s="2">
         <v>18843</v>
       </c>
+      <c r="DD239" s="2">
+        <v>18902</v>
+      </c>
     </row>
-    <row r="240" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -79077,8 +79789,11 @@
       <c r="DC240" s="2">
         <v>3289</v>
       </c>
+      <c r="DD240" s="2">
+        <v>3295</v>
+      </c>
     </row>
-    <row r="241" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -79400,8 +80115,11 @@
       <c r="DC241" s="2">
         <v>24110</v>
       </c>
+      <c r="DD241" s="2">
+        <v>24163</v>
+      </c>
     </row>
-    <row r="242" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -79723,8 +80441,11 @@
       <c r="DC242" s="2">
         <v>204050</v>
       </c>
+      <c r="DD242" s="2">
+        <v>205060</v>
+      </c>
     </row>
-    <row r="243" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -80046,8 +80767,11 @@
       <c r="DC243" s="2">
         <v>21466</v>
       </c>
+      <c r="DD243" s="2">
+        <v>21532</v>
+      </c>
     </row>
-    <row r="244" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -80369,8 +81093,11 @@
       <c r="DC244" s="2">
         <v>2761</v>
       </c>
+      <c r="DD244" s="2">
+        <v>2808</v>
+      </c>
     </row>
-    <row r="245" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -80692,8 +81419,11 @@
       <c r="DC245" s="2">
         <v>87146</v>
       </c>
+      <c r="DD245" s="2">
+        <v>87507</v>
+      </c>
     </row>
-    <row r="246" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -81015,8 +81745,11 @@
       <c r="DC246" s="2">
         <v>10070</v>
       </c>
+      <c r="DD246" s="2">
+        <v>10080</v>
+      </c>
     </row>
-    <row r="247" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -81338,8 +82071,11 @@
       <c r="DC247" s="2">
         <v>14963</v>
       </c>
+      <c r="DD247" s="2">
+        <v>14998</v>
+      </c>
     </row>
-    <row r="248" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -81661,8 +82397,11 @@
       <c r="DC248" s="2">
         <v>265209</v>
       </c>
+      <c r="DD248" s="2">
+        <v>267221</v>
+      </c>
     </row>
-    <row r="249" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -81984,8 +82723,11 @@
       <c r="DC249" s="2">
         <v>19680</v>
       </c>
+      <c r="DD249" s="2">
+        <v>19785</v>
+      </c>
     </row>
-    <row r="250" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -82307,8 +83049,11 @@
       <c r="DC250" s="2">
         <v>799</v>
       </c>
+      <c r="DD250" s="2">
+        <v>803</v>
+      </c>
     </row>
-    <row r="251" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -82630,8 +83375,11 @@
       <c r="DC251" s="2">
         <v>32039</v>
       </c>
+      <c r="DD251" s="2">
+        <v>32318</v>
+      </c>
     </row>
-    <row r="252" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -82953,8 +83701,11 @@
       <c r="DC252" s="2">
         <v>13397</v>
       </c>
+      <c r="DD252" s="2">
+        <v>13483</v>
+      </c>
     </row>
-    <row r="253" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -83276,8 +84027,11 @@
       <c r="DC253" s="2">
         <v>2254</v>
       </c>
+      <c r="DD253" s="2">
+        <v>2255</v>
+      </c>
     </row>
-    <row r="254" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -83599,8 +84353,11 @@
       <c r="DC254" s="2">
         <v>5642</v>
       </c>
+      <c r="DD254" s="2">
+        <v>5659</v>
+      </c>
     </row>
-    <row r="255" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -83922,8 +84679,11 @@
       <c r="DC255" s="2">
         <v>10722</v>
       </c>
+      <c r="DD255" s="2">
+        <v>10725</v>
+      </c>
     </row>
-    <row r="256" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -84245,8 +85005,11 @@
       <c r="DC256" s="2">
         <v>5544</v>
       </c>
+      <c r="DD256" s="2">
+        <v>5571</v>
+      </c>
     </row>
-    <row r="257" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -84568,8 +85331,11 @@
       <c r="DC257" s="2">
         <v>122933</v>
       </c>
+      <c r="DD257" s="2">
+        <v>123211</v>
+      </c>
     </row>
-    <row r="258" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -84894,8 +85660,11 @@
       <c r="DC258" s="8">
         <v>15326725</v>
       </c>
+      <c r="DD258" s="8">
+        <v>15419272</v>
+      </c>
     </row>
-    <row r="259" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:108" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -84922,7 +85691,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -84930,7 +85699,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -84938,7 +85707,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -84946,7 +85715,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -84954,7 +85723,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -84962,7 +85731,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -84970,7 +85739,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -84978,7 +85747,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -84986,7 +85755,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -84994,7 +85763,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -85002,7 +85771,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -85010,7 +85779,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -85018,7 +85787,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:107" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:108" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0684655D-DBE3-4206-B6A3-BFA5080A05FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A7C6C1A-3D01-4D65-93DB-3F655E886C03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,52 +1834,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DD513"/>
+  <dimension ref="A1:DE513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="CS2" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.46484375" customWidth="1"/>
-    <col min="27" max="27" width="9.3984375" customWidth="1"/>
-    <col min="28" max="28" width="9.59765625" customWidth="1"/>
-    <col min="29" max="29" width="9.86328125" customWidth="1"/>
-    <col min="30" max="34" width="9.46484375" customWidth="1"/>
-    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.06640625" style="5"/>
-    <col min="57" max="57" width="9.06640625" style="6"/>
-    <col min="60" max="61" width="9.06640625" style="6"/>
-    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.19921875" customWidth="1"/>
-    <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.06640625" customWidth="1"/>
-    <col min="68" max="68" width="10.6640625" customWidth="1"/>
-    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.4609375" customWidth="1"/>
+    <col min="2" max="24" width="9.07421875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.4609375" customWidth="1"/>
+    <col min="27" max="27" width="9.3828125" customWidth="1"/>
+    <col min="28" max="28" width="9.61328125" customWidth="1"/>
+    <col min="29" max="29" width="9.84375" customWidth="1"/>
+    <col min="30" max="34" width="9.4609375" customWidth="1"/>
+    <col min="35" max="36" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.07421875" style="5"/>
+    <col min="57" max="57" width="9.07421875" style="6"/>
+    <col min="60" max="61" width="9.07421875" style="6"/>
+    <col min="62" max="62" width="9.84375" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.23046875" customWidth="1"/>
+    <col min="64" max="66" width="10.23046875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.07421875" customWidth="1"/>
+    <col min="68" max="68" width="10.69140625" customWidth="1"/>
+    <col min="69" max="69" width="10.4609375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
-    <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.6640625" style="6" customWidth="1"/>
-    <col min="74" max="74" width="10.59765625" customWidth="1"/>
+    <col min="71" max="71" width="10.53515625" style="6" customWidth="1"/>
+    <col min="72" max="72" width="10.23046875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.69140625" style="6" customWidth="1"/>
+    <col min="74" max="74" width="10.61328125" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.06640625" customWidth="1"/>
-    <col min="80" max="80" width="10.19921875" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.33203125" customWidth="1"/>
-    <col min="82" max="90" width="10.73046875" style="7" customWidth="1"/>
-    <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="108" width="10.59765625" style="7" customWidth="1"/>
+    <col min="79" max="79" width="10.07421875" customWidth="1"/>
+    <col min="80" max="80" width="10.23046875" style="7" customWidth="1"/>
+    <col min="81" max="81" width="10.3046875" customWidth="1"/>
+    <col min="82" max="90" width="10.69140625" style="7" customWidth="1"/>
+    <col min="91" max="103" width="9.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.15234375" customWidth="1"/>
+    <col min="105" max="109" width="10.61328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2204,8 +2206,11 @@
       <c r="DD2" s="4">
         <v>44193</v>
       </c>
+      <c r="DE2" s="4">
+        <v>44194</v>
+      </c>
     </row>
-    <row r="3" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2530,8 +2535,11 @@
       <c r="DD3" s="2">
         <v>43500</v>
       </c>
+      <c r="DE3" s="2">
+        <v>43899</v>
+      </c>
     </row>
-    <row r="4" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2856,8 +2864,11 @@
       <c r="DD4" s="2">
         <v>4809</v>
       </c>
+      <c r="DE4" s="2">
+        <v>4827</v>
+      </c>
     </row>
-    <row r="5" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3182,8 +3193,11 @@
       <c r="DD5" s="2">
         <v>46731</v>
       </c>
+      <c r="DE5" s="2">
+        <v>47011</v>
+      </c>
     </row>
-    <row r="6" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3508,8 +3522,11 @@
       <c r="DD6" s="2">
         <v>8714</v>
       </c>
+      <c r="DE6" s="2">
+        <v>8890</v>
+      </c>
     </row>
-    <row r="7" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3834,8 +3851,11 @@
       <c r="DD7" s="2">
         <v>2450</v>
       </c>
+      <c r="DE7" s="2">
+        <v>2464</v>
+      </c>
     </row>
-    <row r="8" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4160,8 +4180,11 @@
       <c r="DD8" s="2">
         <v>626</v>
       </c>
+      <c r="DE8" s="2">
+        <v>626</v>
+      </c>
     </row>
-    <row r="9" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4486,8 +4509,11 @@
       <c r="DD9" s="2">
         <v>24381</v>
       </c>
+      <c r="DE9" s="2">
+        <v>24566</v>
+      </c>
     </row>
-    <row r="10" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4812,8 +4838,11 @@
       <c r="DD10" s="2">
         <v>11870</v>
       </c>
+      <c r="DE10" s="2">
+        <v>11909</v>
+      </c>
     </row>
-    <row r="11" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5138,8 +5167,11 @@
       <c r="DD11" s="2">
         <v>1825</v>
       </c>
+      <c r="DE11" s="2">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="12" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5464,8 +5496,11 @@
       <c r="DD12" s="2">
         <v>6572</v>
       </c>
+      <c r="DE12" s="2">
+        <v>6590</v>
+      </c>
     </row>
-    <row r="13" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5790,8 +5825,11 @@
       <c r="DD13" s="2">
         <v>37165</v>
       </c>
+      <c r="DE13" s="2">
+        <v>37571</v>
+      </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6116,8 +6154,11 @@
       <c r="DD14" s="2">
         <v>1469</v>
       </c>
+      <c r="DE14" s="2">
+        <v>1478</v>
+      </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6442,8 +6483,11 @@
       <c r="DD15" s="2">
         <v>28975</v>
       </c>
+      <c r="DE15" s="2">
+        <v>29027</v>
+      </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6768,8 +6812,11 @@
       <c r="DD16" s="2">
         <v>171035</v>
       </c>
+      <c r="DE16" s="2">
+        <v>172174</v>
+      </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7094,8 +7141,11 @@
       <c r="DD17" s="2">
         <v>1014320</v>
       </c>
+      <c r="DE17" s="2">
+        <v>1020723</v>
+      </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7420,8 +7470,11 @@
       <c r="DD18" s="2">
         <v>3932</v>
       </c>
+      <c r="DE18" s="2">
+        <v>3957</v>
+      </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7746,8 +7799,11 @@
       <c r="DD19" s="2">
         <v>109</v>
       </c>
+      <c r="DE19" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8072,8 +8128,11 @@
       <c r="DD20" s="2">
         <v>9876</v>
       </c>
+      <c r="DE20" s="2">
+        <v>9933</v>
+      </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8398,8 +8457,11 @@
       <c r="DD21" s="2">
         <v>55924</v>
       </c>
+      <c r="DE21" s="2">
+        <v>56121</v>
+      </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8724,8 +8786,11 @@
       <c r="DD22" s="2">
         <v>219794</v>
       </c>
+      <c r="DE22" s="2">
+        <v>220919</v>
+      </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9050,8 +9115,11 @@
       <c r="DD23" s="2">
         <v>156908</v>
       </c>
+      <c r="DE23" s="2">
+        <v>158497</v>
+      </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9376,8 +9444,11 @@
       <c r="DD24" s="2">
         <v>7533</v>
       </c>
+      <c r="DE24" s="2">
+        <v>7540</v>
+      </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9702,8 +9773,11 @@
       <c r="DD25" s="2">
         <v>526</v>
       </c>
+      <c r="DE25" s="2">
+        <v>526</v>
+      </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10028,8 +10102,11 @@
       <c r="DD26" s="2">
         <v>10281</v>
       </c>
+      <c r="DE26" s="2">
+        <v>10292</v>
+      </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10354,8 +10431,11 @@
       <c r="DD27" s="2">
         <v>20912</v>
       </c>
+      <c r="DE27" s="2">
+        <v>21008</v>
+      </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10680,8 +10760,11 @@
       <c r="DD28" s="2">
         <v>9207</v>
       </c>
+      <c r="DE28" s="2">
+        <v>9358</v>
+      </c>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11006,8 +11089,11 @@
       <c r="DD29" s="2">
         <v>22309</v>
       </c>
+      <c r="DE29" s="2">
+        <v>22386</v>
+      </c>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11332,8 +11418,11 @@
       <c r="DD30" s="2">
         <v>22088</v>
       </c>
+      <c r="DE30" s="2">
+        <v>22291</v>
+      </c>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11658,8 +11747,11 @@
       <c r="DD31" s="2">
         <v>11084</v>
       </c>
+      <c r="DE31" s="2">
+        <v>11105</v>
+      </c>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -11984,8 +12076,11 @@
       <c r="DD32" s="2">
         <v>6222</v>
       </c>
+      <c r="DE32" s="2">
+        <v>6254</v>
+      </c>
     </row>
-    <row r="33" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12310,8 +12405,11 @@
       <c r="DD33" s="2">
         <v>185288</v>
       </c>
+      <c r="DE33" s="2">
+        <v>185815</v>
+      </c>
     </row>
-    <row r="34" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12636,8 +12734,11 @@
       <c r="DD34" s="2">
         <v>4599</v>
       </c>
+      <c r="DE34" s="2">
+        <v>4670</v>
+      </c>
     </row>
-    <row r="35" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -12962,8 +13063,11 @@
       <c r="DD35" s="2">
         <v>1747</v>
       </c>
+      <c r="DE35" s="2">
+        <v>1750</v>
+      </c>
     </row>
-    <row r="36" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13288,8 +13392,11 @@
       <c r="DD36" s="2">
         <v>12501</v>
       </c>
+      <c r="DE36" s="2">
+        <v>12639</v>
+      </c>
     </row>
-    <row r="37" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13614,8 +13721,11 @@
       <c r="DD37" s="2">
         <v>4202</v>
       </c>
+      <c r="DE37" s="2">
+        <v>4206</v>
+      </c>
     </row>
-    <row r="38" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -13940,8 +14050,11 @@
       <c r="DD38" s="2">
         <v>6535</v>
       </c>
+      <c r="DE38" s="2">
+        <v>6571</v>
+      </c>
     </row>
-    <row r="39" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14266,8 +14379,11 @@
       <c r="DD39" s="2">
         <v>19124</v>
       </c>
+      <c r="DE39" s="2">
+        <v>19395</v>
+      </c>
     </row>
-    <row r="40" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14592,8 +14708,11 @@
       <c r="DD40" s="2">
         <v>4953</v>
       </c>
+      <c r="DE40" s="2">
+        <v>4953</v>
+      </c>
     </row>
-    <row r="41" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -14918,8 +15037,11 @@
       <c r="DD41" s="2">
         <v>3457</v>
       </c>
+      <c r="DE41" s="2">
+        <v>3539</v>
+      </c>
     </row>
-    <row r="42" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15244,8 +15366,11 @@
       <c r="DD42" s="2">
         <v>777</v>
       </c>
+      <c r="DE42" s="2">
+        <v>786</v>
+      </c>
     </row>
-    <row r="43" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15570,8 +15695,11 @@
       <c r="DD43" s="2">
         <v>2477</v>
       </c>
+      <c r="DE43" s="2">
+        <v>2486</v>
+      </c>
     </row>
-    <row r="44" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -15896,8 +16024,11 @@
       <c r="DD44" s="2">
         <v>3596</v>
       </c>
+      <c r="DE44" s="2">
+        <v>3619</v>
+      </c>
     </row>
-    <row r="45" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16222,8 +16353,11 @@
       <c r="DD45" s="2">
         <v>625554</v>
       </c>
+      <c r="DE45" s="2">
+        <v>630930</v>
+      </c>
     </row>
-    <row r="46" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16548,8 +16682,11 @@
       <c r="DD46" s="2">
         <v>1462</v>
       </c>
+      <c r="DE46" s="2">
+        <v>1463</v>
+      </c>
     </row>
-    <row r="47" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -16874,8 +17011,11 @@
       <c r="DD47" s="2">
         <v>10446</v>
       </c>
+      <c r="DE47" s="2">
+        <v>10592</v>
+      </c>
     </row>
-    <row r="48" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17200,8 +17340,11 @@
       <c r="DD48" s="2">
         <v>68416</v>
       </c>
+      <c r="DE48" s="2">
+        <v>68893</v>
+      </c>
     </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17526,8 +17669,11 @@
       <c r="DD49" s="2">
         <v>6670</v>
       </c>
+      <c r="DE49" s="2">
+        <v>6760</v>
+      </c>
     </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -17852,8 +17998,11 @@
       <c r="DD50" s="2">
         <v>1896</v>
       </c>
+      <c r="DE50" s="2">
+        <v>1905</v>
+      </c>
     </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18178,8 +18327,11 @@
       <c r="DD51" s="2">
         <v>19154</v>
       </c>
+      <c r="DE51" s="2">
+        <v>19259</v>
+      </c>
     </row>
-    <row r="52" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18504,8 +18656,11 @@
       <c r="DD52" s="2">
         <v>64022</v>
       </c>
+      <c r="DE52" s="2">
+        <v>64293</v>
+      </c>
     </row>
-    <row r="53" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18830,8 +18985,11 @@
       <c r="DD53" s="2">
         <v>963</v>
       </c>
+      <c r="DE53" s="2">
+        <v>965</v>
+      </c>
     </row>
-    <row r="54" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19156,8 +19314,11 @@
       <c r="DD54" s="2">
         <v>3477</v>
       </c>
+      <c r="DE54" s="2">
+        <v>3584</v>
+      </c>
     </row>
-    <row r="55" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19482,8 +19643,11 @@
       <c r="DD55" s="2">
         <v>1958</v>
       </c>
+      <c r="DE55" s="2">
+        <v>1971</v>
+      </c>
     </row>
-    <row r="56" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -19808,8 +19972,11 @@
       <c r="DD56" s="2">
         <v>2965</v>
       </c>
+      <c r="DE56" s="2">
+        <v>2982</v>
+      </c>
     </row>
-    <row r="57" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20134,8 +20301,11 @@
       <c r="DD57" s="2">
         <v>1686</v>
       </c>
+      <c r="DE57" s="2">
+        <v>1693</v>
+      </c>
     </row>
-    <row r="58" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20460,8 +20630,11 @@
       <c r="DD58" s="2">
         <v>1567</v>
       </c>
+      <c r="DE58" s="2">
+        <v>1568</v>
+      </c>
     </row>
-    <row r="59" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -20786,8 +20959,11 @@
       <c r="DD59" s="2">
         <v>1594350</v>
       </c>
+      <c r="DE59" s="2">
+        <v>1604565</v>
+      </c>
     </row>
-    <row r="60" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21112,8 +21288,11 @@
       <c r="DD60" s="2">
         <v>7388</v>
       </c>
+      <c r="DE60" s="2">
+        <v>7419</v>
+      </c>
     </row>
-    <row r="61" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21438,8 +21617,11 @@
       <c r="DD61" s="2">
         <v>7326</v>
       </c>
+      <c r="DE61" s="2">
+        <v>7376</v>
+      </c>
     </row>
-    <row r="62" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -21764,8 +21946,11 @@
       <c r="DD62" s="2">
         <v>5155</v>
       </c>
+      <c r="DE62" s="2">
+        <v>5184</v>
+      </c>
     </row>
-    <row r="63" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -22090,8 +22275,11 @@
       <c r="DD63" s="2">
         <v>1881</v>
       </c>
+      <c r="DE63" s="2">
+        <v>1901</v>
+      </c>
     </row>
-    <row r="64" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22416,8 +22604,11 @@
       <c r="DD64" s="2">
         <v>388907</v>
       </c>
+      <c r="DE64" s="2">
+        <v>393415</v>
+      </c>
     </row>
-    <row r="65" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -22742,8 +22933,11 @@
       <c r="DD65" s="2">
         <v>580</v>
       </c>
+      <c r="DE65" s="2">
+        <v>581</v>
+      </c>
     </row>
-    <row r="66" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -23068,8 +23262,11 @@
       <c r="DD66" s="2">
         <v>5222</v>
       </c>
+      <c r="DE66" s="2">
+        <v>5271</v>
+      </c>
     </row>
-    <row r="67" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -23394,8 +23591,11 @@
       <c r="DD67" s="2">
         <v>1507</v>
       </c>
+      <c r="DE67" s="2">
+        <v>1511</v>
+      </c>
     </row>
-    <row r="68" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -23720,8 +23920,11 @@
       <c r="DD68" s="2">
         <v>13379</v>
       </c>
+      <c r="DE68" s="2">
+        <v>13416</v>
+      </c>
     </row>
-    <row r="69" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -24046,8 +24249,11 @@
       <c r="DD69" s="2">
         <v>5327</v>
       </c>
+      <c r="DE69" s="2">
+        <v>5345</v>
+      </c>
     </row>
-    <row r="70" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -24372,8 +24578,11 @@
       <c r="DD70" s="2">
         <v>55016</v>
       </c>
+      <c r="DE70" s="2">
+        <v>55196</v>
+      </c>
     </row>
-    <row r="71" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -24698,8 +24907,11 @@
       <c r="DD71" s="2">
         <v>1063</v>
       </c>
+      <c r="DE71" s="2">
+        <v>1073</v>
+      </c>
     </row>
-    <row r="72" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -25024,8 +25236,11 @@
       <c r="DD72" s="2">
         <v>642652</v>
       </c>
+      <c r="DE72" s="2">
+        <v>643175</v>
+      </c>
     </row>
-    <row r="73" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -25350,8 +25565,11 @@
       <c r="DD73" s="2">
         <v>105856</v>
       </c>
+      <c r="DE73" s="2">
+        <v>107144</v>
+      </c>
     </row>
-    <row r="74" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -25676,8 +25894,11 @@
       <c r="DD74" s="2">
         <v>15534</v>
       </c>
+      <c r="DE74" s="2">
+        <v>15637</v>
+      </c>
     </row>
-    <row r="75" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -26002,8 +26223,11 @@
       <c r="DD75" s="2">
         <v>10338</v>
       </c>
+      <c r="DE75" s="2">
+        <v>10387</v>
+      </c>
     </row>
-    <row r="76" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -26328,8 +26552,11 @@
       <c r="DD76" s="2">
         <v>18030</v>
       </c>
+      <c r="DE76" s="2">
+        <v>18085</v>
+      </c>
     </row>
-    <row r="77" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -26654,8 +26881,11 @@
       <c r="DD77" s="2">
         <v>10668</v>
       </c>
+      <c r="DE77" s="2">
+        <v>10704</v>
+      </c>
     </row>
-    <row r="78" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -26980,8 +27210,11 @@
       <c r="DD78" s="2">
         <v>1166</v>
       </c>
+      <c r="DE78" s="2">
+        <v>1175</v>
+      </c>
     </row>
-    <row r="79" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -27306,8 +27539,11 @@
       <c r="DD79" s="2">
         <v>1985</v>
       </c>
+      <c r="DE79" s="2">
+        <v>1990</v>
+      </c>
     </row>
-    <row r="80" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -27632,8 +27868,11 @@
       <c r="DD80" s="2">
         <v>723</v>
       </c>
+      <c r="DE80" s="2">
+        <v>752</v>
+      </c>
     </row>
-    <row r="81" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -27958,8 +28197,11 @@
       <c r="DD81" s="2">
         <v>411630</v>
       </c>
+      <c r="DE81" s="2">
+        <v>413784</v>
+      </c>
     </row>
-    <row r="82" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -28284,8 +28526,11 @@
       <c r="DD82" s="2">
         <v>3549</v>
       </c>
+      <c r="DE82" s="2">
+        <v>3596</v>
+      </c>
     </row>
-    <row r="83" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -28610,8 +28855,11 @@
       <c r="DD83" s="2">
         <v>11966</v>
       </c>
+      <c r="DE83" s="2">
+        <v>12037</v>
+      </c>
     </row>
-    <row r="84" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -28936,8 +29184,11 @@
       <c r="DD84" s="2">
         <v>10936</v>
       </c>
+      <c r="DE84" s="2">
+        <v>10973</v>
+      </c>
     </row>
-    <row r="85" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -29262,8 +29513,11 @@
       <c r="DD85" s="2">
         <v>3330</v>
       </c>
+      <c r="DE85" s="2">
+        <v>3334</v>
+      </c>
     </row>
-    <row r="86" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -29588,8 +29842,11 @@
       <c r="DD86" s="2">
         <v>237377</v>
       </c>
+      <c r="DE86" s="2">
+        <v>238846</v>
+      </c>
     </row>
-    <row r="87" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -29914,8 +30171,11 @@
       <c r="DD87" s="2">
         <v>2098</v>
       </c>
+      <c r="DE87" s="2">
+        <v>2111</v>
+      </c>
     </row>
-    <row r="88" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -30240,8 +30500,11 @@
       <c r="DD88" s="2">
         <v>13412</v>
       </c>
+      <c r="DE88" s="2">
+        <v>13501</v>
+      </c>
     </row>
-    <row r="89" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -30566,8 +30829,11 @@
       <c r="DD89" s="2">
         <v>142</v>
       </c>
+      <c r="DE89" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="90" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -30892,8 +31158,11 @@
       <c r="DD90" s="2">
         <v>2703</v>
       </c>
+      <c r="DE90" s="2">
+        <v>2703</v>
+      </c>
     </row>
-    <row r="91" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -31218,8 +31487,11 @@
       <c r="DD91" s="2">
         <v>10300</v>
       </c>
+      <c r="DE91" s="2">
+        <v>10475</v>
+      </c>
     </row>
-    <row r="92" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -31544,8 +31816,11 @@
       <c r="DD92" s="2">
         <v>6779</v>
       </c>
+      <c r="DE92" s="2">
+        <v>6789</v>
+      </c>
     </row>
-    <row r="93" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -31870,8 +32145,11 @@
       <c r="DD93" s="2">
         <v>69056</v>
       </c>
+      <c r="DE93" s="2">
+        <v>69289</v>
+      </c>
     </row>
-    <row r="94" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -32196,8 +32474,11 @@
       <c r="DD94" s="2">
         <v>45258</v>
       </c>
+      <c r="DE94" s="2">
+        <v>45726</v>
+      </c>
     </row>
-    <row r="95" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -32522,8 +32803,11 @@
       <c r="DD95" s="2">
         <v>17517</v>
       </c>
+      <c r="DE95" s="2">
+        <v>17770</v>
+      </c>
     </row>
-    <row r="96" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -32848,8 +33132,11 @@
       <c r="DD96" s="2">
         <v>50727</v>
       </c>
+      <c r="DE96" s="2">
+        <v>51094</v>
+      </c>
     </row>
-    <row r="97" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -33174,8 +33461,11 @@
       <c r="DD97" s="2">
         <v>11139</v>
       </c>
+      <c r="DE97" s="2">
+        <v>11159</v>
+      </c>
     </row>
-    <row r="98" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -33500,8 +33790,11 @@
       <c r="DD98" s="2">
         <v>2069</v>
       </c>
+      <c r="DE98" s="2">
+        <v>2070</v>
+      </c>
     </row>
-    <row r="99" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -33826,8 +34119,11 @@
       <c r="DD99" s="2">
         <v>3919</v>
       </c>
+      <c r="DE99" s="2">
+        <v>3953</v>
+      </c>
     </row>
-    <row r="100" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -34152,8 +34448,11 @@
       <c r="DD100" s="2">
         <v>2179</v>
       </c>
+      <c r="DE100" s="2">
+        <v>2179</v>
+      </c>
     </row>
-    <row r="101" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -34478,8 +34777,11 @@
       <c r="DD101" s="2">
         <v>1628</v>
       </c>
+      <c r="DE101" s="2">
+        <v>1634</v>
+      </c>
     </row>
-    <row r="102" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -34804,8 +35106,11 @@
       <c r="DD102" s="2">
         <v>17383</v>
       </c>
+      <c r="DE102" s="2">
+        <v>17461</v>
+      </c>
     </row>
-    <row r="103" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -35130,8 +35435,11 @@
       <c r="DD103" s="2">
         <v>2593331</v>
       </c>
+      <c r="DE103" s="2">
+        <v>2605283</v>
+      </c>
     </row>
-    <row r="104" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -35456,8 +35764,11 @@
       <c r="DD104" s="2">
         <v>47396</v>
       </c>
+      <c r="DE104" s="2">
+        <v>47850</v>
+      </c>
     </row>
-    <row r="105" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -35782,8 +36093,11 @@
       <c r="DD105" s="2">
         <v>142</v>
       </c>
+      <c r="DE105" s="2">
+        <v>142</v>
+      </c>
     </row>
-    <row r="106" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -36108,8 +36422,11 @@
       <c r="DD106" s="2">
         <v>1802</v>
       </c>
+      <c r="DE106" s="2">
+        <v>1805</v>
+      </c>
     </row>
-    <row r="107" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -36434,8 +36751,11 @@
       <c r="DD107" s="2">
         <v>142996</v>
       </c>
+      <c r="DE107" s="2">
+        <v>144627</v>
+      </c>
     </row>
-    <row r="108" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -36760,8 +37080,11 @@
       <c r="DD108" s="2">
         <v>997</v>
       </c>
+      <c r="DE108" s="2">
+        <v>997</v>
+      </c>
     </row>
-    <row r="109" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -37086,8 +37409,11 @@
       <c r="DD109" s="2">
         <v>21979</v>
       </c>
+      <c r="DE109" s="2">
+        <v>22389</v>
+      </c>
     </row>
-    <row r="110" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -37412,8 +37738,11 @@
       <c r="DD110" s="2">
         <v>336840</v>
       </c>
+      <c r="DE110" s="2">
+        <v>338295</v>
+      </c>
     </row>
-    <row r="111" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -37738,8 +38067,11 @@
       <c r="DD111" s="2">
         <v>27640</v>
       </c>
+      <c r="DE111" s="2">
+        <v>27812</v>
+      </c>
     </row>
-    <row r="112" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -38064,8 +38396,11 @@
       <c r="DD112" s="2">
         <v>7764</v>
       </c>
+      <c r="DE112" s="2">
+        <v>7785</v>
+      </c>
     </row>
-    <row r="113" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -38390,8 +38725,11 @@
       <c r="DD113" s="2">
         <v>33716</v>
       </c>
+      <c r="DE113" s="2">
+        <v>34195</v>
+      </c>
     </row>
-    <row r="114" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -38716,8 +39054,11 @@
       <c r="DD114" s="2">
         <v>13457</v>
       </c>
+      <c r="DE114" s="2">
+        <v>13596</v>
+      </c>
     </row>
-    <row r="115" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -39042,8 +39383,11 @@
       <c r="DD115" s="2">
         <v>12784</v>
       </c>
+      <c r="DE115" s="2">
+        <v>12956</v>
+      </c>
     </row>
-    <row r="116" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -39368,8 +39712,11 @@
       <c r="DD116" s="2">
         <v>12222</v>
       </c>
+      <c r="DE116" s="2">
+        <v>12265</v>
+      </c>
     </row>
-    <row r="117" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -39694,8 +40041,11 @@
       <c r="DD117" s="2">
         <v>2173</v>
       </c>
+      <c r="DE117" s="2">
+        <v>2173</v>
+      </c>
     </row>
-    <row r="118" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -40020,8 +40370,11 @@
       <c r="DD118" s="2">
         <v>50796</v>
       </c>
+      <c r="DE118" s="2">
+        <v>51234</v>
+      </c>
     </row>
-    <row r="119" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -40346,8 +40699,11 @@
       <c r="DD119" s="2">
         <v>8691</v>
       </c>
+      <c r="DE119" s="2">
+        <v>8696</v>
+      </c>
     </row>
-    <row r="120" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -40672,8 +41028,11 @@
       <c r="DD120" s="2">
         <v>406</v>
       </c>
+      <c r="DE120" s="2">
+        <v>409</v>
+      </c>
     </row>
-    <row r="121" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -40998,8 +41357,11 @@
       <c r="DD121" s="2">
         <v>1282</v>
       </c>
+      <c r="DE121" s="2">
+        <v>1295</v>
+      </c>
     </row>
-    <row r="122" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -41324,8 +41686,11 @@
       <c r="DD122" s="2">
         <v>5597</v>
       </c>
+      <c r="DE122" s="2">
+        <v>5605</v>
+      </c>
     </row>
-    <row r="123" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -41650,8 +42015,11 @@
       <c r="DD123" s="2">
         <v>11755</v>
       </c>
+      <c r="DE123" s="2">
+        <v>11838</v>
+      </c>
     </row>
-    <row r="124" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -41976,8 +42344,11 @@
       <c r="DD124" s="2">
         <v>1324</v>
       </c>
+      <c r="DE124" s="2">
+        <v>1325</v>
+      </c>
     </row>
-    <row r="125" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -42302,8 +42673,11 @@
       <c r="DD125" s="2">
         <v>136808</v>
       </c>
+      <c r="DE125" s="2">
+        <v>137174</v>
+      </c>
     </row>
-    <row r="126" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -42628,8 +43002,11 @@
       <c r="DD126" s="2">
         <v>7788</v>
       </c>
+      <c r="DE126" s="2">
+        <v>7800</v>
+      </c>
     </row>
-    <row r="127" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -42954,8 +43331,11 @@
       <c r="DD127" s="2">
         <v>42601</v>
       </c>
+      <c r="DE127" s="2">
+        <v>42722</v>
+      </c>
     </row>
-    <row r="128" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -43280,8 +43660,11 @@
       <c r="DD128" s="2">
         <v>82640</v>
       </c>
+      <c r="DE128" s="2">
+        <v>83232</v>
+      </c>
     </row>
-    <row r="129" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -43606,8 +43989,11 @@
       <c r="DD129" s="2">
         <v>5588</v>
       </c>
+      <c r="DE129" s="2">
+        <v>5610</v>
+      </c>
     </row>
-    <row r="130" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -43932,8 +44318,11 @@
       <c r="DD130" s="2">
         <v>11603</v>
       </c>
+      <c r="DE130" s="2">
+        <v>11630</v>
+      </c>
     </row>
-    <row r="131" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -44258,8 +44647,11 @@
       <c r="DD131" s="2">
         <v>71362</v>
       </c>
+      <c r="DE131" s="2">
+        <v>72094</v>
+      </c>
     </row>
-    <row r="132" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -44584,8 +44976,11 @@
       <c r="DD132" s="2">
         <v>17156</v>
       </c>
+      <c r="DE132" s="2">
+        <v>17288</v>
+      </c>
     </row>
-    <row r="133" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -44910,8 +45305,11 @@
       <c r="DD133" s="2">
         <v>149</v>
       </c>
+      <c r="DE133" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="134" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -45236,8 +45634,11 @@
       <c r="DD134" s="2">
         <v>411</v>
       </c>
+      <c r="DE134" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="135" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -45562,8 +45963,11 @@
       <c r="DD135" s="2">
         <v>32211</v>
       </c>
+      <c r="DE135" s="2">
+        <v>32247</v>
+      </c>
     </row>
-    <row r="136" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -45888,8 +46292,11 @@
       <c r="DD136" s="2">
         <v>1522</v>
       </c>
+      <c r="DE136" s="2">
+        <v>1523</v>
+      </c>
     </row>
-    <row r="137" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -46214,8 +46621,11 @@
       <c r="DD137" s="2">
         <v>39</v>
       </c>
+      <c r="DE137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -46540,8 +46950,11 @@
       <c r="DD138" s="2">
         <v>1236</v>
       </c>
+      <c r="DE138" s="2">
+        <v>1241</v>
+      </c>
     </row>
-    <row r="139" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -46866,8 +47279,11 @@
       <c r="DD139" s="2">
         <v>23147</v>
       </c>
+      <c r="DE139" s="2">
+        <v>23220</v>
+      </c>
     </row>
-    <row r="140" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -47192,8 +47608,11 @@
       <c r="DD140" s="2">
         <v>1804</v>
       </c>
+      <c r="DE140" s="2">
+        <v>1807</v>
+      </c>
     </row>
-    <row r="141" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -47518,8 +47937,11 @@
       <c r="DD141" s="2">
         <v>5171</v>
       </c>
+      <c r="DE141" s="2">
+        <v>5217</v>
+      </c>
     </row>
-    <row r="142" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -47844,8 +48266,11 @@
       <c r="DD142" s="2">
         <v>16839</v>
       </c>
+      <c r="DE142" s="2">
+        <v>17107</v>
+      </c>
     </row>
-    <row r="143" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -48170,8 +48595,11 @@
       <c r="DD143" s="2">
         <v>7025</v>
       </c>
+      <c r="DE143" s="2">
+        <v>7056</v>
+      </c>
     </row>
-    <row r="144" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -48496,8 +48924,11 @@
       <c r="DD144" s="2">
         <v>12525</v>
       </c>
+      <c r="DE144" s="2">
+        <v>12598</v>
+      </c>
     </row>
-    <row r="145" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -48822,8 +49253,11 @@
       <c r="DD145" s="2">
         <v>9597</v>
       </c>
+      <c r="DE145" s="2">
+        <v>9641</v>
+      </c>
     </row>
-    <row r="146" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -49148,8 +49582,11 @@
       <c r="DD146" s="2">
         <v>6172</v>
       </c>
+      <c r="DE146" s="2">
+        <v>6202</v>
+      </c>
     </row>
-    <row r="147" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -49474,8 +49911,11 @@
       <c r="DD147" s="2">
         <v>7079</v>
       </c>
+      <c r="DE147" s="2">
+        <v>7144</v>
+      </c>
     </row>
-    <row r="148" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -49800,8 +50240,11 @@
       <c r="DD148" s="2">
         <v>36932</v>
       </c>
+      <c r="DE148" s="2">
+        <v>37059</v>
+      </c>
     </row>
-    <row r="149" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -50126,8 +50569,11 @@
       <c r="DD149" s="2">
         <v>20402</v>
       </c>
+      <c r="DE149" s="2">
+        <v>20506</v>
+      </c>
     </row>
-    <row r="150" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -50452,8 +50898,11 @@
       <c r="DD150" s="2">
         <v>282</v>
       </c>
+      <c r="DE150" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="151" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -50778,8 +51227,11 @@
       <c r="DD151" s="2">
         <v>4042</v>
       </c>
+      <c r="DE151" s="2">
+        <v>4052</v>
+      </c>
     </row>
-    <row r="152" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -51104,8 +51556,11 @@
       <c r="DD152" s="2">
         <v>7538</v>
       </c>
+      <c r="DE152" s="2">
+        <v>7556</v>
+      </c>
     </row>
-    <row r="153" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -51430,8 +51885,11 @@
       <c r="DD153" s="2">
         <v>23</v>
       </c>
+      <c r="DE153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -51756,8 +52214,11 @@
       <c r="DD154" s="2">
         <v>213595</v>
       </c>
+      <c r="DE154" s="2">
+        <v>214591</v>
+      </c>
     </row>
-    <row r="155" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -52082,8 +52543,11 @@
       <c r="DD155" s="2">
         <v>3166</v>
       </c>
+      <c r="DE155" s="2">
+        <v>3198</v>
+      </c>
     </row>
-    <row r="156" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -52408,8 +52872,11 @@
       <c r="DD156" s="2">
         <v>10065</v>
       </c>
+      <c r="DE156" s="2">
+        <v>10106</v>
+      </c>
     </row>
-    <row r="157" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -52734,8 +53201,11 @@
       <c r="DD157" s="2">
         <v>2419</v>
       </c>
+      <c r="DE157" s="2">
+        <v>2435</v>
+      </c>
     </row>
-    <row r="158" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -53060,8 +53530,11 @@
       <c r="DD158" s="2">
         <v>1307</v>
       </c>
+      <c r="DE158" s="2">
+        <v>1317</v>
+      </c>
     </row>
-    <row r="159" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -53386,8 +53859,11 @@
       <c r="DD159" s="2">
         <v>1670</v>
       </c>
+      <c r="DE159" s="2">
+        <v>1679</v>
+      </c>
     </row>
-    <row r="160" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -53712,8 +54188,11 @@
       <c r="DD160" s="2">
         <v>17332</v>
       </c>
+      <c r="DE160" s="2">
+        <v>17551</v>
+      </c>
     </row>
-    <row r="161" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -54038,8 +54517,11 @@
       <c r="DD161" s="2">
         <v>37741</v>
       </c>
+      <c r="DE161" s="2">
+        <v>38025</v>
+      </c>
     </row>
-    <row r="162" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -54364,8 +54846,11 @@
       <c r="DD162" s="2">
         <v>2390</v>
       </c>
+      <c r="DE162" s="2">
+        <v>2405</v>
+      </c>
     </row>
-    <row r="163" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -54690,8 +55175,11 @@
       <c r="DD163" s="2">
         <v>198884</v>
       </c>
+      <c r="DE163" s="2">
+        <v>199704</v>
+      </c>
     </row>
-    <row r="164" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -55016,8 +55504,11 @@
       <c r="DD164" s="2">
         <v>293</v>
       </c>
+      <c r="DE164" s="2">
+        <v>294</v>
+      </c>
     </row>
-    <row r="165" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -55342,8 +55833,11 @@
       <c r="DD165" s="2">
         <v>18885</v>
       </c>
+      <c r="DE165" s="2">
+        <v>19068</v>
+      </c>
     </row>
-    <row r="166" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -55668,8 +56162,11 @@
       <c r="DD166" s="2">
         <v>1809</v>
       </c>
+      <c r="DE166" s="2">
+        <v>1811</v>
+      </c>
     </row>
-    <row r="167" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -55994,8 +56491,11 @@
       <c r="DD167" s="2">
         <v>54293</v>
       </c>
+      <c r="DE167" s="2">
+        <v>54595</v>
+      </c>
     </row>
-    <row r="168" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -56320,8 +56820,11 @@
       <c r="DD168" s="2">
         <v>12755</v>
       </c>
+      <c r="DE168" s="2">
+        <v>12856</v>
+      </c>
     </row>
-    <row r="169" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -56646,8 +57149,11 @@
       <c r="DD169" s="2">
         <v>3689</v>
       </c>
+      <c r="DE169" s="2">
+        <v>3750</v>
+      </c>
     </row>
-    <row r="170" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -56972,8 +57478,11 @@
       <c r="DD170" s="2">
         <v>5003</v>
       </c>
+      <c r="DE170" s="2">
+        <v>5027</v>
+      </c>
     </row>
-    <row r="171" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -57298,8 +57807,11 @@
       <c r="DD171" s="2">
         <v>8577</v>
       </c>
+      <c r="DE171" s="2">
+        <v>8814</v>
+      </c>
     </row>
-    <row r="172" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -57624,8 +58136,11 @@
       <c r="DD172" s="2">
         <v>242467</v>
       </c>
+      <c r="DE172" s="2">
+        <v>243941</v>
+      </c>
     </row>
-    <row r="173" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -57950,8 +58465,11 @@
       <c r="DD173" s="2">
         <v>7133</v>
       </c>
+      <c r="DE173" s="2">
+        <v>7161</v>
+      </c>
     </row>
-    <row r="174" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -58276,8 +58794,11 @@
       <c r="DD174" s="2">
         <v>5628</v>
       </c>
+      <c r="DE174" s="2">
+        <v>5687</v>
+      </c>
     </row>
-    <row r="175" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -58602,8 +59123,11 @@
       <c r="DD175" s="2">
         <v>474</v>
       </c>
+      <c r="DE175" s="2">
+        <v>475</v>
+      </c>
     </row>
-    <row r="176" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -58928,8 +59452,11 @@
       <c r="DD176" s="2">
         <v>31198</v>
       </c>
+      <c r="DE176" s="2">
+        <v>31345</v>
+      </c>
     </row>
-    <row r="177" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -59254,8 +59781,11 @@
       <c r="DD177" s="2">
         <v>22956</v>
       </c>
+      <c r="DE177" s="2">
+        <v>23132</v>
+      </c>
     </row>
-    <row r="178" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -59580,8 +60110,11 @@
       <c r="DD178" s="2">
         <v>3481</v>
       </c>
+      <c r="DE178" s="2">
+        <v>3501</v>
+      </c>
     </row>
-    <row r="179" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -59906,8 +60439,11 @@
       <c r="DD179" s="2">
         <v>6972</v>
       </c>
+      <c r="DE179" s="2">
+        <v>7045</v>
+      </c>
     </row>
-    <row r="180" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -60232,8 +60768,11 @@
       <c r="DD180" s="2">
         <v>195397</v>
       </c>
+      <c r="DE180" s="2">
+        <v>196290</v>
+      </c>
     </row>
-    <row r="181" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -60558,8 +61097,11 @@
       <c r="DD181" s="2">
         <v>563</v>
       </c>
+      <c r="DE181" s="2">
+        <v>565</v>
+      </c>
     </row>
-    <row r="182" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -60884,8 +61426,11 @@
       <c r="DD182" s="2">
         <v>677</v>
       </c>
+      <c r="DE182" s="2">
+        <v>678</v>
+      </c>
     </row>
-    <row r="183" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -61210,8 +61755,11 @@
       <c r="DD183" s="2">
         <v>25025</v>
       </c>
+      <c r="DE183" s="2">
+        <v>25182</v>
+      </c>
     </row>
-    <row r="184" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -61536,8 +62084,11 @@
       <c r="DD184" s="2">
         <v>11062</v>
       </c>
+      <c r="DE184" s="2">
+        <v>11203</v>
+      </c>
     </row>
-    <row r="185" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -61862,8 +62413,11 @@
       <c r="DD185" s="2">
         <v>7175</v>
       </c>
+      <c r="DE185" s="2">
+        <v>7292</v>
+      </c>
     </row>
-    <row r="186" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -62188,8 +62742,11 @@
       <c r="DD186" s="2">
         <v>50895</v>
       </c>
+      <c r="DE186" s="2">
+        <v>51680</v>
+      </c>
     </row>
-    <row r="187" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -62514,8 +63071,11 @@
       <c r="DD187" s="2">
         <v>2057</v>
       </c>
+      <c r="DE187" s="2">
+        <v>2058</v>
+      </c>
     </row>
-    <row r="188" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -62840,8 +63400,11 @@
       <c r="DD188" s="2">
         <v>7339</v>
       </c>
+      <c r="DE188" s="2">
+        <v>7423</v>
+      </c>
     </row>
-    <row r="189" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -63166,8 +63729,11 @@
       <c r="DD189" s="2">
         <v>22040</v>
       </c>
+      <c r="DE189" s="2">
+        <v>22110</v>
+      </c>
     </row>
-    <row r="190" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -63492,8 +64058,11 @@
       <c r="DD190" s="2">
         <v>61307</v>
       </c>
+      <c r="DE190" s="2">
+        <v>61411</v>
+      </c>
     </row>
-    <row r="191" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -63818,8 +64387,11 @@
       <c r="DD191" s="2">
         <v>6218</v>
       </c>
+      <c r="DE191" s="2">
+        <v>6218</v>
+      </c>
     </row>
-    <row r="192" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -64144,8 +64716,11 @@
       <c r="DD192" s="2">
         <v>2217</v>
       </c>
+      <c r="DE192" s="2">
+        <v>2242</v>
+      </c>
     </row>
-    <row r="193" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -64470,8 +65045,11 @@
       <c r="DD193" s="2">
         <v>42299</v>
       </c>
+      <c r="DE193" s="2">
+        <v>42443</v>
+      </c>
     </row>
-    <row r="194" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -64796,8 +65374,11 @@
       <c r="DD194" s="2">
         <v>1031</v>
       </c>
+      <c r="DE194" s="2">
+        <v>1032</v>
+      </c>
     </row>
-    <row r="195" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -65122,8 +65703,11 @@
       <c r="DD195" s="2">
         <v>1395</v>
       </c>
+      <c r="DE195" s="2">
+        <v>1403</v>
+      </c>
     </row>
-    <row r="196" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -65448,8 +66032,11 @@
       <c r="DD196" s="2">
         <v>4877</v>
       </c>
+      <c r="DE196" s="2">
+        <v>4990</v>
+      </c>
     </row>
-    <row r="197" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -65774,8 +66361,11 @@
       <c r="DD197" s="2">
         <v>3710</v>
       </c>
+      <c r="DE197" s="2">
+        <v>3730</v>
+      </c>
     </row>
-    <row r="198" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -66100,8 +66690,11 @@
       <c r="DD198" s="2">
         <v>4336</v>
       </c>
+      <c r="DE198" s="2">
+        <v>4383</v>
+      </c>
     </row>
-    <row r="199" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -66426,8 +67019,11 @@
       <c r="DD199" s="2">
         <v>121</v>
       </c>
+      <c r="DE199" s="2">
+        <v>122</v>
+      </c>
     </row>
-    <row r="200" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -66752,8 +67348,11 @@
       <c r="DD200" s="2">
         <v>10316</v>
       </c>
+      <c r="DE200" s="2">
+        <v>10374</v>
+      </c>
     </row>
-    <row r="201" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -67078,8 +67677,11 @@
       <c r="DD201" s="2">
         <v>46486</v>
       </c>
+      <c r="DE201" s="2">
+        <v>46903</v>
+      </c>
     </row>
-    <row r="202" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -67404,8 +68006,11 @@
       <c r="DD202" s="2">
         <v>5681</v>
       </c>
+      <c r="DE202" s="2">
+        <v>5707</v>
+      </c>
     </row>
-    <row r="203" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -67730,8 +68335,11 @@
       <c r="DD203" s="2">
         <v>15019</v>
       </c>
+      <c r="DE203" s="2">
+        <v>15113</v>
+      </c>
     </row>
-    <row r="204" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -68056,8 +68664,11 @@
       <c r="DD204" s="2">
         <v>4867</v>
       </c>
+      <c r="DE204" s="2">
+        <v>4877</v>
+      </c>
     </row>
-    <row r="205" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -68382,8 +68993,11 @@
       <c r="DD205" s="2">
         <v>4694</v>
       </c>
+      <c r="DE205" s="2">
+        <v>4705</v>
+      </c>
     </row>
-    <row r="206" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -68708,8 +69322,11 @@
       <c r="DD206" s="2">
         <v>11613</v>
       </c>
+      <c r="DE206" s="2">
+        <v>11662</v>
+      </c>
     </row>
-    <row r="207" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -69034,8 +69651,11 @@
       <c r="DD207" s="2">
         <v>30736</v>
       </c>
+      <c r="DE207" s="2">
+        <v>30901</v>
+      </c>
     </row>
-    <row r="208" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -69360,8 +69980,11 @@
       <c r="DD208" s="2">
         <v>2587</v>
       </c>
+      <c r="DE208" s="2">
+        <v>2612</v>
+      </c>
     </row>
-    <row r="209" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -69686,8 +70309,11 @@
       <c r="DD209" s="2">
         <v>945</v>
       </c>
+      <c r="DE209" s="2">
+        <v>946</v>
+      </c>
     </row>
-    <row r="210" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -70012,8 +70638,11 @@
       <c r="DD210" s="2">
         <v>13904</v>
       </c>
+      <c r="DE210" s="2">
+        <v>13999</v>
+      </c>
     </row>
-    <row r="211" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -70338,8 +70967,11 @@
       <c r="DD211" s="2">
         <v>775</v>
       </c>
+      <c r="DE211" s="2">
+        <v>780</v>
+      </c>
     </row>
-    <row r="212" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -70664,8 +71296,11 @@
       <c r="DD212" s="2">
         <v>9828</v>
       </c>
+      <c r="DE212" s="2">
+        <v>10046</v>
+      </c>
     </row>
-    <row r="213" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -70990,8 +71625,11 @@
       <c r="DD213" s="2">
         <v>167</v>
       </c>
+      <c r="DE213" s="2">
+        <v>167</v>
+      </c>
     </row>
-    <row r="214" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -71316,8 +71954,11 @@
       <c r="DD214" s="2">
         <v>134724</v>
       </c>
+      <c r="DE214" s="2">
+        <v>136618</v>
+      </c>
     </row>
-    <row r="215" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -71642,8 +72283,11 @@
       <c r="DD215" s="2">
         <v>5406</v>
       </c>
+      <c r="DE215" s="2">
+        <v>5473</v>
+      </c>
     </row>
-    <row r="216" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -71968,8 +72612,11 @@
       <c r="DD216" s="2">
         <v>29184</v>
       </c>
+      <c r="DE216" s="2">
+        <v>29727</v>
+      </c>
     </row>
-    <row r="217" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -72294,8 +72941,11 @@
       <c r="DD217" s="2">
         <v>2526</v>
       </c>
+      <c r="DE217" s="2">
+        <v>2543</v>
+      </c>
     </row>
-    <row r="218" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -72620,8 +73270,11 @@
       <c r="DD218" s="2">
         <v>705</v>
       </c>
+      <c r="DE218" s="2">
+        <v>711</v>
+      </c>
     </row>
-    <row r="219" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -72946,8 +73599,11 @@
       <c r="DD219" s="2">
         <v>267</v>
       </c>
+      <c r="DE219" s="2">
+        <v>268</v>
+      </c>
     </row>
-    <row r="220" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -73272,8 +73928,11 @@
       <c r="DD220" s="2">
         <v>1443</v>
       </c>
+      <c r="DE220" s="2">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="221" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -73598,8 +74257,11 @@
       <c r="DD221" s="2">
         <v>3355</v>
       </c>
+      <c r="DE221" s="2">
+        <v>3367</v>
+      </c>
     </row>
-    <row r="222" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -73924,8 +74586,11 @@
       <c r="DD222" s="2">
         <v>1071213</v>
       </c>
+      <c r="DE222" s="2">
+        <v>1081829</v>
+      </c>
     </row>
-    <row r="223" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -74250,8 +74915,11 @@
       <c r="DD223" s="2">
         <v>80313</v>
       </c>
+      <c r="DE223" s="2">
+        <v>80950</v>
+      </c>
     </row>
-    <row r="224" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -74576,8 +75244,11 @@
       <c r="DD224" s="2">
         <v>303</v>
       </c>
+      <c r="DE224" s="2">
+        <v>303</v>
+      </c>
     </row>
-    <row r="225" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -74902,8 +75573,11 @@
       <c r="DD225" s="2">
         <v>3202</v>
       </c>
+      <c r="DE225" s="2">
+        <v>3219</v>
+      </c>
     </row>
-    <row r="226" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -75228,8 +75902,11 @@
       <c r="DD226" s="2">
         <v>236</v>
       </c>
+      <c r="DE226" s="2">
+        <v>237</v>
+      </c>
     </row>
-    <row r="227" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -75554,8 +76231,11 @@
       <c r="DD227" s="2">
         <v>17381</v>
       </c>
+      <c r="DE227" s="2">
+        <v>17713</v>
+      </c>
     </row>
-    <row r="228" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -75880,8 +76560,11 @@
       <c r="DD228" s="2">
         <v>78312</v>
       </c>
+      <c r="DE228" s="2">
+        <v>78878</v>
+      </c>
     </row>
-    <row r="229" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -76206,8 +76889,11 @@
       <c r="DD229" s="2">
         <v>656130</v>
       </c>
+      <c r="DE229" s="2">
+        <v>661098</v>
+      </c>
     </row>
-    <row r="230" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -76532,8 +77218,11 @@
       <c r="DD230" s="2">
         <v>7077</v>
       </c>
+      <c r="DE230" s="2">
+        <v>7126</v>
+      </c>
     </row>
-    <row r="231" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -76858,8 +77547,11 @@
       <c r="DD231" s="2">
         <v>9134</v>
       </c>
+      <c r="DE231" s="2">
+        <v>9155</v>
+      </c>
     </row>
-    <row r="232" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -77184,8 +77876,11 @@
       <c r="DD232" s="2">
         <v>9572</v>
       </c>
+      <c r="DE232" s="2">
+        <v>9717</v>
+      </c>
     </row>
-    <row r="233" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -77510,8 +78205,11 @@
       <c r="DD233" s="2">
         <v>1646</v>
       </c>
+      <c r="DE233" s="2">
+        <v>1653</v>
+      </c>
     </row>
-    <row r="234" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -77836,8 +78534,11 @@
       <c r="DD234" s="2">
         <v>14598</v>
       </c>
+      <c r="DE234" s="2">
+        <v>14742</v>
+      </c>
     </row>
-    <row r="235" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -78162,8 +78863,11 @@
       <c r="DD235" s="2">
         <v>28613</v>
       </c>
+      <c r="DE235" s="2">
+        <v>28793</v>
+      </c>
     </row>
-    <row r="236" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -78488,8 +79192,11 @@
       <c r="DD236" s="2">
         <v>14520</v>
       </c>
+      <c r="DE236" s="2">
+        <v>14651</v>
+      </c>
     </row>
-    <row r="237" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -78814,8 +79521,11 @@
       <c r="DD237" s="2">
         <v>33947</v>
       </c>
+      <c r="DE237" s="2">
+        <v>34016</v>
+      </c>
     </row>
-    <row r="238" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -79140,8 +79850,11 @@
       <c r="DD238" s="2">
         <v>69977</v>
       </c>
+      <c r="DE238" s="2">
+        <v>70428</v>
+      </c>
     </row>
-    <row r="239" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -79466,8 +80179,11 @@
       <c r="DD239" s="2">
         <v>18902</v>
       </c>
+      <c r="DE239" s="2">
+        <v>18977</v>
+      </c>
     </row>
-    <row r="240" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -79792,8 +80508,11 @@
       <c r="DD240" s="2">
         <v>3295</v>
       </c>
+      <c r="DE240" s="2">
+        <v>3334</v>
+      </c>
     </row>
-    <row r="241" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -80118,8 +80837,11 @@
       <c r="DD241" s="2">
         <v>24163</v>
       </c>
+      <c r="DE241" s="2">
+        <v>24288</v>
+      </c>
     </row>
-    <row r="242" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -80444,8 +81166,11 @@
       <c r="DD242" s="2">
         <v>205060</v>
       </c>
+      <c r="DE242" s="2">
+        <v>209072</v>
+      </c>
     </row>
-    <row r="243" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -80770,8 +81495,11 @@
       <c r="DD243" s="2">
         <v>21532</v>
       </c>
+      <c r="DE243" s="2">
+        <v>21609</v>
+      </c>
     </row>
-    <row r="244" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -81096,8 +81824,11 @@
       <c r="DD244" s="2">
         <v>2808</v>
       </c>
+      <c r="DE244" s="2">
+        <v>2821</v>
+      </c>
     </row>
-    <row r="245" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -81422,8 +82153,11 @@
       <c r="DD245" s="2">
         <v>87507</v>
       </c>
+      <c r="DE245" s="2">
+        <v>87914</v>
+      </c>
     </row>
-    <row r="246" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -81748,8 +82482,11 @@
       <c r="DD246" s="2">
         <v>10080</v>
       </c>
+      <c r="DE246" s="2">
+        <v>10185</v>
+      </c>
     </row>
-    <row r="247" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -82074,8 +82811,11 @@
       <c r="DD247" s="2">
         <v>14998</v>
       </c>
+      <c r="DE247" s="2">
+        <v>15056</v>
+      </c>
     </row>
-    <row r="248" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -82400,8 +83140,11 @@
       <c r="DD248" s="2">
         <v>267221</v>
       </c>
+      <c r="DE248" s="2">
+        <v>269280</v>
+      </c>
     </row>
-    <row r="249" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -82726,8 +83469,11 @@
       <c r="DD249" s="2">
         <v>19785</v>
       </c>
+      <c r="DE249" s="2">
+        <v>19972</v>
+      </c>
     </row>
-    <row r="250" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -83052,8 +83798,11 @@
       <c r="DD250" s="2">
         <v>803</v>
       </c>
+      <c r="DE250" s="2">
+        <v>808</v>
+      </c>
     </row>
-    <row r="251" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -83378,8 +84127,11 @@
       <c r="DD251" s="2">
         <v>32318</v>
       </c>
+      <c r="DE251" s="2">
+        <v>32627</v>
+      </c>
     </row>
-    <row r="252" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -83704,8 +84456,11 @@
       <c r="DD252" s="2">
         <v>13483</v>
       </c>
+      <c r="DE252" s="2">
+        <v>13600</v>
+      </c>
     </row>
-    <row r="253" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -84030,8 +84785,11 @@
       <c r="DD253" s="2">
         <v>2255</v>
       </c>
+      <c r="DE253" s="2">
+        <v>2258</v>
+      </c>
     </row>
-    <row r="254" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -84356,8 +85114,11 @@
       <c r="DD254" s="2">
         <v>5659</v>
       </c>
+      <c r="DE254" s="2">
+        <v>5704</v>
+      </c>
     </row>
-    <row r="255" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -84682,8 +85443,11 @@
       <c r="DD255" s="2">
         <v>10725</v>
       </c>
+      <c r="DE255" s="2">
+        <v>11117</v>
+      </c>
     </row>
-    <row r="256" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -85008,8 +85772,11 @@
       <c r="DD256" s="2">
         <v>5571</v>
       </c>
+      <c r="DE256" s="2">
+        <v>5623</v>
+      </c>
     </row>
-    <row r="257" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -85334,8 +86101,11 @@
       <c r="DD257" s="2">
         <v>123211</v>
       </c>
+      <c r="DE257" s="2">
+        <v>123285</v>
+      </c>
     </row>
-    <row r="258" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -85663,8 +86433,11 @@
       <c r="DD258" s="8">
         <v>15419272</v>
       </c>
+      <c r="DE258" s="8">
+        <v>15521258</v>
+      </c>
     </row>
-    <row r="259" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:109" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -85691,7 +86464,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -85699,7 +86472,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -85707,7 +86480,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -85715,7 +86488,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -85723,7 +86496,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -85731,7 +86504,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -85739,7 +86512,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -85747,7 +86520,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -85755,7 +86528,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -85763,7 +86536,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -85771,7 +86544,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -85779,7 +86552,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -85787,7 +86560,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:109" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A7C6C1A-3D01-4D65-93DB-3F655E886C03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B690F98-CCAD-463A-B624-75C91CE7CC95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,10 +1834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DE513"/>
+  <dimension ref="A1:DF513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CS2" workbookViewId="0">
-      <selection activeCell="DC9" sqref="DC9"/>
+    <sheetView tabSelected="1" topLeftCell="CZ236" workbookViewId="0">
+      <selection activeCell="DF258" sqref="DF258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1873,15 +1873,15 @@
     <col min="82" max="90" width="10.69140625" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.84375" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.15234375" customWidth="1"/>
-    <col min="105" max="109" width="10.61328125" style="7" customWidth="1"/>
+    <col min="105" max="110" width="10.61328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2209,8 +2209,11 @@
       <c r="DE2" s="4">
         <v>44194</v>
       </c>
+      <c r="DF2" s="4">
+        <v>44195</v>
+      </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2538,8 +2541,11 @@
       <c r="DE3" s="2">
         <v>43899</v>
       </c>
+      <c r="DF3" s="2">
+        <v>44469</v>
+      </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2867,8 +2873,11 @@
       <c r="DE4" s="2">
         <v>4827</v>
       </c>
+      <c r="DF4" s="2">
+        <v>4850</v>
+      </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3196,8 +3205,11 @@
       <c r="DE5" s="2">
         <v>47011</v>
       </c>
+      <c r="DF5" s="2">
+        <v>47638</v>
+      </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3525,8 +3537,11 @@
       <c r="DE6" s="2">
         <v>8890</v>
       </c>
+      <c r="DF6" s="2">
+        <v>8938</v>
+      </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3854,8 +3869,11 @@
       <c r="DE7" s="2">
         <v>2464</v>
       </c>
+      <c r="DF7" s="2">
+        <v>2502</v>
+      </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4183,8 +4201,11 @@
       <c r="DE8" s="2">
         <v>626</v>
       </c>
+      <c r="DF8" s="2">
+        <v>628</v>
+      </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4512,8 +4533,11 @@
       <c r="DE9" s="2">
         <v>24566</v>
       </c>
+      <c r="DF9" s="2">
+        <v>24697</v>
+      </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4841,8 +4865,11 @@
       <c r="DE10" s="2">
         <v>11909</v>
       </c>
+      <c r="DF10" s="2">
+        <v>12016</v>
+      </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5170,8 +5197,11 @@
       <c r="DE11" s="2">
         <v>1827</v>
       </c>
+      <c r="DF11" s="2">
+        <v>1837</v>
+      </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5499,8 +5529,11 @@
       <c r="DE12" s="2">
         <v>6590</v>
       </c>
+      <c r="DF12" s="2">
+        <v>6639</v>
+      </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5828,8 +5861,11 @@
       <c r="DE13" s="2">
         <v>37571</v>
       </c>
+      <c r="DF13" s="2">
+        <v>38009</v>
+      </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6157,8 +6193,11 @@
       <c r="DE14" s="2">
         <v>1478</v>
       </c>
+      <c r="DF14" s="2">
+        <v>1480</v>
+      </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6486,8 +6525,11 @@
       <c r="DE15" s="2">
         <v>29027</v>
       </c>
+      <c r="DF15" s="2">
+        <v>29101</v>
+      </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6815,8 +6857,11 @@
       <c r="DE16" s="2">
         <v>172174</v>
       </c>
+      <c r="DF16" s="2">
+        <v>173970</v>
+      </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7144,8 +7189,11 @@
       <c r="DE17" s="2">
         <v>1020723</v>
       </c>
+      <c r="DF17" s="2">
+        <v>1026876</v>
+      </c>
     </row>
-    <row r="18" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7473,8 +7521,11 @@
       <c r="DE18" s="2">
         <v>3957</v>
       </c>
+      <c r="DF18" s="2">
+        <v>3991</v>
+      </c>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7802,8 +7853,11 @@
       <c r="DE19" s="2">
         <v>109</v>
       </c>
+      <c r="DF19" s="2">
+        <v>109</v>
+      </c>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8131,8 +8185,11 @@
       <c r="DE20" s="2">
         <v>9933</v>
       </c>
+      <c r="DF20" s="2">
+        <v>10135</v>
+      </c>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8460,8 +8517,11 @@
       <c r="DE21" s="2">
         <v>56121</v>
       </c>
+      <c r="DF21" s="2">
+        <v>56399</v>
+      </c>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8789,8 +8849,11 @@
       <c r="DE22" s="2">
         <v>220919</v>
       </c>
+      <c r="DF22" s="2">
+        <v>221871</v>
+      </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9118,8 +9181,11 @@
       <c r="DE23" s="2">
         <v>158497</v>
       </c>
+      <c r="DF23" s="2">
+        <v>159546</v>
+      </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9447,8 +9513,11 @@
       <c r="DE24" s="2">
         <v>7540</v>
       </c>
+      <c r="DF24" s="2">
+        <v>7544</v>
+      </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9776,8 +9845,11 @@
       <c r="DE25" s="2">
         <v>526</v>
       </c>
+      <c r="DF25" s="2">
+        <v>528</v>
+      </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10105,8 +10177,11 @@
       <c r="DE26" s="2">
         <v>10292</v>
       </c>
+      <c r="DF26" s="2">
+        <v>10490</v>
+      </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10434,8 +10509,11 @@
       <c r="DE27" s="2">
         <v>21008</v>
       </c>
+      <c r="DF27" s="2">
+        <v>21164</v>
+      </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10763,8 +10841,11 @@
       <c r="DE28" s="2">
         <v>9358</v>
       </c>
+      <c r="DF28" s="2">
+        <v>9466</v>
+      </c>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11092,8 +11173,11 @@
       <c r="DE29" s="2">
         <v>22386</v>
       </c>
+      <c r="DF29" s="2">
+        <v>22585</v>
+      </c>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11421,8 +11505,11 @@
       <c r="DE30" s="2">
         <v>22291</v>
       </c>
+      <c r="DF30" s="2">
+        <v>22374</v>
+      </c>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11750,8 +11837,11 @@
       <c r="DE31" s="2">
         <v>11105</v>
       </c>
+      <c r="DF31" s="2">
+        <v>11142</v>
+      </c>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -12079,8 +12169,11 @@
       <c r="DE32" s="2">
         <v>6254</v>
       </c>
+      <c r="DF32" s="2">
+        <v>6320</v>
+      </c>
     </row>
-    <row r="33" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12408,8 +12501,11 @@
       <c r="DE33" s="2">
         <v>185815</v>
       </c>
+      <c r="DF33" s="2">
+        <v>186920</v>
+      </c>
     </row>
-    <row r="34" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12737,8 +12833,11 @@
       <c r="DE34" s="2">
         <v>4670</v>
       </c>
+      <c r="DF34" s="2">
+        <v>4771</v>
+      </c>
     </row>
-    <row r="35" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13066,8 +13165,11 @@
       <c r="DE35" s="2">
         <v>1750</v>
       </c>
+      <c r="DF35" s="2">
+        <v>1764</v>
+      </c>
     </row>
-    <row r="36" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13395,8 +13497,11 @@
       <c r="DE36" s="2">
         <v>12639</v>
       </c>
+      <c r="DF36" s="2">
+        <v>12782</v>
+      </c>
     </row>
-    <row r="37" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13724,8 +13829,11 @@
       <c r="DE37" s="2">
         <v>4206</v>
       </c>
+      <c r="DF37" s="2">
+        <v>4224</v>
+      </c>
     </row>
-    <row r="38" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -14053,8 +14161,11 @@
       <c r="DE38" s="2">
         <v>6571</v>
       </c>
+      <c r="DF38" s="2">
+        <v>6584</v>
+      </c>
     </row>
-    <row r="39" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14382,8 +14493,11 @@
       <c r="DE39" s="2">
         <v>19395</v>
       </c>
+      <c r="DF39" s="2">
+        <v>19717</v>
+      </c>
     </row>
-    <row r="40" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14711,8 +14825,11 @@
       <c r="DE40" s="2">
         <v>4953</v>
       </c>
+      <c r="DF40" s="2">
+        <v>5018</v>
+      </c>
     </row>
-    <row r="41" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15040,8 +15157,11 @@
       <c r="DE41" s="2">
         <v>3539</v>
       </c>
+      <c r="DF41" s="2">
+        <v>3577</v>
+      </c>
     </row>
-    <row r="42" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15369,8 +15489,11 @@
       <c r="DE42" s="2">
         <v>786</v>
       </c>
+      <c r="DF42" s="2">
+        <v>791</v>
+      </c>
     </row>
-    <row r="43" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15698,8 +15821,11 @@
       <c r="DE43" s="2">
         <v>2486</v>
       </c>
+      <c r="DF43" s="2">
+        <v>2488</v>
+      </c>
     </row>
-    <row r="44" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -16027,8 +16153,11 @@
       <c r="DE44" s="2">
         <v>3619</v>
       </c>
+      <c r="DF44" s="2">
+        <v>3689</v>
+      </c>
     </row>
-    <row r="45" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16356,8 +16485,11 @@
       <c r="DE45" s="2">
         <v>630930</v>
       </c>
+      <c r="DF45" s="2">
+        <v>648462</v>
+      </c>
     </row>
-    <row r="46" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16685,8 +16817,11 @@
       <c r="DE46" s="2">
         <v>1463</v>
       </c>
+      <c r="DF46" s="2">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="47" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17014,8 +17149,11 @@
       <c r="DE47" s="2">
         <v>10592</v>
       </c>
+      <c r="DF47" s="2">
+        <v>10644</v>
+      </c>
     </row>
-    <row r="48" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17343,8 +17481,11 @@
       <c r="DE48" s="2">
         <v>68893</v>
       </c>
+      <c r="DF48" s="2">
+        <v>69464</v>
+      </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17672,8 +17813,11 @@
       <c r="DE49" s="2">
         <v>6760</v>
       </c>
+      <c r="DF49" s="2">
+        <v>6803</v>
+      </c>
     </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -18001,8 +18145,11 @@
       <c r="DE50" s="2">
         <v>1905</v>
       </c>
+      <c r="DF50" s="2">
+        <v>1909</v>
+      </c>
     </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18330,8 +18477,11 @@
       <c r="DE51" s="2">
         <v>19259</v>
       </c>
+      <c r="DF51" s="2">
+        <v>19690</v>
+      </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18659,8 +18809,11 @@
       <c r="DE52" s="2">
         <v>64293</v>
       </c>
+      <c r="DF52" s="2">
+        <v>65048</v>
+      </c>
     </row>
-    <row r="53" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -18988,8 +19141,11 @@
       <c r="DE53" s="2">
         <v>965</v>
       </c>
+      <c r="DF53" s="2">
+        <v>972</v>
+      </c>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19317,8 +19473,11 @@
       <c r="DE54" s="2">
         <v>3584</v>
       </c>
+      <c r="DF54" s="2">
+        <v>3596</v>
+      </c>
     </row>
-    <row r="55" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19646,8 +19805,11 @@
       <c r="DE55" s="2">
         <v>1971</v>
       </c>
+      <c r="DF55" s="2">
+        <v>1973</v>
+      </c>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -19975,8 +20137,11 @@
       <c r="DE56" s="2">
         <v>2982</v>
       </c>
+      <c r="DF56" s="2">
+        <v>2990</v>
+      </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20304,8 +20469,11 @@
       <c r="DE57" s="2">
         <v>1693</v>
       </c>
+      <c r="DF57" s="2">
+        <v>1697</v>
+      </c>
     </row>
-    <row r="58" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20633,8 +20801,11 @@
       <c r="DE58" s="2">
         <v>1568</v>
       </c>
+      <c r="DF58" s="2">
+        <v>1569</v>
+      </c>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -20962,8 +21133,11 @@
       <c r="DE59" s="2">
         <v>1604565</v>
       </c>
+      <c r="DF59" s="2">
+        <v>1631959</v>
+      </c>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21291,8 +21465,11 @@
       <c r="DE60" s="2">
         <v>7419</v>
       </c>
+      <c r="DF60" s="2">
+        <v>7430</v>
+      </c>
     </row>
-    <row r="61" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21620,8 +21797,11 @@
       <c r="DE61" s="2">
         <v>7376</v>
       </c>
+      <c r="DF61" s="2">
+        <v>7413</v>
+      </c>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -21949,8 +22129,11 @@
       <c r="DE62" s="2">
         <v>5184</v>
       </c>
+      <c r="DF62" s="2">
+        <v>5195</v>
+      </c>
     </row>
-    <row r="63" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -22278,8 +22461,11 @@
       <c r="DE63" s="2">
         <v>1901</v>
       </c>
+      <c r="DF63" s="2">
+        <v>1989</v>
+      </c>
     </row>
-    <row r="64" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22607,8 +22793,11 @@
       <c r="DE64" s="2">
         <v>393415</v>
       </c>
+      <c r="DF64" s="2">
+        <v>404954</v>
+      </c>
     </row>
-    <row r="65" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -22936,8 +23125,11 @@
       <c r="DE65" s="2">
         <v>581</v>
       </c>
+      <c r="DF65" s="2">
+        <v>582</v>
+      </c>
     </row>
-    <row r="66" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -23265,8 +23457,11 @@
       <c r="DE66" s="2">
         <v>5271</v>
       </c>
+      <c r="DF66" s="2">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="67" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -23594,8 +23789,11 @@
       <c r="DE67" s="2">
         <v>1511</v>
       </c>
+      <c r="DF67" s="2">
+        <v>1513</v>
+      </c>
     </row>
-    <row r="68" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -23923,8 +24121,11 @@
       <c r="DE68" s="2">
         <v>13416</v>
       </c>
+      <c r="DF68" s="2">
+        <v>13467</v>
+      </c>
     </row>
-    <row r="69" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -24252,8 +24453,11 @@
       <c r="DE69" s="2">
         <v>5345</v>
       </c>
+      <c r="DF69" s="2">
+        <v>5377</v>
+      </c>
     </row>
-    <row r="70" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -24581,8 +24785,11 @@
       <c r="DE70" s="2">
         <v>55196</v>
       </c>
+      <c r="DF70" s="2">
+        <v>55405</v>
+      </c>
     </row>
-    <row r="71" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -24910,8 +25117,11 @@
       <c r="DE71" s="2">
         <v>1073</v>
       </c>
+      <c r="DF71" s="2">
+        <v>1078</v>
+      </c>
     </row>
-    <row r="72" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -25239,8 +25449,11 @@
       <c r="DE72" s="2">
         <v>643175</v>
       </c>
+      <c r="DF72" s="2">
+        <v>646081</v>
+      </c>
     </row>
-    <row r="73" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -25568,8 +25781,11 @@
       <c r="DE73" s="2">
         <v>107144</v>
       </c>
+      <c r="DF73" s="2">
+        <v>110303</v>
+      </c>
     </row>
-    <row r="74" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -25897,8 +26113,11 @@
       <c r="DE74" s="2">
         <v>15637</v>
       </c>
+      <c r="DF74" s="2">
+        <v>15951</v>
+      </c>
     </row>
-    <row r="75" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -26226,8 +26445,11 @@
       <c r="DE75" s="2">
         <v>10387</v>
       </c>
+      <c r="DF75" s="2">
+        <v>10518</v>
+      </c>
     </row>
-    <row r="76" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -26555,8 +26777,11 @@
       <c r="DE76" s="2">
         <v>18085</v>
       </c>
+      <c r="DF76" s="2">
+        <v>18255</v>
+      </c>
     </row>
-    <row r="77" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -26884,8 +27109,11 @@
       <c r="DE77" s="2">
         <v>10704</v>
       </c>
+      <c r="DF77" s="2">
+        <v>10787</v>
+      </c>
     </row>
-    <row r="78" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -27213,8 +27441,11 @@
       <c r="DE78" s="2">
         <v>1175</v>
       </c>
+      <c r="DF78" s="2">
+        <v>1180</v>
+      </c>
     </row>
-    <row r="79" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -27542,8 +27773,11 @@
       <c r="DE79" s="2">
         <v>1990</v>
       </c>
+      <c r="DF79" s="2">
+        <v>2007</v>
+      </c>
     </row>
-    <row r="80" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -27871,8 +28105,11 @@
       <c r="DE80" s="2">
         <v>752</v>
       </c>
+      <c r="DF80" s="2">
+        <v>754</v>
+      </c>
     </row>
-    <row r="81" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -28200,8 +28437,11 @@
       <c r="DE81" s="2">
         <v>413784</v>
       </c>
+      <c r="DF81" s="2">
+        <v>417009</v>
+      </c>
     </row>
-    <row r="82" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -28529,8 +28769,11 @@
       <c r="DE82" s="2">
         <v>3596</v>
       </c>
+      <c r="DF82" s="2">
+        <v>3643</v>
+      </c>
     </row>
-    <row r="83" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -28858,8 +29101,11 @@
       <c r="DE83" s="2">
         <v>12037</v>
       </c>
+      <c r="DF83" s="2">
+        <v>12371</v>
+      </c>
     </row>
-    <row r="84" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -29187,8 +29433,11 @@
       <c r="DE84" s="2">
         <v>10973</v>
       </c>
+      <c r="DF84" s="2">
+        <v>11033</v>
+      </c>
     </row>
-    <row r="85" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -29516,8 +29765,11 @@
       <c r="DE85" s="2">
         <v>3334</v>
       </c>
+      <c r="DF85" s="2">
+        <v>3343</v>
+      </c>
     </row>
-    <row r="86" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -29845,8 +30097,11 @@
       <c r="DE86" s="2">
         <v>238846</v>
       </c>
+      <c r="DF86" s="2">
+        <v>240035</v>
+      </c>
     </row>
-    <row r="87" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -30174,8 +30429,11 @@
       <c r="DE87" s="2">
         <v>2111</v>
       </c>
+      <c r="DF87" s="2">
+        <v>2123</v>
+      </c>
     </row>
-    <row r="88" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -30503,8 +30761,11 @@
       <c r="DE88" s="2">
         <v>13501</v>
       </c>
+      <c r="DF88" s="2">
+        <v>13535</v>
+      </c>
     </row>
-    <row r="89" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -30832,8 +31093,11 @@
       <c r="DE89" s="2">
         <v>142</v>
       </c>
+      <c r="DF89" s="2">
+        <v>143</v>
+      </c>
     </row>
-    <row r="90" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -31161,8 +31425,11 @@
       <c r="DE90" s="2">
         <v>2703</v>
       </c>
+      <c r="DF90" s="2">
+        <v>2715</v>
+      </c>
     </row>
-    <row r="91" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -31490,8 +31757,11 @@
       <c r="DE91" s="2">
         <v>10475</v>
       </c>
+      <c r="DF91" s="2">
+        <v>10520</v>
+      </c>
     </row>
-    <row r="92" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -31819,8 +32089,11 @@
       <c r="DE92" s="2">
         <v>6789</v>
       </c>
+      <c r="DF92" s="2">
+        <v>6838</v>
+      </c>
     </row>
-    <row r="93" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -32148,8 +32421,11 @@
       <c r="DE93" s="2">
         <v>69289</v>
       </c>
+      <c r="DF93" s="2">
+        <v>70402</v>
+      </c>
     </row>
-    <row r="94" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -32477,8 +32753,11 @@
       <c r="DE94" s="2">
         <v>45726</v>
       </c>
+      <c r="DF94" s="2">
+        <v>46617</v>
+      </c>
     </row>
-    <row r="95" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -32806,8 +33085,11 @@
       <c r="DE95" s="2">
         <v>17770</v>
       </c>
+      <c r="DF95" s="2">
+        <v>17902</v>
+      </c>
     </row>
-    <row r="96" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -33135,8 +33417,11 @@
       <c r="DE96" s="2">
         <v>51094</v>
       </c>
+      <c r="DF96" s="2">
+        <v>51763</v>
+      </c>
     </row>
-    <row r="97" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -33464,8 +33749,11 @@
       <c r="DE97" s="2">
         <v>11159</v>
       </c>
+      <c r="DF97" s="2">
+        <v>11192</v>
+      </c>
     </row>
-    <row r="98" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -33793,8 +34081,11 @@
       <c r="DE98" s="2">
         <v>2070</v>
       </c>
+      <c r="DF98" s="2">
+        <v>2092</v>
+      </c>
     </row>
-    <row r="99" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -34122,8 +34413,11 @@
       <c r="DE99" s="2">
         <v>3953</v>
       </c>
+      <c r="DF99" s="2">
+        <v>4097</v>
+      </c>
     </row>
-    <row r="100" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -34451,8 +34745,11 @@
       <c r="DE100" s="2">
         <v>2179</v>
       </c>
+      <c r="DF100" s="2">
+        <v>2267</v>
+      </c>
     </row>
-    <row r="101" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -34780,8 +35077,11 @@
       <c r="DE101" s="2">
         <v>1634</v>
       </c>
+      <c r="DF101" s="2">
+        <v>1638</v>
+      </c>
     </row>
-    <row r="102" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -35109,8 +35409,11 @@
       <c r="DE102" s="2">
         <v>17461</v>
       </c>
+      <c r="DF102" s="2">
+        <v>17567</v>
+      </c>
     </row>
-    <row r="103" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -35438,8 +35741,11 @@
       <c r="DE103" s="2">
         <v>2605283</v>
       </c>
+      <c r="DF103" s="2">
+        <v>2616933</v>
+      </c>
     </row>
-    <row r="104" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -35767,8 +36073,11 @@
       <c r="DE104" s="2">
         <v>47850</v>
       </c>
+      <c r="DF104" s="2">
+        <v>48619</v>
+      </c>
     </row>
-    <row r="105" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -36096,8 +36405,11 @@
       <c r="DE105" s="2">
         <v>142</v>
       </c>
+      <c r="DF105" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="106" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -36425,8 +36737,11 @@
       <c r="DE106" s="2">
         <v>1805</v>
       </c>
+      <c r="DF106" s="2">
+        <v>1824</v>
+      </c>
     </row>
-    <row r="107" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -36754,8 +37069,11 @@
       <c r="DE107" s="2">
         <v>144627</v>
       </c>
+      <c r="DF107" s="2">
+        <v>145293</v>
+      </c>
     </row>
-    <row r="108" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -37083,8 +37401,11 @@
       <c r="DE108" s="2">
         <v>997</v>
       </c>
+      <c r="DF108" s="2">
+        <v>998</v>
+      </c>
     </row>
-    <row r="109" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -37412,8 +37733,11 @@
       <c r="DE109" s="2">
         <v>22389</v>
       </c>
+      <c r="DF109" s="2">
+        <v>23096</v>
+      </c>
     </row>
-    <row r="110" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -37741,8 +38065,11 @@
       <c r="DE110" s="2">
         <v>338295</v>
       </c>
+      <c r="DF110" s="2">
+        <v>339011</v>
+      </c>
     </row>
-    <row r="111" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -38070,8 +38397,11 @@
       <c r="DE111" s="2">
         <v>27812</v>
       </c>
+      <c r="DF111" s="2">
+        <v>28288</v>
+      </c>
     </row>
-    <row r="112" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -38399,8 +38729,11 @@
       <c r="DE112" s="2">
         <v>7785</v>
       </c>
+      <c r="DF112" s="2">
+        <v>7836</v>
+      </c>
     </row>
-    <row r="113" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -38728,8 +39061,11 @@
       <c r="DE113" s="2">
         <v>34195</v>
       </c>
+      <c r="DF113" s="2">
+        <v>35040</v>
+      </c>
     </row>
-    <row r="114" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -39057,8 +39393,11 @@
       <c r="DE114" s="2">
         <v>13596</v>
       </c>
+      <c r="DF114" s="2">
+        <v>14072</v>
+      </c>
     </row>
-    <row r="115" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -39386,8 +39725,11 @@
       <c r="DE115" s="2">
         <v>12956</v>
       </c>
+      <c r="DF115" s="2">
+        <v>13032</v>
+      </c>
     </row>
-    <row r="116" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -39715,8 +40057,11 @@
       <c r="DE116" s="2">
         <v>12265</v>
       </c>
+      <c r="DF116" s="2">
+        <v>12293</v>
+      </c>
     </row>
-    <row r="117" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -40044,8 +40389,11 @@
       <c r="DE117" s="2">
         <v>2173</v>
       </c>
+      <c r="DF117" s="2">
+        <v>2177</v>
+      </c>
     </row>
-    <row r="118" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -40373,8 +40721,11 @@
       <c r="DE118" s="2">
         <v>51234</v>
       </c>
+      <c r="DF118" s="2">
+        <v>52869</v>
+      </c>
     </row>
-    <row r="119" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -40702,8 +41053,11 @@
       <c r="DE119" s="2">
         <v>8696</v>
       </c>
+      <c r="DF119" s="2">
+        <v>8781</v>
+      </c>
     </row>
-    <row r="120" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -41031,8 +41385,11 @@
       <c r="DE120" s="2">
         <v>409</v>
       </c>
+      <c r="DF120" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="121" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -41360,8 +41717,11 @@
       <c r="DE121" s="2">
         <v>1295</v>
       </c>
+      <c r="DF121" s="2">
+        <v>1311</v>
+      </c>
     </row>
-    <row r="122" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -41689,8 +42049,11 @@
       <c r="DE122" s="2">
         <v>5605</v>
       </c>
+      <c r="DF122" s="2">
+        <v>5645</v>
+      </c>
     </row>
-    <row r="123" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -42018,8 +42381,11 @@
       <c r="DE123" s="2">
         <v>11838</v>
       </c>
+      <c r="DF123" s="2">
+        <v>12028</v>
+      </c>
     </row>
-    <row r="124" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -42347,8 +42713,11 @@
       <c r="DE124" s="2">
         <v>1325</v>
       </c>
+      <c r="DF124" s="2">
+        <v>1325</v>
+      </c>
     </row>
-    <row r="125" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -42676,8 +43045,11 @@
       <c r="DE125" s="2">
         <v>137174</v>
       </c>
+      <c r="DF125" s="2">
+        <v>137721</v>
+      </c>
     </row>
-    <row r="126" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -43005,8 +43377,11 @@
       <c r="DE126" s="2">
         <v>7800</v>
       </c>
+      <c r="DF126" s="2">
+        <v>7804</v>
+      </c>
     </row>
-    <row r="127" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -43334,8 +43709,11 @@
       <c r="DE127" s="2">
         <v>42722</v>
       </c>
+      <c r="DF127" s="2">
+        <v>43015</v>
+      </c>
     </row>
-    <row r="128" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -43663,8 +44041,11 @@
       <c r="DE128" s="2">
         <v>83232</v>
       </c>
+      <c r="DF128" s="2">
+        <v>85474</v>
+      </c>
     </row>
-    <row r="129" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -43992,8 +44373,11 @@
       <c r="DE129" s="2">
         <v>5610</v>
       </c>
+      <c r="DF129" s="2">
+        <v>5697</v>
+      </c>
     </row>
-    <row r="130" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -44321,8 +44705,11 @@
       <c r="DE130" s="2">
         <v>11630</v>
       </c>
+      <c r="DF130" s="2">
+        <v>11665</v>
+      </c>
     </row>
-    <row r="131" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -44650,8 +45037,11 @@
       <c r="DE131" s="2">
         <v>72094</v>
       </c>
+      <c r="DF131" s="2">
+        <v>73894</v>
+      </c>
     </row>
-    <row r="132" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -44979,8 +45369,11 @@
       <c r="DE132" s="2">
         <v>17288</v>
       </c>
+      <c r="DF132" s="2">
+        <v>17417</v>
+      </c>
     </row>
-    <row r="133" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -45308,8 +45701,11 @@
       <c r="DE133" s="2">
         <v>150</v>
       </c>
+      <c r="DF133" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="134" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -45637,8 +46033,11 @@
       <c r="DE134" s="2">
         <v>411</v>
       </c>
+      <c r="DF134" s="2">
+        <v>411</v>
+      </c>
     </row>
-    <row r="135" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -45966,8 +46365,11 @@
       <c r="DE135" s="2">
         <v>32247</v>
       </c>
+      <c r="DF135" s="2">
+        <v>32420</v>
+      </c>
     </row>
-    <row r="136" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -46295,8 +46697,11 @@
       <c r="DE136" s="2">
         <v>1523</v>
       </c>
+      <c r="DF136" s="2">
+        <v>1524</v>
+      </c>
     </row>
-    <row r="137" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -46624,8 +47029,11 @@
       <c r="DE137" s="2">
         <v>39</v>
       </c>
+      <c r="DF137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -46953,8 +47361,11 @@
       <c r="DE138" s="2">
         <v>1241</v>
       </c>
+      <c r="DF138" s="2">
+        <v>1249</v>
+      </c>
     </row>
-    <row r="139" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -47282,8 +47693,11 @@
       <c r="DE139" s="2">
         <v>23220</v>
       </c>
+      <c r="DF139" s="2">
+        <v>23308</v>
+      </c>
     </row>
-    <row r="140" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -47611,8 +48025,11 @@
       <c r="DE140" s="2">
         <v>1807</v>
       </c>
+      <c r="DF140" s="2">
+        <v>1807</v>
+      </c>
     </row>
-    <row r="141" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -47940,8 +48357,11 @@
       <c r="DE141" s="2">
         <v>5217</v>
       </c>
+      <c r="DF141" s="2">
+        <v>5266</v>
+      </c>
     </row>
-    <row r="142" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -48269,8 +48689,11 @@
       <c r="DE142" s="2">
         <v>17107</v>
       </c>
+      <c r="DF142" s="2">
+        <v>17784</v>
+      </c>
     </row>
-    <row r="143" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -48598,8 +49021,11 @@
       <c r="DE143" s="2">
         <v>7056</v>
       </c>
+      <c r="DF143" s="2">
+        <v>7088</v>
+      </c>
     </row>
-    <row r="144" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -48927,8 +49353,11 @@
       <c r="DE144" s="2">
         <v>12598</v>
       </c>
+      <c r="DF144" s="2">
+        <v>12774</v>
+      </c>
     </row>
-    <row r="145" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -49256,8 +49685,11 @@
       <c r="DE145" s="2">
         <v>9641</v>
       </c>
+      <c r="DF145" s="2">
+        <v>9685</v>
+      </c>
     </row>
-    <row r="146" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -49585,8 +50017,11 @@
       <c r="DE146" s="2">
         <v>6202</v>
       </c>
+      <c r="DF146" s="2">
+        <v>6251</v>
+      </c>
     </row>
-    <row r="147" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -49914,8 +50349,11 @@
       <c r="DE147" s="2">
         <v>7144</v>
       </c>
+      <c r="DF147" s="2">
+        <v>7285</v>
+      </c>
     </row>
-    <row r="148" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -50243,8 +50681,11 @@
       <c r="DE148" s="2">
         <v>37059</v>
       </c>
+      <c r="DF148" s="2">
+        <v>37183</v>
+      </c>
     </row>
-    <row r="149" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -50572,8 +51013,11 @@
       <c r="DE149" s="2">
         <v>20506</v>
       </c>
+      <c r="DF149" s="2">
+        <v>20935</v>
+      </c>
     </row>
-    <row r="150" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -50901,8 +51345,11 @@
       <c r="DE150" s="2">
         <v>286</v>
       </c>
+      <c r="DF150" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="151" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -51230,8 +51677,11 @@
       <c r="DE151" s="2">
         <v>4052</v>
       </c>
+      <c r="DF151" s="2">
+        <v>4066</v>
+      </c>
     </row>
-    <row r="152" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -51559,8 +52009,11 @@
       <c r="DE152" s="2">
         <v>7556</v>
       </c>
+      <c r="DF152" s="2">
+        <v>7626</v>
+      </c>
     </row>
-    <row r="153" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -51888,8 +52341,11 @@
       <c r="DE153" s="2">
         <v>23</v>
       </c>
+      <c r="DF153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -52217,8 +52673,11 @@
       <c r="DE154" s="2">
         <v>214591</v>
       </c>
+      <c r="DF154" s="2">
+        <v>215847</v>
+      </c>
     </row>
-    <row r="155" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -52546,8 +53005,11 @@
       <c r="DE155" s="2">
         <v>3198</v>
       </c>
+      <c r="DF155" s="2">
+        <v>3213</v>
+      </c>
     </row>
-    <row r="156" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -52875,8 +53337,11 @@
       <c r="DE156" s="2">
         <v>10106</v>
       </c>
+      <c r="DF156" s="2">
+        <v>10142</v>
+      </c>
     </row>
-    <row r="157" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -53204,8 +53669,11 @@
       <c r="DE157" s="2">
         <v>2435</v>
       </c>
+      <c r="DF157" s="2">
+        <v>2482</v>
+      </c>
     </row>
-    <row r="158" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -53533,8 +54001,11 @@
       <c r="DE158" s="2">
         <v>1317</v>
       </c>
+      <c r="DF158" s="2">
+        <v>1323</v>
+      </c>
     </row>
-    <row r="159" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -53862,8 +54333,11 @@
       <c r="DE159" s="2">
         <v>1679</v>
       </c>
+      <c r="DF159" s="2">
+        <v>1691</v>
+      </c>
     </row>
-    <row r="160" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -54191,8 +54665,11 @@
       <c r="DE160" s="2">
         <v>17551</v>
       </c>
+      <c r="DF160" s="2">
+        <v>17586</v>
+      </c>
     </row>
-    <row r="161" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -54520,8 +54997,11 @@
       <c r="DE161" s="2">
         <v>38025</v>
       </c>
+      <c r="DF161" s="2">
+        <v>38226</v>
+      </c>
     </row>
-    <row r="162" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -54849,8 +55329,11 @@
       <c r="DE162" s="2">
         <v>2405</v>
       </c>
+      <c r="DF162" s="2">
+        <v>2417</v>
+      </c>
     </row>
-    <row r="163" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -55178,8 +55661,11 @@
       <c r="DE163" s="2">
         <v>199704</v>
       </c>
+      <c r="DF163" s="2">
+        <v>202815</v>
+      </c>
     </row>
-    <row r="164" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -55507,8 +55993,11 @@
       <c r="DE164" s="2">
         <v>294</v>
       </c>
+      <c r="DF164" s="2">
+        <v>295</v>
+      </c>
     </row>
-    <row r="165" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -55836,8 +56325,11 @@
       <c r="DE165" s="2">
         <v>19068</v>
       </c>
+      <c r="DF165" s="2">
+        <v>19151</v>
+      </c>
     </row>
-    <row r="166" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -56165,8 +56657,11 @@
       <c r="DE166" s="2">
         <v>1811</v>
       </c>
+      <c r="DF166" s="2">
+        <v>1813</v>
+      </c>
     </row>
-    <row r="167" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -56494,8 +56989,11 @@
       <c r="DE167" s="2">
         <v>54595</v>
       </c>
+      <c r="DF167" s="2">
+        <v>54799</v>
+      </c>
     </row>
-    <row r="168" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -56823,8 +57321,11 @@
       <c r="DE168" s="2">
         <v>12856</v>
       </c>
+      <c r="DF168" s="2">
+        <v>12925</v>
+      </c>
     </row>
-    <row r="169" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -57152,8 +57653,11 @@
       <c r="DE169" s="2">
         <v>3750</v>
       </c>
+      <c r="DF169" s="2">
+        <v>3769</v>
+      </c>
     </row>
-    <row r="170" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -57481,8 +57985,11 @@
       <c r="DE170" s="2">
         <v>5027</v>
       </c>
+      <c r="DF170" s="2">
+        <v>5064</v>
+      </c>
     </row>
-    <row r="171" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -57810,8 +58317,11 @@
       <c r="DE171" s="2">
         <v>8814</v>
       </c>
+      <c r="DF171" s="2">
+        <v>9045</v>
+      </c>
     </row>
-    <row r="172" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -58139,8 +58649,11 @@
       <c r="DE172" s="2">
         <v>243941</v>
       </c>
+      <c r="DF172" s="2">
+        <v>245097</v>
+      </c>
     </row>
-    <row r="173" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -58468,8 +58981,11 @@
       <c r="DE173" s="2">
         <v>7161</v>
       </c>
+      <c r="DF173" s="2">
+        <v>7215</v>
+      </c>
     </row>
-    <row r="174" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -58797,8 +59313,11 @@
       <c r="DE174" s="2">
         <v>5687</v>
       </c>
+      <c r="DF174" s="2">
+        <v>5880</v>
+      </c>
     </row>
-    <row r="175" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -59126,8 +59645,11 @@
       <c r="DE175" s="2">
         <v>475</v>
       </c>
+      <c r="DF175" s="2">
+        <v>475</v>
+      </c>
     </row>
-    <row r="176" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -59455,8 +59977,11 @@
       <c r="DE176" s="2">
         <v>31345</v>
       </c>
+      <c r="DF176" s="2">
+        <v>31532</v>
+      </c>
     </row>
-    <row r="177" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -59784,8 +60309,11 @@
       <c r="DE177" s="2">
         <v>23132</v>
       </c>
+      <c r="DF177" s="2">
+        <v>23619</v>
+      </c>
     </row>
-    <row r="178" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -60113,8 +60641,11 @@
       <c r="DE178" s="2">
         <v>3501</v>
       </c>
+      <c r="DF178" s="2">
+        <v>3526</v>
+      </c>
     </row>
-    <row r="179" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -60442,8 +60973,11 @@
       <c r="DE179" s="2">
         <v>7045</v>
       </c>
+      <c r="DF179" s="2">
+        <v>7070</v>
+      </c>
     </row>
-    <row r="180" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -60771,8 +61305,11 @@
       <c r="DE180" s="2">
         <v>196290</v>
       </c>
+      <c r="DF180" s="2">
+        <v>197554</v>
+      </c>
     </row>
-    <row r="181" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -61100,8 +61637,11 @@
       <c r="DE181" s="2">
         <v>565</v>
       </c>
+      <c r="DF181" s="2">
+        <v>576</v>
+      </c>
     </row>
-    <row r="182" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -61429,8 +61969,11 @@
       <c r="DE182" s="2">
         <v>678</v>
       </c>
+      <c r="DF182" s="2">
+        <v>681</v>
+      </c>
     </row>
-    <row r="183" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -61758,8 +62301,11 @@
       <c r="DE183" s="2">
         <v>25182</v>
       </c>
+      <c r="DF183" s="2">
+        <v>25320</v>
+      </c>
     </row>
-    <row r="184" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -62087,8 +62633,11 @@
       <c r="DE184" s="2">
         <v>11203</v>
       </c>
+      <c r="DF184" s="2">
+        <v>11501</v>
+      </c>
     </row>
-    <row r="185" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -62416,8 +62965,11 @@
       <c r="DE185" s="2">
         <v>7292</v>
       </c>
+      <c r="DF185" s="2">
+        <v>7511</v>
+      </c>
     </row>
-    <row r="186" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -62745,8 +63297,11 @@
       <c r="DE186" s="2">
         <v>51680</v>
       </c>
+      <c r="DF186" s="2">
+        <v>53842</v>
+      </c>
     </row>
-    <row r="187" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -63074,8 +63629,11 @@
       <c r="DE187" s="2">
         <v>2058</v>
       </c>
+      <c r="DF187" s="2">
+        <v>2074</v>
+      </c>
     </row>
-    <row r="188" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -63403,8 +63961,11 @@
       <c r="DE188" s="2">
         <v>7423</v>
       </c>
+      <c r="DF188" s="2">
+        <v>7430</v>
+      </c>
     </row>
-    <row r="189" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -63732,8 +64293,11 @@
       <c r="DE189" s="2">
         <v>22110</v>
       </c>
+      <c r="DF189" s="2">
+        <v>22189</v>
+      </c>
     </row>
-    <row r="190" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -64061,8 +64625,11 @@
       <c r="DE190" s="2">
         <v>61411</v>
       </c>
+      <c r="DF190" s="2">
+        <v>61709</v>
+      </c>
     </row>
-    <row r="191" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -64390,8 +64957,11 @@
       <c r="DE191" s="2">
         <v>6218</v>
       </c>
+      <c r="DF191" s="2">
+        <v>6219</v>
+      </c>
     </row>
-    <row r="192" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -64719,8 +65289,11 @@
       <c r="DE192" s="2">
         <v>2242</v>
       </c>
+      <c r="DF192" s="2">
+        <v>2333</v>
+      </c>
     </row>
-    <row r="193" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -65048,8 +65621,11 @@
       <c r="DE193" s="2">
         <v>42443</v>
       </c>
+      <c r="DF193" s="2">
+        <v>42725</v>
+      </c>
     </row>
-    <row r="194" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -65377,8 +65953,11 @@
       <c r="DE194" s="2">
         <v>1032</v>
       </c>
+      <c r="DF194" s="2">
+        <v>1037</v>
+      </c>
     </row>
-    <row r="195" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -65706,8 +66285,11 @@
       <c r="DE195" s="2">
         <v>1403</v>
       </c>
+      <c r="DF195" s="2">
+        <v>1417</v>
+      </c>
     </row>
-    <row r="196" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -66035,8 +66617,11 @@
       <c r="DE196" s="2">
         <v>4990</v>
       </c>
+      <c r="DF196" s="2">
+        <v>5085</v>
+      </c>
     </row>
-    <row r="197" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -66364,8 +66949,11 @@
       <c r="DE197" s="2">
         <v>3730</v>
       </c>
+      <c r="DF197" s="2">
+        <v>3734</v>
+      </c>
     </row>
-    <row r="198" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -66693,8 +67281,11 @@
       <c r="DE198" s="2">
         <v>4383</v>
       </c>
+      <c r="DF198" s="2">
+        <v>4398</v>
+      </c>
     </row>
-    <row r="199" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -67022,8 +67613,11 @@
       <c r="DE199" s="2">
         <v>122</v>
       </c>
+      <c r="DF199" s="2">
+        <v>124</v>
+      </c>
     </row>
-    <row r="200" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -67351,8 +67945,11 @@
       <c r="DE200" s="2">
         <v>10374</v>
       </c>
+      <c r="DF200" s="2">
+        <v>10577</v>
+      </c>
     </row>
-    <row r="201" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -67680,8 +68277,11 @@
       <c r="DE201" s="2">
         <v>46903</v>
       </c>
+      <c r="DF201" s="2">
+        <v>48938</v>
+      </c>
     </row>
-    <row r="202" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -68009,8 +68609,11 @@
       <c r="DE202" s="2">
         <v>5707</v>
       </c>
+      <c r="DF202" s="2">
+        <v>5738</v>
+      </c>
     </row>
-    <row r="203" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -68338,8 +68941,11 @@
       <c r="DE203" s="2">
         <v>15113</v>
       </c>
+      <c r="DF203" s="2">
+        <v>15484</v>
+      </c>
     </row>
-    <row r="204" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -68667,8 +69273,11 @@
       <c r="DE204" s="2">
         <v>4877</v>
       </c>
+      <c r="DF204" s="2">
+        <v>5008</v>
+      </c>
     </row>
-    <row r="205" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -68996,8 +69605,11 @@
       <c r="DE205" s="2">
         <v>4705</v>
       </c>
+      <c r="DF205" s="2">
+        <v>4723</v>
+      </c>
     </row>
-    <row r="206" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -69325,8 +69937,11 @@
       <c r="DE206" s="2">
         <v>11662</v>
       </c>
+      <c r="DF206" s="2">
+        <v>11713</v>
+      </c>
     </row>
-    <row r="207" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -69654,8 +70269,11 @@
       <c r="DE207" s="2">
         <v>30901</v>
       </c>
+      <c r="DF207" s="2">
+        <v>31123</v>
+      </c>
     </row>
-    <row r="208" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -69983,8 +70601,11 @@
       <c r="DE208" s="2">
         <v>2612</v>
       </c>
+      <c r="DF208" s="2">
+        <v>2630</v>
+      </c>
     </row>
-    <row r="209" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -70312,8 +70933,11 @@
       <c r="DE209" s="2">
         <v>946</v>
       </c>
+      <c r="DF209" s="2">
+        <v>950</v>
+      </c>
     </row>
-    <row r="210" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -70641,8 +71265,11 @@
       <c r="DE210" s="2">
         <v>13999</v>
       </c>
+      <c r="DF210" s="2">
+        <v>14013</v>
+      </c>
     </row>
-    <row r="211" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -70970,8 +71597,11 @@
       <c r="DE211" s="2">
         <v>780</v>
       </c>
+      <c r="DF211" s="2">
+        <v>784</v>
+      </c>
     </row>
-    <row r="212" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -71299,8 +71929,11 @@
       <c r="DE212" s="2">
         <v>10046</v>
       </c>
+      <c r="DF212" s="2">
+        <v>10115</v>
+      </c>
     </row>
-    <row r="213" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -71628,8 +72261,11 @@
       <c r="DE213" s="2">
         <v>167</v>
       </c>
+      <c r="DF213" s="2">
+        <v>171</v>
+      </c>
     </row>
-    <row r="214" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -71957,8 +72593,11 @@
       <c r="DE214" s="2">
         <v>136618</v>
       </c>
+      <c r="DF214" s="2">
+        <v>139947</v>
+      </c>
     </row>
-    <row r="215" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -72286,8 +72925,11 @@
       <c r="DE215" s="2">
         <v>5473</v>
       </c>
+      <c r="DF215" s="2">
+        <v>5563</v>
+      </c>
     </row>
-    <row r="216" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -72615,8 +73257,11 @@
       <c r="DE216" s="2">
         <v>29727</v>
       </c>
+      <c r="DF216" s="2">
+        <v>29763</v>
+      </c>
     </row>
-    <row r="217" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -72944,8 +73589,11 @@
       <c r="DE217" s="2">
         <v>2543</v>
       </c>
+      <c r="DF217" s="2">
+        <v>2611</v>
+      </c>
     </row>
-    <row r="218" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -73273,8 +73921,11 @@
       <c r="DE218" s="2">
         <v>711</v>
       </c>
+      <c r="DF218" s="2">
+        <v>714</v>
+      </c>
     </row>
-    <row r="219" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -73602,8 +74253,11 @@
       <c r="DE219" s="2">
         <v>268</v>
       </c>
+      <c r="DF219" s="2">
+        <v>271</v>
+      </c>
     </row>
-    <row r="220" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -73931,8 +74585,11 @@
       <c r="DE220" s="2">
         <v>1454</v>
       </c>
+      <c r="DF220" s="2">
+        <v>1457</v>
+      </c>
     </row>
-    <row r="221" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -74260,8 +74917,11 @@
       <c r="DE221" s="2">
         <v>3367</v>
       </c>
+      <c r="DF221" s="2">
+        <v>3374</v>
+      </c>
     </row>
-    <row r="222" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -74589,8 +75249,11 @@
       <c r="DE222" s="2">
         <v>1081829</v>
       </c>
+      <c r="DF222" s="2">
+        <v>1109163</v>
+      </c>
     </row>
-    <row r="223" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -74918,8 +75581,11 @@
       <c r="DE223" s="2">
         <v>80950</v>
       </c>
+      <c r="DF223" s="2">
+        <v>81792</v>
+      </c>
     </row>
-    <row r="224" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -75247,8 +75913,11 @@
       <c r="DE224" s="2">
         <v>303</v>
       </c>
+      <c r="DF224" s="2">
+        <v>304</v>
+      </c>
     </row>
-    <row r="225" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -75576,8 +76245,11 @@
       <c r="DE225" s="2">
         <v>3219</v>
       </c>
+      <c r="DF225" s="2">
+        <v>3230</v>
+      </c>
     </row>
-    <row r="226" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -75905,8 +76577,11 @@
       <c r="DE226" s="2">
         <v>237</v>
       </c>
+      <c r="DF226" s="2">
+        <v>240</v>
+      </c>
     </row>
-    <row r="227" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -76234,8 +76909,11 @@
       <c r="DE227" s="2">
         <v>17713</v>
       </c>
+      <c r="DF227" s="2">
+        <v>17874</v>
+      </c>
     </row>
-    <row r="228" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -76563,8 +77241,11 @@
       <c r="DE228" s="2">
         <v>78878</v>
       </c>
+      <c r="DF228" s="2">
+        <v>79366</v>
+      </c>
     </row>
-    <row r="229" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -76892,8 +77573,11 @@
       <c r="DE229" s="2">
         <v>661098</v>
       </c>
+      <c r="DF229" s="2">
+        <v>666546</v>
+      </c>
     </row>
-    <row r="230" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -77221,8 +77905,11 @@
       <c r="DE230" s="2">
         <v>7126</v>
       </c>
+      <c r="DF230" s="2">
+        <v>7205</v>
+      </c>
     </row>
-    <row r="231" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -77550,8 +78237,11 @@
       <c r="DE231" s="2">
         <v>9155</v>
       </c>
+      <c r="DF231" s="2">
+        <v>9269</v>
+      </c>
     </row>
-    <row r="232" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -77879,8 +78569,11 @@
       <c r="DE232" s="2">
         <v>9717</v>
       </c>
+      <c r="DF232" s="2">
+        <v>10138</v>
+      </c>
     </row>
-    <row r="233" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -78208,8 +78901,11 @@
       <c r="DE233" s="2">
         <v>1653</v>
       </c>
+      <c r="DF233" s="2">
+        <v>1668</v>
+      </c>
     </row>
-    <row r="234" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -78537,8 +79233,11 @@
       <c r="DE234" s="2">
         <v>14742</v>
       </c>
+      <c r="DF234" s="2">
+        <v>14855</v>
+      </c>
     </row>
-    <row r="235" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -78866,8 +79565,11 @@
       <c r="DE235" s="2">
         <v>28793</v>
       </c>
+      <c r="DF235" s="2">
+        <v>29071</v>
+      </c>
     </row>
-    <row r="236" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -79195,8 +79897,11 @@
       <c r="DE236" s="2">
         <v>14651</v>
       </c>
+      <c r="DF236" s="2">
+        <v>15384</v>
+      </c>
     </row>
-    <row r="237" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -79524,8 +80229,11 @@
       <c r="DE237" s="2">
         <v>34016</v>
       </c>
+      <c r="DF237" s="2">
+        <v>34215</v>
+      </c>
     </row>
-    <row r="238" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -79853,8 +80561,11 @@
       <c r="DE238" s="2">
         <v>70428</v>
       </c>
+      <c r="DF238" s="2">
+        <v>70674</v>
+      </c>
     </row>
-    <row r="239" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -80182,8 +80893,11 @@
       <c r="DE239" s="2">
         <v>18977</v>
       </c>
+      <c r="DF239" s="2">
+        <v>19091</v>
+      </c>
     </row>
-    <row r="240" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -80511,8 +81225,11 @@
       <c r="DE240" s="2">
         <v>3334</v>
       </c>
+      <c r="DF240" s="2">
+        <v>3344</v>
+      </c>
     </row>
-    <row r="241" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -80840,8 +81557,11 @@
       <c r="DE241" s="2">
         <v>24288</v>
       </c>
+      <c r="DF241" s="2">
+        <v>24579</v>
+      </c>
     </row>
-    <row r="242" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -81169,8 +81889,11 @@
       <c r="DE242" s="2">
         <v>209072</v>
       </c>
+      <c r="DF242" s="2">
+        <v>210083</v>
+      </c>
     </row>
-    <row r="243" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -81498,8 +82221,11 @@
       <c r="DE243" s="2">
         <v>21609</v>
       </c>
+      <c r="DF243" s="2">
+        <v>21820</v>
+      </c>
     </row>
-    <row r="244" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -81827,8 +82553,11 @@
       <c r="DE244" s="2">
         <v>2821</v>
       </c>
+      <c r="DF244" s="2">
+        <v>2836</v>
+      </c>
     </row>
-    <row r="245" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -82156,8 +82885,11 @@
       <c r="DE245" s="2">
         <v>87914</v>
       </c>
+      <c r="DF245" s="2">
+        <v>89015</v>
+      </c>
     </row>
-    <row r="246" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -82485,8 +83217,11 @@
       <c r="DE246" s="2">
         <v>10185</v>
       </c>
+      <c r="DF246" s="2">
+        <v>10214</v>
+      </c>
     </row>
-    <row r="247" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -82814,8 +83549,11 @@
       <c r="DE247" s="2">
         <v>15056</v>
       </c>
+      <c r="DF247" s="2">
+        <v>15121</v>
+      </c>
     </row>
-    <row r="248" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -83143,8 +83881,11 @@
       <c r="DE248" s="2">
         <v>269280</v>
       </c>
+      <c r="DF248" s="2">
+        <v>271523</v>
+      </c>
     </row>
-    <row r="249" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -83472,8 +84213,11 @@
       <c r="DE249" s="2">
         <v>19972</v>
       </c>
+      <c r="DF249" s="2">
+        <v>20058</v>
+      </c>
     </row>
-    <row r="250" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -83801,8 +84545,11 @@
       <c r="DE250" s="2">
         <v>808</v>
       </c>
+      <c r="DF250" s="2">
+        <v>815</v>
+      </c>
     </row>
-    <row r="251" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -84130,8 +84877,11 @@
       <c r="DE251" s="2">
         <v>32627</v>
       </c>
+      <c r="DF251" s="2">
+        <v>33558</v>
+      </c>
     </row>
-    <row r="252" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -84459,8 +85209,11 @@
       <c r="DE252" s="2">
         <v>13600</v>
       </c>
+      <c r="DF252" s="2">
+        <v>14201</v>
+      </c>
     </row>
-    <row r="253" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -84788,8 +85541,11 @@
       <c r="DE253" s="2">
         <v>2258</v>
       </c>
+      <c r="DF253" s="2">
+        <v>2260</v>
+      </c>
     </row>
-    <row r="254" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -85117,8 +85873,11 @@
       <c r="DE254" s="2">
         <v>5704</v>
       </c>
+      <c r="DF254" s="2">
+        <v>5928</v>
+      </c>
     </row>
-    <row r="255" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -85446,8 +86205,11 @@
       <c r="DE255" s="2">
         <v>11117</v>
       </c>
+      <c r="DF255" s="2">
+        <v>11144</v>
+      </c>
     </row>
-    <row r="256" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -85775,8 +86537,11 @@
       <c r="DE256" s="2">
         <v>5623</v>
       </c>
+      <c r="DF256" s="2">
+        <v>5644</v>
+      </c>
     </row>
-    <row r="257" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -86104,8 +86869,11 @@
       <c r="DE257" s="2">
         <v>123285</v>
       </c>
+      <c r="DF257" s="2">
+        <v>123720</v>
+      </c>
     </row>
-    <row r="258" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -86436,8 +87204,11 @@
       <c r="DE258" s="8">
         <v>15521258</v>
       </c>
+      <c r="DF258" s="8">
+        <v>15699242</v>
+      </c>
     </row>
-    <row r="259" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:110" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -86464,7 +87235,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -86472,7 +87243,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -86480,7 +87251,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -86488,7 +87259,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -86496,7 +87267,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -86504,7 +87275,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -86512,7 +87283,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -86520,7 +87291,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -86528,7 +87299,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -86536,7 +87307,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -86544,7 +87315,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -86552,7 +87323,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -86560,7 +87331,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:109" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:110" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B690F98-CCAD-463A-B624-75C91CE7CC95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0A7D8E5-38A0-46F8-986C-A75D881EC9D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11904" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Tests" sheetId="1" r:id="rId1"/>
@@ -1834,54 +1834,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DF513"/>
+  <dimension ref="A1:DG513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CZ236" workbookViewId="0">
-      <selection activeCell="DF258" sqref="DF258"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="DG1" sqref="DG1:DG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" customWidth="1"/>
-    <col min="2" max="24" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.4609375" customWidth="1"/>
-    <col min="27" max="27" width="9.3828125" customWidth="1"/>
-    <col min="28" max="28" width="9.61328125" customWidth="1"/>
-    <col min="29" max="29" width="9.84375" customWidth="1"/>
-    <col min="30" max="34" width="9.4609375" customWidth="1"/>
-    <col min="35" max="36" width="8.84375" bestFit="1" customWidth="1"/>
-    <col min="54" max="56" width="9.07421875" style="5"/>
-    <col min="57" max="57" width="9.07421875" style="6"/>
-    <col min="60" max="61" width="9.07421875" style="6"/>
-    <col min="62" max="62" width="9.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.23046875" customWidth="1"/>
-    <col min="64" max="66" width="10.23046875" style="6" customWidth="1"/>
-    <col min="67" max="67" width="10.07421875" customWidth="1"/>
-    <col min="68" max="68" width="10.69140625" customWidth="1"/>
-    <col min="69" max="69" width="10.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.46484375" customWidth="1"/>
+    <col min="2" max="24" width="9.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.46484375" customWidth="1"/>
+    <col min="27" max="27" width="9.3984375" customWidth="1"/>
+    <col min="28" max="28" width="9.59765625" customWidth="1"/>
+    <col min="29" max="29" width="9.86328125" customWidth="1"/>
+    <col min="30" max="34" width="9.46484375" customWidth="1"/>
+    <col min="35" max="36" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="54" max="56" width="9.06640625" style="5"/>
+    <col min="57" max="57" width="9.06640625" style="6"/>
+    <col min="60" max="61" width="9.06640625" style="6"/>
+    <col min="62" max="62" width="9.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.19921875" customWidth="1"/>
+    <col min="64" max="66" width="10.19921875" style="6" customWidth="1"/>
+    <col min="67" max="67" width="10.06640625" customWidth="1"/>
+    <col min="68" max="68" width="10.6640625" customWidth="1"/>
+    <col min="69" max="69" width="10.46484375" style="6" customWidth="1"/>
     <col min="70" max="70" width="10" customWidth="1"/>
-    <col min="71" max="71" width="10.53515625" style="6" customWidth="1"/>
-    <col min="72" max="72" width="10.23046875" style="6" customWidth="1"/>
-    <col min="73" max="73" width="10.69140625" style="6" customWidth="1"/>
-    <col min="74" max="74" width="10.61328125" customWidth="1"/>
+    <col min="71" max="71" width="10.53125" style="6" customWidth="1"/>
+    <col min="72" max="72" width="10.19921875" style="6" customWidth="1"/>
+    <col min="73" max="73" width="10.6640625" style="6" customWidth="1"/>
+    <col min="74" max="74" width="10.59765625" customWidth="1"/>
     <col min="75" max="75" width="11" customWidth="1"/>
     <col min="76" max="78" width="11" style="7" customWidth="1"/>
-    <col min="79" max="79" width="10.07421875" customWidth="1"/>
-    <col min="80" max="80" width="10.23046875" style="7" customWidth="1"/>
-    <col min="81" max="81" width="10.3046875" customWidth="1"/>
-    <col min="82" max="90" width="10.69140625" style="7" customWidth="1"/>
-    <col min="91" max="103" width="9.84375" style="7" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="10.15234375" customWidth="1"/>
-    <col min="105" max="110" width="10.61328125" style="7" customWidth="1"/>
+    <col min="79" max="79" width="10.06640625" customWidth="1"/>
+    <col min="80" max="80" width="10.19921875" style="7" customWidth="1"/>
+    <col min="81" max="81" width="10.33203125" customWidth="1"/>
+    <col min="82" max="90" width="10.6640625" style="7" customWidth="1"/>
+    <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="10.1328125" customWidth="1"/>
+    <col min="105" max="111" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2212,8 +2212,11 @@
       <c r="DF2" s="4">
         <v>44195</v>
       </c>
+      <c r="DG2" s="4">
+        <v>44196</v>
+      </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2544,8 +2547,11 @@
       <c r="DF3" s="2">
         <v>44469</v>
       </c>
+      <c r="DG3" s="2">
+        <v>45181</v>
+      </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2876,8 +2882,11 @@
       <c r="DF4" s="2">
         <v>4850</v>
       </c>
+      <c r="DG4" s="2">
+        <v>4889</v>
+      </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3208,8 +3217,11 @@
       <c r="DF5" s="2">
         <v>47638</v>
       </c>
+      <c r="DG5" s="2">
+        <v>48141</v>
+      </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3552,11 @@
       <c r="DF6" s="2">
         <v>8938</v>
       </c>
+      <c r="DG6" s="2">
+        <v>9006</v>
+      </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3872,8 +3887,11 @@
       <c r="DF7" s="2">
         <v>2502</v>
       </c>
+      <c r="DG7" s="2">
+        <v>2529</v>
+      </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4204,8 +4222,11 @@
       <c r="DF8" s="2">
         <v>628</v>
       </c>
+      <c r="DG8" s="2">
+        <v>633</v>
+      </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4536,8 +4557,11 @@
       <c r="DF9" s="2">
         <v>24697</v>
       </c>
+      <c r="DG9" s="2">
+        <v>24971</v>
+      </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4868,8 +4892,11 @@
       <c r="DF10" s="2">
         <v>12016</v>
       </c>
+      <c r="DG10" s="2">
+        <v>12094</v>
+      </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5200,8 +5227,11 @@
       <c r="DF11" s="2">
         <v>1837</v>
       </c>
+      <c r="DG11" s="2">
+        <v>1841</v>
+      </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5532,8 +5562,11 @@
       <c r="DF12" s="2">
         <v>6639</v>
       </c>
+      <c r="DG12" s="2">
+        <v>6749</v>
+      </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5864,8 +5897,11 @@
       <c r="DF13" s="2">
         <v>38009</v>
       </c>
+      <c r="DG13" s="2">
+        <v>38565</v>
+      </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6196,8 +6232,11 @@
       <c r="DF14" s="2">
         <v>1480</v>
       </c>
+      <c r="DG14" s="2">
+        <v>1542</v>
+      </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6528,8 +6567,11 @@
       <c r="DF15" s="2">
         <v>29101</v>
       </c>
+      <c r="DG15" s="2">
+        <v>29342</v>
+      </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6860,8 +6902,11 @@
       <c r="DF16" s="2">
         <v>173970</v>
       </c>
+      <c r="DG16" s="2">
+        <v>175704</v>
+      </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7192,8 +7237,11 @@
       <c r="DF17" s="2">
         <v>1026876</v>
       </c>
+      <c r="DG17" s="2">
+        <v>1035603</v>
+      </c>
     </row>
-    <row r="18" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7524,8 +7572,11 @@
       <c r="DF18" s="2">
         <v>3991</v>
       </c>
+      <c r="DG18" s="2">
+        <v>4037</v>
+      </c>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7856,8 +7907,11 @@
       <c r="DF19" s="2">
         <v>109</v>
       </c>
+      <c r="DG19" s="2">
+        <v>111</v>
+      </c>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8188,8 +8242,11 @@
       <c r="DF20" s="2">
         <v>10135</v>
       </c>
+      <c r="DG20" s="2">
+        <v>10212</v>
+      </c>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8520,8 +8577,11 @@
       <c r="DF21" s="2">
         <v>56399</v>
       </c>
+      <c r="DG21" s="2">
+        <v>56797</v>
+      </c>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8852,8 +8912,11 @@
       <c r="DF22" s="2">
         <v>221871</v>
       </c>
+      <c r="DG22" s="2">
+        <v>223211</v>
+      </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9184,8 +9247,11 @@
       <c r="DF23" s="2">
         <v>159546</v>
       </c>
+      <c r="DG23" s="2">
+        <v>161071</v>
+      </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9516,8 +9582,11 @@
       <c r="DF24" s="2">
         <v>7544</v>
       </c>
+      <c r="DG24" s="2">
+        <v>7559</v>
+      </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9848,8 +9917,11 @@
       <c r="DF25" s="2">
         <v>528</v>
       </c>
+      <c r="DG25" s="2">
+        <v>533</v>
+      </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10180,8 +10252,11 @@
       <c r="DF26" s="2">
         <v>10490</v>
       </c>
+      <c r="DG26" s="2">
+        <v>10509</v>
+      </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10512,8 +10587,11 @@
       <c r="DF27" s="2">
         <v>21164</v>
       </c>
+      <c r="DG27" s="2">
+        <v>21425</v>
+      </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10844,8 +10922,11 @@
       <c r="DF28" s="2">
         <v>9466</v>
       </c>
+      <c r="DG28" s="2">
+        <v>9538</v>
+      </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11176,8 +11257,11 @@
       <c r="DF29" s="2">
         <v>22585</v>
       </c>
+      <c r="DG29" s="2">
+        <v>22851</v>
+      </c>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11508,8 +11592,11 @@
       <c r="DF30" s="2">
         <v>22374</v>
       </c>
+      <c r="DG30" s="2">
+        <v>22648</v>
+      </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11840,8 +11927,11 @@
       <c r="DF31" s="2">
         <v>11142</v>
       </c>
+      <c r="DG31" s="2">
+        <v>11196</v>
+      </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -12172,8 +12262,11 @@
       <c r="DF32" s="2">
         <v>6320</v>
       </c>
+      <c r="DG32" s="2">
+        <v>6422</v>
+      </c>
     </row>
-    <row r="33" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12504,8 +12597,11 @@
       <c r="DF33" s="2">
         <v>186920</v>
       </c>
+      <c r="DG33" s="2">
+        <v>188103</v>
+      </c>
     </row>
-    <row r="34" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12836,8 +12932,11 @@
       <c r="DF34" s="2">
         <v>4771</v>
       </c>
+      <c r="DG34" s="2">
+        <v>4841</v>
+      </c>
     </row>
-    <row r="35" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13168,8 +13267,11 @@
       <c r="DF35" s="2">
         <v>1764</v>
       </c>
+      <c r="DG35" s="2">
+        <v>1779</v>
+      </c>
     </row>
-    <row r="36" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13500,8 +13602,11 @@
       <c r="DF36" s="2">
         <v>12782</v>
       </c>
+      <c r="DG36" s="2">
+        <v>12926</v>
+      </c>
     </row>
-    <row r="37" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13832,8 +13937,11 @@
       <c r="DF37" s="2">
         <v>4224</v>
       </c>
+      <c r="DG37" s="2">
+        <v>4254</v>
+      </c>
     </row>
-    <row r="38" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -14164,8 +14272,11 @@
       <c r="DF38" s="2">
         <v>6584</v>
       </c>
+      <c r="DG38" s="2">
+        <v>6629</v>
+      </c>
     </row>
-    <row r="39" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14496,8 +14607,11 @@
       <c r="DF39" s="2">
         <v>19717</v>
       </c>
+      <c r="DG39" s="2">
+        <v>20054</v>
+      </c>
     </row>
-    <row r="40" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14828,8 +14942,11 @@
       <c r="DF40" s="2">
         <v>5018</v>
       </c>
+      <c r="DG40" s="2">
+        <v>5027</v>
+      </c>
     </row>
-    <row r="41" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15160,8 +15277,11 @@
       <c r="DF41" s="2">
         <v>3577</v>
       </c>
+      <c r="DG41" s="2">
+        <v>3607</v>
+      </c>
     </row>
-    <row r="42" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15492,8 +15612,11 @@
       <c r="DF42" s="2">
         <v>791</v>
       </c>
+      <c r="DG42" s="2">
+        <v>791</v>
+      </c>
     </row>
-    <row r="43" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15824,8 +15947,11 @@
       <c r="DF43" s="2">
         <v>2488</v>
       </c>
+      <c r="DG43" s="2">
+        <v>2496</v>
+      </c>
     </row>
-    <row r="44" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -16156,8 +16282,11 @@
       <c r="DF44" s="2">
         <v>3689</v>
       </c>
+      <c r="DG44" s="2">
+        <v>3710</v>
+      </c>
     </row>
-    <row r="45" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16488,8 +16617,11 @@
       <c r="DF45" s="2">
         <v>648462</v>
       </c>
+      <c r="DG45" s="2">
+        <v>655371</v>
+      </c>
     </row>
-    <row r="46" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16820,8 +16952,11 @@
       <c r="DF46" s="2">
         <v>1477</v>
       </c>
+      <c r="DG46" s="2">
+        <v>1481</v>
+      </c>
     </row>
-    <row r="47" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17152,8 +17287,11 @@
       <c r="DF47" s="2">
         <v>10644</v>
       </c>
+      <c r="DG47" s="2">
+        <v>10694</v>
+      </c>
     </row>
-    <row r="48" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17484,8 +17622,11 @@
       <c r="DF48" s="2">
         <v>69464</v>
       </c>
+      <c r="DG48" s="2">
+        <v>70072</v>
+      </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17816,8 +17957,11 @@
       <c r="DF49" s="2">
         <v>6803</v>
       </c>
+      <c r="DG49" s="2">
+        <v>6917</v>
+      </c>
     </row>
-    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -18148,8 +18292,11 @@
       <c r="DF50" s="2">
         <v>1909</v>
       </c>
+      <c r="DG50" s="2">
+        <v>1911</v>
+      </c>
     </row>
-    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18480,8 +18627,11 @@
       <c r="DF51" s="2">
         <v>19690</v>
       </c>
+      <c r="DG51" s="2">
+        <v>19854</v>
+      </c>
     </row>
-    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18812,8 +18962,11 @@
       <c r="DF52" s="2">
         <v>65048</v>
       </c>
+      <c r="DG52" s="2">
+        <v>65266</v>
+      </c>
     </row>
-    <row r="53" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -19144,8 +19297,11 @@
       <c r="DF53" s="2">
         <v>972</v>
       </c>
+      <c r="DG53" s="2">
+        <v>976</v>
+      </c>
     </row>
-    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19476,8 +19632,11 @@
       <c r="DF54" s="2">
         <v>3596</v>
       </c>
+      <c r="DG54" s="2">
+        <v>3611</v>
+      </c>
     </row>
-    <row r="55" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19808,8 +19967,11 @@
       <c r="DF55" s="2">
         <v>1973</v>
       </c>
+      <c r="DG55" s="2">
+        <v>1982</v>
+      </c>
     </row>
-    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -20140,8 +20302,11 @@
       <c r="DF56" s="2">
         <v>2990</v>
       </c>
+      <c r="DG56" s="2">
+        <v>3001</v>
+      </c>
     </row>
-    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20472,8 +20637,11 @@
       <c r="DF57" s="2">
         <v>1697</v>
       </c>
+      <c r="DG57" s="2">
+        <v>1703</v>
+      </c>
     </row>
-    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20804,8 +20972,11 @@
       <c r="DF58" s="2">
         <v>1569</v>
       </c>
+      <c r="DG58" s="2">
+        <v>1572</v>
+      </c>
     </row>
-    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -21136,8 +21307,11 @@
       <c r="DF59" s="2">
         <v>1631959</v>
       </c>
+      <c r="DG59" s="2">
+        <v>1646767</v>
+      </c>
     </row>
-    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21468,8 +21642,11 @@
       <c r="DF60" s="2">
         <v>7430</v>
       </c>
+      <c r="DG60" s="2">
+        <v>7540</v>
+      </c>
     </row>
-    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21800,8 +21977,11 @@
       <c r="DF61" s="2">
         <v>7413</v>
       </c>
+      <c r="DG61" s="2">
+        <v>7469</v>
+      </c>
     </row>
-    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -22132,8 +22312,11 @@
       <c r="DF62" s="2">
         <v>5195</v>
       </c>
+      <c r="DG62" s="2">
+        <v>5336</v>
+      </c>
     </row>
-    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -22464,8 +22647,11 @@
       <c r="DF63" s="2">
         <v>1989</v>
       </c>
+      <c r="DG63" s="2">
+        <v>2005</v>
+      </c>
     </row>
-    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22796,8 +22982,11 @@
       <c r="DF64" s="2">
         <v>404954</v>
       </c>
+      <c r="DG64" s="2">
+        <v>409887</v>
+      </c>
     </row>
-    <row r="65" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -23128,8 +23317,11 @@
       <c r="DF65" s="2">
         <v>582</v>
       </c>
+      <c r="DG65" s="2">
+        <v>583</v>
+      </c>
     </row>
-    <row r="66" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -23460,8 +23652,11 @@
       <c r="DF66" s="2">
         <v>5300</v>
       </c>
+      <c r="DG66" s="2">
+        <v>5348</v>
+      </c>
     </row>
-    <row r="67" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -23792,8 +23987,11 @@
       <c r="DF67" s="2">
         <v>1513</v>
       </c>
+      <c r="DG67" s="2">
+        <v>1517</v>
+      </c>
     </row>
-    <row r="68" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -24124,8 +24322,11 @@
       <c r="DF68" s="2">
         <v>13467</v>
       </c>
+      <c r="DG68" s="2">
+        <v>13547</v>
+      </c>
     </row>
-    <row r="69" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -24456,8 +24657,11 @@
       <c r="DF69" s="2">
         <v>5377</v>
       </c>
+      <c r="DG69" s="2">
+        <v>5497</v>
+      </c>
     </row>
-    <row r="70" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -24788,8 +24992,11 @@
       <c r="DF70" s="2">
         <v>55405</v>
       </c>
+      <c r="DG70" s="2">
+        <v>55747</v>
+      </c>
     </row>
-    <row r="71" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -25120,8 +25327,11 @@
       <c r="DF71" s="2">
         <v>1078</v>
       </c>
+      <c r="DG71" s="2">
+        <v>1088</v>
+      </c>
     </row>
-    <row r="72" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -25452,8 +25662,11 @@
       <c r="DF72" s="2">
         <v>646081</v>
       </c>
+      <c r="DG72" s="2">
+        <v>650282</v>
+      </c>
     </row>
-    <row r="73" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -25784,8 +25997,11 @@
       <c r="DF73" s="2">
         <v>110303</v>
       </c>
+      <c r="DG73" s="2">
+        <v>111606</v>
+      </c>
     </row>
-    <row r="74" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -26116,8 +26332,11 @@
       <c r="DF74" s="2">
         <v>15951</v>
       </c>
+      <c r="DG74" s="2">
+        <v>16080</v>
+      </c>
     </row>
-    <row r="75" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -26448,8 +26667,11 @@
       <c r="DF75" s="2">
         <v>10518</v>
       </c>
+      <c r="DG75" s="2">
+        <v>10594</v>
+      </c>
     </row>
-    <row r="76" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -26780,8 +27002,11 @@
       <c r="DF76" s="2">
         <v>18255</v>
       </c>
+      <c r="DG76" s="2">
+        <v>18541</v>
+      </c>
     </row>
-    <row r="77" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -27112,8 +27337,11 @@
       <c r="DF77" s="2">
         <v>10787</v>
       </c>
+      <c r="DG77" s="2">
+        <v>10869</v>
+      </c>
     </row>
-    <row r="78" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -27444,8 +27672,11 @@
       <c r="DF78" s="2">
         <v>1180</v>
       </c>
+      <c r="DG78" s="2">
+        <v>1185</v>
+      </c>
     </row>
-    <row r="79" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -27776,8 +28007,11 @@
       <c r="DF79" s="2">
         <v>2007</v>
       </c>
+      <c r="DG79" s="2">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="80" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -28108,8 +28342,11 @@
       <c r="DF80" s="2">
         <v>754</v>
       </c>
+      <c r="DG80" s="2">
+        <v>758</v>
+      </c>
     </row>
-    <row r="81" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -28440,8 +28677,11 @@
       <c r="DF81" s="2">
         <v>417009</v>
       </c>
+      <c r="DG81" s="2">
+        <v>419815</v>
+      </c>
     </row>
-    <row r="82" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -28772,8 +29012,11 @@
       <c r="DF82" s="2">
         <v>3643</v>
       </c>
+      <c r="DG82" s="2">
+        <v>3682</v>
+      </c>
     </row>
-    <row r="83" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -29104,8 +29347,11 @@
       <c r="DF83" s="2">
         <v>12371</v>
       </c>
+      <c r="DG83" s="2">
+        <v>12473</v>
+      </c>
     </row>
-    <row r="84" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -29436,8 +29682,11 @@
       <c r="DF84" s="2">
         <v>11033</v>
       </c>
+      <c r="DG84" s="2">
+        <v>11059</v>
+      </c>
     </row>
-    <row r="85" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -29768,8 +30017,11 @@
       <c r="DF85" s="2">
         <v>3343</v>
       </c>
+      <c r="DG85" s="2">
+        <v>3360</v>
+      </c>
     </row>
-    <row r="86" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -30100,8 +30352,11 @@
       <c r="DF86" s="2">
         <v>240035</v>
       </c>
+      <c r="DG86" s="2">
+        <v>241839</v>
+      </c>
     </row>
-    <row r="87" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -30432,8 +30687,11 @@
       <c r="DF87" s="2">
         <v>2123</v>
       </c>
+      <c r="DG87" s="2">
+        <v>2128</v>
+      </c>
     </row>
-    <row r="88" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -30764,8 +31022,11 @@
       <c r="DF88" s="2">
         <v>13535</v>
       </c>
+      <c r="DG88" s="2">
+        <v>13597</v>
+      </c>
     </row>
-    <row r="89" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -31096,8 +31357,11 @@
       <c r="DF89" s="2">
         <v>143</v>
       </c>
+      <c r="DG89" s="2">
+        <v>144</v>
+      </c>
     </row>
-    <row r="90" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -31428,8 +31692,11 @@
       <c r="DF90" s="2">
         <v>2715</v>
       </c>
+      <c r="DG90" s="2">
+        <v>2766</v>
+      </c>
     </row>
-    <row r="91" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -31760,8 +32027,11 @@
       <c r="DF91" s="2">
         <v>10520</v>
       </c>
+      <c r="DG91" s="2">
+        <v>10777</v>
+      </c>
     </row>
-    <row r="92" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -32092,8 +32362,11 @@
       <c r="DF92" s="2">
         <v>6838</v>
       </c>
+      <c r="DG92" s="2">
+        <v>6864</v>
+      </c>
     </row>
-    <row r="93" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -32424,8 +32697,11 @@
       <c r="DF93" s="2">
         <v>70402</v>
       </c>
+      <c r="DG93" s="2">
+        <v>71474</v>
+      </c>
     </row>
-    <row r="94" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -32756,8 +33032,11 @@
       <c r="DF94" s="2">
         <v>46617</v>
       </c>
+      <c r="DG94" s="2">
+        <v>47072</v>
+      </c>
     </row>
-    <row r="95" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -33088,8 +33367,11 @@
       <c r="DF95" s="2">
         <v>17902</v>
       </c>
+      <c r="DG95" s="2">
+        <v>18044</v>
+      </c>
     </row>
-    <row r="96" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -33420,8 +33702,11 @@
       <c r="DF96" s="2">
         <v>51763</v>
       </c>
+      <c r="DG96" s="2">
+        <v>52184</v>
+      </c>
     </row>
-    <row r="97" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -33752,8 +34037,11 @@
       <c r="DF97" s="2">
         <v>11192</v>
       </c>
+      <c r="DG97" s="2">
+        <v>11207</v>
+      </c>
     </row>
-    <row r="98" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -34084,8 +34372,11 @@
       <c r="DF98" s="2">
         <v>2092</v>
       </c>
+      <c r="DG98" s="2">
+        <v>2093</v>
+      </c>
     </row>
-    <row r="99" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -34416,8 +34707,11 @@
       <c r="DF99" s="2">
         <v>4097</v>
       </c>
+      <c r="DG99" s="2">
+        <v>4158</v>
+      </c>
     </row>
-    <row r="100" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -34748,8 +35042,11 @@
       <c r="DF100" s="2">
         <v>2267</v>
       </c>
+      <c r="DG100" s="2">
+        <v>2301</v>
+      </c>
     </row>
-    <row r="101" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -35080,8 +35377,11 @@
       <c r="DF101" s="2">
         <v>1638</v>
       </c>
+      <c r="DG101" s="2">
+        <v>1648</v>
+      </c>
     </row>
-    <row r="102" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -35412,8 +35712,11 @@
       <c r="DF102" s="2">
         <v>17567</v>
       </c>
+      <c r="DG102" s="2">
+        <v>17837</v>
+      </c>
     </row>
-    <row r="103" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -35744,8 +36047,11 @@
       <c r="DF103" s="2">
         <v>2616933</v>
       </c>
+      <c r="DG103" s="2">
+        <v>2635249</v>
+      </c>
     </row>
-    <row r="104" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -36076,8 +36382,11 @@
       <c r="DF104" s="2">
         <v>48619</v>
       </c>
+      <c r="DG104" s="2">
+        <v>49092</v>
+      </c>
     </row>
-    <row r="105" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -36408,8 +36717,11 @@
       <c r="DF105" s="2">
         <v>146</v>
       </c>
+      <c r="DG105" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="106" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -36740,8 +37052,11 @@
       <c r="DF106" s="2">
         <v>1824</v>
       </c>
+      <c r="DG106" s="2">
+        <v>1825</v>
+      </c>
     </row>
-    <row r="107" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -37072,8 +37387,11 @@
       <c r="DF107" s="2">
         <v>145293</v>
       </c>
+      <c r="DG107" s="2">
+        <v>146617</v>
+      </c>
     </row>
-    <row r="108" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -37404,8 +37722,11 @@
       <c r="DF108" s="2">
         <v>998</v>
       </c>
+      <c r="DG108" s="2">
+        <v>998</v>
+      </c>
     </row>
-    <row r="109" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -37736,8 +38057,11 @@
       <c r="DF109" s="2">
         <v>23096</v>
       </c>
+      <c r="DG109" s="2">
+        <v>23418</v>
+      </c>
     </row>
-    <row r="110" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -38068,8 +38392,11 @@
       <c r="DF110" s="2">
         <v>339011</v>
       </c>
+      <c r="DG110" s="2">
+        <v>341165</v>
+      </c>
     </row>
-    <row r="111" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -38400,8 +38727,11 @@
       <c r="DF111" s="2">
         <v>28288</v>
       </c>
+      <c r="DG111" s="2">
+        <v>28699</v>
+      </c>
     </row>
-    <row r="112" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -38732,8 +39062,11 @@
       <c r="DF112" s="2">
         <v>7836</v>
       </c>
+      <c r="DG112" s="2">
+        <v>7859</v>
+      </c>
     </row>
-    <row r="113" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -39064,8 +39397,11 @@
       <c r="DF113" s="2">
         <v>35040</v>
       </c>
+      <c r="DG113" s="2">
+        <v>35382</v>
+      </c>
     </row>
-    <row r="114" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -39396,8 +39732,11 @@
       <c r="DF114" s="2">
         <v>14072</v>
       </c>
+      <c r="DG114" s="2">
+        <v>14283</v>
+      </c>
     </row>
-    <row r="115" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -39728,8 +40067,11 @@
       <c r="DF115" s="2">
         <v>13032</v>
       </c>
+      <c r="DG115" s="2">
+        <v>13149</v>
+      </c>
     </row>
-    <row r="116" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -40060,8 +40402,11 @@
       <c r="DF116" s="2">
         <v>12293</v>
       </c>
+      <c r="DG116" s="2">
+        <v>12440</v>
+      </c>
     </row>
-    <row r="117" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -40392,8 +40737,11 @@
       <c r="DF117" s="2">
         <v>2177</v>
       </c>
+      <c r="DG117" s="2">
+        <v>2182</v>
+      </c>
     </row>
-    <row r="118" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -40724,8 +41072,11 @@
       <c r="DF118" s="2">
         <v>52869</v>
       </c>
+      <c r="DG118" s="2">
+        <v>53950</v>
+      </c>
     </row>
-    <row r="119" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -41056,8 +41407,11 @@
       <c r="DF119" s="2">
         <v>8781</v>
       </c>
+      <c r="DG119" s="2">
+        <v>8806</v>
+      </c>
     </row>
-    <row r="120" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -41388,8 +41742,11 @@
       <c r="DF120" s="2">
         <v>411</v>
       </c>
+      <c r="DG120" s="2">
+        <v>413</v>
+      </c>
     </row>
-    <row r="121" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -41720,8 +42077,11 @@
       <c r="DF121" s="2">
         <v>1311</v>
       </c>
+      <c r="DG121" s="2">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="122" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -42052,8 +42412,11 @@
       <c r="DF122" s="2">
         <v>5645</v>
       </c>
+      <c r="DG122" s="2">
+        <v>5672</v>
+      </c>
     </row>
-    <row r="123" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -42384,8 +42747,11 @@
       <c r="DF123" s="2">
         <v>12028</v>
       </c>
+      <c r="DG123" s="2">
+        <v>12234</v>
+      </c>
     </row>
-    <row r="124" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -42716,8 +43082,11 @@
       <c r="DF124" s="2">
         <v>1325</v>
       </c>
+      <c r="DG124" s="2">
+        <v>1327</v>
+      </c>
     </row>
-    <row r="125" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -43048,8 +43417,11 @@
       <c r="DF125" s="2">
         <v>137721</v>
       </c>
+      <c r="DG125" s="2">
+        <v>138904</v>
+      </c>
     </row>
-    <row r="126" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -43380,8 +43752,11 @@
       <c r="DF126" s="2">
         <v>7804</v>
       </c>
+      <c r="DG126" s="2">
+        <v>8024</v>
+      </c>
     </row>
-    <row r="127" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -43712,8 +44087,11 @@
       <c r="DF127" s="2">
         <v>43015</v>
       </c>
+      <c r="DG127" s="2">
+        <v>43447</v>
+      </c>
     </row>
-    <row r="128" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -44044,8 +44422,11 @@
       <c r="DF128" s="2">
         <v>85474</v>
       </c>
+      <c r="DG128" s="2">
+        <v>86179</v>
+      </c>
     </row>
-    <row r="129" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -44376,8 +44757,11 @@
       <c r="DF129" s="2">
         <v>5697</v>
       </c>
+      <c r="DG129" s="2">
+        <v>5743</v>
+      </c>
     </row>
-    <row r="130" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -44708,8 +45092,11 @@
       <c r="DF130" s="2">
         <v>11665</v>
       </c>
+      <c r="DG130" s="2">
+        <v>11851</v>
+      </c>
     </row>
-    <row r="131" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -45040,8 +45427,11 @@
       <c r="DF131" s="2">
         <v>73894</v>
       </c>
+      <c r="DG131" s="2">
+        <v>74985</v>
+      </c>
     </row>
-    <row r="132" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -45372,8 +45762,11 @@
       <c r="DF132" s="2">
         <v>17417</v>
       </c>
+      <c r="DG132" s="2">
+        <v>17594</v>
+      </c>
     </row>
-    <row r="133" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -45704,8 +46097,11 @@
       <c r="DF133" s="2">
         <v>150</v>
       </c>
+      <c r="DG133" s="2">
+        <v>151</v>
+      </c>
     </row>
-    <row r="134" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -46036,8 +46432,11 @@
       <c r="DF134" s="2">
         <v>411</v>
       </c>
+      <c r="DG134" s="2">
+        <v>412</v>
+      </c>
     </row>
-    <row r="135" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -46368,8 +46767,11 @@
       <c r="DF135" s="2">
         <v>32420</v>
       </c>
+      <c r="DG135" s="2">
+        <v>32678</v>
+      </c>
     </row>
-    <row r="136" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -46700,8 +47102,11 @@
       <c r="DF136" s="2">
         <v>1524</v>
       </c>
+      <c r="DG136" s="2">
+        <v>1526</v>
+      </c>
     </row>
-    <row r="137" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -47032,8 +47437,11 @@
       <c r="DF137" s="2">
         <v>39</v>
       </c>
+      <c r="DG137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -47364,8 +47772,11 @@
       <c r="DF138" s="2">
         <v>1249</v>
       </c>
+      <c r="DG138" s="2">
+        <v>1280</v>
+      </c>
     </row>
-    <row r="139" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -47696,8 +48107,11 @@
       <c r="DF139" s="2">
         <v>23308</v>
       </c>
+      <c r="DG139" s="2">
+        <v>23385</v>
+      </c>
     </row>
-    <row r="140" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -48028,8 +48442,11 @@
       <c r="DF140" s="2">
         <v>1807</v>
       </c>
+      <c r="DG140" s="2">
+        <v>1809</v>
+      </c>
     </row>
-    <row r="141" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -48360,8 +48777,11 @@
       <c r="DF141" s="2">
         <v>5266</v>
       </c>
+      <c r="DG141" s="2">
+        <v>5312</v>
+      </c>
     </row>
-    <row r="142" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -48692,8 +49112,11 @@
       <c r="DF142" s="2">
         <v>17784</v>
       </c>
+      <c r="DG142" s="2">
+        <v>18059</v>
+      </c>
     </row>
-    <row r="143" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -49024,8 +49447,11 @@
       <c r="DF143" s="2">
         <v>7088</v>
       </c>
+      <c r="DG143" s="2">
+        <v>7095</v>
+      </c>
     </row>
-    <row r="144" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -49356,8 +49782,11 @@
       <c r="DF144" s="2">
         <v>12774</v>
       </c>
+      <c r="DG144" s="2">
+        <v>12923</v>
+      </c>
     </row>
-    <row r="145" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -49688,8 +50117,11 @@
       <c r="DF145" s="2">
         <v>9685</v>
       </c>
+      <c r="DG145" s="2">
+        <v>9736</v>
+      </c>
     </row>
-    <row r="146" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -50020,8 +50452,11 @@
       <c r="DF146" s="2">
         <v>6251</v>
       </c>
+      <c r="DG146" s="2">
+        <v>6315</v>
+      </c>
     </row>
-    <row r="147" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -50352,8 +50787,11 @@
       <c r="DF147" s="2">
         <v>7285</v>
       </c>
+      <c r="DG147" s="2">
+        <v>7376</v>
+      </c>
     </row>
-    <row r="148" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -50684,8 +51122,11 @@
       <c r="DF148" s="2">
         <v>37183</v>
       </c>
+      <c r="DG148" s="2">
+        <v>37449</v>
+      </c>
     </row>
-    <row r="149" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -51016,8 +51457,11 @@
       <c r="DF149" s="2">
         <v>20935</v>
       </c>
+      <c r="DG149" s="2">
+        <v>21159</v>
+      </c>
     </row>
-    <row r="150" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -51348,8 +51792,11 @@
       <c r="DF150" s="2">
         <v>286</v>
       </c>
+      <c r="DG150" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="151" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -51680,8 +52127,11 @@
       <c r="DF151" s="2">
         <v>4066</v>
       </c>
+      <c r="DG151" s="2">
+        <v>4128</v>
+      </c>
     </row>
-    <row r="152" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -52012,8 +52462,11 @@
       <c r="DF152" s="2">
         <v>7626</v>
       </c>
+      <c r="DG152" s="2">
+        <v>7688</v>
+      </c>
     </row>
-    <row r="153" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -52344,8 +52797,11 @@
       <c r="DF153" s="2">
         <v>23</v>
       </c>
+      <c r="DG153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -52676,8 +53132,11 @@
       <c r="DF154" s="2">
         <v>215847</v>
       </c>
+      <c r="DG154" s="2">
+        <v>216399</v>
+      </c>
     </row>
-    <row r="155" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -53008,8 +53467,11 @@
       <c r="DF155" s="2">
         <v>3213</v>
       </c>
+      <c r="DG155" s="2">
+        <v>3284</v>
+      </c>
     </row>
-    <row r="156" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -53340,8 +53802,11 @@
       <c r="DF156" s="2">
         <v>10142</v>
       </c>
+      <c r="DG156" s="2">
+        <v>10170</v>
+      </c>
     </row>
-    <row r="157" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -53672,8 +54137,11 @@
       <c r="DF157" s="2">
         <v>2482</v>
       </c>
+      <c r="DG157" s="2">
+        <v>2500</v>
+      </c>
     </row>
-    <row r="158" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -54004,8 +54472,11 @@
       <c r="DF158" s="2">
         <v>1323</v>
       </c>
+      <c r="DG158" s="2">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="159" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -54336,8 +54807,11 @@
       <c r="DF159" s="2">
         <v>1691</v>
       </c>
+      <c r="DG159" s="2">
+        <v>1698</v>
+      </c>
     </row>
-    <row r="160" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -54668,8 +55142,11 @@
       <c r="DF160" s="2">
         <v>17586</v>
       </c>
+      <c r="DG160" s="2">
+        <v>17721</v>
+      </c>
     </row>
-    <row r="161" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -55000,8 +55477,11 @@
       <c r="DF161" s="2">
         <v>38226</v>
       </c>
+      <c r="DG161" s="2">
+        <v>38564</v>
+      </c>
     </row>
-    <row r="162" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -55332,8 +55812,11 @@
       <c r="DF162" s="2">
         <v>2417</v>
       </c>
+      <c r="DG162" s="2">
+        <v>2433</v>
+      </c>
     </row>
-    <row r="163" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -55664,8 +56147,11 @@
       <c r="DF163" s="2">
         <v>202815</v>
       </c>
+      <c r="DG163" s="2">
+        <v>204487</v>
+      </c>
     </row>
-    <row r="164" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -55996,8 +56482,11 @@
       <c r="DF164" s="2">
         <v>295</v>
       </c>
+      <c r="DG164" s="2">
+        <v>296</v>
+      </c>
     </row>
-    <row r="165" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -56328,8 +56817,11 @@
       <c r="DF165" s="2">
         <v>19151</v>
       </c>
+      <c r="DG165" s="2">
+        <v>19248</v>
+      </c>
     </row>
-    <row r="166" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -56660,8 +57152,11 @@
       <c r="DF166" s="2">
         <v>1813</v>
       </c>
+      <c r="DG166" s="2">
+        <v>1823</v>
+      </c>
     </row>
-    <row r="167" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -56992,8 +57487,11 @@
       <c r="DF167" s="2">
         <v>54799</v>
       </c>
+      <c r="DG167" s="2">
+        <v>55112</v>
+      </c>
     </row>
-    <row r="168" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -57324,8 +57822,11 @@
       <c r="DF168" s="2">
         <v>12925</v>
       </c>
+      <c r="DG168" s="2">
+        <v>13221</v>
+      </c>
     </row>
-    <row r="169" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -57656,8 +58157,11 @@
       <c r="DF169" s="2">
         <v>3769</v>
       </c>
+      <c r="DG169" s="2">
+        <v>3830</v>
+      </c>
     </row>
-    <row r="170" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -57988,8 +58492,11 @@
       <c r="DF170" s="2">
         <v>5064</v>
       </c>
+      <c r="DG170" s="2">
+        <v>5090</v>
+      </c>
     </row>
-    <row r="171" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -58320,8 +58827,11 @@
       <c r="DF171" s="2">
         <v>9045</v>
       </c>
+      <c r="DG171" s="2">
+        <v>9150</v>
+      </c>
     </row>
-    <row r="172" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -58652,8 +59162,11 @@
       <c r="DF172" s="2">
         <v>245097</v>
       </c>
+      <c r="DG172" s="2">
+        <v>246351</v>
+      </c>
     </row>
-    <row r="173" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -58984,8 +59497,11 @@
       <c r="DF173" s="2">
         <v>7215</v>
       </c>
+      <c r="DG173" s="2">
+        <v>7322</v>
+      </c>
     </row>
-    <row r="174" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -59316,8 +59832,11 @@
       <c r="DF174" s="2">
         <v>5880</v>
       </c>
+      <c r="DG174" s="2">
+        <v>5962</v>
+      </c>
     </row>
-    <row r="175" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -59648,8 +60167,11 @@
       <c r="DF175" s="2">
         <v>475</v>
       </c>
+      <c r="DG175" s="2">
+        <v>477</v>
+      </c>
     </row>
-    <row r="176" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -59980,8 +60502,11 @@
       <c r="DF176" s="2">
         <v>31532</v>
       </c>
+      <c r="DG176" s="2">
+        <v>31767</v>
+      </c>
     </row>
-    <row r="177" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -60312,8 +60837,11 @@
       <c r="DF177" s="2">
         <v>23619</v>
       </c>
+      <c r="DG177" s="2">
+        <v>23915</v>
+      </c>
     </row>
-    <row r="178" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -60644,8 +61172,11 @@
       <c r="DF178" s="2">
         <v>3526</v>
       </c>
+      <c r="DG178" s="2">
+        <v>3566</v>
+      </c>
     </row>
-    <row r="179" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -60976,8 +61507,11 @@
       <c r="DF179" s="2">
         <v>7070</v>
       </c>
+      <c r="DG179" s="2">
+        <v>7175</v>
+      </c>
     </row>
-    <row r="180" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -61308,8 +61842,11 @@
       <c r="DF180" s="2">
         <v>197554</v>
       </c>
+      <c r="DG180" s="2">
+        <v>199140</v>
+      </c>
     </row>
-    <row r="181" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -61640,8 +62177,11 @@
       <c r="DF181" s="2">
         <v>576</v>
       </c>
+      <c r="DG181" s="2">
+        <v>576</v>
+      </c>
     </row>
-    <row r="182" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -61972,8 +62512,11 @@
       <c r="DF182" s="2">
         <v>681</v>
       </c>
+      <c r="DG182" s="2">
+        <v>684</v>
+      </c>
     </row>
-    <row r="183" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -62304,8 +62847,11 @@
       <c r="DF183" s="2">
         <v>25320</v>
       </c>
+      <c r="DG183" s="2">
+        <v>25697</v>
+      </c>
     </row>
-    <row r="184" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -62636,8 +63182,11 @@
       <c r="DF184" s="2">
         <v>11501</v>
       </c>
+      <c r="DG184" s="2">
+        <v>11737</v>
+      </c>
     </row>
-    <row r="185" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -62968,8 +63517,11 @@
       <c r="DF185" s="2">
         <v>7511</v>
       </c>
+      <c r="DG185" s="2">
+        <v>7596</v>
+      </c>
     </row>
-    <row r="186" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -63300,8 +63852,11 @@
       <c r="DF186" s="2">
         <v>53842</v>
       </c>
+      <c r="DG186" s="2">
+        <v>54453</v>
+      </c>
     </row>
-    <row r="187" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -63632,8 +64187,11 @@
       <c r="DF187" s="2">
         <v>2074</v>
       </c>
+      <c r="DG187" s="2">
+        <v>2080</v>
+      </c>
     </row>
-    <row r="188" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -63964,8 +64522,11 @@
       <c r="DF188" s="2">
         <v>7430</v>
       </c>
+      <c r="DG188" s="2">
+        <v>7502</v>
+      </c>
     </row>
-    <row r="189" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -64296,8 +64857,11 @@
       <c r="DF189" s="2">
         <v>22189</v>
       </c>
+      <c r="DG189" s="2">
+        <v>22367</v>
+      </c>
     </row>
-    <row r="190" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -64628,8 +65192,11 @@
       <c r="DF190" s="2">
         <v>61709</v>
       </c>
+      <c r="DG190" s="2">
+        <v>62032</v>
+      </c>
     </row>
-    <row r="191" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -64960,8 +65527,11 @@
       <c r="DF191" s="2">
         <v>6219</v>
       </c>
+      <c r="DG191" s="2">
+        <v>6221</v>
+      </c>
     </row>
-    <row r="192" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -65292,8 +65862,11 @@
       <c r="DF192" s="2">
         <v>2333</v>
       </c>
+      <c r="DG192" s="2">
+        <v>2360</v>
+      </c>
     </row>
-    <row r="193" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -65624,8 +66197,11 @@
       <c r="DF193" s="2">
         <v>42725</v>
       </c>
+      <c r="DG193" s="2">
+        <v>42956</v>
+      </c>
     </row>
-    <row r="194" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -65956,8 +66532,11 @@
       <c r="DF194" s="2">
         <v>1037</v>
       </c>
+      <c r="DG194" s="2">
+        <v>1038</v>
+      </c>
     </row>
-    <row r="195" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -66288,8 +66867,11 @@
       <c r="DF195" s="2">
         <v>1417</v>
       </c>
+      <c r="DG195" s="2">
+        <v>1436</v>
+      </c>
     </row>
-    <row r="196" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -66620,8 +67202,11 @@
       <c r="DF196" s="2">
         <v>5085</v>
       </c>
+      <c r="DG196" s="2">
+        <v>5157</v>
+      </c>
     </row>
-    <row r="197" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -66952,8 +67537,11 @@
       <c r="DF197" s="2">
         <v>3734</v>
       </c>
+      <c r="DG197" s="2">
+        <v>3753</v>
+      </c>
     </row>
-    <row r="198" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -67284,8 +67872,11 @@
       <c r="DF198" s="2">
         <v>4398</v>
       </c>
+      <c r="DG198" s="2">
+        <v>4442</v>
+      </c>
     </row>
-    <row r="199" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -67616,8 +68207,11 @@
       <c r="DF199" s="2">
         <v>124</v>
       </c>
+      <c r="DG199" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="200" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -67948,8 +68542,11 @@
       <c r="DF200" s="2">
         <v>10577</v>
       </c>
+      <c r="DG200" s="2">
+        <v>10705</v>
+      </c>
     </row>
-    <row r="201" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -68280,8 +68877,11 @@
       <c r="DF201" s="2">
         <v>48938</v>
       </c>
+      <c r="DG201" s="2">
+        <v>49979</v>
+      </c>
     </row>
-    <row r="202" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -68612,8 +69212,11 @@
       <c r="DF202" s="2">
         <v>5738</v>
       </c>
+      <c r="DG202" s="2">
+        <v>5767</v>
+      </c>
     </row>
-    <row r="203" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -68944,8 +69547,11 @@
       <c r="DF203" s="2">
         <v>15484</v>
       </c>
+      <c r="DG203" s="2">
+        <v>15627</v>
+      </c>
     </row>
-    <row r="204" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -69276,8 +69882,11 @@
       <c r="DF204" s="2">
         <v>5008</v>
       </c>
+      <c r="DG204" s="2">
+        <v>5027</v>
+      </c>
     </row>
-    <row r="205" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -69608,8 +70217,11 @@
       <c r="DF205" s="2">
         <v>4723</v>
       </c>
+      <c r="DG205" s="2">
+        <v>4785</v>
+      </c>
     </row>
-    <row r="206" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -69940,8 +70552,11 @@
       <c r="DF206" s="2">
         <v>11713</v>
       </c>
+      <c r="DG206" s="2">
+        <v>11820</v>
+      </c>
     </row>
-    <row r="207" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -70272,8 +70887,11 @@
       <c r="DF207" s="2">
         <v>31123</v>
       </c>
+      <c r="DG207" s="2">
+        <v>31469</v>
+      </c>
     </row>
-    <row r="208" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -70604,8 +71222,11 @@
       <c r="DF208" s="2">
         <v>2630</v>
       </c>
+      <c r="DG208" s="2">
+        <v>2643</v>
+      </c>
     </row>
-    <row r="209" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -70936,8 +71557,11 @@
       <c r="DF209" s="2">
         <v>950</v>
       </c>
+      <c r="DG209" s="2">
+        <v>954</v>
+      </c>
     </row>
-    <row r="210" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -71268,8 +71892,11 @@
       <c r="DF210" s="2">
         <v>14013</v>
       </c>
+      <c r="DG210" s="2">
+        <v>14108</v>
+      </c>
     </row>
-    <row r="211" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -71600,8 +72227,11 @@
       <c r="DF211" s="2">
         <v>784</v>
       </c>
+      <c r="DG211" s="2">
+        <v>794</v>
+      </c>
     </row>
-    <row r="212" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -71932,8 +72562,11 @@
       <c r="DF212" s="2">
         <v>10115</v>
       </c>
+      <c r="DG212" s="2">
+        <v>10166</v>
+      </c>
     </row>
-    <row r="213" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -72264,8 +72897,11 @@
       <c r="DF213" s="2">
         <v>171</v>
       </c>
+      <c r="DG213" s="2">
+        <v>172</v>
+      </c>
     </row>
-    <row r="214" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -72596,8 +73232,11 @@
       <c r="DF214" s="2">
         <v>139947</v>
       </c>
+      <c r="DG214" s="2">
+        <v>141063</v>
+      </c>
     </row>
-    <row r="215" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -72928,8 +73567,11 @@
       <c r="DF215" s="2">
         <v>5563</v>
       </c>
+      <c r="DG215" s="2">
+        <v>5643</v>
+      </c>
     </row>
-    <row r="216" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -73260,8 +73902,11 @@
       <c r="DF216" s="2">
         <v>29763</v>
       </c>
+      <c r="DG216" s="2">
+        <v>30113</v>
+      </c>
     </row>
-    <row r="217" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -73592,8 +74237,11 @@
       <c r="DF217" s="2">
         <v>2611</v>
       </c>
+      <c r="DG217" s="2">
+        <v>2627</v>
+      </c>
     </row>
-    <row r="218" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -73924,8 +74572,11 @@
       <c r="DF218" s="2">
         <v>714</v>
       </c>
+      <c r="DG218" s="2">
+        <v>719</v>
+      </c>
     </row>
-    <row r="219" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -74256,8 +74907,11 @@
       <c r="DF219" s="2">
         <v>271</v>
       </c>
+      <c r="DG219" s="2">
+        <v>272</v>
+      </c>
     </row>
-    <row r="220" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -74588,8 +75242,11 @@
       <c r="DF220" s="2">
         <v>1457</v>
       </c>
+      <c r="DG220" s="2">
+        <v>1462</v>
+      </c>
     </row>
-    <row r="221" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -74920,8 +75577,11 @@
       <c r="DF221" s="2">
         <v>3374</v>
       </c>
+      <c r="DG221" s="2">
+        <v>3384</v>
+      </c>
     </row>
-    <row r="222" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -75252,8 +75912,11 @@
       <c r="DF222" s="2">
         <v>1109163</v>
       </c>
+      <c r="DG222" s="2">
+        <v>1117012</v>
+      </c>
     </row>
-    <row r="223" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -75584,8 +76247,11 @@
       <c r="DF223" s="2">
         <v>81792</v>
       </c>
+      <c r="DG223" s="2">
+        <v>82438</v>
+      </c>
     </row>
-    <row r="224" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -75916,8 +76582,11 @@
       <c r="DF224" s="2">
         <v>304</v>
       </c>
+      <c r="DG224" s="2">
+        <v>306</v>
+      </c>
     </row>
-    <row r="225" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -76248,8 +76917,11 @@
       <c r="DF225" s="2">
         <v>3230</v>
       </c>
+      <c r="DG225" s="2">
+        <v>3233</v>
+      </c>
     </row>
-    <row r="226" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -76580,8 +77252,11 @@
       <c r="DF226" s="2">
         <v>240</v>
       </c>
+      <c r="DG226" s="2">
+        <v>241</v>
+      </c>
     </row>
-    <row r="227" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -76912,8 +77587,11 @@
       <c r="DF227" s="2">
         <v>17874</v>
       </c>
+      <c r="DG227" s="2">
+        <v>18190</v>
+      </c>
     </row>
-    <row r="228" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -77244,8 +77922,11 @@
       <c r="DF228" s="2">
         <v>79366</v>
       </c>
+      <c r="DG228" s="2">
+        <v>80030</v>
+      </c>
     </row>
-    <row r="229" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -77576,8 +78257,11 @@
       <c r="DF229" s="2">
         <v>666546</v>
       </c>
+      <c r="DG229" s="2">
+        <v>674140</v>
+      </c>
     </row>
-    <row r="230" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -77908,8 +78592,11 @@
       <c r="DF230" s="2">
         <v>7205</v>
       </c>
+      <c r="DG230" s="2">
+        <v>7322</v>
+      </c>
     </row>
-    <row r="231" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -78240,8 +78927,11 @@
       <c r="DF231" s="2">
         <v>9269</v>
       </c>
+      <c r="DG231" s="2">
+        <v>9386</v>
+      </c>
     </row>
-    <row r="232" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -78572,8 +79262,11 @@
       <c r="DF232" s="2">
         <v>10138</v>
       </c>
+      <c r="DG232" s="2">
+        <v>10288</v>
+      </c>
     </row>
-    <row r="233" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -78904,8 +79597,11 @@
       <c r="DF233" s="2">
         <v>1668</v>
       </c>
+      <c r="DG233" s="2">
+        <v>1685</v>
+      </c>
     </row>
-    <row r="234" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -79236,8 +79932,11 @@
       <c r="DF234" s="2">
         <v>14855</v>
       </c>
+      <c r="DG234" s="2">
+        <v>14947</v>
+      </c>
     </row>
-    <row r="235" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -79568,8 +80267,11 @@
       <c r="DF235" s="2">
         <v>29071</v>
       </c>
+      <c r="DG235" s="2">
+        <v>29523</v>
+      </c>
     </row>
-    <row r="236" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -79900,8 +80602,11 @@
       <c r="DF236" s="2">
         <v>15384</v>
       </c>
+      <c r="DG236" s="2">
+        <v>15584</v>
+      </c>
     </row>
-    <row r="237" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -80232,8 +80937,11 @@
       <c r="DF237" s="2">
         <v>34215</v>
       </c>
+      <c r="DG237" s="2">
+        <v>34498</v>
+      </c>
     </row>
-    <row r="238" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -80564,8 +81272,11 @@
       <c r="DF238" s="2">
         <v>70674</v>
       </c>
+      <c r="DG238" s="2">
+        <v>71103</v>
+      </c>
     </row>
-    <row r="239" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -80896,8 +81607,11 @@
       <c r="DF239" s="2">
         <v>19091</v>
       </c>
+      <c r="DG239" s="2">
+        <v>19255</v>
+      </c>
     </row>
-    <row r="240" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -81228,8 +81942,11 @@
       <c r="DF240" s="2">
         <v>3344</v>
       </c>
+      <c r="DG240" s="2">
+        <v>3394</v>
+      </c>
     </row>
-    <row r="241" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -81560,8 +82277,11 @@
       <c r="DF241" s="2">
         <v>24579</v>
       </c>
+      <c r="DG241" s="2">
+        <v>24928</v>
+      </c>
     </row>
-    <row r="242" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -81892,8 +82612,11 @@
       <c r="DF242" s="2">
         <v>210083</v>
       </c>
+      <c r="DG242" s="2">
+        <v>212796</v>
+      </c>
     </row>
-    <row r="243" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -82224,8 +82947,11 @@
       <c r="DF243" s="2">
         <v>21820</v>
       </c>
+      <c r="DG243" s="2">
+        <v>21931</v>
+      </c>
     </row>
-    <row r="244" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -82556,8 +83282,11 @@
       <c r="DF244" s="2">
         <v>2836</v>
       </c>
+      <c r="DG244" s="2">
+        <v>2843</v>
+      </c>
     </row>
-    <row r="245" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -82888,8 +83617,11 @@
       <c r="DF245" s="2">
         <v>89015</v>
       </c>
+      <c r="DG245" s="2">
+        <v>89870</v>
+      </c>
     </row>
-    <row r="246" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -83220,8 +83952,11 @@
       <c r="DF246" s="2">
         <v>10214</v>
       </c>
+      <c r="DG246" s="2">
+        <v>10232</v>
+      </c>
     </row>
-    <row r="247" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -83552,8 +84287,11 @@
       <c r="DF247" s="2">
         <v>15121</v>
       </c>
+      <c r="DG247" s="2">
+        <v>15166</v>
+      </c>
     </row>
-    <row r="248" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -83884,8 +84622,11 @@
       <c r="DF248" s="2">
         <v>271523</v>
       </c>
+      <c r="DG248" s="2">
+        <v>274301</v>
+      </c>
     </row>
-    <row r="249" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -84216,8 +84957,11 @@
       <c r="DF249" s="2">
         <v>20058</v>
       </c>
+      <c r="DG249" s="2">
+        <v>20319</v>
+      </c>
     </row>
-    <row r="250" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -84548,8 +85292,11 @@
       <c r="DF250" s="2">
         <v>815</v>
       </c>
+      <c r="DG250" s="2">
+        <v>822</v>
+      </c>
     </row>
-    <row r="251" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -84880,8 +85627,11 @@
       <c r="DF251" s="2">
         <v>33558</v>
       </c>
+      <c r="DG251" s="2">
+        <v>33789</v>
+      </c>
     </row>
-    <row r="252" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -85212,8 +85962,11 @@
       <c r="DF252" s="2">
         <v>14201</v>
       </c>
+      <c r="DG252" s="2">
+        <v>14313</v>
+      </c>
     </row>
-    <row r="253" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -85544,8 +86297,11 @@
       <c r="DF253" s="2">
         <v>2260</v>
       </c>
+      <c r="DG253" s="2">
+        <v>2261</v>
+      </c>
     </row>
-    <row r="254" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -85876,8 +86632,11 @@
       <c r="DF254" s="2">
         <v>5928</v>
       </c>
+      <c r="DG254" s="2">
+        <v>5967</v>
+      </c>
     </row>
-    <row r="255" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -86208,8 +86967,11 @@
       <c r="DF255" s="2">
         <v>11144</v>
       </c>
+      <c r="DG255" s="2">
+        <v>11271</v>
+      </c>
     </row>
-    <row r="256" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -86540,8 +87302,11 @@
       <c r="DF256" s="2">
         <v>5644</v>
       </c>
+      <c r="DG256" s="2">
+        <v>5714</v>
+      </c>
     </row>
-    <row r="257" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -86872,8 +87637,11 @@
       <c r="DF257" s="2">
         <v>123720</v>
       </c>
+      <c r="DG257" s="2">
+        <v>124049</v>
+      </c>
     </row>
-    <row r="258" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -87207,8 +87975,11 @@
       <c r="DF258" s="8">
         <v>15699242</v>
       </c>
+      <c r="DG258" s="8">
+        <v>15832807</v>
+      </c>
     </row>
-    <row r="259" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:111" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -87235,7 +88006,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -87243,7 +88014,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -87251,7 +88022,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -87259,7 +88030,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -87267,7 +88038,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -87275,7 +88046,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -87283,7 +88054,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -87291,7 +88062,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -87299,7 +88070,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -87307,7 +88078,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -87315,7 +88086,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -87323,7 +88094,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -87331,7 +88102,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:111" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0A7D8E5-38A0-46F8-986C-A75D881EC9D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59B7AD10-89C2-4F0A-8ACF-4E5E2EFDA75D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -1834,11 +1834,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DG513"/>
+  <dimension ref="A1:DH513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DG1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1873,15 +1871,15 @@
     <col min="82" max="90" width="10.6640625" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="111" width="10.59765625" style="7" customWidth="1"/>
+    <col min="105" max="112" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2215,8 +2213,11 @@
       <c r="DG2" s="4">
         <v>44196</v>
       </c>
+      <c r="DH2" s="4">
+        <v>44197</v>
+      </c>
     </row>
-    <row r="3" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2550,8 +2551,11 @@
       <c r="DG3" s="2">
         <v>45181</v>
       </c>
+      <c r="DH3" s="2">
+        <v>45735</v>
+      </c>
     </row>
-    <row r="4" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2885,8 +2889,11 @@
       <c r="DG4" s="2">
         <v>4889</v>
       </c>
+      <c r="DH4" s="2">
+        <v>4918</v>
+      </c>
     </row>
-    <row r="5" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3220,8 +3227,11 @@
       <c r="DG5" s="2">
         <v>48141</v>
       </c>
+      <c r="DH5" s="2">
+        <v>48912</v>
+      </c>
     </row>
-    <row r="6" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3555,8 +3565,11 @@
       <c r="DG6" s="2">
         <v>9006</v>
       </c>
+      <c r="DH6" s="2">
+        <v>9098</v>
+      </c>
     </row>
-    <row r="7" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3890,8 +3903,11 @@
       <c r="DG7" s="2">
         <v>2529</v>
       </c>
+      <c r="DH7" s="2">
+        <v>2580</v>
+      </c>
     </row>
-    <row r="8" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4225,8 +4241,11 @@
       <c r="DG8" s="2">
         <v>633</v>
       </c>
+      <c r="DH8" s="2">
+        <v>636</v>
+      </c>
     </row>
-    <row r="9" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4560,8 +4579,11 @@
       <c r="DG9" s="2">
         <v>24971</v>
       </c>
+      <c r="DH9" s="2">
+        <v>25208</v>
+      </c>
     </row>
-    <row r="10" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4895,8 +4917,11 @@
       <c r="DG10" s="2">
         <v>12094</v>
       </c>
+      <c r="DH10" s="2">
+        <v>12240</v>
+      </c>
     </row>
-    <row r="11" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5230,8 +5255,11 @@
       <c r="DG11" s="2">
         <v>1841</v>
       </c>
+      <c r="DH11" s="2">
+        <v>1852</v>
+      </c>
     </row>
-    <row r="12" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5565,8 +5593,11 @@
       <c r="DG12" s="2">
         <v>6749</v>
       </c>
+      <c r="DH12" s="2">
+        <v>6789</v>
+      </c>
     </row>
-    <row r="13" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5900,8 +5931,11 @@
       <c r="DG13" s="2">
         <v>38565</v>
       </c>
+      <c r="DH13" s="2">
+        <v>39493</v>
+      </c>
     </row>
-    <row r="14" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6235,8 +6269,11 @@
       <c r="DG14" s="2">
         <v>1542</v>
       </c>
+      <c r="DH14" s="2">
+        <v>1579</v>
+      </c>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6570,8 +6607,11 @@
       <c r="DG15" s="2">
         <v>29342</v>
       </c>
+      <c r="DH15" s="2">
+        <v>29705</v>
+      </c>
     </row>
-    <row r="16" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6905,8 +6945,11 @@
       <c r="DG16" s="2">
         <v>175704</v>
       </c>
+      <c r="DH16" s="2">
+        <v>178443</v>
+      </c>
     </row>
-    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7240,8 +7283,11 @@
       <c r="DG17" s="2">
         <v>1035603</v>
       </c>
+      <c r="DH17" s="2">
+        <v>1045941</v>
+      </c>
     </row>
-    <row r="18" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7575,8 +7621,11 @@
       <c r="DG18" s="2">
         <v>4037</v>
       </c>
+      <c r="DH18" s="2">
+        <v>4085</v>
+      </c>
     </row>
-    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7910,8 +7959,11 @@
       <c r="DG19" s="2">
         <v>111</v>
       </c>
+      <c r="DH19" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8245,8 +8297,11 @@
       <c r="DG20" s="2">
         <v>10212</v>
       </c>
+      <c r="DH20" s="2">
+        <v>10268</v>
+      </c>
     </row>
-    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8580,8 +8635,11 @@
       <c r="DG21" s="2">
         <v>56797</v>
       </c>
+      <c r="DH21" s="2">
+        <v>57580</v>
+      </c>
     </row>
-    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8915,8 +8973,11 @@
       <c r="DG22" s="2">
         <v>223211</v>
       </c>
+      <c r="DH22" s="2">
+        <v>225299</v>
+      </c>
     </row>
-    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9250,8 +9311,11 @@
       <c r="DG23" s="2">
         <v>161071</v>
       </c>
+      <c r="DH23" s="2">
+        <v>163162</v>
+      </c>
     </row>
-    <row r="24" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9585,8 +9649,11 @@
       <c r="DG24" s="2">
         <v>7559</v>
       </c>
+      <c r="DH24" s="2">
+        <v>7589</v>
+      </c>
     </row>
-    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9920,8 +9987,11 @@
       <c r="DG25" s="2">
         <v>533</v>
       </c>
+      <c r="DH25" s="2">
+        <v>535</v>
+      </c>
     </row>
-    <row r="26" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10255,8 +10325,11 @@
       <c r="DG26" s="2">
         <v>10509</v>
       </c>
+      <c r="DH26" s="2">
+        <v>10553</v>
+      </c>
     </row>
-    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10590,8 +10663,11 @@
       <c r="DG27" s="2">
         <v>21425</v>
       </c>
+      <c r="DH27" s="2">
+        <v>21752</v>
+      </c>
     </row>
-    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -10925,8 +11001,11 @@
       <c r="DG28" s="2">
         <v>9538</v>
       </c>
+      <c r="DH28" s="2">
+        <v>9665</v>
+      </c>
     </row>
-    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11260,8 +11339,11 @@
       <c r="DG29" s="2">
         <v>22851</v>
       </c>
+      <c r="DH29" s="2">
+        <v>23179</v>
+      </c>
     </row>
-    <row r="30" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11595,8 +11677,11 @@
       <c r="DG30" s="2">
         <v>22648</v>
       </c>
+      <c r="DH30" s="2">
+        <v>22887</v>
+      </c>
     </row>
-    <row r="31" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -11930,8 +12015,11 @@
       <c r="DG31" s="2">
         <v>11196</v>
       </c>
+      <c r="DH31" s="2">
+        <v>11305</v>
+      </c>
     </row>
-    <row r="32" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -12265,8 +12353,11 @@
       <c r="DG32" s="2">
         <v>6422</v>
       </c>
+      <c r="DH32" s="2">
+        <v>6481</v>
+      </c>
     </row>
-    <row r="33" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12600,8 +12691,11 @@
       <c r="DG33" s="2">
         <v>188103</v>
       </c>
+      <c r="DH33" s="2">
+        <v>189702</v>
+      </c>
     </row>
-    <row r="34" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -12935,8 +13029,11 @@
       <c r="DG34" s="2">
         <v>4841</v>
       </c>
+      <c r="DH34" s="2">
+        <v>4911</v>
+      </c>
     </row>
-    <row r="35" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13270,8 +13367,11 @@
       <c r="DG35" s="2">
         <v>1779</v>
       </c>
+      <c r="DH35" s="2">
+        <v>1798</v>
+      </c>
     </row>
-    <row r="36" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13605,8 +13705,11 @@
       <c r="DG36" s="2">
         <v>12926</v>
       </c>
+      <c r="DH36" s="2">
+        <v>13075</v>
+      </c>
     </row>
-    <row r="37" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -13940,8 +14043,11 @@
       <c r="DG37" s="2">
         <v>4254</v>
       </c>
+      <c r="DH37" s="2">
+        <v>4278</v>
+      </c>
     </row>
-    <row r="38" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -14275,8 +14381,11 @@
       <c r="DG38" s="2">
         <v>6629</v>
       </c>
+      <c r="DH38" s="2">
+        <v>6676</v>
+      </c>
     </row>
-    <row r="39" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14610,8 +14719,11 @@
       <c r="DG39" s="2">
         <v>20054</v>
       </c>
+      <c r="DH39" s="2">
+        <v>20285</v>
+      </c>
     </row>
-    <row r="40" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -14945,8 +15057,11 @@
       <c r="DG40" s="2">
         <v>5027</v>
       </c>
+      <c r="DH40" s="2">
+        <v>5064</v>
+      </c>
     </row>
-    <row r="41" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15280,8 +15395,11 @@
       <c r="DG41" s="2">
         <v>3607</v>
       </c>
+      <c r="DH41" s="2">
+        <v>3754</v>
+      </c>
     </row>
-    <row r="42" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15615,8 +15733,11 @@
       <c r="DG42" s="2">
         <v>791</v>
       </c>
+      <c r="DH42" s="2">
+        <v>797</v>
+      </c>
     </row>
-    <row r="43" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -15950,8 +16071,11 @@
       <c r="DG43" s="2">
         <v>2496</v>
       </c>
+      <c r="DH43" s="2">
+        <v>2531</v>
+      </c>
     </row>
-    <row r="44" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -16285,8 +16409,11 @@
       <c r="DG44" s="2">
         <v>3710</v>
       </c>
+      <c r="DH44" s="2">
+        <v>3781</v>
+      </c>
     </row>
-    <row r="45" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16620,8 +16747,11 @@
       <c r="DG45" s="2">
         <v>655371</v>
       </c>
+      <c r="DH45" s="2">
+        <v>662979</v>
+      </c>
     </row>
-    <row r="46" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -16955,8 +17085,11 @@
       <c r="DG46" s="2">
         <v>1481</v>
       </c>
+      <c r="DH46" s="2">
+        <v>1497</v>
+      </c>
     </row>
-    <row r="47" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17290,8 +17423,11 @@
       <c r="DG47" s="2">
         <v>10694</v>
       </c>
+      <c r="DH47" s="2">
+        <v>10899</v>
+      </c>
     </row>
-    <row r="48" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17625,8 +17761,11 @@
       <c r="DG48" s="2">
         <v>70072</v>
       </c>
+      <c r="DH48" s="2">
+        <v>70887</v>
+      </c>
     </row>
-    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -17960,8 +18099,11 @@
       <c r="DG49" s="2">
         <v>6917</v>
       </c>
+      <c r="DH49" s="2">
+        <v>6985</v>
+      </c>
     </row>
-    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -18295,8 +18437,11 @@
       <c r="DG50" s="2">
         <v>1911</v>
       </c>
+      <c r="DH50" s="2">
+        <v>1925</v>
+      </c>
     </row>
-    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18630,8 +18775,11 @@
       <c r="DG51" s="2">
         <v>19854</v>
       </c>
+      <c r="DH51" s="2">
+        <v>20385</v>
+      </c>
     </row>
-    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -18965,8 +19113,11 @@
       <c r="DG52" s="2">
         <v>65266</v>
       </c>
+      <c r="DH52" s="2">
+        <v>65546</v>
+      </c>
     </row>
-    <row r="53" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -19300,8 +19451,11 @@
       <c r="DG53" s="2">
         <v>976</v>
       </c>
+      <c r="DH53" s="2">
+        <v>993</v>
+      </c>
     </row>
-    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19635,8 +19789,11 @@
       <c r="DG54" s="2">
         <v>3611</v>
       </c>
+      <c r="DH54" s="2">
+        <v>3670</v>
+      </c>
     </row>
-    <row r="55" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -19970,8 +20127,11 @@
       <c r="DG55" s="2">
         <v>1982</v>
       </c>
+      <c r="DH55" s="2">
+        <v>1995</v>
+      </c>
     </row>
-    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -20305,8 +20465,11 @@
       <c r="DG56" s="2">
         <v>3001</v>
       </c>
+      <c r="DH56" s="2">
+        <v>3038</v>
+      </c>
     </row>
-    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20640,8 +20803,11 @@
       <c r="DG57" s="2">
         <v>1703</v>
       </c>
+      <c r="DH57" s="2">
+        <v>1709</v>
+      </c>
     </row>
-    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -20975,8 +21141,11 @@
       <c r="DG58" s="2">
         <v>1572</v>
       </c>
+      <c r="DH58" s="2">
+        <v>1637</v>
+      </c>
     </row>
-    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -21310,8 +21479,11 @@
       <c r="DG59" s="2">
         <v>1646767</v>
       </c>
+      <c r="DH59" s="2">
+        <v>1661775</v>
+      </c>
     </row>
-    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21645,8 +21817,11 @@
       <c r="DG60" s="2">
         <v>7540</v>
       </c>
+      <c r="DH60" s="2">
+        <v>7603</v>
+      </c>
     </row>
-    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -21980,8 +22155,11 @@
       <c r="DG61" s="2">
         <v>7469</v>
       </c>
+      <c r="DH61" s="2">
+        <v>7509</v>
+      </c>
     </row>
-    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -22315,8 +22493,11 @@
       <c r="DG62" s="2">
         <v>5336</v>
       </c>
+      <c r="DH62" s="2">
+        <v>5466</v>
+      </c>
     </row>
-    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -22650,8 +22831,11 @@
       <c r="DG63" s="2">
         <v>2005</v>
       </c>
+      <c r="DH63" s="2">
+        <v>2028</v>
+      </c>
     </row>
-    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -22985,8 +23169,11 @@
       <c r="DG64" s="2">
         <v>409887</v>
       </c>
+      <c r="DH64" s="2">
+        <v>416189</v>
+      </c>
     </row>
-    <row r="65" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -23320,8 +23507,11 @@
       <c r="DG65" s="2">
         <v>583</v>
       </c>
+      <c r="DH65" s="2">
+        <v>591</v>
+      </c>
     </row>
-    <row r="66" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -23655,8 +23845,11 @@
       <c r="DG66" s="2">
         <v>5348</v>
       </c>
+      <c r="DH66" s="2">
+        <v>5461</v>
+      </c>
     </row>
-    <row r="67" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -23990,8 +24183,11 @@
       <c r="DG67" s="2">
         <v>1517</v>
       </c>
+      <c r="DH67" s="2">
+        <v>1527</v>
+      </c>
     </row>
-    <row r="68" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -24325,8 +24521,11 @@
       <c r="DG68" s="2">
         <v>13547</v>
       </c>
+      <c r="DH68" s="2">
+        <v>13937</v>
+      </c>
     </row>
-    <row r="69" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -24660,8 +24859,11 @@
       <c r="DG69" s="2">
         <v>5497</v>
       </c>
+      <c r="DH69" s="2">
+        <v>5535</v>
+      </c>
     </row>
-    <row r="70" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -24995,8 +25197,11 @@
       <c r="DG70" s="2">
         <v>55747</v>
       </c>
+      <c r="DH70" s="2">
+        <v>56252</v>
+      </c>
     </row>
-    <row r="71" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -25330,8 +25535,11 @@
       <c r="DG71" s="2">
         <v>1088</v>
       </c>
+      <c r="DH71" s="2">
+        <v>1090</v>
+      </c>
     </row>
-    <row r="72" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -25665,8 +25873,11 @@
       <c r="DG72" s="2">
         <v>650282</v>
       </c>
+      <c r="DH72" s="2">
+        <v>652485</v>
+      </c>
     </row>
-    <row r="73" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -26000,8 +26211,11 @@
       <c r="DG73" s="2">
         <v>111606</v>
       </c>
+      <c r="DH73" s="2">
+        <v>113526</v>
+      </c>
     </row>
-    <row r="74" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -26335,8 +26549,11 @@
       <c r="DG74" s="2">
         <v>16080</v>
       </c>
+      <c r="DH74" s="2">
+        <v>16150</v>
+      </c>
     </row>
-    <row r="75" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -26670,8 +26887,11 @@
       <c r="DG75" s="2">
         <v>10594</v>
       </c>
+      <c r="DH75" s="2">
+        <v>10660</v>
+      </c>
     </row>
-    <row r="76" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -27005,8 +27225,11 @@
       <c r="DG76" s="2">
         <v>18541</v>
       </c>
+      <c r="DH76" s="2">
+        <v>18750</v>
+      </c>
     </row>
-    <row r="77" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -27340,8 +27563,11 @@
       <c r="DG77" s="2">
         <v>10869</v>
       </c>
+      <c r="DH77" s="2">
+        <v>11041</v>
+      </c>
     </row>
-    <row r="78" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -27675,8 +27901,11 @@
       <c r="DG78" s="2">
         <v>1185</v>
       </c>
+      <c r="DH78" s="2">
+        <v>1201</v>
+      </c>
     </row>
-    <row r="79" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -28010,8 +28239,11 @@
       <c r="DG79" s="2">
         <v>2020</v>
       </c>
+      <c r="DH79" s="2">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="80" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -28345,8 +28577,11 @@
       <c r="DG80" s="2">
         <v>758</v>
       </c>
+      <c r="DH80" s="2">
+        <v>764</v>
+      </c>
     </row>
-    <row r="81" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -28680,8 +28915,11 @@
       <c r="DG81" s="2">
         <v>419815</v>
       </c>
+      <c r="DH81" s="2">
+        <v>425633</v>
+      </c>
     </row>
-    <row r="82" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -29015,8 +29253,11 @@
       <c r="DG82" s="2">
         <v>3682</v>
       </c>
+      <c r="DH82" s="2">
+        <v>3755</v>
+      </c>
     </row>
-    <row r="83" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -29350,8 +29591,11 @@
       <c r="DG83" s="2">
         <v>12473</v>
       </c>
+      <c r="DH83" s="2">
+        <v>12535</v>
+      </c>
     </row>
-    <row r="84" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -29685,8 +29929,11 @@
       <c r="DG84" s="2">
         <v>11059</v>
       </c>
+      <c r="DH84" s="2">
+        <v>11144</v>
+      </c>
     </row>
-    <row r="85" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -30020,8 +30267,11 @@
       <c r="DG85" s="2">
         <v>3360</v>
       </c>
+      <c r="DH85" s="2">
+        <v>3383</v>
+      </c>
     </row>
-    <row r="86" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -30355,8 +30605,11 @@
       <c r="DG86" s="2">
         <v>241839</v>
       </c>
+      <c r="DH86" s="2">
+        <v>244187</v>
+      </c>
     </row>
-    <row r="87" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -30690,8 +30943,11 @@
       <c r="DG87" s="2">
         <v>2128</v>
       </c>
+      <c r="DH87" s="2">
+        <v>2138</v>
+      </c>
     </row>
-    <row r="88" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -31025,8 +31281,11 @@
       <c r="DG88" s="2">
         <v>13597</v>
       </c>
+      <c r="DH88" s="2">
+        <v>13705</v>
+      </c>
     </row>
-    <row r="89" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -31360,8 +31619,11 @@
       <c r="DG89" s="2">
         <v>144</v>
       </c>
+      <c r="DH89" s="2">
+        <v>146</v>
+      </c>
     </row>
-    <row r="90" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -31695,8 +31957,11 @@
       <c r="DG90" s="2">
         <v>2766</v>
       </c>
+      <c r="DH90" s="2">
+        <v>2777</v>
+      </c>
     </row>
-    <row r="91" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -32030,8 +32295,11 @@
       <c r="DG91" s="2">
         <v>10777</v>
       </c>
+      <c r="DH91" s="2">
+        <v>10941</v>
+      </c>
     </row>
-    <row r="92" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -32365,8 +32633,11 @@
       <c r="DG92" s="2">
         <v>6864</v>
       </c>
+      <c r="DH92" s="2">
+        <v>6892</v>
+      </c>
     </row>
-    <row r="93" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -32700,8 +32971,11 @@
       <c r="DG93" s="2">
         <v>71474</v>
       </c>
+      <c r="DH93" s="2">
+        <v>73350</v>
+      </c>
     </row>
-    <row r="94" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -33035,8 +33309,11 @@
       <c r="DG94" s="2">
         <v>47072</v>
       </c>
+      <c r="DH94" s="2">
+        <v>47856</v>
+      </c>
     </row>
-    <row r="95" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -33370,8 +33647,11 @@
       <c r="DG95" s="2">
         <v>18044</v>
       </c>
+      <c r="DH95" s="2">
+        <v>18420</v>
+      </c>
     </row>
-    <row r="96" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -33705,8 +33985,11 @@
       <c r="DG96" s="2">
         <v>52184</v>
       </c>
+      <c r="DH96" s="2">
+        <v>52653</v>
+      </c>
     </row>
-    <row r="97" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -34040,8 +34323,11 @@
       <c r="DG97" s="2">
         <v>11207</v>
       </c>
+      <c r="DH97" s="2">
+        <v>11255</v>
+      </c>
     </row>
-    <row r="98" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -34375,8 +34661,11 @@
       <c r="DG98" s="2">
         <v>2093</v>
       </c>
+      <c r="DH98" s="2">
+        <v>2108</v>
+      </c>
     </row>
-    <row r="99" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -34710,8 +34999,11 @@
       <c r="DG99" s="2">
         <v>4158</v>
       </c>
+      <c r="DH99" s="2">
+        <v>4205</v>
+      </c>
     </row>
-    <row r="100" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -35045,8 +35337,11 @@
       <c r="DG100" s="2">
         <v>2301</v>
       </c>
+      <c r="DH100" s="2">
+        <v>2303</v>
+      </c>
     </row>
-    <row r="101" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -35380,8 +35675,11 @@
       <c r="DG101" s="2">
         <v>1648</v>
       </c>
+      <c r="DH101" s="2">
+        <v>1664</v>
+      </c>
     </row>
-    <row r="102" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -35715,8 +36013,11 @@
       <c r="DG102" s="2">
         <v>17837</v>
       </c>
+      <c r="DH102" s="2">
+        <v>18013</v>
+      </c>
     </row>
-    <row r="103" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -36050,8 +36351,11 @@
       <c r="DG103" s="2">
         <v>2635249</v>
       </c>
+      <c r="DH103" s="2">
+        <v>2662895</v>
+      </c>
     </row>
-    <row r="104" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -36385,8 +36689,11 @@
       <c r="DG104" s="2">
         <v>49092</v>
       </c>
+      <c r="DH104" s="2">
+        <v>49790</v>
+      </c>
     </row>
-    <row r="105" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -36720,8 +37027,11 @@
       <c r="DG105" s="2">
         <v>147</v>
       </c>
+      <c r="DH105" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="106" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -37055,8 +37365,11 @@
       <c r="DG106" s="2">
         <v>1825</v>
       </c>
+      <c r="DH106" s="2">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="107" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -37390,8 +37703,11 @@
       <c r="DG107" s="2">
         <v>146617</v>
       </c>
+      <c r="DH107" s="2">
+        <v>148093</v>
+      </c>
     </row>
-    <row r="108" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -37725,8 +38041,11 @@
       <c r="DG108" s="2">
         <v>998</v>
       </c>
+      <c r="DH108" s="2">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="109" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -38060,8 +38379,11 @@
       <c r="DG109" s="2">
         <v>23418</v>
       </c>
+      <c r="DH109" s="2">
+        <v>23587</v>
+      </c>
     </row>
-    <row r="110" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -38395,8 +38717,11 @@
       <c r="DG110" s="2">
         <v>341165</v>
       </c>
+      <c r="DH110" s="2">
+        <v>343456</v>
+      </c>
     </row>
-    <row r="111" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -38730,8 +39055,11 @@
       <c r="DG111" s="2">
         <v>28699</v>
       </c>
+      <c r="DH111" s="2">
+        <v>28979</v>
+      </c>
     </row>
-    <row r="112" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -39065,8 +39393,11 @@
       <c r="DG112" s="2">
         <v>7859</v>
       </c>
+      <c r="DH112" s="2">
+        <v>7904</v>
+      </c>
     </row>
-    <row r="113" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -39400,8 +39731,11 @@
       <c r="DG113" s="2">
         <v>35382</v>
       </c>
+      <c r="DH113" s="2">
+        <v>35580</v>
+      </c>
     </row>
-    <row r="114" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -39735,8 +40069,11 @@
       <c r="DG114" s="2">
         <v>14283</v>
       </c>
+      <c r="DH114" s="2">
+        <v>14552</v>
+      </c>
     </row>
-    <row r="115" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -40070,8 +40407,11 @@
       <c r="DG115" s="2">
         <v>13149</v>
       </c>
+      <c r="DH115" s="2">
+        <v>13218</v>
+      </c>
     </row>
-    <row r="116" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -40405,8 +40745,11 @@
       <c r="DG116" s="2">
         <v>12440</v>
       </c>
+      <c r="DH116" s="2">
+        <v>12551</v>
+      </c>
     </row>
-    <row r="117" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -40740,8 +41083,11 @@
       <c r="DG117" s="2">
         <v>2182</v>
       </c>
+      <c r="DH117" s="2">
+        <v>2184</v>
+      </c>
     </row>
-    <row r="118" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -41075,8 +41421,11 @@
       <c r="DG118" s="2">
         <v>53950</v>
       </c>
+      <c r="DH118" s="2">
+        <v>55270</v>
+      </c>
     </row>
-    <row r="119" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -41410,8 +41759,11 @@
       <c r="DG119" s="2">
         <v>8806</v>
       </c>
+      <c r="DH119" s="2">
+        <v>8849</v>
+      </c>
     </row>
-    <row r="120" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -41745,8 +42097,11 @@
       <c r="DG120" s="2">
         <v>413</v>
       </c>
+      <c r="DH120" s="2">
+        <v>413</v>
+      </c>
     </row>
-    <row r="121" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -42080,8 +42435,11 @@
       <c r="DG121" s="2">
         <v>1328</v>
       </c>
+      <c r="DH121" s="2">
+        <v>1347</v>
+      </c>
     </row>
-    <row r="122" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -42415,8 +42773,11 @@
       <c r="DG122" s="2">
         <v>5672</v>
       </c>
+      <c r="DH122" s="2">
+        <v>5719</v>
+      </c>
     </row>
-    <row r="123" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -42750,8 +43111,11 @@
       <c r="DG123" s="2">
         <v>12234</v>
       </c>
+      <c r="DH123" s="2">
+        <v>12426</v>
+      </c>
     </row>
-    <row r="124" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -43085,8 +43449,11 @@
       <c r="DG124" s="2">
         <v>1327</v>
       </c>
+      <c r="DH124" s="2">
+        <v>1328</v>
+      </c>
     </row>
-    <row r="125" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -43420,8 +43787,11 @@
       <c r="DG125" s="2">
         <v>138904</v>
       </c>
+      <c r="DH125" s="2">
+        <v>140105</v>
+      </c>
     </row>
-    <row r="126" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -43755,8 +44125,11 @@
       <c r="DG126" s="2">
         <v>8024</v>
       </c>
+      <c r="DH126" s="2">
+        <v>8161</v>
+      </c>
     </row>
-    <row r="127" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -44090,8 +44463,11 @@
       <c r="DG127" s="2">
         <v>43447</v>
       </c>
+      <c r="DH127" s="2">
+        <v>43906</v>
+      </c>
     </row>
-    <row r="128" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -44425,8 +44801,11 @@
       <c r="DG128" s="2">
         <v>86179</v>
       </c>
+      <c r="DH128" s="2">
+        <v>87052</v>
+      </c>
     </row>
-    <row r="129" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -44760,8 +45139,11 @@
       <c r="DG129" s="2">
         <v>5743</v>
       </c>
+      <c r="DH129" s="2">
+        <v>5805</v>
+      </c>
     </row>
-    <row r="130" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -45095,8 +45477,11 @@
       <c r="DG130" s="2">
         <v>11851</v>
       </c>
+      <c r="DH130" s="2">
+        <v>11909</v>
+      </c>
     </row>
-    <row r="131" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -45430,8 +45815,11 @@
       <c r="DG131" s="2">
         <v>74985</v>
       </c>
+      <c r="DH131" s="2">
+        <v>76065</v>
+      </c>
     </row>
-    <row r="132" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -45765,8 +46153,11 @@
       <c r="DG132" s="2">
         <v>17594</v>
       </c>
+      <c r="DH132" s="2">
+        <v>17729</v>
+      </c>
     </row>
-    <row r="133" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -46100,8 +46491,11 @@
       <c r="DG133" s="2">
         <v>151</v>
       </c>
+      <c r="DH133" s="2">
+        <v>155</v>
+      </c>
     </row>
-    <row r="134" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -46435,8 +46829,11 @@
       <c r="DG134" s="2">
         <v>412</v>
       </c>
+      <c r="DH134" s="2">
+        <v>413</v>
+      </c>
     </row>
-    <row r="135" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -46770,8 +47167,11 @@
       <c r="DG135" s="2">
         <v>32678</v>
       </c>
+      <c r="DH135" s="2">
+        <v>32745</v>
+      </c>
     </row>
-    <row r="136" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -47105,8 +47505,11 @@
       <c r="DG136" s="2">
         <v>1526</v>
       </c>
+      <c r="DH136" s="2">
+        <v>1529</v>
+      </c>
     </row>
-    <row r="137" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -47440,8 +47843,11 @@
       <c r="DG137" s="2">
         <v>39</v>
       </c>
+      <c r="DH137" s="2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="138" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -47775,8 +48181,11 @@
       <c r="DG138" s="2">
         <v>1280</v>
       </c>
+      <c r="DH138" s="2">
+        <v>1308</v>
+      </c>
     </row>
-    <row r="139" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -48110,8 +48519,11 @@
       <c r="DG139" s="2">
         <v>23385</v>
       </c>
+      <c r="DH139" s="2">
+        <v>23692</v>
+      </c>
     </row>
-    <row r="140" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -48445,8 +48857,11 @@
       <c r="DG140" s="2">
         <v>1809</v>
       </c>
+      <c r="DH140" s="2">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="141" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -48780,8 +49195,11 @@
       <c r="DG141" s="2">
         <v>5312</v>
       </c>
+      <c r="DH141" s="2">
+        <v>5360</v>
+      </c>
     </row>
-    <row r="142" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -49115,8 +49533,11 @@
       <c r="DG142" s="2">
         <v>18059</v>
       </c>
+      <c r="DH142" s="2">
+        <v>18281</v>
+      </c>
     </row>
-    <row r="143" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -49450,8 +49871,11 @@
       <c r="DG143" s="2">
         <v>7095</v>
       </c>
+      <c r="DH143" s="2">
+        <v>7291</v>
+      </c>
     </row>
-    <row r="144" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -49785,8 +50209,11 @@
       <c r="DG144" s="2">
         <v>12923</v>
       </c>
+      <c r="DH144" s="2">
+        <v>13027</v>
+      </c>
     </row>
-    <row r="145" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -50120,8 +50547,11 @@
       <c r="DG145" s="2">
         <v>9736</v>
       </c>
+      <c r="DH145" s="2">
+        <v>9795</v>
+      </c>
     </row>
-    <row r="146" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -50455,8 +50885,11 @@
       <c r="DG146" s="2">
         <v>6315</v>
       </c>
+      <c r="DH146" s="2">
+        <v>6374</v>
+      </c>
     </row>
-    <row r="147" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -50790,8 +51223,11 @@
       <c r="DG147" s="2">
         <v>7376</v>
       </c>
+      <c r="DH147" s="2">
+        <v>7440</v>
+      </c>
     </row>
-    <row r="148" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -51125,8 +51561,11 @@
       <c r="DG148" s="2">
         <v>37449</v>
       </c>
+      <c r="DH148" s="2">
+        <v>37843</v>
+      </c>
     </row>
-    <row r="149" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -51460,8 +51899,11 @@
       <c r="DG149" s="2">
         <v>21159</v>
       </c>
+      <c r="DH149" s="2">
+        <v>21330</v>
+      </c>
     </row>
-    <row r="150" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -51795,8 +52237,11 @@
       <c r="DG150" s="2">
         <v>286</v>
       </c>
+      <c r="DH150" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="151" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -52130,8 +52575,11 @@
       <c r="DG151" s="2">
         <v>4128</v>
       </c>
+      <c r="DH151" s="2">
+        <v>4176</v>
+      </c>
     </row>
-    <row r="152" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -52465,8 +52913,11 @@
       <c r="DG152" s="2">
         <v>7688</v>
       </c>
+      <c r="DH152" s="2">
+        <v>7757</v>
+      </c>
     </row>
-    <row r="153" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -52800,8 +53251,11 @@
       <c r="DG153" s="2">
         <v>23</v>
       </c>
+      <c r="DH153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -53135,8 +53589,11 @@
       <c r="DG154" s="2">
         <v>216399</v>
       </c>
+      <c r="DH154" s="2">
+        <v>217983</v>
+      </c>
     </row>
-    <row r="155" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -53470,8 +53927,11 @@
       <c r="DG155" s="2">
         <v>3284</v>
       </c>
+      <c r="DH155" s="2">
+        <v>3311</v>
+      </c>
     </row>
-    <row r="156" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -53805,8 +54265,11 @@
       <c r="DG156" s="2">
         <v>10170</v>
       </c>
+      <c r="DH156" s="2">
+        <v>10254</v>
+      </c>
     </row>
-    <row r="157" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -54140,8 +54603,11 @@
       <c r="DG157" s="2">
         <v>2500</v>
       </c>
+      <c r="DH157" s="2">
+        <v>2537</v>
+      </c>
     </row>
-    <row r="158" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -54475,8 +54941,11 @@
       <c r="DG158" s="2">
         <v>1331</v>
       </c>
+      <c r="DH158" s="2">
+        <v>1337</v>
+      </c>
     </row>
-    <row r="159" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -54810,8 +55279,11 @@
       <c r="DG159" s="2">
         <v>1698</v>
       </c>
+      <c r="DH159" s="2">
+        <v>1723</v>
+      </c>
     </row>
-    <row r="160" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -55145,8 +55617,11 @@
       <c r="DG160" s="2">
         <v>17721</v>
       </c>
+      <c r="DH160" s="2">
+        <v>17849</v>
+      </c>
     </row>
-    <row r="161" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -55480,8 +55955,11 @@
       <c r="DG161" s="2">
         <v>38564</v>
       </c>
+      <c r="DH161" s="2">
+        <v>39165</v>
+      </c>
     </row>
-    <row r="162" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -55815,8 +56293,11 @@
       <c r="DG162" s="2">
         <v>2433</v>
       </c>
+      <c r="DH162" s="2">
+        <v>2450</v>
+      </c>
     </row>
-    <row r="163" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -56150,8 +56631,11 @@
       <c r="DG163" s="2">
         <v>204487</v>
       </c>
+      <c r="DH163" s="2">
+        <v>205700</v>
+      </c>
     </row>
-    <row r="164" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -56485,8 +56969,11 @@
       <c r="DG164" s="2">
         <v>296</v>
       </c>
+      <c r="DH164" s="2">
+        <v>307</v>
+      </c>
     </row>
-    <row r="165" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -56820,8 +57307,11 @@
       <c r="DG165" s="2">
         <v>19248</v>
       </c>
+      <c r="DH165" s="2">
+        <v>19494</v>
+      </c>
     </row>
-    <row r="166" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -57155,8 +57645,11 @@
       <c r="DG166" s="2">
         <v>1823</v>
       </c>
+      <c r="DH166" s="2">
+        <v>1840</v>
+      </c>
     </row>
-    <row r="167" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -57490,8 +57983,11 @@
       <c r="DG167" s="2">
         <v>55112</v>
       </c>
+      <c r="DH167" s="2">
+        <v>55556</v>
+      </c>
     </row>
-    <row r="168" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -57825,8 +58321,11 @@
       <c r="DG168" s="2">
         <v>13221</v>
       </c>
+      <c r="DH168" s="2">
+        <v>13286</v>
+      </c>
     </row>
-    <row r="169" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -58160,8 +58659,11 @@
       <c r="DG169" s="2">
         <v>3830</v>
       </c>
+      <c r="DH169" s="2">
+        <v>3835</v>
+      </c>
     </row>
-    <row r="170" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -58495,8 +58997,11 @@
       <c r="DG170" s="2">
         <v>5090</v>
       </c>
+      <c r="DH170" s="2">
+        <v>5109</v>
+      </c>
     </row>
-    <row r="171" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -58830,8 +59335,11 @@
       <c r="DG171" s="2">
         <v>9150</v>
       </c>
+      <c r="DH171" s="2">
+        <v>9353</v>
+      </c>
     </row>
-    <row r="172" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -59165,8 +59673,11 @@
       <c r="DG172" s="2">
         <v>246351</v>
       </c>
+      <c r="DH172" s="2">
+        <v>250141</v>
+      </c>
     </row>
-    <row r="173" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -59500,8 +60011,11 @@
       <c r="DG173" s="2">
         <v>7322</v>
       </c>
+      <c r="DH173" s="2">
+        <v>7356</v>
+      </c>
     </row>
-    <row r="174" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -59835,8 +60349,11 @@
       <c r="DG174" s="2">
         <v>5962</v>
       </c>
+      <c r="DH174" s="2">
+        <v>6029</v>
+      </c>
     </row>
-    <row r="175" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -60170,8 +60687,11 @@
       <c r="DG175" s="2">
         <v>477</v>
       </c>
+      <c r="DH175" s="2">
+        <v>478</v>
+      </c>
     </row>
-    <row r="176" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -60505,8 +61025,11 @@
       <c r="DG176" s="2">
         <v>31767</v>
       </c>
+      <c r="DH176" s="2">
+        <v>32068</v>
+      </c>
     </row>
-    <row r="177" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -60840,8 +61363,11 @@
       <c r="DG177" s="2">
         <v>23915</v>
       </c>
+      <c r="DH177" s="2">
+        <v>24030</v>
+      </c>
     </row>
-    <row r="178" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -61175,8 +61701,11 @@
       <c r="DG178" s="2">
         <v>3566</v>
       </c>
+      <c r="DH178" s="2">
+        <v>3801</v>
+      </c>
     </row>
-    <row r="179" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -61510,8 +62039,11 @@
       <c r="DG179" s="2">
         <v>7175</v>
       </c>
+      <c r="DH179" s="2">
+        <v>7280</v>
+      </c>
     </row>
-    <row r="180" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -61845,8 +62377,11 @@
       <c r="DG180" s="2">
         <v>199140</v>
       </c>
+      <c r="DH180" s="2">
+        <v>201090</v>
+      </c>
     </row>
-    <row r="181" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -62180,8 +62715,11 @@
       <c r="DG181" s="2">
         <v>576</v>
       </c>
+      <c r="DH181" s="2">
+        <v>578</v>
+      </c>
     </row>
-    <row r="182" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -62515,8 +63053,11 @@
       <c r="DG182" s="2">
         <v>684</v>
       </c>
+      <c r="DH182" s="2">
+        <v>686</v>
+      </c>
     </row>
-    <row r="183" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -62850,8 +63391,11 @@
       <c r="DG183" s="2">
         <v>25697</v>
       </c>
+      <c r="DH183" s="2">
+        <v>26080</v>
+      </c>
     </row>
-    <row r="184" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -63185,8 +63729,11 @@
       <c r="DG184" s="2">
         <v>11737</v>
       </c>
+      <c r="DH184" s="2">
+        <v>11847</v>
+      </c>
     </row>
-    <row r="185" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -63520,8 +64067,11 @@
       <c r="DG185" s="2">
         <v>7596</v>
       </c>
+      <c r="DH185" s="2">
+        <v>7780</v>
+      </c>
     </row>
-    <row r="186" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -63855,8 +64405,11 @@
       <c r="DG186" s="2">
         <v>54453</v>
       </c>
+      <c r="DH186" s="2">
+        <v>54906</v>
+      </c>
     </row>
-    <row r="187" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -64190,8 +64743,11 @@
       <c r="DG187" s="2">
         <v>2080</v>
       </c>
+      <c r="DH187" s="2">
+        <v>2133</v>
+      </c>
     </row>
-    <row r="188" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -64525,8 +65081,11 @@
       <c r="DG188" s="2">
         <v>7502</v>
       </c>
+      <c r="DH188" s="2">
+        <v>7628</v>
+      </c>
     </row>
-    <row r="189" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -64860,8 +65419,11 @@
       <c r="DG189" s="2">
         <v>22367</v>
       </c>
+      <c r="DH189" s="2">
+        <v>22561</v>
+      </c>
     </row>
-    <row r="190" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -65195,8 +65757,11 @@
       <c r="DG190" s="2">
         <v>62032</v>
       </c>
+      <c r="DH190" s="2">
+        <v>62265</v>
+      </c>
     </row>
-    <row r="191" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -65530,8 +66095,11 @@
       <c r="DG191" s="2">
         <v>6221</v>
       </c>
+      <c r="DH191" s="2">
+        <v>6228</v>
+      </c>
     </row>
-    <row r="192" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -65865,8 +66433,11 @@
       <c r="DG192" s="2">
         <v>2360</v>
       </c>
+      <c r="DH192" s="2">
+        <v>2404</v>
+      </c>
     </row>
-    <row r="193" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -66200,8 +66771,11 @@
       <c r="DG193" s="2">
         <v>42956</v>
       </c>
+      <c r="DH193" s="2">
+        <v>43207</v>
+      </c>
     </row>
-    <row r="194" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -66535,8 +67109,11 @@
       <c r="DG194" s="2">
         <v>1038</v>
       </c>
+      <c r="DH194" s="2">
+        <v>1043</v>
+      </c>
     </row>
-    <row r="195" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -66870,8 +67447,11 @@
       <c r="DG195" s="2">
         <v>1436</v>
       </c>
+      <c r="DH195" s="2">
+        <v>1453</v>
+      </c>
     </row>
-    <row r="196" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -67205,8 +67785,11 @@
       <c r="DG196" s="2">
         <v>5157</v>
       </c>
+      <c r="DH196" s="2">
+        <v>5237</v>
+      </c>
     </row>
-    <row r="197" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -67540,8 +68123,11 @@
       <c r="DG197" s="2">
         <v>3753</v>
       </c>
+      <c r="DH197" s="2">
+        <v>3804</v>
+      </c>
     </row>
-    <row r="198" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -67875,8 +68461,11 @@
       <c r="DG198" s="2">
         <v>4442</v>
       </c>
+      <c r="DH198" s="2">
+        <v>4477</v>
+      </c>
     </row>
-    <row r="199" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -68210,8 +68799,11 @@
       <c r="DG199" s="2">
         <v>125</v>
       </c>
+      <c r="DH199" s="2">
+        <v>125</v>
+      </c>
     </row>
-    <row r="200" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -68545,8 +69137,11 @@
       <c r="DG200" s="2">
         <v>10705</v>
       </c>
+      <c r="DH200" s="2">
+        <v>10828</v>
+      </c>
     </row>
-    <row r="201" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -68880,8 +69475,11 @@
       <c r="DG201" s="2">
         <v>49979</v>
       </c>
+      <c r="DH201" s="2">
+        <v>51096</v>
+      </c>
     </row>
-    <row r="202" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -69215,8 +69813,11 @@
       <c r="DG202" s="2">
         <v>5767</v>
       </c>
+      <c r="DH202" s="2">
+        <v>5843</v>
+      </c>
     </row>
-    <row r="203" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -69550,8 +70151,11 @@
       <c r="DG203" s="2">
         <v>15627</v>
       </c>
+      <c r="DH203" s="2">
+        <v>15795</v>
+      </c>
     </row>
-    <row r="204" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -69885,8 +70489,11 @@
       <c r="DG204" s="2">
         <v>5027</v>
       </c>
+      <c r="DH204" s="2">
+        <v>5080</v>
+      </c>
     </row>
-    <row r="205" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -70220,8 +70827,11 @@
       <c r="DG205" s="2">
         <v>4785</v>
       </c>
+      <c r="DH205" s="2">
+        <v>4808</v>
+      </c>
     </row>
-    <row r="206" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -70555,8 +71165,11 @@
       <c r="DG206" s="2">
         <v>11820</v>
       </c>
+      <c r="DH206" s="2">
+        <v>12011</v>
+      </c>
     </row>
-    <row r="207" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -70890,8 +71503,11 @@
       <c r="DG207" s="2">
         <v>31469</v>
       </c>
+      <c r="DH207" s="2">
+        <v>31735</v>
+      </c>
     </row>
-    <row r="208" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -71225,8 +71841,11 @@
       <c r="DG208" s="2">
         <v>2643</v>
       </c>
+      <c r="DH208" s="2">
+        <v>2652</v>
+      </c>
     </row>
-    <row r="209" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -71560,8 +72179,11 @@
       <c r="DG209" s="2">
         <v>954</v>
       </c>
+      <c r="DH209" s="2">
+        <v>962</v>
+      </c>
     </row>
-    <row r="210" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -71895,8 +72517,11 @@
       <c r="DG210" s="2">
         <v>14108</v>
       </c>
+      <c r="DH210" s="2">
+        <v>14238</v>
+      </c>
     </row>
-    <row r="211" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -72230,8 +72855,11 @@
       <c r="DG211" s="2">
         <v>794</v>
       </c>
+      <c r="DH211" s="2">
+        <v>802</v>
+      </c>
     </row>
-    <row r="212" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -72565,8 +73193,11 @@
       <c r="DG212" s="2">
         <v>10166</v>
       </c>
+      <c r="DH212" s="2">
+        <v>10256</v>
+      </c>
     </row>
-    <row r="213" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -72900,8 +73531,11 @@
       <c r="DG213" s="2">
         <v>172</v>
       </c>
+      <c r="DH213" s="2">
+        <v>174</v>
+      </c>
     </row>
-    <row r="214" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -73235,8 +73869,11 @@
       <c r="DG214" s="2">
         <v>141063</v>
       </c>
+      <c r="DH214" s="2">
+        <v>143178</v>
+      </c>
     </row>
-    <row r="215" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -73570,8 +74207,11 @@
       <c r="DG215" s="2">
         <v>5643</v>
       </c>
+      <c r="DH215" s="2">
+        <v>5673</v>
+      </c>
     </row>
-    <row r="216" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -73905,8 +74545,11 @@
       <c r="DG216" s="2">
         <v>30113</v>
       </c>
+      <c r="DH216" s="2">
+        <v>30563</v>
+      </c>
     </row>
-    <row r="217" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -74240,8 +74883,11 @@
       <c r="DG217" s="2">
         <v>2627</v>
       </c>
+      <c r="DH217" s="2">
+        <v>2730</v>
+      </c>
     </row>
-    <row r="218" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -74575,8 +75221,11 @@
       <c r="DG218" s="2">
         <v>719</v>
       </c>
+      <c r="DH218" s="2">
+        <v>723</v>
+      </c>
     </row>
-    <row r="219" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -74910,8 +75559,11 @@
       <c r="DG219" s="2">
         <v>272</v>
       </c>
+      <c r="DH219" s="2">
+        <v>275</v>
+      </c>
     </row>
-    <row r="220" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -75245,8 +75897,11 @@
       <c r="DG220" s="2">
         <v>1462</v>
       </c>
+      <c r="DH220" s="2">
+        <v>1477</v>
+      </c>
     </row>
-    <row r="221" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -75580,8 +76235,11 @@
       <c r="DG221" s="2">
         <v>3384</v>
       </c>
+      <c r="DH221" s="2">
+        <v>3401</v>
+      </c>
     </row>
-    <row r="222" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -75915,8 +76573,11 @@
       <c r="DG222" s="2">
         <v>1117012</v>
       </c>
+      <c r="DH222" s="2">
+        <v>1129779</v>
+      </c>
     </row>
-    <row r="223" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -76250,8 +76911,11 @@
       <c r="DG223" s="2">
         <v>82438</v>
       </c>
+      <c r="DH223" s="2">
+        <v>83395</v>
+      </c>
     </row>
-    <row r="224" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -76585,8 +77249,11 @@
       <c r="DG224" s="2">
         <v>306</v>
       </c>
+      <c r="DH224" s="2">
+        <v>309</v>
+      </c>
     </row>
-    <row r="225" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -76920,8 +77587,11 @@
       <c r="DG225" s="2">
         <v>3233</v>
       </c>
+      <c r="DH225" s="2">
+        <v>3242</v>
+      </c>
     </row>
-    <row r="226" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -77255,8 +77925,11 @@
       <c r="DG226" s="2">
         <v>241</v>
       </c>
+      <c r="DH226" s="2">
+        <v>242</v>
+      </c>
     </row>
-    <row r="227" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -77590,8 +78263,11 @@
       <c r="DG227" s="2">
         <v>18190</v>
       </c>
+      <c r="DH227" s="2">
+        <v>18551</v>
+      </c>
     </row>
-    <row r="228" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -77925,8 +78601,11 @@
       <c r="DG228" s="2">
         <v>80030</v>
       </c>
+      <c r="DH228" s="2">
+        <v>80677</v>
+      </c>
     </row>
-    <row r="229" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -78260,8 +78939,11 @@
       <c r="DG229" s="2">
         <v>674140</v>
       </c>
+      <c r="DH229" s="2">
+        <v>682252</v>
+      </c>
     </row>
-    <row r="230" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -78595,8 +79277,11 @@
       <c r="DG230" s="2">
         <v>7322</v>
       </c>
+      <c r="DH230" s="2">
+        <v>7475</v>
+      </c>
     </row>
-    <row r="231" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -78930,8 +79615,11 @@
       <c r="DG231" s="2">
         <v>9386</v>
       </c>
+      <c r="DH231" s="2">
+        <v>9466</v>
+      </c>
     </row>
-    <row r="232" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -79265,8 +79953,11 @@
       <c r="DG232" s="2">
         <v>10288</v>
       </c>
+      <c r="DH232" s="2">
+        <v>10483</v>
+      </c>
     </row>
-    <row r="233" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -79600,8 +80291,11 @@
       <c r="DG233" s="2">
         <v>1685</v>
       </c>
+      <c r="DH233" s="2">
+        <v>1715</v>
+      </c>
     </row>
-    <row r="234" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -79935,8 +80629,11 @@
       <c r="DG234" s="2">
         <v>14947</v>
       </c>
+      <c r="DH234" s="2">
+        <v>15306</v>
+      </c>
     </row>
-    <row r="235" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -80270,8 +80967,11 @@
       <c r="DG235" s="2">
         <v>29523</v>
       </c>
+      <c r="DH235" s="2">
+        <v>29947</v>
+      </c>
     </row>
-    <row r="236" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -80605,8 +81305,11 @@
       <c r="DG236" s="2">
         <v>15584</v>
       </c>
+      <c r="DH236" s="2">
+        <v>15725</v>
+      </c>
     </row>
-    <row r="237" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -80940,8 +81643,11 @@
       <c r="DG237" s="2">
         <v>34498</v>
       </c>
+      <c r="DH237" s="2">
+        <v>34669</v>
+      </c>
     </row>
-    <row r="238" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -81275,8 +81981,11 @@
       <c r="DG238" s="2">
         <v>71103</v>
       </c>
+      <c r="DH238" s="2">
+        <v>71654</v>
+      </c>
     </row>
-    <row r="239" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -81610,8 +82319,11 @@
       <c r="DG239" s="2">
         <v>19255</v>
       </c>
+      <c r="DH239" s="2">
+        <v>19539</v>
+      </c>
     </row>
-    <row r="240" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -81945,8 +82657,11 @@
       <c r="DG240" s="2">
         <v>3394</v>
       </c>
+      <c r="DH240" s="2">
+        <v>3490</v>
+      </c>
     </row>
-    <row r="241" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -82280,8 +82995,11 @@
       <c r="DG241" s="2">
         <v>24928</v>
       </c>
+      <c r="DH241" s="2">
+        <v>25506</v>
+      </c>
     </row>
-    <row r="242" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -82615,8 +83333,11 @@
       <c r="DG242" s="2">
         <v>212796</v>
       </c>
+      <c r="DH242" s="2">
+        <v>217743</v>
+      </c>
     </row>
-    <row r="243" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -82950,8 +83671,11 @@
       <c r="DG243" s="2">
         <v>21931</v>
       </c>
+      <c r="DH243" s="2">
+        <v>22151</v>
+      </c>
     </row>
-    <row r="244" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -83285,8 +84009,11 @@
       <c r="DG244" s="2">
         <v>2843</v>
       </c>
+      <c r="DH244" s="2">
+        <v>2897</v>
+      </c>
     </row>
-    <row r="245" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -83620,8 +84347,11 @@
       <c r="DG245" s="2">
         <v>89870</v>
       </c>
+      <c r="DH245" s="2">
+        <v>91223</v>
+      </c>
     </row>
-    <row r="246" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -83955,8 +84685,11 @@
       <c r="DG246" s="2">
         <v>10232</v>
       </c>
+      <c r="DH246" s="2">
+        <v>10353</v>
+      </c>
     </row>
-    <row r="247" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -84290,8 +85023,11 @@
       <c r="DG247" s="2">
         <v>15166</v>
       </c>
+      <c r="DH247" s="2">
+        <v>15345</v>
+      </c>
     </row>
-    <row r="248" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -84625,8 +85361,11 @@
       <c r="DG248" s="2">
         <v>274301</v>
       </c>
+      <c r="DH248" s="2">
+        <v>277477</v>
+      </c>
     </row>
-    <row r="249" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -84960,8 +85699,11 @@
       <c r="DG249" s="2">
         <v>20319</v>
       </c>
+      <c r="DH249" s="2">
+        <v>20591</v>
+      </c>
     </row>
-    <row r="250" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -85295,8 +86037,11 @@
       <c r="DG250" s="2">
         <v>822</v>
       </c>
+      <c r="DH250" s="2">
+        <v>832</v>
+      </c>
     </row>
-    <row r="251" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -85630,8 +86375,11 @@
       <c r="DG251" s="2">
         <v>33789</v>
       </c>
+      <c r="DH251" s="2">
+        <v>34454</v>
+      </c>
     </row>
-    <row r="252" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -85965,8 +86713,11 @@
       <c r="DG252" s="2">
         <v>14313</v>
       </c>
+      <c r="DH252" s="2">
+        <v>14484</v>
+      </c>
     </row>
-    <row r="253" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -86300,8 +87051,11 @@
       <c r="DG253" s="2">
         <v>2261</v>
       </c>
+      <c r="DH253" s="2">
+        <v>2265</v>
+      </c>
     </row>
-    <row r="254" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -86635,8 +87389,11 @@
       <c r="DG254" s="2">
         <v>5967</v>
       </c>
+      <c r="DH254" s="2">
+        <v>6008</v>
+      </c>
     </row>
-    <row r="255" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -86970,8 +87727,11 @@
       <c r="DG255" s="2">
         <v>11271</v>
       </c>
+      <c r="DH255" s="2">
+        <v>11528</v>
+      </c>
     </row>
-    <row r="256" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -87305,8 +88065,11 @@
       <c r="DG256" s="2">
         <v>5714</v>
       </c>
+      <c r="DH256" s="2">
+        <v>5818</v>
+      </c>
     </row>
-    <row r="257" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -87640,8 +88403,11 @@
       <c r="DG257" s="2">
         <v>124049</v>
       </c>
+      <c r="DH257" s="2">
+        <v>124189</v>
+      </c>
     </row>
-    <row r="258" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -87978,8 +88744,11 @@
       <c r="DG258" s="8">
         <v>15832807</v>
       </c>
+      <c r="DH258" s="8">
+        <v>16004419</v>
+      </c>
     </row>
-    <row r="259" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:112" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -88006,7 +88775,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -88014,7 +88783,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -88022,7 +88791,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -88030,7 +88799,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -88038,7 +88807,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -88046,7 +88815,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -88054,7 +88823,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -88062,7 +88831,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -88070,7 +88839,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -88078,7 +88847,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -88086,7 +88855,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -88094,7 +88863,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -88102,7 +88871,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:112" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59B7AD10-89C2-4F0A-8ACF-4E5E2EFDA75D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB1887F0-D2B9-405D-A4C9-FB8D08AC05EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="test">#REF!</definedName>
     <definedName name="vlook">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1834,7 +1834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DH513"/>
+  <dimension ref="A1:DI513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1871,15 +1871,15 @@
     <col min="82" max="90" width="10.6640625" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="112" width="10.59765625" style="7" customWidth="1"/>
+    <col min="105" max="113" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2216,8 +2216,11 @@
       <c r="DH2" s="4">
         <v>44197</v>
       </c>
+      <c r="DI2" s="4">
+        <v>44198</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2554,8 +2557,11 @@
       <c r="DH3" s="2">
         <v>45735</v>
       </c>
+      <c r="DI3" s="2">
+        <v>45919</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2892,8 +2898,11 @@
       <c r="DH4" s="2">
         <v>4918</v>
       </c>
+      <c r="DI4" s="2">
+        <v>4921</v>
+      </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3230,8 +3239,11 @@
       <c r="DH5" s="2">
         <v>48912</v>
       </c>
+      <c r="DI5" s="2">
+        <v>48999</v>
+      </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3568,8 +3580,11 @@
       <c r="DH6" s="2">
         <v>9098</v>
       </c>
+      <c r="DI6" s="2">
+        <v>9113</v>
+      </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3906,8 +3921,11 @@
       <c r="DH7" s="2">
         <v>2580</v>
       </c>
+      <c r="DI7" s="2">
+        <v>2587</v>
+      </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4244,8 +4262,11 @@
       <c r="DH8" s="2">
         <v>636</v>
       </c>
+      <c r="DI8" s="2">
+        <v>637</v>
+      </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4582,8 +4603,11 @@
       <c r="DH9" s="2">
         <v>25208</v>
       </c>
+      <c r="DI9" s="2">
+        <v>25307</v>
+      </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4920,8 +4944,11 @@
       <c r="DH10" s="2">
         <v>12240</v>
       </c>
+      <c r="DI10" s="2">
+        <v>12288</v>
+      </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5258,8 +5285,11 @@
       <c r="DH11" s="2">
         <v>1852</v>
       </c>
+      <c r="DI11" s="2">
+        <v>1853</v>
+      </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5596,8 +5626,11 @@
       <c r="DH12" s="2">
         <v>6789</v>
       </c>
+      <c r="DI12" s="2">
+        <v>6812</v>
+      </c>
     </row>
-    <row r="13" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5934,8 +5967,11 @@
       <c r="DH13" s="2">
         <v>39493</v>
       </c>
+      <c r="DI13" s="2">
+        <v>39731</v>
+      </c>
     </row>
-    <row r="14" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6272,8 +6308,11 @@
       <c r="DH14" s="2">
         <v>1579</v>
       </c>
+      <c r="DI14" s="2">
+        <v>1584</v>
+      </c>
     </row>
-    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6610,8 +6649,11 @@
       <c r="DH15" s="2">
         <v>29705</v>
       </c>
+      <c r="DI15" s="2">
+        <v>29844</v>
+      </c>
     </row>
-    <row r="16" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6948,8 +6990,11 @@
       <c r="DH16" s="2">
         <v>178443</v>
       </c>
+      <c r="DI16" s="2">
+        <v>179313</v>
+      </c>
     </row>
-    <row r="17" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7286,8 +7331,11 @@
       <c r="DH17" s="2">
         <v>1045941</v>
       </c>
+      <c r="DI17" s="2">
+        <v>1050647</v>
+      </c>
     </row>
-    <row r="18" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7624,8 +7672,11 @@
       <c r="DH18" s="2">
         <v>4085</v>
       </c>
+      <c r="DI18" s="2">
+        <v>4103</v>
+      </c>
     </row>
-    <row r="19" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -7962,8 +8013,11 @@
       <c r="DH19" s="2">
         <v>113</v>
       </c>
+      <c r="DI19" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="20" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8300,8 +8354,11 @@
       <c r="DH20" s="2">
         <v>10268</v>
       </c>
+      <c r="DI20" s="2">
+        <v>10316</v>
+      </c>
     </row>
-    <row r="21" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8638,8 +8695,11 @@
       <c r="DH21" s="2">
         <v>57580</v>
       </c>
+      <c r="DI21" s="2">
+        <v>57659</v>
+      </c>
     </row>
-    <row r="22" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -8976,8 +9036,11 @@
       <c r="DH22" s="2">
         <v>225299</v>
       </c>
+      <c r="DI22" s="2">
+        <v>226068</v>
+      </c>
     </row>
-    <row r="23" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9314,8 +9377,11 @@
       <c r="DH23" s="2">
         <v>163162</v>
       </c>
+      <c r="DI23" s="2">
+        <v>163790</v>
+      </c>
     </row>
-    <row r="24" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9652,8 +9718,11 @@
       <c r="DH24" s="2">
         <v>7589</v>
       </c>
+      <c r="DI24" s="2">
+        <v>7592</v>
+      </c>
     </row>
-    <row r="25" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -9990,8 +10059,11 @@
       <c r="DH25" s="2">
         <v>535</v>
       </c>
+      <c r="DI25" s="2">
+        <v>538</v>
+      </c>
     </row>
-    <row r="26" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10328,8 +10400,11 @@
       <c r="DH26" s="2">
         <v>10553</v>
       </c>
+      <c r="DI26" s="2">
+        <v>10642</v>
+      </c>
     </row>
-    <row r="27" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10666,8 +10741,11 @@
       <c r="DH27" s="2">
         <v>21752</v>
       </c>
+      <c r="DI27" s="2">
+        <v>21798</v>
+      </c>
     </row>
-    <row r="28" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -11004,8 +11082,11 @@
       <c r="DH28" s="2">
         <v>9665</v>
       </c>
+      <c r="DI28" s="2">
+        <v>9724</v>
+      </c>
     </row>
-    <row r="29" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11342,8 +11423,11 @@
       <c r="DH29" s="2">
         <v>23179</v>
       </c>
+      <c r="DI29" s="2">
+        <v>23269</v>
+      </c>
     </row>
-    <row r="30" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11680,8 +11764,11 @@
       <c r="DH30" s="2">
         <v>22887</v>
       </c>
+      <c r="DI30" s="2">
+        <v>23026</v>
+      </c>
     </row>
-    <row r="31" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -12018,8 +12105,11 @@
       <c r="DH31" s="2">
         <v>11305</v>
       </c>
+      <c r="DI31" s="2">
+        <v>11334</v>
+      </c>
     </row>
-    <row r="32" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -12356,8 +12446,11 @@
       <c r="DH32" s="2">
         <v>6481</v>
       </c>
+      <c r="DI32" s="2">
+        <v>6482</v>
+      </c>
     </row>
-    <row r="33" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12694,8 +12787,11 @@
       <c r="DH33" s="2">
         <v>189702</v>
       </c>
+      <c r="DI33" s="2">
+        <v>190324</v>
+      </c>
     </row>
-    <row r="34" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -13032,8 +13128,11 @@
       <c r="DH34" s="2">
         <v>4911</v>
       </c>
+      <c r="DI34" s="2">
+        <v>4924</v>
+      </c>
     </row>
-    <row r="35" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13370,8 +13469,11 @@
       <c r="DH35" s="2">
         <v>1798</v>
       </c>
+      <c r="DI35" s="2">
+        <v>1800</v>
+      </c>
     </row>
-    <row r="36" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13708,8 +13810,11 @@
       <c r="DH36" s="2">
         <v>13075</v>
       </c>
+      <c r="DI36" s="2">
+        <v>13119</v>
+      </c>
     </row>
-    <row r="37" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -14046,8 +14151,11 @@
       <c r="DH37" s="2">
         <v>4278</v>
       </c>
+      <c r="DI37" s="2">
+        <v>4279</v>
+      </c>
     </row>
-    <row r="38" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -14384,8 +14492,11 @@
       <c r="DH38" s="2">
         <v>6676</v>
       </c>
+      <c r="DI38" s="2">
+        <v>6702</v>
+      </c>
     </row>
-    <row r="39" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14722,8 +14833,11 @@
       <c r="DH39" s="2">
         <v>20285</v>
       </c>
+      <c r="DI39" s="2">
+        <v>20337</v>
+      </c>
     </row>
-    <row r="40" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -15060,8 +15174,11 @@
       <c r="DH40" s="2">
         <v>5064</v>
       </c>
+      <c r="DI40" s="2">
+        <v>5069</v>
+      </c>
     </row>
-    <row r="41" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15398,8 +15515,11 @@
       <c r="DH41" s="2">
         <v>3754</v>
       </c>
+      <c r="DI41" s="2">
+        <v>3771</v>
+      </c>
     </row>
-    <row r="42" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15736,8 +15856,11 @@
       <c r="DH42" s="2">
         <v>797</v>
       </c>
+      <c r="DI42" s="2">
+        <v>798</v>
+      </c>
     </row>
-    <row r="43" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -16074,8 +16197,11 @@
       <c r="DH43" s="2">
         <v>2531</v>
       </c>
+      <c r="DI43" s="2">
+        <v>2538</v>
+      </c>
     </row>
-    <row r="44" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -16412,8 +16538,11 @@
       <c r="DH44" s="2">
         <v>3781</v>
       </c>
+      <c r="DI44" s="2">
+        <v>3790</v>
+      </c>
     </row>
-    <row r="45" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16750,8 +16879,11 @@
       <c r="DH45" s="2">
         <v>662979</v>
       </c>
+      <c r="DI45" s="2">
+        <v>664899</v>
+      </c>
     </row>
-    <row r="46" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -17088,8 +17220,11 @@
       <c r="DH46" s="2">
         <v>1497</v>
       </c>
+      <c r="DI46" s="2">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="47" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17426,8 +17561,11 @@
       <c r="DH47" s="2">
         <v>10899</v>
       </c>
+      <c r="DI47" s="2">
+        <v>10930</v>
+      </c>
     </row>
-    <row r="48" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17764,8 +17902,11 @@
       <c r="DH48" s="2">
         <v>70887</v>
       </c>
+      <c r="DI48" s="2">
+        <v>71187</v>
+      </c>
     </row>
-    <row r="49" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -18102,8 +18243,11 @@
       <c r="DH49" s="2">
         <v>6985</v>
       </c>
+      <c r="DI49" s="2">
+        <v>6987</v>
+      </c>
     </row>
-    <row r="50" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -18440,8 +18584,11 @@
       <c r="DH50" s="2">
         <v>1925</v>
       </c>
+      <c r="DI50" s="2">
+        <v>1928</v>
+      </c>
     </row>
-    <row r="51" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18778,8 +18925,11 @@
       <c r="DH51" s="2">
         <v>20385</v>
       </c>
+      <c r="DI51" s="2">
+        <v>20493</v>
+      </c>
     </row>
-    <row r="52" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -19116,8 +19266,11 @@
       <c r="DH52" s="2">
         <v>65546</v>
       </c>
+      <c r="DI52" s="2">
+        <v>65710</v>
+      </c>
     </row>
-    <row r="53" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -19454,8 +19607,11 @@
       <c r="DH53" s="2">
         <v>993</v>
       </c>
+      <c r="DI53" s="2">
+        <v>997</v>
+      </c>
     </row>
-    <row r="54" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19792,8 +19948,11 @@
       <c r="DH54" s="2">
         <v>3670</v>
       </c>
+      <c r="DI54" s="2">
+        <v>3688</v>
+      </c>
     </row>
-    <row r="55" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -20130,8 +20289,11 @@
       <c r="DH55" s="2">
         <v>1995</v>
       </c>
+      <c r="DI55" s="2">
+        <v>1995</v>
+      </c>
     </row>
-    <row r="56" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -20468,8 +20630,11 @@
       <c r="DH56" s="2">
         <v>3038</v>
       </c>
+      <c r="DI56" s="2">
+        <v>3040</v>
+      </c>
     </row>
-    <row r="57" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20806,8 +20971,11 @@
       <c r="DH57" s="2">
         <v>1709</v>
       </c>
+      <c r="DI57" s="2">
+        <v>1709</v>
+      </c>
     </row>
-    <row r="58" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -21144,8 +21312,11 @@
       <c r="DH58" s="2">
         <v>1637</v>
       </c>
+      <c r="DI58" s="2">
+        <v>1644</v>
+      </c>
     </row>
-    <row r="59" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -21482,8 +21653,11 @@
       <c r="DH59" s="2">
         <v>1661775</v>
       </c>
+      <c r="DI59" s="2">
+        <v>1665249</v>
+      </c>
     </row>
-    <row r="60" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21820,8 +21994,11 @@
       <c r="DH60" s="2">
         <v>7603</v>
       </c>
+      <c r="DI60" s="2">
+        <v>7609</v>
+      </c>
     </row>
-    <row r="61" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -22158,8 +22335,11 @@
       <c r="DH61" s="2">
         <v>7509</v>
       </c>
+      <c r="DI61" s="2">
+        <v>7528</v>
+      </c>
     </row>
-    <row r="62" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -22496,8 +22676,11 @@
       <c r="DH62" s="2">
         <v>5466</v>
       </c>
+      <c r="DI62" s="2">
+        <v>5468</v>
+      </c>
     </row>
-    <row r="63" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -22834,8 +23017,11 @@
       <c r="DH63" s="2">
         <v>2028</v>
       </c>
+      <c r="DI63" s="2">
+        <v>2038</v>
+      </c>
     </row>
-    <row r="64" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -23172,8 +23358,11 @@
       <c r="DH64" s="2">
         <v>416189</v>
       </c>
+      <c r="DI64" s="2">
+        <v>417446</v>
+      </c>
     </row>
-    <row r="65" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -23510,8 +23699,11 @@
       <c r="DH65" s="2">
         <v>591</v>
       </c>
+      <c r="DI65" s="2">
+        <v>591</v>
+      </c>
     </row>
-    <row r="66" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -23848,8 +24040,11 @@
       <c r="DH66" s="2">
         <v>5461</v>
       </c>
+      <c r="DI66" s="2">
+        <v>5502</v>
+      </c>
     </row>
-    <row r="67" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -24186,8 +24381,11 @@
       <c r="DH67" s="2">
         <v>1527</v>
       </c>
+      <c r="DI67" s="2">
+        <v>1534</v>
+      </c>
     </row>
-    <row r="68" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -24524,8 +24722,11 @@
       <c r="DH68" s="2">
         <v>13937</v>
       </c>
+      <c r="DI68" s="2">
+        <v>13998</v>
+      </c>
     </row>
-    <row r="69" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -24862,8 +25063,11 @@
       <c r="DH69" s="2">
         <v>5535</v>
       </c>
+      <c r="DI69" s="2">
+        <v>5542</v>
+      </c>
     </row>
-    <row r="70" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -25200,8 +25404,11 @@
       <c r="DH70" s="2">
         <v>56252</v>
       </c>
+      <c r="DI70" s="2">
+        <v>56294</v>
+      </c>
     </row>
-    <row r="71" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -25538,8 +25745,11 @@
       <c r="DH71" s="2">
         <v>1090</v>
       </c>
+      <c r="DI71" s="2">
+        <v>1092</v>
+      </c>
     </row>
-    <row r="72" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -25876,8 +26086,11 @@
       <c r="DH72" s="2">
         <v>652485</v>
       </c>
+      <c r="DI72" s="2">
+        <v>653301</v>
+      </c>
     </row>
-    <row r="73" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -26214,8 +26427,11 @@
       <c r="DH73" s="2">
         <v>113526</v>
       </c>
+      <c r="DI73" s="2">
+        <v>114052</v>
+      </c>
     </row>
-    <row r="74" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -26552,8 +26768,11 @@
       <c r="DH74" s="2">
         <v>16150</v>
       </c>
+      <c r="DI74" s="2">
+        <v>16169</v>
+      </c>
     </row>
-    <row r="75" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -26890,8 +27109,11 @@
       <c r="DH75" s="2">
         <v>10660</v>
       </c>
+      <c r="DI75" s="2">
+        <v>10709</v>
+      </c>
     </row>
-    <row r="76" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -27228,8 +27450,11 @@
       <c r="DH76" s="2">
         <v>18750</v>
       </c>
+      <c r="DI76" s="2">
+        <v>18799</v>
+      </c>
     </row>
-    <row r="77" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -27566,8 +27791,11 @@
       <c r="DH77" s="2">
         <v>11041</v>
       </c>
+      <c r="DI77" s="2">
+        <v>11073</v>
+      </c>
     </row>
-    <row r="78" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -27904,8 +28132,11 @@
       <c r="DH78" s="2">
         <v>1201</v>
       </c>
+      <c r="DI78" s="2">
+        <v>1205</v>
+      </c>
     </row>
-    <row r="79" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -28242,8 +28473,11 @@
       <c r="DH79" s="2">
         <v>2022</v>
       </c>
+      <c r="DI79" s="2">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="80" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -28580,8 +28814,11 @@
       <c r="DH80" s="2">
         <v>764</v>
       </c>
+      <c r="DI80" s="2">
+        <v>764</v>
+      </c>
     </row>
-    <row r="81" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -28918,8 +29155,11 @@
       <c r="DH81" s="2">
         <v>425633</v>
       </c>
+      <c r="DI81" s="2">
+        <v>427299</v>
+      </c>
     </row>
-    <row r="82" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -29256,8 +29496,11 @@
       <c r="DH82" s="2">
         <v>3755</v>
       </c>
+      <c r="DI82" s="2">
+        <v>3767</v>
+      </c>
     </row>
-    <row r="83" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -29594,8 +29837,11 @@
       <c r="DH83" s="2">
         <v>12535</v>
       </c>
+      <c r="DI83" s="2">
+        <v>12541</v>
+      </c>
     </row>
-    <row r="84" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -29932,8 +30178,11 @@
       <c r="DH84" s="2">
         <v>11144</v>
       </c>
+      <c r="DI84" s="2">
+        <v>11208</v>
+      </c>
     </row>
-    <row r="85" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -30270,8 +30519,11 @@
       <c r="DH85" s="2">
         <v>3383</v>
       </c>
+      <c r="DI85" s="2">
+        <v>3399</v>
+      </c>
     </row>
-    <row r="86" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -30608,8 +30860,11 @@
       <c r="DH86" s="2">
         <v>244187</v>
       </c>
+      <c r="DI86" s="2">
+        <v>244908</v>
+      </c>
     </row>
-    <row r="87" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -30946,8 +31201,11 @@
       <c r="DH87" s="2">
         <v>2138</v>
       </c>
+      <c r="DI87" s="2">
+        <v>2139</v>
+      </c>
     </row>
-    <row r="88" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -31284,8 +31542,11 @@
       <c r="DH88" s="2">
         <v>13705</v>
       </c>
+      <c r="DI88" s="2">
+        <v>13729</v>
+      </c>
     </row>
-    <row r="89" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -31622,8 +31883,11 @@
       <c r="DH89" s="2">
         <v>146</v>
       </c>
+      <c r="DI89" s="2">
+        <v>147</v>
+      </c>
     </row>
-    <row r="90" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -31960,8 +32224,11 @@
       <c r="DH90" s="2">
         <v>2777</v>
       </c>
+      <c r="DI90" s="2">
+        <v>2785</v>
+      </c>
     </row>
-    <row r="91" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -32298,8 +32565,11 @@
       <c r="DH91" s="2">
         <v>10941</v>
       </c>
+      <c r="DI91" s="2">
+        <v>10984</v>
+      </c>
     </row>
-    <row r="92" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -32636,8 +32906,11 @@
       <c r="DH92" s="2">
         <v>6892</v>
       </c>
+      <c r="DI92" s="2">
+        <v>6896</v>
+      </c>
     </row>
-    <row r="93" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -32974,8 +33247,11 @@
       <c r="DH93" s="2">
         <v>73350</v>
       </c>
+      <c r="DI93" s="2">
+        <v>73527</v>
+      </c>
     </row>
-    <row r="94" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -33312,8 +33588,11 @@
       <c r="DH94" s="2">
         <v>47856</v>
       </c>
+      <c r="DI94" s="2">
+        <v>48091</v>
+      </c>
     </row>
-    <row r="95" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -33650,8 +33929,11 @@
       <c r="DH95" s="2">
         <v>18420</v>
       </c>
+      <c r="DI95" s="2">
+        <v>18558</v>
+      </c>
     </row>
-    <row r="96" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -33988,8 +34270,11 @@
       <c r="DH96" s="2">
         <v>52653</v>
       </c>
+      <c r="DI96" s="2">
+        <v>52883</v>
+      </c>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -34326,8 +34611,11 @@
       <c r="DH97" s="2">
         <v>11255</v>
       </c>
+      <c r="DI97" s="2">
+        <v>11264</v>
+      </c>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -34664,8 +34952,11 @@
       <c r="DH98" s="2">
         <v>2108</v>
       </c>
+      <c r="DI98" s="2">
+        <v>2110</v>
+      </c>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -35002,8 +35293,11 @@
       <c r="DH99" s="2">
         <v>4205</v>
       </c>
+      <c r="DI99" s="2">
+        <v>4236</v>
+      </c>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -35340,8 +35634,11 @@
       <c r="DH100" s="2">
         <v>2303</v>
       </c>
+      <c r="DI100" s="2">
+        <v>2305</v>
+      </c>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -35678,8 +35975,11 @@
       <c r="DH101" s="2">
         <v>1664</v>
       </c>
+      <c r="DI101" s="2">
+        <v>1671</v>
+      </c>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -36016,8 +36316,11 @@
       <c r="DH102" s="2">
         <v>18013</v>
       </c>
+      <c r="DI102" s="2">
+        <v>18111</v>
+      </c>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -36354,8 +36657,11 @@
       <c r="DH103" s="2">
         <v>2662895</v>
       </c>
+      <c r="DI103" s="2">
+        <v>2670196</v>
+      </c>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -36692,8 +36998,11 @@
       <c r="DH104" s="2">
         <v>49790</v>
       </c>
+      <c r="DI104" s="2">
+        <v>49995</v>
+      </c>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -37030,8 +37339,11 @@
       <c r="DH105" s="2">
         <v>150</v>
       </c>
+      <c r="DI105" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -37368,8 +37680,11 @@
       <c r="DH106" s="2">
         <v>1827</v>
       </c>
+      <c r="DI106" s="2">
+        <v>1827</v>
+      </c>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -37706,8 +38021,11 @@
       <c r="DH107" s="2">
         <v>148093</v>
       </c>
+      <c r="DI107" s="2">
+        <v>148701</v>
+      </c>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -38044,8 +38362,11 @@
       <c r="DH108" s="2">
         <v>1000</v>
       </c>
+      <c r="DI108" s="2">
+        <v>1001</v>
+      </c>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -38382,8 +38703,11 @@
       <c r="DH109" s="2">
         <v>23587</v>
       </c>
+      <c r="DI109" s="2">
+        <v>23659</v>
+      </c>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -38720,8 +39044,11 @@
       <c r="DH110" s="2">
         <v>343456</v>
       </c>
+      <c r="DI110" s="2">
+        <v>344750</v>
+      </c>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -39058,8 +39385,11 @@
       <c r="DH111" s="2">
         <v>28979</v>
       </c>
+      <c r="DI111" s="2">
+        <v>29271</v>
+      </c>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -39396,8 +39726,11 @@
       <c r="DH112" s="2">
         <v>7904</v>
       </c>
+      <c r="DI112" s="2">
+        <v>7919</v>
+      </c>
     </row>
-    <row r="113" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -39734,8 +40067,11 @@
       <c r="DH113" s="2">
         <v>35580</v>
       </c>
+      <c r="DI113" s="2">
+        <v>35631</v>
+      </c>
     </row>
-    <row r="114" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -40072,8 +40408,11 @@
       <c r="DH114" s="2">
         <v>14552</v>
       </c>
+      <c r="DI114" s="2">
+        <v>14583</v>
+      </c>
     </row>
-    <row r="115" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -40410,8 +40749,11 @@
       <c r="DH115" s="2">
         <v>13218</v>
       </c>
+      <c r="DI115" s="2">
+        <v>13278</v>
+      </c>
     </row>
-    <row r="116" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -40748,8 +41090,11 @@
       <c r="DH116" s="2">
         <v>12551</v>
       </c>
+      <c r="DI116" s="2">
+        <v>12577</v>
+      </c>
     </row>
-    <row r="117" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -41086,8 +41431,11 @@
       <c r="DH117" s="2">
         <v>2184</v>
       </c>
+      <c r="DI117" s="2">
+        <v>2187</v>
+      </c>
     </row>
-    <row r="118" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -41424,8 +41772,11 @@
       <c r="DH118" s="2">
         <v>55270</v>
       </c>
+      <c r="DI118" s="2">
+        <v>55544</v>
+      </c>
     </row>
-    <row r="119" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -41762,8 +42113,11 @@
       <c r="DH119" s="2">
         <v>8849</v>
       </c>
+      <c r="DI119" s="2">
+        <v>8859</v>
+      </c>
     </row>
-    <row r="120" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -42100,8 +42454,11 @@
       <c r="DH120" s="2">
         <v>413</v>
       </c>
+      <c r="DI120" s="2">
+        <v>414</v>
+      </c>
     </row>
-    <row r="121" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -42438,8 +42795,11 @@
       <c r="DH121" s="2">
         <v>1347</v>
       </c>
+      <c r="DI121" s="2">
+        <v>1398</v>
+      </c>
     </row>
-    <row r="122" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -42776,8 +43136,11 @@
       <c r="DH122" s="2">
         <v>5719</v>
       </c>
+      <c r="DI122" s="2">
+        <v>5745</v>
+      </c>
     </row>
-    <row r="123" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -43114,8 +43477,11 @@
       <c r="DH123" s="2">
         <v>12426</v>
       </c>
+      <c r="DI123" s="2">
+        <v>12520</v>
+      </c>
     </row>
-    <row r="124" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -43452,8 +43818,11 @@
       <c r="DH124" s="2">
         <v>1328</v>
       </c>
+      <c r="DI124" s="2">
+        <v>1331</v>
+      </c>
     </row>
-    <row r="125" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -43790,8 +44159,11 @@
       <c r="DH125" s="2">
         <v>140105</v>
       </c>
+      <c r="DI125" s="2">
+        <v>140673</v>
+      </c>
     </row>
-    <row r="126" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -44128,8 +44500,11 @@
       <c r="DH126" s="2">
         <v>8161</v>
       </c>
+      <c r="DI126" s="2">
+        <v>8369</v>
+      </c>
     </row>
-    <row r="127" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -44466,8 +44841,11 @@
       <c r="DH127" s="2">
         <v>43906</v>
       </c>
+      <c r="DI127" s="2">
+        <v>44123</v>
+      </c>
     </row>
-    <row r="128" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -44804,8 +45182,11 @@
       <c r="DH128" s="2">
         <v>87052</v>
       </c>
+      <c r="DI128" s="2">
+        <v>87379</v>
+      </c>
     </row>
-    <row r="129" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -45142,8 +45523,11 @@
       <c r="DH129" s="2">
         <v>5805</v>
       </c>
+      <c r="DI129" s="2">
+        <v>5819</v>
+      </c>
     </row>
-    <row r="130" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -45480,8 +45864,11 @@
       <c r="DH130" s="2">
         <v>11909</v>
       </c>
+      <c r="DI130" s="2">
+        <v>11947</v>
+      </c>
     </row>
-    <row r="131" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -45818,8 +46205,11 @@
       <c r="DH131" s="2">
         <v>76065</v>
       </c>
+      <c r="DI131" s="2">
+        <v>76277</v>
+      </c>
     </row>
-    <row r="132" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -46156,8 +46546,11 @@
       <c r="DH132" s="2">
         <v>17729</v>
       </c>
+      <c r="DI132" s="2">
+        <v>17849</v>
+      </c>
     </row>
-    <row r="133" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -46494,8 +46887,11 @@
       <c r="DH133" s="2">
         <v>155</v>
       </c>
+      <c r="DI133" s="2">
+        <v>155</v>
+      </c>
     </row>
-    <row r="134" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -46832,8 +47228,11 @@
       <c r="DH134" s="2">
         <v>413</v>
       </c>
+      <c r="DI134" s="2">
+        <v>413</v>
+      </c>
     </row>
-    <row r="135" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -47170,8 +47569,11 @@
       <c r="DH135" s="2">
         <v>32745</v>
       </c>
+      <c r="DI135" s="2">
+        <v>32826</v>
+      </c>
     </row>
-    <row r="136" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -47508,8 +47910,11 @@
       <c r="DH136" s="2">
         <v>1529</v>
       </c>
+      <c r="DI136" s="2">
+        <v>1537</v>
+      </c>
     </row>
-    <row r="137" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -47846,8 +48251,11 @@
       <c r="DH137" s="2">
         <v>39</v>
       </c>
+      <c r="DI137" s="2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="138" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -48184,8 +48592,11 @@
       <c r="DH138" s="2">
         <v>1308</v>
       </c>
+      <c r="DI138" s="2">
+        <v>1319</v>
+      </c>
     </row>
-    <row r="139" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -48522,8 +48933,11 @@
       <c r="DH139" s="2">
         <v>23692</v>
       </c>
+      <c r="DI139" s="2">
+        <v>23846</v>
+      </c>
     </row>
-    <row r="140" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -48860,8 +49274,11 @@
       <c r="DH140" s="2">
         <v>1817</v>
       </c>
+      <c r="DI140" s="2">
+        <v>1822</v>
+      </c>
     </row>
-    <row r="141" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -49198,8 +49615,11 @@
       <c r="DH141" s="2">
         <v>5360</v>
       </c>
+      <c r="DI141" s="2">
+        <v>5438</v>
+      </c>
     </row>
-    <row r="142" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -49536,8 +49956,11 @@
       <c r="DH142" s="2">
         <v>18281</v>
       </c>
+      <c r="DI142" s="2">
+        <v>18363</v>
+      </c>
     </row>
-    <row r="143" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -49874,8 +50297,11 @@
       <c r="DH143" s="2">
         <v>7291</v>
       </c>
+      <c r="DI143" s="2">
+        <v>7319</v>
+      </c>
     </row>
-    <row r="144" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -50212,8 +50638,11 @@
       <c r="DH144" s="2">
         <v>13027</v>
       </c>
+      <c r="DI144" s="2">
+        <v>13085</v>
+      </c>
     </row>
-    <row r="145" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -50550,8 +50979,11 @@
       <c r="DH145" s="2">
         <v>9795</v>
       </c>
+      <c r="DI145" s="2">
+        <v>9833</v>
+      </c>
     </row>
-    <row r="146" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -50888,8 +51320,11 @@
       <c r="DH146" s="2">
         <v>6374</v>
       </c>
+      <c r="DI146" s="2">
+        <v>6401</v>
+      </c>
     </row>
-    <row r="147" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -51226,8 +51661,11 @@
       <c r="DH147" s="2">
         <v>7440</v>
       </c>
+      <c r="DI147" s="2">
+        <v>7467</v>
+      </c>
     </row>
-    <row r="148" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -51564,8 +52002,11 @@
       <c r="DH148" s="2">
         <v>37843</v>
       </c>
+      <c r="DI148" s="2">
+        <v>37950</v>
+      </c>
     </row>
-    <row r="149" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -51902,8 +52343,11 @@
       <c r="DH149" s="2">
         <v>21330</v>
       </c>
+      <c r="DI149" s="2">
+        <v>21358</v>
+      </c>
     </row>
-    <row r="150" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -52240,8 +52684,11 @@
       <c r="DH150" s="2">
         <v>286</v>
       </c>
+      <c r="DI150" s="2">
+        <v>286</v>
+      </c>
     </row>
-    <row r="151" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -52578,8 +53025,11 @@
       <c r="DH151" s="2">
         <v>4176</v>
       </c>
+      <c r="DI151" s="2">
+        <v>4222</v>
+      </c>
     </row>
-    <row r="152" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -52916,8 +53366,11 @@
       <c r="DH152" s="2">
         <v>7757</v>
       </c>
+      <c r="DI152" s="2">
+        <v>7779</v>
+      </c>
     </row>
-    <row r="153" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -53254,8 +53707,11 @@
       <c r="DH153" s="2">
         <v>23</v>
       </c>
+      <c r="DI153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -53592,8 +54048,11 @@
       <c r="DH154" s="2">
         <v>217983</v>
       </c>
+      <c r="DI154" s="2">
+        <v>218302</v>
+      </c>
     </row>
-    <row r="155" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -53930,8 +54389,11 @@
       <c r="DH155" s="2">
         <v>3311</v>
       </c>
+      <c r="DI155" s="2">
+        <v>3312</v>
+      </c>
     </row>
-    <row r="156" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -54268,8 +54730,11 @@
       <c r="DH156" s="2">
         <v>10254</v>
       </c>
+      <c r="DI156" s="2">
+        <v>10282</v>
+      </c>
     </row>
-    <row r="157" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -54606,8 +55071,11 @@
       <c r="DH157" s="2">
         <v>2537</v>
       </c>
+      <c r="DI157" s="2">
+        <v>2553</v>
+      </c>
     </row>
-    <row r="158" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -54944,8 +55412,11 @@
       <c r="DH158" s="2">
         <v>1337</v>
       </c>
+      <c r="DI158" s="2">
+        <v>1338</v>
+      </c>
     </row>
-    <row r="159" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -55282,8 +55753,11 @@
       <c r="DH159" s="2">
         <v>1723</v>
       </c>
+      <c r="DI159" s="2">
+        <v>1726</v>
+      </c>
     </row>
-    <row r="160" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -55620,8 +56094,11 @@
       <c r="DH160" s="2">
         <v>17849</v>
       </c>
+      <c r="DI160" s="2">
+        <v>17884</v>
+      </c>
     </row>
-    <row r="161" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -55958,8 +56435,11 @@
       <c r="DH161" s="2">
         <v>39165</v>
       </c>
+      <c r="DI161" s="2">
+        <v>39407</v>
+      </c>
     </row>
-    <row r="162" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -56296,8 +56776,11 @@
       <c r="DH162" s="2">
         <v>2450</v>
       </c>
+      <c r="DI162" s="2">
+        <v>2456</v>
+      </c>
     </row>
-    <row r="163" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -56634,8 +57117,11 @@
       <c r="DH163" s="2">
         <v>205700</v>
       </c>
+      <c r="DI163" s="2">
+        <v>206195</v>
+      </c>
     </row>
-    <row r="164" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -56972,8 +57458,11 @@
       <c r="DH164" s="2">
         <v>307</v>
       </c>
+      <c r="DI164" s="2">
+        <v>308</v>
+      </c>
     </row>
-    <row r="165" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -57310,8 +57799,11 @@
       <c r="DH165" s="2">
         <v>19494</v>
       </c>
+      <c r="DI165" s="2">
+        <v>19569</v>
+      </c>
     </row>
-    <row r="166" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -57648,8 +58140,11 @@
       <c r="DH166" s="2">
         <v>1840</v>
       </c>
+      <c r="DI166" s="2">
+        <v>1841</v>
+      </c>
     </row>
-    <row r="167" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -57986,8 +58481,11 @@
       <c r="DH167" s="2">
         <v>55556</v>
       </c>
+      <c r="DI167" s="2">
+        <v>55690</v>
+      </c>
     </row>
-    <row r="168" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -58324,8 +58822,11 @@
       <c r="DH168" s="2">
         <v>13286</v>
       </c>
+      <c r="DI168" s="2">
+        <v>13330</v>
+      </c>
     </row>
-    <row r="169" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -58662,8 +59163,11 @@
       <c r="DH169" s="2">
         <v>3835</v>
       </c>
+      <c r="DI169" s="2">
+        <v>3839</v>
+      </c>
     </row>
-    <row r="170" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -59000,8 +59504,11 @@
       <c r="DH170" s="2">
         <v>5109</v>
       </c>
+      <c r="DI170" s="2">
+        <v>5124</v>
+      </c>
     </row>
-    <row r="171" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -59338,8 +59845,11 @@
       <c r="DH171" s="2">
         <v>9353</v>
       </c>
+      <c r="DI171" s="2">
+        <v>9375</v>
+      </c>
     </row>
-    <row r="172" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -59676,8 +60186,11 @@
       <c r="DH172" s="2">
         <v>250141</v>
       </c>
+      <c r="DI172" s="2">
+        <v>251362</v>
+      </c>
     </row>
-    <row r="173" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -60014,8 +60527,11 @@
       <c r="DH173" s="2">
         <v>7356</v>
       </c>
+      <c r="DI173" s="2">
+        <v>7358</v>
+      </c>
     </row>
-    <row r="174" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -60352,8 +60868,11 @@
       <c r="DH174" s="2">
         <v>6029</v>
       </c>
+      <c r="DI174" s="2">
+        <v>6044</v>
+      </c>
     </row>
-    <row r="175" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -60690,8 +61209,11 @@
       <c r="DH175" s="2">
         <v>478</v>
       </c>
+      <c r="DI175" s="2">
+        <v>479</v>
+      </c>
     </row>
-    <row r="176" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -61028,8 +61550,11 @@
       <c r="DH176" s="2">
         <v>32068</v>
       </c>
+      <c r="DI176" s="2">
+        <v>32158</v>
+      </c>
     </row>
-    <row r="177" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -61366,8 +61891,11 @@
       <c r="DH177" s="2">
         <v>24030</v>
       </c>
+      <c r="DI177" s="2">
+        <v>24072</v>
+      </c>
     </row>
-    <row r="178" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -61704,8 +62232,11 @@
       <c r="DH178" s="2">
         <v>3801</v>
       </c>
+      <c r="DI178" s="2">
+        <v>3820</v>
+      </c>
     </row>
-    <row r="179" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -62042,8 +62573,11 @@
       <c r="DH179" s="2">
         <v>7280</v>
       </c>
+      <c r="DI179" s="2">
+        <v>7299</v>
+      </c>
     </row>
-    <row r="180" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -62380,8 +62914,11 @@
       <c r="DH180" s="2">
         <v>201090</v>
       </c>
+      <c r="DI180" s="2">
+        <v>201644</v>
+      </c>
     </row>
-    <row r="181" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -62718,8 +63255,11 @@
       <c r="DH181" s="2">
         <v>578</v>
       </c>
+      <c r="DI181" s="2">
+        <v>578</v>
+      </c>
     </row>
-    <row r="182" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -63056,8 +63596,11 @@
       <c r="DH182" s="2">
         <v>686</v>
       </c>
+      <c r="DI182" s="2">
+        <v>686</v>
+      </c>
     </row>
-    <row r="183" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -63394,8 +63937,11 @@
       <c r="DH183" s="2">
         <v>26080</v>
       </c>
+      <c r="DI183" s="2">
+        <v>26213</v>
+      </c>
     </row>
-    <row r="184" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -63732,8 +64278,11 @@
       <c r="DH184" s="2">
         <v>11847</v>
       </c>
+      <c r="DI184" s="2">
+        <v>11887</v>
+      </c>
     </row>
-    <row r="185" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -64070,8 +64619,11 @@
       <c r="DH185" s="2">
         <v>7780</v>
       </c>
+      <c r="DI185" s="2">
+        <v>7796</v>
+      </c>
     </row>
-    <row r="186" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -64408,8 +64960,11 @@
       <c r="DH186" s="2">
         <v>54906</v>
       </c>
+      <c r="DI186" s="2">
+        <v>55151</v>
+      </c>
     </row>
-    <row r="187" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -64746,8 +65301,11 @@
       <c r="DH187" s="2">
         <v>2133</v>
       </c>
+      <c r="DI187" s="2">
+        <v>2134</v>
+      </c>
     </row>
-    <row r="188" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -65084,8 +65642,11 @@
       <c r="DH188" s="2">
         <v>7628</v>
       </c>
+      <c r="DI188" s="2">
+        <v>7670</v>
+      </c>
     </row>
-    <row r="189" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -65422,8 +65983,11 @@
       <c r="DH189" s="2">
         <v>22561</v>
       </c>
+      <c r="DI189" s="2">
+        <v>22617</v>
+      </c>
     </row>
-    <row r="190" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -65760,8 +66324,11 @@
       <c r="DH190" s="2">
         <v>62265</v>
       </c>
+      <c r="DI190" s="2">
+        <v>62310</v>
+      </c>
     </row>
-    <row r="191" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -66098,8 +66665,11 @@
       <c r="DH191" s="2">
         <v>6228</v>
       </c>
+      <c r="DI191" s="2">
+        <v>6229</v>
+      </c>
     </row>
-    <row r="192" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -66436,8 +67006,11 @@
       <c r="DH192" s="2">
         <v>2404</v>
       </c>
+      <c r="DI192" s="2">
+        <v>2415</v>
+      </c>
     </row>
-    <row r="193" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -66774,8 +67347,11 @@
       <c r="DH193" s="2">
         <v>43207</v>
       </c>
+      <c r="DI193" s="2">
+        <v>43278</v>
+      </c>
     </row>
-    <row r="194" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -67112,8 +67688,11 @@
       <c r="DH194" s="2">
         <v>1043</v>
       </c>
+      <c r="DI194" s="2">
+        <v>1043</v>
+      </c>
     </row>
-    <row r="195" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -67450,8 +68029,11 @@
       <c r="DH195" s="2">
         <v>1453</v>
       </c>
+      <c r="DI195" s="2">
+        <v>1461</v>
+      </c>
     </row>
-    <row r="196" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -67788,8 +68370,11 @@
       <c r="DH196" s="2">
         <v>5237</v>
       </c>
+      <c r="DI196" s="2">
+        <v>5264</v>
+      </c>
     </row>
-    <row r="197" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -68126,8 +68711,11 @@
       <c r="DH197" s="2">
         <v>3804</v>
       </c>
+      <c r="DI197" s="2">
+        <v>3831</v>
+      </c>
     </row>
-    <row r="198" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -68464,8 +69052,11 @@
       <c r="DH198" s="2">
         <v>4477</v>
       </c>
+      <c r="DI198" s="2">
+        <v>4525</v>
+      </c>
     </row>
-    <row r="199" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -68802,8 +69393,11 @@
       <c r="DH199" s="2">
         <v>125</v>
       </c>
+      <c r="DI199" s="2">
+        <v>127</v>
+      </c>
     </row>
-    <row r="200" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -69140,8 +69734,11 @@
       <c r="DH200" s="2">
         <v>10828</v>
       </c>
+      <c r="DI200" s="2">
+        <v>10871</v>
+      </c>
     </row>
-    <row r="201" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -69478,8 +70075,11 @@
       <c r="DH201" s="2">
         <v>51096</v>
       </c>
+      <c r="DI201" s="2">
+        <v>51192</v>
+      </c>
     </row>
-    <row r="202" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -69816,8 +70416,11 @@
       <c r="DH202" s="2">
         <v>5843</v>
       </c>
+      <c r="DI202" s="2">
+        <v>5852</v>
+      </c>
     </row>
-    <row r="203" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -70154,8 +70757,11 @@
       <c r="DH203" s="2">
         <v>15795</v>
       </c>
+      <c r="DI203" s="2">
+        <v>15833</v>
+      </c>
     </row>
-    <row r="204" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -70492,8 +71098,11 @@
       <c r="DH204" s="2">
         <v>5080</v>
       </c>
+      <c r="DI204" s="2">
+        <v>5092</v>
+      </c>
     </row>
-    <row r="205" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -70830,8 +71439,11 @@
       <c r="DH205" s="2">
         <v>4808</v>
       </c>
+      <c r="DI205" s="2">
+        <v>4867</v>
+      </c>
     </row>
-    <row r="206" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -71168,8 +71780,11 @@
       <c r="DH206" s="2">
         <v>12011</v>
       </c>
+      <c r="DI206" s="2">
+        <v>12059</v>
+      </c>
     </row>
-    <row r="207" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -71506,8 +72121,11 @@
       <c r="DH207" s="2">
         <v>31735</v>
       </c>
+      <c r="DI207" s="2">
+        <v>31832</v>
+      </c>
     </row>
-    <row r="208" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -71844,8 +72462,11 @@
       <c r="DH208" s="2">
         <v>2652</v>
       </c>
+      <c r="DI208" s="2">
+        <v>2655</v>
+      </c>
     </row>
-    <row r="209" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -72182,8 +72803,11 @@
       <c r="DH209" s="2">
         <v>962</v>
       </c>
+      <c r="DI209" s="2">
+        <v>962</v>
+      </c>
     </row>
-    <row r="210" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -72520,8 +73144,11 @@
       <c r="DH210" s="2">
         <v>14238</v>
       </c>
+      <c r="DI210" s="2">
+        <v>14273</v>
+      </c>
     </row>
-    <row r="211" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -72858,8 +73485,11 @@
       <c r="DH211" s="2">
         <v>802</v>
       </c>
+      <c r="DI211" s="2">
+        <v>803</v>
+      </c>
     </row>
-    <row r="212" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -73196,8 +73826,11 @@
       <c r="DH212" s="2">
         <v>10256</v>
       </c>
+      <c r="DI212" s="2">
+        <v>10296</v>
+      </c>
     </row>
-    <row r="213" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -73534,8 +74167,11 @@
       <c r="DH213" s="2">
         <v>174</v>
       </c>
+      <c r="DI213" s="2">
+        <v>174</v>
+      </c>
     </row>
-    <row r="214" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -73872,8 +74508,11 @@
       <c r="DH214" s="2">
         <v>143178</v>
       </c>
+      <c r="DI214" s="2">
+        <v>143483</v>
+      </c>
     </row>
-    <row r="215" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -74210,8 +74849,11 @@
       <c r="DH215" s="2">
         <v>5673</v>
       </c>
+      <c r="DI215" s="2">
+        <v>5679</v>
+      </c>
     </row>
-    <row r="216" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -74548,8 +75190,11 @@
       <c r="DH216" s="2">
         <v>30563</v>
       </c>
+      <c r="DI216" s="2">
+        <v>31007</v>
+      </c>
     </row>
-    <row r="217" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -74886,8 +75531,11 @@
       <c r="DH217" s="2">
         <v>2730</v>
       </c>
+      <c r="DI217" s="2">
+        <v>2734</v>
+      </c>
     </row>
-    <row r="218" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -75224,8 +75872,11 @@
       <c r="DH218" s="2">
         <v>723</v>
       </c>
+      <c r="DI218" s="2">
+        <v>723</v>
+      </c>
     </row>
-    <row r="219" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -75562,8 +76213,11 @@
       <c r="DH219" s="2">
         <v>275</v>
       </c>
+      <c r="DI219" s="2">
+        <v>275</v>
+      </c>
     </row>
-    <row r="220" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -75900,8 +76554,11 @@
       <c r="DH220" s="2">
         <v>1477</v>
       </c>
+      <c r="DI220" s="2">
+        <v>1479</v>
+      </c>
     </row>
-    <row r="221" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -76238,8 +76895,11 @@
       <c r="DH221" s="2">
         <v>3401</v>
       </c>
+      <c r="DI221" s="2">
+        <v>3409</v>
+      </c>
     </row>
-    <row r="222" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -76576,8 +77236,11 @@
       <c r="DH222" s="2">
         <v>1129779</v>
       </c>
+      <c r="DI222" s="2">
+        <v>1133908</v>
+      </c>
     </row>
-    <row r="223" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -76914,8 +77577,11 @@
       <c r="DH223" s="2">
         <v>83395</v>
       </c>
+      <c r="DI223" s="2">
+        <v>83476</v>
+      </c>
     </row>
-    <row r="224" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -77252,8 +77918,11 @@
       <c r="DH224" s="2">
         <v>309</v>
       </c>
+      <c r="DI224" s="2">
+        <v>310</v>
+      </c>
     </row>
-    <row r="225" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -77590,8 +78259,11 @@
       <c r="DH225" s="2">
         <v>3242</v>
       </c>
+      <c r="DI225" s="2">
+        <v>3244</v>
+      </c>
     </row>
-    <row r="226" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -77928,8 +78600,11 @@
       <c r="DH226" s="2">
         <v>242</v>
       </c>
+      <c r="DI226" s="2">
+        <v>244</v>
+      </c>
     </row>
-    <row r="227" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -78266,8 +78941,11 @@
       <c r="DH227" s="2">
         <v>18551</v>
       </c>
+      <c r="DI227" s="2">
+        <v>18623</v>
+      </c>
     </row>
-    <row r="228" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -78604,8 +79282,11 @@
       <c r="DH228" s="2">
         <v>80677</v>
       </c>
+      <c r="DI228" s="2">
+        <v>80874</v>
+      </c>
     </row>
-    <row r="229" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -78942,8 +79623,11 @@
       <c r="DH229" s="2">
         <v>682252</v>
       </c>
+      <c r="DI229" s="2">
+        <v>685362</v>
+      </c>
     </row>
-    <row r="230" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -79280,8 +79964,11 @@
       <c r="DH230" s="2">
         <v>7475</v>
       </c>
+      <c r="DI230" s="2">
+        <v>7525</v>
+      </c>
     </row>
-    <row r="231" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -79618,8 +80305,11 @@
       <c r="DH231" s="2">
         <v>9466</v>
       </c>
+      <c r="DI231" s="2">
+        <v>9477</v>
+      </c>
     </row>
-    <row r="232" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>229</v>
       </c>
@@ -79956,8 +80646,11 @@
       <c r="DH232" s="2">
         <v>10483</v>
       </c>
+      <c r="DI232" s="2">
+        <v>10563</v>
+      </c>
     </row>
-    <row r="233" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>230</v>
       </c>
@@ -80294,8 +80987,11 @@
       <c r="DH233" s="2">
         <v>1715</v>
       </c>
+      <c r="DI233" s="2">
+        <v>1717</v>
+      </c>
     </row>
-    <row r="234" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>231</v>
       </c>
@@ -80632,8 +81328,11 @@
       <c r="DH234" s="2">
         <v>15306</v>
       </c>
+      <c r="DI234" s="2">
+        <v>15361</v>
+      </c>
     </row>
-    <row r="235" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>232</v>
       </c>
@@ -80970,8 +81669,11 @@
       <c r="DH235" s="2">
         <v>29947</v>
       </c>
+      <c r="DI235" s="2">
+        <v>30079</v>
+      </c>
     </row>
-    <row r="236" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>233</v>
       </c>
@@ -81308,8 +82010,11 @@
       <c r="DH236" s="2">
         <v>15725</v>
       </c>
+      <c r="DI236" s="2">
+        <v>15776</v>
+      </c>
     </row>
-    <row r="237" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>234</v>
       </c>
@@ -81646,8 +82351,11 @@
       <c r="DH237" s="2">
         <v>34669</v>
       </c>
+      <c r="DI237" s="2">
+        <v>34773</v>
+      </c>
     </row>
-    <row r="238" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>235</v>
       </c>
@@ -81984,8 +82692,11 @@
       <c r="DH238" s="2">
         <v>71654</v>
       </c>
+      <c r="DI238" s="2">
+        <v>71907</v>
+      </c>
     </row>
-    <row r="239" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>236</v>
       </c>
@@ -82322,8 +83033,11 @@
       <c r="DH239" s="2">
         <v>19539</v>
       </c>
+      <c r="DI239" s="2">
+        <v>19649</v>
+      </c>
     </row>
-    <row r="240" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>237</v>
       </c>
@@ -82660,8 +83374,11 @@
       <c r="DH240" s="2">
         <v>3490</v>
       </c>
+      <c r="DI240" s="2">
+        <v>3516</v>
+      </c>
     </row>
-    <row r="241" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>238</v>
       </c>
@@ -82998,8 +83715,11 @@
       <c r="DH241" s="2">
         <v>25506</v>
       </c>
+      <c r="DI241" s="2">
+        <v>25601</v>
+      </c>
     </row>
-    <row r="242" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>239</v>
       </c>
@@ -83336,8 +84056,11 @@
       <c r="DH242" s="2">
         <v>217743</v>
       </c>
+      <c r="DI242" s="2">
+        <v>219465</v>
+      </c>
     </row>
-    <row r="243" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>240</v>
       </c>
@@ -83674,8 +84397,11 @@
       <c r="DH243" s="2">
         <v>22151</v>
       </c>
+      <c r="DI243" s="2">
+        <v>22228</v>
+      </c>
     </row>
-    <row r="244" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>241</v>
       </c>
@@ -84012,8 +84738,11 @@
       <c r="DH244" s="2">
         <v>2897</v>
       </c>
+      <c r="DI244" s="2">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="245" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>242</v>
       </c>
@@ -84350,8 +85079,11 @@
       <c r="DH245" s="2">
         <v>91223</v>
       </c>
+      <c r="DI245" s="2">
+        <v>91493</v>
+      </c>
     </row>
-    <row r="246" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>243</v>
       </c>
@@ -84688,8 +85420,11 @@
       <c r="DH246" s="2">
         <v>10353</v>
       </c>
+      <c r="DI246" s="2">
+        <v>10455</v>
+      </c>
     </row>
-    <row r="247" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>244</v>
       </c>
@@ -85026,8 +85761,11 @@
       <c r="DH247" s="2">
         <v>15345</v>
       </c>
+      <c r="DI247" s="2">
+        <v>15424</v>
+      </c>
     </row>
-    <row r="248" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>245</v>
       </c>
@@ -85364,8 +86102,11 @@
       <c r="DH248" s="2">
         <v>277477</v>
       </c>
+      <c r="DI248" s="2">
+        <v>278486</v>
+      </c>
     </row>
-    <row r="249" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>246</v>
       </c>
@@ -85702,8 +86443,11 @@
       <c r="DH249" s="2">
         <v>20591</v>
       </c>
+      <c r="DI249" s="2">
+        <v>20719</v>
+      </c>
     </row>
-    <row r="250" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>247</v>
       </c>
@@ -86040,8 +86784,11 @@
       <c r="DH250" s="2">
         <v>832</v>
       </c>
+      <c r="DI250" s="2">
+        <v>834</v>
+      </c>
     </row>
-    <row r="251" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -86378,8 +87125,11 @@
       <c r="DH251" s="2">
         <v>34454</v>
       </c>
+      <c r="DI251" s="2">
+        <v>34636</v>
+      </c>
     </row>
-    <row r="252" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -86716,8 +87466,11 @@
       <c r="DH252" s="2">
         <v>14484</v>
       </c>
+      <c r="DI252" s="2">
+        <v>14534</v>
+      </c>
     </row>
-    <row r="253" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -87054,8 +87807,11 @@
       <c r="DH253" s="2">
         <v>2265</v>
       </c>
+      <c r="DI253" s="2">
+        <v>2271</v>
+      </c>
     </row>
-    <row r="254" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -87392,8 +88148,11 @@
       <c r="DH254" s="2">
         <v>6008</v>
       </c>
+      <c r="DI254" s="2">
+        <v>6046</v>
+      </c>
     </row>
-    <row r="255" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -87730,8 +88489,11 @@
       <c r="DH255" s="2">
         <v>11528</v>
       </c>
+      <c r="DI255" s="2">
+        <v>11585</v>
+      </c>
     </row>
-    <row r="256" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -88068,8 +88830,11 @@
       <c r="DH256" s="2">
         <v>5818</v>
       </c>
+      <c r="DI256" s="2">
+        <v>5845</v>
+      </c>
     </row>
-    <row r="257" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>254</v>
       </c>
@@ -88406,8 +89171,11 @@
       <c r="DH257" s="2">
         <v>124189</v>
       </c>
+      <c r="DI257" s="2">
+        <v>124228</v>
+      </c>
     </row>
-    <row r="258" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -88747,8 +89515,11 @@
       <c r="DH258" s="8">
         <v>16004419</v>
       </c>
+      <c r="DI258" s="8">
+        <v>16056832</v>
+      </c>
     </row>
-    <row r="259" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:113" x14ac:dyDescent="0.3">
       <c r="J259" t="s">
         <v>258</v>
       </c>
@@ -88775,7 +89546,7 @@
       <c r="AL259" s="2"/>
       <c r="AM259" s="2"/>
     </row>
-    <row r="260" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M260" s="2"/>
       <c r="P260" s="2"/>
       <c r="Q260" s="2"/>
@@ -88783,7 +89554,7 @@
       <c r="S260" s="2"/>
       <c r="T260" s="2"/>
     </row>
-    <row r="261" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M261" s="2"/>
       <c r="P261" s="2"/>
       <c r="Q261" s="2"/>
@@ -88791,7 +89562,7 @@
       <c r="S261" s="2"/>
       <c r="T261" s="2"/>
     </row>
-    <row r="262" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M262" s="2"/>
       <c r="P262" s="2"/>
       <c r="Q262" s="2"/>
@@ -88799,7 +89570,7 @@
       <c r="S262" s="2"/>
       <c r="T262" s="2"/>
     </row>
-    <row r="263" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M263" s="2"/>
       <c r="P263" s="2"/>
       <c r="Q263" s="2"/>
@@ -88807,7 +89578,7 @@
       <c r="S263" s="2"/>
       <c r="T263" s="2"/>
     </row>
-    <row r="264" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M264" s="2"/>
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
@@ -88815,7 +89586,7 @@
       <c r="S264" s="2"/>
       <c r="T264" s="2"/>
     </row>
-    <row r="265" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M265" s="2"/>
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
@@ -88823,7 +89594,7 @@
       <c r="S265" s="2"/>
       <c r="T265" s="2"/>
     </row>
-    <row r="266" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M266" s="2"/>
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
@@ -88831,7 +89602,7 @@
       <c r="S266" s="2"/>
       <c r="T266" s="2"/>
     </row>
-    <row r="267" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M267" s="2"/>
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
@@ -88839,7 +89610,7 @@
       <c r="S267" s="2"/>
       <c r="T267" s="2"/>
     </row>
-    <row r="268" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M268" s="2"/>
       <c r="P268" s="2"/>
       <c r="Q268" s="2"/>
@@ -88847,7 +89618,7 @@
       <c r="S268" s="2"/>
       <c r="T268" s="2"/>
     </row>
-    <row r="269" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M269" s="2"/>
       <c r="P269" s="2"/>
       <c r="Q269" s="2"/>
@@ -88855,7 +89626,7 @@
       <c r="S269" s="2"/>
       <c r="T269" s="2"/>
     </row>
-    <row r="270" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M270" s="2"/>
       <c r="P270" s="2"/>
       <c r="Q270" s="2"/>
@@ -88863,7 +89634,7 @@
       <c r="S270" s="2"/>
       <c r="T270" s="2"/>
     </row>
-    <row r="271" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M271" s="2"/>
       <c r="P271" s="2"/>
       <c r="Q271" s="2"/>
@@ -88871,7 +89642,7 @@
       <c r="S271" s="2"/>
       <c r="T271" s="2"/>
     </row>
-    <row r="272" spans="1:112" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:113" x14ac:dyDescent="0.3">
       <c r="M272" s="2"/>
       <c r="P272" s="2"/>
       <c r="Q272" s="2"/>

--- a/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
+++ b/Services/StateOfTexas/Data/CumulativeTestsOverTimeByCounty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DB1887F0-D2B9-405D-A4C9-FB8D08AC05EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{599B6019-8B52-490A-899C-6F1C5F56A68A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11900" xr2:uid="{09D2CA0E-9107-4430-A0C0-2B01BAE5A0A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="test">#REF!</definedName>
     <definedName name="vlook">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1834,9 +1834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D46C8CE8-D917-42CC-8F81-F51BED46A69F}">
-  <dimension ref="A1:DI513"/>
+  <dimension ref="A1:DJ513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="DD239" workbookViewId="0">
+      <selection activeCell="DL249" sqref="DL249"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1871,15 +1873,15 @@
     <col min="82" max="90" width="10.6640625" style="7" customWidth="1"/>
     <col min="91" max="103" width="9.86328125" style="7" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="10.1328125" customWidth="1"/>
-    <col min="105" max="113" width="10.59765625" style="7" customWidth="1"/>
+    <col min="105" max="114" width="10.59765625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>255</v>
       </c>
@@ -2219,8 +2221,11 @@
       <c r="DI2" s="4">
         <v>44198</v>
       </c>
+      <c r="DJ2" s="4">
+        <v>44199</v>
+      </c>
     </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2560,8 +2565,11 @@
       <c r="DI3" s="2">
         <v>45919</v>
       </c>
+      <c r="DJ3" s="2">
+        <v>46449</v>
+      </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2901,8 +2909,11 @@
       <c r="DI4" s="2">
         <v>4921</v>
       </c>
+      <c r="DJ4" s="2">
+        <v>4946</v>
+      </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3242,8 +3253,11 @@
       <c r="DI5" s="2">
         <v>48999</v>
       </c>
+      <c r="DJ5" s="2">
+        <v>49361</v>
+      </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3583,8 +3597,11 @@
       <c r="DI6" s="2">
         <v>9113</v>
       </c>
+      <c r="DJ6" s="2">
+        <v>9173</v>
+      </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3924,8 +3941,11 @@
       <c r="DI7" s="2">
         <v>2587</v>
       </c>
+      <c r="DJ7" s="2">
+        <v>2618</v>
+      </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4265,8 +4285,11 @@
       <c r="DI8" s="2">
         <v>637</v>
       </c>
+      <c r="DJ8" s="2">
+        <v>643</v>
+      </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4606,8 +4629,11 @@
       <c r="DI9" s="2">
         <v>25307</v>
       </c>
+      <c r="DJ9" s="2">
+        <v>25482</v>
+      </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4947,8 +4973,11 @@
       <c r="DI10" s="2">
         <v>12288</v>
       </c>
+      <c r="DJ10" s="2">
+        <v>12368</v>
+      </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5288,8 +5317,11 @@
       <c r="DI11" s="2">
         <v>1853</v>
       </c>
+      <c r="DJ11" s="2">
+        <v>1855</v>
+      </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5629,8 +5661,11 @@
       <c r="DI12" s="2">
         <v>6812</v>
       </c>
+      <c r="DJ12" s="2">
+        <v>6905</v>
+      </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5970,8 +6005,11 @@
       <c r="DI13" s="2">
         <v>39731</v>
       </c>
+      <c r="DJ13" s="2">
+        <v>40057</v>
+      </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6311,8 +6349,11 @@
       <c r="DI14" s="2">
         <v>1584</v>
       </c>
+      <c r="DJ14" s="2">
+        <v>1585</v>
+      </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -6652,8 +6693,11 @@
       <c r="DI15" s="2">
         <v>29844</v>
       </c>
+      <c r="DJ15" s="2">
+        <v>30072</v>
+      </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -6993,8 +7037,11 @@
       <c r="DI16" s="2">
         <v>179313</v>
       </c>
+      <c r="DJ16" s="2">
+        <v>180907</v>
+      </c>
     </row>
-    <row r="17" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -7334,8 +7381,11 @@
       <c r="DI17" s="2">
         <v>1050647</v>
       </c>
+      <c r="DJ17" s="2">
+        <v>1061904</v>
+      </c>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -7675,8 +7725,11 @@
       <c r="DI18" s="2">
         <v>4103</v>
       </c>
+      <c r="DJ18" s="2">
+        <v>4124</v>
+      </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -8016,8 +8069,11 @@
       <c r="DI19" s="2">
         <v>113</v>
       </c>
+      <c r="DJ19" s="2">
+        <v>113</v>
+      </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -8357,8 +8413,11 @@
       <c r="DI20" s="2">
         <v>10316</v>
       </c>
+      <c r="DJ20" s="2">
+        <v>10357</v>
+      </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -8698,8 +8757,11 @@
       <c r="DI21" s="2">
         <v>57659</v>
       </c>
+      <c r="DJ21" s="2">
+        <v>57807</v>
+      </c>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -9039,8 +9101,11 @@
       <c r="DI22" s="2">
         <v>226068</v>
       </c>
+      <c r="DJ22" s="2">
+        <v>227966</v>
+      </c>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -9380,8 +9445,11 @@
       <c r="DI23" s="2">
         <v>163790</v>
       </c>
+      <c r="DJ23" s="2">
+        <v>164929</v>
+      </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -9721,8 +9789,11 @@
       <c r="DI24" s="2">
         <v>7592</v>
       </c>
+      <c r="DJ24" s="2">
+        <v>7599</v>
+      </c>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -10062,8 +10133,11 @@
       <c r="DI25" s="2">
         <v>538</v>
       </c>
+      <c r="DJ25" s="2">
+        <v>540</v>
+      </c>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -10403,8 +10477,11 @@
       <c r="DI26" s="2">
         <v>10642</v>
       </c>
+      <c r="DJ26" s="2">
+        <v>10960</v>
+      </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -10744,8 +10821,11 @@
       <c r="DI27" s="2">
         <v>21798</v>
       </c>
+      <c r="DJ27" s="2">
+        <v>22290</v>
+      </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -11085,8 +11165,11 @@
       <c r="DI28" s="2">
         <v>9724</v>
       </c>
+      <c r="DJ28" s="2">
+        <v>9799</v>
+      </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -11426,8 +11509,11 @@
       <c r="DI29" s="2">
         <v>23269</v>
       </c>
+      <c r="DJ29" s="2">
+        <v>23494</v>
+      </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -11767,8 +11853,11 @@
       <c r="DI30" s="2">
         <v>23026</v>
       </c>
+      <c r="DJ30" s="2">
+        <v>23251</v>
+      </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -12108,8 +12197,11 @@
       <c r="DI31" s="2">
         <v>11334</v>
       </c>
+      <c r="DJ31" s="2">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -12449,8 +12541,11 @@
       <c r="DI32" s="2">
         <v>6482</v>
       </c>
+      <c r="DJ32" s="2">
+        <v>6540</v>
+      </c>
     </row>
-    <row r="33" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -12790,8 +12885,11 @@
       <c r="DI33" s="2">
         <v>190324</v>
       </c>
+      <c r="DJ33" s="2">
+        <v>191670</v>
+      </c>
     </row>
-    <row r="34" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -13131,8 +13229,11 @@
       <c r="DI34" s="2">
         <v>4924</v>
       </c>
+      <c r="DJ34" s="2">
+        <v>4942</v>
+      </c>
     </row>
-    <row r="35" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13472,8 +13573,11 @@
       <c r="DI35" s="2">
         <v>1800</v>
       </c>
+      <c r="DJ35" s="2">
+        <v>1817</v>
+      </c>
     </row>
-    <row r="36" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -13813,8 +13917,11 @@
       <c r="DI36" s="2">
         <v>13119</v>
       </c>
+      <c r="DJ36" s="2">
+        <v>13194</v>
+      </c>
     </row>
-    <row r="37" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -14154,8 +14261,11 @@
       <c r="DI37" s="2">
         <v>4279</v>
       </c>
+      <c r="DJ37" s="2">
+        <v>4291</v>
+      </c>
     </row>
-    <row r="38" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -14495,8 +14605,11 @@
       <c r="DI38" s="2">
         <v>6702</v>
       </c>
+      <c r="DJ38" s="2">
+        <v>6715</v>
+      </c>
     </row>
-    <row r="39" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14836,8 +14949,11 @@
       <c r="DI39" s="2">
         <v>20337</v>
       </c>
+      <c r="DJ39" s="2">
+        <v>20681</v>
+      </c>
     </row>
-    <row r="40" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -15177,8 +15293,11 @@
       <c r="DI40" s="2">
         <v>5069</v>
       </c>
+      <c r="DJ40" s="2">
+        <v>5109</v>
+      </c>
     </row>
-    <row r="41" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -15518,8 +15637,11 @@
       <c r="DI41" s="2">
         <v>3771</v>
       </c>
+      <c r="DJ41" s="2">
+        <v>3799</v>
+      </c>
     </row>
-    <row r="42" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -15859,8 +15981,11 @@
       <c r="DI42" s="2">
         <v>798</v>
       </c>
+      <c r="DJ42" s="2">
+        <v>802</v>
+      </c>
     </row>
-    <row r="43" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -16200,8 +16325,11 @@
       <c r="DI43" s="2">
         <v>2538</v>
       </c>
+      <c r="DJ43" s="2">
+        <v>2560</v>
+      </c>
     </row>
-    <row r="44" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -16541,8 +16669,11 @@
       <c r="DI44" s="2">
         <v>3790</v>
       </c>
+      <c r="DJ44" s="2">
+        <v>3839</v>
+      </c>
     </row>
-    <row r="45" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -16882,8 +17013,11 @@
       <c r="DI45" s="2">
         <v>664899</v>
       </c>
+      <c r="DJ45" s="2">
+        <v>672103</v>
+      </c>
     </row>
-    <row r="46" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -17223,8 +17357,11 @@
       <c r="DI46" s="2">
         <v>1499</v>
       </c>
+      <c r="DJ46" s="2">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="47" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -17564,8 +17701,11 @@
       <c r="DI47" s="2">
         <v>10930</v>
       </c>
+      <c r="DJ47" s="2">
+        <v>10970</v>
+      </c>
     </row>
-    <row r="48" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -17905,8 +18045,11 @@
       <c r="DI48" s="2">
         <v>71187</v>
       </c>
+      <c r="DJ48" s="2">
+        <v>71970</v>
+      </c>
     </row>
-    <row r="49" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -18246,8 +18389,11 @@
       <c r="DI49" s="2">
         <v>6987</v>
       </c>
+      <c r="DJ49" s="2">
+        <v>7027</v>
+      </c>
     </row>
-    <row r="50" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -18587,8 +18733,11 @@
       <c r="DI50" s="2">
         <v>1928</v>
       </c>
+      <c r="DJ50" s="2">
+        <v>1935</v>
+      </c>
     </row>
-    <row r="51" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -18928,8 +19077,11 @@
       <c r="DI51" s="2">
         <v>20493</v>
       </c>
+      <c r="DJ51" s="2">
+        <v>20670</v>
+      </c>
     </row>
-    <row r="52" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -19269,8 +19421,11 @@
       <c r="DI52" s="2">
         <v>65710</v>
       </c>
+      <c r="DJ52" s="2">
+        <v>66096</v>
+      </c>
     </row>
-    <row r="53" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -19610,8 +19765,11 @@
       <c r="DI53" s="2">
         <v>997</v>
       </c>
+      <c r="DJ53" s="2">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="54" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -19951,8 +20109,11 @@
       <c r="DI54" s="2">
         <v>3688</v>
       </c>
+      <c r="DJ54" s="2">
+        <v>3715</v>
+      </c>
     </row>
-    <row r="55" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -20292,8 +20453,11 @@
       <c r="DI55" s="2">
         <v>1995</v>
       </c>
+      <c r="DJ55" s="2">
+        <v>2006</v>
+      </c>
     </row>
-    <row r="56" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -20633,8 +20797,11 @@
       <c r="DI56" s="2">
         <v>3040</v>
       </c>
+      <c r="DJ56" s="2">
+        <v>3063</v>
+      </c>
     </row>
-    <row r="57" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -20974,8 +21141,11 @@
       <c r="DI57" s="2">
         <v>1709</v>
       </c>
+      <c r="DJ57" s="2">
+        <v>1712</v>
+      </c>
     </row>
-    <row r="58" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -21315,8 +21485,11 @@
       <c r="DI58" s="2">
         <v>1644</v>
       </c>
+      <c r="DJ58" s="2">
+        <v>1647</v>
+      </c>
     </row>
-    <row r="59" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -21656,8 +21829,11 @@
       <c r="DI59" s="2">
         <v>1665249</v>
       </c>
+      <c r="DJ59" s="2">
+        <v>1681923</v>
+      </c>
     </row>
-    <row r="60" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -21997,8 +22173,11 @@
       <c r="DI60" s="2">
         <v>7609</v>
       </c>
+      <c r="DJ60" s="2">
+        <v>7885</v>
+      </c>
     </row>
-    <row r="61" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -22338,8 +22517,11 @@
       <c r="DI61" s="2">
         <v>7528</v>
       </c>
+      <c r="DJ61" s="2">
+        <v>7648</v>
+      </c>
     </row>
-    <row r="62" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -22679,8 +22861,11 @@
       <c r="DI62" s="2">
         <v>5468</v>
       </c>
+      <c r="DJ62" s="2">
+        <v>5486</v>
+      </c>
     </row>
-    <row r="63" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -23020,8 +23205,11 @@
       <c r="DI63" s="2">
         <v>2038</v>
       </c>
+      <c r="DJ63" s="2">
+        <v>2048</v>
+      </c>
     </row>
-    <row r="64" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -23361,8 +23549,11 @@
       <c r="DI64" s="2">
         <v>417446</v>
       </c>
+      <c r="DJ64" s="2">
+        <v>422214</v>
+      </c>
     </row>
-    <row r="65" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -23702,8 +23893,11 @@
       <c r="DI65" s="2">
         <v>591</v>
       </c>
+      <c r="DJ65" s="2">
+        <v>592</v>
+      </c>
     </row>
-    <row r="66" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -24043,8 +24237,11 @@
       <c r="DI66" s="2">
         <v>5502</v>
       </c>
+      <c r="DJ66" s="2">
+        <v>5539</v>
+      </c>
     </row>
-    <row r="67" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -24384,8 +24581,11 @@
       <c r="DI67" s="2">
         <v>1534</v>
       </c>
+      <c r="DJ67" s="2">
+        <v>1542</v>
+      </c>
     </row>
-    <row r="68" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -24725,8 +24925,11 @@
       <c r="DI68" s="2">
         <v>13998</v>
       </c>
+      <c r="DJ68" s="2">
+        <v>14065</v>
+      </c>
     </row>
-    <row r="69" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -25066,8 +25269,11 @@
       <c r="DI69" s="2">
         <v>5542</v>
       </c>
+      <c r="DJ69" s="2">
+        <v>5589</v>
+      </c>
     </row>
-    <row r="70" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -25407,8 +25613,11 @@
       <c r="DI70" s="2">
         <v>56294</v>
       </c>
+      <c r="DJ70" s="2">
+        <v>57119</v>
+      </c>
     </row>
-    <row r="71" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -25748,8 +25957,11 @@
       <c r="DI71" s="2">
         <v>1092</v>
       </c>
+      <c r="DJ71" s="2">
+        <v>1097</v>
+      </c>
     </row>
-    <row r="72" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -26089,8 +26301,11 @@
       <c r="DI72" s="2">
         <v>653301</v>
       </c>
+      <c r="DJ72" s="2">
+        <v>662834</v>
+      </c>
     </row>
-    <row r="73" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -26430,8 +26645,11 @@
       <c r="DI73" s="2">
         <v>114052</v>
       </c>
+      <c r="DJ73" s="2">
+        <v>114953</v>
+      </c>
     </row>
-    <row r="74" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -26771,8 +26989,11 @@
       <c r="DI74" s="2">
         <v>16169</v>
       </c>
+      <c r="DJ74" s="2">
+        <v>16321</v>
+      </c>
     </row>
-    <row r="75" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -27112,8 +27333,11 @@
       <c r="DI75" s="2">
         <v>10709</v>
       </c>
+      <c r="DJ75" s="2">
+        <v>10795</v>
+      </c>
     </row>
-    <row r="76" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -27453,8 +27677,11 @@
       <c r="DI76" s="2">
         <v>18799</v>
       </c>
+      <c r="DJ76" s="2">
+        <v>18996</v>
+      </c>
     </row>
-    <row r="77" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -27794,8 +28021,11 @@
       <c r="DI77" s="2">
         <v>11073</v>
       </c>
+      <c r="DJ77" s="2">
+        <v>11117</v>
+      </c>
     </row>
-    <row r="78" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -28135,8 +28365,11 @@
       <c r="DI78" s="2">
         <v>1205</v>
       </c>
+      <c r="DJ78" s="2">
+        <v>1211</v>
+      </c>
     </row>
-    <row r="79" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -28476,8 +28709,11 @@
       <c r="DI79" s="2">
         <v>2024</v>
       </c>
+      <c r="DJ79" s="2">
+        <v>2036</v>
+      </c>
     </row>
-    <row r="80" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -28817,8 +29053,11 @@
       <c r="DI80" s="2">
         <v>764</v>
       </c>
+      <c r="DJ80" s="2">
+        <v>771</v>
+      </c>
     </row>
-    <row r="81" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -29158,8 +29397,11 @@
       <c r="DI81" s="2">
         <v>427299</v>
       </c>
+      <c r="DJ81" s="2">
+        <v>431497</v>
+      </c>
     </row>
-    <row r="82" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -29499,8 +29741,11 @@
       <c r="DI82" s="2">
         <v>3767</v>
       </c>
+      <c r="DJ82" s="2">
+        <v>3778</v>
+      </c>
     </row>
-    <row r="83" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -29840,8 +30085,11 @@
       <c r="DI83" s="2">
         <v>12541</v>
       </c>
+      <c r="DJ83" s="2">
+        <v>12682</v>
+      </c>
     </row>
-    <row r="84" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -30181,8 +30429,11 @@
       <c r="DI84" s="2">
         <v>11208</v>
       </c>
+      <c r="DJ84" s="2">
+        <v>11244</v>
+      </c>
     </row>
-    <row r="85" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -30522,8 +30773,11 @@
       <c r="DI85" s="2">
         <v>3399</v>
       </c>
+      <c r="DJ85" s="2">
+        <v>3425</v>
+      </c>
     </row>
-    <row r="86" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -30863,8 +31117,11 @@
       <c r="DI86" s="2">
         <v>244908</v>
       </c>
+      <c r="DJ86" s="2">
+        <v>246778</v>
+      </c>
     </row>
-    <row r="87" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -31204,8 +31461,11 @@
       <c r="DI87" s="2">
         <v>2139</v>
       </c>
+      <c r="DJ87" s="2">
+        <v>2143</v>
+      </c>
     </row>
-    <row r="88" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -31545,8 +31805,11 @@
       <c r="DI88" s="2">
         <v>13729</v>
       </c>
+      <c r="DJ88" s="2">
+        <v>13799</v>
+      </c>
     </row>
-    <row r="89" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -31886,8 +32149,11 @@
       <c r="DI89" s="2">
         <v>147</v>
       </c>
+      <c r="DJ89" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="90" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -32227,8 +32493,11 @@
       <c r="DI90" s="2">
         <v>2785</v>
       </c>
+      <c r="DJ90" s="2">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="91" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -32568,8 +32837,11 @@
       <c r="DI91" s="2">
         <v>10984</v>
       </c>
+      <c r="DJ91" s="2">
+        <v>11076</v>
+      </c>
     </row>
-    <row r="92" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -32909,8 +33181,11 @@
       <c r="DI92" s="2">
         <v>6896</v>
       </c>
+      <c r="DJ92" s="2">
+        <v>6925</v>
+      </c>
     </row>
-    <row r="93" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -33250,8 +33525,11 @@
       <c r="DI93" s="2">
         <v>73527</v>
       </c>
+      <c r="DJ93" s="2">
+        <v>74498</v>
+      </c>
     </row>
-    <row r="94" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -33591,8 +33869,11 @@
       <c r="DI94" s="2">
         <v>48091</v>
       </c>
+      <c r="DJ94" s="2">
+        <v>48649</v>
+      </c>
     </row>
-    <row r="95" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -33932,8 +34213,11 @@
       <c r="DI95" s="2">
         <v>18558</v>
       </c>
+      <c r="DJ95" s="2">
+        <v>18643</v>
+      </c>
     </row>
-    <row r="96" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -34273,8 +34557,11 @@
       <c r="DI96" s="2">
         <v>52883</v>
       </c>
+      <c r="DJ96" s="2">
+        <v>53533</v>
+      </c>
     </row>
-    <row r="97" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -34614,8 +34901,11 @@
       <c r="DI97" s="2">
         <v>11264</v>
       </c>
+      <c r="DJ97" s="2">
+        <v>11281</v>
+      </c>
     </row>
-    <row r="98" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -34955,8 +35245,11 @@
       <c r="DI98" s="2">
         <v>2110</v>
       </c>
+      <c r="DJ98" s="2">
+        <v>2187</v>
+      </c>
     </row>
-    <row r="99" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -35296,8 +35589,11 @@
       <c r="DI99" s="2">
         <v>4236</v>
       </c>
+      <c r="DJ99" s="2">
+        <v>4302</v>
+      </c>
     </row>
-    <row r="100" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -35637,8 +35933,11 @@
       <c r="DI100" s="2">
         <v>2305</v>
       </c>
+      <c r="DJ100" s="2">
+        <v>2337</v>
+      </c>
     </row>
-    <row r="101" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -35978,8 +36277,11 @@
       <c r="DI101" s="2">
         <v>1671</v>
       </c>
+      <c r="DJ101" s="2">
+        <v>1708</v>
+      </c>
     </row>
-    <row r="102" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -36319,8 +36621,11 @@
       <c r="DI102" s="2">
         <v>18111</v>
       </c>
+      <c r="DJ102" s="2">
+        <v>18213</v>
+      </c>
     </row>
-    <row r="103" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -36660,8 +36965,11 @@
       <c r="DI103" s="2">
         <v>2670196</v>
       </c>
+      <c r="DJ103" s="2">
+        <v>2701062</v>
+      </c>
     </row>
-    <row r="104" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -37001,8 +37309,11 @@
       <c r="DI104" s="2">
         <v>49995</v>
       </c>
+      <c r="DJ104" s="2">
+        <v>51376</v>
+      </c>
     </row>
-    <row r="105" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -37342,8 +37653,11 @@
       <c r="DI105" s="2">
         <v>150</v>
       </c>
+      <c r="DJ105" s="2">
+        <v>150</v>
+      </c>
     </row>
-    <row r="106" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -37683,8 +37997,11 @@
       <c r="DI106" s="2">
         <v>1827</v>
       </c>
+      <c r="DJ106" s="2">
+        <v>1833</v>
+      </c>
     </row>
-    <row r="107" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -38024,8 +38341,11 @@
       <c r="DI107" s="2">
         <v>148701</v>
       </c>
+      <c r="DJ107" s="2">
+        <v>149984</v>
+      </c>
     </row>
-    <row r="108" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -38365,8 +38685,11 @@
       <c r="DI108" s="2">
         <v>1001</v>
       </c>
+      <c r="DJ108" s="2">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="109" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -38706,8 +39029,11 @@
       <c r="DI109" s="2">
         <v>23659</v>
       </c>
+      <c r="DJ109" s="2">
+        <v>24518</v>
+      </c>
     </row>
-    <row r="110" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -39047,8 +39373,11 @@
       <c r="DI110" s="2">
         <v>344750</v>
       </c>
+      <c r="DJ110" s="2">
+        <v>346484</v>
+      </c>
     </row>
-    <row r="111" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -39388,8 +39717,11 @@
       <c r="DI111" s="2">
         <v>29271</v>
       </c>
+      <c r="DJ111" s="2">
+        <v>29418</v>
+      </c>
     </row>
-    <row r="112" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -39729,8 +40061,11 @@
       <c r="DI112" s="2">
         <v>7919</v>
       </c>
+      <c r="DJ112" s="2">
+        <v>7956</v>
+      </c>
     </row>
-    <row r="113" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -40070,8 +40405,11 @@
       <c r="DI113" s="2">
         <v>35631</v>
       </c>
+      <c r="DJ113" s="2">
+        <v>36536</v>
+      </c>
     </row>
-    <row r="114" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -40411,8 +40749,11 @@
       <c r="DI114" s="2">
         <v>14583</v>
       </c>
+      <c r="DJ114" s="2">
+        <v>14719</v>
+      </c>
     </row>
-    <row r="115" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -40752,8 +41093,11 @@
       <c r="DI115" s="2">
         <v>13278</v>
       </c>
+      <c r="DJ115" s="2">
+        <v>13369</v>
+      </c>
     </row>
-    <row r="116" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -41093,8 +41437,11 @@
       <c r="DI116" s="2">
         <v>12577</v>
       </c>
+      <c r="DJ116" s="2">
+        <v>12730</v>
+      </c>
     </row>
-    <row r="117" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -41434,8 +41781,11 @@
       <c r="DI117" s="2">
         <v>2187</v>
       </c>
+      <c r="DJ117" s="2">
+        <v>2201</v>
+      </c>
     </row>
-    <row r="118" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -41775,8 +42125,11 @@
       <c r="DI118" s="2">
         <v>55544</v>
       </c>
+      <c r="DJ118" s="2">
+        <v>56084</v>
+      </c>
     </row>
-    <row r="119" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -42116,8 +42469,11 @@
       <c r="DI119" s="2">
         <v>8859</v>
       </c>
+      <c r="DJ119" s="2">
+        <v>8939</v>
+      </c>
     </row>
-    <row r="120" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -42457,8 +42813,11 @@
       <c r="DI120" s="2">
         <v>414</v>
       </c>
+      <c r="DJ120" s="2">
+        <v>417</v>
+      </c>
     </row>
-    <row r="121" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -42798,8 +43157,11 @@
       <c r="DI121" s="2">
         <v>1398</v>
       </c>
+      <c r="DJ121" s="2">
+        <v>1416</v>
+      </c>
     </row>
-    <row r="122" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -43139,8 +43501,11 @@
       <c r="DI122" s="2">
         <v>5745</v>
       </c>
+      <c r="DJ122" s="2">
+        <v>5797</v>
+      </c>
     </row>
-    <row r="123" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -43480,8 +43845,11 @@
       <c r="DI123" s="2">
         <v>12520</v>
       </c>
+      <c r="DJ123" s="2">
+        <v>12633</v>
+      </c>
     </row>
-    <row r="124" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -43821,8 +44189,11 @@
       <c r="DI124" s="2">
         <v>1331</v>
       </c>
+      <c r="DJ124" s="2">
+        <v>1332</v>
+      </c>
     </row>
-    <row r="125" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -44162,8 +44533,11 @@
       <c r="DI125" s="2">
         <v>140673</v>
       </c>
+      <c r="DJ125" s="2">
+        <v>141465</v>
+      </c>
     </row>
-    <row r="126" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -44503,8 +44877,11 @@
       <c r="DI126" s="2">
         <v>8369</v>
       </c>
+      <c r="DJ126" s="2">
+        <v>8549</v>
+      </c>
     </row>
-    <row r="127" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -44844,8 +45221,11 @@
       <c r="DI127" s="2">
         <v>44123</v>
       </c>
+      <c r="DJ127" s="2">
+        <v>44539</v>
+      </c>
     </row>
-    <row r="128" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -45185,8 +45565,11 @@
       <c r="DI128" s="2">
         <v>87379</v>
       </c>
+      <c r="DJ128" s="2">
+        <v>89009</v>
+      </c>
     </row>
-    <row r="129" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -45526,8 +45909,11 @@
       <c r="DI129" s="2">
         <v>5819</v>
       </c>
+      <c r="DJ129" s="2">
+        <v>5872</v>
+      </c>
     </row>
-    <row r="130" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -45867,8 +46253,11 @@
       <c r="DI130" s="2">
         <v>11947</v>
       </c>
+      <c r="DJ130" s="2">
+        <v>12072</v>
+      </c>
     </row>
-    <row r="131" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -46208,8 +46597,11 @@
       <c r="DI131" s="2">
         <v>76277</v>
       </c>
+      <c r="DJ131" s="2">
+        <v>77178</v>
+      </c>
     </row>
-    <row r="132" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -46549,8 +46941,11 @@
       <c r="DI132" s="2">
         <v>17849</v>
       </c>
+      <c r="DJ132" s="2">
+        <v>18192</v>
+      </c>
     </row>
-    <row r="133" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -46890,8 +47285,11 @@
       <c r="DI133" s="2">
         <v>155</v>
       </c>
+      <c r="DJ133" s="2">
+        <v>157</v>
+      </c>
     </row>
-    <row r="134" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -47231,8 +47629,11 @@
       <c r="DI134" s="2">
         <v>413</v>
       </c>
+      <c r="DJ134" s="2">
+        <v>413</v>
+      </c>
     </row>
-    <row r="135" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -47572,8 +47973,11 @@
       <c r="DI135" s="2">
         <v>32826</v>
       </c>
+      <c r="DJ135" s="2">
+        <v>33258</v>
+      </c>
     </row>
-    <row r="136" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -47913,8 +48317,11 @@
       <c r="DI136" s="2">
         <v>1537</v>
       </c>
+      <c r="DJ136" s="2">
+        <v>1544</v>
+      </c>
     </row>
-    <row r="137" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -48254,8 +48661,11 @@
       <c r="DI137" s="2">
         <v>41</v>
       </c>
+      <c r="DJ137" s="2">
+        <v>41</v>
+      </c>
     </row>
-    <row r="138" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -48595,8 +49005,11 @@
       <c r="DI138" s="2">
         <v>1319</v>
       </c>
+      <c r="DJ138" s="2">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="139" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -48936,8 +49349,11 @@
       <c r="DI139" s="2">
         <v>23846</v>
       </c>
+      <c r="DJ139" s="2">
+        <v>23917</v>
+      </c>
     </row>
-    <row r="140" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
@@ -49277,8 +49693,11 @@
       <c r="DI140" s="2">
         <v>1822</v>
       </c>
+      <c r="DJ140" s="2">
+        <v>1824</v>
+      </c>
     </row>
-    <row r="141" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>138</v>
       </c>
@@ -49618,8 +50037,11 @@
       <c r="DI141" s="2">
         <v>5438</v>
       </c>
+      <c r="DJ141" s="2">
+        <v>5444</v>
+      </c>
     </row>
-    <row r="142" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -49959,8 +50381,11 @@
       <c r="DI142" s="2">
         <v>18363</v>
       </c>
+      <c r="DJ142" s="2">
+        <v>18547</v>
+      </c>
     </row>
-    <row r="143" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>140</v>
       </c>
@@ -50300,8 +50725,11 @@
       <c r="DI143" s="2">
         <v>7319</v>
       </c>
+      <c r="DJ143" s="2">
+        <v>7331</v>
+      </c>
     </row>
-    <row r="144" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -50641,8 +51069,11 @@
       <c r="DI144" s="2">
         <v>13085</v>
       </c>
+      <c r="DJ144" s="2">
+        <v>13231</v>
+      </c>
     </row>
-    <row r="145" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>142</v>
       </c>
@@ -50982,8 +51413,11 @@
       <c r="DI145" s="2">
         <v>9833</v>
       </c>
+      <c r="DJ145" s="2">
+        <v>9872</v>
+      </c>
     </row>
-    <row r="146" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>143</v>
       </c>
@@ -51323,8 +51757,11 @@
       <c r="DI146" s="2">
         <v>6401</v>
       </c>
+      <c r="DJ146" s="2">
+        <v>6476</v>
+      </c>
     </row>
-    <row r="147" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>144</v>
       </c>
@@ -51664,8 +52101,11 @@
       <c r="DI147" s="2">
         <v>7467</v>
       </c>
+      <c r="DJ147" s="2">
+        <v>7554</v>
+      </c>
     </row>
-    <row r="148" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>145</v>
       </c>
@@ -52005,8 +52445,11 @@
       <c r="DI148" s="2">
         <v>37950</v>
       </c>
+      <c r="DJ148" s="2">
+        <v>38231</v>
+      </c>
     </row>
-    <row r="149" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>146</v>
       </c>
@@ -52346,8 +52789,11 @@
       <c r="DI149" s="2">
         <v>21358</v>
       </c>
+      <c r="DJ149" s="2">
+        <v>21672</v>
+      </c>
     </row>
-    <row r="150" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
@@ -52687,8 +53133,11 @@
       <c r="DI150" s="2">
         <v>286</v>
       </c>
+      <c r="DJ150" s="2">
+        <v>288</v>
+      </c>
     </row>
-    <row r="151" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -53028,8 +53477,11 @@
       <c r="DI151" s="2">
         <v>4222</v>
       </c>
+      <c r="DJ151" s="2">
+        <v>4264</v>
+      </c>
     </row>
-    <row r="152" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>149</v>
       </c>
@@ -53369,8 +53821,11 @@
       <c r="DI152" s="2">
         <v>7779</v>
       </c>
+      <c r="DJ152" s="2">
+        <v>7820</v>
+      </c>
     </row>
-    <row r="153" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>150</v>
       </c>
@@ -53710,8 +54165,11 @@
       <c r="DI153" s="2">
         <v>23</v>
       </c>
+      <c r="DJ153" s="2">
+        <v>23</v>
+      </c>
     </row>
-    <row r="154" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>151</v>
       </c>
@@ -54051,8 +54509,11 @@
       <c r="DI154" s="2">
         <v>218302</v>
       </c>
+      <c r="DJ154" s="2">
+        <v>219288</v>
+      </c>
     </row>
-    <row r="155" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>152</v>
       </c>
@@ -54392,8 +54853,11 @@
       <c r="DI155" s="2">
         <v>3312</v>
       </c>
+      <c r="DJ155" s="2">
+        <v>3329</v>
+      </c>
     </row>
-    <row r="156" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>153</v>
       </c>
@@ -54733,8 +55197,11 @@
       <c r="DI156" s="2">
         <v>10282</v>
       </c>
+      <c r="DJ156" s="2">
+        <v>10311</v>
+      </c>
     </row>
-    <row r="157" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>154</v>
       </c>
@@ -55074,8 +55541,11 @@
       <c r="DI157" s="2">
         <v>2553</v>
       </c>
+      <c r="DJ157" s="2">
+        <v>2566</v>
+      </c>
     </row>
-    <row r="158" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -55415,8 +55885,11 @@
       <c r="DI158" s="2">
         <v>1338</v>
       </c>
+      <c r="DJ158" s="2">
+        <v>1357</v>
+      </c>
     </row>
-    <row r="159" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>156</v>
       </c>
@@ -55756,8 +56229,11 @@
       <c r="DI159" s="2">
         <v>1726</v>
       </c>
+      <c r="DJ159" s="2">
+        <v>1731</v>
+      </c>
     </row>
-    <row r="160" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>157</v>
       </c>
@@ -56097,8 +56573,11 @@
       <c r="DI160" s="2">
         <v>17884</v>
       </c>
+      <c r="DJ160" s="2">
+        <v>17969</v>
+      </c>
     </row>
-    <row r="161" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>158</v>
       </c>
@@ -56438,8 +56917,11 @@
       <c r="DI161" s="2">
         <v>39407</v>
       </c>
+      <c r="DJ161" s="2">
+        <v>39734</v>
+      </c>
     </row>
-    <row r="162" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>159</v>
       </c>
@@ -56779,8 +57261,11 @@
       <c r="DI162" s="2">
         <v>2456</v>
       </c>
+      <c r="DJ162" s="2">
+        <v>2466</v>
+      </c>
     </row>
-    <row r="163" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>160</v>
       </c>
@@ -57120,8 +57605,11 @@
       <c r="DI163" s="2">
         <v>206195</v>
       </c>
+      <c r="DJ163" s="2">
+        <v>207717</v>
+      </c>
     </row>
-    <row r="164" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -57461,8 +57949,11 @@
       <c r="DI164" s="2">
         <v>308</v>
       </c>
+      <c r="DJ164" s="2">
+        <v>313</v>
+      </c>
     </row>
-    <row r="165" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>162</v>
       </c>
@@ -57802,8 +58293,11 @@
       <c r="DI165" s="2">
         <v>19569</v>
       </c>
+      <c r="DJ165" s="2">
+        <v>19741</v>
+      </c>
     </row>
-    <row r="166" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>163</v>
       </c>
@@ -58143,8 +58637,11 @@
       <c r="DI166" s="2">
         <v>1841</v>
       </c>
+      <c r="DJ166" s="2">
+        <v>1844</v>
+      </c>
     </row>
-    <row r="167" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -58484,8 +58981,11 @@
       <c r="DI167" s="2">
         <v>55690</v>
       </c>
+      <c r="DJ167" s="2">
+        <v>57000</v>
+      </c>
     </row>
-    <row r="168" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -58825,8 +59325,11 @@
       <c r="DI168" s="2">
         <v>13330</v>
       </c>
+      <c r="DJ168" s="2">
+        <v>13414</v>
+      </c>
     </row>
-    <row r="169" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>166</v>
       </c>
@@ -59166,8 +59669,11 @@
       <c r="DI169" s="2">
         <v>3839</v>
       </c>
+      <c r="DJ169" s="2">
+        <v>3853</v>
+      </c>
     </row>
-    <row r="170" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>167</v>
       </c>
@@ -59507,8 +60013,11 @@
       <c r="DI170" s="2">
         <v>5124</v>
       </c>
+      <c r="DJ170" s="2">
+        <v>5164</v>
+      </c>
     </row>
-    <row r="171" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>168</v>
       </c>
@@ -59848,8 +60357,11 @@
       <c r="DI171" s="2">
         <v>9375</v>
       </c>
+      <c r="DJ171" s="2">
+        <v>9505</v>
+      </c>
     </row>
-    <row r="172" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>169</v>
       </c>
@@ -60189,8 +60701,11 @@
       <c r="DI172" s="2">
         <v>251362</v>
       </c>
+      <c r="DJ172" s="2">
+        <v>253874</v>
+      </c>
     </row>
-    <row r="173" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -60530,8 +61045,11 @@
       <c r="DI173" s="2">
         <v>7358</v>
       </c>
+      <c r="DJ173" s="2">
+        <v>7370</v>
+      </c>
     </row>
-    <row r="174" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -60871,8 +61389,11 @@
       <c r="DI174" s="2">
         <v>6044</v>
       </c>
+      <c r="DJ174" s="2">
+        <v>6110</v>
+      </c>
     </row>
-    <row r="175" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>172</v>
       </c>
@@ -61212,8 +61733,11 @@
       <c r="DI175" s="2">
         <v>479</v>
       </c>
+      <c r="DJ175" s="2">
+        <v>481</v>
+      </c>
     </row>
-    <row r="176" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>173</v>
       </c>
@@ -61553,8 +62077,11 @@
       <c r="DI176" s="2">
         <v>32158</v>
       </c>
+      <c r="DJ176" s="2">
+        <v>32310</v>
+      </c>
     </row>
-    <row r="177" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -61894,8 +62421,11 @@
       <c r="DI177" s="2">
         <v>24072</v>
       </c>
+      <c r="DJ177" s="2">
+        <v>24652</v>
+      </c>
     </row>
-    <row r="178" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -62235,8 +62765,11 @@
       <c r="DI178" s="2">
         <v>3820</v>
       </c>
+      <c r="DJ178" s="2">
+        <v>3846</v>
+      </c>
     </row>
-    <row r="179" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -62576,8 +63109,11 @@
       <c r="DI179" s="2">
         <v>7299</v>
       </c>
+      <c r="DJ179" s="2">
+        <v>7323</v>
+      </c>
     </row>
-    <row r="180" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -62917,8 +63453,11 @@
       <c r="DI180" s="2">
         <v>201644</v>
       </c>
+      <c r="DJ180" s="2">
+        <v>203244</v>
+      </c>
     </row>
-    <row r="181" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -63258,8 +63797,11 @@
       <c r="DI181" s="2">
         <v>578</v>
       </c>
+      <c r="DJ181" s="2">
+        <v>580</v>
+      </c>
     </row>
-    <row r="182" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -63599,8 +64141,11 @@
       <c r="DI182" s="2">
         <v>686</v>
       </c>
+      <c r="DJ182" s="2">
+        <v>688</v>
+      </c>
     </row>
-    <row r="183" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -63940,8 +64485,11 @@
       <c r="DI183" s="2">
         <v>26213</v>
       </c>
+      <c r="DJ183" s="2">
+        <v>26474</v>
+      </c>
     </row>
-    <row r="184" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -64281,8 +64829,11 @@
       <c r="DI184" s="2">
         <v>11887</v>
       </c>
+      <c r="DJ184" s="2">
+        <v>12129</v>
+      </c>
     </row>
-    <row r="185" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>182</v>
       </c>
@@ -64622,8 +65173,11 @@
       <c r="DI185" s="2">
         <v>7796</v>
       </c>
+      <c r="DJ185" s="2">
+        <v>7822</v>
+      </c>
     </row>
-    <row r="186" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>183</v>
       </c>
@@ -64963,8 +65517,11 @@
       <c r="DI186" s="2">
         <v>55151</v>
       </c>
+      <c r="DJ186" s="2">
+        <v>56107</v>
+      </c>
     </row>
-    <row r="187" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -65304,8 +65861,11 @@
       <c r="DI187" s="2">
         <v>2134</v>
       </c>
+      <c r="DJ187" s="2">
+        <v>2147</v>
+      </c>
     </row>
-    <row r="188" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>185</v>
       </c>
@@ -65645,8 +66205,11 @@
       <c r="DI188" s="2">
         <v>7670</v>
       </c>
+      <c r="DJ188" s="2">
+        <v>7759</v>
+      </c>
     </row>
-    <row r="189" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>186</v>
       </c>
@@ -65986,8 +66549,11 @@
       <c r="DI189" s="2">
         <v>22617</v>
       </c>
+      <c r="DJ189" s="2">
+        <v>22743</v>
+      </c>
     </row>
-    <row r="190" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>187</v>
       </c>
@@ -66327,8 +66893,11 @@
       <c r="DI190" s="2">
         <v>62310</v>
       </c>
+      <c r="DJ190" s="2">
+        <v>62757</v>
+      </c>
     </row>
-    <row r="191" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>188</v>
       </c>
@@ -66668,8 +67237,11 @@
       <c r="DI191" s="2">
         <v>6229</v>
       </c>
+      <c r="DJ191" s="2">
+        <v>6236</v>
+      </c>
     </row>
-    <row r="192" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>189</v>
       </c>
@@ -67009,8 +67581,11 @@
       <c r="DI192" s="2">
         <v>2415</v>
       </c>
+      <c r="DJ192" s="2">
+        <v>2434</v>
+      </c>
     </row>
-    <row r="193" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>190</v>
       </c>
@@ -67350,8 +67925,11 @@
       <c r="DI193" s="2">
         <v>43278</v>
       </c>
+      <c r="DJ193" s="2">
+        <v>43604</v>
+      </c>
     </row>
-    <row r="194" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -67691,8 +68269,11 @@
       <c r="DI194" s="2">
         <v>1043</v>
       </c>
+      <c r="DJ194" s="2">
+        <v>1047</v>
+      </c>
     </row>
-    <row r="195" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>192</v>
       </c>
@@ -68032,8 +68613,11 @@
       <c r="DI195" s="2">
         <v>1461</v>
       </c>
+      <c r="DJ195" s="2">
+        <v>1470</v>
+      </c>
     </row>
-    <row r="196" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>193</v>
       </c>
@@ -68373,8 +68957,11 @@
       <c r="DI196" s="2">
         <v>5264</v>
       </c>
+      <c r="DJ196" s="2">
+        <v>5341</v>
+      </c>
     </row>
-    <row r="197" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>194</v>
       </c>
@@ -68714,8 +69301,11 @@
       <c r="DI197" s="2">
         <v>3831</v>
       </c>
+      <c r="DJ197" s="2">
+        <v>3850</v>
+      </c>
     </row>
-    <row r="198" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>195</v>
       </c>
@@ -69055,8 +69645,11 @@
       <c r="DI198" s="2">
         <v>4525</v>
       </c>
+      <c r="DJ198" s="2">
+        <v>4542</v>
+      </c>
     </row>
-    <row r="199" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>196</v>
       </c>
@@ -69396,8 +69989,11 @@
       <c r="DI199" s="2">
         <v>127</v>
       </c>
+      <c r="DJ199" s="2">
+        <v>129</v>
+      </c>
     </row>
-    <row r="200" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>197</v>
       </c>
@@ -69737,8 +70333,11 @@
       <c r="DI200" s="2">
         <v>10871</v>
       </c>
+      <c r="DJ200" s="2">
+        <v>11066</v>
+      </c>
     </row>
-    <row r="201" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>198</v>
       </c>
@@ -70078,8 +70677,11 @@
       <c r="DI201" s="2">
         <v>51192</v>
       </c>
+      <c r="DJ201" s="2">
+        <v>51634</v>
+      </c>
     </row>
-    <row r="202" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>199</v>
       </c>
@@ -70419,8 +71021,11 @@
       <c r="DI202" s="2">
         <v>5852</v>
       </c>
+      <c r="DJ202" s="2">
+        <v>5908</v>
+      </c>
     </row>
-    <row r="203" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -70760,8 +71365,11 @@
       <c r="DI203" s="2">
         <v>15833</v>
       </c>
+      <c r="DJ203" s="2">
+        <v>15939</v>
+      </c>
     </row>
-    <row r="204" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>201</v>
       </c>
@@ -71101,8 +71709,11 @@
       <c r="DI204" s="2">
         <v>5092</v>
       </c>
+      <c r="DJ204" s="2">
+        <v>5148</v>
+      </c>
     </row>
-    <row r="205" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>202</v>
       </c>
@@ -71442,8 +72053,11 @@
       <c r="DI205" s="2">
         <v>4867</v>
       </c>
+      <c r="DJ205" s="2">
+        <v>4892</v>
+      </c>
     </row>
-    <row r="206" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>203</v>
       </c>
@@ -71783,8 +72397,11 @@
       <c r="DI206" s="2">
         <v>12059</v>
       </c>
+      <c r="DJ206" s="2">
+        <v>12165</v>
+      </c>
     </row>
-    <row r="207" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -72124,8 +72741,11 @@
       <c r="DI207" s="2">
         <v>31832</v>
       </c>
+      <c r="DJ207" s="2">
+        <v>32135</v>
+      </c>
     </row>
-    <row r="208" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>205</v>
       </c>
@@ -72465,8 +73085,11 @@
       <c r="DI208" s="2">
         <v>2655</v>
       </c>
+      <c r="DJ208" s="2">
+        <v>2666</v>
+      </c>
     </row>
-    <row r="209" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>206</v>
       </c>
@@ -72806,8 +73429,11 @@
       <c r="DI209" s="2">
         <v>962</v>
       </c>
+      <c r="DJ209" s="2">
+        <v>963</v>
+      </c>
     </row>
-    <row r="210" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>207</v>
       </c>
@@ -73147,8 +73773,11 @@
       <c r="DI210" s="2">
         <v>14273</v>
       </c>
+      <c r="DJ210" s="2">
+        <v>14328</v>
+      </c>
     </row>
-    <row r="211" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>208</v>
       </c>
@@ -73488,8 +74117,11 @@
       <c r="DI211" s="2">
         <v>803</v>
       </c>
+      <c r="DJ211" s="2">
+        <v>810</v>
+      </c>
     </row>
-    <row r="212" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>209</v>
       </c>
@@ -73829,8 +74461,11 @@
       <c r="DI212" s="2">
         <v>10296</v>
       </c>
+      <c r="DJ212" s="2">
+        <v>10334</v>
+      </c>
     </row>
-    <row r="213" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>210</v>
       </c>
@@ -74170,8 +74805,11 @@
       <c r="DI213" s="2">
         <v>174</v>
       </c>
+      <c r="DJ213" s="2">
+        <v>177</v>
+      </c>
     </row>
-    <row r="214" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>211</v>
       </c>
@@ -74511,8 +75149,11 @@
       <c r="DI214" s="2">
         <v>143483</v>
       </c>
+      <c r="DJ214" s="2">
+        <v>147668</v>
+      </c>
     </row>
-    <row r="215" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>212</v>
       </c>
@@ -74852,8 +75493,11 @@
       <c r="DI215" s="2">
         <v>5679</v>
       </c>
+      <c r="DJ215" s="2">
+        <v>5783</v>
+      </c>
     </row>
-    <row r="216" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>213</v>
       </c>
@@ -75193,8 +75837,11 @@
       <c r="DI216" s="2">
         <v>31007</v>
       </c>
+      <c r="DJ216" s="2">
+        <v>31150</v>
+      </c>
     </row>
-    <row r="217" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>214</v>
       </c>
@@ -75534,8 +76181,11 @@
       <c r="DI217" s="2">
         <v>2734</v>
       </c>
+      <c r="DJ217" s="2">
+        <v>2791</v>
+      </c>
     </row>
-    <row r="218" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>215</v>
       </c>
@@ -75875,8 +76525,11 @@
       <c r="DI218" s="2">
         <v>723</v>
       </c>
+      <c r="DJ218" s="2">
+        <v>724</v>
+      </c>
     </row>
-    <row r="219" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>216</v>
       </c>
@@ -76216,8 +76869,11 @@
       <c r="DI219" s="2">
         <v>275</v>
       </c>
+      <c r="DJ219" s="2">
+        <v>278</v>
+      </c>
     </row>
-    <row r="220" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>217</v>
       </c>
@@ -76557,8 +77213,11 @@
       <c r="DI220" s="2">
         <v>1479</v>
       </c>
+      <c r="DJ220" s="2">
+        <v>1487</v>
+      </c>
     </row>
-    <row r="221" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>218</v>
       </c>
@@ -76898,8 +77557,11 @@
       <c r="DI221" s="2">
         <v>3409</v>
       </c>
+      <c r="DJ221" s="2">
+        <v>3418</v>
+      </c>
     </row>
-    <row r="222" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -77239,8 +77901,11 @@
       <c r="DI222" s="2">
         <v>1133908</v>
       </c>
+      <c r="DJ222" s="2">
+        <v>1147888</v>
+      </c>
     </row>
-    <row r="223" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>220</v>
       </c>
@@ -77580,8 +78245,11 @@
       <c r="DI223" s="2">
         <v>83476</v>
       </c>
+      <c r="DJ223" s="2">
+        <v>84133</v>
+      </c>
     </row>
-    <row r="224" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>221</v>
       </c>
@@ -77921,8 +78589,11 @@
       <c r="DI224" s="2">
         <v>310</v>
       </c>
+      <c r="DJ224" s="2">
+        <v>312</v>
+      </c>
     </row>
-    <row r="225" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>222</v>
       </c>
@@ -78262,8 +78933,11 @@
       <c r="DI225" s="2">
         <v>3244</v>
       </c>
+      <c r="DJ225" s="2">
+        <v>3255</v>
+      </c>
     </row>
-    <row r="226" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>223</v>
       </c>
@@ -78603,8 +79277,11 @@
       <c r="DI226" s="2">
         <v>244</v>
       </c>
+      <c r="DJ226" s="2">
+        <v>250</v>
+      </c>
     </row>
-    <row r="227" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>224</v>
       </c>
@@ -78944,8 +79621,11 @@
       <c r="DI227" s="2">
         <v>18623</v>
       </c>
+      <c r="DJ227" s="2">
+        <v>18692</v>
+      </c>
     </row>
-    <row r="228" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>225</v>
       </c>
@@ -79285,8 +79965,11 @@
       <c r="DI228" s="2">
         <v>80874</v>
       </c>
+      <c r="DJ228" s="2">
+        <v>81400</v>
+      </c>
     </row>
-    <row r="229" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>226</v>
       </c>
@@ -79626,8 +80309,11 @@
       <c r="DI229" s="2">
         <v>685362</v>
       </c>
+      <c r="DJ229" s="2">
+        <v>691616</v>
+      </c>
     </row>
-    <row r="230" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:114" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>227</v>
       </c>
@@ -79967,8 +80653,11 @@
       <c r="DI230" s="2">
 